--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="gcloud cheatsheet" sheetId="4" r:id="rId1"/>
     <sheet name="gsutil cheatsheet" sheetId="7" r:id="rId2"/>
+    <sheet name="misc cheatsheet" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="139">
   <si>
     <t>Creates a local clone of the remote repository at the current directory.</t>
   </si>
@@ -455,12 +456,6 @@
     <t>gcloud compute</t>
   </si>
   <si>
-    <t>Create and manipulate Google Cloud resources (virtual machines, disks, …)</t>
-  </si>
-  <si>
-    <t>Create and manipulate virtual machines</t>
-  </si>
-  <si>
     <t>Creates a virtual machine</t>
   </si>
   <si>
@@ -520,19 +515,62 @@
     <t>config</t>
   </si>
   <si>
-    <t>Manage oauth2 credentials</t>
-  </si>
-  <si>
     <t>Lists accounts</t>
   </si>
   <si>
-    <t>Manage configurations</t>
-  </si>
-  <si>
     <t>Lists all settings (set or not).</t>
   </si>
   <si>
-    <t>List set settings only</t>
+    <t>gcloud init --console-only</t>
+  </si>
+  <si>
+    <t>gcloud info</t>
+  </si>
+  <si>
+    <t># Update YUM with Cloud SDK repo information:
+sudo tee -a /etc/yum.repos.d/google-cloud-sdk.repo &lt;&lt; EOM
+[google-cloud-sdk]
+name=Google Cloud SDK
+baseurl=https://packages.cloud.google.com/yum/repos/cloud-sdk-el7-x86_64
+enabled=1
+gpgcheck=1
+repo_gpgcheck=1
+gpgkey=https://packages.cloud.google.com/yum/doc/yum-key.gpg
+       https://packages.cloud.google.com/yum/doc/rpm-package-key.gpg
+EOM
+# The indentation for the 2nd line of gpgkey is important.
+# Install the Cloud SDK
+sudo yum install google-cloud-sdk</t>
+  </si>
+  <si>
+    <t>Installs Google Cloud SDK (gcloud) in a CentOS or Redhat VM.</t>
+  </si>
+  <si>
+    <t>gcloud init</t>
+  </si>
+  <si>
+    <t>Initializes (or resets) gcloud configuration.</t>
+  </si>
+  <si>
+    <t>Initialization process may require to input your Google Cloud Platform credentials. If you are running gcloud init in a remote machine, this prevents gcloud init from trying to open a browser.</t>
+  </si>
+  <si>
+    <t>Displays or sort of stuff about the gcloud installation (versions, configuration file paths, etc…)</t>
+  </si>
+  <si>
+    <t>Creates or manipulates virtual machines</t>
+  </si>
+  <si>
+    <t>Creates or manipulates Google Cloud resources (virtual machines, disks, …)</t>
+  </si>
+  <si>
+    <t>Manages oauth2 credentials</t>
+  </si>
+  <si>
+    <t>Manages configurations</t>
+  </si>
+  <si>
+    <t>Lists set settings only</t>
   </si>
 </sst>
 </file>
@@ -1190,10 +1228,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AG126"/>
+  <dimension ref="B1:AG128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99:Z100"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="AF95" sqref="AF95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -4632,7 +4670,7 @@
       <c r="Y81" s="28"/>
       <c r="Z81" s="29"/>
       <c r="AA81" s="11" t="str">
-        <f t="shared" ref="AA81:AA123" ca="1" si="16">IFERROR(OFFSET(A81,0,MATCH("",B81:Z81,-1)),"")</f>
+        <f t="shared" ref="AA81:AA125" ca="1" si="16">IFERROR(OFFSET(A81,0,MATCH("",B81:Z81,-1)),"")</f>
         <v/>
       </c>
       <c r="AB81" s="2" t="s">
@@ -4673,7 +4711,7 @@
       <c r="Y82" s="28"/>
       <c r="Z82" s="29"/>
       <c r="AA82" s="11" t="str">
-        <f t="shared" ref="AA82:AA101" ca="1" si="17">IFERROR(OFFSET(A82,0,MATCH("",B82:Z82,-1)),"")</f>
+        <f t="shared" ref="AA82:AA103" ca="1" si="17">IFERROR(OFFSET(A82,0,MATCH("",B82:Z82,-1)),"")</f>
         <v>gcloud compute</v>
       </c>
       <c r="AB82" s="2" t="s">
@@ -4683,7 +4721,7 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
       <c r="AF82" s="40" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="AG82" s="1"/>
     </row>
@@ -4727,7 +4765,7 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="AG83" s="1"/>
     </row>
@@ -4765,19 +4803,19 @@
         <v>gcloud compute instances create gcp-test-1 --zone us-central1-a</v>
       </c>
       <c r="AB84" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC84" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD84" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AC84" s="5" t="s">
+      <c r="AE84" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AD84" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE84" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="AF84" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG84" s="1"/>
     </row>
@@ -4822,7 +4860,7 @@
     </row>
     <row r="86" spans="2:33">
       <c r="B86" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -4859,7 +4897,7 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AG86" s="1"/>
     </row>
@@ -4903,7 +4941,7 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG87" s="1"/>
     </row>
@@ -4948,7 +4986,7 @@
     </row>
     <row r="89" spans="2:33">
       <c r="B89" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -4986,7 +5024,7 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AG89" s="1"/>
     </row>
@@ -5032,7 +5070,7 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AG90" s="1"/>
     </row>
@@ -5078,7 +5116,7 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
       <c r="AF91" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AG91" s="1"/>
     </row>
@@ -5121,7 +5159,7 @@
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
     </row>
-    <row r="93" spans="2:33" collapsed="1">
+    <row r="93" spans="2:33">
       <c r="B93" s="27" t="str">
         <f>"gcloud help "&amp;AC93</f>
         <v>gcloud help config</v>
@@ -5151,24 +5189,26 @@
       <c r="Y93" s="28"/>
       <c r="Z93" s="29"/>
       <c r="AA93" s="11" t="str">
-        <f t="shared" ref="AA93:AA95" ca="1" si="20">IFERROR(OFFSET(A93,0,MATCH("",B93:Z93,-1)),"")</f>
+        <f t="shared" ref="AA93:AA97" ca="1" si="20">IFERROR(OFFSET(A93,0,MATCH("",B93:Z93,-1)),"")</f>
         <v>gcloud help config</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AC93" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
       <c r="AF93" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AG93" s="1"/>
     </row>
-    <row r="94" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B94" s="25"/>
+    <row r="94" spans="2:33">
+      <c r="B94" s="27" t="s">
+        <v>130</v>
+      </c>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
@@ -5195,7 +5235,7 @@
       <c r="Z94" s="29"/>
       <c r="AA94" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>gcloud init</v>
       </c>
       <c r="AB94" s="2" t="s">
         <v>44</v>
@@ -5203,12 +5243,17 @@
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
-      <c r="AF94" s="1"/>
+      <c r="AF94" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="AG94" s="1"/>
     </row>
-    <row r="95" spans="2:33" hidden="1" outlineLevel="1">
+    <row r="95" spans="2:33" ht="45" outlineLevel="1">
       <c r="B95" s="25"/>
-      <c r="C95" s="28"/>
+      <c r="C95" s="28" t="str">
+        <f>B94&amp;" --console-only"</f>
+        <v>gcloud init --console-only</v>
+      </c>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -5234,7 +5279,7 @@
       <c r="Z95" s="29"/>
       <c r="AA95" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v/>
+        <v>gcloud init --console-only</v>
       </c>
       <c r="AB95" s="2" t="s">
         <v>44</v>
@@ -5242,11 +5287,13 @@
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
-      <c r="AF95" s="1"/>
+      <c r="AF95" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="AG95" s="1"/>
     </row>
-    <row r="96" spans="2:33">
-      <c r="B96" s="27"/>
+    <row r="96" spans="2:33" outlineLevel="1">
+      <c r="B96" s="25"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
@@ -5272,7 +5319,7 @@
       <c r="Y96" s="28"/>
       <c r="Z96" s="29"/>
       <c r="AA96" s="11" t="str">
-        <f t="shared" ref="AA96:AA98" ca="1" si="21">IFERROR(OFFSET(A96,0,MATCH("",B96:Z96,-1)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB96" s="2" t="s">
@@ -5284,8 +5331,10 @@
       <c r="AF96" s="1"/>
       <c r="AG96" s="1"/>
     </row>
-    <row r="97" spans="2:33" outlineLevel="1">
-      <c r="B97" s="25"/>
+    <row r="97" spans="2:33" ht="30">
+      <c r="B97" s="27" t="s">
+        <v>127</v>
+      </c>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
@@ -5311,8 +5360,8 @@
       <c r="Y97" s="28"/>
       <c r="Z97" s="29"/>
       <c r="AA97" s="11" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
+        <f t="shared" ca="1" si="20"/>
+        <v>gcloud info</v>
       </c>
       <c r="AB97" s="2" t="s">
         <v>44</v>
@@ -5320,11 +5369,13 @@
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
-      <c r="AF97" s="1"/>
+      <c r="AF97" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="AG97" s="1"/>
     </row>
-    <row r="98" spans="2:33" outlineLevel="1">
-      <c r="B98" s="25"/>
+    <row r="98" spans="2:33">
+      <c r="B98" s="27"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
@@ -5350,7 +5401,7 @@
       <c r="Y98" s="28"/>
       <c r="Z98" s="29"/>
       <c r="AA98" s="11" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="AA98:AA100" ca="1" si="21">IFERROR(OFFSET(A98,0,MATCH("",B98:Z98,-1)),"")</f>
         <v/>
       </c>
       <c r="AB98" s="2" t="s">
@@ -5364,7 +5415,9 @@
     </row>
     <row r="99" spans="2:33" outlineLevel="1">
       <c r="B99" s="25"/>
-      <c r="C99" s="28"/>
+      <c r="C99" s="28" t="s">
+        <v>126</v>
+      </c>
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
@@ -5389,8 +5442,8 @@
       <c r="Y99" s="28"/>
       <c r="Z99" s="29"/>
       <c r="AA99" s="11" t="str">
-        <f t="shared" ref="AA99" ca="1" si="22">IFERROR(OFFSET(A99,0,MATCH("",B99:Z99,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="21"/>
+        <v>gcloud init --console-only</v>
       </c>
       <c r="AB99" s="2" t="s">
         <v>44</v>
@@ -5403,7 +5456,9 @@
     </row>
     <row r="100" spans="2:33" outlineLevel="1">
       <c r="B100" s="25"/>
-      <c r="C100" s="28"/>
+      <c r="C100" s="28" t="s">
+        <v>127</v>
+      </c>
       <c r="D100" s="28"/>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
@@ -5428,8 +5483,8 @@
       <c r="Y100" s="28"/>
       <c r="Z100" s="29"/>
       <c r="AA100" s="11" t="str">
-        <f t="shared" ref="AA100" ca="1" si="23">IFERROR(OFFSET(A100,0,MATCH("",B100:Z100,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="21"/>
+        <v>gcloud info</v>
       </c>
       <c r="AB100" s="2" t="s">
         <v>44</v>
@@ -5440,10 +5495,8 @@
       <c r="AF100" s="1"/>
       <c r="AG100" s="1"/>
     </row>
-    <row r="101" spans="2:33" collapsed="1">
-      <c r="B101" s="27" t="s">
-        <v>112</v>
-      </c>
+    <row r="101" spans="2:33" outlineLevel="1">
+      <c r="B101" s="25"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
       <c r="E101" s="28"/>
@@ -5469,9 +5522,8 @@
       <c r="Y101" s="28"/>
       <c r="Z101" s="29"/>
       <c r="AA101" s="11" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v xml:space="preserve">
-</v>
+        <f t="shared" ref="AA101" ca="1" si="22">IFERROR(OFFSET(A101,0,MATCH("",B101:Z101,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB101" s="2" t="s">
         <v>44</v>
@@ -5482,8 +5534,8 @@
       <c r="AF101" s="1"/>
       <c r="AG101" s="1"/>
     </row>
-    <row r="102" spans="2:33">
-      <c r="B102" s="27"/>
+    <row r="102" spans="2:33" outlineLevel="1">
+      <c r="B102" s="25"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
@@ -5509,7 +5561,7 @@
       <c r="Y102" s="28"/>
       <c r="Z102" s="29"/>
       <c r="AA102" s="11" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="AA102" ca="1" si="23">IFERROR(OFFSET(A102,0,MATCH("",B102:Z102,-1)),"")</f>
         <v/>
       </c>
       <c r="AB102" s="2" t="s">
@@ -5521,8 +5573,10 @@
       <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
     </row>
-    <row r="103" spans="2:33" outlineLevel="1">
-      <c r="B103" s="3"/>
+    <row r="103" spans="2:33" collapsed="1">
+      <c r="B103" s="27" t="s">
+        <v>110</v>
+      </c>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
       <c r="E103" s="28"/>
@@ -5548,8 +5602,9 @@
       <c r="Y103" s="28"/>
       <c r="Z103" s="29"/>
       <c r="AA103" s="11" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
+        <f t="shared" ca="1" si="17"/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB103" s="2" t="s">
         <v>44</v>
@@ -5560,8 +5615,8 @@
       <c r="AF103" s="1"/>
       <c r="AG103" s="1"/>
     </row>
-    <row r="104" spans="2:33" outlineLevel="1">
-      <c r="B104" s="3"/>
+    <row r="104" spans="2:33">
+      <c r="B104" s="27"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
       <c r="E104" s="28"/>
@@ -5599,9 +5654,9 @@
       <c r="AF104" s="1"/>
       <c r="AG104" s="1"/>
     </row>
-    <row r="105" spans="2:33" outlineLevel="2">
+    <row r="105" spans="2:33" outlineLevel="1">
       <c r="B105" s="3"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
@@ -5638,9 +5693,9 @@
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
     </row>
-    <row r="106" spans="2:33" outlineLevel="2" collapsed="1">
+    <row r="106" spans="2:33" outlineLevel="1">
       <c r="B106" s="3"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="28"/>
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
@@ -5677,10 +5732,10 @@
       <c r="AF106" s="1"/>
       <c r="AG106" s="1"/>
     </row>
-    <row r="107" spans="2:33" hidden="1" outlineLevel="3">
+    <row r="107" spans="2:33" outlineLevel="2">
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="D107" s="28"/>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
       <c r="G107" s="28"/>
@@ -5716,10 +5771,10 @@
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
     </row>
-    <row r="108" spans="2:33" hidden="1" outlineLevel="3">
+    <row r="108" spans="2:33" outlineLevel="2" collapsed="1">
       <c r="B108" s="3"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="D108" s="28"/>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
       <c r="G108" s="28"/>
@@ -5755,11 +5810,11 @@
       <c r="AF108" s="1"/>
       <c r="AG108" s="1"/>
     </row>
-    <row r="109" spans="2:33" hidden="1" outlineLevel="4">
+    <row r="109" spans="2:33" hidden="1" outlineLevel="3">
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="E109" s="28"/>
       <c r="F109" s="28"/>
       <c r="G109" s="28"/>
       <c r="H109" s="28"/>
@@ -5794,11 +5849,11 @@
       <c r="AF109" s="1"/>
       <c r="AG109" s="1"/>
     </row>
-    <row r="110" spans="2:33" hidden="1" outlineLevel="4">
+    <row r="110" spans="2:33" hidden="1" outlineLevel="3">
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="E110" s="28"/>
       <c r="F110" s="28"/>
       <c r="G110" s="28"/>
       <c r="H110" s="28"/>
@@ -5833,12 +5888,12 @@
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
     </row>
-    <row r="111" spans="2:33" hidden="1" outlineLevel="5">
+    <row r="111" spans="2:33" hidden="1" outlineLevel="4">
       <c r="B111" s="3"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
+      <c r="F111" s="28"/>
       <c r="G111" s="28"/>
       <c r="H111" s="28"/>
       <c r="I111" s="28"/>
@@ -5872,12 +5927,12 @@
       <c r="AF111" s="1"/>
       <c r="AG111" s="1"/>
     </row>
-    <row r="112" spans="2:33" hidden="1" outlineLevel="5">
+    <row r="112" spans="2:33" hidden="1" outlineLevel="4">
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
+      <c r="F112" s="28"/>
       <c r="G112" s="28"/>
       <c r="H112" s="28"/>
       <c r="I112" s="28"/>
@@ -5911,13 +5966,13 @@
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
     </row>
-    <row r="113" spans="2:33" hidden="1" outlineLevel="6">
+    <row r="113" spans="2:33" hidden="1" outlineLevel="5">
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="28"/>
       <c r="H113" s="28"/>
       <c r="I113" s="28"/>
       <c r="J113" s="28"/>
@@ -5950,13 +6005,13 @@
       <c r="AF113" s="1"/>
       <c r="AG113" s="1"/>
     </row>
-    <row r="114" spans="2:33" hidden="1" outlineLevel="6">
+    <row r="114" spans="2:33" hidden="1" outlineLevel="5">
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="G114" s="28"/>
       <c r="H114" s="28"/>
       <c r="I114" s="28"/>
       <c r="J114" s="28"/>
@@ -5989,14 +6044,14 @@
       <c r="AF114" s="1"/>
       <c r="AG114" s="1"/>
     </row>
-    <row r="115" spans="2:33" hidden="1" outlineLevel="7">
+    <row r="115" spans="2:33" hidden="1" outlineLevel="6">
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+      <c r="H115" s="28"/>
       <c r="I115" s="28"/>
       <c r="J115" s="28"/>
       <c r="K115" s="28"/>
@@ -6028,14 +6083,14 @@
       <c r="AF115" s="1"/>
       <c r="AG115" s="1"/>
     </row>
-    <row r="116" spans="2:33" hidden="1" outlineLevel="7">
+    <row r="116" spans="2:33" hidden="1" outlineLevel="6">
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
+      <c r="H116" s="28"/>
       <c r="I116" s="28"/>
       <c r="J116" s="28"/>
       <c r="K116" s="28"/>
@@ -6067,14 +6122,14 @@
       <c r="AF116" s="1"/>
       <c r="AG116" s="1"/>
     </row>
-    <row r="117" spans="2:33" hidden="1" outlineLevel="6">
+    <row r="117" spans="2:33" hidden="1" outlineLevel="7">
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="28"/>
+      <c r="H117" s="4"/>
       <c r="I117" s="28"/>
       <c r="J117" s="28"/>
       <c r="K117" s="28"/>
@@ -6106,14 +6161,14 @@
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
     </row>
-    <row r="118" spans="2:33" hidden="1" outlineLevel="5">
+    <row r="118" spans="2:33" hidden="1" outlineLevel="7">
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
       <c r="I118" s="28"/>
       <c r="J118" s="28"/>
       <c r="K118" s="28"/>
@@ -6145,13 +6200,13 @@
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
     </row>
-    <row r="119" spans="2:33" hidden="1" outlineLevel="4">
+    <row r="119" spans="2:33" hidden="1" outlineLevel="6">
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
       <c r="H119" s="28"/>
       <c r="I119" s="28"/>
       <c r="J119" s="28"/>
@@ -6184,12 +6239,12 @@
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
     </row>
-    <row r="120" spans="2:33" hidden="1" outlineLevel="3">
+    <row r="120" spans="2:33" hidden="1" outlineLevel="5">
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
       <c r="G120" s="28"/>
       <c r="H120" s="28"/>
       <c r="I120" s="28"/>
@@ -6223,11 +6278,11 @@
       <c r="AF120" s="1"/>
       <c r="AG120" s="1"/>
     </row>
-    <row r="121" spans="2:33" hidden="1" outlineLevel="3">
+    <row r="121" spans="2:33" hidden="1" outlineLevel="4">
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
       <c r="F121" s="28"/>
       <c r="G121" s="28"/>
       <c r="H121" s="28"/>
@@ -6262,10 +6317,10 @@
       <c r="AF121" s="1"/>
       <c r="AG121" s="1"/>
     </row>
-    <row r="122" spans="2:33" outlineLevel="2">
+    <row r="122" spans="2:33" hidden="1" outlineLevel="3">
       <c r="B122" s="3"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
       <c r="G122" s="28"/>
@@ -6301,9 +6356,9 @@
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
     </row>
-    <row r="123" spans="2:33">
-      <c r="B123" s="27"/>
-      <c r="C123" s="28"/>
+    <row r="123" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="B123" s="3"/>
+      <c r="C123" s="4"/>
       <c r="D123" s="28"/>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
@@ -6340,13 +6395,91 @@
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
     </row>
-    <row r="126" spans="2:33" ht="15" customHeight="1"/>
+    <row r="124" spans="2:33" outlineLevel="2">
+      <c r="B124" s="3"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="28"/>
+      <c r="L124" s="28"/>
+      <c r="M124" s="28"/>
+      <c r="N124" s="28"/>
+      <c r="O124" s="28"/>
+      <c r="P124" s="28"/>
+      <c r="Q124" s="28"/>
+      <c r="R124" s="28"/>
+      <c r="S124" s="28"/>
+      <c r="T124" s="28"/>
+      <c r="U124" s="28"/>
+      <c r="V124" s="28"/>
+      <c r="W124" s="28"/>
+      <c r="X124" s="28"/>
+      <c r="Y124" s="28"/>
+      <c r="Z124" s="29"/>
+      <c r="AA124" s="11" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB124" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+      <c r="AF124" s="1"/>
+      <c r="AG124" s="1"/>
+    </row>
+    <row r="125" spans="2:33">
+      <c r="B125" s="27"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="28"/>
+      <c r="M125" s="28"/>
+      <c r="N125" s="28"/>
+      <c r="O125" s="28"/>
+      <c r="P125" s="28"/>
+      <c r="Q125" s="28"/>
+      <c r="R125" s="28"/>
+      <c r="S125" s="28"/>
+      <c r="T125" s="28"/>
+      <c r="U125" s="28"/>
+      <c r="V125" s="28"/>
+      <c r="W125" s="28"/>
+      <c r="X125" s="28"/>
+      <c r="Y125" s="28"/>
+      <c r="Z125" s="29"/>
+      <c r="AA125" s="11" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AB125" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
+      <c r="AF125" s="1"/>
+      <c r="AG125" s="1"/>
+    </row>
+    <row r="128" spans="2:33" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="126">
     <mergeCell ref="B82:Z82"/>
     <mergeCell ref="C83:Z83"/>
     <mergeCell ref="C85:Z85"/>
-    <mergeCell ref="B101:Z101"/>
+    <mergeCell ref="B103:Z103"/>
     <mergeCell ref="D84:Z84"/>
     <mergeCell ref="B86:Z86"/>
     <mergeCell ref="C87:Z87"/>
@@ -6354,15 +6487,17 @@
     <mergeCell ref="B89:Z89"/>
     <mergeCell ref="C90:Z90"/>
     <mergeCell ref="C92:Z92"/>
-    <mergeCell ref="B96:Z96"/>
-    <mergeCell ref="C97:Z97"/>
-    <mergeCell ref="C98:Z98"/>
+    <mergeCell ref="B98:Z98"/>
     <mergeCell ref="C99:Z99"/>
     <mergeCell ref="C100:Z100"/>
+    <mergeCell ref="C101:Z101"/>
+    <mergeCell ref="C102:Z102"/>
     <mergeCell ref="B93:Z93"/>
-    <mergeCell ref="C94:Z94"/>
     <mergeCell ref="C95:Z95"/>
     <mergeCell ref="C91:Z91"/>
+    <mergeCell ref="B94:Z94"/>
+    <mergeCell ref="C96:Z96"/>
+    <mergeCell ref="B97:Z97"/>
     <mergeCell ref="C43:Z43"/>
     <mergeCell ref="I60:Z60"/>
     <mergeCell ref="C66:Z66"/>
@@ -6395,7 +6530,7 @@
     <mergeCell ref="B18:Z18"/>
     <mergeCell ref="C19:Z19"/>
     <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="D106:Z106"/>
+    <mergeCell ref="D108:Z108"/>
     <mergeCell ref="C21:Z21"/>
     <mergeCell ref="B45:Z45"/>
     <mergeCell ref="C46:Z46"/>
@@ -6422,40 +6557,40 @@
     <mergeCell ref="C9:Z9"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="B12:Z12"/>
-    <mergeCell ref="H117:Z117"/>
-    <mergeCell ref="G118:Z118"/>
-    <mergeCell ref="F119:Z119"/>
+    <mergeCell ref="H119:Z119"/>
+    <mergeCell ref="G120:Z120"/>
+    <mergeCell ref="F121:Z121"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B4:Z4"/>
     <mergeCell ref="C5:Z5"/>
     <mergeCell ref="D6:Z6"/>
     <mergeCell ref="C20:Z20"/>
-    <mergeCell ref="G111:Z111"/>
-    <mergeCell ref="G112:Z112"/>
-    <mergeCell ref="H113:Z113"/>
-    <mergeCell ref="H114:Z114"/>
-    <mergeCell ref="I115:Z115"/>
-    <mergeCell ref="F110:Z110"/>
-    <mergeCell ref="I116:Z116"/>
+    <mergeCell ref="G113:Z113"/>
+    <mergeCell ref="G114:Z114"/>
+    <mergeCell ref="H115:Z115"/>
+    <mergeCell ref="H116:Z116"/>
+    <mergeCell ref="I117:Z117"/>
+    <mergeCell ref="F112:Z112"/>
+    <mergeCell ref="I118:Z118"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="B26:Z26"/>
     <mergeCell ref="B3:Z3"/>
     <mergeCell ref="D7:Z7"/>
     <mergeCell ref="D8:Z8"/>
     <mergeCell ref="B13:Z13"/>
-    <mergeCell ref="B123:Z123"/>
+    <mergeCell ref="B125:Z125"/>
     <mergeCell ref="B25:Z25"/>
-    <mergeCell ref="E120:Z120"/>
-    <mergeCell ref="D121:Z121"/>
-    <mergeCell ref="C122:Z122"/>
-    <mergeCell ref="E108:Z108"/>
-    <mergeCell ref="F109:Z109"/>
+    <mergeCell ref="E122:Z122"/>
+    <mergeCell ref="D123:Z123"/>
+    <mergeCell ref="C124:Z124"/>
+    <mergeCell ref="E110:Z110"/>
+    <mergeCell ref="F111:Z111"/>
     <mergeCell ref="B81:Z81"/>
-    <mergeCell ref="E107:Z107"/>
-    <mergeCell ref="B102:Z102"/>
-    <mergeCell ref="C103:Z103"/>
-    <mergeCell ref="C104:Z104"/>
-    <mergeCell ref="D105:Z105"/>
+    <mergeCell ref="E109:Z109"/>
+    <mergeCell ref="B104:Z104"/>
+    <mergeCell ref="C105:Z105"/>
+    <mergeCell ref="C106:Z106"/>
+    <mergeCell ref="D107:Z107"/>
     <mergeCell ref="B67:Z67"/>
     <mergeCell ref="C69:Z69"/>
     <mergeCell ref="C77:Z77"/>
@@ -6479,10 +6614,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AG114"/>
+  <dimension ref="B1:AG34"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="AF84" sqref="AF84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -6543,51 +6678,1357 @@
       </c>
     </row>
     <row r="2" spans="2:33">
-      <c r="B2" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="35"/>
+      <c r="B2" s="27" t="str">
+        <f>"gsutil mb gs://"&amp;AC2</f>
+        <v>gsutil mb gs://unique-name-1</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
       <c r="AA2" s="11" t="str">
-        <f t="shared" ref="AA2:AA43" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
-        <v>git config -l --global</v>
+        <f t="shared" ref="AA2" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <v>gsutil mb gs://unique-name-1</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG2" s="6"/>
+      <c r="AF2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="2:33">
+      <c r="B3" s="27" t="str">
+        <f>"gsutil cp "&amp;AC3&amp;" gs://"&amp;AE3</f>
+        <v>gsutil cp test.dat gs://unique-name-1</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="11" t="str">
+        <f t="shared" ref="AA3" ca="1" si="1">IFERROR(OFFSET(A3,0,MATCH("",B3:Z3,-1)),"")</f>
+        <v>gsutil cp test.dat gs://unique-name-1</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="2:33">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="11" t="str">
+        <f t="shared" ref="AA4:AA20" ca="1" si="2">IFERROR(OFFSET(A4,0,MATCH("",B4:Z4,-1)),"")</f>
+        <v/>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="2:33" outlineLevel="1">
+      <c r="B5" s="25"/>
+      <c r="C5" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>gsutil mb gs://unique-name</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="2:33" outlineLevel="1">
+      <c r="B6" s="25"/>
+      <c r="C6" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>gsutil cp test.dat gs://unique-name</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="2:33" outlineLevel="1">
+      <c r="B7" s="25"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="2:33" outlineLevel="1">
+      <c r="B8" s="25"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="2:33" collapsed="1">
+      <c r="B9" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v xml:space="preserve">
+</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="2:33">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="2:33" outlineLevel="1">
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="2:33" outlineLevel="1">
+      <c r="B12" s="25"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="2:33" outlineLevel="2">
+      <c r="B13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="2:33" outlineLevel="2" collapsed="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="B16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="2:33" hidden="1" outlineLevel="4">
+      <c r="B17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="2:33" hidden="1" outlineLevel="4">
+      <c r="B18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="2:33" hidden="1" outlineLevel="5">
+      <c r="B19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="2:33" hidden="1" outlineLevel="5">
+      <c r="B20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="2:33" hidden="1" outlineLevel="6">
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="11" t="str">
+        <f t="shared" ref="AA21:AA59" ca="1" si="3">IFERROR(OFFSET(A21,0,MATCH("",B21:Z21,-1)),"")</f>
+        <v/>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="2:33" hidden="1" outlineLevel="6">
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="2:33" hidden="1" outlineLevel="7">
+      <c r="B23" s="25"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="2:33" hidden="1" outlineLevel="7">
+      <c r="B24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="2:33" hidden="1" outlineLevel="6">
+      <c r="B25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="2:33" hidden="1" outlineLevel="5">
+      <c r="B26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="2:33" hidden="1" outlineLevel="4">
+      <c r="B27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="B29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="2:33" outlineLevel="2">
+      <c r="B30" s="25"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="2:33">
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="34" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="G26:Z26"/>
+    <mergeCell ref="F27:Z27"/>
+    <mergeCell ref="E28:Z28"/>
+    <mergeCell ref="D29:Z29"/>
+    <mergeCell ref="C30:Z30"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="G20:Z20"/>
+    <mergeCell ref="H21:Z21"/>
+    <mergeCell ref="H22:Z22"/>
+    <mergeCell ref="I23:Z23"/>
+    <mergeCell ref="I24:Z24"/>
+    <mergeCell ref="H25:Z25"/>
+    <mergeCell ref="D14:Z14"/>
+    <mergeCell ref="E15:Z15"/>
+    <mergeCell ref="E16:Z16"/>
+    <mergeCell ref="F17:Z17"/>
+    <mergeCell ref="F18:Z18"/>
+    <mergeCell ref="G19:Z19"/>
+    <mergeCell ref="C8:Z8"/>
+    <mergeCell ref="B9:Z9"/>
+    <mergeCell ref="B10:Z10"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="C12:Z12"/>
+    <mergeCell ref="D13:Z13"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="C5:Z5"/>
+    <mergeCell ref="C6:Z6"/>
+    <mergeCell ref="C7:Z7"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="AB1:AE1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B1:AG28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="26" width="2.85546875" customWidth="1"/>
+    <col min="27" max="27" width="50" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="47.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="20.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="44.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="46" customWidth="1"/>
+    <col min="34" max="34" width="68.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33">
+      <c r="B1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" ht="219" customHeight="1">
+      <c r="B2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="11" t="str">
+        <f t="shared" ref="AA2:AA25" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <v/>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="2:33" collapsed="1">
       <c r="B3" s="27" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -6615,7 +8056,8 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git config --local -l</v>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>44</v>
@@ -6623,63 +8065,51 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="2:33" ht="60.75" customHeight="1" collapsed="1">
-      <c r="B4" s="33" t="str">
-        <f>"git config --global "&amp;AC4&amp;" "&amp;AE4</f>
-        <v xml:space="preserve">git config --global  </v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="35"/>
+    <row r="4" spans="2:33">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29"/>
       <c r="AA4" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">git config --global  </v>
+        <v/>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG4" s="6"/>
-    </row>
-    <row r="5" spans="2:33" hidden="1" outlineLevel="1">
+        <v>44</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="2:33" outlineLevel="1">
       <c r="B5" s="25"/>
-      <c r="C5" s="28" t="str">
-        <f>"git config --global core.autocrlf "&amp;AC5</f>
-        <v>git config --global core.autocrlf input</v>
-      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -6705,27 +8135,21 @@
       <c r="Z5" s="29"/>
       <c r="AA5" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git config --global core.autocrlf input</v>
+        <v/>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="2:33" hidden="1" outlineLevel="2">
+    <row r="6" spans="2:33" outlineLevel="1">
       <c r="B6" s="25"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="28" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -6750,7 +8174,7 @@
       <c r="Z6" s="29"/>
       <c r="AA6" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git config --global core.autocrlf input</v>
+        <v/>
       </c>
       <c r="AB6" s="2" t="s">
         <v>44</v>
@@ -6758,17 +8182,13 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="2:33" ht="30" hidden="1" outlineLevel="2">
+    <row r="7" spans="2:33" outlineLevel="2">
       <c r="B7" s="25"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="28" t="s">
-        <v>11</v>
-      </c>
+      <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -6793,7 +8213,7 @@
       <c r="Z7" s="29"/>
       <c r="AA7" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git config --global core.autocrlf true</v>
+        <v/>
       </c>
       <c r="AB7" s="2" t="s">
         <v>44</v>
@@ -6801,17 +8221,13 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="2:33" hidden="1" outlineLevel="2">
+    <row r="8" spans="2:33" outlineLevel="2" collapsed="1">
       <c r="B8" s="25"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="28" t="s">
-        <v>9</v>
-      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -6836,7 +8252,7 @@
       <c r="Z8" s="29"/>
       <c r="AA8" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git config --global core.autocrlf false</v>
+        <v/>
       </c>
       <c r="AB8" s="2" t="s">
         <v>44</v>
@@ -6844,17 +8260,13 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="2:33" ht="30" hidden="1" outlineLevel="1">
+    <row r="9" spans="2:33" hidden="1" outlineLevel="3">
       <c r="B9" s="25"/>
-      <c r="C9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="28"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -6879,7 +8291,7 @@
       <c r="Z9" s="29"/>
       <c r="AA9" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git config --global credential.helper cache</v>
+        <v/>
       </c>
       <c r="AB9" s="2" t="s">
         <v>44</v>
@@ -6887,66 +8299,53 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="7" t="s">
-        <v>93</v>
-      </c>
+      <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" ht="30" hidden="1" outlineLevel="2">
+    <row r="10" spans="2:33" hidden="1" outlineLevel="3">
       <c r="B10" s="25"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="27" t="str">
-        <f>"git config --global credential.helper 'cache --timeout "&amp;AC10*3600+AE10*60&amp;"'"</f>
-        <v>git config --global credential.helper 'cache --timeout 14400'</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="37"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="29"/>
       <c r="AA10" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git config --global credential.helper 'cache --timeout 14400'</v>
+        <v/>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>94</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="2:33" hidden="1" outlineLevel="2">
+    <row r="11" spans="2:33" hidden="1" outlineLevel="4">
       <c r="B11" s="25"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -6968,24 +8367,24 @@
       <c r="X11" s="28"/>
       <c r="Y11" s="28"/>
       <c r="Z11" s="29"/>
-      <c r="AA11" s="11"/>
+      <c r="AA11" s="11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="AB11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="7"/>
+      <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="2:33" ht="40.5" customHeight="1" collapsed="1">
-      <c r="B12" s="27" t="str">
-        <f>"git config --global --unset "&amp;AC12</f>
-        <v xml:space="preserve">git config --global --unset </v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+    <row r="12" spans="2:33" hidden="1" outlineLevel="4">
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -7009,50 +8408,46 @@
       <c r="Z12" s="29"/>
       <c r="AA12" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">git config --global --unset </v>
+        <v/>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="2:33">
-      <c r="B13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="35"/>
+    <row r="13" spans="2:33" hidden="1" outlineLevel="5">
+      <c r="B13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="29"/>
       <c r="AA13" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git init</v>
+        <v/>
       </c>
       <c r="AB13" s="2" t="s">
         <v>44</v>
@@ -7060,42 +8455,38 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG13" s="6"/>
-    </row>
-    <row r="14" spans="2:33">
-      <c r="B14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="35"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="2:33" hidden="1" outlineLevel="5">
+      <c r="B14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="29"/>
       <c r="AA14" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git status</v>
+        <v/>
       </c>
       <c r="AB14" s="2" t="s">
         <v>44</v>
@@ -7103,21 +8494,16 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG14" s="6"/>
-    </row>
-    <row r="15" spans="2:33" collapsed="1">
-      <c r="B15" s="27" t="str">
-        <f>"git add "&amp;AC15</f>
-        <v>git add .</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="2:33" hidden="1" outlineLevel="6">
+      <c r="B15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -7139,31 +8525,24 @@
       <c r="Z15" s="29"/>
       <c r="AA15" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git add .</v>
+        <v/>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="2:33" collapsed="1">
-      <c r="B16" s="27" t="str">
-        <f>"git commit -m """&amp;AC16&amp;""""</f>
-        <v>git commit -m "Initial commit."</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+    <row r="16" spans="2:33" hidden="1" outlineLevel="6">
+      <c r="B16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -7185,32 +8564,25 @@
       <c r="Z16" s="29"/>
       <c r="AA16" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git commit -m "Initial commit."</v>
+        <v/>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="2:33" collapsed="1">
-      <c r="B17" s="27" t="str">
-        <f>"git commit -a -m """&amp;AC17&amp;""""</f>
-        <v>git commit -a -m "Initial commit."</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+    <row r="17" spans="2:33" hidden="1" outlineLevel="7">
+      <c r="B17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
@@ -7231,52 +8603,46 @@
       <c r="Z17" s="29"/>
       <c r="AA17" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git commit -a -m "Initial commit."</v>
+        <v/>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="2:33" collapsed="1">
-      <c r="B18" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="35"/>
+    <row r="18" spans="2:33" hidden="1" outlineLevel="7">
+      <c r="B18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="29"/>
       <c r="AA18" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git push</v>
+        <v/>
       </c>
       <c r="AB18" s="2" t="s">
         <v>44</v>
@@ -7284,21 +8650,16 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG18" s="6"/>
-    </row>
-    <row r="19" spans="2:33" hidden="1" outlineLevel="1">
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="2:33" hidden="1" outlineLevel="6">
       <c r="B19" s="25"/>
-      <c r="C19" s="28" t="str">
-        <f>"git push -u origin "&amp;AC19</f>
-        <v xml:space="preserve">git push -u origin </v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -7320,28 +8681,23 @@
       <c r="Z19" s="29"/>
       <c r="AA19" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">git push -u origin </v>
+        <v/>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC19" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="2:33" hidden="1" outlineLevel="1">
+    <row r="20" spans="2:33" hidden="1" outlineLevel="5">
       <c r="B20" s="25"/>
-      <c r="C20" s="28" t="str">
-        <f>"git push origin "&amp;AC20</f>
-        <v>git push origin v0.1.0</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -7364,26 +8720,22 @@
       <c r="Z20" s="29"/>
       <c r="AA20" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git push origin v0.1.0</v>
+        <v/>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="2:33" hidden="1" outlineLevel="1">
+    <row r="21" spans="2:33" hidden="1" outlineLevel="4">
       <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -7418,12 +8770,10 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="2:33" collapsed="1">
-      <c r="B22" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+    <row r="22" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
@@ -7448,7 +8798,7 @@
       <c r="Z22" s="29"/>
       <c r="AA22" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git checkout</v>
+        <v/>
       </c>
       <c r="AB22" s="2" t="s">
         <v>44</v>
@@ -7459,12 +8809,9 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="2:33" ht="30" hidden="1" outlineLevel="1">
+    <row r="23" spans="2:33" hidden="1" outlineLevel="3">
       <c r="B23" s="25"/>
-      <c r="C23" s="28" t="str">
-        <f>"git checkout -b "&amp;AC23&amp;" origin/"&amp;AC23</f>
-        <v>git checkout -b  origin/</v>
-      </c>
+      <c r="C23" s="24"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -7490,25 +8837,20 @@
       <c r="Z23" s="29"/>
       <c r="AA23" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git checkout -b  origin/</v>
+        <v/>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC23" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="2:33" ht="30" hidden="1" outlineLevel="1">
+    <row r="24" spans="2:33" outlineLevel="2">
       <c r="B24" s="25"/>
-      <c r="C24" s="28" t="str">
-        <f>"git checkout -b "&amp;AC24</f>
-        <v>git checkout -b develop</v>
-      </c>
+      <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -7534,26 +8876,19 @@
       <c r="Z24" s="29"/>
       <c r="AA24" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>git checkout -b develop</v>
+        <v/>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-      <c r="AF24" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="2:33" ht="43.5" customHeight="1" collapsed="1">
-      <c r="B25" s="27" t="str">
-        <f>"git clone "&amp;IF(NOT(ISBLANK(AE25)),AE25&amp;"@","")&amp;AC25</f>
-        <v xml:space="preserve">git clone </v>
-      </c>
+    <row r="25" spans="2:33">
+      <c r="B25" s="27"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -7580,3669 +8915,46 @@
       <c r="Z25" s="29"/>
       <c r="AA25" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">git clone </v>
+        <v/>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="12" t="s">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="2:33" ht="30">
-      <c r="B26" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git reset --hard</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG26" s="6"/>
-    </row>
-    <row r="27" spans="2:33" collapsed="1">
-      <c r="B27" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git branch</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B28" s="25"/>
-      <c r="C28" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git branch --list</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG28" s="1"/>
-    </row>
-    <row r="29" spans="2:33" hidden="1" outlineLevel="2">
-      <c r="B29" s="25"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="29" t="str">
-        <f>"git branch --list "&amp;AC29</f>
-        <v>git branch --list release_test/*</v>
-      </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git branch --list release_test/*</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="2:33" hidden="1" outlineLevel="2">
-      <c r="B30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B31" s="25"/>
-      <c r="C31" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git branch -r</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="32" spans="2:33" hidden="1" outlineLevel="2">
-      <c r="B32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="29" t="str">
-        <f>"git branch -r --list "&amp;AC32</f>
-        <v>git branch -r --list origin/release_test/*</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git branch -r --list origin/release_test/*</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG32" s="1"/>
-    </row>
-    <row r="33" spans="2:33" hidden="1" outlineLevel="2">
-      <c r="B33" s="25"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-    </row>
-    <row r="34" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B34" s="25"/>
-      <c r="C34" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git branch -a</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG34" s="1"/>
-    </row>
-    <row r="35" spans="2:33" hidden="1" outlineLevel="2">
-      <c r="B35" s="25"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="29" t="str">
-        <f>"git branch -a --list "&amp;AC35</f>
-        <v>git branch -a --list origin/release_test/*</v>
-      </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="39"/>
-      <c r="AA35" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git branch -a --list origin/release_test/*</v>
-      </c>
-      <c r="AB35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG35" s="1"/>
-    </row>
-    <row r="36" spans="2:33" hidden="1" outlineLevel="2">
-      <c r="B36" s="25"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-    </row>
-    <row r="37" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B37" s="25"/>
-      <c r="C37" s="28" t="str">
-        <f>"git branch -d "&amp;AC37</f>
-        <v>git branch -d feature/tmp</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git branch -d feature/tmp</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG37" s="1"/>
-    </row>
-    <row r="38" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B38" s="25"/>
-      <c r="C38" s="28" t="str">
-        <f>"git push origin :"&amp;AC38</f>
-        <v>git push origin :feature/tmp</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git push origin :feature/tmp</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG38" s="1"/>
-    </row>
-    <row r="39" spans="2:33" ht="30" hidden="1" outlineLevel="1">
-      <c r="B39" s="25"/>
-      <c r="C39" s="28" t="str">
-        <f>"git branch -dr origin/"&amp;AC39</f>
-        <v>git branch -dr origin/</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git branch -dr origin/</v>
-      </c>
-      <c r="AB39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG39" s="1"/>
-    </row>
-    <row r="40" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B40" s="25"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="1"/>
-    </row>
-    <row r="41" spans="2:33" collapsed="1">
-      <c r="B41" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>git tag</v>
-      </c>
-      <c r="AB41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-    </row>
-    <row r="42" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B42" s="25"/>
-      <c r="C42" s="28" t="str">
-        <f>"git tag "&amp;AC42</f>
-        <v xml:space="preserve">git tag </v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">git tag </v>
-      </c>
-      <c r="AB42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG42" s="1"/>
-    </row>
-    <row r="43" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B43" s="25"/>
-      <c r="C43" s="28" t="str">
-        <f>"git tag -d "&amp;AC43</f>
-        <v xml:space="preserve">git tag -d </v>
-      </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">git tag -d </v>
-      </c>
-      <c r="AB43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG43" s="1"/>
-    </row>
-    <row r="44" spans="2:33" ht="30">
-      <c r="B44" s="33" t="str">
-        <f>"git push origin :refs/tags/"&amp;AC44</f>
-        <v>git push origin :refs/tags/</v>
-      </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="11" t="str">
-        <f ca="1">IFERROR(OFFSET(A44,0,MATCH("",B44:Z44,-1)),"")</f>
-        <v>git push origin :refs/tags/</v>
-      </c>
-      <c r="AB44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG44" s="6"/>
-    </row>
-    <row r="45" spans="2:33" collapsed="1">
-      <c r="B45" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="11" t="str">
-        <f t="shared" ref="AA45:AA100" ca="1" si="1">IFERROR(OFFSET(A45,0,MATCH("",B45:Z45,-1)),"")</f>
-        <v>git remote</v>
-      </c>
-      <c r="AB45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG45" s="1"/>
-    </row>
-    <row r="46" spans="2:33" ht="30" hidden="1" outlineLevel="1">
-      <c r="B46" s="25"/>
-      <c r="C46" s="28" t="str">
-        <f>"git remote show "&amp;AC46</f>
-        <v>git remote show origin</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git remote show origin</v>
-      </c>
-      <c r="AB46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG46" s="1"/>
-    </row>
-    <row r="47" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B47" s="25"/>
-      <c r="C47" s="28" t="str">
-        <f>"git remote add "&amp;AC47</f>
-        <v>git remote add origin</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git remote add origin</v>
-      </c>
-      <c r="AB47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG47" s="1"/>
-    </row>
-    <row r="48" spans="2:33" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B48" s="25"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-    </row>
-    <row r="49" spans="2:33" hidden="1" outlineLevel="2">
-      <c r="B49" s="25"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-    </row>
-    <row r="50" spans="2:33" hidden="1" outlineLevel="2">
-      <c r="B50" s="25"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-    </row>
-    <row r="51" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B51" s="25"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-    </row>
-    <row r="52" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B52" s="25"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-    </row>
-    <row r="53" spans="2:33" hidden="1" outlineLevel="4">
-      <c r="B53" s="25"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-    </row>
-    <row r="54" spans="2:33" hidden="1" outlineLevel="4">
-      <c r="B54" s="25"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-    </row>
-    <row r="55" spans="2:33" hidden="1" outlineLevel="5">
-      <c r="B55" s="25"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="29"/>
-      <c r="AA55" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-    </row>
-    <row r="56" spans="2:33" hidden="1" outlineLevel="5">
-      <c r="B56" s="25"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-    </row>
-    <row r="57" spans="2:33" hidden="1" outlineLevel="6">
-      <c r="B57" s="25"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="28"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="28"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-    </row>
-    <row r="58" spans="2:33" hidden="1" outlineLevel="6">
-      <c r="B58" s="25"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="28"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="28"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-    </row>
-    <row r="59" spans="2:33" hidden="1" outlineLevel="7">
-      <c r="B59" s="25"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="28"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-    </row>
-    <row r="60" spans="2:33" hidden="1" outlineLevel="7">
-      <c r="B60" s="25"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="28"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="29"/>
-      <c r="AA60" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-    </row>
-    <row r="61" spans="2:33" hidden="1" outlineLevel="6">
-      <c r="B61" s="25"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="28"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB61" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-    </row>
-    <row r="62" spans="2:33" hidden="1" outlineLevel="5">
-      <c r="B62" s="25"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="28"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="29"/>
-      <c r="AA62" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB62" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62" s="2"/>
-      <c r="AE62" s="2"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-    </row>
-    <row r="63" spans="2:33" hidden="1" outlineLevel="4">
-      <c r="B63" s="25"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="28"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="29"/>
-      <c r="AA63" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
-      <c r="AF63" s="1"/>
-      <c r="AG63" s="1"/>
-    </row>
-    <row r="64" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B64" s="25"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="29"/>
-      <c r="AA64" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="2"/>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="1"/>
-    </row>
-    <row r="65" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B65" s="25"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="2"/>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-    </row>
-    <row r="66" spans="2:33" hidden="1" outlineLevel="2">
-      <c r="B66" s="25"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="29"/>
-      <c r="AA66" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="2"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-    </row>
-    <row r="67" spans="2:33" ht="30" collapsed="1">
-      <c r="B67" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="28"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="29"/>
-      <c r="AA67" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git stash</v>
-      </c>
-      <c r="AB67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="2"/>
-      <c r="AF67" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG67" s="1"/>
-    </row>
-    <row r="68" spans="2:33" ht="30" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B68" s="25"/>
-      <c r="C68" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="28"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="29"/>
-      <c r="AA68" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git stash list</v>
-      </c>
-      <c r="AB68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="2"/>
-      <c r="AF68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG68" s="1"/>
-    </row>
-    <row r="69" spans="2:33" ht="30" hidden="1" outlineLevel="1">
-      <c r="B69" s="25"/>
-      <c r="C69" s="28" t="str">
-        <f>"git stash show stash@{"&amp;AC69&amp;"}"</f>
-        <v>git stash show stash@{0}</v>
-      </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="28"/>
-      <c r="S69" s="28"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="28"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="29"/>
-      <c r="AA69" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git stash show stash@{0}</v>
-      </c>
-      <c r="AB69" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC69" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG69" s="1"/>
-    </row>
-    <row r="70" spans="2:33" ht="30" hidden="1" outlineLevel="1">
-      <c r="B70" s="25"/>
-      <c r="C70" s="28" t="str">
-        <f>"git stash save """&amp;AC70&amp;""""</f>
-        <v>git stash save ""</v>
-      </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="28"/>
-      <c r="S70" s="28"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="28"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="29"/>
-      <c r="AA70" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git stash save ""</v>
-      </c>
-      <c r="AB70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG70" s="1"/>
-    </row>
-    <row r="71" spans="2:33" ht="30" hidden="1" outlineLevel="1">
-      <c r="B71" s="25"/>
-      <c r="C71" s="28" t="str">
-        <f>"git stash pop stash@{"&amp;AC71&amp;"}"</f>
-        <v>git stash pop stash@{0}</v>
-      </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="28"/>
-      <c r="S71" s="28"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="28"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git stash pop stash@{0}</v>
-      </c>
-      <c r="AB71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC71" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="2"/>
-      <c r="AF71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG71" s="1"/>
-    </row>
-    <row r="72" spans="2:33" ht="30" hidden="1" outlineLevel="1">
-      <c r="B72" s="25"/>
-      <c r="C72" s="28" t="str">
-        <f>"git stash apply stash@{"&amp;AC72&amp;"}"</f>
-        <v>git stash apply stash@{0}</v>
-      </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git stash apply stash@{0}</v>
-      </c>
-      <c r="AB72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC72" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="2"/>
-      <c r="AF72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG72" s="1"/>
-    </row>
-    <row r="73" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B73" s="25"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="29"/>
-      <c r="AA73" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB73" s="2"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="2"/>
-      <c r="AE73" s="2"/>
-      <c r="AF73" s="1"/>
-      <c r="AG73" s="1"/>
-    </row>
-    <row r="74" spans="2:33" collapsed="1">
-      <c r="B74" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="28"/>
-      <c r="R74" s="28"/>
-      <c r="S74" s="28"/>
-      <c r="T74" s="28"/>
-      <c r="U74" s="28"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="29"/>
-      <c r="AA74" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git cherry-pick</v>
-      </c>
-      <c r="AB74" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="2"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
-    </row>
-    <row r="75" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B75" s="25"/>
-      <c r="C75" s="28" t="str">
-        <f>$B$74&amp;" "&amp;AC75</f>
-        <v>git cherry-pick 8c2bf94035a4e522f91a2298854edde920360c60</v>
-      </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="29"/>
-      <c r="AA75" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git cherry-pick 8c2bf94035a4e522f91a2298854edde920360c60</v>
-      </c>
-      <c r="AB75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC75" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG75" s="1"/>
-    </row>
-    <row r="76" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B76" s="25"/>
-      <c r="C76" s="28" t="str">
-        <f>$B$74&amp;" "&amp;AC76</f>
-        <v>git cherry-pick develop</v>
-      </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-      <c r="U76" s="28"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="29"/>
-      <c r="AA76" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git cherry-pick develop</v>
-      </c>
-      <c r="AB76" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC76" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG76" s="1"/>
-    </row>
-    <row r="77" spans="2:33" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B77" s="25"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="28"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="29"/>
-      <c r="AA77" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB77" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="2"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
-    </row>
-    <row r="78" spans="2:33" collapsed="1">
-      <c r="B78" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-      <c r="U78" s="28"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="29"/>
-      <c r="AA78" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>git diff</v>
-      </c>
-      <c r="AB78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG78" s="1"/>
-    </row>
-    <row r="79" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B79" s="25"/>
-      <c r="C79" s="28" t="str">
-        <f>"git diff "&amp;AC79</f>
-        <v xml:space="preserve">git diff </v>
-      </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="29"/>
-      <c r="AA79" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">git diff </v>
-      </c>
-      <c r="AB79" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG79" s="1"/>
-    </row>
-    <row r="80" spans="2:33" hidden="1" outlineLevel="1">
-      <c r="B80" s="25"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="29"/>
-      <c r="AA80" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB80" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC80" s="2"/>
-      <c r="AD80" s="2"/>
-      <c r="AE80" s="2"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-    </row>
-    <row r="81" spans="2:33" collapsed="1">
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-      <c r="S81" s="28"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="29"/>
-      <c r="AA81" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB81" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-      <c r="AE81" s="2"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-    </row>
-    <row r="82" spans="2:33">
-      <c r="B82" s="27" t="str">
-        <f>"gsutil mb gs://"&amp;AC82</f>
-        <v>gsutil mb gs://unique-name-1</v>
-      </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="28"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="29"/>
-      <c r="AA82" s="11" t="str">
-        <f t="shared" ref="AA82" ca="1" si="2">IFERROR(OFFSET(A82,0,MATCH("",B82:Z82,-1)),"")</f>
-        <v>gsutil mb gs://unique-name-1</v>
-      </c>
-      <c r="AB82" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC82" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG82" s="1"/>
-    </row>
-    <row r="83" spans="2:33">
-      <c r="B83" s="27" t="str">
-        <f>"gsutil cp "&amp;AC83&amp;" gs://"&amp;AE83</f>
-        <v>gsutil cp test.dat gs://unique-name-1</v>
-      </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="28"/>
-      <c r="S83" s="28"/>
-      <c r="T83" s="28"/>
-      <c r="U83" s="28"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="29"/>
-      <c r="AA83" s="11" t="str">
-        <f t="shared" ref="AA83" ca="1" si="3">IFERROR(OFFSET(A83,0,MATCH("",B83:Z83,-1)),"")</f>
-        <v>gsutil cp test.dat gs://unique-name-1</v>
-      </c>
-      <c r="AB83" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC83" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD83" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE83" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF83" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG83" s="1"/>
-    </row>
-    <row r="84" spans="2:33">
-      <c r="B84" s="27"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="29"/>
-      <c r="AA84" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB84" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="2"/>
-      <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-    </row>
-    <row r="85" spans="2:33" outlineLevel="1">
-      <c r="B85" s="25"/>
-      <c r="C85" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="28"/>
-      <c r="O85" s="28"/>
-      <c r="P85" s="28"/>
-      <c r="Q85" s="28"/>
-      <c r="R85" s="28"/>
-      <c r="S85" s="28"/>
-      <c r="T85" s="28"/>
-      <c r="U85" s="28"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="28"/>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="28"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>gsutil mb gs://unique-name</v>
-      </c>
-      <c r="AB85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC85" s="2"/>
-      <c r="AD85" s="2"/>
-      <c r="AE85" s="2"/>
-      <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-    </row>
-    <row r="86" spans="2:33" outlineLevel="1">
-      <c r="B86" s="25"/>
-      <c r="C86" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
-      <c r="P86" s="28"/>
-      <c r="Q86" s="28"/>
-      <c r="R86" s="28"/>
-      <c r="S86" s="28"/>
-      <c r="T86" s="28"/>
-      <c r="U86" s="28"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="29"/>
-      <c r="AA86" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>gsutil cp test.dat gs://unique-name</v>
-      </c>
-      <c r="AB86" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
-      <c r="AE86" s="2"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1"/>
-    </row>
-    <row r="87" spans="2:33" outlineLevel="1">
-      <c r="B87" s="25"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
-      <c r="P87" s="28"/>
-      <c r="Q87" s="28"/>
-      <c r="R87" s="28"/>
-      <c r="S87" s="28"/>
-      <c r="T87" s="28"/>
-      <c r="U87" s="28"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC87" s="2"/>
-      <c r="AD87" s="2"/>
-      <c r="AE87" s="2"/>
-      <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-    </row>
-    <row r="88" spans="2:33" outlineLevel="1">
-      <c r="B88" s="25"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
-      <c r="Q88" s="28"/>
-      <c r="R88" s="28"/>
-      <c r="S88" s="28"/>
-      <c r="T88" s="28"/>
-      <c r="U88" s="28"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="29"/>
-      <c r="AA88" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC88" s="2"/>
-      <c r="AD88" s="2"/>
-      <c r="AE88" s="2"/>
-      <c r="AF88" s="1"/>
-      <c r="AG88" s="1"/>
-    </row>
-    <row r="89" spans="2:33" collapsed="1">
-      <c r="B89" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="28"/>
-      <c r="P89" s="28"/>
-      <c r="Q89" s="28"/>
-      <c r="R89" s="28"/>
-      <c r="S89" s="28"/>
-      <c r="T89" s="28"/>
-      <c r="U89" s="28"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="29"/>
-      <c r="AA89" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="AB89" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
-      <c r="AE89" s="2"/>
-      <c r="AF89" s="1"/>
-      <c r="AG89" s="1"/>
-    </row>
-    <row r="90" spans="2:33">
-      <c r="B90" s="27"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="28"/>
-      <c r="P90" s="28"/>
-      <c r="Q90" s="28"/>
-      <c r="R90" s="28"/>
-      <c r="S90" s="28"/>
-      <c r="T90" s="28"/>
-      <c r="U90" s="28"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="29"/>
-      <c r="AA90" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB90" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC90" s="2"/>
-      <c r="AD90" s="2"/>
-      <c r="AE90" s="2"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1"/>
-    </row>
-    <row r="91" spans="2:33" outlineLevel="1">
-      <c r="B91" s="25"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="28"/>
-      <c r="S91" s="28"/>
-      <c r="T91" s="28"/>
-      <c r="U91" s="28"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="29"/>
-      <c r="AA91" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC91" s="2"/>
-      <c r="AD91" s="2"/>
-      <c r="AE91" s="2"/>
-      <c r="AF91" s="1"/>
-      <c r="AG91" s="1"/>
-    </row>
-    <row r="92" spans="2:33" outlineLevel="1">
-      <c r="B92" s="25"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="28"/>
-      <c r="O92" s="28"/>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="28"/>
-      <c r="R92" s="28"/>
-      <c r="S92" s="28"/>
-      <c r="T92" s="28"/>
-      <c r="U92" s="28"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="28"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="29"/>
-      <c r="AA92" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB92" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC92" s="2"/>
-      <c r="AD92" s="2"/>
-      <c r="AE92" s="2"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-    </row>
-    <row r="93" spans="2:33" outlineLevel="2">
-      <c r="B93" s="25"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="28"/>
-      <c r="O93" s="28"/>
-      <c r="P93" s="28"/>
-      <c r="Q93" s="28"/>
-      <c r="R93" s="28"/>
-      <c r="S93" s="28"/>
-      <c r="T93" s="28"/>
-      <c r="U93" s="28"/>
-      <c r="V93" s="28"/>
-      <c r="W93" s="28"/>
-      <c r="X93" s="28"/>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="29"/>
-      <c r="AA93" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC93" s="2"/>
-      <c r="AD93" s="2"/>
-      <c r="AE93" s="2"/>
-      <c r="AF93" s="1"/>
-      <c r="AG93" s="1"/>
-    </row>
-    <row r="94" spans="2:33" outlineLevel="2" collapsed="1">
-      <c r="B94" s="25"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="28"/>
-      <c r="Q94" s="28"/>
-      <c r="R94" s="28"/>
-      <c r="S94" s="28"/>
-      <c r="T94" s="28"/>
-      <c r="U94" s="28"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="28"/>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="29"/>
-      <c r="AA94" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB94" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC94" s="2"/>
-      <c r="AD94" s="2"/>
-      <c r="AE94" s="2"/>
-      <c r="AF94" s="1"/>
-      <c r="AG94" s="1"/>
-    </row>
-    <row r="95" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B95" s="25"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="28"/>
-      <c r="Q95" s="28"/>
-      <c r="R95" s="28"/>
-      <c r="S95" s="28"/>
-      <c r="T95" s="28"/>
-      <c r="U95" s="28"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="28"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="29"/>
-      <c r="AA95" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB95" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC95" s="2"/>
-      <c r="AD95" s="2"/>
-      <c r="AE95" s="2"/>
-      <c r="AF95" s="1"/>
-      <c r="AG95" s="1"/>
-    </row>
-    <row r="96" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B96" s="25"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
-      <c r="Q96" s="28"/>
-      <c r="R96" s="28"/>
-      <c r="S96" s="28"/>
-      <c r="T96" s="28"/>
-      <c r="U96" s="28"/>
-      <c r="V96" s="28"/>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="29"/>
-      <c r="AA96" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB96" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
-      <c r="AE96" s="2"/>
-      <c r="AF96" s="1"/>
-      <c r="AG96" s="1"/>
-    </row>
-    <row r="97" spans="2:33" hidden="1" outlineLevel="4">
-      <c r="B97" s="25"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="28"/>
-      <c r="M97" s="28"/>
-      <c r="N97" s="28"/>
-      <c r="O97" s="28"/>
-      <c r="P97" s="28"/>
-      <c r="Q97" s="28"/>
-      <c r="R97" s="28"/>
-      <c r="S97" s="28"/>
-      <c r="T97" s="28"/>
-      <c r="U97" s="28"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="28"/>
-      <c r="X97" s="28"/>
-      <c r="Y97" s="28"/>
-      <c r="Z97" s="29"/>
-      <c r="AA97" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB97" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
-      <c r="AE97" s="2"/>
-      <c r="AF97" s="1"/>
-      <c r="AG97" s="1"/>
-    </row>
-    <row r="98" spans="2:33" hidden="1" outlineLevel="4">
-      <c r="B98" s="25"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="28"/>
-      <c r="O98" s="28"/>
-      <c r="P98" s="28"/>
-      <c r="Q98" s="28"/>
-      <c r="R98" s="28"/>
-      <c r="S98" s="28"/>
-      <c r="T98" s="28"/>
-      <c r="U98" s="28"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="28"/>
-      <c r="X98" s="28"/>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="29"/>
-      <c r="AA98" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB98" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC98" s="2"/>
-      <c r="AD98" s="2"/>
-      <c r="AE98" s="2"/>
-      <c r="AF98" s="1"/>
-      <c r="AG98" s="1"/>
-    </row>
-    <row r="99" spans="2:33" hidden="1" outlineLevel="5">
-      <c r="B99" s="25"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="28"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="28"/>
-      <c r="Q99" s="28"/>
-      <c r="R99" s="28"/>
-      <c r="S99" s="28"/>
-      <c r="T99" s="28"/>
-      <c r="U99" s="28"/>
-      <c r="V99" s="28"/>
-      <c r="W99" s="28"/>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="28"/>
-      <c r="Z99" s="29"/>
-      <c r="AA99" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB99" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="2"/>
-      <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-    </row>
-    <row r="100" spans="2:33" hidden="1" outlineLevel="5">
-      <c r="B100" s="25"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="28"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28"/>
-      <c r="Q100" s="28"/>
-      <c r="R100" s="28"/>
-      <c r="S100" s="28"/>
-      <c r="T100" s="28"/>
-      <c r="U100" s="28"/>
-      <c r="V100" s="28"/>
-      <c r="W100" s="28"/>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="28"/>
-      <c r="Z100" s="29"/>
-      <c r="AA100" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB100" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC100" s="2"/>
-      <c r="AD100" s="2"/>
-      <c r="AE100" s="2"/>
-      <c r="AF100" s="1"/>
-      <c r="AG100" s="1"/>
-    </row>
-    <row r="101" spans="2:33" hidden="1" outlineLevel="6">
-      <c r="B101" s="25"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="28"/>
-      <c r="N101" s="28"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="28"/>
-      <c r="Q101" s="28"/>
-      <c r="R101" s="28"/>
-      <c r="S101" s="28"/>
-      <c r="T101" s="28"/>
-      <c r="U101" s="28"/>
-      <c r="V101" s="28"/>
-      <c r="W101" s="28"/>
-      <c r="X101" s="28"/>
-      <c r="Y101" s="28"/>
-      <c r="Z101" s="29"/>
-      <c r="AA101" s="11" t="str">
-        <f t="shared" ref="AA101:AA139" ca="1" si="4">IFERROR(OFFSET(A101,0,MATCH("",B101:Z101,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB101" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-      <c r="AE101" s="2"/>
-      <c r="AF101" s="1"/>
-      <c r="AG101" s="1"/>
-    </row>
-    <row r="102" spans="2:33" hidden="1" outlineLevel="6">
-      <c r="B102" s="25"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="28"/>
-      <c r="N102" s="28"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="28"/>
-      <c r="S102" s="28"/>
-      <c r="T102" s="28"/>
-      <c r="U102" s="28"/>
-      <c r="V102" s="28"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="28"/>
-      <c r="Z102" s="29"/>
-      <c r="AA102" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB102" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC102" s="2"/>
-      <c r="AD102" s="2"/>
-      <c r="AE102" s="2"/>
-      <c r="AF102" s="1"/>
-      <c r="AG102" s="1"/>
-    </row>
-    <row r="103" spans="2:33" hidden="1" outlineLevel="7">
-      <c r="B103" s="25"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="28"/>
-      <c r="O103" s="28"/>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="28"/>
-      <c r="R103" s="28"/>
-      <c r="S103" s="28"/>
-      <c r="T103" s="28"/>
-      <c r="U103" s="28"/>
-      <c r="V103" s="28"/>
-      <c r="W103" s="28"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="28"/>
-      <c r="Z103" s="29"/>
-      <c r="AA103" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB103" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC103" s="2"/>
-      <c r="AD103" s="2"/>
-      <c r="AE103" s="2"/>
-      <c r="AF103" s="1"/>
-      <c r="AG103" s="1"/>
-    </row>
-    <row r="104" spans="2:33" hidden="1" outlineLevel="7">
-      <c r="B104" s="25"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
-      <c r="M104" s="28"/>
-      <c r="N104" s="28"/>
-      <c r="O104" s="28"/>
-      <c r="P104" s="28"/>
-      <c r="Q104" s="28"/>
-      <c r="R104" s="28"/>
-      <c r="S104" s="28"/>
-      <c r="T104" s="28"/>
-      <c r="U104" s="28"/>
-      <c r="V104" s="28"/>
-      <c r="W104" s="28"/>
-      <c r="X104" s="28"/>
-      <c r="Y104" s="28"/>
-      <c r="Z104" s="29"/>
-      <c r="AA104" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB104" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC104" s="2"/>
-      <c r="AD104" s="2"/>
-      <c r="AE104" s="2"/>
-      <c r="AF104" s="1"/>
-      <c r="AG104" s="1"/>
-    </row>
-    <row r="105" spans="2:33" hidden="1" outlineLevel="6">
-      <c r="B105" s="25"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="28"/>
-      <c r="N105" s="28"/>
-      <c r="O105" s="28"/>
-      <c r="P105" s="28"/>
-      <c r="Q105" s="28"/>
-      <c r="R105" s="28"/>
-      <c r="S105" s="28"/>
-      <c r="T105" s="28"/>
-      <c r="U105" s="28"/>
-      <c r="V105" s="28"/>
-      <c r="W105" s="28"/>
-      <c r="X105" s="28"/>
-      <c r="Y105" s="28"/>
-      <c r="Z105" s="29"/>
-      <c r="AA105" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB105" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC105" s="2"/>
-      <c r="AD105" s="2"/>
-      <c r="AE105" s="2"/>
-      <c r="AF105" s="1"/>
-      <c r="AG105" s="1"/>
-    </row>
-    <row r="106" spans="2:33" hidden="1" outlineLevel="5">
-      <c r="B106" s="25"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28"/>
-      <c r="M106" s="28"/>
-      <c r="N106" s="28"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="28"/>
-      <c r="Q106" s="28"/>
-      <c r="R106" s="28"/>
-      <c r="S106" s="28"/>
-      <c r="T106" s="28"/>
-      <c r="U106" s="28"/>
-      <c r="V106" s="28"/>
-      <c r="W106" s="28"/>
-      <c r="X106" s="28"/>
-      <c r="Y106" s="28"/>
-      <c r="Z106" s="29"/>
-      <c r="AA106" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB106" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC106" s="2"/>
-      <c r="AD106" s="2"/>
-      <c r="AE106" s="2"/>
-      <c r="AF106" s="1"/>
-      <c r="AG106" s="1"/>
-    </row>
-    <row r="107" spans="2:33" hidden="1" outlineLevel="4">
-      <c r="B107" s="25"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
-      <c r="M107" s="28"/>
-      <c r="N107" s="28"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
-      <c r="Q107" s="28"/>
-      <c r="R107" s="28"/>
-      <c r="S107" s="28"/>
-      <c r="T107" s="28"/>
-      <c r="U107" s="28"/>
-      <c r="V107" s="28"/>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="29"/>
-      <c r="AA107" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB107" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC107" s="2"/>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="2"/>
-      <c r="AF107" s="1"/>
-      <c r="AG107" s="1"/>
-    </row>
-    <row r="108" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B108" s="25"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
-      <c r="M108" s="28"/>
-      <c r="N108" s="28"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="28"/>
-      <c r="S108" s="28"/>
-      <c r="T108" s="28"/>
-      <c r="U108" s="28"/>
-      <c r="V108" s="28"/>
-      <c r="W108" s="28"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="28"/>
-      <c r="Z108" s="29"/>
-      <c r="AA108" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB108" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC108" s="2"/>
-      <c r="AD108" s="2"/>
-      <c r="AE108" s="2"/>
-      <c r="AF108" s="1"/>
-      <c r="AG108" s="1"/>
-    </row>
-    <row r="109" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B109" s="25"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="28"/>
-      <c r="N109" s="28"/>
-      <c r="O109" s="28"/>
-      <c r="P109" s="28"/>
-      <c r="Q109" s="28"/>
-      <c r="R109" s="28"/>
-      <c r="S109" s="28"/>
-      <c r="T109" s="28"/>
-      <c r="U109" s="28"/>
-      <c r="V109" s="28"/>
-      <c r="W109" s="28"/>
-      <c r="X109" s="28"/>
-      <c r="Y109" s="28"/>
-      <c r="Z109" s="29"/>
-      <c r="AA109" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB109" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC109" s="2"/>
-      <c r="AD109" s="2"/>
-      <c r="AE109" s="2"/>
-      <c r="AF109" s="1"/>
-      <c r="AG109" s="1"/>
-    </row>
-    <row r="110" spans="2:33" outlineLevel="2">
-      <c r="B110" s="25"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="28"/>
-      <c r="N110" s="28"/>
-      <c r="O110" s="28"/>
-      <c r="P110" s="28"/>
-      <c r="Q110" s="28"/>
-      <c r="R110" s="28"/>
-      <c r="S110" s="28"/>
-      <c r="T110" s="28"/>
-      <c r="U110" s="28"/>
-      <c r="V110" s="28"/>
-      <c r="W110" s="28"/>
-      <c r="X110" s="28"/>
-      <c r="Y110" s="28"/>
-      <c r="Z110" s="29"/>
-      <c r="AA110" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB110" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
-      <c r="AE110" s="2"/>
-      <c r="AF110" s="1"/>
-      <c r="AG110" s="1"/>
-    </row>
-    <row r="111" spans="2:33">
-      <c r="B111" s="27"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="28"/>
-      <c r="M111" s="28"/>
-      <c r="N111" s="28"/>
-      <c r="O111" s="28"/>
-      <c r="P111" s="28"/>
-      <c r="Q111" s="28"/>
-      <c r="R111" s="28"/>
-      <c r="S111" s="28"/>
-      <c r="T111" s="28"/>
-      <c r="U111" s="28"/>
-      <c r="V111" s="28"/>
-      <c r="W111" s="28"/>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="28"/>
-      <c r="Z111" s="29"/>
-      <c r="AA111" s="11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="AB111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC111" s="2"/>
-      <c r="AD111" s="2"/>
-      <c r="AE111" s="2"/>
-      <c r="AF111" s="1"/>
-      <c r="AG111" s="1"/>
-    </row>
-    <row r="114" ht="15" customHeight="1"/>
+    <row r="28" spans="2:33" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="F107:Z107"/>
-    <mergeCell ref="E108:Z108"/>
-    <mergeCell ref="D109:Z109"/>
-    <mergeCell ref="C110:Z110"/>
-    <mergeCell ref="B111:Z111"/>
-    <mergeCell ref="G100:Z100"/>
-    <mergeCell ref="H101:Z101"/>
-    <mergeCell ref="H102:Z102"/>
-    <mergeCell ref="I103:Z103"/>
-    <mergeCell ref="I104:Z104"/>
-    <mergeCell ref="H105:Z105"/>
-    <mergeCell ref="D94:Z94"/>
-    <mergeCell ref="E95:Z95"/>
-    <mergeCell ref="E96:Z96"/>
-    <mergeCell ref="F97:Z97"/>
-    <mergeCell ref="F98:Z98"/>
-    <mergeCell ref="G99:Z99"/>
-    <mergeCell ref="C88:Z88"/>
-    <mergeCell ref="B89:Z89"/>
-    <mergeCell ref="B90:Z90"/>
-    <mergeCell ref="C91:Z91"/>
-    <mergeCell ref="C92:Z92"/>
-    <mergeCell ref="D93:Z93"/>
-    <mergeCell ref="B84:Z84"/>
-    <mergeCell ref="C85:Z85"/>
-    <mergeCell ref="C86:Z86"/>
-    <mergeCell ref="C87:Z87"/>
-    <mergeCell ref="B78:Z78"/>
-    <mergeCell ref="C79:Z79"/>
-    <mergeCell ref="C80:Z80"/>
-    <mergeCell ref="B81:Z81"/>
-    <mergeCell ref="B82:Z82"/>
-    <mergeCell ref="B83:Z83"/>
-    <mergeCell ref="C72:Z72"/>
-    <mergeCell ref="C73:Z73"/>
-    <mergeCell ref="B74:Z74"/>
-    <mergeCell ref="C75:Z75"/>
-    <mergeCell ref="C76:Z76"/>
-    <mergeCell ref="C77:Z77"/>
-    <mergeCell ref="C66:Z66"/>
-    <mergeCell ref="B67:Z67"/>
-    <mergeCell ref="C68:Z68"/>
-    <mergeCell ref="C69:Z69"/>
-    <mergeCell ref="C70:Z70"/>
-    <mergeCell ref="C71:Z71"/>
-    <mergeCell ref="I60:Z60"/>
-    <mergeCell ref="H61:Z61"/>
-    <mergeCell ref="G62:Z62"/>
-    <mergeCell ref="F63:Z63"/>
-    <mergeCell ref="E64:Z64"/>
-    <mergeCell ref="D65:Z65"/>
-    <mergeCell ref="F54:Z54"/>
-    <mergeCell ref="G55:Z55"/>
-    <mergeCell ref="G56:Z56"/>
-    <mergeCell ref="H57:Z57"/>
-    <mergeCell ref="H58:Z58"/>
-    <mergeCell ref="I59:Z59"/>
-    <mergeCell ref="C48:Z48"/>
-    <mergeCell ref="D49:Z49"/>
-    <mergeCell ref="D50:Z50"/>
-    <mergeCell ref="E51:Z51"/>
-    <mergeCell ref="E52:Z52"/>
-    <mergeCell ref="F53:Z53"/>
-    <mergeCell ref="C42:Z42"/>
-    <mergeCell ref="C43:Z43"/>
-    <mergeCell ref="B44:Z44"/>
-    <mergeCell ref="B45:Z45"/>
-    <mergeCell ref="C46:Z46"/>
-    <mergeCell ref="C47:Z47"/>
-    <mergeCell ref="D36:Z36"/>
-    <mergeCell ref="C37:Z37"/>
-    <mergeCell ref="C38:Z38"/>
-    <mergeCell ref="C39:Z39"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="B41:Z41"/>
-    <mergeCell ref="D30:Z30"/>
-    <mergeCell ref="C31:Z31"/>
-    <mergeCell ref="D32:Z32"/>
-    <mergeCell ref="D33:Z33"/>
-    <mergeCell ref="C34:Z34"/>
-    <mergeCell ref="D35:Z35"/>
+  <mergeCells count="26">
     <mergeCell ref="C24:Z24"/>
     <mergeCell ref="B25:Z25"/>
-    <mergeCell ref="B26:Z26"/>
-    <mergeCell ref="B27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="D29:Z29"/>
-    <mergeCell ref="B18:Z18"/>
-    <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="C20:Z20"/>
-    <mergeCell ref="C21:Z21"/>
-    <mergeCell ref="B22:Z22"/>
-    <mergeCell ref="C23:Z23"/>
-    <mergeCell ref="B12:Z12"/>
-    <mergeCell ref="B13:Z13"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B15:Z15"/>
-    <mergeCell ref="B16:Z16"/>
-    <mergeCell ref="B17:Z17"/>
-    <mergeCell ref="D6:Z6"/>
+    <mergeCell ref="I18:Z18"/>
+    <mergeCell ref="H19:Z19"/>
+    <mergeCell ref="G20:Z20"/>
+    <mergeCell ref="F21:Z21"/>
+    <mergeCell ref="E22:Z22"/>
+    <mergeCell ref="D23:Z23"/>
+    <mergeCell ref="F12:Z12"/>
+    <mergeCell ref="G13:Z13"/>
+    <mergeCell ref="G14:Z14"/>
+    <mergeCell ref="H15:Z15"/>
+    <mergeCell ref="H16:Z16"/>
+    <mergeCell ref="I17:Z17"/>
+    <mergeCell ref="C6:Z6"/>
     <mergeCell ref="D7:Z7"/>
     <mergeCell ref="D8:Z8"/>
-    <mergeCell ref="C9:Z9"/>
-    <mergeCell ref="D10:Z10"/>
-    <mergeCell ref="D11:Z11"/>
+    <mergeCell ref="E9:Z9"/>
+    <mergeCell ref="E10:Z10"/>
+    <mergeCell ref="F11:Z11"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="C5:Z5"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="C5:Z5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gcloud cheatsheet" sheetId="4" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="86">
   <si>
     <t>Details</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Command</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>Copy this</t>
@@ -151,12 +154,6 @@
   <si>
     <t xml:space="preserve">gcloud config
 </t>
-  </si>
-  <si>
-    <t>gsutil mb gs://unique-name</t>
-  </si>
-  <si>
-    <t>gsutil cp test.dat gs://unique-name</t>
   </si>
   <si>
     <t>Bucket name:</t>
@@ -293,6 +290,94 @@
   </si>
   <si>
     <t>Mount Point Name:</t>
+  </si>
+  <si>
+    <t>gsutil mb</t>
+  </si>
+  <si>
+    <t>gsutil cp</t>
+  </si>
+  <si>
+    <t>Copies files and objects from/to Google Cloud Storage buckets.</t>
+  </si>
+  <si>
+    <t>Source Bucket name:</t>
+  </si>
+  <si>
+    <t>Source file:</t>
+  </si>
+  <si>
+    <t>Destination Bucket Name:</t>
+  </si>
+  <si>
+    <t>Destination file:</t>
+  </si>
+  <si>
+    <t>ada.jpg</t>
+  </si>
+  <si>
+    <t>ioso-bucket</t>
+  </si>
+  <si>
+    <t>Source dir:</t>
+  </si>
+  <si>
+    <t>Destination dir:</t>
+  </si>
+  <si>
+    <t>Copies files from/to Google Cloud Storage buckets.</t>
+  </si>
+  <si>
+    <t>Copies directories from/to Google Cloud Storage buckets.</t>
+  </si>
+  <si>
+    <t>image-folder/</t>
+  </si>
+  <si>
+    <t>gsutil ls</t>
+  </si>
+  <si>
+    <t>File name:</t>
+  </si>
+  <si>
+    <t>File/dir name:</t>
+  </si>
+  <si>
+    <t>Lists files and directories in Google Cloud Storage buckets.</t>
+  </si>
+  <si>
+    <t>Lists details of files and directories in Google Cloud Storage buckets.</t>
+  </si>
+  <si>
+    <t>gsutil rm</t>
+  </si>
+  <si>
+    <t>image-dir</t>
+  </si>
+  <si>
+    <t>image-dir/ada.jpg</t>
+  </si>
+  <si>
+    <t>Removes files and directories from Google Cloud Storage buckets.</t>
+  </si>
+  <si>
+    <t>Removes files from Google Cloud Storage buckets.</t>
+  </si>
+  <si>
+    <t>gsutil acl</t>
+  </si>
+  <si>
+    <t>Manages access rights to files and objectes in Google Cloud Storage buckets.</t>
+  </si>
+  <si>
+    <t>Grants read access to all users to a file in a Google Cloud Storage Bucket.</t>
+  </si>
+  <si>
+    <t>Revokes read access from all users to a file in a Google Cloud Storage Bucket.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -825,7 +910,7 @@
   </sheetPr>
   <dimension ref="B1:AK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:Z33"/>
     </sheetView>
   </sheetViews>
@@ -875,7 +960,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
       <c r="AA1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB1" s="18" t="s">
         <v>2</v>
@@ -896,7 +981,7 @@
     </row>
     <row r="2" spans="2:37" ht="30">
       <c r="B2" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -927,7 +1012,7 @@
         <v>gcloud compute</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -937,7 +1022,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="1"/>
     </row>
@@ -975,7 +1060,7 @@
         <v>gcloud compute instances</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -985,7 +1070,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AK3" s="1"/>
     </row>
@@ -1023,23 +1108,23 @@
         <v>gcloud compute instances create gcp-test-1 --zone us-central1-a</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK4" s="1"/>
     </row>
@@ -1077,31 +1162,31 @@
         <v>gcloud compute instances attach-disk gcelab --disk mydisk --device-name mydevice --zone us-central1-a</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="AK5" s="1"/>
     </row>
@@ -1139,7 +1224,7 @@
         <v>gcloud compute disks</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -1149,7 +1234,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AK6" s="1"/>
     </row>
@@ -1187,27 +1272,27 @@
         <v>gcloud compute disks create mydisk --size=200GB --zone us-central1-a</v>
       </c>
       <c r="AB7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AD7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK7" s="1"/>
     </row>
@@ -1245,16 +1330,16 @@
         <v>gcloud compute disks ...</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -1297,7 +1382,7 @@
         <v>gcloud compute ssh</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -1307,7 +1392,7 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AK9" s="1"/>
     </row>
@@ -1345,23 +1430,23 @@
         <v>gcloud compute ssh gcelab --zone us-central1-a</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AK10" s="1"/>
     </row>
@@ -1396,7 +1481,7 @@
         <v/>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -1410,7 +1495,7 @@
     </row>
     <row r="12" spans="2:37">
       <c r="B12" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1441,7 +1526,7 @@
         <v>gcloud auth</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -1451,7 +1536,7 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK12" s="1"/>
     </row>
@@ -1489,7 +1574,7 @@
         <v>gcloud auth list</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -1499,7 +1584,7 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK13" s="1"/>
     </row>
@@ -1534,7 +1619,7 @@
         <v/>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -1548,7 +1633,7 @@
     </row>
     <row r="15" spans="2:37">
       <c r="B15" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1580,7 +1665,7 @@
 </v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -1590,7 +1675,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK15" s="1"/>
     </row>
@@ -1630,7 +1715,7 @@
  list project</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
@@ -1640,7 +1725,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AK16" s="1"/>
     </row>
@@ -1680,7 +1765,7 @@
  list --all</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -1690,7 +1775,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK17" s="1"/>
     </row>
@@ -1725,7 +1810,7 @@
         <v/>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -1771,10 +1856,10 @@
         <v>gcloud help config</v>
       </c>
       <c r="AB19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC19" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -1783,13 +1868,13 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="2:37">
       <c r="B20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -1820,7 +1905,7 @@
         <v>gcloud init</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -1830,7 +1915,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AK20" s="1"/>
     </row>
@@ -1868,7 +1953,7 @@
         <v>gcloud init --console-only</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -1878,7 +1963,7 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AK21" s="1"/>
     </row>
@@ -1913,7 +1998,7 @@
         <v/>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
@@ -1927,7 +2012,7 @@
     </row>
     <row r="23" spans="2:37" ht="30">
       <c r="B23" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -1958,7 +2043,7 @@
         <v>gcloud info</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -1968,7 +2053,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AK23" s="1"/>
     </row>
@@ -2003,7 +2088,7 @@
         <v/>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -2046,7 +2131,7 @@
         <v/>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -2089,7 +2174,7 @@
         <v/>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -2132,7 +2217,7 @@
         <v/>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -2146,9 +2231,7 @@
     </row>
     <row r="28" spans="2:37" outlineLevel="1">
       <c r="B28" s="10"/>
-      <c r="C28" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -2174,11 +2257,10 @@
       <c r="Z28" s="17"/>
       <c r="AA28" s="8" t="str">
         <f t="shared" ref="AA28:AA31" ca="1" si="10">IFERROR(OFFSET(A28,0,MATCH("",B28:Z28,-1)),"")</f>
-        <v xml:space="preserve">
-</v>
+        <v/>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -2192,7 +2274,9 @@
     </row>
     <row r="29" spans="2:37" outlineLevel="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -2218,10 +2302,11 @@
       <c r="Z29" s="17"/>
       <c r="AA29" s="8" t="str">
         <f t="shared" ref="AA29:AA30" ca="1" si="11">IFERROR(OFFSET(A29,0,MATCH("",B29:Z29,-1)),"")</f>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -2235,9 +2320,7 @@
     </row>
     <row r="30" spans="2:37" outlineLevel="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -2263,11 +2346,10 @@
       <c r="Z30" s="17"/>
       <c r="AA30" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v xml:space="preserve">
-</v>
+        <v/>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
@@ -2310,7 +2392,7 @@
         <v/>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -2325,7 +2407,7 @@
     <row r="32" spans="2:37" outlineLevel="1">
       <c r="B32" s="12"/>
       <c r="C32" s="15" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -2356,7 +2438,7 @@
 </v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
@@ -2399,7 +2481,7 @@
         <v/>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
@@ -2442,7 +2524,7 @@
         <v/>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -2485,7 +2567,7 @@
         <v/>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
@@ -2528,7 +2610,7 @@
         <v/>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
@@ -2571,7 +2653,7 @@
         <v/>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -2614,7 +2696,7 @@
         <v/>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
@@ -2657,7 +2739,7 @@
         <v/>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
@@ -2700,7 +2782,7 @@
         <v/>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
@@ -2743,7 +2825,7 @@
         <v/>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
@@ -2786,7 +2868,7 @@
         <v/>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
@@ -2829,7 +2911,7 @@
         <v/>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
@@ -2872,7 +2954,7 @@
         <v/>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
@@ -2915,7 +2997,7 @@
         <v/>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
@@ -2958,7 +3040,7 @@
         <v/>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
@@ -3001,7 +3083,7 @@
         <v/>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
@@ -3044,7 +3126,7 @@
         <v/>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
@@ -3087,7 +3169,7 @@
         <v/>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
@@ -3130,7 +3212,7 @@
         <v/>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
@@ -3173,7 +3255,7 @@
         <v/>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
@@ -3216,7 +3298,7 @@
         <v/>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
@@ -3259,7 +3341,7 @@
         <v/>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
@@ -3302,7 +3384,7 @@
         <v/>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
@@ -3345,7 +3427,7 @@
         <v/>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
@@ -3388,7 +3470,7 @@
         <v/>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
@@ -3431,7 +3513,7 @@
         <v/>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
@@ -3474,7 +3556,7 @@
         <v/>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
@@ -3517,7 +3599,7 @@
         <v/>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
@@ -3560,7 +3642,7 @@
         <v/>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
@@ -3648,26 +3730,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AG34"/>
+  <dimension ref="B1:AK47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:Z31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
-    <col min="27" max="27" width="50" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="47.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="20.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="44.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="46" customWidth="1"/>
-    <col min="34" max="34" width="68.140625" customWidth="1"/>
+    <col min="27" max="27" width="15" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="14.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="13.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="24.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="14.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="15.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="28.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="46" customWidth="1"/>
+    <col min="38" max="38" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33">
+    <row r="1" spans="2:37">
       <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
@@ -3696,7 +3782,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
       <c r="AA1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB1" s="18" t="s">
         <v>2</v>
@@ -3704,17 +3790,21 @@
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
       <c r="AE1" s="20"/>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33">
+    <row r="2" spans="2:37">
       <c r="B2" s="15" t="str">
-        <f>"gsutil mb gs://"&amp;AC2</f>
-        <v>gsutil mb gs://unique-name-1</v>
+        <f>"gsutil cp "&amp;AC2&amp;" gs://"&amp;AE2</f>
+        <v>gsutil cp test.dat gs://unique-name-1</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -3742,25 +3832,32 @@
       <c r="Z2" s="17"/>
       <c r="AA2" s="8" t="str">
         <f t="shared" ref="AA2" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
-        <v>gsutil mb gs://unique-name-1</v>
+        <v>gsutil cp test.dat gs://unique-name-1</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="2:33">
-      <c r="B3" s="15" t="str">
-        <f>"gsutil cp "&amp;AC3&amp;" gs://"&amp;AE3</f>
-        <v>gsutil cp test.dat gs://unique-name-1</v>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="2:37">
+      <c r="B3" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3787,29 +3884,30 @@
       <c r="Y3" s="16"/>
       <c r="Z3" s="17"/>
       <c r="AA3" s="8" t="str">
-        <f t="shared" ref="AA3" ca="1" si="1">IFERROR(OFFSET(A3,0,MATCH("",B3:Z3,-1)),"")</f>
-        <v>gsutil cp test.dat gs://unique-name-1</v>
+        <f t="shared" ref="AA3:AA33" ca="1" si="1">IFERROR(OFFSET(A3,0,MATCH("",B3:Z3,-1)),"")</f>
+        <v>gsutil mb</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="2:33">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="2:37" outlineLevel="1">
+      <c r="B4" s="10"/>
+      <c r="C4" s="16" t="str">
+        <f>B$3&amp;" gs://"&amp;AC4</f>
+        <v>gsutil mb gs://unique-name-1</v>
+      </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -3834,23 +3932,29 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="8" t="str">
-        <f t="shared" ref="AA4:AA20" ca="1" si="2">IFERROR(OFFSET(A4,0,MATCH("",B4:Z4,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="1"/>
+        <v>gsutil mb gs://unique-name-1</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="2:33" outlineLevel="1">
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" s="1"/>
+    </row>
+    <row r="5" spans="2:37" outlineLevel="1">
       <c r="B5" s="10"/>
-      <c r="C5" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -3875,23 +3979,25 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>gsutil mb gs://unique-name</v>
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="2:33" outlineLevel="1">
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="6" spans="2:37" outlineLevel="1">
       <c r="B6" s="10"/>
-      <c r="C6" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -3916,19 +4022,23 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>gsutil cp test.dat gs://unique-name</v>
+        <f t="shared" ca="1" si="1"/>
+        <v/>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="2:33" outlineLevel="1">
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="2:37" outlineLevel="1">
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -3955,20 +4065,26 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="2:33" outlineLevel="1">
-      <c r="B8" s="10"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+    </row>
+    <row r="8" spans="2:37">
+      <c r="B8" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -3994,23 +4110,30 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ref="AA8:AA9" ca="1" si="2">IFERROR(OFFSET(A8,0,MATCH("",B8:Z8,-1)),"")</f>
+        <v>gsutil cp</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="2:33" collapsed="1">
-      <c r="B9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="16"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="2:37" outlineLevel="1">
+      <c r="B9" s="12"/>
+      <c r="C9" s="16" t="str">
+        <f>B$8&amp;" "&amp;IF(ISBLANK(AC9),"","gs://"&amp;AC9&amp;"/")&amp;AE9&amp;" "&amp;IF(ISBLANK(AG9),"","gs://"&amp;AG9&amp;"/")&amp;AI9</f>
+        <v>gsutil cp gs://ioso-bucket/ada.jpg gs://ioso-bucket/image-folder/</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -4036,21 +4159,43 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">
-</v>
+        <v>gsutil cp gs://ioso-bucket/ada.jpg gs://ioso-bucket/image-folder/</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="2:33">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK9" s="1"/>
+    </row>
+    <row r="10" spans="2:37" outlineLevel="1">
+      <c r="B10" s="12"/>
+      <c r="C10" s="16" t="str">
+        <f>B$8&amp;" -r "&amp;IF(ISBLANK(AC10),"","gs://"&amp;AC10&amp;"/")&amp;AE10&amp;" "&amp;IF(ISBLANK(AG10),"","gs://"&amp;AG10&amp;"/")&amp;AI10</f>
+        <v>gsutil cp -r gs://ioso-bucket/ada.jpg .</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -4075,20 +4220,40 @@
       <c r="Y10" s="16"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ref="AA10:AA12" ca="1" si="3">IFERROR(OFFSET(A10,0,MATCH("",B10:Z10,-1)),"")</f>
+        <v>gsutil cp -r gs://ioso-bucket/ada.jpg .</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="2:33" outlineLevel="1">
-      <c r="B11" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="2:37">
+      <c r="B11" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -4114,21 +4279,30 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="17"/>
       <c r="AA11" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ca="1" si="3"/>
+        <v>gsutil ls</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="2:33" outlineLevel="1">
-      <c r="B12" s="10"/>
-      <c r="C12" s="16"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK11" s="1"/>
+    </row>
+    <row r="12" spans="2:37" outlineLevel="1">
+      <c r="B12" s="12"/>
+      <c r="C12" s="16" t="str">
+        <f>B$11&amp;" gs://"&amp;AC12&amp;"/"&amp;AE12</f>
+        <v>gsutil ls gs://ioso-bucket/image-dir</v>
+      </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -4153,21 +4327,36 @@
       <c r="Y12" s="16"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ca="1" si="3"/>
+        <v>gsutil ls gs://ioso-bucket/image-dir</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="2:33" outlineLevel="2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK12" s="1"/>
+    </row>
+    <row r="13" spans="2:37" outlineLevel="1">
+      <c r="B13" s="12"/>
+      <c r="C13" s="16" t="str">
+        <f>B$11&amp;" -l gs://"&amp;AC13&amp;"/"&amp;AE13</f>
+        <v>gsutil ls -l gs://ioso-bucket/image-dir/ada.jpg</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -4192,21 +4381,35 @@
       <c r="Y13" s="16"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ref="AA13:AA15" ca="1" si="4">IFERROR(OFFSET(A13,0,MATCH("",B13:Z13,-1)),"")</f>
+        <v>gsutil ls -l gs://ioso-bucket/image-dir/ada.jpg</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="2:33" outlineLevel="2" collapsed="1">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="2:37">
+      <c r="B14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -4231,22 +4434,31 @@
       <c r="Y14" s="16"/>
       <c r="Z14" s="17"/>
       <c r="AA14" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>gsutil rm</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK14" s="1"/>
+    </row>
+    <row r="15" spans="2:37" outlineLevel="1">
+      <c r="B15" s="12"/>
+      <c r="C15" s="16" t="str">
+        <f>B$14&amp;" gs://"&amp;AC15&amp;"/"&amp;AE15</f>
+        <v>gsutil rm gs://ioso-bucket/ada.jpg</v>
+      </c>
+      <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -4270,22 +4482,34 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="17"/>
       <c r="AA15" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>gsutil rm gs://ioso-bucket/ada.jpg</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="2:33" hidden="1" outlineLevel="3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="2:37" outlineLevel="1">
+      <c r="B16" s="12"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -4309,23 +4533,35 @@
       <c r="Y16" s="16"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="AA16:AA21" ca="1" si="5">IFERROR(OFFSET(A16,0,MATCH("",B16:Z16,-1)),"")</f>
         <v/>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="2:33" hidden="1" outlineLevel="4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+    </row>
+    <row r="17" spans="2:37" ht="30">
+      <c r="B17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -4348,23 +4584,32 @@
       <c r="Y17" s="16"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ca="1" si="5"/>
+        <v>gsutil acl</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="2:33" hidden="1" outlineLevel="4">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK17" s="1"/>
+    </row>
+    <row r="18" spans="2:37" outlineLevel="1">
+      <c r="B18" s="12"/>
+      <c r="C18" s="16" t="str">
+        <f>B$17&amp;" ch"</f>
+        <v>gsutil acl ch</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -4387,24 +4632,31 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ca="1" si="5"/>
+        <v>gsutil acl ch</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="2:33" hidden="1" outlineLevel="5">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+    </row>
+    <row r="19" spans="2:37" ht="30" outlineLevel="2">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16" t="str">
+        <f>C$18&amp;" -u AllUsers:R gs://"&amp;AC19&amp;"/"&amp;AE19</f>
+        <v>gsutil acl ch -u AllUsers:R gs://ioso-bucket/ada.jpg</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -4426,24 +4678,39 @@
       <c r="Y19" s="16"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ca="1" si="5"/>
+        <v>gsutil acl ch -u AllUsers:R gs://ioso-bucket/ada.jpg</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="2:33" hidden="1" outlineLevel="5">
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK19" s="1"/>
+    </row>
+    <row r="20" spans="2:37" ht="30" outlineLevel="2">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16" t="str">
+        <f>C$18&amp;" -d AllUsers gs://"&amp;AC20&amp;"/"&amp;AE20</f>
+        <v>gsutil acl ch -d AllUsers gs://ioso-bucket/ada.jpg</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -4465,25 +4732,37 @@
       <c r="Y20" s="16"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ref="AA20" ca="1" si="6">IFERROR(OFFSET(A20,0,MATCH("",B20:Z20,-1)),"")</f>
+        <v>gsutil acl ch -d AllUsers gs://ioso-bucket/ada.jpg</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="2:33" hidden="1" outlineLevel="6">
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK20" s="1"/>
+    </row>
+    <row r="21" spans="2:37" outlineLevel="1">
+      <c r="B21" s="12"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
@@ -4504,25 +4783,29 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="8" t="str">
-        <f t="shared" ref="AA21:AA31" ca="1" si="3">IFERROR(OFFSET(A21,0,MATCH("",B21:Z21,-1)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="2:33" hidden="1" outlineLevel="6">
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+    </row>
+    <row r="22" spans="2:37" collapsed="1">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -4543,26 +4826,30 @@
       <c r="Y22" s="16"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="2:33" hidden="1" outlineLevel="7">
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+    </row>
+    <row r="23" spans="2:37">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
@@ -4582,26 +4869,30 @@
       <c r="Y23" s="16"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="2:33" hidden="1" outlineLevel="7">
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+    </row>
+    <row r="24" spans="2:37" outlineLevel="1">
       <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -4621,25 +4912,29 @@
       <c r="Y24" s="16"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="2:33" hidden="1" outlineLevel="6">
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+    </row>
+    <row r="25" spans="2:37" outlineLevel="1">
       <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
@@ -4660,24 +4955,28 @@
       <c r="Y25" s="16"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="2:33" hidden="1" outlineLevel="5">
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+    </row>
+    <row r="26" spans="2:37" outlineLevel="2">
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
@@ -4699,23 +4998,27 @@
       <c r="Y26" s="16"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="2:33" hidden="1" outlineLevel="4">
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+    </row>
+    <row r="27" spans="2:37" outlineLevel="2" collapsed="1">
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -4738,19 +5041,23 @@
       <c r="Y27" s="16"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+    </row>
+    <row r="28" spans="2:37" hidden="1" outlineLevel="3">
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4777,22 +5084,26 @@
       <c r="Y28" s="16"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-    </row>
-    <row r="29" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+    </row>
+    <row r="29" spans="2:37" hidden="1" outlineLevel="3">
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -4816,23 +5127,27 @@
       <c r="Y29" s="16"/>
       <c r="Z29" s="17"/>
       <c r="AA29" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="2:33" outlineLevel="2">
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+    </row>
+    <row r="30" spans="2:37" hidden="1" outlineLevel="4">
       <c r="B30" s="10"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
@@ -4855,23 +5170,27 @@
       <c r="Y30" s="16"/>
       <c r="Z30" s="17"/>
       <c r="AA30" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="31" spans="2:33">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+    </row>
+    <row r="31" spans="2:37" hidden="1" outlineLevel="4">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -4894,53 +5213,629 @@
       <c r="Y31" s="16"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-    </row>
-    <row r="34" ht="15" customHeight="1"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+    </row>
+    <row r="32" spans="2:37" hidden="1" outlineLevel="5">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+    </row>
+    <row r="33" spans="2:37" hidden="1" outlineLevel="5">
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+    </row>
+    <row r="34" spans="2:37" hidden="1" outlineLevel="6">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="8" t="str">
+        <f t="shared" ref="AA34:AA44" ca="1" si="7">IFERROR(OFFSET(A34,0,MATCH("",B34:Z34,-1)),"")</f>
+        <v/>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+    </row>
+    <row r="35" spans="2:37" hidden="1" outlineLevel="6">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+    </row>
+    <row r="36" spans="2:37" hidden="1" outlineLevel="7">
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+    </row>
+    <row r="37" spans="2:37" hidden="1" outlineLevel="7">
+      <c r="B37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+    </row>
+    <row r="38" spans="2:37" hidden="1" outlineLevel="6">
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+    </row>
+    <row r="39" spans="2:37" hidden="1" outlineLevel="5">
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+    </row>
+    <row r="40" spans="2:37" hidden="1" outlineLevel="4">
+      <c r="B40" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+    </row>
+    <row r="41" spans="2:37" hidden="1" outlineLevel="3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+    </row>
+    <row r="42" spans="2:37" hidden="1" outlineLevel="3">
+      <c r="B42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+    </row>
+    <row r="43" spans="2:37" outlineLevel="2">
+      <c r="B43" s="10"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+    </row>
+    <row r="44" spans="2:37">
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="8" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+    </row>
+    <row r="47" spans="2:37" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="45">
+    <mergeCell ref="C18:Z18"/>
+    <mergeCell ref="D19:Z19"/>
+    <mergeCell ref="D20:Z20"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="B8:Z8"/>
+    <mergeCell ref="C9:Z9"/>
+    <mergeCell ref="C10:Z10"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="C4:Z4"/>
     <mergeCell ref="C5:Z5"/>
     <mergeCell ref="C6:Z6"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="G32:Z32"/>
     <mergeCell ref="C7:Z7"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="G19:Z19"/>
-    <mergeCell ref="C8:Z8"/>
-    <mergeCell ref="B9:Z9"/>
-    <mergeCell ref="B10:Z10"/>
-    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="B22:Z22"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C24:Z24"/>
+    <mergeCell ref="C25:Z25"/>
+    <mergeCell ref="D26:Z26"/>
+    <mergeCell ref="B11:Z11"/>
     <mergeCell ref="C12:Z12"/>
-    <mergeCell ref="D13:Z13"/>
-    <mergeCell ref="D14:Z14"/>
-    <mergeCell ref="E15:Z15"/>
-    <mergeCell ref="E16:Z16"/>
-    <mergeCell ref="F17:Z17"/>
-    <mergeCell ref="F18:Z18"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="G20:Z20"/>
-    <mergeCell ref="H21:Z21"/>
-    <mergeCell ref="H22:Z22"/>
-    <mergeCell ref="I23:Z23"/>
-    <mergeCell ref="I24:Z24"/>
-    <mergeCell ref="H25:Z25"/>
-    <mergeCell ref="G26:Z26"/>
-    <mergeCell ref="F27:Z27"/>
+    <mergeCell ref="C13:Z13"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="C15:Z15"/>
+    <mergeCell ref="C16:Z16"/>
+    <mergeCell ref="B17:Z17"/>
+    <mergeCell ref="C21:Z21"/>
+    <mergeCell ref="D27:Z27"/>
     <mergeCell ref="E28:Z28"/>
-    <mergeCell ref="D29:Z29"/>
-    <mergeCell ref="C30:Z30"/>
+    <mergeCell ref="E29:Z29"/>
+    <mergeCell ref="F30:Z30"/>
+    <mergeCell ref="F31:Z31"/>
+    <mergeCell ref="B44:Z44"/>
+    <mergeCell ref="G33:Z33"/>
+    <mergeCell ref="H34:Z34"/>
+    <mergeCell ref="H35:Z35"/>
+    <mergeCell ref="I36:Z36"/>
+    <mergeCell ref="I37:Z37"/>
+    <mergeCell ref="H38:Z38"/>
+    <mergeCell ref="G39:Z39"/>
+    <mergeCell ref="F40:Z40"/>
+    <mergeCell ref="E41:Z41"/>
+    <mergeCell ref="D42:Z42"/>
+    <mergeCell ref="C43:Z43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5000,7 +5895,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="21"/>
       <c r="AA1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB1" s="18" t="s">
         <v>2</v>
@@ -5017,7 +5912,7 @@
     </row>
     <row r="2" spans="2:33" ht="219" customHeight="1">
       <c r="B2" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -5048,21 +5943,21 @@
         <v/>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" s="1"/>
     </row>
     <row r="3" spans="2:33" collapsed="1">
       <c r="B3" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5093,13 +5988,13 @@
         <v>ls -l /dev/disk/by-id/</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG3" s="1"/>
     </row>
@@ -5137,15 +6032,15 @@
         <v>sudo mkdir /mnt/mydisk</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG4" s="1"/>
     </row>
@@ -5183,15 +6078,15 @@
         <v>sudo mkfs.ext4 -F -E lazy_itable_init=0,lazy_journal_init=0,discard /dev/disk/by-id/scsi-0Google_PersistentDisk_persistent-disk-1</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG5" s="1"/>
     </row>
@@ -5229,19 +6124,19 @@
         <v>sudo mount -o discard,defaults /dev/disk/by-id/scsi-0Google_PersistentDisk_persistent-disk-1 /mnt/mydisk</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AG6" s="1"/>
     </row>
@@ -5276,7 +6171,7 @@
         <v/>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -5315,7 +6210,7 @@
         <v/>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -5354,7 +6249,7 @@
         <v/>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -5393,7 +6288,7 @@
         <v/>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -5432,7 +6327,7 @@
         <v/>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -5471,7 +6366,7 @@
         <v/>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -5510,7 +6405,7 @@
         <v/>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -5549,7 +6444,7 @@
         <v/>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -5588,7 +6483,7 @@
         <v/>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -5627,7 +6522,7 @@
         <v/>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
@@ -5666,7 +6561,7 @@
         <v/>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -5705,7 +6600,7 @@
         <v/>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -5744,7 +6639,7 @@
         <v/>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -5783,7 +6678,7 @@
         <v/>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -5822,7 +6717,7 @@
         <v/>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -5861,7 +6756,7 @@
         <v/>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
@@ -5900,7 +6795,7 @@
         <v/>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -5939,7 +6834,7 @@
         <v/>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -5978,7 +6873,7 @@
         <v/>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -6017,7 +6912,7 @@
         <v/>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -6056,7 +6951,7 @@
         <v/>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -6095,7 +6990,7 @@
         <v/>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -6134,7 +7029,7 @@
         <v/>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -6173,7 +7068,7 @@
         <v/>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -112,6 +112,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Must be one of: HTTP, HTTPS, HTTP2, SSL, TCP or UDP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This could be a drop-down since regions are a fixed set.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AG33" authorId="0">
       <text>
         <r>
@@ -125,7 +151,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC45" authorId="0">
+    <comment ref="AE39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This should be a drop-down since only custom and aute are valid values.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This could be a drop-down since regions are a fixed set.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC46" authorId="0">
+    <comment ref="AC51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC48" authorId="0">
+    <comment ref="AC53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="169">
   <si>
     <t>Details</t>
   </si>
@@ -510,15 +562,6 @@
     <t>Lists all instances.</t>
   </si>
   <si>
-    <t>Manages firewall-rules?</t>
-  </si>
-  <si>
-    <t>Port:</t>
-  </si>
-  <si>
-    <t>Creates a firewall? With a rule to enable access on a port?</t>
-  </si>
-  <si>
     <t>nginx-lb</t>
   </si>
   <si>
@@ -546,12 +589,6 @@
     <t>nginx-backend</t>
   </si>
   <si>
-    <t>Manages backend services(?).</t>
-  </si>
-  <si>
-    <t>Creates a backend service(?).</t>
-  </si>
-  <si>
     <t>Creates a basic HTTP(S) health check.</t>
   </si>
   <si>
@@ -610,13 +647,115 @@
   </si>
   <si>
     <t>Forwards traffic to an HTTP proxy.</t>
+  </si>
+  <si>
+    <t>Network name:</t>
+  </si>
+  <si>
+    <t>taw-custom-network</t>
+  </si>
+  <si>
+    <t>Sub-net mode:</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>Creates a network.</t>
+  </si>
+  <si>
+    <t>Manages networks.</t>
+  </si>
+  <si>
+    <t>Manages sub-networks.</t>
+  </si>
+  <si>
+    <t>Creates a sub-network.</t>
+  </si>
+  <si>
+    <t>Subnet name:</t>
+  </si>
+  <si>
+    <t>subnet-us-central</t>
+  </si>
+  <si>
+    <t>IP range:</t>
+  </si>
+  <si>
+    <t>10.0.0.0/16</t>
+  </si>
+  <si>
+    <t>rule name:</t>
+  </si>
+  <si>
+    <t>Source range:</t>
+  </si>
+  <si>
+    <t>Tag:</t>
+  </si>
+  <si>
+    <t>Creates a firewall rule. This enables external access to a port.</t>
+  </si>
+  <si>
+    <t>Manages firewall rules.</t>
+  </si>
+  <si>
+    <t>Allow protocol(:port)</t>
+  </si>
+  <si>
+    <t>us-test-01</t>
+  </si>
+  <si>
+    <t>Subnet:</t>
+  </si>
+  <si>
+    <t>Tags:</t>
+  </si>
+  <si>
+    <t>ssh,http,rules</t>
+  </si>
+  <si>
+    <t>Lists sub-networks.</t>
+  </si>
+  <si>
+    <t>Parent network:</t>
+  </si>
+  <si>
+    <t>nw101-allow-rdp</t>
+  </si>
+  <si>
+    <t>tcp:3389</t>
+  </si>
+  <si>
+    <t>http-basic-check</t>
+  </si>
+  <si>
+    <t>Health-check name:</t>
+  </si>
+  <si>
+    <t>Health-checks:</t>
+  </si>
+  <si>
+    <t>Protocol:</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>Creates a backend service.</t>
+  </si>
+  <si>
+    <t>Manages backend services.</t>
+  </si>
+  <si>
+    <t>Backend services define groups of "tasks" that can receive traffic. Currently, the group of tasks can be one or more Google Compute Engine virtual machine instances grouped together using an instance group. Each backend group has parameters that define the group's capacity (e.g. max CPU utilization, max queries per second, ...). URL maps define which requests are sent to which backend services.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +793,20 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -796,7 +949,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -859,6 +1012,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1169,10 +1328,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AM89"/>
+  <dimension ref="B1:AM94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:Z27"/>
+      <selection activeCell="D33" sqref="D33:Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1180,15 +1339,15 @@
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
     <col min="27" max="27" width="20.5703125" customWidth="1"/>
     <col min="28" max="28" width="13.140625" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="14.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="19.7109375" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="16.85546875" customWidth="1" outlineLevel="1"/>
     <col min="31" max="31" width="12.5703125" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="15.42578125" customWidth="1" outlineLevel="1"/>
     <col min="33" max="33" width="14.7109375" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="13.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="11.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="13.140625" customWidth="1" outlineLevel="1"/>
     <col min="36" max="36" width="5.140625" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="2" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="5.42578125" customWidth="1" outlineLevel="1"/>
     <col min="38" max="38" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="46" customWidth="1"/>
     <col min="40" max="40" width="68.140625" customWidth="1"/>
@@ -1273,7 +1432,7 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA67" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA72" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>gcloud compute</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -1343,12 +1502,12 @@
       </c>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="2:39" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="4" spans="2:39" ht="41.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
       <c r="D4" s="25" t="str">
-        <f>C$3&amp;" create "&amp;AC4&amp;IF(ISBLANK(AE4),""," --zone "&amp;AE4)</f>
-        <v>gcloud compute instances create gcp-test-1 --zone us-central1-a</v>
+        <f>C$3&amp;" create "&amp;AC4&amp;IF(ISBLANK(AE4),""," --zone "&amp;AE4)&amp;IF(ISBLANK(AG4),""," --subnet "&amp;AG4)&amp;IF(ISBLANK(AI4),""," --tags "&amp;AI4)</f>
+        <v>gcloud compute instances create us-test-01 --zone us-central1-a --subnet subnet-us-central --tags ssh,http,rules</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -1374,13 +1533,13 @@
       <c r="Z4" s="27"/>
       <c r="AA4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>gcloud compute instances create gcp-test-1 --zone us-central1-a</v>
+        <v>gcloud compute instances create us-test-01 --zone us-central1-a --subnet subnet-us-central --tags ssh,http,rules</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>11</v>
@@ -1388,10 +1547,18 @@
       <c r="AE4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+      <c r="AF4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="1" t="s">
@@ -1549,7 +1716,7 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="8" t="str">
-        <f t="shared" ref="AA7:AA38" ca="1" si="3">IFERROR(OFFSET(A7,0,MATCH("",B7:Z7,-1)),"")</f>
+        <f t="shared" ref="AA7:AA43" ca="1" si="3">IFERROR(OFFSET(A7,0,MATCH("",B7:Z7,-1)),"")</f>
         <v>gcloud compute disks</v>
       </c>
       <c r="AB7" s="2" t="s">
@@ -1895,7 +2062,7 @@
       </c>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="2:39" outlineLevel="1">
+    <row r="14" spans="2:39" outlineLevel="1" collapsed="1">
       <c r="B14" s="15"/>
       <c r="C14" s="18" t="str">
         <f>B$2&amp;" target-pools"</f>
@@ -1941,11 +2108,11 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="2:39" outlineLevel="2">
+    <row r="15" spans="2:39" hidden="1" outlineLevel="2">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="18" t="str">
@@ -1993,7 +2160,7 @@
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AM15" s="1"/>
     </row>
@@ -2205,10 +2372,10 @@
         <v>100</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -2217,7 +2384,7 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AM19" s="1"/>
     </row>
@@ -2267,7 +2434,7 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AM20" s="1"/>
     </row>
@@ -2317,63 +2484,75 @@
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="1" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="2:39" hidden="1" outlineLevel="2">
+    <row r="22" spans="2:39" ht="50.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="18" t="str">
-        <f>C$21&amp;" create www-firewall --allow tcp:"&amp;AC22</f>
-        <v>gcloud compute firewall-rules create www-firewall --allow tcp:80</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="19"/>
+      <c r="D22" s="25" t="str">
+        <f>C$21&amp;" create "&amp;AC22&amp;" --allow "&amp;AE22&amp;IF(ISBLANK(AG22),""," --network "&amp;AG22)&amp;IF(ISBLANK(AI22),""," --source-ranges "&amp;AI22)&amp;IF(ISBLANK(AK22),""," --target-tags "&amp;AK22)</f>
+        <v>gcloud compute firewall-rules create nw101-allow-rdp --allow tcp:3389 --network taw-custom-network</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
       <c r="AA22" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>gcloud compute firewall-rules create www-firewall --allow tcp:80</v>
+        <v>gcloud compute firewall-rules create nw101-allow-rdp --allow tcp:3389 --network taw-custom-network</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>80</v>
-      </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK22" s="5"/>
       <c r="AL22" s="1" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="2:39" ht="30" outlineLevel="1">
+    <row r="23" spans="2:39" ht="30" outlineLevel="1" collapsed="1">
       <c r="B23" s="15"/>
       <c r="C23" s="18" t="str">
         <f>B$2&amp;" forwarding-rules"</f>
@@ -2419,11 +2598,11 @@
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="2:39" outlineLevel="2">
+    <row r="24" spans="2:39" hidden="1" outlineLevel="2">
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="25" t="str">
@@ -2469,11 +2648,11 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="2:39" ht="30.75" customHeight="1" outlineLevel="3">
+    <row r="25" spans="2:39" ht="30.75" hidden="1" customHeight="1" outlineLevel="3">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -2507,10 +2686,10 @@
         <v>gcloud compute forwarding-rules create nginx-lb --target-pool nginx-pool --ports=80 --region us-central1</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>96</v>
@@ -2519,7 +2698,7 @@
         <v>97</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AG25" s="5">
         <v>80</v>
@@ -2533,11 +2712,11 @@
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AM25" s="1"/>
     </row>
-    <row r="26" spans="2:39" ht="38.25" customHeight="1" outlineLevel="3" collapsed="1">
+    <row r="26" spans="2:39" ht="38.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -2571,19 +2750,19 @@
         <v>gcloud compute forwarding-rules create http-content-rule --target-http-proxy http-lb-proxy --ports=80 --global</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AG26" s="5">
         <v>80</v>
@@ -2595,11 +2774,11 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="2:39" outlineLevel="2">
+    <row r="27" spans="2:39" hidden="1" outlineLevel="2">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="25"/>
@@ -2644,7 +2823,7 @@
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="2:39" outlineLevel="2">
+    <row r="28" spans="2:39" hidden="1" outlineLevel="2">
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="18" t="str">
@@ -2690,7 +2869,7 @@
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AM28" s="1"/>
     </row>
@@ -2740,47 +2919,49 @@
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
       <c r="AL29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AM29" s="1"/>
     </row>
-    <row r="30" spans="2:39" hidden="1" outlineLevel="2">
+    <row r="30" spans="2:39" ht="30" hidden="1" outlineLevel="2">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="18" t="str">
-        <f>C$29&amp;" create http-basic-check"</f>
+      <c r="D30" s="25" t="str">
+        <f>C$29&amp;" create "&amp;AC30</f>
         <v>gcloud compute http-health-checks create http-basic-check</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="19"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="27"/>
       <c r="AA30" s="8" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>gcloud compute http-health-checks create http-basic-check</v>
       </c>
-      <c r="AB30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC30" s="2"/>
+      <c r="AB30" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
@@ -2790,11 +2971,11 @@
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="2:39" outlineLevel="1" collapsed="1">
+    <row r="31" spans="2:39" ht="135" outlineLevel="1">
       <c r="B31" s="15"/>
       <c r="C31" s="18" t="str">
         <f>B$2&amp;" backend-services"</f>
@@ -2840,15 +3021,17 @@
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM31" s="1"/>
-    </row>
-    <row r="32" spans="2:39" ht="45" hidden="1" outlineLevel="2">
+        <v>167</v>
+      </c>
+      <c r="AM31" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39" ht="45" outlineLevel="2">
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="25" t="str">
-        <f>C$31&amp;" create "&amp;AC32&amp;" --protocol HTTP --http-health-checks http-basic-check --global"</f>
+        <f>C$31&amp;" create "&amp;AC32&amp;" --protocol "&amp;AE32&amp;IF(ISBLANK(AG32),""," --http-health-checks "&amp;AG32)&amp;IF(ISBLANK(AI32)," --global"," --region "&amp;AI32)</f>
         <v>gcloud compute backend-services create nginx-backend --protocol HTTP --http-health-checks http-basic-check --global</v>
       </c>
       <c r="E32" s="26"/>
@@ -2877,26 +3060,36 @@
         <f t="shared" ca="1" si="13"/>
         <v>gcloud compute backend-services create nginx-backend --protocol HTTP --http-health-checks http-basic-check --global</v>
       </c>
-      <c r="AB32" s="2" t="s">
-        <v>116</v>
+      <c r="AB32" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE32" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF32" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI32" s="5"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="1" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="AM32" s="1"/>
     </row>
-    <row r="33" spans="2:39" ht="45" hidden="1" outlineLevel="2">
+    <row r="33" spans="2:39" ht="45" outlineLevel="2">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="25" t="str">
@@ -2929,13 +3122,13 @@
         <f t="shared" ref="AA33:AA35" ca="1" si="14">IFERROR(OFFSET(A33,0,MATCH("",B33:Z33,-1)),"")</f>
         <v>gcloud compute backend-services add-backend nginx-backend --instance-group nginx-group --instance-group-zone us-central1-a --global</v>
       </c>
-      <c r="AB33" s="2" t="s">
-        <v>116</v>
+      <c r="AB33" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD33" s="28" t="s">
         <v>99</v>
       </c>
       <c r="AE33" s="5" t="s">
@@ -2952,7 +3145,7 @@
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AM33" s="1"/>
     </row>
@@ -3002,7 +3195,7 @@
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AM34" s="1"/>
     </row>
@@ -3040,16 +3233,16 @@
         <v>gcloud compute url-maps create web-map --default-service nginx-backend</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -3058,7 +3251,7 @@
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AM35" s="1"/>
     </row>
@@ -3108,7 +3301,7 @@
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AM36" s="1"/>
     </row>
@@ -3146,16 +3339,16 @@
         <v>gcloud compute target-http-proxies create http-lb-proxy --url-map web-map</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AC37" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
@@ -3164,13 +3357,16 @@
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
       <c r="AL37" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AM37" s="1"/>
     </row>
     <row r="38" spans="2:39" outlineLevel="1" collapsed="1">
-      <c r="B38" s="12"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="18" t="str">
+        <f>B$2&amp;" networks"</f>
+        <v>gcloud compute networks</v>
+      </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
@@ -3195,8 +3391,8 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="19"/>
       <c r="AA38" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" ref="AA38:AA42" ca="1" si="16">IFERROR(OFFSET(A38,0,MATCH("",B38:Z38,-1)),"")</f>
+        <v>gcloud compute networks</v>
       </c>
       <c r="AB38" s="2" t="s">
         <v>6</v>
@@ -3210,47 +3406,56 @@
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
-      <c r="AL38" s="1"/>
+      <c r="AL38" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="AM38" s="1"/>
     </row>
-    <row r="39" spans="2:39">
-      <c r="B39" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="19"/>
+    <row r="39" spans="2:39" ht="30" hidden="1" outlineLevel="2">
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="25" t="str">
+        <f>C$38&amp;" create "&amp;AC39&amp;" --subnet-mode "&amp;AE39</f>
+        <v>gcloud compute networks create taw-custom-network --subnet-mode custom</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="27"/>
       <c r="AA39" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>gcloud auth</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>gcloud compute networks create taw-custom-network --subnet-mode custom</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AC39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE39" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
@@ -3258,42 +3463,42 @@
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="1" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="AM39" s="1"/>
     </row>
-    <row r="40" spans="2:39" outlineLevel="1">
-      <c r="B40" s="10"/>
-      <c r="C40" s="18" t="str">
-        <f>B39&amp;" list"</f>
-        <v>gcloud auth list</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="19"/>
+    <row r="40" spans="2:39" hidden="1" outlineLevel="2">
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="25" t="str">
+        <f>C$38&amp;" subnets"</f>
+        <v>gcloud compute networks subnets</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="27"/>
       <c r="AA40" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>gcloud auth list</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>gcloud compute networks subnets</v>
       </c>
       <c r="AB40" s="2" t="s">
         <v>6</v>
@@ -3308,91 +3513,113 @@
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="1" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="AM40" s="1"/>
     </row>
-    <row r="41" spans="2:39" outlineLevel="1">
-      <c r="B41" s="10"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="19"/>
+    <row r="41" spans="2:39" ht="39.75" hidden="1" customHeight="1" outlineLevel="3">
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="25" t="str">
+        <f>D$40&amp;" create "&amp;AC41&amp;" --network "&amp;AE41&amp;" --region "&amp;AG41&amp;" --range "&amp;AI41</f>
+        <v>gcloud compute networks subnets create subnet-us-central --network taw-custom-network --region us-central1 --range 10.0.0.0/16</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="27"/>
       <c r="AA41" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ca="1" si="16"/>
+        <v>gcloud compute networks subnets create subnet-us-central --network taw-custom-network --region us-central1 --range 10.0.0.0/16</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="AC41" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE41" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI41" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
-      <c r="AL41" s="1"/>
+      <c r="AL41" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="AM41" s="1"/>
     </row>
-    <row r="42" spans="2:39">
-      <c r="B42" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="19"/>
+    <row r="42" spans="2:39" ht="30" hidden="1" outlineLevel="3" collapsed="1">
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="25" t="str">
+        <f>D$40&amp;" list"&amp;IF(ISBLANK(AC42),""," --network "&amp;AC42)</f>
+        <v>gcloud compute networks subnets list --network taw-custom-network</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="27"/>
       <c r="AA42" s="8" t="str">
-        <f t="shared" ref="AA42:AA47" ca="1" si="16">IFERROR(OFFSET(A42,0,MATCH("",B42:Z42,-1)),"")</f>
-        <v>gcloud config</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>gcloud compute networks subnets list --network taw-custom-network</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC42" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
@@ -3402,16 +3629,13 @@
       <c r="AJ42" s="2"/>
       <c r="AK42" s="2"/>
       <c r="AL42" s="1" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="AM42" s="1"/>
     </row>
-    <row r="43" spans="2:39" outlineLevel="1">
-      <c r="B43" s="10"/>
-      <c r="C43" s="18" t="str">
-        <f>B$42&amp;" list project"</f>
-        <v>gcloud config list project</v>
-      </c>
+    <row r="43" spans="2:39" outlineLevel="1" collapsed="1">
+      <c r="B43" s="12"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
@@ -3436,8 +3660,8 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="19"/>
       <c r="AA43" s="8" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>gcloud config list project</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="AB43" s="2" t="s">
         <v>6</v>
@@ -3451,17 +3675,14 @@
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2"/>
-      <c r="AL43" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
     </row>
-    <row r="44" spans="2:39" outlineLevel="1">
-      <c r="B44" s="10"/>
-      <c r="C44" s="18" t="str">
-        <f>B$42&amp;" list --all"</f>
-        <v>gcloud config list --all</v>
-      </c>
+    <row r="44" spans="2:39">
+      <c r="B44" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
@@ -3486,8 +3707,8 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="19"/>
       <c r="AA44" s="8" t="str">
-        <f t="shared" ref="AA44" ca="1" si="17">IFERROR(OFFSET(A44,0,MATCH("",B44:Z44,-1)),"")</f>
-        <v>gcloud config list --all</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>gcloud auth</v>
       </c>
       <c r="AB44" s="2" t="s">
         <v>6</v>
@@ -3502,15 +3723,15 @@
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
       <c r="AL44" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AM44" s="1"/>
     </row>
     <row r="45" spans="2:39" outlineLevel="1">
-      <c r="B45" s="15"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="18" t="str">
-        <f>B$42&amp;" set compute/zone "&amp;AC45</f>
-        <v>gcloud config set compute/zone us-central1-a</v>
+        <f>B44&amp;" list"</f>
+        <v>gcloud auth list</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -3536,15 +3757,13 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="19"/>
       <c r="AA45" s="8" t="str">
-        <f t="shared" ref="AA45" ca="1" si="18">IFERROR(OFFSET(A45,0,MATCH("",B45:Z45,-1)),"")</f>
-        <v>gcloud config set compute/zone us-central1-a</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>gcloud auth list</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC45" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
@@ -3554,16 +3773,13 @@
       <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
       <c r="AL45" s="1" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="AM45" s="1"/>
     </row>
     <row r="46" spans="2:39" outlineLevel="1">
-      <c r="B46" s="15"/>
-      <c r="C46" s="18" t="str">
-        <f>B$42&amp;" set compute/region "&amp;AC46</f>
-        <v>gcloud config set compute/region us-central1</v>
-      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -3588,15 +3804,13 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="19"/>
       <c r="AA46" s="8" t="str">
-        <f t="shared" ref="AA46" ca="1" si="19">IFERROR(OFFSET(A46,0,MATCH("",B46:Z46,-1)),"")</f>
-        <v>gcloud config set compute/region us-central1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC46" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
@@ -3605,13 +3819,13 @@
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
-      <c r="AL46" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
     </row>
-    <row r="47" spans="2:39" outlineLevel="1">
-      <c r="B47" s="10"/>
+    <row r="47" spans="2:39">
+      <c r="B47" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -3637,8 +3851,8 @@
       <c r="Y47" s="18"/>
       <c r="Z47" s="19"/>
       <c r="AA47" s="8" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
+        <f t="shared" ref="AA47:AA52" ca="1" si="17">IFERROR(OFFSET(A47,0,MATCH("",B47:Z47,-1)),"")</f>
+        <v>gcloud config</v>
       </c>
       <c r="AB47" s="2" t="s">
         <v>6</v>
@@ -3652,15 +3866,17 @@
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
-      <c r="AL47" s="1"/>
+      <c r="AL47" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AM47" s="1"/>
     </row>
-    <row r="48" spans="2:39">
-      <c r="B48" s="20" t="str">
-        <f>"gcloud help "&amp;AC48</f>
-        <v>gcloud help config</v>
-      </c>
-      <c r="C48" s="18"/>
+    <row r="48" spans="2:39" outlineLevel="1">
+      <c r="B48" s="10"/>
+      <c r="C48" s="18" t="str">
+        <f>B$47&amp;" list project"</f>
+        <v>gcloud config list project</v>
+      </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
@@ -3685,15 +3901,13 @@
       <c r="Y48" s="18"/>
       <c r="Z48" s="19"/>
       <c r="AA48" s="8" t="str">
-        <f t="shared" ref="AA48:AA52" ca="1" si="20">IFERROR(OFFSET(A48,0,MATCH("",B48:Z48,-1)),"")</f>
-        <v>gcloud help config</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>gcloud config list project</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC48" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
@@ -3703,15 +3917,16 @@
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
       <c r="AL48" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AM48" s="1"/>
     </row>
-    <row r="49" spans="2:39">
-      <c r="B49" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="18"/>
+    <row r="49" spans="2:39" outlineLevel="1">
+      <c r="B49" s="10"/>
+      <c r="C49" s="18" t="str">
+        <f>B$47&amp;" list --all"</f>
+        <v>gcloud config list --all</v>
+      </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
@@ -3736,8 +3951,8 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="19"/>
       <c r="AA49" s="8" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>gcloud init</v>
+        <f t="shared" ref="AA49" ca="1" si="18">IFERROR(OFFSET(A49,0,MATCH("",B49:Z49,-1)),"")</f>
+        <v>gcloud config list --all</v>
       </c>
       <c r="AB49" s="2" t="s">
         <v>6</v>
@@ -3752,15 +3967,15 @@
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AM49" s="1"/>
     </row>
-    <row r="50" spans="2:39" ht="45" outlineLevel="1">
-      <c r="B50" s="10"/>
+    <row r="50" spans="2:39" outlineLevel="1">
+      <c r="B50" s="15"/>
       <c r="C50" s="18" t="str">
-        <f>B49&amp;" --console-only"</f>
-        <v>gcloud init --console-only</v>
+        <f>B$47&amp;" set compute/zone "&amp;AC50</f>
+        <v>gcloud config set compute/zone us-central1-a</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
@@ -3786,13 +4001,15 @@
       <c r="Y50" s="18"/>
       <c r="Z50" s="19"/>
       <c r="AA50" s="8" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>gcloud init --console-only</v>
+        <f t="shared" ref="AA50" ca="1" si="19">IFERROR(OFFSET(A50,0,MATCH("",B50:Z50,-1)),"")</f>
+        <v>gcloud config set compute/zone us-central1-a</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
@@ -3802,13 +4019,16 @@
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
       <c r="AL50" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AM50" s="1"/>
     </row>
     <row r="51" spans="2:39" outlineLevel="1">
-      <c r="B51" s="10"/>
-      <c r="C51" s="18"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="18" t="str">
+        <f>B$47&amp;" set compute/region "&amp;AC51</f>
+        <v>gcloud config set compute/region us-central1</v>
+      </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
@@ -3833,13 +4053,15 @@
       <c r="Y51" s="18"/>
       <c r="Z51" s="19"/>
       <c r="AA51" s="8" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
+        <f t="shared" ref="AA51" ca="1" si="20">IFERROR(OFFSET(A51,0,MATCH("",B51:Z51,-1)),"")</f>
+        <v>gcloud config set compute/region us-central1</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC51" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC51" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
@@ -3848,13 +4070,13 @@
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
       <c r="AK51" s="2"/>
-      <c r="AL51" s="1"/>
+      <c r="AL51" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AM51" s="1"/>
     </row>
-    <row r="52" spans="2:39" ht="30">
-      <c r="B52" s="20" t="s">
-        <v>26</v>
-      </c>
+    <row r="52" spans="2:39" outlineLevel="1">
+      <c r="B52" s="10"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -3880,8 +4102,8 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="19"/>
       <c r="AA52" s="8" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>gcloud info</v>
+        <f t="shared" ca="1" si="17"/>
+        <v/>
       </c>
       <c r="AB52" s="2" t="s">
         <v>6</v>
@@ -3895,13 +4117,14 @@
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
       <c r="AK52" s="2"/>
-      <c r="AL52" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
     </row>
     <row r="53" spans="2:39">
-      <c r="B53" s="20"/>
+      <c r="B53" s="20" t="str">
+        <f>"gcloud help "&amp;AC53</f>
+        <v>gcloud help config</v>
+      </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -3927,13 +4150,15 @@
       <c r="Y53" s="18"/>
       <c r="Z53" s="19"/>
       <c r="AA53" s="8" t="str">
-        <f t="shared" ref="AA53:AA55" ca="1" si="21">IFERROR(OFFSET(A53,0,MATCH("",B53:Z53,-1)),"")</f>
-        <v/>
+        <f t="shared" ref="AA53:AA57" ca="1" si="21">IFERROR(OFFSET(A53,0,MATCH("",B53:Z53,-1)),"")</f>
+        <v>gcloud help config</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="AC53" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
@@ -3942,12 +4167,16 @@
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2"/>
-      <c r="AL53" s="1"/>
+      <c r="AL53" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="AM53" s="1"/>
     </row>
-    <row r="54" spans="2:39" outlineLevel="1">
-      <c r="B54" s="10"/>
-      <c r="C54" s="20"/>
+    <row r="54" spans="2:39">
+      <c r="B54" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="18"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -3973,7 +4202,7 @@
       <c r="Z54" s="19"/>
       <c r="AA54" s="8" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>gcloud init</v>
       </c>
       <c r="AB54" s="2" t="s">
         <v>6</v>
@@ -3987,12 +4216,17 @@
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
       <c r="AK54" s="2"/>
-      <c r="AL54" s="1"/>
+      <c r="AL54" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="AM54" s="1"/>
     </row>
-    <row r="55" spans="2:39" outlineLevel="1">
+    <row r="55" spans="2:39" ht="45" outlineLevel="1">
       <c r="B55" s="10"/>
-      <c r="C55" s="20"/>
+      <c r="C55" s="18" t="str">
+        <f>B54&amp;" --console-only"</f>
+        <v>gcloud init --console-only</v>
+      </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -4018,7 +4252,7 @@
       <c r="Z55" s="19"/>
       <c r="AA55" s="8" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v/>
+        <v>gcloud init --console-only</v>
       </c>
       <c r="AB55" s="2" t="s">
         <v>6</v>
@@ -4032,12 +4266,14 @@
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
       <c r="AK55" s="2"/>
-      <c r="AL55" s="1"/>
+      <c r="AL55" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="AM55" s="1"/>
     </row>
     <row r="56" spans="2:39" outlineLevel="1">
       <c r="B56" s="10"/>
-      <c r="C56" s="20"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
@@ -4062,7 +4298,7 @@
       <c r="Y56" s="18"/>
       <c r="Z56" s="19"/>
       <c r="AA56" s="8" t="str">
-        <f t="shared" ref="AA56" ca="1" si="22">IFERROR(OFFSET(A56,0,MATCH("",B56:Z56,-1)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AB56" s="2" t="s">
@@ -4080,9 +4316,11 @@
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
     </row>
-    <row r="57" spans="2:39" outlineLevel="1">
-      <c r="B57" s="10"/>
-      <c r="C57" s="20"/>
+    <row r="57" spans="2:39" ht="30">
+      <c r="B57" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="18"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -4107,8 +4345,8 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="19"/>
       <c r="AA57" s="8" t="str">
-        <f t="shared" ref="AA57:AA60" ca="1" si="23">IFERROR(OFFSET(A57,0,MATCH("",B57:Z57,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="21"/>
+        <v>gcloud info</v>
       </c>
       <c r="AB57" s="2" t="s">
         <v>6</v>
@@ -4122,14 +4360,14 @@
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
       <c r="AK57" s="2"/>
-      <c r="AL57" s="1"/>
+      <c r="AL57" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AM57" s="1"/>
     </row>
-    <row r="58" spans="2:39" outlineLevel="1">
-      <c r="B58" s="12"/>
-      <c r="C58" s="20" t="s">
-        <v>13</v>
-      </c>
+    <row r="58" spans="2:39">
+      <c r="B58" s="20"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
@@ -4154,9 +4392,8 @@
       <c r="Y58" s="18"/>
       <c r="Z58" s="19"/>
       <c r="AA58" s="8" t="str">
-        <f t="shared" ref="AA58:AA59" ca="1" si="24">IFERROR(OFFSET(A58,0,MATCH("",B58:Z58,-1)),"")</f>
-        <v xml:space="preserve">
-</v>
+        <f t="shared" ref="AA58:AA60" ca="1" si="22">IFERROR(OFFSET(A58,0,MATCH("",B58:Z58,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB58" s="2" t="s">
         <v>6</v>
@@ -4174,7 +4411,7 @@
       <c r="AM58" s="1"/>
     </row>
     <row r="59" spans="2:39" outlineLevel="1">
-      <c r="B59" s="12"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="20"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
@@ -4200,7 +4437,7 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="19"/>
       <c r="AA59" s="8" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AB59" s="2" t="s">
@@ -4219,7 +4456,7 @@
       <c r="AM59" s="1"/>
     </row>
     <row r="60" spans="2:39" outlineLevel="1">
-      <c r="B60" s="12"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="20"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -4245,7 +4482,7 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="19"/>
       <c r="AA60" s="8" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AB60" s="2" t="s">
@@ -4264,10 +4501,8 @@
       <c r="AM60" s="1"/>
     </row>
     <row r="61" spans="2:39" outlineLevel="1">
-      <c r="B61" s="12"/>
-      <c r="C61" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -4292,9 +4527,8 @@
       <c r="Y61" s="18"/>
       <c r="Z61" s="19"/>
       <c r="AA61" s="8" t="str">
-        <f t="shared" ref="AA61:AA65" ca="1" si="25">IFERROR(OFFSET(A61,0,MATCH("",B61:Z61,-1)),"")</f>
-        <v xml:space="preserve">
-</v>
+        <f t="shared" ref="AA61" ca="1" si="23">IFERROR(OFFSET(A61,0,MATCH("",B61:Z61,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB61" s="2" t="s">
         <v>6</v>
@@ -4312,7 +4546,7 @@
       <c r="AM61" s="1"/>
     </row>
     <row r="62" spans="2:39" outlineLevel="1">
-      <c r="B62" s="12"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="20"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
@@ -4338,7 +4572,7 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="19"/>
       <c r="AA62" s="8" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="AA62:AA65" ca="1" si="24">IFERROR(OFFSET(A62,0,MATCH("",B62:Z62,-1)),"")</f>
         <v/>
       </c>
       <c r="AB62" s="2" t="s">
@@ -4358,7 +4592,9 @@
     </row>
     <row r="63" spans="2:39" outlineLevel="1">
       <c r="B63" s="12"/>
-      <c r="C63" s="20"/>
+      <c r="C63" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -4383,8 +4619,9 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="19"/>
       <c r="AA63" s="8" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
+        <f t="shared" ref="AA63:AA64" ca="1" si="25">IFERROR(OFFSET(A63,0,MATCH("",B63:Z63,-1)),"")</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB63" s="2" t="s">
         <v>6</v>
@@ -4473,7 +4710,7 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="19"/>
       <c r="AA65" s="8" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AB65" s="2" t="s">
@@ -4493,7 +4730,9 @@
     </row>
     <row r="66" spans="2:39" outlineLevel="1">
       <c r="B66" s="12"/>
-      <c r="C66" s="20"/>
+      <c r="C66" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -4518,8 +4757,9 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="19"/>
       <c r="AA66" s="8" t="str">
-        <f t="shared" ref="AA66" ca="1" si="26">IFERROR(OFFSET(A66,0,MATCH("",B66:Z66,-1)),"")</f>
-        <v/>
+        <f t="shared" ref="AA66:AA70" ca="1" si="26">IFERROR(OFFSET(A66,0,MATCH("",B66:Z66,-1)),"")</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB66" s="2" t="s">
         <v>6</v>
@@ -4536,9 +4776,9 @@
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
     </row>
-    <row r="67" spans="2:39" collapsed="1">
-      <c r="B67" s="20"/>
-      <c r="C67" s="18"/>
+    <row r="67" spans="2:39" outlineLevel="1">
+      <c r="B67" s="12"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -4563,7 +4803,7 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="19"/>
       <c r="AA67" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB67" s="2" t="s">
@@ -4581,9 +4821,9 @@
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
     </row>
-    <row r="68" spans="2:39">
-      <c r="B68" s="20"/>
-      <c r="C68" s="18"/>
+    <row r="68" spans="2:39" outlineLevel="1">
+      <c r="B68" s="12"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
@@ -4608,7 +4848,7 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="19"/>
       <c r="AA68" s="8" t="str">
-        <f t="shared" ref="AA68:AA89" ca="1" si="27">IFERROR(OFFSET(A68,0,MATCH("",B68:Z68,-1)),"")</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB68" s="2" t="s">
@@ -4627,8 +4867,8 @@
       <c r="AM68" s="1"/>
     </row>
     <row r="69" spans="2:39" outlineLevel="1">
-      <c r="B69" s="3"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
@@ -4653,7 +4893,7 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="19"/>
       <c r="AA69" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB69" s="2" t="s">
@@ -4672,8 +4912,8 @@
       <c r="AM69" s="1"/>
     </row>
     <row r="70" spans="2:39" outlineLevel="1">
-      <c r="B70" s="3"/>
-      <c r="C70" s="18"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
@@ -4698,7 +4938,7 @@
       <c r="Y70" s="18"/>
       <c r="Z70" s="19"/>
       <c r="AA70" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB70" s="2" t="s">
@@ -4716,9 +4956,9 @@
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
     </row>
-    <row r="71" spans="2:39" outlineLevel="2">
-      <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
+    <row r="71" spans="2:39" outlineLevel="1">
+      <c r="B71" s="12"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
@@ -4743,7 +4983,7 @@
       <c r="Y71" s="18"/>
       <c r="Z71" s="19"/>
       <c r="AA71" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ref="AA71" ca="1" si="27">IFERROR(OFFSET(A71,0,MATCH("",B71:Z71,-1)),"")</f>
         <v/>
       </c>
       <c r="AB71" s="2" t="s">
@@ -4761,9 +5001,9 @@
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
     </row>
-    <row r="72" spans="2:39" outlineLevel="2">
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
+    <row r="72" spans="2:39" collapsed="1">
+      <c r="B72" s="20"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
@@ -4788,7 +5028,7 @@
       <c r="Y72" s="18"/>
       <c r="Z72" s="19"/>
       <c r="AA72" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="AB72" s="2" t="s">
@@ -4806,10 +5046,10 @@
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
     </row>
-    <row r="73" spans="2:39" outlineLevel="3">
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+    <row r="73" spans="2:39">
+      <c r="B73" s="20"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
@@ -4833,7 +5073,7 @@
       <c r="Y73" s="18"/>
       <c r="Z73" s="19"/>
       <c r="AA73" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ref="AA73:AA94" ca="1" si="28">IFERROR(OFFSET(A73,0,MATCH("",B73:Z73,-1)),"")</f>
         <v/>
       </c>
       <c r="AB73" s="2" t="s">
@@ -4851,10 +5091,10 @@
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
     </row>
-    <row r="74" spans="2:39" outlineLevel="3" collapsed="1">
+    <row r="74" spans="2:39" outlineLevel="1">
       <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
@@ -4878,7 +5118,7 @@
       <c r="Y74" s="18"/>
       <c r="Z74" s="19"/>
       <c r="AA74" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB74" s="2" t="s">
@@ -4896,11 +5136,11 @@
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
     </row>
-    <row r="75" spans="2:39" hidden="1" outlineLevel="4">
+    <row r="75" spans="2:39" outlineLevel="1" collapsed="1">
       <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -4923,7 +5163,7 @@
       <c r="Y75" s="18"/>
       <c r="Z75" s="19"/>
       <c r="AA75" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB75" s="2" t="s">
@@ -4941,11 +5181,11 @@
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
     </row>
-    <row r="76" spans="2:39" hidden="1" outlineLevel="4">
+    <row r="76" spans="2:39" hidden="1" outlineLevel="2">
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -4968,7 +5208,7 @@
       <c r="Y76" s="18"/>
       <c r="Z76" s="19"/>
       <c r="AA76" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB76" s="2" t="s">
@@ -4986,12 +5226,12 @@
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
     </row>
-    <row r="77" spans="2:39" hidden="1" outlineLevel="5">
+    <row r="77" spans="2:39" hidden="1" outlineLevel="2">
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
@@ -5013,7 +5253,7 @@
       <c r="Y77" s="18"/>
       <c r="Z77" s="19"/>
       <c r="AA77" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB77" s="2" t="s">
@@ -5031,12 +5271,12 @@
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
     </row>
-    <row r="78" spans="2:39" hidden="1" outlineLevel="5">
+    <row r="78" spans="2:39" hidden="1" outlineLevel="3">
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
@@ -5058,7 +5298,7 @@
       <c r="Y78" s="18"/>
       <c r="Z78" s="19"/>
       <c r="AA78" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB78" s="2" t="s">
@@ -5076,13 +5316,13 @@
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
     </row>
-    <row r="79" spans="2:39" hidden="1" outlineLevel="6">
+    <row r="79" spans="2:39" hidden="1" outlineLevel="3">
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
       <c r="J79" s="18"/>
@@ -5103,7 +5343,7 @@
       <c r="Y79" s="18"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB79" s="2" t="s">
@@ -5121,13 +5361,13 @@
       <c r="AL79" s="1"/>
       <c r="AM79" s="1"/>
     </row>
-    <row r="80" spans="2:39" hidden="1" outlineLevel="6">
+    <row r="80" spans="2:39" hidden="1" outlineLevel="4">
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
       <c r="J80" s="18"/>
@@ -5148,7 +5388,7 @@
       <c r="Y80" s="18"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB80" s="2" t="s">
@@ -5166,14 +5406,14 @@
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
     </row>
-    <row r="81" spans="2:39" hidden="1" outlineLevel="7">
+    <row r="81" spans="2:39" hidden="1" outlineLevel="4">
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
       <c r="I81" s="18"/>
       <c r="J81" s="18"/>
       <c r="K81" s="18"/>
@@ -5193,7 +5433,7 @@
       <c r="Y81" s="18"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB81" s="2" t="s">
@@ -5211,14 +5451,14 @@
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
     </row>
-    <row r="82" spans="2:39" hidden="1" outlineLevel="7">
+    <row r="82" spans="2:39" hidden="1" outlineLevel="5">
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
       <c r="I82" s="18"/>
       <c r="J82" s="18"/>
       <c r="K82" s="18"/>
@@ -5238,7 +5478,7 @@
       <c r="Y82" s="18"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB82" s="2" t="s">
@@ -5256,13 +5496,13 @@
       <c r="AL82" s="1"/>
       <c r="AM82" s="1"/>
     </row>
-    <row r="83" spans="2:39" hidden="1" outlineLevel="6">
+    <row r="83" spans="2:39" hidden="1" outlineLevel="5">
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
       <c r="J83" s="18"/>
@@ -5283,7 +5523,7 @@
       <c r="Y83" s="18"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB83" s="2" t="s">
@@ -5301,13 +5541,13 @@
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
     </row>
-    <row r="84" spans="2:39" hidden="1" outlineLevel="5">
+    <row r="84" spans="2:39" hidden="1" outlineLevel="6">
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="18"/>
+      <c r="G84" s="4"/>
       <c r="H84" s="18"/>
       <c r="I84" s="18"/>
       <c r="J84" s="18"/>
@@ -5328,7 +5568,7 @@
       <c r="Y84" s="18"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB84" s="2" t="s">
@@ -5346,13 +5586,13 @@
       <c r="AL84" s="1"/>
       <c r="AM84" s="1"/>
     </row>
-    <row r="85" spans="2:39" hidden="1" outlineLevel="4">
+    <row r="85" spans="2:39" hidden="1" outlineLevel="6">
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
       <c r="H85" s="18"/>
       <c r="I85" s="18"/>
       <c r="J85" s="18"/>
@@ -5373,7 +5613,7 @@
       <c r="Y85" s="18"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB85" s="2" t="s">
@@ -5391,14 +5631,14 @@
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
     </row>
-    <row r="86" spans="2:39" outlineLevel="3">
+    <row r="86" spans="2:39" hidden="1" outlineLevel="7">
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="18"/>
       <c r="J86" s="18"/>
       <c r="K86" s="18"/>
@@ -5418,7 +5658,7 @@
       <c r="Y86" s="18"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB86" s="2" t="s">
@@ -5436,14 +5676,14 @@
       <c r="AL86" s="1"/>
       <c r="AM86" s="1"/>
     </row>
-    <row r="87" spans="2:39" outlineLevel="3">
+    <row r="87" spans="2:39" hidden="1" outlineLevel="7">
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="18"/>
       <c r="J87" s="18"/>
       <c r="K87" s="18"/>
@@ -5463,7 +5703,7 @@
       <c r="Y87" s="18"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB87" s="2" t="s">
@@ -5481,13 +5721,13 @@
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
     </row>
-    <row r="88" spans="2:39" outlineLevel="2">
+    <row r="88" spans="2:39" hidden="1" outlineLevel="6">
       <c r="B88" s="3"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
       <c r="J88" s="18"/>
@@ -5508,7 +5748,7 @@
       <c r="Y88" s="18"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB88" s="2" t="s">
@@ -5526,12 +5766,12 @@
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
     </row>
-    <row r="89" spans="2:39">
-      <c r="B89" s="20"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
+    <row r="89" spans="2:39" hidden="1" outlineLevel="5">
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
@@ -5553,7 +5793,7 @@
       <c r="Y89" s="18"/>
       <c r="Z89" s="19"/>
       <c r="AA89" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB89" s="2" t="s">
@@ -5571,8 +5811,238 @@
       <c r="AL89" s="1"/>
       <c r="AM89" s="1"/>
     </row>
+    <row r="90" spans="2:39" hidden="1" outlineLevel="4">
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+      <c r="U90" s="18"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="18"/>
+      <c r="Y90" s="18"/>
+      <c r="Z90" s="19"/>
+      <c r="AA90" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AB90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
+      <c r="AG90" s="2"/>
+      <c r="AH90" s="2"/>
+      <c r="AI90" s="2"/>
+      <c r="AJ90" s="2"/>
+      <c r="AK90" s="2"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+    </row>
+    <row r="91" spans="2:39" hidden="1" outlineLevel="3">
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
+      <c r="V91" s="18"/>
+      <c r="W91" s="18"/>
+      <c r="X91" s="18"/>
+      <c r="Y91" s="18"/>
+      <c r="Z91" s="19"/>
+      <c r="AA91" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AB91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2"/>
+      <c r="AG91" s="2"/>
+      <c r="AH91" s="2"/>
+      <c r="AI91" s="2"/>
+      <c r="AJ91" s="2"/>
+      <c r="AK91" s="2"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+    </row>
+    <row r="92" spans="2:39" hidden="1" outlineLevel="3">
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="19"/>
+      <c r="AA92" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AB92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="2"/>
+      <c r="AG92" s="2"/>
+      <c r="AH92" s="2"/>
+      <c r="AI92" s="2"/>
+      <c r="AJ92" s="2"/>
+      <c r="AK92" s="2"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+    </row>
+    <row r="93" spans="2:39" hidden="1" outlineLevel="2">
+      <c r="B93" s="3"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="18"/>
+      <c r="U93" s="18"/>
+      <c r="V93" s="18"/>
+      <c r="W93" s="18"/>
+      <c r="X93" s="18"/>
+      <c r="Y93" s="18"/>
+      <c r="Z93" s="19"/>
+      <c r="AA93" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AB93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="2"/>
+      <c r="AG93" s="2"/>
+      <c r="AH93" s="2"/>
+      <c r="AI93" s="2"/>
+      <c r="AJ93" s="2"/>
+      <c r="AK93" s="2"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+    </row>
+    <row r="94" spans="2:39">
+      <c r="B94" s="20"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="18"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="18"/>
+      <c r="Y94" s="18"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="AB94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="2"/>
+      <c r="AG94" s="2"/>
+      <c r="AH94" s="2"/>
+      <c r="AI94" s="2"/>
+      <c r="AJ94" s="2"/>
+      <c r="AK94" s="2"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="95">
+    <mergeCell ref="D40:Z40"/>
+    <mergeCell ref="E41:Z41"/>
+    <mergeCell ref="E42:Z42"/>
+    <mergeCell ref="C38:Z38"/>
+    <mergeCell ref="D39:Z39"/>
     <mergeCell ref="C34:Z34"/>
     <mergeCell ref="D35:Z35"/>
     <mergeCell ref="C36:Z36"/>
@@ -5589,21 +6059,21 @@
     <mergeCell ref="C29:Z29"/>
     <mergeCell ref="D30:Z30"/>
     <mergeCell ref="D20:Z20"/>
-    <mergeCell ref="B52:Z52"/>
-    <mergeCell ref="C61:Z61"/>
-    <mergeCell ref="C60:Z60"/>
+    <mergeCell ref="B57:Z57"/>
+    <mergeCell ref="C66:Z66"/>
+    <mergeCell ref="C65:Z65"/>
+    <mergeCell ref="C50:Z50"/>
+    <mergeCell ref="C51:Z51"/>
+    <mergeCell ref="B53:Z53"/>
+    <mergeCell ref="C55:Z55"/>
+    <mergeCell ref="C49:Z49"/>
+    <mergeCell ref="B54:Z54"/>
+    <mergeCell ref="C56:Z56"/>
+    <mergeCell ref="D4:Z4"/>
+    <mergeCell ref="B44:Z44"/>
     <mergeCell ref="C45:Z45"/>
     <mergeCell ref="C46:Z46"/>
-    <mergeCell ref="B48:Z48"/>
-    <mergeCell ref="C50:Z50"/>
-    <mergeCell ref="C44:Z44"/>
-    <mergeCell ref="B49:Z49"/>
-    <mergeCell ref="C51:Z51"/>
-    <mergeCell ref="D4:Z4"/>
-    <mergeCell ref="B39:Z39"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="C41:Z41"/>
-    <mergeCell ref="B42:Z42"/>
+    <mergeCell ref="B47:Z47"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="D13:Z13"/>
     <mergeCell ref="C14:Z14"/>
@@ -5616,53 +6086,53 @@
     <mergeCell ref="C23:Z23"/>
     <mergeCell ref="D24:Z24"/>
     <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="H83:Z83"/>
-    <mergeCell ref="G84:Z84"/>
-    <mergeCell ref="F85:Z85"/>
-    <mergeCell ref="G77:Z77"/>
-    <mergeCell ref="G78:Z78"/>
-    <mergeCell ref="H79:Z79"/>
-    <mergeCell ref="H80:Z80"/>
-    <mergeCell ref="I81:Z81"/>
-    <mergeCell ref="F76:Z76"/>
-    <mergeCell ref="I82:Z82"/>
+    <mergeCell ref="H88:Z88"/>
+    <mergeCell ref="G89:Z89"/>
+    <mergeCell ref="F90:Z90"/>
+    <mergeCell ref="G82:Z82"/>
+    <mergeCell ref="G83:Z83"/>
+    <mergeCell ref="H84:Z84"/>
+    <mergeCell ref="H85:Z85"/>
+    <mergeCell ref="I86:Z86"/>
+    <mergeCell ref="F81:Z81"/>
+    <mergeCell ref="I87:Z87"/>
     <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="D72:Z72"/>
+    <mergeCell ref="D77:Z77"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="B67:Z67"/>
-    <mergeCell ref="E73:Z73"/>
-    <mergeCell ref="B68:Z68"/>
+    <mergeCell ref="B72:Z72"/>
+    <mergeCell ref="E78:Z78"/>
+    <mergeCell ref="B73:Z73"/>
+    <mergeCell ref="C74:Z74"/>
+    <mergeCell ref="C75:Z75"/>
+    <mergeCell ref="D76:Z76"/>
+    <mergeCell ref="B94:Z94"/>
+    <mergeCell ref="E91:Z91"/>
+    <mergeCell ref="D92:Z92"/>
+    <mergeCell ref="C93:Z93"/>
+    <mergeCell ref="E79:Z79"/>
+    <mergeCell ref="F80:Z80"/>
+    <mergeCell ref="C67:Z67"/>
+    <mergeCell ref="C68:Z68"/>
     <mergeCell ref="C69:Z69"/>
     <mergeCell ref="C70:Z70"/>
-    <mergeCell ref="D71:Z71"/>
-    <mergeCell ref="B89:Z89"/>
-    <mergeCell ref="E86:Z86"/>
-    <mergeCell ref="D87:Z87"/>
-    <mergeCell ref="C88:Z88"/>
-    <mergeCell ref="E74:Z74"/>
-    <mergeCell ref="F75:Z75"/>
-    <mergeCell ref="C62:Z62"/>
-    <mergeCell ref="C63:Z63"/>
-    <mergeCell ref="C64:Z64"/>
-    <mergeCell ref="C65:Z65"/>
-    <mergeCell ref="C66:Z66"/>
+    <mergeCell ref="C71:Z71"/>
     <mergeCell ref="D5:Z5"/>
     <mergeCell ref="C10:Z10"/>
     <mergeCell ref="D11:Z11"/>
-    <mergeCell ref="C58:Z58"/>
-    <mergeCell ref="C59:Z59"/>
+    <mergeCell ref="C63:Z63"/>
+    <mergeCell ref="C64:Z64"/>
     <mergeCell ref="C7:Z7"/>
     <mergeCell ref="D9:Z9"/>
-    <mergeCell ref="C38:Z38"/>
+    <mergeCell ref="C43:Z43"/>
     <mergeCell ref="D8:Z8"/>
-    <mergeCell ref="C43:Z43"/>
-    <mergeCell ref="C47:Z47"/>
-    <mergeCell ref="B53:Z53"/>
-    <mergeCell ref="C54:Z54"/>
-    <mergeCell ref="C55:Z55"/>
-    <mergeCell ref="C56:Z56"/>
-    <mergeCell ref="C57:Z57"/>
+    <mergeCell ref="C48:Z48"/>
+    <mergeCell ref="C52:Z52"/>
+    <mergeCell ref="B58:Z58"/>
+    <mergeCell ref="C59:Z59"/>
+    <mergeCell ref="C60:Z60"/>
+    <mergeCell ref="C61:Z61"/>
+    <mergeCell ref="C62:Z62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -12,7 +12,6 @@
     <sheet name="misc cheatsheet" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -217,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE46" authorId="0">
+    <comment ref="AE45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,12 +281,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Must be one of: asymmetric-encryption, asymmetric-signing, encryption</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="251">
   <si>
     <t>Details</t>
   </si>
@@ -510,9 +522,6 @@
     <t>Copies directories from/to Google Cloud Storage buckets.</t>
   </si>
   <si>
-    <t>image-folder/</t>
-  </si>
-  <si>
     <t>gsutil ls</t>
   </si>
   <si>
@@ -682,9 +691,6 @@
     <t>Network name:</t>
   </si>
   <si>
-    <t>taw-custom-network</t>
-  </si>
-  <si>
     <t>Sub-net mode:</t>
   </si>
   <si>
@@ -703,15 +709,9 @@
     <t>Subnet name:</t>
   </si>
   <si>
-    <t>subnet-us-central</t>
-  </si>
-  <si>
     <t>IP range:</t>
   </si>
   <si>
-    <t>10.0.0.0/16</t>
-  </si>
-  <si>
     <t>Tag:</t>
   </si>
   <si>
@@ -775,9 +775,6 @@
     <t>Sets the project you will be working on from now onwards.</t>
   </si>
   <si>
-    <t>auto</t>
-  </si>
-  <si>
     <t>httplb</t>
   </si>
   <si>
@@ -844,29 +841,15 @@
     <t>Creates a target http proxy.</t>
   </si>
   <si>
-    <t>us-central1-b</t>
-  </si>
-  <si>
     <t>http-tag</t>
   </si>
   <si>
-    <t>startup-script="#! /bin/bash
-      sudo apt-get update
-      sudo apt-get install apache2 -y
-      sudo service apache2 restart
-      echo '&lt;!doctype html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;www-1&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt;' | tee /var/www/html/index.html
-      EOF"</t>
-  </si>
-  <si>
     <t>Image family:</t>
   </si>
   <si>
     <t>Image project:</t>
   </si>
   <si>
-    <t>debian-cloud</t>
-  </si>
-  <si>
     <t>IP name:</t>
   </si>
   <si>
@@ -906,12 +889,6 @@
     <t>(?)</t>
   </si>
   <si>
-    <t>debian-9</t>
-  </si>
-  <si>
-    <t>www-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creates a global static external IP address that is the external IP address your customers use to reach your load balancer. </t>
   </si>
   <si>
@@ -958,13 +935,151 @@
   </si>
   <si>
     <t>Removes the external IP of a virtual machine.</t>
+  </si>
+  <si>
+    <t>Lists all networks in the current project.</t>
+  </si>
+  <si>
+    <t>custom-network1</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>subnet-us-central-192</t>
+  </si>
+  <si>
+    <t>subnet-europe-west-192</t>
+  </si>
+  <si>
+    <t>192.168.5.0/24</t>
+  </si>
+  <si>
+    <t>instance-3</t>
+  </si>
+  <si>
+    <t>gcloud kms</t>
+  </si>
+  <si>
+    <t>Keyring name:</t>
+  </si>
+  <si>
+    <t>$KEYRING_NAME</t>
+  </si>
+  <si>
+    <t>Location:</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>Member:</t>
+  </si>
+  <si>
+    <t>user:$USER_EMAIL</t>
+  </si>
+  <si>
+    <t>Role:</t>
+  </si>
+  <si>
+    <t>roles/cloudkms.cryptoKeyEncrypterDecrypter</t>
+  </si>
+  <si>
+    <t>${BUCKET_NAME}</t>
+  </si>
+  <si>
+    <t>Key name:</t>
+  </si>
+  <si>
+    <t>$CRYPTOKEY_NAME</t>
+  </si>
+  <si>
+    <t>Keyring:</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>encryption</t>
+  </si>
+  <si>
+    <t>1.encrypted</t>
+  </si>
+  <si>
+    <t>cloudkms.admin role allows to CRUD KMS objectes (keyrings, keys,…). cloudkms.cryptoKeyEncrypterDecrypter allows to cipher and decipher data using those keys.</t>
+  </si>
+  <si>
+    <t>gsutil -m cp -r gs://enron_corpus/allen-p .</t>
+  </si>
+  <si>
+    <t>Manages keyrings.</t>
+  </si>
+  <si>
+    <t>A keyring is a container for cryptographic keys.</t>
+  </si>
+  <si>
+    <t>Creates a keyring.</t>
+  </si>
+  <si>
+    <t>Adds IAM policy binding to a keyring.</t>
+  </si>
+  <si>
+    <t>Manages cryptographic keys.</t>
+  </si>
+  <si>
+    <t>Creates a new cryptographic key.</t>
+  </si>
+  <si>
+    <t>Enables/disables GCP APIs and services.</t>
+  </si>
+  <si>
+    <t>gcloud services</t>
+  </si>
+  <si>
+    <t>Enables a service for consumption for a project.</t>
+  </si>
+  <si>
+    <t>Lists all GCP services available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service:</t>
+  </si>
+  <si>
+    <t>cloudkms.googleapis.com</t>
+  </si>
+  <si>
+    <t>Encrypts some Base64 encoded data.</t>
+  </si>
+  <si>
+    <t>Key:</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>$DEVSHELL_PROJECT_ID</t>
+  </si>
+  <si>
+    <t>Base64 data:</t>
+  </si>
+  <si>
+    <t>$PLAINTEXT</t>
+  </si>
+  <si>
+    <t>Decrypts some data.</t>
+  </si>
+  <si>
+    <t>Base64 ciphertext:</t>
+  </si>
+  <si>
+    <t>$(cat 1.encrypted)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,6 +1131,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1158,7 +1279,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1225,6 +1346,22 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1234,25 +1371,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Code" xfId="1"/>
@@ -1561,10 +1692,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AQ104"/>
+  <dimension ref="B1:AQ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83:Z83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1572,61 +1703,61 @@
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
     <col min="27" max="27" width="20.5703125" customWidth="1"/>
     <col min="28" max="28" width="13.140625" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="19.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="24.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="14.140625" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="19.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="19.7109375" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="15.42578125" customWidth="1" outlineLevel="1"/>
     <col min="33" max="33" width="43" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="13.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="13.140625" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="42.140625" customWidth="1" outlineLevel="1"/>
     <col min="36" max="36" width="10.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="14.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="8.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="8.42578125" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="16.140625" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="7.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="12.7109375" customWidth="1" outlineLevel="1"/>
     <col min="42" max="42" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="46" customWidth="1"/>
     <col min="44" max="44" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:43">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
@@ -1645,7 +1776,7 @@
       </c>
     </row>
     <row r="2" spans="2:43" ht="30">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="29"/>
@@ -1673,7 +1804,7 @@
       <c r="Y2" s="29"/>
       <c r="Z2" s="30"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA82" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA91" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>gcloud compute</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -1751,89 +1882,73 @@
       </c>
       <c r="AQ3" s="1"/>
     </row>
-    <row r="4" spans="2:43" ht="125.25" customHeight="1" outlineLevel="2">
+    <row r="4" spans="2:43" ht="30" outlineLevel="2">
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="32" t="str">
         <f>C$3&amp;" create "&amp;AC4&amp;IF(ISBLANK(AE4),""," --zone "&amp;AE4)&amp;IF(ISBLANK(AI4),""," --subnet "&amp;AI4)&amp;IF(ISBLANK(AK4),""," --tags "&amp;AK4)&amp;IF(ISBLANK(AM4),""," --image-family "&amp;AM4)&amp;IF(ISBLANK(AO4),""," --image-project "&amp;AO4)&amp;IF(ISBLANK(AG4),""," --metadata "&amp;AG4)</f>
-        <v>gcloud compute instances create www-2 --zone us-central1-b --tags http-tag --image-family debian-9 --image-project debian-cloud --metadata startup-script="#! /bin/bash
-      sudo apt-get update
-      sudo apt-get install apache2 -y
-      sudo service apache2 restart
-      echo '&lt;!doctype html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;www-1&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt;' | tee /var/www/html/index.html
-      EOF"</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="28"/>
+        <v>gcloud compute instances create instance-3 --zone us-central1-a --subnet subnet-us-central-192</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="34"/>
       <c r="AA4" s="8" t="str">
-        <f>D4</f>
-        <v>gcloud compute instances create www-2 --zone us-central1-b --tags http-tag --image-family debian-9 --image-project debian-cloud --metadata startup-script="#! /bin/bash
-      sudo apt-get update
-      sudo apt-get install apache2 -y
-      sudo service apache2 restart
-      echo '&lt;!doctype html&gt;&lt;html&gt;&lt;body&gt;&lt;h1&gt;www-1&lt;/h1&gt;&lt;/body&gt;&lt;/html&gt;' | tee /var/www/html/index.html
-      EOF"</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>gcloud compute instances create instance-3 --zone us-central1-a --subnet subnet-us-central-192</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="AG4" s="5"/>
       <c r="AH4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI4" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="AJ4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>179</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AK4" s="5"/>
       <c r="AL4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>197</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AM4" s="5"/>
       <c r="AN4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AO4" s="5"/>
       <c r="AP4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1963,7 +2078,7 @@
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ6" s="1"/>
     </row>
@@ -2019,7 +2134,7 @@
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AQ7" s="1"/>
     </row>
@@ -2363,81 +2478,81 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ13" s="1"/>
     </row>
     <row r="14" spans="2:43" ht="53.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="32" t="str">
         <f>C$13&amp;" create "&amp;AC14&amp;IF(ISBLANK(AE14),""," --metadata-from-file startup-script="&amp;AE14)&amp;IF(ISBLANK(AG14),""," --metadata "&amp;AG14)&amp;IF(ISBLANK(AI14),""," --region "&amp;AI14)&amp;IF(ISBLANK(AK14),""," --network "&amp;AK14)&amp;IF(ISBLANK(AM14),""," --tags "&amp;AM14)</f>
         <v>gcloud compute instance-templates create europe-west1-template --metadata startup-script-url=gs://cloudnet-lab/startup.sh --region europe-west1 --network httplb --tags www</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="28"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="34"/>
       <c r="AA14" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>gcloud compute instance-templates create europe-west1-template --metadata startup-script-url=gs://cloudnet-lab/startup.sh --region europe-west1 --network httplb --tags www</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE14" s="5"/>
       <c r="AF14" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AM14" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ14" s="1"/>
     </row>
@@ -2491,7 +2606,7 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ15" s="1"/>
     </row>
@@ -2529,10 +2644,10 @@
         <v>gcloud compute target-pools create nginx-pool</v>
       </c>
       <c r="AB16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC16" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -2547,7 +2662,7 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ16" s="1"/>
     </row>
@@ -2601,39 +2716,39 @@
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AQ17" s="1"/>
     </row>
     <row r="18" spans="2:43" hidden="1" outlineLevel="2" collapsed="1">
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="26" t="str">
+      <c r="D18" s="32" t="str">
         <f>C$17&amp;" managed"</f>
         <v>gcloud compute instance-groups managed</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="28"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="34"/>
       <c r="AA18" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>gcloud compute instance-groups managed</v>
@@ -2655,7 +2770,7 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AQ18" s="1"/>
     </row>
@@ -2663,46 +2778,46 @@
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="26" t="str">
+      <c r="E19" s="32" t="str">
         <f>D$18&amp;" create "&amp;AC19&amp;" --template "&amp;AE19&amp;" --size "&amp;AG19&amp;IF(ISBLANK(AI19),""," --base-instance-name "&amp;AI19)&amp;IF(ISBLANK(AK19),""," --target-pool "&amp;AK19)</f>
         <v>gcloud compute instance-groups managed create nginx-group --template nginx-template --size 2 --base-instance-name nginx --target-pool nginx-pool</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="28"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="34"/>
       <c r="AA19" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>gcloud compute instance-groups managed create nginx-group --template nginx-template --size 2 --base-instance-name nginx --target-pool nginx-pool</v>
       </c>
       <c r="AB19" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AC19" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AD19" s="21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF19" s="21" t="s">
         <v>42</v>
@@ -2711,23 +2826,23 @@
         <v>2</v>
       </c>
       <c r="AH19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="AJ19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK19" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AQ19" s="1"/>
     </row>
@@ -2735,46 +2850,46 @@
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="26" t="str">
+      <c r="E20" s="32" t="str">
         <f>D$18&amp;" set-named-ports "&amp;AC20&amp;" --named-ports "&amp;AE20</f>
         <v>gcloud compute instance-groups managed set-named-ports nginx-group --named-ports http:80</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="28"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="34"/>
       <c r="AA20" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>gcloud compute instance-groups managed set-named-ports nginx-group --named-ports http:80</v>
       </c>
       <c r="AB20" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AC20" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AD20" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE20" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -2787,39 +2902,39 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AQ20" s="1"/>
     </row>
     <row r="21" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="26" t="str">
+      <c r="D21" s="32" t="str">
         <f>C$17&amp;" unmanaged"</f>
         <v>gcloud compute instance-groups unmanaged</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="34"/>
       <c r="AA21" s="8" t="str">
         <f t="shared" ref="AA21:AA23" ca="1" si="10">IFERROR(OFFSET(A21,0,MATCH("",B21:Z21,-1)),"")</f>
         <v>gcloud compute instance-groups unmanaged</v>
@@ -2841,7 +2956,7 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AQ21" s="1"/>
     </row>
@@ -2849,46 +2964,46 @@
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="26" t="str">
+      <c r="E22" s="32" t="str">
         <f>D$21&amp;" create "&amp;AC22&amp;" --zone "&amp;AE22</f>
         <v>gcloud compute instance-groups unmanaged create europe-resources-w --zone europe-west1-b</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="28"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="34"/>
       <c r="AA22" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>gcloud compute instance-groups unmanaged create europe-resources-w --zone europe-west1-b</v>
       </c>
       <c r="AB22" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AD22" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -2901,7 +3016,7 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AQ22" s="1"/>
     </row>
@@ -2909,52 +3024,52 @@
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="26" t="str">
+      <c r="E23" s="32" t="str">
         <f>D$21&amp;" add-instances "&amp;AC23&amp;" --instances "&amp;AE23&amp;" --zone "&amp;AG23</f>
         <v>gcloud compute instance-groups unmanaged add-instances europe-resources-w --instances www-3,www-4 --zone europe-west1-b</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="28"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="34"/>
       <c r="AA23" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>gcloud compute instance-groups unmanaged add-instances europe-resources-w --instances www-3,www-4 --zone europe-west1-b</v>
       </c>
       <c r="AB23" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AF23" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
@@ -2965,7 +3080,7 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AQ23" s="1"/>
     </row>
@@ -2973,52 +3088,52 @@
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="26" t="str">
+      <c r="E24" s="32" t="str">
         <f>D$21&amp;" set-named-ports "&amp;AC24&amp;" --named-ports "&amp;AE24&amp;" --zone "&amp;AG24</f>
         <v>gcloud compute instance-groups unmanaged set-named-ports europe-resources-w --named-ports http:80 --zone europe-west1-b</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="28"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="34"/>
       <c r="AA24" s="8" t="str">
         <f t="shared" ref="AA24" ca="1" si="11">IFERROR(OFFSET(A24,0,MATCH("",B24:Z24,-1)),"")</f>
         <v>gcloud compute instance-groups unmanaged set-named-ports europe-resources-w --named-ports http:80 --zone europe-west1-b</v>
       </c>
       <c r="AB24" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AD24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE24" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="AE24" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="AF24" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
@@ -3029,54 +3144,54 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AQ24" s="1"/>
     </row>
     <row r="25" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="26" t="str">
-        <f>C$40&amp;" create "&amp;AC42&amp;" --default-backend-bucket "&amp;AE42</f>
-        <v xml:space="preserve">gcloud compute url-maps create  --default-backend-bucket </v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="28"/>
+      <c r="D25" s="32" t="e">
+        <f>C$40&amp;" create "&amp;#REF!&amp;" --default-backend-bucket "&amp;#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="34"/>
       <c r="AA25" s="8" t="str">
         <f t="shared" ref="AA25" ca="1" si="12">IFERROR(OFFSET(A25,0,MATCH("",B25:Z25,-1)),"")</f>
-        <v xml:space="preserve">gcloud compute url-maps create  --default-backend-bucket </v>
+        <v/>
       </c>
       <c r="AB25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AC25" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="AD25" s="21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -3089,7 +3204,7 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AQ25" s="1"/>
     </row>
@@ -3143,118 +3258,118 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AQ26" s="1"/>
     </row>
     <row r="27" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="26" t="str">
+      <c r="D27" s="32" t="str">
         <f>C$26&amp;" create "&amp;AC27&amp;" --allow "&amp;AE27&amp;IF(ISBLANK(AG27),""," --network "&amp;AG27)&amp;IF(ISBLANK(AI27),""," --source-ranges "&amp;AI27)&amp;IF(ISBLANK(AK27),""," --target-tags "&amp;AK27)</f>
         <v>gcloud compute firewall-rules create allow-lb-and-healthcheck --allow tcp:80 --source-ranges 130.211.0.0/22,35.191.0.0/16 --target-tags http-tag</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="28"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="34"/>
       <c r="AA27" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>gcloud compute firewall-rules create allow-lb-and-healthcheck --allow tcp:80 --source-ranges 130.211.0.0/22,35.191.0.0/16 --target-tags http-tag</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AG27" s="5"/>
       <c r="AH27" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AK27" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AQ27" s="1"/>
     </row>
     <row r="28" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="26" t="str">
+      <c r="D28" s="32" t="str">
         <f>C$26&amp;" delete "&amp;AC28</f>
         <v>gcloud compute firewall-rules delete www-firewall</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="28"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="34"/>
       <c r="AA28" s="8" t="str">
         <f t="shared" ref="AA28" ca="1" si="14">IFERROR(OFFSET(A28,0,MATCH("",B28:Z28,-1)),"")</f>
         <v>gcloud compute firewall-rules delete www-firewall</v>
       </c>
       <c r="AB28" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
@@ -3269,7 +3384,7 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AQ28" s="1"/>
     </row>
@@ -3323,39 +3438,39 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
     <row r="30" spans="2:43" outlineLevel="2">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="26" t="str">
+      <c r="D30" s="32" t="str">
         <f>C$29&amp;" create"</f>
         <v>gcloud compute forwarding-rules create</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="28"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="34"/>
       <c r="AA30" s="8" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>gcloud compute forwarding-rules create</v>
@@ -3377,7 +3492,7 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ30" s="1"/>
     </row>
@@ -3385,53 +3500,53 @@
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="26" t="str">
+      <c r="E31" s="32" t="str">
         <f>D$30&amp;" "&amp;AC31&amp;" --target-pool "&amp;AE31&amp;" --ports="&amp;AG31&amp;IF(ISBLANK(AI31)," --global"," --region "&amp;AI31)</f>
         <v>gcloud compute forwarding-rules create http-cr-rule --target-pool  --ports=80 --global</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="28"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="34"/>
       <c r="AA31" s="8" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>gcloud compute forwarding-rules create http-cr-rule --target-pool  --ports=80 --global</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE31" s="5"/>
       <c r="AF31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG31" s="5">
         <v>80</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="2"/>
@@ -3441,7 +3556,7 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AQ31" s="1"/>
     </row>
@@ -3449,98 +3564,98 @@
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="26" t="str">
+      <c r="E32" s="32" t="str">
         <f>D$30&amp;" "&amp;AC32&amp;" --target-http-proxy "&amp;AE32&amp;" --ports="&amp;AG32&amp;IF(ISBLANK(AI32)," --global"," --region "&amp;AI32)&amp;IF(ISBLANK(AK32),""," --address "&amp;AK32)</f>
         <v>gcloud compute forwarding-rules create http-cr-rule --target-http-proxy http-lb-proxy --ports=80 --global --address 123.456.789.123</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="28"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="34"/>
       <c r="AA32" s="8" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>gcloud compute forwarding-rules create http-cr-rule --target-http-proxy http-lb-proxy --ports=80 --global --address 123.456.789.123</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AD32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE32" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AE32" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="AF32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG32" s="5">
         <v>80</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AK32" s="25" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AQ32" s="1"/>
     </row>
     <row r="33" spans="2:43" outlineLevel="2">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="28"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="34"/>
       <c r="AA33" s="8" t="str">
         <f t="shared" ref="AA33" ca="1" si="16">IFERROR(OFFSET(A33,0,MATCH("",B33:Z33,-1)),"")</f>
         <v/>
@@ -3614,7 +3729,7 @@
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
       <c r="AP34" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AQ34" s="1"/>
     </row>
@@ -3624,29 +3739,29 @@
         <f>B$2&amp;" health-checks"</f>
         <v>gcloud compute health-checks</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="32"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="40"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="22"/>
       <c r="AC35" s="20"/>
@@ -3668,47 +3783,47 @@
     <row r="36" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="26" t="str">
+      <c r="D36" s="32" t="str">
         <f>C$35&amp;" create "&amp;AE36&amp;" "&amp;AC36</f>
         <v>gcloud compute health-checks create http http-basic-check</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="28"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="34"/>
       <c r="AA36" s="8" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>gcloud compute health-checks create http http-basic-check</v>
       </c>
       <c r="AB36" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AD36" s="21" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -3721,7 +3836,7 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
       <c r="AP36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AQ36" s="1"/>
     </row>
@@ -3775,145 +3890,145 @@
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:43" ht="45" hidden="1" outlineLevel="2">
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="26" t="str">
+      <c r="D38" s="32" t="str">
         <f>C$37&amp;" create "&amp;AC38&amp;" --protocol "&amp;AE38&amp;IF(ISBLANK(AG38),""," --http-health-checks "&amp;AG38)&amp;IF(ISBLANK(AI38)," --global"," --region "&amp;AI38)</f>
         <v>gcloud compute backend-services create web-map-backend-service --protocol HTTP --global</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="28"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="34"/>
       <c r="AA38" s="8" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>gcloud compute backend-services create web-map-backend-service --protocol HTTP --global</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AK38" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AQ38" s="1"/>
     </row>
     <row r="39" spans="2:43" ht="60" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="26" t="str">
+      <c r="D39" s="32" t="str">
         <f>C$37&amp;" add-backend "&amp;AC39&amp;" --instance-group "&amp;AE39&amp;IF(ISBLANK(AG39),""," --instance-group-zone "&amp;AG39)&amp;IF(ISBLANK(AI39),""," --balancing-mode "&amp;AI39)&amp;IF(ISBLANK(AK39),""," --max-utilization "&amp;AK39)&amp;IF(ISBLANK(AM39),""," --capacity-scaler "&amp;AM39)&amp;" --global"</f>
         <v>gcloud compute backend-services add-backend web-map-backend-service --instance-group europe-resources-w --instance-group-zone europe-west1-b --balancing-mode UTILIZATION --max-utilization 0.8 --capacity-scaler 1 --global</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="28"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="34"/>
       <c r="AA39" s="8" t="str">
         <f t="shared" ref="AA39:AA41" ca="1" si="18">IFERROR(OFFSET(A39,0,MATCH("",B39:Z39,-1)),"")</f>
         <v>gcloud compute backend-services add-backend web-map-backend-service --instance-group europe-resources-w --instance-group-zone europe-west1-b --balancing-mode UTILIZATION --max-utilization 0.8 --capacity-scaler 1 --global</v>
       </c>
       <c r="AB39" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AD39" s="21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="AF39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AH39" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AJ39" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AK39" s="24" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AL39" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AM39" s="5">
         <v>1</v>
@@ -3921,7 +4036,7 @@
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AQ39" s="1"/>
     </row>
@@ -3975,54 +4090,54 @@
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AQ40" s="1"/>
     </row>
     <row r="41" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="26" t="str">
+      <c r="D41" s="32" t="str">
         <f>C$40&amp;" create "&amp;AC41&amp;" --default-service "&amp;AE41</f>
         <v>gcloud compute url-maps create web-map --default-service web-map-backend-service</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="28"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="34"/>
       <c r="AA41" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v>gcloud compute url-maps create web-map --default-service web-map-backend-service</v>
       </c>
       <c r="AB41" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC41" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AC41" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="AD41" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
@@ -4035,13 +4150,16 @@
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AQ41" s="1"/>
     </row>
-    <row r="42" spans="2:43" outlineLevel="1" collapsed="1">
-      <c r="B42" s="12"/>
-      <c r="C42" s="15"/>
+    <row r="42" spans="2:43" ht="105" outlineLevel="1" collapsed="1">
+      <c r="B42" s="15"/>
+      <c r="C42" s="29" t="str">
+        <f>B$2&amp;" target-http-proxies"</f>
+        <v>gcloud compute target-http-proxies</v>
+      </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
@@ -4066,8 +4184,8 @@
       <c r="Y42" s="29"/>
       <c r="Z42" s="30"/>
       <c r="AA42" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A53,0,MATCH("",B53:Z53,-1)),"")</f>
-        <v/>
+        <f t="shared" ref="AA42:AA43" ca="1" si="19">IFERROR(OFFSET(A42,0,MATCH("",B42:Z42,-1)),"")</f>
+        <v>gcloud compute target-http-proxies</v>
       </c>
       <c r="AB42" s="2" t="s">
         <v>6</v>
@@ -4085,48 +4203,58 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-    </row>
-    <row r="43" spans="2:43" ht="105" outlineLevel="1" collapsed="1">
+      <c r="AP42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B43" s="15"/>
-      <c r="C43" s="29" t="str">
-        <f>B$2&amp;" target-http-proxies"</f>
-        <v>gcloud compute target-http-proxies</v>
-      </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="30"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="32" t="str">
+        <f>C$42&amp;" create "&amp;AC43&amp;" --url-map "&amp;AE43</f>
+        <v>gcloud compute target-http-proxies create http-lb-proxy --url-map web-map</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="34"/>
       <c r="AA43" s="8" t="str">
-        <f t="shared" ref="AA43:AA44" ca="1" si="19">IFERROR(OFFSET(A43,0,MATCH("",B43:Z43,-1)),"")</f>
-        <v>gcloud compute target-http-proxies</v>
-      </c>
-      <c r="AB43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
+        <f t="shared" ca="1" si="19"/>
+        <v>gcloud compute target-http-proxies create http-lb-proxy --url-map web-map</v>
+      </c>
+      <c r="AB43" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD43" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE43" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
@@ -4138,57 +4266,49 @@
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ43" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="2:43" ht="30" hidden="1" outlineLevel="2">
+        <v>172</v>
+      </c>
+      <c r="AQ43" s="1"/>
+    </row>
+    <row r="44" spans="2:43" outlineLevel="1">
       <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="26" t="str">
-        <f>C$43&amp;" create "&amp;AC44&amp;" --url-map "&amp;AE44</f>
-        <v>gcloud compute target-http-proxies create http-lb-proxy --url-map web-map</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="28"/>
+      <c r="C44" s="29" t="str">
+        <f>B$2&amp;" networks"</f>
+        <v>gcloud compute networks</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="30"/>
       <c r="AA44" s="8" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>gcloud compute target-http-proxies create http-lb-proxy --url-map web-map</v>
-      </c>
-      <c r="AB44" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD44" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE44" s="5" t="s">
-        <v>111</v>
-      </c>
+        <f t="shared" ref="AA44:AA49" ca="1" si="20">IFERROR(OFFSET(A44,0,MATCH("",B44:Z44,-1)),"")</f>
+        <v>gcloud compute networks</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
@@ -4200,49 +4320,55 @@
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="1" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="AQ44" s="1"/>
     </row>
-    <row r="45" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="45" spans="2:43" ht="30" outlineLevel="2">
       <c r="B45" s="15"/>
-      <c r="C45" s="29" t="str">
-        <f>B$2&amp;" networks"</f>
-        <v>gcloud compute networks</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="30"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="32" t="str">
+        <f>C$44&amp;" create "&amp;AC45&amp;" --subnet-mode "&amp;AE45</f>
+        <v>gcloud compute networks create custom-network1 --subnet-mode custom</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="34"/>
       <c r="AA45" s="8" t="str">
-        <f t="shared" ref="AA45:AA49" ca="1" si="20">IFERROR(OFFSET(A45,0,MATCH("",B45:Z45,-1)),"")</f>
-        <v>gcloud compute networks</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>gcloud compute networks create custom-network1 --subnet-mode custom</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE45" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
@@ -4254,55 +4380,49 @@
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
       <c r="AP45" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AQ45" s="1"/>
     </row>
-    <row r="46" spans="2:43" ht="30" hidden="1" outlineLevel="2">
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="26" t="str">
-        <f>C$45&amp;" create "&amp;AC46&amp;" --subnet-mode "&amp;AE46</f>
-        <v>gcloud compute networks create httplb --subnet-mode auto</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="28"/>
+    <row r="46" spans="2:43" outlineLevel="2">
+      <c r="B46" s="27"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="32" t="str">
+        <f>C$44&amp;" list"</f>
+        <v>gcloud compute networks list</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="34"/>
       <c r="AA46" s="8" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>gcloud compute networks create httplb --subnet-mode auto</v>
+        <f t="shared" ref="AA46" ca="1" si="21">IFERROR(OFFSET(A46,0,MATCH("",B46:Z46,-1)),"")</f>
+        <v>gcloud compute networks list</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC46" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE46" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
@@ -4314,39 +4434,39 @@
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="1" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="AQ46" s="1"/>
     </row>
-    <row r="47" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="47" spans="2:43" outlineLevel="2">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="26" t="str">
-        <f>C$45&amp;" subnets"</f>
+      <c r="D47" s="32" t="str">
+        <f>C$44&amp;" subnets"</f>
         <v>gcloud compute networks subnets</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="28"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="34"/>
       <c r="AA47" s="8" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>gcloud compute networks subnets</v>
@@ -4368,66 +4488,66 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AQ47" s="1"/>
     </row>
-    <row r="48" spans="2:43" ht="39.75" hidden="1" customHeight="1" outlineLevel="3">
+    <row r="48" spans="2:43" ht="39.75" customHeight="1" outlineLevel="3">
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="26" t="str">
+      <c r="E48" s="32" t="str">
         <f>D$47&amp;" create "&amp;AC48&amp;" --network "&amp;AE48&amp;" --region "&amp;AG48&amp;" --range "&amp;AI48</f>
-        <v>gcloud compute networks subnets create subnet-us-central --network taw-custom-network --region us-central1 --range 10.0.0.0/16</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="28"/>
+        <v>gcloud compute networks subnets create subnet-europe-west-192 --network custom-network1 --region europe-west1 --range 192.168.5.0/24</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="34"/>
       <c r="AA48" s="8" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>gcloud compute networks subnets create subnet-us-central --network taw-custom-network --region us-central1 --range 10.0.0.0/16</v>
+        <v>gcloud compute networks subnets create subnet-europe-west-192 --network custom-network1 --region europe-west1 --range 192.168.5.0/24</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC48" s="5" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AE48" s="5" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG48" s="5" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="AH48" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AI48" s="5" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
@@ -4436,49 +4556,47 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
       <c r="AP48" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AQ48" s="1"/>
     </row>
-    <row r="49" spans="2:43" ht="30" hidden="1" outlineLevel="3" collapsed="1">
+    <row r="49" spans="2:43" ht="30" outlineLevel="3" collapsed="1">
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="26" t="str">
+      <c r="E49" s="32" t="str">
         <f>D$47&amp;" list"&amp;IF(ISBLANK(AC49),""," --network "&amp;AC49)</f>
-        <v>gcloud compute networks subnets list --network taw-custom-network</v>
-      </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="28"/>
+        <v>gcloud compute networks subnets list</v>
+      </c>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="34"/>
       <c r="AA49" s="8" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>gcloud compute networks subnets list --network taw-custom-network</v>
+        <v>gcloud compute networks subnets list</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC49" s="5" t="s">
-        <v>124</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC49" s="5"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
@@ -4492,7 +4610,7 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
       <c r="AP49" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AQ49" s="1"/>
     </row>
@@ -4526,7 +4644,7 @@
       <c r="Y50" s="29"/>
       <c r="Z50" s="30"/>
       <c r="AA50" s="8" t="str">
-        <f t="shared" ref="AA50" ca="1" si="21">IFERROR(OFFSET(A50,0,MATCH("",B50:Z50,-1)),"")</f>
+        <f t="shared" ref="AA50" ca="1" si="22">IFERROR(OFFSET(A50,0,MATCH("",B50:Z50,-1)),"")</f>
         <v>gcloud compute addresses</v>
       </c>
       <c r="AB50" s="2" t="s">
@@ -4546,54 +4664,54 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AQ50" s="1"/>
     </row>
     <row r="51" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="26" t="str">
+      <c r="D51" s="32" t="str">
         <f>C$50&amp;" create "&amp;AC51&amp;" --ip-version="&amp;AE51&amp;" --global"</f>
         <v>gcloud compute addresses create lb-ipv6-cr --ip-version=IPV6 --global</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="8" t="e">
-        <f>#N/A</f>
-        <v>#N/A</v>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="8" t="str">
+        <f t="shared" ref="AA51:AA52" ca="1" si="23">IFERROR(OFFSET(A51,0,MATCH("",B51:Z51,-1)),"")</f>
+        <v>gcloud compute addresses create lb-ipv6-cr --ip-version=IPV6 --global</v>
       </c>
       <c r="AB51" s="22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AC51" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AD51" s="22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AE51" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
@@ -4606,41 +4724,41 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AQ51" s="1"/>
     </row>
     <row r="52" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="26" t="str">
+      <c r="D52" s="32" t="str">
         <f>C$50&amp;" list"</f>
         <v>gcloud compute addresses list</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="28"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="34"/>
       <c r="AA52" s="8" t="str">
-        <f t="shared" ref="AA52" ca="1" si="22">IFERROR(OFFSET(A52,0,MATCH("",B52:Z52,-1)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v>gcloud compute addresses list</v>
       </c>
       <c r="AB52" s="2" t="s">
@@ -4660,13 +4778,13 @@
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
       <c r="AP52" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AQ52" s="1"/>
     </row>
     <row r="53" spans="2:43" outlineLevel="1">
       <c r="B53" s="10"/>
-      <c r="C53" s="33"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
@@ -4691,7 +4809,7 @@
       <c r="Y53" s="29"/>
       <c r="Z53" s="30"/>
       <c r="AA53" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB53" s="2" t="s">
         <v>6</v>
@@ -4713,7 +4831,7 @@
       <c r="AQ53" s="1"/>
     </row>
     <row r="54" spans="2:43">
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="29"/>
@@ -4869,8 +4987,8 @@
       <c r="AQ56" s="1"/>
     </row>
     <row r="57" spans="2:43">
-      <c r="B57" s="33" t="s">
-        <v>115</v>
+      <c r="B57" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
@@ -4897,7 +5015,7 @@
       <c r="Y57" s="29"/>
       <c r="Z57" s="30"/>
       <c r="AA57" s="8" t="str">
-        <f t="shared" ref="AA57:AA62" ca="1" si="23">IFERROR(OFFSET(A57,0,MATCH("",B57:Z57,-1)),"")</f>
+        <f t="shared" ref="AA57:AA62" ca="1" si="24">IFERROR(OFFSET(A57,0,MATCH("",B57:Z57,-1)),"")</f>
         <v>gcloud config</v>
       </c>
       <c r="AB57" s="2" t="s">
@@ -4951,7 +5069,7 @@
       <c r="Y58" s="29"/>
       <c r="Z58" s="30"/>
       <c r="AA58" s="8" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>gcloud config list project</v>
       </c>
       <c r="AB58" s="2" t="s">
@@ -5005,7 +5123,7 @@
       <c r="Y59" s="29"/>
       <c r="Z59" s="30"/>
       <c r="AA59" s="8" t="str">
-        <f t="shared" ref="AA59" ca="1" si="24">IFERROR(OFFSET(A59,0,MATCH("",B59:Z59,-1)),"")</f>
+        <f t="shared" ref="AA59" ca="1" si="25">IFERROR(OFFSET(A59,0,MATCH("",B59:Z59,-1)),"")</f>
         <v>gcloud config list --all</v>
       </c>
       <c r="AB59" s="2" t="s">
@@ -5059,7 +5177,7 @@
       <c r="Y60" s="29"/>
       <c r="Z60" s="30"/>
       <c r="AA60" s="8" t="str">
-        <f t="shared" ref="AA60" ca="1" si="25">IFERROR(OFFSET(A60,0,MATCH("",B60:Z60,-1)),"")</f>
+        <f t="shared" ref="AA60" ca="1" si="26">IFERROR(OFFSET(A60,0,MATCH("",B60:Z60,-1)),"")</f>
         <v>gcloud config set compute/zone us-central1-a</v>
       </c>
       <c r="AB60" s="21" t="s">
@@ -5081,7 +5199,7 @@
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
       <c r="AP60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AQ60" s="1"/>
     </row>
@@ -5115,14 +5233,14 @@
       <c r="Y61" s="29"/>
       <c r="Z61" s="30"/>
       <c r="AA61" s="8" t="str">
-        <f t="shared" ref="AA61" ca="1" si="26">IFERROR(OFFSET(A61,0,MATCH("",B61:Z61,-1)),"")</f>
+        <f t="shared" ref="AA61" ca="1" si="27">IFERROR(OFFSET(A61,0,MATCH("",B61:Z61,-1)),"")</f>
         <v>gcloud config set compute/region us-central1</v>
       </c>
       <c r="AB61" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC61" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="AC61" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
@@ -5137,7 +5255,7 @@
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
       <c r="AP61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ61" s="1"/>
     </row>
@@ -5171,14 +5289,14 @@
       <c r="Y62" s="29"/>
       <c r="Z62" s="30"/>
       <c r="AA62" s="8" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>gcloud config set project whatever</v>
       </c>
       <c r="AB62" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
@@ -5193,12 +5311,12 @@
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
       <c r="AP62" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AQ62" s="1"/>
     </row>
     <row r="63" spans="2:43">
-      <c r="B63" s="33" t="str">
+      <c r="B63" s="31" t="str">
         <f>"gcloud help "&amp;AC63</f>
         <v>gcloud help config</v>
       </c>
@@ -5227,7 +5345,7 @@
       <c r="Y63" s="29"/>
       <c r="Z63" s="30"/>
       <c r="AA63" s="8" t="str">
-        <f t="shared" ref="AA63:AA67" ca="1" si="27">IFERROR(OFFSET(A63,0,MATCH("",B63:Z63,-1)),"")</f>
+        <f t="shared" ref="AA63:AA73" ca="1" si="28">IFERROR(OFFSET(A63,0,MATCH("",B63:Z63,-1)),"")</f>
         <v>gcloud help config</v>
       </c>
       <c r="AB63" s="2" t="s">
@@ -5254,7 +5372,7 @@
       <c r="AQ63" s="1"/>
     </row>
     <row r="64" spans="2:43">
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C64" s="29"/>
@@ -5282,7 +5400,7 @@
       <c r="Y64" s="29"/>
       <c r="Z64" s="30"/>
       <c r="AA64" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>gcloud init</v>
       </c>
       <c r="AB64" s="2" t="s">
@@ -5336,7 +5454,7 @@
       <c r="Y65" s="29"/>
       <c r="Z65" s="30"/>
       <c r="AA65" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>gcloud init --console-only</v>
       </c>
       <c r="AB65" s="2" t="s">
@@ -5387,7 +5505,7 @@
       <c r="Y66" s="29"/>
       <c r="Z66" s="30"/>
       <c r="AA66" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB66" s="2" t="s">
@@ -5409,9 +5527,9 @@
       <c r="AP66" s="1"/>
       <c r="AQ66" s="1"/>
     </row>
-    <row r="67" spans="2:43" ht="30">
-      <c r="B67" s="33" t="s">
-        <v>26</v>
+    <row r="67" spans="2:43">
+      <c r="B67" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
@@ -5438,8 +5556,8 @@
       <c r="Y67" s="29"/>
       <c r="Z67" s="30"/>
       <c r="AA67" s="8" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>gcloud info</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>gcloud kms</v>
       </c>
       <c r="AB67" s="2" t="s">
         <v>6</v>
@@ -5457,41 +5575,42 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
-      <c r="AP67" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AP67" s="1"/>
       <c r="AQ67" s="1"/>
     </row>
-    <row r="68" spans="2:43">
-      <c r="B68" s="33"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="26" t="str">
-        <f>C$50&amp;" create "&amp;AC51&amp;" --ip-version="&amp;AE51&amp;" --global"</f>
-        <v>gcloud compute addresses create lb-ipv6-cr --ip-version=IPV6 --global</v>
-      </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="8"/>
+    <row r="68" spans="2:43" outlineLevel="1">
+      <c r="B68" s="27"/>
+      <c r="C68" s="29" t="str">
+        <f>B$67&amp;" keyrings"</f>
+        <v>gcloud kms keyrings</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>gcloud kms keyrings</v>
+      </c>
       <c r="AB68" s="2" t="s">
         <v>6</v>
       </c>
@@ -5508,46 +5627,58 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
-      <c r="AP68" s="1"/>
-      <c r="AQ68" s="1"/>
-    </row>
-    <row r="69" spans="2:43" outlineLevel="1" collapsed="1">
-      <c r="B69" s="10"/>
-      <c r="C69" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
+      <c r="AP68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ68" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="2:43" ht="39.75" customHeight="1" outlineLevel="2">
+      <c r="B69" s="27"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="32" t="str">
+        <f>C$68&amp;" create "&amp;AC69&amp;IF(ISBLANK(AE69),""," --location "&amp;AE69)</f>
+        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="8" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
+      </c>
+      <c r="AB69" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC69" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE69" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
@@ -5558,60 +5689,87 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
-      <c r="AP69" s="1"/>
+      <c r="AP69" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AQ69" s="1"/>
     </row>
-    <row r="70" spans="2:43" hidden="1" outlineLevel="7">
-      <c r="B70" s="3"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="2"/>
-      <c r="AG70" s="2"/>
-      <c r="AH70" s="2"/>
-      <c r="AI70" s="2"/>
+    <row r="70" spans="2:43" ht="60" outlineLevel="2">
+      <c r="B70" s="27"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="32" t="str">
+        <f>C$68&amp;" add-iam-policy-binding "&amp;AC70&amp;" --member "&amp;AE70&amp;" --role "&amp;AG70&amp;IF(ISBLANK(AI70),""," --location "&amp;AI70)</f>
+        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
+      </c>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="8" t="str">
+        <f t="shared" ref="AA70:AA72" ca="1" si="29">IFERROR(OFFSET(A70,0,MATCH("",B70:Z70,-1)),"")</f>
+        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
+      </c>
+      <c r="AB70" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC70" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD70" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE70" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF70" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG70" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI70" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="AJ70" s="2"/>
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
-      <c r="AP70" s="1"/>
-      <c r="AQ70" s="1"/>
+      <c r="AP70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ70" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="71" spans="2:43" outlineLevel="1">
-      <c r="B71" s="10"/>
-      <c r="C71" s="33"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="29" t="str">
+        <f>B$67&amp;" keys"</f>
+        <v>gcloud kms keys</v>
+      </c>
       <c r="D71" s="29"/>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
@@ -5636,8 +5794,8 @@
       <c r="Y71" s="29"/>
       <c r="Z71" s="30"/>
       <c r="AA71" s="8" t="str">
-        <f t="shared" ref="AA71" ca="1" si="28">IFERROR(OFFSET(A71,0,MATCH("",B71:Z71,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="29"/>
+        <v>gcloud kms keys</v>
       </c>
       <c r="AB71" s="2" t="s">
         <v>6</v>
@@ -5655,61 +5813,84 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
-      <c r="AP71" s="1"/>
+      <c r="AP71" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="AQ71" s="1"/>
     </row>
-    <row r="72" spans="2:43" outlineLevel="1">
-      <c r="B72" s="10"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="30"/>
-      <c r="AA72" s="8" t="str">
-        <f t="shared" ref="AA72:AA75" ca="1" si="29">IFERROR(OFFSET(A72,0,MATCH("",B72:Z72,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC72" s="2"/>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="2"/>
-      <c r="AF72" s="2"/>
-      <c r="AG72" s="2"/>
-      <c r="AH72" s="2"/>
-      <c r="AI72" s="2"/>
+    <row r="72" spans="2:43" ht="39.75" customHeight="1" outlineLevel="2">
+      <c r="B72" s="27"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="32" t="str">
+        <f>C$71&amp;" create "&amp;AC72&amp;" --purpose "&amp;AE72&amp;IF(ISBLANK(AG72),""," --keyring "&amp;AG72)&amp;IF(ISBLANK(AI72),""," --location "&amp;AI72)</f>
+        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
+      </c>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="33"/>
+      <c r="V72" s="33"/>
+      <c r="W72" s="33"/>
+      <c r="X72" s="33"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="34"/>
+      <c r="AA72" s="41" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
+      </c>
+      <c r="AB72" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC72" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD72" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE72" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF72" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG72" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI72" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="AJ72" s="2"/>
       <c r="AK72" s="2"/>
       <c r="AL72" s="2"/>
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
-      <c r="AP72" s="1"/>
+      <c r="AP72" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="AQ72" s="1"/>
     </row>
-    <row r="73" spans="2:43" outlineLevel="1">
-      <c r="B73" s="12"/>
-      <c r="C73" s="33"/>
+    <row r="73" spans="2:43" ht="30">
+      <c r="B73" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="29"/>
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
@@ -5734,8 +5915,8 @@
       <c r="Y73" s="29"/>
       <c r="Z73" s="30"/>
       <c r="AA73" s="8" t="str">
-        <f t="shared" ref="AA73:AA74" ca="1" si="30">IFERROR(OFFSET(A73,0,MATCH("",B73:Z73,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="28"/>
+        <v>gcloud info</v>
       </c>
       <c r="AB73" s="2" t="s">
         <v>6</v>
@@ -5753,12 +5934,16 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
-      <c r="AP73" s="1"/>
+      <c r="AP73" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ73" s="1"/>
     </row>
-    <row r="74" spans="2:43" outlineLevel="1">
-      <c r="B74" s="12"/>
-      <c r="C74" s="33"/>
+    <row r="74" spans="2:43">
+      <c r="B74" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="29"/>
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
@@ -5783,8 +5968,8 @@
       <c r="Y74" s="29"/>
       <c r="Z74" s="30"/>
       <c r="AA74" s="8" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v/>
+        <f t="shared" ref="AA74:AA76" ca="1" si="30">IFERROR(OFFSET(A74,0,MATCH("",B74:Z74,-1)),"")</f>
+        <v>gcloud services</v>
       </c>
       <c r="AB74" s="2" t="s">
         <v>6</v>
@@ -5802,12 +5987,17 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
-      <c r="AP74" s="1"/>
+      <c r="AP74" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="AQ74" s="1"/>
     </row>
     <row r="75" spans="2:43" outlineLevel="1">
-      <c r="B75" s="12"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="29" t="str">
+        <f>B$74&amp;" list --available"</f>
+        <v>gcloud services list --available</v>
+      </c>
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -5832,8 +6022,8 @@
       <c r="Y75" s="29"/>
       <c r="Z75" s="30"/>
       <c r="AA75" s="8" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v/>
+        <f t="shared" ca="1" si="30"/>
+        <v>gcloud services list --available</v>
       </c>
       <c r="AB75" s="2" t="s">
         <v>6</v>
@@ -5851,13 +6041,16 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
-      <c r="AP75" s="1"/>
+      <c r="AP75" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AQ75" s="1"/>
     </row>
     <row r="76" spans="2:43" outlineLevel="1">
-      <c r="B76" s="12"/>
-      <c r="C76" s="33" t="s">
-        <v>84</v>
+      <c r="B76" s="27"/>
+      <c r="C76" s="29" t="str">
+        <f>B$74&amp;" enable "&amp;AC76</f>
+        <v>gcloud services enable cloudkms.googleapis.com</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -5883,14 +6076,15 @@
       <c r="Y76" s="29"/>
       <c r="Z76" s="30"/>
       <c r="AA76" s="8" t="str">
-        <f t="shared" ref="AA76:AA80" ca="1" si="31">IFERROR(OFFSET(A76,0,MATCH("",B76:Z76,-1)),"")</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="AB76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC76" s="2"/>
+        <f t="shared" ca="1" si="30"/>
+        <v>gcloud services enable cloudkms.googleapis.com</v>
+      </c>
+      <c r="AB76" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC76" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
@@ -5903,12 +6097,14 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
-      <c r="AP76" s="1"/>
+      <c r="AP76" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="AQ76" s="1"/>
     </row>
-    <row r="77" spans="2:43" outlineLevel="1">
-      <c r="B77" s="12"/>
-      <c r="C77" s="33"/>
+    <row r="77" spans="2:43">
+      <c r="B77" s="31"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -5933,7 +6129,7 @@
       <c r="Y77" s="29"/>
       <c r="Z77" s="30"/>
       <c r="AA77" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ref="AA77" ca="1" si="31">IFERROR(OFFSET(A77,0,MATCH("",B77:Z77,-1)),"")</f>
         <v/>
       </c>
       <c r="AB77" s="2" t="s">
@@ -5955,36 +6151,33 @@
       <c r="AP77" s="1"/>
       <c r="AQ77" s="1"/>
     </row>
-    <row r="78" spans="2:43" outlineLevel="1">
-      <c r="B78" s="12"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="30"/>
-      <c r="AA78" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
+    <row r="78" spans="2:43">
+      <c r="B78" s="31"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="33"/>
+      <c r="S78" s="33"/>
+      <c r="T78" s="33"/>
+      <c r="U78" s="33"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="34"/>
+      <c r="AA78" s="8"/>
       <c r="AB78" s="2" t="s">
         <v>6</v>
       </c>
@@ -6005,8 +6198,8 @@
       <c r="AQ78" s="1"/>
     </row>
     <row r="79" spans="2:43" outlineLevel="1">
-      <c r="B79" s="12"/>
-      <c r="C79" s="33"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="29"/>
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
@@ -6030,9 +6223,8 @@
       <c r="X79" s="29"/>
       <c r="Y79" s="29"/>
       <c r="Z79" s="30"/>
-      <c r="AA79" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
+      <c r="AA79" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="AB79" s="2" t="s">
         <v>6</v>
@@ -6054,8 +6246,8 @@
       <c r="AQ79" s="1"/>
     </row>
     <row r="80" spans="2:43" outlineLevel="1">
-      <c r="B80" s="12"/>
-      <c r="C80" s="33"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
@@ -6080,7 +6272,7 @@
       <c r="Y80" s="29"/>
       <c r="Z80" s="30"/>
       <c r="AA80" s="8" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ref="AA80" ca="1" si="32">IFERROR(OFFSET(A80,0,MATCH("",B80:Z80,-1)),"")</f>
         <v/>
       </c>
       <c r="AB80" s="2" t="s">
@@ -6103,8 +6295,8 @@
       <c r="AQ80" s="1"/>
     </row>
     <row r="81" spans="2:43" outlineLevel="1">
-      <c r="B81" s="12"/>
-      <c r="C81" s="33"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="29"/>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -6129,7 +6321,7 @@
       <c r="Y81" s="29"/>
       <c r="Z81" s="30"/>
       <c r="AA81" s="8" t="str">
-        <f t="shared" ref="AA81" ca="1" si="32">IFERROR(OFFSET(A81,0,MATCH("",B81:Z81,-1)),"")</f>
+        <f t="shared" ref="AA81:AA84" ca="1" si="33">IFERROR(OFFSET(A81,0,MATCH("",B81:Z81,-1)),"")</f>
         <v/>
       </c>
       <c r="AB81" s="2" t="s">
@@ -6151,9 +6343,9 @@
       <c r="AP81" s="1"/>
       <c r="AQ81" s="1"/>
     </row>
-    <row r="82" spans="2:43" collapsed="1">
-      <c r="B82" s="33"/>
-      <c r="C82" s="29"/>
+    <row r="82" spans="2:43" outlineLevel="1">
+      <c r="B82" s="12"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -6178,7 +6370,7 @@
       <c r="Y82" s="29"/>
       <c r="Z82" s="30"/>
       <c r="AA82" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA82:AA83" ca="1" si="34">IFERROR(OFFSET(A82,0,MATCH("",B82:Z82,-1)),"")</f>
         <v/>
       </c>
       <c r="AB82" s="2" t="s">
@@ -6200,9 +6392,9 @@
       <c r="AP82" s="1"/>
       <c r="AQ82" s="1"/>
     </row>
-    <row r="83" spans="2:43">
-      <c r="B83" s="33"/>
-      <c r="C83" s="29"/>
+    <row r="83" spans="2:43" outlineLevel="1">
+      <c r="B83" s="12"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="29"/>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
@@ -6226,8 +6418,9 @@
       <c r="X83" s="29"/>
       <c r="Y83" s="29"/>
       <c r="Z83" s="30"/>
-      <c r="AA83" s="8" t="s">
-        <v>211</v>
+      <c r="AA83" s="8" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
       </c>
       <c r="AB83" s="2" t="s">
         <v>6</v>
@@ -6249,8 +6442,8 @@
       <c r="AQ83" s="1"/>
     </row>
     <row r="84" spans="2:43" outlineLevel="1">
-      <c r="B84" s="15"/>
-      <c r="C84" s="29"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -6274,8 +6467,9 @@
       <c r="X84" s="29"/>
       <c r="Y84" s="29"/>
       <c r="Z84" s="30"/>
-      <c r="AA84" s="8" t="s">
-        <v>211</v>
+      <c r="AA84" s="8" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
       </c>
       <c r="AB84" s="2" t="s">
         <v>6</v>
@@ -6296,9 +6490,11 @@
       <c r="AP84" s="1"/>
       <c r="AQ84" s="1"/>
     </row>
-    <row r="85" spans="2:43" outlineLevel="1" collapsed="1">
-      <c r="B85" s="3"/>
-      <c r="C85" s="29"/>
+    <row r="85" spans="2:43" outlineLevel="1">
+      <c r="B85" s="12"/>
+      <c r="C85" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -6322,8 +6518,10 @@
       <c r="X85" s="29"/>
       <c r="Y85" s="29"/>
       <c r="Z85" s="30"/>
-      <c r="AA85" s="8" t="s">
-        <v>211</v>
+      <c r="AA85" s="8" t="str">
+        <f t="shared" ref="AA85:AA89" ca="1" si="35">IFERROR(OFFSET(A85,0,MATCH("",B85:Z85,-1)),"")</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB85" s="2" t="s">
         <v>6</v>
@@ -6344,9 +6542,9 @@
       <c r="AP85" s="1"/>
       <c r="AQ85" s="1"/>
     </row>
-    <row r="86" spans="2:43" hidden="1" outlineLevel="2">
-      <c r="B86" s="3"/>
-      <c r="C86" s="4"/>
+    <row r="86" spans="2:43" outlineLevel="1">
+      <c r="B86" s="12"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -6370,8 +6568,9 @@
       <c r="X86" s="29"/>
       <c r="Y86" s="29"/>
       <c r="Z86" s="30"/>
-      <c r="AA86" s="8" t="s">
-        <v>211</v>
+      <c r="AA86" s="8" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
       </c>
       <c r="AB86" s="2" t="s">
         <v>6</v>
@@ -6392,9 +6591,9 @@
       <c r="AP86" s="1"/>
       <c r="AQ86" s="1"/>
     </row>
-    <row r="87" spans="2:43" hidden="1" outlineLevel="2">
-      <c r="B87" s="3"/>
-      <c r="C87" s="4"/>
+    <row r="87" spans="2:43" outlineLevel="1">
+      <c r="B87" s="12"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -6418,8 +6617,9 @@
       <c r="X87" s="29"/>
       <c r="Y87" s="29"/>
       <c r="Z87" s="30"/>
-      <c r="AA87" s="8" t="s">
-        <v>211</v>
+      <c r="AA87" s="8" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
       </c>
       <c r="AB87" s="2" t="s">
         <v>6</v>
@@ -6440,10 +6640,10 @@
       <c r="AP87" s="1"/>
       <c r="AQ87" s="1"/>
     </row>
-    <row r="88" spans="2:43" hidden="1" outlineLevel="3">
-      <c r="B88" s="3"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+    <row r="88" spans="2:43" outlineLevel="1">
+      <c r="B88" s="12"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="29"/>
       <c r="E88" s="29"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
@@ -6466,8 +6666,9 @@
       <c r="X88" s="29"/>
       <c r="Y88" s="29"/>
       <c r="Z88" s="30"/>
-      <c r="AA88" s="8" t="s">
-        <v>211</v>
+      <c r="AA88" s="8" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
       </c>
       <c r="AB88" s="2" t="s">
         <v>6</v>
@@ -6488,10 +6689,10 @@
       <c r="AP88" s="1"/>
       <c r="AQ88" s="1"/>
     </row>
-    <row r="89" spans="2:43" hidden="1" outlineLevel="3">
-      <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+    <row r="89" spans="2:43" outlineLevel="1">
+      <c r="B89" s="12"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="29"/>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -6514,8 +6715,9 @@
       <c r="X89" s="29"/>
       <c r="Y89" s="29"/>
       <c r="Z89" s="30"/>
-      <c r="AA89" s="8" t="s">
-        <v>211</v>
+      <c r="AA89" s="8" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
       </c>
       <c r="AB89" s="2" t="s">
         <v>6</v>
@@ -6536,11 +6738,11 @@
       <c r="AP89" s="1"/>
       <c r="AQ89" s="1"/>
     </row>
-    <row r="90" spans="2:43" hidden="1" outlineLevel="4">
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+    <row r="90" spans="2:43" outlineLevel="1">
+      <c r="B90" s="12"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
@@ -6562,8 +6764,9 @@
       <c r="X90" s="29"/>
       <c r="Y90" s="29"/>
       <c r="Z90" s="30"/>
-      <c r="AA90" s="8" t="s">
-        <v>211</v>
+      <c r="AA90" s="8" t="str">
+        <f t="shared" ref="AA90" ca="1" si="36">IFERROR(OFFSET(A90,0,MATCH("",B90:Z90,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB90" s="2" t="s">
         <v>6</v>
@@ -6584,11 +6787,11 @@
       <c r="AP90" s="1"/>
       <c r="AQ90" s="1"/>
     </row>
-    <row r="91" spans="2:43" hidden="1" outlineLevel="4">
-      <c r="B91" s="3"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+    <row r="91" spans="2:43" collapsed="1">
+      <c r="B91" s="31"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
@@ -6610,8 +6813,9 @@
       <c r="X91" s="29"/>
       <c r="Y91" s="29"/>
       <c r="Z91" s="30"/>
-      <c r="AA91" s="8" t="s">
-        <v>211</v>
+      <c r="AA91" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="AB91" s="2" t="s">
         <v>6</v>
@@ -6632,12 +6836,12 @@
       <c r="AP91" s="1"/>
       <c r="AQ91" s="1"/>
     </row>
-    <row r="92" spans="2:43" hidden="1" outlineLevel="5">
-      <c r="B92" s="3"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
+    <row r="92" spans="2:43">
+      <c r="B92" s="31"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
@@ -6659,7 +6863,7 @@
       <c r="Y92" s="29"/>
       <c r="Z92" s="30"/>
       <c r="AA92" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB92" s="2" t="s">
         <v>6</v>
@@ -6680,12 +6884,12 @@
       <c r="AP92" s="1"/>
       <c r="AQ92" s="1"/>
     </row>
-    <row r="93" spans="2:43" hidden="1" outlineLevel="5">
-      <c r="B93" s="3"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
+    <row r="93" spans="2:43" outlineLevel="1">
+      <c r="B93" s="15"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
       <c r="I93" s="29"/>
@@ -6707,7 +6911,7 @@
       <c r="Y93" s="29"/>
       <c r="Z93" s="30"/>
       <c r="AA93" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB93" s="2" t="s">
         <v>6</v>
@@ -6728,13 +6932,13 @@
       <c r="AP93" s="1"/>
       <c r="AQ93" s="1"/>
     </row>
-    <row r="94" spans="2:43" hidden="1" outlineLevel="6">
+    <row r="94" spans="2:43" outlineLevel="1">
       <c r="B94" s="3"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
@@ -6755,7 +6959,7 @@
       <c r="Y94" s="29"/>
       <c r="Z94" s="30"/>
       <c r="AA94" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB94" s="2" t="s">
         <v>6</v>
@@ -6776,13 +6980,13 @@
       <c r="AP94" s="1"/>
       <c r="AQ94" s="1"/>
     </row>
-    <row r="95" spans="2:43" hidden="1" outlineLevel="6">
+    <row r="95" spans="2:43" outlineLevel="2">
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
@@ -6803,7 +7007,7 @@
       <c r="Y95" s="29"/>
       <c r="Z95" s="30"/>
       <c r="AA95" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB95" s="2" t="s">
         <v>6</v>
@@ -6824,14 +7028,14 @@
       <c r="AP95" s="1"/>
       <c r="AQ95" s="1"/>
     </row>
-    <row r="96" spans="2:43" collapsed="1">
-      <c r="B96" s="15"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
+    <row r="96" spans="2:43" outlineLevel="2">
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
       <c r="K96" s="29"/>
@@ -6851,7 +7055,7 @@
       <c r="Y96" s="29"/>
       <c r="Z96" s="30"/>
       <c r="AA96" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB96" s="2" t="s">
         <v>6</v>
@@ -6872,14 +7076,14 @@
       <c r="AP96" s="1"/>
       <c r="AQ96" s="1"/>
     </row>
-    <row r="97" spans="2:43" hidden="1" outlineLevel="7">
+    <row r="97" spans="2:43" outlineLevel="3">
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
       <c r="I97" s="29"/>
       <c r="J97" s="29"/>
       <c r="K97" s="29"/>
@@ -6899,7 +7103,7 @@
       <c r="Y97" s="29"/>
       <c r="Z97" s="30"/>
       <c r="AA97" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB97" s="2" t="s">
         <v>6</v>
@@ -6920,13 +7124,13 @@
       <c r="AP97" s="1"/>
       <c r="AQ97" s="1"/>
     </row>
-    <row r="98" spans="2:43" hidden="1" outlineLevel="6">
+    <row r="98" spans="2:43" outlineLevel="3">
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
       <c r="J98" s="29"/>
@@ -6947,7 +7151,7 @@
       <c r="Y98" s="29"/>
       <c r="Z98" s="30"/>
       <c r="AA98" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB98" s="2" t="s">
         <v>6</v>
@@ -6968,12 +7172,12 @@
       <c r="AP98" s="1"/>
       <c r="AQ98" s="1"/>
     </row>
-    <row r="99" spans="2:43" hidden="1" outlineLevel="5">
+    <row r="99" spans="2:43" outlineLevel="4">
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
+      <c r="F99" s="29"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
@@ -6995,7 +7199,7 @@
       <c r="Y99" s="29"/>
       <c r="Z99" s="30"/>
       <c r="AA99" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB99" s="2" t="s">
         <v>6</v>
@@ -7016,11 +7220,11 @@
       <c r="AP99" s="1"/>
       <c r="AQ99" s="1"/>
     </row>
-    <row r="100" spans="2:43" hidden="1" outlineLevel="4">
+    <row r="100" spans="2:43" outlineLevel="4">
       <c r="B100" s="3"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
@@ -7043,7 +7247,7 @@
       <c r="Y100" s="29"/>
       <c r="Z100" s="30"/>
       <c r="AA100" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB100" s="2" t="s">
         <v>6</v>
@@ -7064,12 +7268,12 @@
       <c r="AP100" s="1"/>
       <c r="AQ100" s="1"/>
     </row>
-    <row r="101" spans="2:43" hidden="1" outlineLevel="3">
+    <row r="101" spans="2:43" outlineLevel="5">
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
       <c r="I101" s="29"/>
@@ -7091,7 +7295,7 @@
       <c r="Y101" s="29"/>
       <c r="Z101" s="30"/>
       <c r="AA101" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB101" s="2" t="s">
         <v>6</v>
@@ -7112,12 +7316,12 @@
       <c r="AP101" s="1"/>
       <c r="AQ101" s="1"/>
     </row>
-    <row r="102" spans="2:43" hidden="1" outlineLevel="3">
+    <row r="102" spans="2:43" outlineLevel="5">
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
       <c r="I102" s="29"/>
@@ -7139,7 +7343,7 @@
       <c r="Y102" s="29"/>
       <c r="Z102" s="30"/>
       <c r="AA102" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB102" s="2" t="s">
         <v>6</v>
@@ -7160,13 +7364,13 @@
       <c r="AP102" s="1"/>
       <c r="AQ102" s="1"/>
     </row>
-    <row r="103" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="103" spans="2:43" outlineLevel="6">
       <c r="B103" s="3"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
       <c r="H103" s="29"/>
       <c r="I103" s="29"/>
       <c r="J103" s="29"/>
@@ -7187,7 +7391,7 @@
       <c r="Y103" s="29"/>
       <c r="Z103" s="30"/>
       <c r="AA103" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB103" s="2" t="s">
         <v>6</v>
@@ -7208,13 +7412,13 @@
       <c r="AP103" s="1"/>
       <c r="AQ103" s="1"/>
     </row>
-    <row r="104" spans="2:43">
-      <c r="B104" s="33"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
+    <row r="104" spans="2:43" outlineLevel="6">
+      <c r="B104" s="3"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
       <c r="H104" s="29"/>
       <c r="I104" s="29"/>
       <c r="J104" s="29"/>
@@ -7235,7 +7439,7 @@
       <c r="Y104" s="29"/>
       <c r="Z104" s="30"/>
       <c r="AA104" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="AB104" s="2" t="s">
         <v>6</v>
@@ -7256,52 +7460,472 @@
       <c r="AP104" s="1"/>
       <c r="AQ104" s="1"/>
     </row>
+    <row r="105" spans="2:43" collapsed="1">
+      <c r="B105" s="15"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
+      <c r="U105" s="29"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="X105" s="29"/>
+      <c r="Y105" s="29"/>
+      <c r="Z105" s="30"/>
+      <c r="AA105" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
+      <c r="AF105" s="2"/>
+      <c r="AG105" s="2"/>
+      <c r="AH105" s="2"/>
+      <c r="AI105" s="2"/>
+      <c r="AJ105" s="2"/>
+      <c r="AK105" s="2"/>
+      <c r="AL105" s="2"/>
+      <c r="AM105" s="2"/>
+      <c r="AN105" s="2"/>
+      <c r="AO105" s="2"/>
+      <c r="AP105" s="1"/>
+      <c r="AQ105" s="1"/>
+    </row>
+    <row r="106" spans="2:43" hidden="1" outlineLevel="7">
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="30"/>
+      <c r="AA106" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2"/>
+      <c r="AG106" s="2"/>
+      <c r="AH106" s="2"/>
+      <c r="AI106" s="2"/>
+      <c r="AJ106" s="2"/>
+      <c r="AK106" s="2"/>
+      <c r="AL106" s="2"/>
+      <c r="AM106" s="2"/>
+      <c r="AN106" s="2"/>
+      <c r="AO106" s="2"/>
+      <c r="AP106" s="1"/>
+      <c r="AQ106" s="1"/>
+    </row>
+    <row r="107" spans="2:43" hidden="1" outlineLevel="6">
+      <c r="B107" s="3"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2"/>
+      <c r="AH107" s="2"/>
+      <c r="AI107" s="2"/>
+      <c r="AJ107" s="2"/>
+      <c r="AK107" s="2"/>
+      <c r="AL107" s="2"/>
+      <c r="AM107" s="2"/>
+      <c r="AN107" s="2"/>
+      <c r="AO107" s="2"/>
+      <c r="AP107" s="1"/>
+      <c r="AQ107" s="1"/>
+    </row>
+    <row r="108" spans="2:43" hidden="1" outlineLevel="5">
+      <c r="B108" s="3"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="29"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="29"/>
+      <c r="P108" s="29"/>
+      <c r="Q108" s="29"/>
+      <c r="R108" s="29"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="29"/>
+      <c r="U108" s="29"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
+      <c r="X108" s="29"/>
+      <c r="Y108" s="29"/>
+      <c r="Z108" s="30"/>
+      <c r="AA108" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2"/>
+      <c r="AG108" s="2"/>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="2"/>
+      <c r="AK108" s="2"/>
+      <c r="AL108" s="2"/>
+      <c r="AM108" s="2"/>
+      <c r="AN108" s="2"/>
+      <c r="AO108" s="2"/>
+      <c r="AP108" s="1"/>
+      <c r="AQ108" s="1"/>
+    </row>
+    <row r="109" spans="2:43" hidden="1" outlineLevel="4">
+      <c r="B109" s="3"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
+      <c r="R109" s="29"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
+      <c r="V109" s="29"/>
+      <c r="W109" s="29"/>
+      <c r="X109" s="29"/>
+      <c r="Y109" s="29"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="2"/>
+      <c r="AG109" s="2"/>
+      <c r="AH109" s="2"/>
+      <c r="AI109" s="2"/>
+      <c r="AJ109" s="2"/>
+      <c r="AK109" s="2"/>
+      <c r="AL109" s="2"/>
+      <c r="AM109" s="2"/>
+      <c r="AN109" s="2"/>
+      <c r="AO109" s="2"/>
+      <c r="AP109" s="1"/>
+      <c r="AQ109" s="1"/>
+    </row>
+    <row r="110" spans="2:43" hidden="1" outlineLevel="3">
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="29"/>
+      <c r="R110" s="29"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="29"/>
+      <c r="U110" s="29"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
+      <c r="X110" s="29"/>
+      <c r="Y110" s="29"/>
+      <c r="Z110" s="30"/>
+      <c r="AA110" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="2"/>
+      <c r="AG110" s="2"/>
+      <c r="AH110" s="2"/>
+      <c r="AI110" s="2"/>
+      <c r="AJ110" s="2"/>
+      <c r="AK110" s="2"/>
+      <c r="AL110" s="2"/>
+      <c r="AM110" s="2"/>
+      <c r="AN110" s="2"/>
+      <c r="AO110" s="2"/>
+      <c r="AP110" s="1"/>
+      <c r="AQ110" s="1"/>
+    </row>
+    <row r="111" spans="2:43" hidden="1" outlineLevel="3">
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="29"/>
+      <c r="S111" s="29"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="29"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
+      <c r="X111" s="29"/>
+      <c r="Y111" s="29"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2"/>
+      <c r="AH111" s="2"/>
+      <c r="AI111" s="2"/>
+      <c r="AJ111" s="2"/>
+      <c r="AK111" s="2"/>
+      <c r="AL111" s="2"/>
+      <c r="AM111" s="2"/>
+      <c r="AN111" s="2"/>
+      <c r="AO111" s="2"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+    </row>
+    <row r="112" spans="2:43" hidden="1" outlineLevel="2">
+      <c r="B112" s="3"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="29"/>
+      <c r="P112" s="29"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="29"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
+      <c r="X112" s="29"/>
+      <c r="Y112" s="29"/>
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
+      <c r="AK112" s="2"/>
+      <c r="AL112" s="2"/>
+      <c r="AM112" s="2"/>
+      <c r="AN112" s="2"/>
+      <c r="AO112" s="2"/>
+      <c r="AP112" s="1"/>
+      <c r="AQ112" s="1"/>
+    </row>
+    <row r="113" spans="2:43">
+      <c r="B113" s="31"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="29"/>
+      <c r="P113" s="29"/>
+      <c r="Q113" s="29"/>
+      <c r="R113" s="29"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+      <c r="V113" s="29"/>
+      <c r="W113" s="29"/>
+      <c r="X113" s="29"/>
+      <c r="Y113" s="29"/>
+      <c r="Z113" s="30"/>
+      <c r="AA113" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2"/>
+      <c r="AG113" s="2"/>
+      <c r="AH113" s="2"/>
+      <c r="AI113" s="2"/>
+      <c r="AJ113" s="2"/>
+      <c r="AK113" s="2"/>
+      <c r="AL113" s="2"/>
+      <c r="AM113" s="2"/>
+      <c r="AN113" s="2"/>
+      <c r="AO113" s="2"/>
+      <c r="AP113" s="1"/>
+      <c r="AQ113" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="C58:Z58"/>
-    <mergeCell ref="C62:Z62"/>
-    <mergeCell ref="B68:Z68"/>
-    <mergeCell ref="C69:Z69"/>
-    <mergeCell ref="C70:Z70"/>
+  <mergeCells count="114">
+    <mergeCell ref="D46:Z46"/>
+    <mergeCell ref="B74:Z74"/>
+    <mergeCell ref="B77:Z77"/>
+    <mergeCell ref="B67:Z67"/>
+    <mergeCell ref="C68:Z68"/>
+    <mergeCell ref="D69:Z69"/>
+    <mergeCell ref="D70:Z70"/>
     <mergeCell ref="C71:Z71"/>
-    <mergeCell ref="C72:Z72"/>
-    <mergeCell ref="D28:Z28"/>
-    <mergeCell ref="D7:Z7"/>
-    <mergeCell ref="B104:Z104"/>
-    <mergeCell ref="E101:Z101"/>
-    <mergeCell ref="D102:Z102"/>
-    <mergeCell ref="C103:Z103"/>
-    <mergeCell ref="E89:Z89"/>
-    <mergeCell ref="F90:Z90"/>
-    <mergeCell ref="C77:Z77"/>
-    <mergeCell ref="C78:Z78"/>
-    <mergeCell ref="C79:Z79"/>
-    <mergeCell ref="C80:Z80"/>
-    <mergeCell ref="C81:Z81"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="H98:Z98"/>
-    <mergeCell ref="G99:Z99"/>
-    <mergeCell ref="F100:Z100"/>
-    <mergeCell ref="G92:Z92"/>
-    <mergeCell ref="G93:Z93"/>
-    <mergeCell ref="H94:Z94"/>
-    <mergeCell ref="H95:Z95"/>
-    <mergeCell ref="I96:Z96"/>
-    <mergeCell ref="F91:Z91"/>
-    <mergeCell ref="I97:Z97"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="D87:Z87"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="B82:Z82"/>
-    <mergeCell ref="E88:Z88"/>
-    <mergeCell ref="B83:Z83"/>
+    <mergeCell ref="D72:Z72"/>
+    <mergeCell ref="C76:Z76"/>
+    <mergeCell ref="C75:Z75"/>
+    <mergeCell ref="D21:Z21"/>
+    <mergeCell ref="E22:Z22"/>
+    <mergeCell ref="E23:Z23"/>
+    <mergeCell ref="C44:Z44"/>
+    <mergeCell ref="D45:Z45"/>
+    <mergeCell ref="C40:Z40"/>
+    <mergeCell ref="D41:Z41"/>
+    <mergeCell ref="C42:Z42"/>
+    <mergeCell ref="D43:Z43"/>
+    <mergeCell ref="D33:Z33"/>
+    <mergeCell ref="C85:Z85"/>
     <mergeCell ref="C84:Z84"/>
-    <mergeCell ref="C85:Z85"/>
-    <mergeCell ref="D86:Z86"/>
-    <mergeCell ref="D5:Z5"/>
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="D12:Z12"/>
+    <mergeCell ref="C60:Z60"/>
+    <mergeCell ref="C61:Z61"/>
+    <mergeCell ref="B63:Z63"/>
+    <mergeCell ref="C65:Z65"/>
+    <mergeCell ref="C59:Z59"/>
+    <mergeCell ref="B64:Z64"/>
+    <mergeCell ref="C66:Z66"/>
+    <mergeCell ref="C82:Z82"/>
+    <mergeCell ref="C83:Z83"/>
     <mergeCell ref="D4:Z4"/>
     <mergeCell ref="B54:Z54"/>
     <mergeCell ref="C55:Z55"/>
@@ -7322,22 +7946,54 @@
     <mergeCell ref="D10:Z10"/>
     <mergeCell ref="C53:Z53"/>
     <mergeCell ref="D9:Z9"/>
-    <mergeCell ref="B67:Z67"/>
-    <mergeCell ref="C76:Z76"/>
-    <mergeCell ref="C75:Z75"/>
-    <mergeCell ref="C60:Z60"/>
-    <mergeCell ref="C61:Z61"/>
-    <mergeCell ref="B63:Z63"/>
-    <mergeCell ref="C65:Z65"/>
-    <mergeCell ref="C59:Z59"/>
-    <mergeCell ref="B64:Z64"/>
-    <mergeCell ref="C66:Z66"/>
-    <mergeCell ref="C73:Z73"/>
-    <mergeCell ref="C74:Z74"/>
     <mergeCell ref="E19:Z19"/>
     <mergeCell ref="E20:Z20"/>
     <mergeCell ref="C37:Z37"/>
     <mergeCell ref="D38:Z38"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="H107:Z107"/>
+    <mergeCell ref="G108:Z108"/>
+    <mergeCell ref="F109:Z109"/>
+    <mergeCell ref="G101:Z101"/>
+    <mergeCell ref="G102:Z102"/>
+    <mergeCell ref="H103:Z103"/>
+    <mergeCell ref="H104:Z104"/>
+    <mergeCell ref="I105:Z105"/>
+    <mergeCell ref="F100:Z100"/>
+    <mergeCell ref="I106:Z106"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="D96:Z96"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="B91:Z91"/>
+    <mergeCell ref="E97:Z97"/>
+    <mergeCell ref="B92:Z92"/>
+    <mergeCell ref="C93:Z93"/>
+    <mergeCell ref="C94:Z94"/>
+    <mergeCell ref="D95:Z95"/>
+    <mergeCell ref="D5:Z5"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="D12:Z12"/>
+    <mergeCell ref="B113:Z113"/>
+    <mergeCell ref="E110:Z110"/>
+    <mergeCell ref="D111:Z111"/>
+    <mergeCell ref="C112:Z112"/>
+    <mergeCell ref="E98:Z98"/>
+    <mergeCell ref="F99:Z99"/>
+    <mergeCell ref="C86:Z86"/>
+    <mergeCell ref="C87:Z87"/>
+    <mergeCell ref="C88:Z88"/>
+    <mergeCell ref="C89:Z89"/>
+    <mergeCell ref="C90:Z90"/>
+    <mergeCell ref="C58:Z58"/>
+    <mergeCell ref="C62:Z62"/>
+    <mergeCell ref="B78:Z78"/>
+    <mergeCell ref="C79:Z79"/>
+    <mergeCell ref="C80:Z80"/>
+    <mergeCell ref="C81:Z81"/>
+    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="D7:Z7"/>
+    <mergeCell ref="B73:Z73"/>
     <mergeCell ref="D39:Z39"/>
     <mergeCell ref="E31:Z31"/>
     <mergeCell ref="E32:Z32"/>
@@ -7352,17 +8008,6 @@
     <mergeCell ref="D47:Z47"/>
     <mergeCell ref="E48:Z48"/>
     <mergeCell ref="E49:Z49"/>
-    <mergeCell ref="D21:Z21"/>
-    <mergeCell ref="E22:Z22"/>
-    <mergeCell ref="D42:Z42"/>
-    <mergeCell ref="E23:Z23"/>
-    <mergeCell ref="C45:Z45"/>
-    <mergeCell ref="D46:Z46"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="D41:Z41"/>
-    <mergeCell ref="C43:Z43"/>
-    <mergeCell ref="D44:Z44"/>
-    <mergeCell ref="D33:Z33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7380,64 +8025,64 @@
   </sheetPr>
   <dimension ref="B1:AK47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:Z22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
-    <col min="27" max="27" width="15" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="14.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="13.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="24.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="14.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="15.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="28.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="15" customWidth="1"/>
+    <col min="28" max="28" width="19.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="13.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="17" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="24.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="14.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="15.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="28.140625" customWidth="1" outlineLevel="1"/>
     <col min="36" max="36" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="46" customWidth="1"/>
     <col min="38" max="38" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:37">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
@@ -7450,7 +8095,7 @@
       </c>
     </row>
     <row r="2" spans="2:37">
-      <c r="B2" s="33" t="str">
+      <c r="B2" s="31" t="str">
         <f>"gsutil cp "&amp;AC2&amp;" gs://"&amp;AE2</f>
         <v>gsutil cp test.dat gs://unique-name-1</v>
       </c>
@@ -7504,7 +8149,7 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="2:37">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="29"/>
@@ -7554,7 +8199,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="29" t="str">
         <f>B$3&amp;" gs://"&amp;AC4</f>
-        <v>gsutil mb gs://unique-name-1</v>
+        <v>gsutil mb gs://${BUCKET_NAME}</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -7581,13 +8226,13 @@
       <c r="Z4" s="30"/>
       <c r="AA4" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gsutil mb gs://unique-name-1</v>
+        <v>gsutil mb gs://${BUCKET_NAME}</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -7730,7 +8375,7 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="2:37">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="29"/>
@@ -7776,11 +8421,11 @@
       </c>
       <c r="AK8" s="1"/>
     </row>
-    <row r="9" spans="2:37" outlineLevel="1">
+    <row r="9" spans="2:37" ht="30" outlineLevel="1">
       <c r="B9" s="12"/>
       <c r="C9" s="29" t="str">
         <f>B$8&amp;" "&amp;IF(ISBLANK(AC9),"","gs://"&amp;AC9&amp;"/")&amp;AE9&amp;" "&amp;IF(ISBLANK(AG9),"","gs://"&amp;AG9&amp;"/")&amp;AI9</f>
-        <v>gsutil cp gs://ioso-bucket/ada.jpg gs://ioso-bucket/image-folder/</v>
+        <v>gsutil cp 1.encrypted gs://${BUCKET_NAME}/</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -7807,32 +8452,28 @@
       <c r="Z9" s="30"/>
       <c r="AA9" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>gsutil cp gs://ioso-bucket/ada.jpg gs://ioso-bucket/image-folder/</v>
+        <v>gsutil cp 1.encrypted gs://${BUCKET_NAME}/</v>
       </c>
       <c r="AB9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="AC9" s="5"/>
       <c r="AD9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="AH9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="AI9" s="5"/>
       <c r="AJ9" s="1" t="s">
         <v>67</v>
       </c>
@@ -7899,8 +8540,8 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="2:37">
-      <c r="B11" s="33" t="s">
-        <v>70</v>
+      <c r="B11" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -7941,7 +8582,7 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK11" s="1"/>
     </row>
@@ -7985,17 +8626,17 @@
         <v>64</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK12" s="1"/>
     </row>
@@ -8039,23 +8680,23 @@
         <v>64</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="2:37">
+      <c r="B14" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="AK13" s="1"/>
-    </row>
-    <row r="14" spans="2:37">
-      <c r="B14" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -8096,7 +8737,7 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK14" s="1"/>
     </row>
@@ -8140,7 +8781,7 @@
         <v>64</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE15" s="5" t="s">
         <v>63</v>
@@ -8150,7 +8791,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK15" s="1"/>
     </row>
@@ -8191,7 +8832,7 @@
         <v>64</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE16" s="5" t="s">
         <v>63</v>
@@ -8204,8 +8845,8 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="2:37" ht="30">
-      <c r="B17" s="33" t="s">
-        <v>80</v>
+      <c r="B17" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -8246,7 +8887,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK17" s="1"/>
     </row>
@@ -8336,7 +8977,7 @@
         <v>64</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE19" s="5" t="s">
         <v>63</v>
@@ -8346,7 +8987,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK19" s="1"/>
     </row>
@@ -8390,7 +9031,7 @@
         <v>64</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE20" s="5" t="s">
         <v>63</v>
@@ -8400,7 +9041,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK20" s="1"/>
     </row>
@@ -8448,7 +9089,7 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="2:37" collapsed="1">
-      <c r="B22" s="33"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -8491,7 +9132,9 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="2:37">
-      <c r="B23" s="33"/>
+      <c r="B23" s="31" t="s">
+        <v>229</v>
+      </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -8518,7 +9161,7 @@
       <c r="Z23" s="30"/>
       <c r="AA23" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>gsutil -m cp -r gs://enron_corpus/allen-p .</v>
       </c>
       <c r="AB23" s="2" t="s">
         <v>6</v>
@@ -9394,7 +10037,7 @@
       <c r="AK43" s="1"/>
     </row>
     <row r="44" spans="2:37">
-      <c r="B44" s="33"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -9439,19 +10082,22 @@
     <row r="47" spans="2:37" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C18:Z18"/>
-    <mergeCell ref="D19:Z19"/>
-    <mergeCell ref="D20:Z20"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="B8:Z8"/>
-    <mergeCell ref="C9:Z9"/>
-    <mergeCell ref="C10:Z10"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="C4:Z4"/>
-    <mergeCell ref="C5:Z5"/>
-    <mergeCell ref="C6:Z6"/>
-    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="E28:Z28"/>
+    <mergeCell ref="E29:Z29"/>
+    <mergeCell ref="F30:Z30"/>
+    <mergeCell ref="F31:Z31"/>
+    <mergeCell ref="B44:Z44"/>
+    <mergeCell ref="G33:Z33"/>
+    <mergeCell ref="H34:Z34"/>
+    <mergeCell ref="H35:Z35"/>
+    <mergeCell ref="I36:Z36"/>
+    <mergeCell ref="I37:Z37"/>
+    <mergeCell ref="H38:Z38"/>
+    <mergeCell ref="G39:Z39"/>
+    <mergeCell ref="F40:Z40"/>
+    <mergeCell ref="E41:Z41"/>
+    <mergeCell ref="D42:Z42"/>
+    <mergeCell ref="C43:Z43"/>
     <mergeCell ref="G32:Z32"/>
     <mergeCell ref="C7:Z7"/>
     <mergeCell ref="B22:Z22"/>
@@ -9468,22 +10114,19 @@
     <mergeCell ref="B17:Z17"/>
     <mergeCell ref="C21:Z21"/>
     <mergeCell ref="D27:Z27"/>
-    <mergeCell ref="E28:Z28"/>
-    <mergeCell ref="E29:Z29"/>
-    <mergeCell ref="F30:Z30"/>
-    <mergeCell ref="F31:Z31"/>
-    <mergeCell ref="B44:Z44"/>
-    <mergeCell ref="G33:Z33"/>
-    <mergeCell ref="H34:Z34"/>
-    <mergeCell ref="H35:Z35"/>
-    <mergeCell ref="I36:Z36"/>
-    <mergeCell ref="I37:Z37"/>
-    <mergeCell ref="H38:Z38"/>
-    <mergeCell ref="G39:Z39"/>
-    <mergeCell ref="F40:Z40"/>
-    <mergeCell ref="E41:Z41"/>
-    <mergeCell ref="D42:Z42"/>
-    <mergeCell ref="C43:Z43"/>
+    <mergeCell ref="C18:Z18"/>
+    <mergeCell ref="D19:Z19"/>
+    <mergeCell ref="D20:Z20"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="B8:Z8"/>
+    <mergeCell ref="C9:Z9"/>
+    <mergeCell ref="C10:Z10"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="C4:Z4"/>
+    <mergeCell ref="C5:Z5"/>
+    <mergeCell ref="C6:Z6"/>
+    <mergeCell ref="B2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9495,71 +10138,79 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AG33"/>
+  <dimension ref="B1:AK34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:Z7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
-    <col min="27" max="27" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="47.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="20.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="44.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="46" customWidth="1"/>
-    <col min="34" max="34" width="68.140625" customWidth="1"/>
+    <col min="27" max="27" width="21.28515625" customWidth="1"/>
+    <col min="28" max="28" width="18" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="47.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="20.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="44.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="18.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="12" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="26.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="46" customWidth="1"/>
+    <col min="38" max="38" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="2:37">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="11" t="s">
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" ht="219" customHeight="1">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:37" ht="219" customHeight="1">
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="29"/>
@@ -9587,7 +10238,7 @@
       <c r="Y2" s="29"/>
       <c r="Z2" s="30"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA30" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA31" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v/>
       </c>
       <c r="AB2" s="2" t="s">
@@ -9598,13 +10249,17 @@
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="2:33" collapsed="1">
-      <c r="B3" s="33" t="s">
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="2:37" collapsed="1">
+      <c r="B3" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="29"/>
@@ -9641,13 +10296,17 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="1"/>
-    </row>
-    <row r="4" spans="2:33" ht="16.5" customHeight="1">
-      <c r="B4" s="33" t="str">
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="2:37" ht="16.5" customHeight="1">
+      <c r="B4" s="31" t="str">
         <f>"sudo mkdir /mnt/"&amp;AC4</f>
         <v>sudo mkdir /mnt/mydisk</v>
       </c>
@@ -9687,13 +10346,17 @@
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="2:33">
-      <c r="B5" s="33" t="str">
+      <c r="AK4" s="1"/>
+    </row>
+    <row r="5" spans="2:37">
+      <c r="B5" s="31" t="str">
         <f>"sudo mkfs.ext4 -F -E lazy_itable_init=0,lazy_journal_init=0,discard /dev/disk/by-id/"&amp;AC5</f>
         <v>sudo mkfs.ext4 -F -E lazy_itable_init=0,lazy_journal_init=0,discard /dev/disk/by-id/scsi-0Google_PersistentDisk_persistent-disk-1</v>
       </c>
@@ -9733,13 +10396,17 @@
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="1" t="s">
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="2:33">
-      <c r="B6" s="33" t="str">
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="6" spans="2:37">
+      <c r="B6" s="31" t="str">
         <f>"sudo mount -o discard,defaults /dev/disk/by-id/"&amp;AC6&amp;" /mnt/"&amp;AE6</f>
         <v>sudo mount -o discard,defaults /dev/disk/by-id/scsi-0Google_PersistentDisk_persistent-disk-1 /mnt/mydisk</v>
       </c>
@@ -9783,14 +10450,18 @@
       <c r="AE6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="2:33" ht="102.75" customHeight="1">
-      <c r="B7" s="33" t="s">
-        <v>89</v>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="2:37" ht="102.75" customHeight="1">
+      <c r="B7" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -9832,13 +10503,20 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="2:33">
-      <c r="B8" s="33"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK7" s="1"/>
+    </row>
+    <row r="8" spans="2:37" ht="104.25" customHeight="1">
+      <c r="B8" s="31" t="str">
+        <f>"curl -v "&amp;CHAR(34)&amp;"https://cloudkms.googleapis.com/v1/projects/"&amp;AC8&amp;"/locations/global/keyRings/"&amp;AE8&amp;"/cryptoKeys/"&amp;AG8&amp;":encrypt"&amp;CHAR(34)&amp;" -d "&amp;CHAR(34)&amp;"{\"&amp;CHAR(34)&amp;"plaintext\"&amp;CHAR(34)&amp;":\"&amp;CHAR(34)&amp;AI8&amp;"\"&amp;CHAR(34)&amp;"}"&amp;CHAR(34)&amp;" -H "&amp;CHAR(34)&amp;"Authorization:Bearer $(gcloud auth application-default print-access-token)"&amp;CHAR(34)&amp;" -H "&amp;CHAR(34)&amp;"Content-Type: application/json"&amp;CHAR(34)</f>
+        <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:encrypt" -d "{\"plaintext\":\"$PLAINTEXT\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type: application/json"</v>
+      </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -9864,20 +10542,43 @@
       <c r="Y8" s="29"/>
       <c r="Z8" s="30"/>
       <c r="AA8" s="8" t="str">
-        <f t="shared" ref="AA8" ca="1" si="2">IFERROR(OFFSET(A8,0,MATCH("",B8:Z8,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="2:33">
-      <c r="B9" s="33"/>
+        <f>B8</f>
+        <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:encrypt" -d "{\"plaintext\":\"$PLAINTEXT\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type: application/json"</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH8" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="2:37" ht="104.25" customHeight="1">
+      <c r="B9" s="31" t="str">
+        <f>"curl -v "&amp;CHAR(34)&amp;"https://cloudkms.googleapis.com/v1/projects/"&amp;AC9&amp;"/locations/global/keyRings/"&amp;AE9&amp;"/cryptoKeys/"&amp;AG9&amp;":decrypt"&amp;CHAR(34)&amp;" -d "&amp;CHAR(34)&amp;"{\"&amp;CHAR(34)&amp;"ciphertext\"&amp;CHAR(34)&amp;":\"&amp;CHAR(34)&amp;AI9&amp;"\"&amp;CHAR(34)&amp;"}"&amp;CHAR(34)&amp;" -H "&amp;CHAR(34)&amp;"Authorization:Bearer $(gcloud auth application-default print-access-token)"&amp;CHAR(34)&amp;" -H "&amp;CHAR(34)&amp;"Content-Type:  application/json"&amp;CHAR(34)</f>
+        <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:decrypt" -d "{\"ciphertext\":\"$(cat 1.encrypted)\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type:  application/json"</v>
+      </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -9903,20 +10604,40 @@
       <c r="Y9" s="29"/>
       <c r="Z9" s="30"/>
       <c r="AA9" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="2:33" outlineLevel="1">
-      <c r="B10" s="10"/>
+        <f>B9</f>
+        <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:decrypt" -d "{\"ciphertext\":\"$(cat 1.encrypted)\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type:  application/json"</v>
+      </c>
+      <c r="AB9" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD9" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF9" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH9" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK9" s="1"/>
+    </row>
+    <row r="10" spans="2:37" ht="90" customHeight="1">
+      <c r="B10" s="31"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -9945,16 +10666,18 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="2:33" outlineLevel="1">
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="2:37" outlineLevel="1">
       <c r="B11" s="10"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -9990,12 +10713,16 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="2:33" outlineLevel="2">
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+    </row>
+    <row r="12" spans="2:37" outlineLevel="1">
       <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -10029,10 +10756,14 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="2:33" outlineLevel="2" collapsed="1">
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+    </row>
+    <row r="13" spans="2:37" outlineLevel="2">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="29"/>
@@ -10068,13 +10799,17 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="2:37" outlineLevel="2" collapsed="1">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -10107,10 +10842,14 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-    </row>
-    <row r="15" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+    </row>
+    <row r="15" spans="2:37" hidden="1" outlineLevel="3">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -10146,14 +10885,18 @@
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-    </row>
-    <row r="16" spans="2:33" hidden="1" outlineLevel="4">
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="2:37" hidden="1" outlineLevel="3">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -10185,10 +10928,14 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-    </row>
-    <row r="17" spans="2:33" hidden="1" outlineLevel="4">
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+    </row>
+    <row r="17" spans="2:37" hidden="1" outlineLevel="4">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -10224,15 +10971,19 @@
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="2:33" hidden="1" outlineLevel="5">
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+    </row>
+    <row r="18" spans="2:37" hidden="1" outlineLevel="4">
       <c r="B18" s="10"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
@@ -10263,10 +11014,14 @@
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-    </row>
-    <row r="19" spans="2:33" hidden="1" outlineLevel="5">
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+    </row>
+    <row r="19" spans="2:37" hidden="1" outlineLevel="5">
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -10302,16 +11057,20 @@
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="2:33" hidden="1" outlineLevel="6">
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+    </row>
+    <row r="20" spans="2:37" hidden="1" outlineLevel="5">
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
@@ -10341,10 +11100,14 @@
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="2:33" hidden="1" outlineLevel="6">
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+    </row>
+    <row r="21" spans="2:37" hidden="1" outlineLevel="6">
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -10380,17 +11143,21 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-    </row>
-    <row r="22" spans="2:33" hidden="1" outlineLevel="7">
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+    </row>
+    <row r="22" spans="2:37" hidden="1" outlineLevel="6">
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -10419,10 +11186,14 @@
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-    </row>
-    <row r="23" spans="2:33" hidden="1" outlineLevel="7">
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+    </row>
+    <row r="23" spans="2:37" hidden="1" outlineLevel="7">
       <c r="B23" s="10"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -10458,17 +11229,21 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-    </row>
-    <row r="24" spans="2:33" hidden="1" outlineLevel="6">
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+    </row>
+    <row r="24" spans="2:37" hidden="1" outlineLevel="7">
       <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="29"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
@@ -10497,16 +11272,20 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-    </row>
-    <row r="25" spans="2:33" hidden="1" outlineLevel="5">
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+    </row>
+    <row r="25" spans="2:37" hidden="1" outlineLevel="6">
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="29"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -10536,15 +11315,19 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-    </row>
-    <row r="26" spans="2:33" hidden="1" outlineLevel="4">
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+    </row>
+    <row r="26" spans="2:37" hidden="1" outlineLevel="5">
       <c r="B26" s="10"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="29"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -10575,14 +11358,18 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-    </row>
-    <row r="27" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+    </row>
+    <row r="27" spans="2:37" hidden="1" outlineLevel="4">
       <c r="B27" s="10"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -10614,13 +11401,17 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-    </row>
-    <row r="28" spans="2:33" hidden="1" outlineLevel="3">
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+    </row>
+    <row r="28" spans="2:37" hidden="1" outlineLevel="3">
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="29"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
@@ -10653,12 +11444,16 @@
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-    </row>
-    <row r="29" spans="2:33" outlineLevel="2">
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+    </row>
+    <row r="29" spans="2:37" hidden="1" outlineLevel="3">
       <c r="B29" s="10"/>
-      <c r="C29" s="29"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
@@ -10692,11 +11487,15 @@
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-    </row>
-    <row r="30" spans="2:33">
-      <c r="B30" s="33"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+    </row>
+    <row r="30" spans="2:37" outlineLevel="2">
+      <c r="B30" s="10"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -10731,15 +11530,82 @@
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="33" ht="15" customHeight="1"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+    </row>
+    <row r="31" spans="2:37">
+      <c r="B31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+    </row>
+    <row r="34" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="C30:Z30"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="I24:Z24"/>
+    <mergeCell ref="H25:Z25"/>
+    <mergeCell ref="G26:Z26"/>
+    <mergeCell ref="F27:Z27"/>
+    <mergeCell ref="E28:Z28"/>
+    <mergeCell ref="D29:Z29"/>
+    <mergeCell ref="I23:Z23"/>
+    <mergeCell ref="C12:Z12"/>
+    <mergeCell ref="D13:Z13"/>
+    <mergeCell ref="D14:Z14"/>
+    <mergeCell ref="E15:Z15"/>
+    <mergeCell ref="E16:Z16"/>
+    <mergeCell ref="F17:Z17"/>
+    <mergeCell ref="F18:Z18"/>
+    <mergeCell ref="G19:Z19"/>
+    <mergeCell ref="G20:Z20"/>
+    <mergeCell ref="H21:Z21"/>
+    <mergeCell ref="H22:Z22"/>
     <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B9:Z9"/>
-    <mergeCell ref="C10:Z10"/>
+    <mergeCell ref="B10:Z10"/>
+    <mergeCell ref="C11:Z11"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="B2:Z2"/>
@@ -10748,26 +11614,7 @@
     <mergeCell ref="B4:Z4"/>
     <mergeCell ref="B5:Z5"/>
     <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="I22:Z22"/>
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="D12:Z12"/>
-    <mergeCell ref="D13:Z13"/>
-    <mergeCell ref="E14:Z14"/>
-    <mergeCell ref="E15:Z15"/>
-    <mergeCell ref="F16:Z16"/>
-    <mergeCell ref="F17:Z17"/>
-    <mergeCell ref="G18:Z18"/>
-    <mergeCell ref="G19:Z19"/>
-    <mergeCell ref="H20:Z20"/>
-    <mergeCell ref="H21:Z21"/>
-    <mergeCell ref="C29:Z29"/>
-    <mergeCell ref="B30:Z30"/>
-    <mergeCell ref="I23:Z23"/>
-    <mergeCell ref="H24:Z24"/>
-    <mergeCell ref="G25:Z25"/>
-    <mergeCell ref="F26:Z26"/>
-    <mergeCell ref="E27:Z27"/>
-    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="B9:Z9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="330">
   <si>
     <t>Details</t>
   </si>
@@ -1175,30 +1175,6 @@
     <t>pods/monolith.yaml</t>
   </si>
   <si>
-    <t>kubectl label pods secure-monolith 'secure=enabled'</t>
-  </si>
-  <si>
-    <t>kubectl get pods secure-monolith --show-labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kubectl describe services monolith </t>
-  </si>
-  <si>
-    <t>io</t>
-  </si>
-  <si>
-    <t>Opens a shell session inside the pod(?) container(?).</t>
-  </si>
-  <si>
-    <t>Creates a configmap(?).</t>
-  </si>
-  <si>
-    <t>Adds the label "secure=enabled" to the secure-monolith pod.</t>
-  </si>
-  <si>
-    <t>Displays the labels of the secure-monolith pod.</t>
-  </si>
-  <si>
     <t>Creates a resource out of a .yaml file.</t>
   </si>
   <si>
@@ -1274,7 +1250,92 @@
     <t>Labels:</t>
   </si>
   <si>
-    <t>app=monolith</t>
+    <t>bootcamp</t>
+  </si>
+  <si>
+    <t>Nodes:</t>
+  </si>
+  <si>
+    <t>Scopes(?):</t>
+  </si>
+  <si>
+    <t>"https://www.googleapis.com/auth/projecthosting,storage-rw"</t>
+  </si>
+  <si>
+    <t>Show labels:</t>
+  </si>
+  <si>
+    <t>Documentation about a particular field.</t>
+  </si>
+  <si>
+    <t>deployments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kubectl get pods -o jsonpath --template='{range .items[*]}{.metadata.name}{"\t"}{"\t"}{.spec.containers[0].image}{"\n"}{end}'
+</t>
+  </si>
+  <si>
+    <t>kubectl apply -f services/hello-blue.yaml</t>
+  </si>
+  <si>
+    <t>Updates labels on a resource (or resources).</t>
+  </si>
+  <si>
+    <t>secure-monolith</t>
+  </si>
+  <si>
+    <t>secure=enabled</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>Prints documentation about a Kubernete resource type and its .yaml definition.</t>
+  </si>
+  <si>
+    <t>Resource Type / field:</t>
+  </si>
+  <si>
+    <t>Recursive:</t>
+  </si>
+  <si>
+    <t>deployment.metadata.name</t>
+  </si>
+  <si>
+    <t>Set a new size for a Deployment, ReplicaSet, Replication Controller, or Job.</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>Target replicas:</t>
+  </si>
+  <si>
+    <t>Set a new size for a Deployment, ReplicaSet, Replication Controller, or Job identified by type and name.</t>
+  </si>
+  <si>
+    <t>Live edits the .yaml definition of a resource.</t>
+  </si>
+  <si>
+    <t>Manages rollout updates.</t>
+  </si>
+  <si>
+    <t>Lists rollout history of a resource.</t>
+  </si>
+  <si>
+    <t>Pause an in-progress rollout update.</t>
+  </si>
+  <si>
+    <t>Only deployments support this command.</t>
+  </si>
+  <si>
+    <t>Resumes a previously pauses rollout update.</t>
+  </si>
+  <si>
+    <t>Shows the status of the current/last rollout update.</t>
+  </si>
+  <si>
+    <t>Rolls back the last rollout update.</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1964,7 @@
   </sheetPr>
   <dimension ref="B1:AQ110"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A68" workbookViewId="0">
       <selection activeCell="AA79" sqref="AA79"/>
     </sheetView>
   </sheetViews>
@@ -6416,12 +6477,12 @@
       </c>
       <c r="AQ78" s="1"/>
     </row>
-    <row r="79" spans="2:43" ht="30" outlineLevel="2">
+    <row r="79" spans="2:43" ht="51" customHeight="1" outlineLevel="2">
       <c r="B79" s="27"/>
       <c r="C79" s="26"/>
       <c r="D79" s="33" t="str">
-        <f>C$78&amp;" create "&amp;AC79</f>
-        <v>gcloud container clusters create io</v>
+        <f>C$78&amp;" create "&amp;AC79&amp;IF(ISBLANK(AE79),""," --num-nodes "&amp;AE79)&amp;IF(ISBLANK(AG79),""," --scopes "&amp;AG79)</f>
+        <v>gcloud container clusters create bootcamp --num-nodes 5 --scopes "https://www.googleapis.com/auth/projecthosting,storage-rw"</v>
       </c>
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
@@ -6447,18 +6508,26 @@
       <c r="Z79" s="35"/>
       <c r="AA79" s="8" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>gcloud container clusters create io</v>
+        <v>gcloud container clusters create bootcamp --num-nodes 5 --scopes "https://www.googleapis.com/auth/projecthosting,storage-rw"</v>
       </c>
       <c r="AB79" s="21" t="s">
         <v>250</v>
       </c>
       <c r="AC79" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="2"/>
-      <c r="AG79" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="AD79" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE79" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG79" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
       <c r="AJ79" s="2"/>
@@ -10230,10 +10299,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AK55"/>
+  <dimension ref="B1:AK72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -10243,7 +10312,7 @@
     <col min="28" max="28" width="18.140625" customWidth="1" outlineLevel="1"/>
     <col min="29" max="29" width="19.28515625" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="14.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="19.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="19.28515625" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="12.7109375" customWidth="1" outlineLevel="1"/>
     <col min="33" max="33" width="21" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="15.5703125" customWidth="1" outlineLevel="1"/>
@@ -10331,7 +10400,7 @@
       <c r="Y2" s="37"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA52" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA69" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>kubectl run nginx --image=nginx:1.10.0</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -10423,8 +10492,8 @@
     </row>
     <row r="4" spans="2:37">
       <c r="B4" s="36" t="str">
-        <f>"kubectl get "&amp;AC4&amp;IF(ISBLANK(AE4),""," "&amp;AE4)&amp;IF(ISBLANK(AG4),""," -l "&amp;CHAR(34)&amp;AG4&amp;CHAR(34))</f>
-        <v>kubectl get pods -l "app=monolith"</v>
+        <f>"kubectl get "&amp;AC4&amp;IF(ISBLANK(AE4),""," "&amp;AE4)&amp;IF(ISBLANK(AG4),""," -l "&amp;CHAR(34)&amp;AG4&amp;CHAR(34))&amp;IF(ISBLANK(AI4),""," --show-labels")</f>
+        <v>kubectl get deployments</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -10452,26 +10521,26 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kubectl get pods -l "app=monolith"</v>
+        <v>kubectl get deployments</v>
       </c>
       <c r="AB4" s="21" t="s">
         <v>270</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="AD4" s="22" t="s">
         <v>269</v>
       </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI4" s="5"/>
       <c r="AJ4" s="1" t="s">
         <v>272</v>
       </c>
@@ -10521,7 +10590,7 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AK5" s="1"/>
     </row>
@@ -10559,7 +10628,7 @@
         <v>kubectl create -f pods/monolith.yaml</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AC6" s="5" t="s">
         <v>275</v>
@@ -10571,7 +10640,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AK6" s="1"/>
     </row>
@@ -10655,23 +10724,23 @@
         <v>kubectl create secret generic tls-certs --from-file tls/</v>
       </c>
       <c r="AB8" s="21" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AD8" s="21" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AK8" s="1"/>
     </row>
@@ -10798,23 +10867,23 @@
         <v>kubectl create configmap nginx-proxy-conf --from-file nginx/proxy.conf</v>
       </c>
       <c r="AB11" s="21" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AD11" s="21" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AK11" s="1"/>
     </row>
@@ -10907,7 +10976,7 @@
     <row r="14" spans="2:37">
       <c r="B14" s="36" t="str">
         <f>"kubectl describe "&amp;AC14&amp;IF(ISBLANK(AE14),""," "&amp;AE14)</f>
-        <v>kubectl describe pods nginx</v>
+        <v>kubectl describe services monolith</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -10935,26 +11004,26 @@
       <c r="Z14" s="38"/>
       <c r="AA14" s="8" t="str">
         <f t="shared" ref="AA14" ca="1" si="3">IFERROR(OFFSET(A14,0,MATCH("",B14:Z14,-1)),"")</f>
-        <v>kubectl describe pods nginx</v>
+        <v>kubectl describe services monolith</v>
       </c>
       <c r="AB14" s="21" t="s">
         <v>270</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="AD14" s="22" t="s">
         <v>269</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AK14" s="1"/>
     </row>
@@ -10992,19 +11061,19 @@
         <v>kubectl port-forward monolith 10080:80</v>
       </c>
       <c r="AB15" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AE15" s="5">
         <v>10080</v>
       </c>
       <c r="AF15" s="21" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AG15" s="5">
         <v>80</v>
@@ -11012,7 +11081,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AK15" s="1"/>
     </row>
@@ -11050,13 +11119,13 @@
         <v>kubectl logs -f monolith</v>
       </c>
       <c r="AB16" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AE16" s="5" t="b">
         <v>1</v>
@@ -11066,7 +11135,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AK16" s="1"/>
     </row>
@@ -11114,7 +11183,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AK17" s="1"/>
     </row>
@@ -11152,25 +11221,25 @@
         <v>kubectl exec monolith -- ls</v>
       </c>
       <c r="AB18" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AE18" s="5"/>
       <c r="AF18" s="21" t="s">
         <v>21</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AK18" s="1"/>
     </row>
@@ -11208,13 +11277,13 @@
         <v>kubectl exec monolith --stdin --tty /bin/sh</v>
       </c>
       <c r="AB19" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AE19" s="5"/>
       <c r="AF19" s="2"/>
@@ -11222,12 +11291,15 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="2:37">
-      <c r="B20" s="36"/>
+      <c r="B20" s="36" t="str">
+        <f>"kubectl label "&amp;AC20&amp;" "&amp;AE20&amp;" '"&amp;AG20&amp;"'"</f>
+        <v>kubectl label pods secure-monolith 'secure=enabled'</v>
+      </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
@@ -11254,21 +11326,38 @@
       <c r="Z20" s="38"/>
       <c r="AA20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+        <v>kubectl label pods secure-monolith 'secure=enabled'</v>
+      </c>
+      <c r="AB20" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD20" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF20" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="1"/>
+      <c r="AJ20" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="2:37">
-      <c r="B21" s="36"/>
+    <row r="21" spans="2:37" ht="30">
+      <c r="B21" s="36" t="str">
+        <f>"kubectl explain "&amp;AC21&amp;IF(AE21," --recursive","")</f>
+        <v>kubectl explain deployment.metadata.name</v>
+      </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -11295,21 +11384,32 @@
       <c r="Z21" s="38"/>
       <c r="AA21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
+        <v>kubectl explain deployment.metadata.name</v>
+      </c>
+      <c r="AB21" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE21" s="5"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="1"/>
+      <c r="AJ21" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="2:37">
-      <c r="B22" s="36"/>
+    <row r="22" spans="2:37" ht="30">
+      <c r="B22" s="36" t="str">
+        <f>"kubectl scale"</f>
+        <v>kubectl scale</v>
+      </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
@@ -11335,10 +11435,12 @@
       <c r="Y22" s="37"/>
       <c r="Z22" s="38"/>
       <c r="AA22" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB22" s="2"/>
+        <f ca="1">IFERROR(OFFSET(A22,0,MATCH("",B22:Z22,-1)),"")</f>
+        <v>kubectl scale</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -11347,13 +11449,16 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="1" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="2:37">
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
+    <row r="23" spans="2:37" ht="30" outlineLevel="1">
+      <c r="B23" s="31"/>
+      <c r="C23" s="37" t="str">
+        <f>B$22&amp;" "&amp;AC23&amp;" "&amp;AE23&amp;" --replicas="&amp;AG23</f>
+        <v>kubectl scale deployment hello --replicas=5</v>
+      </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -11378,22 +11483,36 @@
       <c r="Y23" s="37"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
+        <f t="shared" ref="AA23:AA24" ca="1" si="6">IFERROR(OFFSET(A23,0,MATCH("",B23:Z23,-1)),"")</f>
+        <v>kubectl scale deployment hello --replicas=5</v>
+      </c>
+      <c r="AB23" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD23" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE23" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF23" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>5</v>
+      </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="1"/>
+      <c r="AJ23" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="2:37">
-      <c r="B24" s="36"/>
+    <row r="24" spans="2:37" outlineLevel="1">
+      <c r="B24" s="31"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
@@ -11419,10 +11538,12 @@
       <c r="Y24" s="37"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="8" t="str">
-        <f t="shared" ref="AA24:AA27" ca="1" si="6">IFERROR(OFFSET(A24,0,MATCH("",B24:Z24,-1)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
@@ -11430,13 +11551,14 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="2:37">
-      <c r="B25" s="36"/>
+      <c r="B25" s="36" t="str">
+        <f>"kubectl edit "&amp;AC25&amp;" "&amp;AE25</f>
+        <v>kubectl edit deployment hello</v>
+      </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
@@ -11462,23 +11584,34 @@
       <c r="Y25" s="37"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="8" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
+        <f ca="1">IFERROR(OFFSET(A25,0,MATCH("",B25:Z25,-1)),"")</f>
+        <v>kubectl edit deployment hello</v>
+      </c>
+      <c r="AB25" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD25" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE25" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="1"/>
+      <c r="AJ25" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="2:37">
-      <c r="B26" s="36" t="s">
-        <v>276</v>
+      <c r="B26" s="36" t="str">
+        <f>"kubectl rollout"</f>
+        <v>kubectl rollout</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -11505,10 +11638,12 @@
       <c r="Y26" s="37"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="8" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>kubectl label pods secure-monolith 'secure=enabled'</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <f ca="1">IFERROR(OFFSET(A26,0,MATCH("",B26:Z26,-1)),"")</f>
+        <v>kubectl rollout</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -11517,15 +11652,16 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="1" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="2:37">
-      <c r="B27" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" s="37"/>
+    <row r="27" spans="2:37" outlineLevel="1">
+      <c r="B27" s="31"/>
+      <c r="C27" s="37" t="str">
+        <f>B$26&amp;" history "&amp;AC27&amp;"/"&amp;AE27</f>
+        <v>kubectl rollout history deployment/hello</v>
+      </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -11550,27 +11686,36 @@
       <c r="Y27" s="37"/>
       <c r="Z27" s="38"/>
       <c r="AA27" s="8" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>kubectl get pods secure-monolith --show-labels</v>
-      </c>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
+        <f t="shared" ref="AA27" ca="1" si="7">IFERROR(OFFSET(A27,0,MATCH("",B27:Z27,-1)),"")</f>
+        <v>kubectl rollout history deployment/hello</v>
+      </c>
+      <c r="AB27" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD27" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE27" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="1" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="2:37">
-      <c r="B28" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" s="37"/>
+    <row r="28" spans="2:37" outlineLevel="1">
+      <c r="B28" s="31"/>
+      <c r="C28" s="37" t="str">
+        <f>B$26&amp;" pause "&amp;AC28&amp;"/"&amp;AE28</f>
+        <v>kubectl rollout pause deployment/hello</v>
+      </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -11595,23 +11740,38 @@
       <c r="Y28" s="37"/>
       <c r="Z28" s="38"/>
       <c r="AA28" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve">kubectl describe services monolith </v>
-      </c>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
+        <f t="shared" ref="AA28" ca="1" si="8">IFERROR(OFFSET(A28,0,MATCH("",B28:Z28,-1)),"")</f>
+        <v>kubectl rollout pause deployment/hello</v>
+      </c>
+      <c r="AB28" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD28" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE28" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-    </row>
-    <row r="29" spans="2:37">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="AJ28" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" outlineLevel="1">
+      <c r="B29" s="31"/>
+      <c r="C29" s="37" t="str">
+        <f>B$26&amp;" resume "&amp;AC29&amp;"/"&amp;AE29</f>
+        <v>kubectl rollout resume deployment/hello</v>
+      </c>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
@@ -11636,23 +11796,38 @@
       <c r="Y29" s="37"/>
       <c r="Z29" s="38"/>
       <c r="AA29" s="8" t="str">
-        <f t="shared" ref="AA29" ca="1" si="7">IFERROR(OFFSET(A29,0,MATCH("",B29:Z29,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
+        <f t="shared" ref="AA29" ca="1" si="9">IFERROR(OFFSET(A29,0,MATCH("",B29:Z29,-1)),"")</f>
+        <v>kubectl rollout resume deployment/hello</v>
+      </c>
+      <c r="AB29" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD29" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE29" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-    </row>
-    <row r="30" spans="2:37">
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="AJ29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" outlineLevel="1">
+      <c r="B30" s="31"/>
+      <c r="C30" s="37" t="str">
+        <f>B$26&amp;" status "&amp;AC30&amp;"/"&amp;AE30</f>
+        <v>kubectl rollout status deployment/hello</v>
+      </c>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
@@ -11677,23 +11852,36 @@
       <c r="Y30" s="37"/>
       <c r="Z30" s="38"/>
       <c r="AA30" s="8" t="str">
-        <f t="shared" ref="AA30" ca="1" si="8">IFERROR(OFFSET(A30,0,MATCH("",B30:Z30,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
+        <f t="shared" ref="AA30" ca="1" si="10">IFERROR(OFFSET(A30,0,MATCH("",B30:Z30,-1)),"")</f>
+        <v>kubectl rollout status deployment/hello</v>
+      </c>
+      <c r="AB30" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD30" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE30" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
-      <c r="AJ30" s="1"/>
+      <c r="AJ30" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="2:37">
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
+    <row r="31" spans="2:37" outlineLevel="1">
+      <c r="B31" s="31"/>
+      <c r="C31" s="37" t="str">
+        <f>B$26&amp;" undo "&amp;AC31&amp;"/"&amp;AE31</f>
+        <v>kubectl rollout undo deployment/hello</v>
+      </c>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
@@ -11718,22 +11906,32 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="38"/>
       <c r="AA31" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
+        <f t="shared" ref="AA31" ca="1" si="11">IFERROR(OFFSET(A31,0,MATCH("",B31:Z31,-1)),"")</f>
+        <v>kubectl rollout undo deployment/hello</v>
+      </c>
+      <c r="AB31" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD31" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE31" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
-      <c r="AJ31" s="1"/>
+      <c r="AJ31" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="2:37" outlineLevel="1">
-      <c r="B32" s="27"/>
+    <row r="32" spans="2:37">
+      <c r="B32" s="36"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
@@ -11759,12 +11957,10 @@
       <c r="Y32" s="37"/>
       <c r="Z32" s="38"/>
       <c r="AA32" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(A32,0,MATCH("",B32:Z32,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB32" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
@@ -11775,8 +11971,8 @@
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
     </row>
-    <row r="33" spans="2:37" outlineLevel="1">
-      <c r="B33" s="27"/>
+    <row r="33" spans="2:37">
+      <c r="B33" s="36"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
@@ -11805,9 +12001,7 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AB33" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
@@ -11818,9 +12012,9 @@
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
     </row>
-    <row r="34" spans="2:37" outlineLevel="2">
-      <c r="B34" s="27"/>
-      <c r="C34" s="26"/>
+    <row r="34" spans="2:37">
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -11848,9 +12042,7 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AB34" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
@@ -11858,12 +12050,14 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="1"/>
+      <c r="AJ34" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="AK34" s="1"/>
     </row>
-    <row r="35" spans="2:37" outlineLevel="2">
-      <c r="B35" s="27"/>
-      <c r="C35" s="26"/>
+    <row r="35" spans="2:37">
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -11888,12 +12082,10 @@
       <c r="Y35" s="37"/>
       <c r="Z35" s="38"/>
       <c r="AA35" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA35:AA36" ca="1" si="12">IFERROR(OFFSET(A35,0,MATCH("",B35:Z35,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB35" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
@@ -11904,10 +12096,10 @@
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
     </row>
-    <row r="36" spans="2:37" outlineLevel="3">
-      <c r="B36" s="27"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+    <row r="36" spans="2:37">
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -11931,12 +12123,10 @@
       <c r="Y36" s="37"/>
       <c r="Z36" s="38"/>
       <c r="AA36" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="AB36" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
@@ -11947,10 +12137,10 @@
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
     </row>
-    <row r="37" spans="2:37" outlineLevel="3">
-      <c r="B37" s="27"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+    <row r="37" spans="2:37">
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -11974,12 +12164,10 @@
       <c r="Y37" s="37"/>
       <c r="Z37" s="38"/>
       <c r="AA37" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA37:AA39" ca="1" si="13">IFERROR(OFFSET(A37,0,MATCH("",B37:Z37,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB37" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
@@ -11990,11 +12178,11 @@
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="2:37" outlineLevel="4">
-      <c r="B38" s="27"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+    <row r="38" spans="2:37">
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
@@ -12017,12 +12205,10 @@
       <c r="Y38" s="37"/>
       <c r="Z38" s="38"/>
       <c r="AA38" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
@@ -12033,11 +12219,13 @@
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
     </row>
-    <row r="39" spans="2:37" outlineLevel="4">
-      <c r="B39" s="27"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+    <row r="39" spans="2:37" ht="39" customHeight="1">
+      <c r="B39" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
@@ -12060,12 +12248,11 @@
       <c r="Y39" s="37"/>
       <c r="Z39" s="38"/>
       <c r="AA39" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB39" s="2" t="s">
-        <v>6</v>
-      </c>
+        <f t="shared" ca="1" si="13"/>
+        <v xml:space="preserve">kubectl get pods -o jsonpath --template='{range .items[*]}{.metadata.name}{"\t"}{"\t"}{.spec.containers[0].image}{"\n"}{end}'
+</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
@@ -12076,12 +12263,14 @@
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="2:37" outlineLevel="5">
-      <c r="B40" s="27"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
+    <row r="40" spans="2:37">
+      <c r="B40" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
@@ -12104,11 +12293,9 @@
       <c r="Z40" s="38"/>
       <c r="AA40" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>kubectl apply -f services/hello-blue.yaml</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
@@ -12119,12 +12306,12 @@
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
     </row>
-    <row r="41" spans="2:37" outlineLevel="5">
-      <c r="B41" s="27"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+    <row r="41" spans="2:37">
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
@@ -12146,12 +12333,10 @@
       <c r="Y41" s="37"/>
       <c r="Z41" s="38"/>
       <c r="AA41" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(A41,0,MATCH("",B41:Z41,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB41" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
@@ -12162,13 +12347,13 @@
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
     </row>
-    <row r="42" spans="2:37" outlineLevel="6">
-      <c r="B42" s="27"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+    <row r="42" spans="2:37">
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
@@ -12189,12 +12374,10 @@
       <c r="Y42" s="37"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(A42,0,MATCH("",B42:Z42,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB42" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
@@ -12205,13 +12388,13 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
     </row>
-    <row r="43" spans="2:37" outlineLevel="6">
-      <c r="B43" s="27"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+    <row r="43" spans="2:37">
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
@@ -12232,12 +12415,10 @@
       <c r="Y43" s="37"/>
       <c r="Z43" s="38"/>
       <c r="AA43" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(A43,0,MATCH("",B43:Z43,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB43" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
@@ -12248,14 +12429,14 @@
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
     </row>
-    <row r="44" spans="2:37" outlineLevel="7">
-      <c r="B44" s="27"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+    <row r="44" spans="2:37">
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
@@ -12275,12 +12456,10 @@
       <c r="Y44" s="37"/>
       <c r="Z44" s="38"/>
       <c r="AA44" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(A44,0,MATCH("",B44:Z44,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB44" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
@@ -12291,14 +12470,14 @@
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
     </row>
-    <row r="45" spans="2:37" outlineLevel="7">
-      <c r="B45" s="27"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
+    <row r="45" spans="2:37">
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
@@ -12318,12 +12497,10 @@
       <c r="Y45" s="37"/>
       <c r="Z45" s="38"/>
       <c r="AA45" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA45" ca="1" si="14">IFERROR(OFFSET(A45,0,MATCH("",B45:Z45,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB45" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
@@ -12334,13 +12511,13 @@
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
     </row>
-    <row r="46" spans="2:37" outlineLevel="6">
-      <c r="B46" s="27"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+    <row r="46" spans="2:37">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
@@ -12361,12 +12538,10 @@
       <c r="Y46" s="37"/>
       <c r="Z46" s="38"/>
       <c r="AA46" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA46" ca="1" si="15">IFERROR(OFFSET(A46,0,MATCH("",B46:Z46,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB46" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
@@ -12377,12 +12552,12 @@
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
     </row>
-    <row r="47" spans="2:37" outlineLevel="5">
-      <c r="B47" s="27"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
+    <row r="47" spans="2:37">
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
@@ -12404,12 +12579,10 @@
       <c r="Y47" s="37"/>
       <c r="Z47" s="38"/>
       <c r="AA47" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA47" ca="1" si="16">IFERROR(OFFSET(A47,0,MATCH("",B47:Z47,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB47" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
@@ -12420,11 +12593,11 @@
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
     </row>
-    <row r="48" spans="2:37" outlineLevel="4">
-      <c r="B48" s="27"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+    <row r="48" spans="2:37">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
@@ -12450,9 +12623,7 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AB48" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
@@ -12463,10 +12634,10 @@
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
     </row>
-    <row r="49" spans="2:37" outlineLevel="3">
+    <row r="49" spans="2:37" outlineLevel="1">
       <c r="B49" s="27"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -12506,9 +12677,9 @@
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
     </row>
-    <row r="50" spans="2:37" outlineLevel="3">
+    <row r="50" spans="2:37" outlineLevel="1">
       <c r="B50" s="27"/>
-      <c r="C50" s="26"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
@@ -12551,7 +12722,7 @@
     </row>
     <row r="51" spans="2:37" outlineLevel="2">
       <c r="B51" s="27"/>
-      <c r="C51" s="37"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
@@ -12592,9 +12763,9 @@
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
     </row>
-    <row r="52" spans="2:37">
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
+    <row r="52" spans="2:37" outlineLevel="2">
+      <c r="B52" s="27"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
@@ -12635,9 +12806,752 @@
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
     </row>
-    <row r="55" spans="2:37" ht="15" customHeight="1"/>
+    <row r="53" spans="2:37" outlineLevel="3">
+      <c r="B53" s="27"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+    </row>
+    <row r="54" spans="2:37" outlineLevel="3">
+      <c r="B54" s="27"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+    </row>
+    <row r="55" spans="2:37" outlineLevel="4">
+      <c r="B55" s="27"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+    </row>
+    <row r="56" spans="2:37" outlineLevel="4">
+      <c r="B56" s="27"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+    </row>
+    <row r="57" spans="2:37" outlineLevel="5">
+      <c r="B57" s="27"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+    </row>
+    <row r="58" spans="2:37" outlineLevel="5">
+      <c r="B58" s="27"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="38"/>
+      <c r="AA58" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+    </row>
+    <row r="59" spans="2:37" outlineLevel="6">
+      <c r="B59" s="27"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+    </row>
+    <row r="60" spans="2:37" outlineLevel="6">
+      <c r="B60" s="27"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+    </row>
+    <row r="61" spans="2:37" outlineLevel="7">
+      <c r="B61" s="27"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+    </row>
+    <row r="62" spans="2:37" outlineLevel="7">
+      <c r="B62" s="27"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+    </row>
+    <row r="63" spans="2:37" outlineLevel="6">
+      <c r="B63" s="27"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+    </row>
+    <row r="64" spans="2:37" outlineLevel="5">
+      <c r="B64" s="27"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="38"/>
+      <c r="AA64" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+    </row>
+    <row r="65" spans="2:37" outlineLevel="4">
+      <c r="B65" s="27"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+    </row>
+    <row r="66" spans="2:37" outlineLevel="3">
+      <c r="B66" s="27"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="38"/>
+      <c r="AA66" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+    </row>
+    <row r="67" spans="2:37" outlineLevel="3">
+      <c r="B67" s="27"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="38"/>
+      <c r="AA67" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+    </row>
+    <row r="68" spans="2:37" outlineLevel="2">
+      <c r="B68" s="27"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="38"/>
+      <c r="AA68" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+    </row>
+    <row r="69" spans="2:37">
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="38"/>
+      <c r="AA69" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+    </row>
+    <row r="72" spans="2:37" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="70">
+    <mergeCell ref="B39:Z39"/>
+    <mergeCell ref="B41:Z41"/>
+    <mergeCell ref="B42:Z42"/>
+    <mergeCell ref="B43:Z43"/>
+    <mergeCell ref="C23:Z23"/>
+    <mergeCell ref="C24:Z24"/>
+    <mergeCell ref="B26:Z26"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="C29:Z29"/>
+    <mergeCell ref="C30:Z30"/>
+    <mergeCell ref="C31:Z31"/>
     <mergeCell ref="B5:Z5"/>
     <mergeCell ref="C7:Z7"/>
     <mergeCell ref="D8:Z8"/>
@@ -12647,41 +13561,46 @@
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="B3:Z3"/>
     <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="G40:Z40"/>
+    <mergeCell ref="G57:Z57"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="B16:Z16"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="C32:Z32"/>
-    <mergeCell ref="C33:Z33"/>
-    <mergeCell ref="D34:Z34"/>
-    <mergeCell ref="B30:Z30"/>
-    <mergeCell ref="B28:Z28"/>
-    <mergeCell ref="B29:Z29"/>
-    <mergeCell ref="B24:Z24"/>
-    <mergeCell ref="D35:Z35"/>
-    <mergeCell ref="E36:Z36"/>
-    <mergeCell ref="E37:Z37"/>
-    <mergeCell ref="F38:Z38"/>
-    <mergeCell ref="F39:Z39"/>
-    <mergeCell ref="B52:Z52"/>
-    <mergeCell ref="G41:Z41"/>
-    <mergeCell ref="H42:Z42"/>
-    <mergeCell ref="H43:Z43"/>
-    <mergeCell ref="I44:Z44"/>
-    <mergeCell ref="I45:Z45"/>
-    <mergeCell ref="H46:Z46"/>
-    <mergeCell ref="G47:Z47"/>
-    <mergeCell ref="F48:Z48"/>
-    <mergeCell ref="E49:Z49"/>
-    <mergeCell ref="D50:Z50"/>
-    <mergeCell ref="C51:Z51"/>
+    <mergeCell ref="B48:Z48"/>
+    <mergeCell ref="C49:Z49"/>
+    <mergeCell ref="C50:Z50"/>
+    <mergeCell ref="D51:Z51"/>
+    <mergeCell ref="B47:Z47"/>
     <mergeCell ref="B25:Z25"/>
-    <mergeCell ref="B26:Z26"/>
-    <mergeCell ref="B27:Z27"/>
+    <mergeCell ref="B46:Z46"/>
+    <mergeCell ref="B35:Z35"/>
+    <mergeCell ref="B44:Z44"/>
+    <mergeCell ref="B40:Z40"/>
+    <mergeCell ref="B45:Z45"/>
+    <mergeCell ref="B37:Z37"/>
+    <mergeCell ref="B38:Z38"/>
+    <mergeCell ref="D52:Z52"/>
+    <mergeCell ref="E53:Z53"/>
+    <mergeCell ref="E54:Z54"/>
+    <mergeCell ref="F55:Z55"/>
+    <mergeCell ref="F56:Z56"/>
+    <mergeCell ref="B69:Z69"/>
+    <mergeCell ref="G58:Z58"/>
+    <mergeCell ref="H59:Z59"/>
+    <mergeCell ref="H60:Z60"/>
+    <mergeCell ref="I61:Z61"/>
+    <mergeCell ref="I62:Z62"/>
+    <mergeCell ref="H63:Z63"/>
+    <mergeCell ref="G64:Z64"/>
+    <mergeCell ref="F65:Z65"/>
+    <mergeCell ref="E66:Z66"/>
+    <mergeCell ref="D67:Z67"/>
+    <mergeCell ref="C68:Z68"/>
+    <mergeCell ref="B36:Z36"/>
+    <mergeCell ref="B22:Z22"/>
+    <mergeCell ref="B32:Z32"/>
     <mergeCell ref="B20:Z20"/>
     <mergeCell ref="B21:Z21"/>
-    <mergeCell ref="B22:Z22"/>
-    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="B33:Z33"/>
+    <mergeCell ref="B34:Z34"/>
     <mergeCell ref="B14:Z14"/>
     <mergeCell ref="B17:Z17"/>
     <mergeCell ref="C19:Z19"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="gcloud cheatsheet" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="template cheatsheet" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -325,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="372">
   <si>
     <t>Details</t>
   </si>
@@ -1100,12 +1099,6 @@
     <t>Cluster name:</t>
   </si>
   <si>
-    <t>my-cluster</t>
-  </si>
-  <si>
-    <t>Manages clusters capable of running Kurbenetes containers.</t>
-  </si>
-  <si>
     <t>Creates a new cluster.</t>
   </si>
   <si>
@@ -1250,34 +1243,15 @@
     <t>Labels:</t>
   </si>
   <si>
-    <t>bootcamp</t>
-  </si>
-  <si>
     <t>Nodes:</t>
   </si>
   <si>
     <t>Scopes(?):</t>
   </si>
   <si>
-    <t>"https://www.googleapis.com/auth/projecthosting,storage-rw"</t>
-  </si>
-  <si>
     <t>Show labels:</t>
   </si>
   <si>
-    <t>Documentation about a particular field.</t>
-  </si>
-  <si>
-    <t>deployments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kubectl get pods -o jsonpath --template='{range .items[*]}{.metadata.name}{"\t"}{"\t"}{.spec.containers[0].image}{"\n"}{end}'
-</t>
-  </si>
-  <si>
-    <t>kubectl apply -f services/hello-blue.yaml</t>
-  </si>
-  <si>
     <t>Updates labels on a resource (or resources).</t>
   </si>
   <si>
@@ -1336,6 +1310,156 @@
   </si>
   <si>
     <t>Rolls back the last rollout update.</t>
+  </si>
+  <si>
+    <t>jenkins-cd</t>
+  </si>
+  <si>
+    <t>Machine type:</t>
+  </si>
+  <si>
+    <t>n1-standard-2</t>
+  </si>
+  <si>
+    <t>"https://www.googleapis.com/auth/projecthosting,cloud-platform"</t>
+  </si>
+  <si>
+    <t>Role binding(?) name:</t>
+  </si>
+  <si>
+    <t>cluster-admin</t>
+  </si>
+  <si>
+    <t>User:</t>
+  </si>
+  <si>
+    <t>tiller</t>
+  </si>
+  <si>
+    <t>Service account name:</t>
+  </si>
+  <si>
+    <t>Namespace:</t>
+  </si>
+  <si>
+    <t>kube-system</t>
+  </si>
+  <si>
+    <t>Service account:</t>
+  </si>
+  <si>
+    <t>helm init --service-account=tiller</t>
+  </si>
+  <si>
+    <t>helm update</t>
+  </si>
+  <si>
+    <t>helm version</t>
+  </si>
+  <si>
+    <t>helm install -n cd stable/jenkins -f jenkins/values.yaml --version 0.16.6 --wait</t>
+  </si>
+  <si>
+    <t>Namespace name:</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>gceme-frontend-production</t>
+  </si>
+  <si>
+    <t>kubectl proxy</t>
+  </si>
+  <si>
+    <t>Lists kubernetes clusters.</t>
+  </si>
+  <si>
+    <t>Add yourself as a cluster administrator in the cluster's RBAC</t>
+  </si>
+  <si>
+    <t>tiller-admin-binding</t>
+  </si>
+  <si>
+    <t>kube-system:tiller</t>
+  </si>
+  <si>
+    <t>gcloud source</t>
+  </si>
+  <si>
+    <t>Cloud git repository commands.</t>
+  </si>
+  <si>
+    <t>Manges cloud source repositories.</t>
+  </si>
+  <si>
+    <t>Repository name:</t>
+  </si>
+  <si>
+    <t>Creates a new git repository.</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Applies a configuration to a resource from a file.</t>
+  </si>
+  <si>
+    <t>k8s/production</t>
+  </si>
+  <si>
+    <t>Creates some sort of proxy of the cluster in localhost(?).</t>
+  </si>
+  <si>
+    <t>app=gceme role=frontend</t>
+  </si>
+  <si>
+    <t>Creates a ClusterRoleBinding for a particular ClusterRole(???!!!)</t>
+  </si>
+  <si>
+    <t>Creates a service account (???!!!)</t>
+  </si>
+  <si>
+    <t>Creates a namespace (???!!!)</t>
+  </si>
+  <si>
+    <t>gcloud docker</t>
+  </si>
+  <si>
+    <t>Host name:</t>
+  </si>
+  <si>
+    <t>gcr.io</t>
+  </si>
+  <si>
+    <t>quickstart-image</t>
+  </si>
+  <si>
+    <t>qwiklabs-gcp-a02f70a41a3fba35</t>
+  </si>
+  <si>
+    <t>It's being deprecated in favor of standard docker CLI with a credential helper from gcloud. See "gcloud auth configure-docker" documentation for more info.</t>
+  </si>
+  <si>
+    <t>Downloads an image from Google Cloud's Docker registry to the local Docker registry.</t>
+  </si>
+  <si>
+    <t>Manages Kubernetes clusters.</t>
+  </si>
+  <si>
+    <t>WTF is a Goggle API scope? Why may they be need in a cluster?</t>
+  </si>
+  <si>
+    <t>gcloud docker wraps Docker commands so that gcloud can inject the appropriate fresh authentication token into requests that interact with the Google Container Registry.</t>
+  </si>
+  <si>
+    <t>Uploads an image to Google Container Registry (A.K.A.: Goggle's Docker Registry).</t>
+  </si>
+  <si>
+    <t>Manages Google Container Registry images (A.K.A.: Goggle's Docker Registry).</t>
+  </si>
+  <si>
+    <t>Lists images in your Google Container Registry.</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1666,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1626,6 +1750,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1634,15 +1774,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1962,10 +2093,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AQ110"/>
+  <dimension ref="B1:AQ118"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="AA79" sqref="AA79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1992,42 +2123,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:43">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
       <c r="AA1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
@@ -2074,7 +2205,7 @@
       <c r="Y2" s="37"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA96" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA104" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>gcloud compute</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -2155,32 +2286,32 @@
     <row r="4" spans="2:43" ht="30" outlineLevel="2">
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="33" t="str">
+      <c r="D4" s="39" t="str">
         <f>C$3&amp;" create "&amp;AC4&amp;IF(ISBLANK(AE4),""," --zone "&amp;AE4)&amp;IF(ISBLANK(AI4),""," --subnet "&amp;AI4)&amp;IF(ISBLANK(AK4),""," --tags "&amp;AK4)&amp;IF(ISBLANK(AM4),""," --image-family "&amp;AM4)&amp;IF(ISBLANK(AO4),""," --image-project "&amp;AO4)&amp;IF(ISBLANK(AG4),""," --metadata "&amp;AG4)</f>
         <v>gcloud compute instances create instance-3 --zone us-central1-a --subnet subnet-us-central-192</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="35"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="41"/>
       <c r="AA4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>gcloud compute instances create instance-3 --zone us-central1-a --subnet subnet-us-central-192</v>
@@ -2408,7 +2539,7 @@
       </c>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="8" spans="2:43" outlineLevel="1">
       <c r="B8" s="12"/>
       <c r="C8" s="37" t="str">
         <f>B$2&amp;" disks"</f>
@@ -2462,7 +2593,7 @@
       </c>
       <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="9" spans="2:43" outlineLevel="2">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="37" t="str">
@@ -2526,7 +2657,7 @@
       </c>
       <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="10" spans="2:43" outlineLevel="2">
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="37" t="str">
@@ -2584,7 +2715,7 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="11" spans="2:43" outlineLevel="1">
       <c r="B11" s="12"/>
       <c r="C11" s="37" t="str">
         <f>B$2&amp;" ssh"</f>
@@ -2638,7 +2769,7 @@
       </c>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="12" spans="2:43" outlineLevel="2">
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
       <c r="D12" s="37" t="str">
@@ -2698,7 +2829,7 @@
       </c>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="13" spans="2:43" outlineLevel="1">
       <c r="B13" s="15"/>
       <c r="C13" s="37" t="str">
         <f>B$2&amp;" instance-templates"</f>
@@ -2752,35 +2883,35 @@
       </c>
       <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="2:43" ht="53.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="14" spans="2:43" ht="53.25" customHeight="1" outlineLevel="2">
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="33" t="str">
+      <c r="D14" s="39" t="str">
         <f>C$13&amp;" create "&amp;AC14&amp;IF(ISBLANK(AE14),""," --metadata-from-file startup-script="&amp;AE14)&amp;IF(ISBLANK(AG14),""," --metadata "&amp;AG14)&amp;IF(ISBLANK(AI14),""," --region "&amp;AI14)&amp;IF(ISBLANK(AK14),""," --network "&amp;AK14)&amp;IF(ISBLANK(AM14),""," --tags "&amp;AM14)</f>
         <v>gcloud compute instance-templates create europe-west1-template --metadata startup-script-url=gs://cloudnet-lab/startup.sh --region europe-west1 --network httplb --tags www</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="35"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="41"/>
       <c r="AA14" s="8" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>gcloud compute instance-templates create europe-west1-template --metadata startup-script-url=gs://cloudnet-lab/startup.sh --region europe-west1 --network httplb --tags www</v>
@@ -2826,7 +2957,7 @@
       </c>
       <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="15" spans="2:43" outlineLevel="1">
       <c r="B15" s="15"/>
       <c r="C15" s="37" t="str">
         <f>B$2&amp;" target-pools"</f>
@@ -2880,7 +3011,7 @@
       </c>
       <c r="AQ15" s="1"/>
     </row>
-    <row r="16" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="16" spans="2:43" outlineLevel="2">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="37" t="str">
@@ -2936,7 +3067,7 @@
       </c>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="17" spans="2:43" outlineLevel="1">
       <c r="B17" s="15"/>
       <c r="C17" s="37" t="str">
         <f>B$2&amp;" instance-groups"</f>
@@ -2990,35 +3121,35 @@
       </c>
       <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="2:43" hidden="1" outlineLevel="2" collapsed="1">
+    <row r="18" spans="2:43" outlineLevel="2">
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="33" t="str">
+      <c r="D18" s="39" t="str">
         <f>C$17&amp;" managed"</f>
         <v>gcloud compute instance-groups managed</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="35"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="41"/>
       <c r="AA18" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>gcloud compute instance-groups managed</v>
@@ -3044,35 +3175,35 @@
       </c>
       <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="2:43" ht="41.25" hidden="1" customHeight="1" outlineLevel="3">
+    <row r="19" spans="2:43" ht="41.25" customHeight="1" outlineLevel="3">
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="33" t="str">
+      <c r="E19" s="39" t="str">
         <f>D$18&amp;" create "&amp;AC19&amp;" --template "&amp;AE19&amp;" --size "&amp;AG19&amp;IF(ISBLANK(AI19),""," --base-instance-name "&amp;AI19)&amp;IF(ISBLANK(AK19),""," --target-pool "&amp;AK19)</f>
         <v>gcloud compute instance-groups managed create nginx-group --template nginx-template --size 2 --base-instance-name nginx --target-pool nginx-pool</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="35"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="41"/>
       <c r="AA19" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>gcloud compute instance-groups managed create nginx-group --template nginx-template --size 2 --base-instance-name nginx --target-pool nginx-pool</v>
@@ -3116,35 +3247,35 @@
       </c>
       <c r="AQ19" s="1"/>
     </row>
-    <row r="20" spans="2:43" ht="28.5" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
+    <row r="20" spans="2:43" ht="28.5" customHeight="1" outlineLevel="3" collapsed="1">
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="33" t="str">
+      <c r="E20" s="39" t="str">
         <f>D$18&amp;" set-named-ports "&amp;AC20&amp;" --named-ports "&amp;AE20</f>
         <v>gcloud compute instance-groups managed set-named-ports nginx-group --named-ports http:80</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="35"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="41"/>
       <c r="AA20" s="8" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>gcloud compute instance-groups managed set-named-ports nginx-group --named-ports http:80</v>
@@ -3176,35 +3307,35 @@
       </c>
       <c r="AQ20" s="1"/>
     </row>
-    <row r="21" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="21" spans="2:43" outlineLevel="2">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="33" t="str">
+      <c r="D21" s="39" t="str">
         <f>C$17&amp;" unmanaged"</f>
         <v>gcloud compute instance-groups unmanaged</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="35"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="41"/>
       <c r="AA21" s="8" t="str">
         <f t="shared" ref="AA21:AA23" ca="1" si="10">IFERROR(OFFSET(A21,0,MATCH("",B21:Z21,-1)),"")</f>
         <v>gcloud compute instance-groups unmanaged</v>
@@ -3230,35 +3361,35 @@
       </c>
       <c r="AQ21" s="1"/>
     </row>
-    <row r="22" spans="2:43" ht="41.25" hidden="1" customHeight="1" outlineLevel="3">
+    <row r="22" spans="2:43" ht="41.25" customHeight="1" outlineLevel="3">
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="33" t="str">
+      <c r="E22" s="39" t="str">
         <f>D$21&amp;" create "&amp;AC22&amp;" --zone "&amp;AE22</f>
         <v>gcloud compute instance-groups unmanaged create europe-resources-w --zone europe-west1-b</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="35"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="41"/>
       <c r="AA22" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>gcloud compute instance-groups unmanaged create europe-resources-w --zone europe-west1-b</v>
@@ -3290,35 +3421,35 @@
       </c>
       <c r="AQ22" s="1"/>
     </row>
-    <row r="23" spans="2:43" ht="41.25" hidden="1" customHeight="1" outlineLevel="3">
+    <row r="23" spans="2:43" ht="41.25" customHeight="1" outlineLevel="3">
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="33" t="str">
+      <c r="E23" s="39" t="str">
         <f>D$21&amp;" add-instances "&amp;AC23&amp;" --instances "&amp;AE23&amp;" --zone "&amp;AG23</f>
         <v>gcloud compute instance-groups unmanaged add-instances europe-resources-w --instances www-3,www-4 --zone europe-west1-b</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="35"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="41"/>
       <c r="AA23" s="8" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>gcloud compute instance-groups unmanaged add-instances europe-resources-w --instances www-3,www-4 --zone europe-west1-b</v>
@@ -3354,35 +3485,35 @@
       </c>
       <c r="AQ23" s="1"/>
     </row>
-    <row r="24" spans="2:43" ht="41.25" hidden="1" customHeight="1" outlineLevel="3">
+    <row r="24" spans="2:43" ht="41.25" customHeight="1" outlineLevel="3">
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="33" t="str">
+      <c r="E24" s="39" t="str">
         <f>D$21&amp;" set-named-ports "&amp;AC24&amp;" --named-ports "&amp;AE24&amp;" --zone "&amp;AG24</f>
         <v>gcloud compute instance-groups unmanaged set-named-ports europe-resources-w --named-ports http:80 --zone europe-west1-b</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="35"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="41"/>
       <c r="AA24" s="8" t="str">
         <f t="shared" ref="AA24" ca="1" si="11">IFERROR(OFFSET(A24,0,MATCH("",B24:Z24,-1)),"")</f>
         <v>gcloud compute instance-groups unmanaged set-named-ports europe-resources-w --named-ports http:80 --zone europe-west1-b</v>
@@ -3418,38 +3549,38 @@
       </c>
       <c r="AQ24" s="1"/>
     </row>
-    <row r="25" spans="2:43" ht="30" hidden="1" outlineLevel="2">
+    <row r="25" spans="2:43" ht="30" outlineLevel="2">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="33" t="e">
-        <f>C$40&amp;" create "&amp;#REF!&amp;" --default-backend-bucket "&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="35"/>
+      <c r="D25" s="39" t="str">
+        <f>C$40&amp;" create "&amp;AC25&amp;" --default-backend-bucket "&amp;AE25</f>
+        <v>gcloud compute url-maps create web-map --default-backend-bucket nginx-backend</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="41"/>
       <c r="AA25" s="8" t="str">
         <f t="shared" ref="AA25" ca="1" si="12">IFERROR(OFFSET(A25,0,MATCH("",B25:Z25,-1)),"")</f>
-        <v/>
+        <v>gcloud compute url-maps create web-map --default-backend-bucket nginx-backend</v>
       </c>
       <c r="AB25" s="21" t="s">
         <v>108</v>
@@ -3535,32 +3666,32 @@
     <row r="27" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="33" t="str">
+      <c r="D27" s="39" t="str">
         <f>C$26&amp;" create "&amp;AC27&amp;" --allow "&amp;AE27&amp;IF(ISBLANK(AG27),""," --network "&amp;AG27)&amp;IF(ISBLANK(AI27),""," --source-ranges "&amp;AI27)&amp;IF(ISBLANK(AK27),""," --target-tags "&amp;AK27)</f>
         <v>gcloud compute firewall-rules create allow-lb-and-healthcheck --allow tcp:80 --source-ranges 130.211.0.0/22,35.191.0.0/16 --target-tags http-tag</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="35"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="41"/>
       <c r="AA27" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>gcloud compute firewall-rules create allow-lb-and-healthcheck --allow tcp:80 --source-ranges 130.211.0.0/22,35.191.0.0/16 --target-tags http-tag</v>
@@ -3605,32 +3736,32 @@
     <row r="28" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="33" t="str">
+      <c r="D28" s="39" t="str">
         <f>C$26&amp;" delete "&amp;AC28</f>
         <v>gcloud compute firewall-rules delete www-firewall</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="35"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="41"/>
       <c r="AA28" s="8" t="str">
         <f t="shared" ref="AA28" ca="1" si="14">IFERROR(OFFSET(A28,0,MATCH("",B28:Z28,-1)),"")</f>
         <v>gcloud compute firewall-rules delete www-firewall</v>
@@ -3715,32 +3846,32 @@
     <row r="30" spans="2:43" outlineLevel="2">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="33" t="str">
+      <c r="D30" s="39" t="str">
         <f>C$29&amp;" create"</f>
         <v>gcloud compute forwarding-rules create</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="35"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="41"/>
       <c r="AA30" s="8" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>gcloud compute forwarding-rules create</v>
@@ -3770,31 +3901,31 @@
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="33" t="str">
+      <c r="E31" s="39" t="str">
         <f>D$30&amp;" "&amp;AC31&amp;" --target-pool "&amp;AE31&amp;" --ports="&amp;AG31&amp;IF(ISBLANK(AI31)," --global"," --region "&amp;AI31)</f>
         <v>gcloud compute forwarding-rules create http-cr-rule --target-pool  --ports=80 --global</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="35"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="41"/>
       <c r="AA31" s="8" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>gcloud compute forwarding-rules create http-cr-rule --target-pool  --ports=80 --global</v>
@@ -3834,31 +3965,31 @@
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="33" t="str">
+      <c r="E32" s="39" t="str">
         <f>D$30&amp;" "&amp;AC32&amp;" --target-http-proxy "&amp;AE32&amp;" --ports="&amp;AG32&amp;IF(ISBLANK(AI32)," --global"," --region "&amp;AI32)&amp;IF(ISBLANK(AK32),""," --address "&amp;AK32)</f>
         <v>gcloud compute forwarding-rules create http-cr-rule --target-http-proxy http-lb-proxy --ports=80 --global --address 123.456.789.123</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="35"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="41"/>
       <c r="AA32" s="8" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>gcloud compute forwarding-rules create http-cr-rule --target-http-proxy http-lb-proxy --ports=80 --global --address 123.456.789.123</v>
@@ -3903,29 +4034,29 @@
     <row r="33" spans="2:43" outlineLevel="2">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="35"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="41"/>
       <c r="AA33" s="8" t="str">
         <f t="shared" ref="AA33" ca="1" si="16">IFERROR(OFFSET(A33,0,MATCH("",B33:Z33,-1)),"")</f>
         <v/>
@@ -4003,35 +4134,35 @@
       </c>
       <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="35" spans="2:43" outlineLevel="1">
       <c r="B35" s="15"/>
       <c r="C35" s="38" t="str">
         <f>B$2&amp;" health-checks"</f>
         <v>gcloud compute health-checks</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="44"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="47"/>
       <c r="AA35" s="8"/>
       <c r="AB35" s="22"/>
       <c r="AC35" s="20"/>
@@ -4050,35 +4181,35 @@
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
     </row>
-    <row r="36" spans="2:43" ht="30" hidden="1" outlineLevel="2">
+    <row r="36" spans="2:43" ht="30" outlineLevel="2">
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="33" t="str">
+      <c r="D36" s="39" t="str">
         <f>C$35&amp;" create "&amp;AE36&amp;" "&amp;AC36</f>
         <v>gcloud compute health-checks create http http-basic-check</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="35"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="41"/>
       <c r="AA36" s="8" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>gcloud compute health-checks create http http-basic-check</v>
@@ -4110,7 +4241,7 @@
       </c>
       <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="2:43" ht="135" outlineLevel="1" collapsed="1">
+    <row r="37" spans="2:43" ht="135" outlineLevel="1">
       <c r="B37" s="15"/>
       <c r="C37" s="37" t="str">
         <f>B$2&amp;" backend-services"</f>
@@ -4166,35 +4297,35 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="2:43" ht="45" hidden="1" outlineLevel="2">
+    <row r="38" spans="2:43" ht="45" outlineLevel="2">
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="33" t="str">
+      <c r="D38" s="39" t="str">
         <f>C$37&amp;" create "&amp;AC38&amp;" --protocol "&amp;AE38&amp;IF(ISBLANK(AG38),""," --http-health-checks "&amp;AG38)&amp;IF(ISBLANK(AI38)," --global"," --region "&amp;AI38)</f>
         <v>gcloud compute backend-services create web-map-backend-service --protocol HTTP --global</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="35"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="41"/>
       <c r="AA38" s="8" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>gcloud compute backend-services create web-map-backend-service --protocol HTTP --global</v>
@@ -4234,35 +4365,35 @@
       </c>
       <c r="AQ38" s="1"/>
     </row>
-    <row r="39" spans="2:43" ht="60" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="39" spans="2:43" ht="60" customHeight="1" outlineLevel="2">
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="33" t="str">
+      <c r="D39" s="39" t="str">
         <f>C$37&amp;" add-backend "&amp;AC39&amp;" --instance-group "&amp;AE39&amp;IF(ISBLANK(AG39),""," --instance-group-zone "&amp;AG39)&amp;IF(ISBLANK(AI39),""," --balancing-mode "&amp;AI39)&amp;IF(ISBLANK(AK39),""," --max-utilization "&amp;AK39)&amp;IF(ISBLANK(AM39),""," --capacity-scaler "&amp;AM39)&amp;" --global"</f>
         <v>gcloud compute backend-services add-backend web-map-backend-service --instance-group europe-resources-w --instance-group-zone europe-west1-b --balancing-mode UTILIZATION --max-utilization 0.8 --capacity-scaler 1 --global</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="35"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="41"/>
       <c r="AA39" s="8" t="str">
         <f t="shared" ref="AA39:AA41" ca="1" si="18">IFERROR(OFFSET(A39,0,MATCH("",B39:Z39,-1)),"")</f>
         <v>gcloud compute backend-services add-backend web-map-backend-service --instance-group europe-resources-w --instance-group-zone europe-west1-b --balancing-mode UTILIZATION --max-utilization 0.8 --capacity-scaler 1 --global</v>
@@ -4310,7 +4441,7 @@
       </c>
       <c r="AQ39" s="1"/>
     </row>
-    <row r="40" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="40" spans="2:43" outlineLevel="1">
       <c r="B40" s="15"/>
       <c r="C40" s="37" t="str">
         <f>B$2&amp;" url-maps"</f>
@@ -4364,35 +4495,35 @@
       </c>
       <c r="AQ40" s="1"/>
     </row>
-    <row r="41" spans="2:43" ht="30" hidden="1" outlineLevel="2">
+    <row r="41" spans="2:43" ht="30" outlineLevel="2">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="33" t="str">
+      <c r="D41" s="39" t="str">
         <f>C$40&amp;" create "&amp;AC41&amp;" --default-service "&amp;AE41</f>
         <v>gcloud compute url-maps create web-map --default-service web-map-backend-service</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="35"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="41"/>
       <c r="AA41" s="8" t="str">
         <f t="shared" ca="1" si="18"/>
         <v>gcloud compute url-maps create web-map --default-service web-map-backend-service</v>
@@ -4424,7 +4555,7 @@
       </c>
       <c r="AQ41" s="1"/>
     </row>
-    <row r="42" spans="2:43" ht="105" outlineLevel="1" collapsed="1">
+    <row r="42" spans="2:43" ht="105" outlineLevel="1">
       <c r="B42" s="15"/>
       <c r="C42" s="37" t="str">
         <f>B$2&amp;" target-http-proxies"</f>
@@ -4480,35 +4611,35 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="2:43" ht="30" hidden="1" outlineLevel="2">
+    <row r="43" spans="2:43" ht="30" outlineLevel="2">
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="33" t="str">
+      <c r="D43" s="39" t="str">
         <f>C$42&amp;" create "&amp;AC43&amp;" --url-map "&amp;AE43</f>
         <v>gcloud compute target-http-proxies create http-lb-proxy --url-map web-map</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="35"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="41"/>
       <c r="AA43" s="8" t="str">
         <f t="shared" ca="1" si="19"/>
         <v>gcloud compute target-http-proxies create http-lb-proxy --url-map web-map</v>
@@ -4597,32 +4728,32 @@
     <row r="45" spans="2:43" ht="30" outlineLevel="2">
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="33" t="str">
+      <c r="D45" s="39" t="str">
         <f>C$44&amp;" create "&amp;AC45&amp;" --subnet-mode "&amp;AE45</f>
         <v>gcloud compute networks create custom-network1 --subnet-mode custom</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="35"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="41"/>
       <c r="AA45" s="8" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>gcloud compute networks create custom-network1 --subnet-mode custom</v>
@@ -4657,32 +4788,32 @@
     <row r="46" spans="2:43" outlineLevel="2">
       <c r="B46" s="27"/>
       <c r="C46" s="26"/>
-      <c r="D46" s="33" t="str">
+      <c r="D46" s="39" t="str">
         <f>C$44&amp;" list"</f>
         <v>gcloud compute networks list</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="35"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="41"/>
       <c r="AA46" s="8" t="str">
         <f t="shared" ref="AA46" ca="1" si="21">IFERROR(OFFSET(A46,0,MATCH("",B46:Z46,-1)),"")</f>
         <v>gcloud compute networks list</v>
@@ -4711,32 +4842,32 @@
     <row r="47" spans="2:43" outlineLevel="2">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="33" t="str">
+      <c r="D47" s="39" t="str">
         <f>C$44&amp;" subnets"</f>
         <v>gcloud compute networks subnets</v>
       </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="35"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="41"/>
       <c r="AA47" s="8" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>gcloud compute networks subnets</v>
@@ -4766,31 +4897,31 @@
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="33" t="str">
+      <c r="E48" s="39" t="str">
         <f>D$47&amp;" create "&amp;AC48&amp;" --network "&amp;AE48&amp;" --region "&amp;AG48&amp;" --range "&amp;AI48</f>
         <v>gcloud compute networks subnets create subnet-europe-west-192 --network custom-network1 --region europe-west1 --range 192.168.5.0/24</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="35"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="41"/>
       <c r="AA48" s="8" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>gcloud compute networks subnets create subnet-europe-west-192 --network custom-network1 --region europe-west1 --range 192.168.5.0/24</v>
@@ -4834,31 +4965,31 @@
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="33" t="str">
+      <c r="E49" s="39" t="str">
         <f>D$47&amp;" list"&amp;IF(ISBLANK(AC49),""," --network "&amp;AC49)</f>
         <v>gcloud compute networks subnets list</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="35"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="41"/>
       <c r="AA49" s="8" t="str">
         <f t="shared" ca="1" si="20"/>
         <v>gcloud compute networks subnets list</v>
@@ -4941,32 +5072,32 @@
     <row r="51" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="33" t="str">
+      <c r="D51" s="39" t="str">
         <f>C$50&amp;" create "&amp;AC51&amp;" --ip-version="&amp;AE51&amp;" --global"</f>
         <v>gcloud compute addresses create lb-ipv6-cr --ip-version=IPV6 --global</v>
       </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="35"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="41"/>
       <c r="AA51" s="8" t="str">
         <f t="shared" ref="AA51:AA52" ca="1" si="23">IFERROR(OFFSET(A51,0,MATCH("",B51:Z51,-1)),"")</f>
         <v>gcloud compute addresses create lb-ipv6-cr --ip-version=IPV6 --global</v>
@@ -5001,32 +5132,32 @@
     <row r="52" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="33" t="str">
+      <c r="D52" s="39" t="str">
         <f>C$50&amp;" list"</f>
         <v>gcloud compute addresses list</v>
       </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="35"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="41"/>
       <c r="AA52" s="8" t="str">
         <f t="shared" ca="1" si="23"/>
         <v>gcloud compute addresses list</v>
@@ -5907,32 +6038,32 @@
     <row r="69" spans="2:43" ht="39.75" customHeight="1" outlineLevel="2">
       <c r="B69" s="27"/>
       <c r="C69" s="26"/>
-      <c r="D69" s="33" t="str">
+      <c r="D69" s="39" t="str">
         <f>C$68&amp;" create "&amp;AC69&amp;IF(ISBLANK(AE69),""," --location "&amp;AE69)</f>
         <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
       </c>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="34"/>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34"/>
-      <c r="Z69" s="35"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="41"/>
       <c r="AA69" s="8" t="str">
         <f t="shared" ca="1" si="28"/>
         <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
@@ -5967,32 +6098,32 @@
     <row r="70" spans="2:43" ht="60" outlineLevel="2">
       <c r="B70" s="27"/>
       <c r="C70" s="26"/>
-      <c r="D70" s="33" t="str">
+      <c r="D70" s="39" t="str">
         <f>C$68&amp;" add-iam-policy-binding "&amp;AC70&amp;" --member "&amp;AE70&amp;" --role "&amp;AG70&amp;IF(ISBLANK(AI70),""," --location "&amp;AI70)</f>
         <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
       </c>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="34"/>
-      <c r="W70" s="34"/>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34"/>
-      <c r="Z70" s="35"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="41"/>
       <c r="AA70" s="8" t="str">
         <f t="shared" ref="AA70:AA72" ca="1" si="29">IFERROR(OFFSET(A70,0,MATCH("",B70:Z70,-1)),"")</f>
         <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
@@ -6091,32 +6222,32 @@
     <row r="72" spans="2:43" ht="39.75" customHeight="1" outlineLevel="2">
       <c r="B72" s="27"/>
       <c r="C72" s="26"/>
-      <c r="D72" s="33" t="str">
+      <c r="D72" s="39" t="str">
         <f>C$71&amp;" create "&amp;AC72&amp;" --purpose "&amp;AE72&amp;IF(ISBLANK(AG72),""," --keyring "&amp;AG72)&amp;IF(ISBLANK(AI72),""," --location "&amp;AI72)</f>
         <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
       </c>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="35"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="41"/>
       <c r="AA72" s="32" t="str">
         <f t="shared" ca="1" si="29"/>
         <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
@@ -6238,7 +6369,7 @@
       <c r="Y74" s="37"/>
       <c r="Z74" s="38"/>
       <c r="AA74" s="8" t="str">
-        <f t="shared" ref="AA74:AA81" ca="1" si="30">IFERROR(OFFSET(A74,0,MATCH("",B74:Z74,-1)),"")</f>
+        <f t="shared" ref="AA74:AA83" ca="1" si="30">IFERROR(OFFSET(A74,0,MATCH("",B74:Z74,-1)),"")</f>
         <v>gcloud services</v>
       </c>
       <c r="AB74" s="2" t="s">
@@ -6374,7 +6505,7 @@
     </row>
     <row r="77" spans="2:43">
       <c r="B77" s="36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -6473,63 +6604,67 @@
       <c r="AN78" s="2"/>
       <c r="AO78" s="2"/>
       <c r="AP78" s="1" t="s">
-        <v>252</v>
+        <v>366</v>
       </c>
       <c r="AQ78" s="1"/>
     </row>
     <row r="79" spans="2:43" ht="51" customHeight="1" outlineLevel="2">
       <c r="B79" s="27"/>
       <c r="C79" s="26"/>
-      <c r="D79" s="33" t="str">
-        <f>C$78&amp;" create "&amp;AC79&amp;IF(ISBLANK(AE79),""," --num-nodes "&amp;AE79)&amp;IF(ISBLANK(AG79),""," --scopes "&amp;AG79)</f>
-        <v>gcloud container clusters create bootcamp --num-nodes 5 --scopes "https://www.googleapis.com/auth/projecthosting,storage-rw"</v>
-      </c>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="34"/>
-      <c r="S79" s="34"/>
-      <c r="T79" s="34"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="34"/>
-      <c r="W79" s="34"/>
-      <c r="X79" s="34"/>
-      <c r="Y79" s="34"/>
-      <c r="Z79" s="35"/>
+      <c r="D79" s="39" t="str">
+        <f>C$78&amp;" create "&amp;AC79&amp;IF(ISBLANK(AE79),""," --num-nodes "&amp;AE79)&amp;IF(ISBLANK(AG79),""," --machine-type "&amp;AG79)&amp;IF(ISBLANK(AI79),""," --scopes "&amp;AI79)</f>
+        <v>gcloud container clusters create jenkins-cd --num-nodes 2 --machine-type n1-standard-2 --scopes "https://www.googleapis.com/auth/projecthosting,cloud-platform"</v>
+      </c>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
+      <c r="Z79" s="41"/>
       <c r="AA79" s="8" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>gcloud container clusters create bootcamp --num-nodes 5 --scopes "https://www.googleapis.com/auth/projecthosting,storage-rw"</v>
+        <v>gcloud container clusters create jenkins-cd --num-nodes 2 --machine-type n1-standard-2 --scopes "https://www.googleapis.com/auth/projecthosting,cloud-platform"</v>
       </c>
       <c r="AB79" s="21" t="s">
         <v>250</v>
       </c>
       <c r="AC79" s="5" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AE79" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF79" s="2" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="AG79" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH79" s="2"/>
-      <c r="AI79" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="AH79" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI79" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="AJ79" s="2"/>
       <c r="AK79" s="2"/>
       <c r="AL79" s="2"/>
@@ -6537,48 +6672,50 @@
       <c r="AN79" s="2"/>
       <c r="AO79" s="2"/>
       <c r="AP79" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AQ79" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="AQ79" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="80" spans="2:43" ht="30" outlineLevel="2">
       <c r="B80" s="27"/>
       <c r="C80" s="26"/>
-      <c r="D80" s="33" t="str">
+      <c r="D80" s="39" t="str">
         <f>C$78&amp;" get-credentials "&amp;AC80</f>
-        <v>gcloud container clusters get-credentials my-cluster</v>
-      </c>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="34"/>
-      <c r="Q80" s="34"/>
-      <c r="R80" s="34"/>
-      <c r="S80" s="34"/>
-      <c r="T80" s="34"/>
-      <c r="U80" s="34"/>
-      <c r="V80" s="34"/>
-      <c r="W80" s="34"/>
-      <c r="X80" s="34"/>
-      <c r="Y80" s="34"/>
-      <c r="Z80" s="35"/>
+        <v>gcloud container clusters get-credentials jenkins-cd</v>
+      </c>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="41"/>
       <c r="AA80" s="8" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>gcloud container clusters get-credentials my-cluster</v>
+        <v>gcloud container clusters get-credentials jenkins-cd</v>
       </c>
       <c r="AB80" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC80" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="AC80" s="23" t="s">
+        <v>322</v>
       </c>
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
@@ -6593,42 +6730,42 @@
       <c r="AN80" s="2"/>
       <c r="AO80" s="2"/>
       <c r="AP80" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AQ80" s="1"/>
     </row>
-    <row r="81" spans="2:43" outlineLevel="1">
-      <c r="B81" s="27"/>
-      <c r="C81" s="37" t="str">
-        <f>B$77&amp;" ..."</f>
-        <v>gcloud container ...</v>
-      </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="37"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="37"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="37"/>
-      <c r="X81" s="37"/>
-      <c r="Y81" s="37"/>
-      <c r="Z81" s="38"/>
+    <row r="81" spans="2:43" outlineLevel="2">
+      <c r="B81" s="33"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="39" t="str">
+        <f>C$78&amp;" list"</f>
+        <v>gcloud container clusters list</v>
+      </c>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
+      <c r="Z81" s="41"/>
       <c r="AA81" s="8" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>gcloud container ...</v>
+        <f t="shared" ref="AA81" ca="1" si="31">IFERROR(OFFSET(A81,0,MATCH("",B81:Z81,-1)),"")</f>
+        <v>gcloud container clusters list</v>
       </c>
       <c r="AB81" s="2" t="s">
         <v>6</v>
@@ -6646,12 +6783,17 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
       <c r="AO81" s="2"/>
-      <c r="AP81" s="1"/>
+      <c r="AP81" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="AQ81" s="1"/>
     </row>
-    <row r="82" spans="2:43">
-      <c r="B82" s="36"/>
-      <c r="C82" s="37"/>
+    <row r="82" spans="2:43" ht="30" outlineLevel="1">
+      <c r="B82" s="27"/>
+      <c r="C82" s="37" t="str">
+        <f>B$77&amp;" images"</f>
+        <v>gcloud container images</v>
+      </c>
       <c r="D82" s="37"/>
       <c r="E82" s="37"/>
       <c r="F82" s="37"/>
@@ -6676,8 +6818,8 @@
       <c r="Y82" s="37"/>
       <c r="Z82" s="38"/>
       <c r="AA82" s="8" t="str">
-        <f t="shared" ref="AA82" ca="1" si="31">IFERROR(OFFSET(A82,0,MATCH("",B82:Z82,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="30"/>
+        <v>gcloud container images</v>
       </c>
       <c r="AB82" s="2" t="s">
         <v>6</v>
@@ -6695,36 +6837,44 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
       <c r="AO82" s="2"/>
-      <c r="AP82" s="1"/>
+      <c r="AP82" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="AQ82" s="1"/>
     </row>
-    <row r="83" spans="2:43">
-      <c r="B83" s="36"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="34"/>
-      <c r="W83" s="34"/>
-      <c r="X83" s="34"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="35"/>
-      <c r="AA83" s="8"/>
+    <row r="83" spans="2:43" outlineLevel="2">
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="39" t="str">
+        <f>C$82&amp;" list"</f>
+        <v>gcloud container images list</v>
+      </c>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="41"/>
+      <c r="AA83" s="8" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>gcloud container images list</v>
+      </c>
       <c r="AB83" s="2" t="s">
         <v>6</v>
       </c>
@@ -6741,12 +6891,16 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
       <c r="AO83" s="2"/>
-      <c r="AP83" s="1"/>
+      <c r="AP83" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="AQ83" s="1"/>
     </row>
-    <row r="84" spans="2:43" ht="30" customHeight="1" outlineLevel="1">
-      <c r="B84" s="10"/>
-      <c r="C84" s="36"/>
+    <row r="84" spans="2:43">
+      <c r="B84" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="C84" s="37"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37"/>
       <c r="F84" s="37"/>
@@ -6771,8 +6925,8 @@
       <c r="Y84" s="37"/>
       <c r="Z84" s="38"/>
       <c r="AA84" s="8" t="str">
-        <f t="shared" ref="AA84" ca="1" si="32">IFERROR(OFFSET(A84,0,MATCH("",B84:Z84,-1)),"")</f>
-        <v/>
+        <f t="shared" ref="AA84:AA86" ca="1" si="32">IFERROR(OFFSET(A84,0,MATCH("",B84:Z84,-1)),"")</f>
+        <v>gcloud source</v>
       </c>
       <c r="AB84" s="2" t="s">
         <v>6</v>
@@ -6790,12 +6944,17 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
       <c r="AO84" s="2"/>
-      <c r="AP84" s="1"/>
+      <c r="AP84" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="AQ84" s="1"/>
     </row>
-    <row r="85" spans="2:43" ht="29.25" customHeight="1" outlineLevel="1">
-      <c r="B85" s="10"/>
-      <c r="C85" s="36"/>
+    <row r="85" spans="2:43" outlineLevel="1">
+      <c r="B85" s="33"/>
+      <c r="C85" s="37" t="str">
+        <f>B$84&amp;" repos"</f>
+        <v>gcloud source repos</v>
+      </c>
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>
       <c r="F85" s="37"/>
@@ -6820,8 +6979,8 @@
       <c r="Y85" s="37"/>
       <c r="Z85" s="38"/>
       <c r="AA85" s="8" t="str">
-        <f t="shared" ref="AA85" ca="1" si="33">IFERROR(OFFSET(A85,0,MATCH("",B85:Z85,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="32"/>
+        <v>gcloud source repos</v>
       </c>
       <c r="AB85" s="2" t="s">
         <v>6</v>
@@ -6839,43 +6998,50 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
       <c r="AO85" s="2"/>
-      <c r="AP85" s="1"/>
+      <c r="AP85" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="AQ85" s="1"/>
     </row>
-    <row r="86" spans="2:43" outlineLevel="1">
-      <c r="B86" s="10"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="37"/>
-      <c r="X86" s="37"/>
-      <c r="Y86" s="37"/>
-      <c r="Z86" s="38"/>
+    <row r="86" spans="2:43" ht="30" outlineLevel="2">
+      <c r="B86" s="33"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="39" t="str">
+        <f>C$85&amp;" create "&amp;AC86</f>
+        <v>gcloud source repos create other</v>
+      </c>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="41"/>
       <c r="AA86" s="8" t="str">
-        <f t="shared" ref="AA86:AA89" ca="1" si="34">IFERROR(OFFSET(A86,0,MATCH("",B86:Z86,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC86" s="2"/>
+        <f t="shared" ca="1" si="32"/>
+        <v>gcloud source repos create other</v>
+      </c>
+      <c r="AB86" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC86" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
@@ -6888,12 +7054,16 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
       <c r="AO86" s="2"/>
-      <c r="AP86" s="1"/>
+      <c r="AP86" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="AQ86" s="1"/>
     </row>
-    <row r="87" spans="2:43" outlineLevel="1">
-      <c r="B87" s="12"/>
-      <c r="C87" s="36"/>
+    <row r="87" spans="2:43" ht="60">
+      <c r="B87" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C87" s="37"/>
       <c r="D87" s="37"/>
       <c r="E87" s="37"/>
       <c r="F87" s="37"/>
@@ -6918,8 +7088,8 @@
       <c r="Y87" s="37"/>
       <c r="Z87" s="38"/>
       <c r="AA87" s="8" t="str">
-        <f t="shared" ref="AA87:AA88" ca="1" si="35">IFERROR(OFFSET(A87,0,MATCH("",B87:Z87,-1)),"")</f>
-        <v/>
+        <f t="shared" ref="AA87:AA88" ca="1" si="33">IFERROR(OFFSET(A87,0,MATCH("",B87:Z87,-1)),"")</f>
+        <v>gcloud docker</v>
       </c>
       <c r="AB87" s="2" t="s">
         <v>6</v>
@@ -6937,47 +7107,64 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
-    </row>
-    <row r="88" spans="2:43" outlineLevel="1">
-      <c r="B88" s="12"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="38"/>
+      <c r="AP87" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AQ87" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="2:43" ht="30" outlineLevel="1">
+      <c r="B88" s="33"/>
+      <c r="C88" s="39" t="str">
+        <f>B$87&amp;" -- push "&amp;AC88&amp;"/"&amp;AE88&amp;"/"&amp;AG88</f>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="41"/>
       <c r="AA88" s="8" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AB88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC88" s="2"/>
-      <c r="AD88" s="2"/>
-      <c r="AE88" s="2"/>
-      <c r="AF88" s="2"/>
-      <c r="AG88" s="2"/>
+        <f t="shared" ca="1" si="33"/>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="AB88" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC88" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD88" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE88" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF88" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG88" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
       <c r="AJ88" s="2"/>
@@ -6986,47 +7173,62 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
       <c r="AO88" s="2"/>
-      <c r="AP88" s="1"/>
+      <c r="AP88" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="AQ88" s="1"/>
     </row>
-    <row r="89" spans="2:43" outlineLevel="1">
-      <c r="B89" s="12"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="37"/>
-      <c r="X89" s="37"/>
-      <c r="Y89" s="37"/>
-      <c r="Z89" s="38"/>
+    <row r="89" spans="2:43" ht="30" outlineLevel="1">
+      <c r="B89" s="33"/>
+      <c r="C89" s="39" t="str">
+        <f>B$87&amp;" -- pull "&amp;AC89&amp;"/"&amp;AE89&amp;"/"&amp;AG89</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
+      <c r="Z89" s="41"/>
       <c r="AA89" s="8" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AB89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
-      <c r="AE89" s="2"/>
-      <c r="AF89" s="2"/>
-      <c r="AG89" s="2"/>
+        <f t="shared" ref="AA89" ca="1" si="34">IFERROR(OFFSET(A89,0,MATCH("",B89:Z89,-1)),"")</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="AB89" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC89" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD89" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE89" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF89" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG89" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
       <c r="AJ89" s="2"/>
@@ -7035,14 +7237,14 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
       <c r="AO89" s="2"/>
-      <c r="AP89" s="1"/>
+      <c r="AP89" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="AQ89" s="1"/>
     </row>
-    <row r="90" spans="2:43" outlineLevel="1">
-      <c r="B90" s="12"/>
-      <c r="C90" s="36" t="s">
-        <v>82</v>
-      </c>
+    <row r="90" spans="2:43">
+      <c r="B90" s="36"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37"/>
       <c r="F90" s="37"/>
@@ -7067,9 +7269,8 @@
       <c r="Y90" s="37"/>
       <c r="Z90" s="38"/>
       <c r="AA90" s="8" t="str">
-        <f t="shared" ref="AA90:AA94" ca="1" si="36">IFERROR(OFFSET(A90,0,MATCH("",B90:Z90,-1)),"")</f>
-        <v xml:space="preserve">
-</v>
+        <f t="shared" ref="AA90" ca="1" si="35">IFERROR(OFFSET(A90,0,MATCH("",B90:Z90,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB90" s="2" t="s">
         <v>6</v>
@@ -7090,36 +7291,33 @@
       <c r="AP90" s="1"/>
       <c r="AQ90" s="1"/>
     </row>
-    <row r="91" spans="2:43" outlineLevel="1">
-      <c r="B91" s="12"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="37"/>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="38"/>
-      <c r="AA91" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
+    <row r="91" spans="2:43">
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="40"/>
+      <c r="R91" s="40"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="40"/>
+      <c r="X91" s="40"/>
+      <c r="Y91" s="40"/>
+      <c r="Z91" s="41"/>
+      <c r="AA91" s="8"/>
       <c r="AB91" s="2" t="s">
         <v>6</v>
       </c>
@@ -7140,7 +7338,7 @@
       <c r="AQ91" s="1"/>
     </row>
     <row r="92" spans="2:43" outlineLevel="1">
-      <c r="B92" s="12"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="36"/>
       <c r="D92" s="37"/>
       <c r="E92" s="37"/>
@@ -7166,7 +7364,7 @@
       <c r="Y92" s="37"/>
       <c r="Z92" s="38"/>
       <c r="AA92" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ref="AA92" ca="1" si="36">IFERROR(OFFSET(A92,0,MATCH("",B92:Z92,-1)),"")</f>
         <v/>
       </c>
       <c r="AB92" s="2" t="s">
@@ -7188,8 +7386,8 @@
       <c r="AP92" s="1"/>
       <c r="AQ92" s="1"/>
     </row>
-    <row r="93" spans="2:43" outlineLevel="1">
-      <c r="B93" s="12"/>
+    <row r="93" spans="2:43" ht="29.25" customHeight="1" outlineLevel="1">
+      <c r="B93" s="10"/>
       <c r="C93" s="36"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37"/>
@@ -7215,7 +7413,7 @@
       <c r="Y93" s="37"/>
       <c r="Z93" s="38"/>
       <c r="AA93" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ref="AA93" ca="1" si="37">IFERROR(OFFSET(A93,0,MATCH("",B93:Z93,-1)),"")</f>
         <v/>
       </c>
       <c r="AB93" s="2" t="s">
@@ -7238,7 +7436,7 @@
       <c r="AQ93" s="1"/>
     </row>
     <row r="94" spans="2:43" outlineLevel="1">
-      <c r="B94" s="12"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="36"/>
       <c r="D94" s="37"/>
       <c r="E94" s="37"/>
@@ -7264,7 +7462,7 @@
       <c r="Y94" s="37"/>
       <c r="Z94" s="38"/>
       <c r="AA94" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ref="AA94:AA97" ca="1" si="38">IFERROR(OFFSET(A94,0,MATCH("",B94:Z94,-1)),"")</f>
         <v/>
       </c>
       <c r="AB94" s="2" t="s">
@@ -7313,7 +7511,7 @@
       <c r="Y95" s="37"/>
       <c r="Z95" s="38"/>
       <c r="AA95" s="8" t="str">
-        <f t="shared" ref="AA95" ca="1" si="37">IFERROR(OFFSET(A95,0,MATCH("",B95:Z95,-1)),"")</f>
+        <f t="shared" ref="AA95:AA96" ca="1" si="39">IFERROR(OFFSET(A95,0,MATCH("",B95:Z95,-1)),"")</f>
         <v/>
       </c>
       <c r="AB95" s="2" t="s">
@@ -7335,9 +7533,9 @@
       <c r="AP95" s="1"/>
       <c r="AQ95" s="1"/>
     </row>
-    <row r="96" spans="2:43" collapsed="1">
-      <c r="B96" s="36"/>
-      <c r="C96" s="37"/>
+    <row r="96" spans="2:43" outlineLevel="1">
+      <c r="B96" s="12"/>
+      <c r="C96" s="36"/>
       <c r="D96" s="37"/>
       <c r="E96" s="37"/>
       <c r="F96" s="37"/>
@@ -7362,7 +7560,7 @@
       <c r="Y96" s="37"/>
       <c r="Z96" s="38"/>
       <c r="AA96" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AB96" s="2" t="s">
@@ -7384,9 +7582,9 @@
       <c r="AP96" s="1"/>
       <c r="AQ96" s="1"/>
     </row>
-    <row r="97" spans="2:43">
-      <c r="B97" s="36"/>
-      <c r="C97" s="37"/>
+    <row r="97" spans="2:43" outlineLevel="1">
+      <c r="B97" s="12"/>
+      <c r="C97" s="36"/>
       <c r="D97" s="37"/>
       <c r="E97" s="37"/>
       <c r="F97" s="37"/>
@@ -7410,8 +7608,9 @@
       <c r="X97" s="37"/>
       <c r="Y97" s="37"/>
       <c r="Z97" s="38"/>
-      <c r="AA97" s="8" t="s">
-        <v>200</v>
+      <c r="AA97" s="8" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
       </c>
       <c r="AB97" s="2" t="s">
         <v>6</v>
@@ -7433,8 +7632,10 @@
       <c r="AQ97" s="1"/>
     </row>
     <row r="98" spans="2:43" outlineLevel="1">
-      <c r="B98" s="15"/>
-      <c r="C98" s="37"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="D98" s="37"/>
       <c r="E98" s="37"/>
       <c r="F98" s="37"/>
@@ -7458,8 +7659,10 @@
       <c r="X98" s="37"/>
       <c r="Y98" s="37"/>
       <c r="Z98" s="38"/>
-      <c r="AA98" s="8" t="s">
-        <v>200</v>
+      <c r="AA98" s="8" t="str">
+        <f t="shared" ref="AA98:AA102" ca="1" si="40">IFERROR(OFFSET(A98,0,MATCH("",B98:Z98,-1)),"")</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB98" s="2" t="s">
         <v>6</v>
@@ -7481,8 +7684,8 @@
       <c r="AQ98" s="1"/>
     </row>
     <row r="99" spans="2:43" outlineLevel="1">
-      <c r="B99" s="3"/>
-      <c r="C99" s="37"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="36"/>
       <c r="D99" s="37"/>
       <c r="E99" s="37"/>
       <c r="F99" s="37"/>
@@ -7506,8 +7709,9 @@
       <c r="X99" s="37"/>
       <c r="Y99" s="37"/>
       <c r="Z99" s="38"/>
-      <c r="AA99" s="8" t="s">
-        <v>200</v>
+      <c r="AA99" s="8" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
       </c>
       <c r="AB99" s="2" t="s">
         <v>6</v>
@@ -7528,9 +7732,9 @@
       <c r="AP99" s="1"/>
       <c r="AQ99" s="1"/>
     </row>
-    <row r="100" spans="2:43" outlineLevel="2">
-      <c r="B100" s="3"/>
-      <c r="C100" s="4"/>
+    <row r="100" spans="2:43" outlineLevel="1">
+      <c r="B100" s="12"/>
+      <c r="C100" s="36"/>
       <c r="D100" s="37"/>
       <c r="E100" s="37"/>
       <c r="F100" s="37"/>
@@ -7554,8 +7758,9 @@
       <c r="X100" s="37"/>
       <c r="Y100" s="37"/>
       <c r="Z100" s="38"/>
-      <c r="AA100" s="8" t="s">
-        <v>200</v>
+      <c r="AA100" s="8" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
       </c>
       <c r="AB100" s="2" t="s">
         <v>6</v>
@@ -7576,9 +7781,9 @@
       <c r="AP100" s="1"/>
       <c r="AQ100" s="1"/>
     </row>
-    <row r="101" spans="2:43" outlineLevel="2">
-      <c r="B101" s="3"/>
-      <c r="C101" s="4"/>
+    <row r="101" spans="2:43" outlineLevel="1">
+      <c r="B101" s="12"/>
+      <c r="C101" s="36"/>
       <c r="D101" s="37"/>
       <c r="E101" s="37"/>
       <c r="F101" s="37"/>
@@ -7602,8 +7807,9 @@
       <c r="X101" s="37"/>
       <c r="Y101" s="37"/>
       <c r="Z101" s="38"/>
-      <c r="AA101" s="8" t="s">
-        <v>200</v>
+      <c r="AA101" s="8" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
       </c>
       <c r="AB101" s="2" t="s">
         <v>6</v>
@@ -7624,10 +7830,10 @@
       <c r="AP101" s="1"/>
       <c r="AQ101" s="1"/>
     </row>
-    <row r="102" spans="2:43" outlineLevel="3">
-      <c r="B102" s="3"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+    <row r="102" spans="2:43" outlineLevel="1">
+      <c r="B102" s="12"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="37"/>
       <c r="E102" s="37"/>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -7650,8 +7856,9 @@
       <c r="X102" s="37"/>
       <c r="Y102" s="37"/>
       <c r="Z102" s="38"/>
-      <c r="AA102" s="8" t="s">
-        <v>200</v>
+      <c r="AA102" s="8" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
       </c>
       <c r="AB102" s="2" t="s">
         <v>6</v>
@@ -7672,10 +7879,10 @@
       <c r="AP102" s="1"/>
       <c r="AQ102" s="1"/>
     </row>
-    <row r="103" spans="2:43" outlineLevel="3">
-      <c r="B103" s="3"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+    <row r="103" spans="2:43" outlineLevel="1">
+      <c r="B103" s="12"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="37"/>
       <c r="E103" s="37"/>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -7698,8 +7905,9 @@
       <c r="X103" s="37"/>
       <c r="Y103" s="37"/>
       <c r="Z103" s="38"/>
-      <c r="AA103" s="8" t="s">
-        <v>200</v>
+      <c r="AA103" s="8" t="str">
+        <f t="shared" ref="AA103" ca="1" si="41">IFERROR(OFFSET(A103,0,MATCH("",B103:Z103,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB103" s="2" t="s">
         <v>6</v>
@@ -7720,11 +7928,11 @@
       <c r="AP103" s="1"/>
       <c r="AQ103" s="1"/>
     </row>
-    <row r="104" spans="2:43" outlineLevel="4">
-      <c r="B104" s="3"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+    <row r="104" spans="2:43" collapsed="1">
+      <c r="B104" s="36"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
@@ -7746,8 +7954,9 @@
       <c r="X104" s="37"/>
       <c r="Y104" s="37"/>
       <c r="Z104" s="38"/>
-      <c r="AA104" s="8" t="s">
-        <v>200</v>
+      <c r="AA104" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="AB104" s="2" t="s">
         <v>6</v>
@@ -7768,11 +7977,11 @@
       <c r="AP104" s="1"/>
       <c r="AQ104" s="1"/>
     </row>
-    <row r="105" spans="2:43" outlineLevel="4">
-      <c r="B105" s="3"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+    <row r="105" spans="2:43">
+      <c r="B105" s="36"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
       <c r="H105" s="37"/>
@@ -7816,12 +8025,12 @@
       <c r="AP105" s="1"/>
       <c r="AQ105" s="1"/>
     </row>
-    <row r="106" spans="2:43" outlineLevel="5">
-      <c r="B106" s="3"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+    <row r="106" spans="2:43" outlineLevel="1">
+      <c r="B106" s="15"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
       <c r="G106" s="37"/>
       <c r="H106" s="37"/>
       <c r="I106" s="37"/>
@@ -7864,12 +8073,12 @@
       <c r="AP106" s="1"/>
       <c r="AQ106" s="1"/>
     </row>
-    <row r="107" spans="2:43" outlineLevel="5">
+    <row r="107" spans="2:43" outlineLevel="1">
       <c r="B107" s="3"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
       <c r="G107" s="37"/>
       <c r="H107" s="37"/>
       <c r="I107" s="37"/>
@@ -7912,13 +8121,13 @@
       <c r="AP107" s="1"/>
       <c r="AQ107" s="1"/>
     </row>
-    <row r="108" spans="2:43" outlineLevel="6">
+    <row r="108" spans="2:43" outlineLevel="2">
       <c r="B108" s="3"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
       <c r="H108" s="37"/>
       <c r="I108" s="37"/>
       <c r="J108" s="37"/>
@@ -7960,13 +8169,13 @@
       <c r="AP108" s="1"/>
       <c r="AQ108" s="1"/>
     </row>
-    <row r="109" spans="2:43" outlineLevel="6">
+    <row r="109" spans="2:43" outlineLevel="2">
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
       <c r="H109" s="37"/>
       <c r="I109" s="37"/>
       <c r="J109" s="37"/>
@@ -8008,10 +8217,10 @@
       <c r="AP109" s="1"/>
       <c r="AQ109" s="1"/>
     </row>
-    <row r="110" spans="2:43">
-      <c r="B110" s="36"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
+    <row r="110" spans="2:43" outlineLevel="3">
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
       <c r="E110" s="37"/>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -8056,47 +8265,439 @@
       <c r="AP110" s="1"/>
       <c r="AQ110" s="1"/>
     </row>
+    <row r="111" spans="2:43" outlineLevel="3">
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="37"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="37"/>
+      <c r="N111" s="37"/>
+      <c r="O111" s="37"/>
+      <c r="P111" s="37"/>
+      <c r="Q111" s="37"/>
+      <c r="R111" s="37"/>
+      <c r="S111" s="37"/>
+      <c r="T111" s="37"/>
+      <c r="U111" s="37"/>
+      <c r="V111" s="37"/>
+      <c r="W111" s="37"/>
+      <c r="X111" s="37"/>
+      <c r="Y111" s="37"/>
+      <c r="Z111" s="38"/>
+      <c r="AA111" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+      <c r="AG111" s="2"/>
+      <c r="AH111" s="2"/>
+      <c r="AI111" s="2"/>
+      <c r="AJ111" s="2"/>
+      <c r="AK111" s="2"/>
+      <c r="AL111" s="2"/>
+      <c r="AM111" s="2"/>
+      <c r="AN111" s="2"/>
+      <c r="AO111" s="2"/>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+    </row>
+    <row r="112" spans="2:43" outlineLevel="4">
+      <c r="B112" s="3"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="37"/>
+      <c r="O112" s="37"/>
+      <c r="P112" s="37"/>
+      <c r="Q112" s="37"/>
+      <c r="R112" s="37"/>
+      <c r="S112" s="37"/>
+      <c r="T112" s="37"/>
+      <c r="U112" s="37"/>
+      <c r="V112" s="37"/>
+      <c r="W112" s="37"/>
+      <c r="X112" s="37"/>
+      <c r="Y112" s="37"/>
+      <c r="Z112" s="38"/>
+      <c r="AA112" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
+      <c r="AK112" s="2"/>
+      <c r="AL112" s="2"/>
+      <c r="AM112" s="2"/>
+      <c r="AN112" s="2"/>
+      <c r="AO112" s="2"/>
+      <c r="AP112" s="1"/>
+      <c r="AQ112" s="1"/>
+    </row>
+    <row r="113" spans="2:43" outlineLevel="4">
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
+      <c r="O113" s="37"/>
+      <c r="P113" s="37"/>
+      <c r="Q113" s="37"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="37"/>
+      <c r="T113" s="37"/>
+      <c r="U113" s="37"/>
+      <c r="V113" s="37"/>
+      <c r="W113" s="37"/>
+      <c r="X113" s="37"/>
+      <c r="Y113" s="37"/>
+      <c r="Z113" s="38"/>
+      <c r="AA113" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2"/>
+      <c r="AG113" s="2"/>
+      <c r="AH113" s="2"/>
+      <c r="AI113" s="2"/>
+      <c r="AJ113" s="2"/>
+      <c r="AK113" s="2"/>
+      <c r="AL113" s="2"/>
+      <c r="AM113" s="2"/>
+      <c r="AN113" s="2"/>
+      <c r="AO113" s="2"/>
+      <c r="AP113" s="1"/>
+      <c r="AQ113" s="1"/>
+    </row>
+    <row r="114" spans="2:43" outlineLevel="5">
+      <c r="B114" s="3"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="37"/>
+      <c r="T114" s="37"/>
+      <c r="U114" s="37"/>
+      <c r="V114" s="37"/>
+      <c r="W114" s="37"/>
+      <c r="X114" s="37"/>
+      <c r="Y114" s="37"/>
+      <c r="Z114" s="38"/>
+      <c r="AA114" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="2"/>
+      <c r="AG114" s="2"/>
+      <c r="AH114" s="2"/>
+      <c r="AI114" s="2"/>
+      <c r="AJ114" s="2"/>
+      <c r="AK114" s="2"/>
+      <c r="AL114" s="2"/>
+      <c r="AM114" s="2"/>
+      <c r="AN114" s="2"/>
+      <c r="AO114" s="2"/>
+      <c r="AP114" s="1"/>
+      <c r="AQ114" s="1"/>
+    </row>
+    <row r="115" spans="2:43" outlineLevel="5">
+      <c r="B115" s="3"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="37"/>
+      <c r="O115" s="37"/>
+      <c r="P115" s="37"/>
+      <c r="Q115" s="37"/>
+      <c r="R115" s="37"/>
+      <c r="S115" s="37"/>
+      <c r="T115" s="37"/>
+      <c r="U115" s="37"/>
+      <c r="V115" s="37"/>
+      <c r="W115" s="37"/>
+      <c r="X115" s="37"/>
+      <c r="Y115" s="37"/>
+      <c r="Z115" s="38"/>
+      <c r="AA115" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+      <c r="AG115" s="2"/>
+      <c r="AH115" s="2"/>
+      <c r="AI115" s="2"/>
+      <c r="AJ115" s="2"/>
+      <c r="AK115" s="2"/>
+      <c r="AL115" s="2"/>
+      <c r="AM115" s="2"/>
+      <c r="AN115" s="2"/>
+      <c r="AO115" s="2"/>
+      <c r="AP115" s="1"/>
+      <c r="AQ115" s="1"/>
+    </row>
+    <row r="116" spans="2:43" outlineLevel="6">
+      <c r="B116" s="3"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="37"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="37"/>
+      <c r="O116" s="37"/>
+      <c r="P116" s="37"/>
+      <c r="Q116" s="37"/>
+      <c r="R116" s="37"/>
+      <c r="S116" s="37"/>
+      <c r="T116" s="37"/>
+      <c r="U116" s="37"/>
+      <c r="V116" s="37"/>
+      <c r="W116" s="37"/>
+      <c r="X116" s="37"/>
+      <c r="Y116" s="37"/>
+      <c r="Z116" s="38"/>
+      <c r="AA116" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="2"/>
+      <c r="AG116" s="2"/>
+      <c r="AH116" s="2"/>
+      <c r="AI116" s="2"/>
+      <c r="AJ116" s="2"/>
+      <c r="AK116" s="2"/>
+      <c r="AL116" s="2"/>
+      <c r="AM116" s="2"/>
+      <c r="AN116" s="2"/>
+      <c r="AO116" s="2"/>
+      <c r="AP116" s="1"/>
+      <c r="AQ116" s="1"/>
+    </row>
+    <row r="117" spans="2:43" outlineLevel="6">
+      <c r="B117" s="3"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="37"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="37"/>
+      <c r="P117" s="37"/>
+      <c r="Q117" s="37"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="37"/>
+      <c r="T117" s="37"/>
+      <c r="U117" s="37"/>
+      <c r="V117" s="37"/>
+      <c r="W117" s="37"/>
+      <c r="X117" s="37"/>
+      <c r="Y117" s="37"/>
+      <c r="Z117" s="38"/>
+      <c r="AA117" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="2"/>
+      <c r="AG117" s="2"/>
+      <c r="AH117" s="2"/>
+      <c r="AI117" s="2"/>
+      <c r="AJ117" s="2"/>
+      <c r="AK117" s="2"/>
+      <c r="AL117" s="2"/>
+      <c r="AM117" s="2"/>
+      <c r="AN117" s="2"/>
+      <c r="AO117" s="2"/>
+      <c r="AP117" s="1"/>
+      <c r="AQ117" s="1"/>
+    </row>
+    <row r="118" spans="2:43">
+      <c r="B118" s="36"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="37"/>
+      <c r="O118" s="37"/>
+      <c r="P118" s="37"/>
+      <c r="Q118" s="37"/>
+      <c r="R118" s="37"/>
+      <c r="S118" s="37"/>
+      <c r="T118" s="37"/>
+      <c r="U118" s="37"/>
+      <c r="V118" s="37"/>
+      <c r="W118" s="37"/>
+      <c r="X118" s="37"/>
+      <c r="Y118" s="37"/>
+      <c r="Z118" s="38"/>
+      <c r="AA118" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC118" s="2"/>
+      <c r="AD118" s="2"/>
+      <c r="AE118" s="2"/>
+      <c r="AF118" s="2"/>
+      <c r="AG118" s="2"/>
+      <c r="AH118" s="2"/>
+      <c r="AI118" s="2"/>
+      <c r="AJ118" s="2"/>
+      <c r="AK118" s="2"/>
+      <c r="AL118" s="2"/>
+      <c r="AM118" s="2"/>
+      <c r="AN118" s="2"/>
+      <c r="AO118" s="2"/>
+      <c r="AP118" s="1"/>
+      <c r="AQ118" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="B110:Z110"/>
-    <mergeCell ref="E103:Z103"/>
-    <mergeCell ref="F104:Z104"/>
-    <mergeCell ref="C91:Z91"/>
-    <mergeCell ref="C92:Z92"/>
-    <mergeCell ref="C93:Z93"/>
-    <mergeCell ref="C94:Z94"/>
+  <mergeCells count="119">
+    <mergeCell ref="D86:Z86"/>
+    <mergeCell ref="B87:Z87"/>
+    <mergeCell ref="C88:Z88"/>
+    <mergeCell ref="C89:Z89"/>
+    <mergeCell ref="D83:Z83"/>
+    <mergeCell ref="D52:Z52"/>
+    <mergeCell ref="C50:Z50"/>
+    <mergeCell ref="D51:Z51"/>
+    <mergeCell ref="D47:Z47"/>
+    <mergeCell ref="E48:Z48"/>
+    <mergeCell ref="E49:Z49"/>
+    <mergeCell ref="D81:Z81"/>
+    <mergeCell ref="B84:Z84"/>
+    <mergeCell ref="C85:Z85"/>
+    <mergeCell ref="C71:Z71"/>
+    <mergeCell ref="D72:Z72"/>
+    <mergeCell ref="C76:Z76"/>
+    <mergeCell ref="C75:Z75"/>
+    <mergeCell ref="B77:Z77"/>
+    <mergeCell ref="C78:Z78"/>
+    <mergeCell ref="C82:Z82"/>
+    <mergeCell ref="D79:Z79"/>
+    <mergeCell ref="D80:Z80"/>
     <mergeCell ref="C95:Z95"/>
-    <mergeCell ref="C58:Z58"/>
-    <mergeCell ref="C62:Z62"/>
-    <mergeCell ref="B83:Z83"/>
-    <mergeCell ref="C84:Z84"/>
-    <mergeCell ref="C85:Z85"/>
-    <mergeCell ref="C86:Z86"/>
-    <mergeCell ref="B73:Z73"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="G107:Z107"/>
-    <mergeCell ref="H108:Z108"/>
-    <mergeCell ref="H109:Z109"/>
-    <mergeCell ref="F105:Z105"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="D101:Z101"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="B96:Z96"/>
-    <mergeCell ref="E102:Z102"/>
-    <mergeCell ref="B97:Z97"/>
-    <mergeCell ref="C98:Z98"/>
-    <mergeCell ref="C99:Z99"/>
-    <mergeCell ref="D100:Z100"/>
-    <mergeCell ref="D5:Z5"/>
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="D12:Z12"/>
-    <mergeCell ref="D28:Z28"/>
-    <mergeCell ref="D7:Z7"/>
-    <mergeCell ref="D39:Z39"/>
-    <mergeCell ref="E31:Z31"/>
-    <mergeCell ref="E32:Z32"/>
+    <mergeCell ref="C96:Z96"/>
+    <mergeCell ref="D21:Z21"/>
+    <mergeCell ref="E22:Z22"/>
+    <mergeCell ref="E23:Z23"/>
+    <mergeCell ref="C44:Z44"/>
+    <mergeCell ref="D45:Z45"/>
+    <mergeCell ref="C40:Z40"/>
+    <mergeCell ref="D41:Z41"/>
+    <mergeCell ref="C42:Z42"/>
+    <mergeCell ref="D43:Z43"/>
+    <mergeCell ref="D33:Z33"/>
+    <mergeCell ref="D34:Z34"/>
+    <mergeCell ref="C35:Z35"/>
+    <mergeCell ref="D36:Z36"/>
+    <mergeCell ref="D25:Z25"/>
+    <mergeCell ref="E24:Z24"/>
+    <mergeCell ref="D46:Z46"/>
+    <mergeCell ref="B74:Z74"/>
+    <mergeCell ref="B90:Z90"/>
+    <mergeCell ref="B67:Z67"/>
+    <mergeCell ref="C68:Z68"/>
+    <mergeCell ref="D69:Z69"/>
+    <mergeCell ref="D70:Z70"/>
     <mergeCell ref="D4:Z4"/>
     <mergeCell ref="B54:Z54"/>
     <mergeCell ref="C55:Z55"/>
@@ -8121,8 +8722,47 @@
     <mergeCell ref="E20:Z20"/>
     <mergeCell ref="C37:Z37"/>
     <mergeCell ref="D38:Z38"/>
-    <mergeCell ref="C90:Z90"/>
-    <mergeCell ref="C89:Z89"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="G114:Z114"/>
+    <mergeCell ref="G115:Z115"/>
+    <mergeCell ref="H116:Z116"/>
+    <mergeCell ref="H117:Z117"/>
+    <mergeCell ref="F113:Z113"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="D109:Z109"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="B104:Z104"/>
+    <mergeCell ref="E110:Z110"/>
+    <mergeCell ref="B105:Z105"/>
+    <mergeCell ref="C106:Z106"/>
+    <mergeCell ref="C107:Z107"/>
+    <mergeCell ref="D108:Z108"/>
+    <mergeCell ref="D5:Z5"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="D12:Z12"/>
+    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="D7:Z7"/>
+    <mergeCell ref="D39:Z39"/>
+    <mergeCell ref="E31:Z31"/>
+    <mergeCell ref="E32:Z32"/>
+    <mergeCell ref="B118:Z118"/>
+    <mergeCell ref="E111:Z111"/>
+    <mergeCell ref="F112:Z112"/>
+    <mergeCell ref="C99:Z99"/>
+    <mergeCell ref="C100:Z100"/>
+    <mergeCell ref="C101:Z101"/>
+    <mergeCell ref="C102:Z102"/>
+    <mergeCell ref="C103:Z103"/>
+    <mergeCell ref="C58:Z58"/>
+    <mergeCell ref="C62:Z62"/>
+    <mergeCell ref="B91:Z91"/>
+    <mergeCell ref="C92:Z92"/>
+    <mergeCell ref="C93:Z93"/>
+    <mergeCell ref="C94:Z94"/>
+    <mergeCell ref="B73:Z73"/>
+    <mergeCell ref="C98:Z98"/>
+    <mergeCell ref="C97:Z97"/>
     <mergeCell ref="C60:Z60"/>
     <mergeCell ref="C61:Z61"/>
     <mergeCell ref="B63:Z63"/>
@@ -8130,45 +8770,6 @@
     <mergeCell ref="C59:Z59"/>
     <mergeCell ref="B64:Z64"/>
     <mergeCell ref="C66:Z66"/>
-    <mergeCell ref="C87:Z87"/>
-    <mergeCell ref="C88:Z88"/>
-    <mergeCell ref="D21:Z21"/>
-    <mergeCell ref="E22:Z22"/>
-    <mergeCell ref="E23:Z23"/>
-    <mergeCell ref="C44:Z44"/>
-    <mergeCell ref="D45:Z45"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="D41:Z41"/>
-    <mergeCell ref="C42:Z42"/>
-    <mergeCell ref="D43:Z43"/>
-    <mergeCell ref="D33:Z33"/>
-    <mergeCell ref="D34:Z34"/>
-    <mergeCell ref="C35:Z35"/>
-    <mergeCell ref="D36:Z36"/>
-    <mergeCell ref="D25:Z25"/>
-    <mergeCell ref="E24:Z24"/>
-    <mergeCell ref="D46:Z46"/>
-    <mergeCell ref="B74:Z74"/>
-    <mergeCell ref="B82:Z82"/>
-    <mergeCell ref="B67:Z67"/>
-    <mergeCell ref="C68:Z68"/>
-    <mergeCell ref="D69:Z69"/>
-    <mergeCell ref="D70:Z70"/>
-    <mergeCell ref="C71:Z71"/>
-    <mergeCell ref="D72:Z72"/>
-    <mergeCell ref="C76:Z76"/>
-    <mergeCell ref="C75:Z75"/>
-    <mergeCell ref="B77:Z77"/>
-    <mergeCell ref="C78:Z78"/>
-    <mergeCell ref="C81:Z81"/>
-    <mergeCell ref="D79:Z79"/>
-    <mergeCell ref="D80:Z80"/>
-    <mergeCell ref="D52:Z52"/>
-    <mergeCell ref="C50:Z50"/>
-    <mergeCell ref="D51:Z51"/>
-    <mergeCell ref="D47:Z47"/>
-    <mergeCell ref="E48:Z48"/>
-    <mergeCell ref="E49:Z49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8208,42 +8809,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
       <c r="AA1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
       <c r="AH1" s="14"/>
@@ -10243,19 +10844,22 @@
     <row r="47" spans="2:37" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C18:Z18"/>
-    <mergeCell ref="D19:Z19"/>
-    <mergeCell ref="D20:Z20"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="B8:Z8"/>
-    <mergeCell ref="C9:Z9"/>
-    <mergeCell ref="C10:Z10"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="C4:Z4"/>
-    <mergeCell ref="C5:Z5"/>
-    <mergeCell ref="C6:Z6"/>
-    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="E28:Z28"/>
+    <mergeCell ref="E29:Z29"/>
+    <mergeCell ref="F30:Z30"/>
+    <mergeCell ref="F31:Z31"/>
+    <mergeCell ref="B44:Z44"/>
+    <mergeCell ref="G33:Z33"/>
+    <mergeCell ref="H34:Z34"/>
+    <mergeCell ref="H35:Z35"/>
+    <mergeCell ref="I36:Z36"/>
+    <mergeCell ref="I37:Z37"/>
+    <mergeCell ref="H38:Z38"/>
+    <mergeCell ref="G39:Z39"/>
+    <mergeCell ref="F40:Z40"/>
+    <mergeCell ref="E41:Z41"/>
+    <mergeCell ref="D42:Z42"/>
+    <mergeCell ref="C43:Z43"/>
     <mergeCell ref="G32:Z32"/>
     <mergeCell ref="C7:Z7"/>
     <mergeCell ref="B22:Z22"/>
@@ -10272,22 +10876,19 @@
     <mergeCell ref="B17:Z17"/>
     <mergeCell ref="C21:Z21"/>
     <mergeCell ref="D27:Z27"/>
-    <mergeCell ref="E28:Z28"/>
-    <mergeCell ref="E29:Z29"/>
-    <mergeCell ref="F30:Z30"/>
-    <mergeCell ref="F31:Z31"/>
-    <mergeCell ref="B44:Z44"/>
-    <mergeCell ref="G33:Z33"/>
-    <mergeCell ref="H34:Z34"/>
-    <mergeCell ref="H35:Z35"/>
-    <mergeCell ref="I36:Z36"/>
-    <mergeCell ref="I37:Z37"/>
-    <mergeCell ref="H38:Z38"/>
-    <mergeCell ref="G39:Z39"/>
-    <mergeCell ref="F40:Z40"/>
-    <mergeCell ref="E41:Z41"/>
-    <mergeCell ref="D42:Z42"/>
-    <mergeCell ref="C43:Z43"/>
+    <mergeCell ref="C18:Z18"/>
+    <mergeCell ref="D19:Z19"/>
+    <mergeCell ref="D20:Z20"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="B8:Z8"/>
+    <mergeCell ref="C9:Z9"/>
+    <mergeCell ref="C10:Z10"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="C4:Z4"/>
+    <mergeCell ref="C5:Z5"/>
+    <mergeCell ref="C6:Z6"/>
+    <mergeCell ref="B2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10299,10 +10900,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AK72"/>
+  <dimension ref="B1:AM78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:Z32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -10317,60 +10918,64 @@
     <col min="33" max="33" width="21" customWidth="1" outlineLevel="1"/>
     <col min="34" max="34" width="15.5703125" customWidth="1" outlineLevel="1"/>
     <col min="35" max="35" width="26.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="46" customWidth="1"/>
-    <col min="38" max="38" width="68.140625" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="26.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="46" customWidth="1"/>
+    <col min="40" max="40" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:39">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
       <c r="AA1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
       <c r="AF1" s="28"/>
       <c r="AG1" s="28"/>
       <c r="AH1" s="28"/>
       <c r="AI1" s="28"/>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AM1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:37" ht="30" customHeight="1">
+    <row r="2" spans="2:39" ht="30" customHeight="1">
       <c r="B2" s="36" t="str">
         <f>"kubectl run "&amp;AC2&amp;" --image="&amp;AE2&amp;IF(ISBLANK(AG2),""," --port "&amp;AG2)</f>
         <v>kubectl run nginx --image=nginx:1.10.0</v>
@@ -10400,33 +11005,35 @@
       <c r="Y2" s="37"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA69" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA75" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>kubectl run nginx --image=nginx:1.10.0</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>99</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK2" s="1"/>
-    </row>
-    <row r="3" spans="2:37" ht="30" collapsed="1">
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM2" s="1"/>
+    </row>
+    <row r="3" spans="2:39" ht="30" collapsed="1">
       <c r="B3" s="36" t="str">
         <f>"kubectl expose "&amp;AC3&amp;" "&amp;AE3&amp;IF(ISBLANK(AG3),""," --type "&amp;AG3)&amp;IF(ISBLANK(AI3),""," --port "&amp;AI3)</f>
         <v>kubectl expose deployment nginx --type LoadBalancer --port 80</v>
@@ -10460,40 +11067,42 @@
         <v>kubectl expose deployment nginx --type LoadBalancer --port 80</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>99</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AI3" s="5">
         <v>80</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="2:37">
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="2:39" ht="30">
       <c r="B4" s="36" t="str">
-        <f>"kubectl get "&amp;AC4&amp;IF(ISBLANK(AE4),""," "&amp;AE4)&amp;IF(ISBLANK(AG4),""," -l "&amp;CHAR(34)&amp;AG4&amp;CHAR(34))&amp;IF(ISBLANK(AI4),""," --show-labels")</f>
-        <v>kubectl get deployments</v>
+        <f>"kubectl get "&amp;AC4&amp;IF(ISBLANK(AE4),""," "&amp;AE4)&amp;IF(ISBLANK(AG4),""," -l "&amp;SUBSTITUTE(AG4," "," -l "))&amp;IF(ISBLANK(AI4),""," --show-labels")&amp;IF(ISBLANK(AK4),""," -n "&amp;AK4)</f>
+        <v>kubectl get pods -l app=gceme -l role=frontend -n production</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -10521,32 +11130,40 @@
       <c r="Z4" s="38"/>
       <c r="AA4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kubectl get deployments</v>
+        <v>kubectl get pods -l app=gceme -l role=frontend -n production</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="AD4" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG4" s="5"/>
+        <v>298</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="AH4" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AI4" s="5"/>
-      <c r="AJ4" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK4" s="1"/>
-    </row>
-    <row r="5" spans="2:37">
+      <c r="AJ4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AM4" s="1"/>
+    </row>
+    <row r="5" spans="2:39">
       <c r="B5" s="36" t="str">
         <f>"kubectl create"</f>
         <v>kubectl create</v>
@@ -10589,12 +11206,14 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AK5" s="1"/>
-    </row>
-    <row r="6" spans="2:37" ht="30" outlineLevel="1">
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM5" s="1"/>
+    </row>
+    <row r="6" spans="2:39" ht="30" outlineLevel="1">
       <c r="B6" s="27"/>
       <c r="C6" s="37" t="str">
         <f>B$5&amp;" -f "&amp;AC6</f>
@@ -10624,14 +11243,14 @@
       <c r="Y6" s="37"/>
       <c r="Z6" s="38"/>
       <c r="AA6" s="8" t="str">
-        <f t="shared" ref="AA6:AA13" ca="1" si="1">IFERROR(OFFSET(A6,0,MATCH("",B6:Z6,-1)),"")</f>
+        <f t="shared" ref="AA6:AA18" ca="1" si="1">IFERROR(OFFSET(A6,0,MATCH("",B6:Z6,-1)),"")</f>
         <v>kubectl create -f pods/monolith.yaml</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -10639,12 +11258,14 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
-      <c r="AJ6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AK6" s="1"/>
-    </row>
-    <row r="7" spans="2:37" outlineLevel="1">
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM6" s="1"/>
+    </row>
+    <row r="7" spans="2:39" outlineLevel="1">
       <c r="B7" s="31"/>
       <c r="C7" s="37" t="str">
         <f>B$5&amp;" secret"</f>
@@ -10687,10 +11308,12 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-    </row>
-    <row r="8" spans="2:37" outlineLevel="2">
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+    </row>
+    <row r="8" spans="2:39" outlineLevel="2">
       <c r="B8" s="31"/>
       <c r="C8" s="30"/>
       <c r="D8" s="37" t="str">
@@ -10724,27 +11347,29 @@
         <v>kubectl create secret generic tls-certs --from-file tls/</v>
       </c>
       <c r="AB8" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD8" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD8" s="21" t="s">
+      <c r="AE8" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AK8" s="1"/>
-    </row>
-    <row r="9" spans="2:37" outlineLevel="2">
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM8" s="1"/>
+    </row>
+    <row r="9" spans="2:39" outlineLevel="2">
       <c r="B9" s="31"/>
       <c r="C9" s="30"/>
       <c r="D9" s="37"/>
@@ -10784,10 +11409,12 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-    </row>
-    <row r="10" spans="2:37" outlineLevel="1">
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+    </row>
+    <row r="10" spans="2:39" outlineLevel="1">
       <c r="B10" s="31"/>
       <c r="C10" s="37" t="str">
         <f>B$5&amp;" configmap"</f>
@@ -10817,7 +11444,7 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="38"/>
       <c r="AA10" s="8" t="str">
-        <f t="shared" ref="AA10:AA12" ca="1" si="2">IFERROR(OFFSET(A10,0,MATCH("",B10:Z10,-1)),"")</f>
+        <f t="shared" ref="AA10:AA17" ca="1" si="2">IFERROR(OFFSET(A10,0,MATCH("",B10:Z10,-1)),"")</f>
         <v>kubectl create configmap</v>
       </c>
       <c r="AB10" s="2" t="s">
@@ -10830,66 +11457,73 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-    </row>
-    <row r="11" spans="2:37" ht="30" customHeight="1" outlineLevel="2">
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+    </row>
+    <row r="11" spans="2:39" ht="30" customHeight="1" outlineLevel="2">
       <c r="B11" s="31"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="33" t="str">
+      <c r="D11" s="39" t="str">
         <f>C$10&amp;" "&amp;AC11&amp;" --from-file "&amp;AE11</f>
         <v>kubectl create configmap nginx-proxy-conf --from-file nginx/proxy.conf</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="35"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="41"/>
       <c r="AA11" s="8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>kubectl create configmap nginx-proxy-conf --from-file nginx/proxy.conf</v>
       </c>
       <c r="AB11" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE11" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD11" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AK11" s="1"/>
-    </row>
-    <row r="12" spans="2:37" outlineLevel="2">
-      <c r="B12" s="31"/>
-      <c r="C12" s="30"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM11" s="1"/>
+    </row>
+    <row r="12" spans="2:39" outlineLevel="1">
+      <c r="B12" s="33"/>
+      <c r="C12" s="37" t="str">
+        <f>B$5&amp;" clusterrolebinding"</f>
+        <v>kubectl create clusterrolebinding</v>
+      </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
@@ -10914,8 +11548,8 @@
       <c r="Y12" s="37"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="8" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <f t="shared" ref="AA12:AA13" ca="1" si="3">IFERROR(OFFSET(A12,0,MATCH("",B12:Z12,-1)),"")</f>
+        <v>kubectl create clusterrolebinding</v>
       </c>
       <c r="AB12" s="2" t="s">
         <v>6</v>
@@ -10927,58 +11561,81 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-    </row>
-    <row r="13" spans="2:37" outlineLevel="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AM12" s="1"/>
+    </row>
+    <row r="13" spans="2:39" ht="41.25" customHeight="1" outlineLevel="2">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="39" t="str">
+        <f>C$12&amp;" "&amp;AC13&amp;" --clusterrole="&amp;AE13&amp;IF(ISBLANK(AG13),""," --user="&amp;AG13)&amp;IF(ISBLANK(AI13),""," --serviceaccount="&amp;AI13)</f>
+        <v>kubectl create clusterrolebinding tiller-admin-binding --clusterrole=cluster-admin --serviceaccount=kube-system:tiller</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="41"/>
       <c r="AA13" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-    </row>
-    <row r="14" spans="2:37">
-      <c r="B14" s="36" t="str">
-        <f>"kubectl describe "&amp;AC14&amp;IF(ISBLANK(AE14),""," "&amp;AE14)</f>
-        <v>kubectl describe services monolith</v>
-      </c>
-      <c r="C14" s="37"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>kubectl create clusterrolebinding tiller-admin-binding --clusterrole=cluster-admin --serviceaccount=kube-system:tiller</v>
+      </c>
+      <c r="AB13" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD13" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM13" s="1"/>
+    </row>
+    <row r="14" spans="2:39" outlineLevel="1">
+      <c r="B14" s="33"/>
+      <c r="C14" s="37" t="str">
+        <f>B$5&amp;" serviceaccount"</f>
+        <v>kubectl create serviceaccount</v>
+      </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -11003,94 +11660,88 @@
       <c r="Y14" s="37"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="8" t="str">
-        <f t="shared" ref="AA14" ca="1" si="3">IFERROR(OFFSET(A14,0,MATCH("",B14:Z14,-1)),"")</f>
-        <v>kubectl describe services monolith</v>
-      </c>
-      <c r="AB14" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD14" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE14" s="5" t="s">
-        <v>281</v>
-      </c>
+        <f t="shared" ref="AA14:AA15" ca="1" si="4">IFERROR(OFFSET(A14,0,MATCH("",B14:Z14,-1)),"")</f>
+        <v>kubectl create serviceaccount</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AK14" s="1"/>
-    </row>
-    <row r="15" spans="2:37">
-      <c r="B15" s="36" t="str">
-        <f>"kubectl port-forward "&amp;AC15&amp;" "&amp;AE15&amp;":"&amp;AG15</f>
-        <v>kubectl port-forward monolith 10080:80</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM14" s="1"/>
+    </row>
+    <row r="15" spans="2:39" ht="41.25" customHeight="1" outlineLevel="2">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="39" t="str">
+        <f>C$14&amp;" "&amp;AC15&amp;" --namespace "&amp;AE15</f>
+        <v>kubectl create serviceaccount tiller --namespace kube-system</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="41"/>
       <c r="AA15" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>kubectl port-forward monolith 10080:80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>kubectl create serviceaccount tiller --namespace kube-system</v>
       </c>
       <c r="AB15" s="21" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>10080</v>
-      </c>
-      <c r="AF15" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>80</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AK15" s="1"/>
-    </row>
-    <row r="16" spans="2:37">
-      <c r="B16" s="36" t="str">
-        <f>"kubectl logs "&amp;IF(AE16,"-f ","")&amp;AC16</f>
-        <v>kubectl logs -f monolith</v>
-      </c>
-      <c r="C16" s="37"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM15" s="1"/>
+    </row>
+    <row r="16" spans="2:39" outlineLevel="1">
+      <c r="B16" s="33"/>
+      <c r="C16" s="37" t="str">
+        <f>B$5&amp;" ns"</f>
+        <v>kubectl create ns</v>
+      </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
@@ -11115,84 +11766,81 @@
       <c r="Y16" s="37"/>
       <c r="Z16" s="38"/>
       <c r="AA16" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>kubectl logs -f monolith</v>
-      </c>
-      <c r="AB16" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE16" s="5" t="b">
-        <v>1</v>
-      </c>
+        <f t="shared" ca="1" si="2"/>
+        <v>kubectl create ns</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AK16" s="1"/>
-    </row>
-    <row r="17" spans="2:37">
-      <c r="B17" s="36" t="str">
-        <f>"kubectl exec"</f>
-        <v>kubectl exec</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="38"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM16" s="1"/>
+    </row>
+    <row r="17" spans="2:39" ht="41.25" customHeight="1" outlineLevel="2">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="39" t="str">
+        <f>C$16&amp;" "&amp;AC17</f>
+        <v>kubectl create ns production</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="41"/>
       <c r="AA17" s="8" t="str">
-        <f t="shared" ref="AA17:AA19" ca="1" si="4">IFERROR(OFFSET(A17,0,MATCH("",B17:Z17,-1)),"")</f>
-        <v>kubectl exec</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <f t="shared" ca="1" si="2"/>
+        <v>kubectl create ns production</v>
+      </c>
+      <c r="AB17" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AK17" s="1"/>
-    </row>
-    <row r="18" spans="2:37" outlineLevel="1">
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM17" s="1"/>
+    </row>
+    <row r="18" spans="2:39" outlineLevel="1">
       <c r="B18" s="27"/>
-      <c r="C18" s="37" t="str">
-        <f>B$17&amp;" "&amp;AC18&amp;IF(ISBLANK(AE18),""," -c "&amp;AE18)&amp;" -- "&amp;AG18</f>
-        <v>kubectl exec monolith -- ls</v>
-      </c>
+      <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -11217,38 +11865,30 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="38"/>
       <c r="AA18" s="8" t="str">
-        <f t="shared" ref="AA18" ca="1" si="5">IFERROR(OFFSET(A18,0,MATCH("",B18:Z18,-1)),"")</f>
-        <v>kubectl exec monolith -- ls</v>
-      </c>
-      <c r="AB18" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>288</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AK18" s="1"/>
-    </row>
-    <row r="19" spans="2:37" outlineLevel="1">
-      <c r="B19" s="27"/>
-      <c r="C19" s="37" t="str">
-        <f>B$17&amp;" "&amp;AC19&amp;" --stdin --tty "&amp;IF(ISBLANK(AE19),""," -c "&amp;AE19)&amp;"/bin/sh"</f>
-        <v>kubectl exec monolith --stdin --tty /bin/sh</v>
-      </c>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+    </row>
+    <row r="19" spans="2:39">
+      <c r="B19" s="36" t="str">
+        <f>"kubectl describe "&amp;AC19&amp;IF(ISBLANK(AE19),""," "&amp;AE19)</f>
+        <v>kubectl describe services monolith</v>
+      </c>
+      <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -11273,32 +11913,36 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="38"/>
       <c r="AA19" s="8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>kubectl exec monolith --stdin --tty /bin/sh</v>
+        <f t="shared" ref="AA19" ca="1" si="5">IFERROR(OFFSET(A19,0,MATCH("",B19:Z19,-1)),"")</f>
+        <v>kubectl describe services monolith</v>
       </c>
       <c r="AB19" s="21" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AE19" s="5"/>
+        <v>305</v>
+      </c>
+      <c r="AD19" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK19" s="1"/>
-    </row>
-    <row r="20" spans="2:37">
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM19" s="1"/>
+    </row>
+    <row r="20" spans="2:39">
       <c r="B20" s="36" t="str">
-        <f>"kubectl label "&amp;AC20&amp;" "&amp;AE20&amp;" '"&amp;AG20&amp;"'"</f>
-        <v>kubectl label pods secure-monolith 'secure=enabled'</v>
+        <f>"kubectl port-forward "&amp;AC20&amp;" "&amp;AE20&amp;":"&amp;AG20</f>
+        <v>kubectl port-forward monolith 10080:80</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -11326,37 +11970,39 @@
       <c r="Z20" s="38"/>
       <c r="AA20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kubectl label pods secure-monolith 'secure=enabled'</v>
+        <v>kubectl port-forward monolith 10080:80</v>
       </c>
       <c r="AB20" s="21" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD20" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>311</v>
+        <v>279</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>10080</v>
       </c>
       <c r="AF20" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>312</v>
+        <v>281</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>80</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK20" s="1"/>
-    </row>
-    <row r="21" spans="2:37" ht="30">
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM20" s="1"/>
+    </row>
+    <row r="21" spans="2:39">
       <c r="B21" s="36" t="str">
-        <f>"kubectl explain "&amp;AC21&amp;IF(AE21," --recursive","")</f>
-        <v>kubectl explain deployment.metadata.name</v>
+        <f>"kubectl logs "&amp;IF(AE21,"-f ","")&amp;AC21</f>
+        <v>kubectl logs -f monolith</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -11384,31 +12030,35 @@
       <c r="Z21" s="38"/>
       <c r="AA21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kubectl explain deployment.metadata.name</v>
+        <v>kubectl logs -f monolith</v>
       </c>
       <c r="AB21" s="21" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE21" s="5"/>
+        <v>283</v>
+      </c>
+      <c r="AE21" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AK21" s="1"/>
-    </row>
-    <row r="22" spans="2:37" ht="30">
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM21" s="1"/>
+    </row>
+    <row r="22" spans="2:39">
       <c r="B22" s="36" t="str">
-        <f>"kubectl scale"</f>
-        <v>kubectl scale</v>
+        <f>"kubectl exec"</f>
+        <v>kubectl exec</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -11435,8 +12085,8 @@
       <c r="Y22" s="37"/>
       <c r="Z22" s="38"/>
       <c r="AA22" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A22,0,MATCH("",B22:Z22,-1)),"")</f>
-        <v>kubectl scale</v>
+        <f t="shared" ref="AA22:AA24" ca="1" si="6">IFERROR(OFFSET(A22,0,MATCH("",B22:Z22,-1)),"")</f>
+        <v>kubectl exec</v>
       </c>
       <c r="AB22" s="2" t="s">
         <v>6</v>
@@ -11448,16 +12098,18 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
-      <c r="AJ22" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AK22" s="1"/>
-    </row>
-    <row r="23" spans="2:37" ht="30" outlineLevel="1">
-      <c r="B23" s="31"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM22" s="1"/>
+    </row>
+    <row r="23" spans="2:39" outlineLevel="1">
+      <c r="B23" s="27"/>
       <c r="C23" s="37" t="str">
-        <f>B$22&amp;" "&amp;AC23&amp;" "&amp;AE23&amp;" --replicas="&amp;AG23</f>
-        <v>kubectl scale deployment hello --replicas=5</v>
+        <f>B$22&amp;" "&amp;AC23&amp;IF(ISBLANK(AE23),""," -c "&amp;AE23)&amp;" -- "&amp;AG23</f>
+        <v>kubectl exec monolith -- ls</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
@@ -11483,37 +12135,40 @@
       <c r="Y23" s="37"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="8" t="str">
-        <f t="shared" ref="AA23:AA24" ca="1" si="6">IFERROR(OFFSET(A23,0,MATCH("",B23:Z23,-1)),"")</f>
-        <v>kubectl scale deployment hello --replicas=5</v>
+        <f t="shared" ref="AA23" ca="1" si="7">IFERROR(OFFSET(A23,0,MATCH("",B23:Z23,-1)),"")</f>
+        <v>kubectl exec monolith -- ls</v>
       </c>
       <c r="AB23" s="21" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD23" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE23" s="5" t="s">
-        <v>319</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE23" s="5"/>
       <c r="AF23" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="AG23" s="5">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="AG23" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AK23" s="1"/>
-    </row>
-    <row r="24" spans="2:37" outlineLevel="1">
-      <c r="B24" s="31"/>
-      <c r="C24" s="37"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM23" s="1"/>
+    </row>
+    <row r="24" spans="2:39" outlineLevel="1">
+      <c r="B24" s="27"/>
+      <c r="C24" s="37" t="str">
+        <f>B$22&amp;" "&amp;AC24&amp;" --stdin --tty "&amp;IF(ISBLANK(AE24),""," -c "&amp;AE24)&amp;"/bin/sh"</f>
+        <v>kubectl exec monolith --stdin --tty /bin/sh</v>
+      </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -11539,25 +12194,33 @@
       <c r="Z24" s="38"/>
       <c r="AA24" s="8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
+        <v>kubectl exec monolith --stdin --tty /bin/sh</v>
+      </c>
+      <c r="AB24" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC24" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE24" s="5"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-    </row>
-    <row r="25" spans="2:37">
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM24" s="1"/>
+    </row>
+    <row r="25" spans="2:39">
       <c r="B25" s="36" t="str">
-        <f>"kubectl edit "&amp;AC25&amp;" "&amp;AE25</f>
-        <v>kubectl edit deployment hello</v>
+        <f>"kubectl label "&amp;AC25&amp;" "&amp;AE25&amp;" '"&amp;AG25&amp;"'"</f>
+        <v>kubectl label pods secure-monolith 'secure=enabled'</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -11584,34 +12247,40 @@
       <c r="Y25" s="37"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A25,0,MATCH("",B25:Z25,-1)),"")</f>
-        <v>kubectl edit deployment hello</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>kubectl label pods secure-monolith 'secure=enabled'</v>
       </c>
       <c r="AB25" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="AF25" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG25" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
-      <c r="AJ25" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AK25" s="1"/>
-    </row>
-    <row r="26" spans="2:37">
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM25" s="1"/>
+    </row>
+    <row r="26" spans="2:39" ht="30">
       <c r="B26" s="36" t="str">
-        <f>"kubectl rollout"</f>
-        <v>kubectl rollout</v>
+        <f>"kubectl explain "&amp;AC26&amp;IF(AE26," --recursive","")</f>
+        <v>kubectl explain deployment.metadata.name</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -11638,30 +12307,36 @@
       <c r="Y26" s="37"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A26,0,MATCH("",B26:Z26,-1)),"")</f>
-        <v>kubectl rollout</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>kubectl explain deployment.metadata.name</v>
+      </c>
+      <c r="AB26" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE26" s="5"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
-      <c r="AJ26" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AK26" s="1"/>
-    </row>
-    <row r="27" spans="2:37" outlineLevel="1">
-      <c r="B27" s="31"/>
-      <c r="C27" s="37" t="str">
-        <f>B$26&amp;" history "&amp;AC27&amp;"/"&amp;AE27</f>
-        <v>kubectl rollout history deployment/hello</v>
-      </c>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM26" s="1"/>
+    </row>
+    <row r="27" spans="2:39" ht="30">
+      <c r="B27" s="36" t="str">
+        <f>"kubectl scale"</f>
+        <v>kubectl scale</v>
+      </c>
+      <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -11686,92 +12361,93 @@
       <c r="Y27" s="37"/>
       <c r="Z27" s="38"/>
       <c r="AA27" s="8" t="str">
-        <f t="shared" ref="AA27" ca="1" si="7">IFERROR(OFFSET(A27,0,MATCH("",B27:Z27,-1)),"")</f>
-        <v>kubectl rollout history deployment/hello</v>
-      </c>
-      <c r="AB27" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD27" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE27" s="5" t="s">
-        <v>319</v>
-      </c>
+        <f ca="1">IFERROR(OFFSET(A27,0,MATCH("",B27:Z27,-1)),"")</f>
+        <v>kubectl scale</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
-      <c r="AJ27" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AK27" s="1"/>
-    </row>
-    <row r="28" spans="2:37" outlineLevel="1">
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM27" s="1"/>
+    </row>
+    <row r="28" spans="2:39" ht="30" outlineLevel="1">
       <c r="B28" s="31"/>
-      <c r="C28" s="37" t="str">
-        <f>B$26&amp;" pause "&amp;AC28&amp;"/"&amp;AE28</f>
-        <v>kubectl rollout pause deployment/hello</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="38"/>
+      <c r="C28" s="39" t="str">
+        <f>B$27&amp;" "&amp;AC28&amp;" "&amp;AE28&amp;" --replicas="&amp;AG28&amp;IF(ISBLANK(AI28),""," -n "&amp;AI28)</f>
+        <v>kubectl scale deployment gceme-frontend-production --replicas=4 -n production</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="41"/>
       <c r="AA28" s="8" t="str">
-        <f t="shared" ref="AA28" ca="1" si="8">IFERROR(OFFSET(A28,0,MATCH("",B28:Z28,-1)),"")</f>
-        <v>kubectl rollout pause deployment/hello</v>
+        <f t="shared" ref="AA28:AA29" ca="1" si="8">IFERROR(OFFSET(A28,0,MATCH("",B28:Z28,-1)),"")</f>
+        <v>kubectl scale deployment gceme-frontend-production --replicas=4 -n production</v>
       </c>
       <c r="AB28" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD28" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="2:37" outlineLevel="1">
+        <v>340</v>
+      </c>
+      <c r="AF28" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH28" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI28" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM28" s="1"/>
+    </row>
+    <row r="29" spans="2:39" outlineLevel="1">
       <c r="B29" s="31"/>
-      <c r="C29" s="37" t="str">
-        <f>B$26&amp;" resume "&amp;AC29&amp;"/"&amp;AE29</f>
-        <v>kubectl rollout resume deployment/hello</v>
-      </c>
+      <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
@@ -11796,38 +12472,30 @@
       <c r="Y29" s="37"/>
       <c r="Z29" s="38"/>
       <c r="AA29" s="8" t="str">
-        <f t="shared" ref="AA29" ca="1" si="9">IFERROR(OFFSET(A29,0,MATCH("",B29:Z29,-1)),"")</f>
-        <v>kubectl rollout resume deployment/hello</v>
-      </c>
-      <c r="AB29" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC29" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD29" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE29" s="5" t="s">
-        <v>319</v>
-      </c>
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
-      <c r="AJ29" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="2:37" outlineLevel="1">
-      <c r="B30" s="31"/>
-      <c r="C30" s="37" t="str">
-        <f>B$26&amp;" status "&amp;AC30&amp;"/"&amp;AE30</f>
-        <v>kubectl rollout status deployment/hello</v>
-      </c>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+    </row>
+    <row r="30" spans="2:39">
+      <c r="B30" s="36" t="str">
+        <f>"kubectl edit "&amp;AC30&amp;" "&amp;AE30</f>
+        <v>kubectl edit deployment hello</v>
+      </c>
+      <c r="C30" s="37"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
@@ -11852,36 +12520,38 @@
       <c r="Y30" s="37"/>
       <c r="Z30" s="38"/>
       <c r="AA30" s="8" t="str">
-        <f t="shared" ref="AA30" ca="1" si="10">IFERROR(OFFSET(A30,0,MATCH("",B30:Z30,-1)),"")</f>
-        <v>kubectl rollout status deployment/hello</v>
+        <f ca="1">IFERROR(OFFSET(A30,0,MATCH("",B30:Z30,-1)),"")</f>
+        <v>kubectl edit deployment hello</v>
       </c>
       <c r="AB30" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD30" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
-      <c r="AJ30" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK30" s="1"/>
-    </row>
-    <row r="31" spans="2:37" outlineLevel="1">
-      <c r="B31" s="31"/>
-      <c r="C31" s="37" t="str">
-        <f>B$26&amp;" undo "&amp;AC31&amp;"/"&amp;AE31</f>
-        <v>kubectl rollout undo deployment/hello</v>
-      </c>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM30" s="1"/>
+    </row>
+    <row r="31" spans="2:39">
+      <c r="B31" s="36" t="str">
+        <f>"kubectl rollout"</f>
+        <v>kubectl rollout</v>
+      </c>
+      <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
@@ -11906,33 +12576,32 @@
       <c r="Y31" s="37"/>
       <c r="Z31" s="38"/>
       <c r="AA31" s="8" t="str">
-        <f t="shared" ref="AA31" ca="1" si="11">IFERROR(OFFSET(A31,0,MATCH("",B31:Z31,-1)),"")</f>
-        <v>kubectl rollout undo deployment/hello</v>
-      </c>
-      <c r="AB31" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD31" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE31" s="5" t="s">
-        <v>319</v>
-      </c>
+        <f ca="1">IFERROR(OFFSET(A31,0,MATCH("",B31:Z31,-1)),"")</f>
+        <v>kubectl rollout</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
-      <c r="AJ31" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK31" s="1"/>
-    </row>
-    <row r="32" spans="2:37">
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM31" s="1"/>
+    </row>
+    <row r="32" spans="2:39" outlineLevel="1">
+      <c r="B32" s="31"/>
+      <c r="C32" s="37" t="str">
+        <f>B$31&amp;" history "&amp;AC32&amp;"/"&amp;AE32</f>
+        <v>kubectl rollout history deployment/hello</v>
+      </c>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -11957,23 +12626,38 @@
       <c r="Y32" s="37"/>
       <c r="Z32" s="38"/>
       <c r="AA32" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A32,0,MATCH("",B32:Z32,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
+        <f t="shared" ref="AA32" ca="1" si="9">IFERROR(OFFSET(A32,0,MATCH("",B32:Z32,-1)),"")</f>
+        <v>kubectl rollout history deployment/hello</v>
+      </c>
+      <c r="AB32" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD32" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE32" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-    </row>
-    <row r="33" spans="2:37">
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM32" s="1"/>
+    </row>
+    <row r="33" spans="2:39" outlineLevel="1">
+      <c r="B33" s="31"/>
+      <c r="C33" s="37" t="str">
+        <f>B$31&amp;" pause "&amp;AC33&amp;"/"&amp;AE33</f>
+        <v>kubectl rollout pause deployment/hello</v>
+      </c>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
@@ -11998,23 +12682,40 @@
       <c r="Y33" s="37"/>
       <c r="Z33" s="38"/>
       <c r="AA33" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
+        <f t="shared" ref="AA33" ca="1" si="10">IFERROR(OFFSET(A33,0,MATCH("",B33:Z33,-1)),"")</f>
+        <v>kubectl rollout pause deployment/hello</v>
+      </c>
+      <c r="AB33" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC33" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD33" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE33" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-    </row>
-    <row r="34" spans="2:37">
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM33" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="2:39" outlineLevel="1">
+      <c r="B34" s="31"/>
+      <c r="C34" s="37" t="str">
+        <f>B$31&amp;" resume "&amp;AC34&amp;"/"&amp;AE34</f>
+        <v>kubectl rollout resume deployment/hello</v>
+      </c>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -12039,25 +12740,40 @@
       <c r="Y34" s="37"/>
       <c r="Z34" s="38"/>
       <c r="AA34" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
+        <f t="shared" ref="AA34" ca="1" si="11">IFERROR(OFFSET(A34,0,MATCH("",B34:Z34,-1)),"")</f>
+        <v>kubectl rollout resume deployment/hello</v>
+      </c>
+      <c r="AB34" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC34" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD34" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE34" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
-      <c r="AJ34" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK34" s="1"/>
-    </row>
-    <row r="35" spans="2:37">
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM34" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="2:39" outlineLevel="1">
+      <c r="B35" s="31"/>
+      <c r="C35" s="37" t="str">
+        <f>B$31&amp;" status "&amp;AC35&amp;"/"&amp;AE35</f>
+        <v>kubectl rollout status deployment/hello</v>
+      </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -12082,23 +12798,38 @@
       <c r="Y35" s="37"/>
       <c r="Z35" s="38"/>
       <c r="AA35" s="8" t="str">
-        <f t="shared" ref="AA35:AA36" ca="1" si="12">IFERROR(OFFSET(A35,0,MATCH("",B35:Z35,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
+        <f t="shared" ref="AA35" ca="1" si="12">IFERROR(OFFSET(A35,0,MATCH("",B35:Z35,-1)),"")</f>
+        <v>kubectl rollout status deployment/hello</v>
+      </c>
+      <c r="AB35" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD35" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE35" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-    </row>
-    <row r="36" spans="2:37">
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM35" s="1"/>
+    </row>
+    <row r="36" spans="2:39" outlineLevel="1">
+      <c r="B36" s="31"/>
+      <c r="C36" s="37" t="str">
+        <f>B$31&amp;" undo "&amp;AC36&amp;"/"&amp;AE36</f>
+        <v>kubectl rollout undo deployment/hello</v>
+      </c>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -12123,22 +12854,37 @@
       <c r="Y36" s="37"/>
       <c r="Z36" s="38"/>
       <c r="AA36" s="8" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
+        <f t="shared" ref="AA36" ca="1" si="13">IFERROR(OFFSET(A36,0,MATCH("",B36:Z36,-1)),"")</f>
+        <v>kubectl rollout undo deployment/hello</v>
+      </c>
+      <c r="AB36" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD36" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE36" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-    </row>
-    <row r="37" spans="2:37">
-      <c r="B37" s="36"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM36" s="1"/>
+    </row>
+    <row r="37" spans="2:39">
+      <c r="B37" s="36" t="str">
+        <f>"kubectl cluster-info"</f>
+        <v>kubectl cluster-info</v>
+      </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
@@ -12164,8 +12910,8 @@
       <c r="Y37" s="37"/>
       <c r="Z37" s="38"/>
       <c r="AA37" s="8" t="str">
-        <f t="shared" ref="AA37:AA39" ca="1" si="13">IFERROR(OFFSET(A37,0,MATCH("",B37:Z37,-1)),"")</f>
-        <v/>
+        <f ca="1">IFERROR(OFFSET(A37,0,MATCH("",B37:Z37,-1)),"")</f>
+        <v>kubectl cluster-info</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
@@ -12175,11 +12921,18 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-    </row>
-    <row r="38" spans="2:37">
-      <c r="B38" s="36"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM37" s="1"/>
+    </row>
+    <row r="38" spans="2:39">
+      <c r="B38" s="36" t="str">
+        <f>"kubectl apply -f "&amp;AC38&amp;IF(ISBLANK(AE38),""," -n "&amp;AE38)</f>
+        <v>kubectl apply -f k8s/production -n production</v>
+      </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
@@ -12205,23 +12958,35 @@
       <c r="Y38" s="37"/>
       <c r="Z38" s="38"/>
       <c r="AA38" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
+        <f ca="1">IFERROR(OFFSET(A38,0,MATCH("",B38:Z38,-1)),"")</f>
+        <v>kubectl apply -f k8s/production -n production</v>
+      </c>
+      <c r="AB38" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE38" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-    </row>
-    <row r="39" spans="2:37" ht="39" customHeight="1">
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM38" s="1"/>
+    </row>
+    <row r="39" spans="2:39">
       <c r="B39" s="36" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -12248,9 +13013,8 @@
       <c r="Y39" s="37"/>
       <c r="Z39" s="38"/>
       <c r="AA39" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v xml:space="preserve">kubectl get pods -o jsonpath --template='{range .items[*]}{.metadata.name}{"\t"}{"\t"}{.spec.containers[0].image}{"\n"}{end}'
-</v>
+        <f t="shared" ref="AA39" ca="1" si="14">IFERROR(OFFSET(A39,0,MATCH("",B39:Z39,-1)),"")</f>
+        <v>kubectl proxy</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -12260,13 +13024,15 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
-      <c r="AJ39" s="1"/>
-      <c r="AK39" s="1"/>
-    </row>
-    <row r="40" spans="2:37">
-      <c r="B40" s="36" t="s">
-        <v>309</v>
-      </c>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AM39" s="1"/>
+    </row>
+    <row r="40" spans="2:39">
+      <c r="B40" s="36"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
@@ -12293,7 +13059,7 @@
       <c r="Z40" s="38"/>
       <c r="AA40" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kubectl apply -f services/hello-blue.yaml</v>
+        <v/>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -12303,10 +13069,12 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-    </row>
-    <row r="41" spans="2:37">
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+    </row>
+    <row r="41" spans="2:39" ht="39" customHeight="1">
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -12344,10 +13112,12 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-    </row>
-    <row r="42" spans="2:37">
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+    </row>
+    <row r="42" spans="2:39">
       <c r="B42" s="36"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -12374,7 +13144,7 @@
       <c r="Y42" s="37"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A42,0,MATCH("",B42:Z42,-1)),"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="AB42" s="2"/>
@@ -12385,10 +13155,12 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-    </row>
-    <row r="43" spans="2:37">
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+    </row>
+    <row r="43" spans="2:39">
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -12415,7 +13187,7 @@
       <c r="Y43" s="37"/>
       <c r="Z43" s="38"/>
       <c r="AA43" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A43,0,MATCH("",B43:Z43,-1)),"")</f>
+        <f t="shared" ref="AA43:AA44" ca="1" si="15">IFERROR(OFFSET(A43,0,MATCH("",B43:Z43,-1)),"")</f>
         <v/>
       </c>
       <c r="AB43" s="2"/>
@@ -12426,10 +13198,12 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-    </row>
-    <row r="44" spans="2:37">
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+    </row>
+    <row r="44" spans="2:39">
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -12456,7 +13230,7 @@
       <c r="Y44" s="37"/>
       <c r="Z44" s="38"/>
       <c r="AA44" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A44,0,MATCH("",B44:Z44,-1)),"")</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB44" s="2"/>
@@ -12467,10 +13241,12 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="1"/>
-    </row>
-    <row r="45" spans="2:37">
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+    </row>
+    <row r="45" spans="2:39">
       <c r="B45" s="36"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -12497,7 +13273,7 @@
       <c r="Y45" s="37"/>
       <c r="Z45" s="38"/>
       <c r="AA45" s="8" t="str">
-        <f t="shared" ref="AA45" ca="1" si="14">IFERROR(OFFSET(A45,0,MATCH("",B45:Z45,-1)),"")</f>
+        <f t="shared" ref="AA45:AA46" ca="1" si="16">IFERROR(OFFSET(A45,0,MATCH("",B45:Z45,-1)),"")</f>
         <v/>
       </c>
       <c r="AB45" s="2"/>
@@ -12508,10 +13284,12 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
-    </row>
-    <row r="46" spans="2:37">
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+    </row>
+    <row r="46" spans="2:39">
       <c r="B46" s="36"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -12538,7 +13316,7 @@
       <c r="Y46" s="37"/>
       <c r="Z46" s="38"/>
       <c r="AA46" s="8" t="str">
-        <f t="shared" ref="AA46" ca="1" si="15">IFERROR(OFFSET(A46,0,MATCH("",B46:Z46,-1)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AB46" s="2"/>
@@ -12549,10 +13327,12 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
-      <c r="AJ46" s="1"/>
-      <c r="AK46" s="1"/>
-    </row>
-    <row r="47" spans="2:37">
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+    </row>
+    <row r="47" spans="2:39">
       <c r="B47" s="36"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -12579,7 +13359,7 @@
       <c r="Y47" s="37"/>
       <c r="Z47" s="38"/>
       <c r="AA47" s="8" t="str">
-        <f t="shared" ref="AA47" ca="1" si="16">IFERROR(OFFSET(A47,0,MATCH("",B47:Z47,-1)),"")</f>
+        <f ca="1">IFERROR(OFFSET(A47,0,MATCH("",B47:Z47,-1)),"")</f>
         <v/>
       </c>
       <c r="AB47" s="2"/>
@@ -12590,10 +13370,12 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
-      <c r="AJ47" s="1"/>
-      <c r="AK47" s="1"/>
-    </row>
-    <row r="48" spans="2:37">
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+    </row>
+    <row r="48" spans="2:39">
       <c r="B48" s="36"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -12620,7 +13402,7 @@
       <c r="Y48" s="37"/>
       <c r="Z48" s="38"/>
       <c r="AA48" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(A48,0,MATCH("",B48:Z48,-1)),"")</f>
         <v/>
       </c>
       <c r="AB48" s="2"/>
@@ -12631,11 +13413,13 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-    </row>
-    <row r="49" spans="2:37" outlineLevel="1">
-      <c r="B49" s="27"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+    </row>
+    <row r="49" spans="2:39">
+      <c r="B49" s="36"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
@@ -12661,12 +13445,10 @@
       <c r="Y49" s="37"/>
       <c r="Z49" s="38"/>
       <c r="AA49" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(A49,0,MATCH("",B49:Z49,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB49" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
@@ -12674,11 +13456,13 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-    </row>
-    <row r="50" spans="2:37" outlineLevel="1">
-      <c r="B50" s="27"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+    </row>
+    <row r="50" spans="2:39">
+      <c r="B50" s="36"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
@@ -12704,12 +13488,10 @@
       <c r="Y50" s="37"/>
       <c r="Z50" s="38"/>
       <c r="AA50" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(OFFSET(A50,0,MATCH("",B50:Z50,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB50" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -12717,12 +13499,14 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-    </row>
-    <row r="51" spans="2:37" outlineLevel="2">
-      <c r="B51" s="27"/>
-      <c r="C51" s="26"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+    </row>
+    <row r="51" spans="2:39">
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
@@ -12747,12 +13531,10 @@
       <c r="Y51" s="37"/>
       <c r="Z51" s="38"/>
       <c r="AA51" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA51" ca="1" si="17">IFERROR(OFFSET(A51,0,MATCH("",B51:Z51,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB51" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -12760,12 +13542,14 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-    </row>
-    <row r="52" spans="2:37" outlineLevel="2">
-      <c r="B52" s="27"/>
-      <c r="C52" s="26"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+    </row>
+    <row r="52" spans="2:39">
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
@@ -12790,12 +13574,10 @@
       <c r="Y52" s="37"/>
       <c r="Z52" s="38"/>
       <c r="AA52" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA52" ca="1" si="18">IFERROR(OFFSET(A52,0,MATCH("",B52:Z52,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB52" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
@@ -12803,13 +13585,15 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-    </row>
-    <row r="53" spans="2:37" outlineLevel="3">
-      <c r="B53" s="27"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+    </row>
+    <row r="53" spans="2:39">
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -12833,12 +13617,10 @@
       <c r="Y53" s="37"/>
       <c r="Z53" s="38"/>
       <c r="AA53" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA53" ca="1" si="19">IFERROR(OFFSET(A53,0,MATCH("",B53:Z53,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB53" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
@@ -12846,13 +13628,15 @@
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-    </row>
-    <row r="54" spans="2:37" outlineLevel="3">
-      <c r="B54" s="27"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+    </row>
+    <row r="54" spans="2:39">
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -12879,9 +13663,7 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AB54" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
@@ -12889,14 +13671,16 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-    </row>
-    <row r="55" spans="2:37" outlineLevel="4">
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+    </row>
+    <row r="55" spans="2:39" outlineLevel="1">
       <c r="B55" s="27"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
@@ -12932,14 +13716,16 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-    </row>
-    <row r="56" spans="2:37" outlineLevel="4">
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+    </row>
+    <row r="56" spans="2:39" outlineLevel="1">
       <c r="B56" s="27"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
@@ -12975,15 +13761,17 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-    </row>
-    <row r="57" spans="2:37" outlineLevel="5">
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+    </row>
+    <row r="57" spans="2:39" outlineLevel="2">
       <c r="B57" s="27"/>
       <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
@@ -13018,15 +13806,17 @@
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-    </row>
-    <row r="58" spans="2:37" outlineLevel="5">
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+    </row>
+    <row r="58" spans="2:39" outlineLevel="2">
       <c r="B58" s="27"/>
       <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
@@ -13061,16 +13851,18 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-    </row>
-    <row r="59" spans="2:37" outlineLevel="6">
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+    </row>
+    <row r="59" spans="2:39" outlineLevel="3">
       <c r="B59" s="27"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
@@ -13104,16 +13896,18 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-    </row>
-    <row r="60" spans="2:37" outlineLevel="6">
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+    </row>
+    <row r="60" spans="2:39" outlineLevel="3">
       <c r="B60" s="27"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
@@ -13147,17 +13941,19 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-    </row>
-    <row r="61" spans="2:37" outlineLevel="7">
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+    </row>
+    <row r="61" spans="2:39" outlineLevel="4">
       <c r="B61" s="27"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
       <c r="K61" s="37"/>
@@ -13190,17 +13986,19 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-    </row>
-    <row r="62" spans="2:37" outlineLevel="7">
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+    </row>
+    <row r="62" spans="2:39" outlineLevel="4">
       <c r="B62" s="27"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="37"/>
       <c r="J62" s="37"/>
       <c r="K62" s="37"/>
@@ -13233,16 +14031,18 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
-      <c r="AJ62" s="1"/>
-      <c r="AK62" s="1"/>
-    </row>
-    <row r="63" spans="2:37" outlineLevel="6">
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+    </row>
+    <row r="63" spans="2:39" outlineLevel="5">
       <c r="B63" s="27"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
+      <c r="G63" s="37"/>
       <c r="H63" s="37"/>
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
@@ -13276,10 +14076,12 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
-      <c r="AJ63" s="1"/>
-      <c r="AK63" s="1"/>
-    </row>
-    <row r="64" spans="2:37" outlineLevel="5">
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+    </row>
+    <row r="64" spans="2:39" outlineLevel="5">
       <c r="B64" s="27"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
@@ -13319,16 +14121,18 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
-      <c r="AJ64" s="1"/>
-      <c r="AK64" s="1"/>
-    </row>
-    <row r="65" spans="2:37" outlineLevel="4">
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+    </row>
+    <row r="65" spans="2:39" outlineLevel="6">
       <c r="B65" s="27"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="37"/>
       <c r="I65" s="37"/>
       <c r="J65" s="37"/>
@@ -13362,16 +14166,18 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
-      <c r="AJ65" s="1"/>
-      <c r="AK65" s="1"/>
-    </row>
-    <row r="66" spans="2:37" outlineLevel="3">
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="2"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+    </row>
+    <row r="66" spans="2:39" outlineLevel="6">
       <c r="B66" s="27"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="37"/>
       <c r="I66" s="37"/>
       <c r="J66" s="37"/>
@@ -13405,17 +14211,19 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-    </row>
-    <row r="67" spans="2:37" outlineLevel="3">
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+    </row>
+    <row r="67" spans="2:39" outlineLevel="7">
       <c r="B67" s="27"/>
       <c r="C67" s="26"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
       <c r="I67" s="37"/>
       <c r="J67" s="37"/>
       <c r="K67" s="37"/>
@@ -13448,17 +14256,19 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-    </row>
-    <row r="68" spans="2:37" outlineLevel="2">
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+    </row>
+    <row r="68" spans="2:39" outlineLevel="7">
       <c r="B68" s="27"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
       <c r="I68" s="37"/>
       <c r="J68" s="37"/>
       <c r="K68" s="37"/>
@@ -13491,16 +14301,18 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-    </row>
-    <row r="69" spans="2:37">
-      <c r="B69" s="36"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+    </row>
+    <row r="69" spans="2:39" outlineLevel="6">
+      <c r="B69" s="27"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
       <c r="J69" s="37"/>
@@ -13534,82 +14346,360 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-    </row>
-    <row r="72" spans="2:37" ht="15" customHeight="1"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+    </row>
+    <row r="70" spans="2:39" outlineLevel="5">
+      <c r="B70" s="27"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+    </row>
+    <row r="71" spans="2:39" outlineLevel="4">
+      <c r="B71" s="27"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="38"/>
+      <c r="AA71" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+    </row>
+    <row r="72" spans="2:39" outlineLevel="3">
+      <c r="B72" s="27"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="2"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+    </row>
+    <row r="73" spans="2:39" outlineLevel="3">
+      <c r="B73" s="27"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="38"/>
+      <c r="AA73" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="2"/>
+      <c r="AH73" s="2"/>
+      <c r="AI73" s="2"/>
+      <c r="AJ73" s="2"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+    </row>
+    <row r="74" spans="2:39" outlineLevel="2">
+      <c r="B74" s="27"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="38"/>
+      <c r="AA74" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="2"/>
+      <c r="AH74" s="2"/>
+      <c r="AI74" s="2"/>
+      <c r="AJ74" s="2"/>
+      <c r="AK74" s="2"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+    </row>
+    <row r="75" spans="2:39">
+      <c r="B75" s="36"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+    </row>
+    <row r="78" spans="2:39" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="76">
+    <mergeCell ref="B19:Z19"/>
+    <mergeCell ref="B22:Z22"/>
+    <mergeCell ref="C24:Z24"/>
+    <mergeCell ref="C23:Z23"/>
+    <mergeCell ref="C6:Z6"/>
+    <mergeCell ref="C18:Z18"/>
+    <mergeCell ref="C10:Z10"/>
+    <mergeCell ref="D11:Z11"/>
+    <mergeCell ref="C12:Z12"/>
+    <mergeCell ref="D13:Z13"/>
+    <mergeCell ref="C14:Z14"/>
+    <mergeCell ref="D15:Z15"/>
+    <mergeCell ref="C16:Z16"/>
+    <mergeCell ref="D17:Z17"/>
+    <mergeCell ref="B27:Z27"/>
+    <mergeCell ref="B37:Z37"/>
+    <mergeCell ref="B25:Z25"/>
+    <mergeCell ref="B26:Z26"/>
+    <mergeCell ref="B40:Z40"/>
     <mergeCell ref="B39:Z39"/>
-    <mergeCell ref="B41:Z41"/>
-    <mergeCell ref="B42:Z42"/>
+    <mergeCell ref="E60:Z60"/>
+    <mergeCell ref="F61:Z61"/>
+    <mergeCell ref="F62:Z62"/>
+    <mergeCell ref="B75:Z75"/>
+    <mergeCell ref="G64:Z64"/>
+    <mergeCell ref="H65:Z65"/>
+    <mergeCell ref="H66:Z66"/>
+    <mergeCell ref="I67:Z67"/>
+    <mergeCell ref="I68:Z68"/>
+    <mergeCell ref="H69:Z69"/>
+    <mergeCell ref="G70:Z70"/>
+    <mergeCell ref="F71:Z71"/>
+    <mergeCell ref="E72:Z72"/>
+    <mergeCell ref="D73:Z73"/>
+    <mergeCell ref="C74:Z74"/>
+    <mergeCell ref="B51:Z51"/>
+    <mergeCell ref="B45:Z45"/>
+    <mergeCell ref="B46:Z46"/>
+    <mergeCell ref="D58:Z58"/>
+    <mergeCell ref="E59:Z59"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="G63:Z63"/>
+    <mergeCell ref="B20:Z20"/>
+    <mergeCell ref="B21:Z21"/>
+    <mergeCell ref="B54:Z54"/>
+    <mergeCell ref="C55:Z55"/>
+    <mergeCell ref="C56:Z56"/>
+    <mergeCell ref="D57:Z57"/>
+    <mergeCell ref="B53:Z53"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="B52:Z52"/>
     <mergeCell ref="B43:Z43"/>
-    <mergeCell ref="C23:Z23"/>
-    <mergeCell ref="C24:Z24"/>
-    <mergeCell ref="B26:Z26"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="C29:Z29"/>
-    <mergeCell ref="C30:Z30"/>
-    <mergeCell ref="C31:Z31"/>
+    <mergeCell ref="B50:Z50"/>
     <mergeCell ref="B5:Z5"/>
     <mergeCell ref="C7:Z7"/>
     <mergeCell ref="D8:Z8"/>
     <mergeCell ref="D9:Z9"/>
     <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="G57:Z57"/>
-    <mergeCell ref="B15:Z15"/>
-    <mergeCell ref="B16:Z16"/>
+    <mergeCell ref="B41:Z41"/>
+    <mergeCell ref="B47:Z47"/>
     <mergeCell ref="B48:Z48"/>
-    <mergeCell ref="C49:Z49"/>
-    <mergeCell ref="C50:Z50"/>
-    <mergeCell ref="D51:Z51"/>
-    <mergeCell ref="B47:Z47"/>
-    <mergeCell ref="B25:Z25"/>
-    <mergeCell ref="B46:Z46"/>
-    <mergeCell ref="B35:Z35"/>
+    <mergeCell ref="B49:Z49"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="C29:Z29"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="C32:Z32"/>
+    <mergeCell ref="C33:Z33"/>
+    <mergeCell ref="C34:Z34"/>
+    <mergeCell ref="C35:Z35"/>
+    <mergeCell ref="C36:Z36"/>
+    <mergeCell ref="B38:Z38"/>
     <mergeCell ref="B44:Z44"/>
-    <mergeCell ref="B40:Z40"/>
-    <mergeCell ref="B45:Z45"/>
-    <mergeCell ref="B37:Z37"/>
-    <mergeCell ref="B38:Z38"/>
-    <mergeCell ref="D52:Z52"/>
-    <mergeCell ref="E53:Z53"/>
-    <mergeCell ref="E54:Z54"/>
-    <mergeCell ref="F55:Z55"/>
-    <mergeCell ref="F56:Z56"/>
-    <mergeCell ref="B69:Z69"/>
-    <mergeCell ref="G58:Z58"/>
-    <mergeCell ref="H59:Z59"/>
-    <mergeCell ref="H60:Z60"/>
-    <mergeCell ref="I61:Z61"/>
-    <mergeCell ref="I62:Z62"/>
-    <mergeCell ref="H63:Z63"/>
-    <mergeCell ref="G64:Z64"/>
-    <mergeCell ref="F65:Z65"/>
-    <mergeCell ref="E66:Z66"/>
-    <mergeCell ref="D67:Z67"/>
-    <mergeCell ref="C68:Z68"/>
-    <mergeCell ref="B36:Z36"/>
-    <mergeCell ref="B22:Z22"/>
-    <mergeCell ref="B32:Z32"/>
-    <mergeCell ref="B20:Z20"/>
-    <mergeCell ref="B21:Z21"/>
-    <mergeCell ref="B33:Z33"/>
-    <mergeCell ref="B34:Z34"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="B17:Z17"/>
-    <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="C18:Z18"/>
-    <mergeCell ref="C6:Z6"/>
-    <mergeCell ref="C13:Z13"/>
-    <mergeCell ref="C10:Z10"/>
-    <mergeCell ref="D11:Z11"/>
-    <mergeCell ref="D12:Z12"/>
+    <mergeCell ref="B42:Z42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13622,10 +14712,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AK34"/>
+  <dimension ref="B1:AK49"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:Z10"/>
+      <selection activeCell="B14" sqref="B14:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -13646,42 +14736,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
       <c r="AA1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
       <c r="AF1" s="28"/>
       <c r="AG1" s="28"/>
       <c r="AH1" s="28"/>
@@ -13722,7 +14812,7 @@
       <c r="Y2" s="37"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA31" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA46" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v/>
       </c>
       <c r="AB2" s="2" t="s">
@@ -14120,8 +15210,10 @@
       </c>
       <c r="AK9" s="1"/>
     </row>
-    <row r="10" spans="2:37" ht="90" customHeight="1">
-      <c r="B10" s="36"/>
+    <row r="10" spans="2:37">
+      <c r="B10" s="36" t="s">
+        <v>334</v>
+      </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -14147,8 +15239,8 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="38"/>
       <c r="AA10" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+        <f t="shared" ref="AA10:AA17" ca="1" si="2">IFERROR(OFFSET(A10,0,MATCH("",B10:Z10,-1)),"")</f>
+        <v>helm init --service-account=tiller</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
@@ -14161,8 +15253,10 @@
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
     </row>
-    <row r="11" spans="2:37" outlineLevel="1">
-      <c r="B11" s="10"/>
+    <row r="11" spans="2:37">
+      <c r="B11" s="36" t="s">
+        <v>335</v>
+      </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -14188,12 +15282,10 @@
       <c r="Y11" s="37"/>
       <c r="Z11" s="38"/>
       <c r="AA11" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>6</v>
-      </c>
+        <f t="shared" ca="1" si="2"/>
+        <v>helm update</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -14204,8 +15296,10 @@
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="2:37" outlineLevel="1">
-      <c r="B12" s="10"/>
+    <row r="12" spans="2:37">
+      <c r="B12" s="36" t="s">
+        <v>336</v>
+      </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -14231,12 +15325,10 @@
       <c r="Y12" s="37"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>6</v>
-      </c>
+        <f t="shared" ca="1" si="2"/>
+        <v>helm version</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -14247,9 +15339,11 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="2:37" outlineLevel="2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
+    <row r="13" spans="2:37" ht="32.25" customHeight="1">
+      <c r="B13" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -14274,12 +15368,10 @@
       <c r="Y13" s="37"/>
       <c r="Z13" s="38"/>
       <c r="AA13" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>6</v>
-      </c>
+        <f t="shared" ca="1" si="2"/>
+        <v>helm install -n cd stable/jenkins -f jenkins/values.yaml --version 0.16.6 --wait</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -14290,9 +15382,9 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="2:37" outlineLevel="2" collapsed="1">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
+    <row r="14" spans="2:37">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -14317,12 +15409,10 @@
       <c r="Y14" s="37"/>
       <c r="Z14" s="38"/>
       <c r="AA14" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="AB14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -14333,10 +15423,10 @@
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="2:37" hidden="1" outlineLevel="3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+    <row r="15" spans="2:37">
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -14360,12 +15450,10 @@
       <c r="Y15" s="37"/>
       <c r="Z15" s="38"/>
       <c r="AA15" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="AB15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -14376,10 +15464,10 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="2:37" hidden="1" outlineLevel="3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+    <row r="16" spans="2:37">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -14403,12 +15491,10 @@
       <c r="Y16" s="37"/>
       <c r="Z16" s="38"/>
       <c r="AA16" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="AB16" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -14419,11 +15505,11 @@
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="2:37" hidden="1" outlineLevel="4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+    <row r="17" spans="2:37">
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
@@ -14446,12 +15532,10 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="38"/>
       <c r="AA17" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="AB17" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -14462,11 +15546,11 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="2:37" hidden="1" outlineLevel="4">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+    <row r="18" spans="2:37">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -14489,12 +15573,10 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="38"/>
       <c r="AA18" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA18:AA21" ca="1" si="3">IFERROR(OFFSET(A18,0,MATCH("",B18:Z18,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB18" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -14505,12 +15587,12 @@
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="2:37" hidden="1" outlineLevel="5">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+    <row r="19" spans="2:37">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
@@ -14532,12 +15614,10 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="38"/>
       <c r="AA19" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="AB19" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -14548,12 +15628,12 @@
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="2:37" hidden="1" outlineLevel="5">
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+    <row r="20" spans="2:37">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
@@ -14575,12 +15655,10 @@
       <c r="Y20" s="37"/>
       <c r="Z20" s="38"/>
       <c r="AA20" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="AB20" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -14591,13 +15669,13 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="2:37" hidden="1" outlineLevel="6">
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+    <row r="21" spans="2:37">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
@@ -14618,12 +15696,10 @@
       <c r="Y21" s="37"/>
       <c r="Z21" s="38"/>
       <c r="AA21" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="AB21" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -14634,13 +15710,13 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="2:37" hidden="1" outlineLevel="6">
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+    <row r="22" spans="2:37">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -14661,12 +15737,10 @@
       <c r="Y22" s="37"/>
       <c r="Z22" s="38"/>
       <c r="AA22" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA22:AA23" ca="1" si="4">IFERROR(OFFSET(A22,0,MATCH("",B22:Z22,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB22" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -14677,14 +15751,14 @@
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="2:37" hidden="1" outlineLevel="7">
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+    <row r="23" spans="2:37">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
@@ -14704,12 +15778,10 @@
       <c r="Y23" s="37"/>
       <c r="Z23" s="38"/>
       <c r="AA23" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
-      <c r="AB23" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
@@ -14720,14 +15792,14 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="2:37" hidden="1" outlineLevel="7">
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+    <row r="24" spans="2:37">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
@@ -14747,12 +15819,10 @@
       <c r="Y24" s="37"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="AA24" ca="1" si="5">IFERROR(OFFSET(A24,0,MATCH("",B24:Z24,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB24" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
@@ -14763,13 +15833,13 @@
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="2:37" hidden="1" outlineLevel="6">
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+    <row r="25" spans="2:37">
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -14793,9 +15863,7 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AB25" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
@@ -14806,12 +15874,12 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="2:37" hidden="1" outlineLevel="5">
+    <row r="26" spans="2:37" outlineLevel="1">
       <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
@@ -14849,11 +15917,11 @@
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="2:37" hidden="1" outlineLevel="4">
+    <row r="27" spans="2:37" outlineLevel="1">
       <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -14892,10 +15960,10 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="2:37" hidden="1" outlineLevel="3">
+    <row r="28" spans="2:37" outlineLevel="2">
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -14935,7 +16003,7 @@
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
     </row>
-    <row r="29" spans="2:37" hidden="1" outlineLevel="3">
+    <row r="29" spans="2:37" outlineLevel="2" collapsed="1">
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="D29" s="37"/>
@@ -14978,10 +16046,10 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="2:37" outlineLevel="2">
+    <row r="30" spans="2:37" hidden="1" outlineLevel="3">
       <c r="B30" s="10"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -15021,10 +16089,10 @@
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="2:37">
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+    <row r="31" spans="2:37" hidden="1" outlineLevel="3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -15064,12 +16132,688 @@
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
     </row>
-    <row r="34" ht="15" customHeight="1"/>
+    <row r="32" spans="2:37" hidden="1" outlineLevel="4">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+    </row>
+    <row r="33" spans="2:37" hidden="1" outlineLevel="4">
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+    </row>
+    <row r="34" spans="2:37" hidden="1" outlineLevel="5">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+    </row>
+    <row r="35" spans="2:37" hidden="1" outlineLevel="5">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+    </row>
+    <row r="36" spans="2:37" hidden="1" outlineLevel="6">
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+    </row>
+    <row r="37" spans="2:37" hidden="1" outlineLevel="6">
+      <c r="B37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+    </row>
+    <row r="38" spans="2:37" hidden="1" outlineLevel="7">
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+    </row>
+    <row r="39" spans="2:37" hidden="1" outlineLevel="7">
+      <c r="B39" s="10"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+    </row>
+    <row r="40" spans="2:37" hidden="1" outlineLevel="6">
+      <c r="B40" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+    </row>
+    <row r="41" spans="2:37" hidden="1" outlineLevel="5">
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+    </row>
+    <row r="42" spans="2:37" hidden="1" outlineLevel="4">
+      <c r="B42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+    </row>
+    <row r="43" spans="2:37" hidden="1" outlineLevel="3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+    </row>
+    <row r="44" spans="2:37" hidden="1" outlineLevel="3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+    </row>
+    <row r="45" spans="2:37" outlineLevel="2">
+      <c r="B45" s="10"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+    </row>
+    <row r="46" spans="2:37">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+    </row>
+    <row r="49" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="47">
+    <mergeCell ref="B19:Z19"/>
+    <mergeCell ref="B20:Z20"/>
+    <mergeCell ref="B21:Z21"/>
+    <mergeCell ref="B10:Z10"/>
+    <mergeCell ref="B11:Z11"/>
+    <mergeCell ref="B12:Z12"/>
+    <mergeCell ref="B13:Z13"/>
+    <mergeCell ref="B14:Z14"/>
+    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="B16:Z16"/>
+    <mergeCell ref="B17:Z17"/>
+    <mergeCell ref="C45:Z45"/>
+    <mergeCell ref="B46:Z46"/>
+    <mergeCell ref="I39:Z39"/>
+    <mergeCell ref="H40:Z40"/>
+    <mergeCell ref="G41:Z41"/>
+    <mergeCell ref="F42:Z42"/>
+    <mergeCell ref="E43:Z43"/>
+    <mergeCell ref="D44:Z44"/>
+    <mergeCell ref="I38:Z38"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="D29:Z29"/>
+    <mergeCell ref="E30:Z30"/>
+    <mergeCell ref="E31:Z31"/>
+    <mergeCell ref="F32:Z32"/>
+    <mergeCell ref="F33:Z33"/>
+    <mergeCell ref="G34:Z34"/>
+    <mergeCell ref="G35:Z35"/>
+    <mergeCell ref="H36:Z36"/>
+    <mergeCell ref="H37:Z37"/>
     <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B10:Z10"/>
-    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="B25:Z25"/>
+    <mergeCell ref="C26:Z26"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="B2:Z2"/>
@@ -15079,26 +16823,10 @@
     <mergeCell ref="B5:Z5"/>
     <mergeCell ref="B6:Z6"/>
     <mergeCell ref="B9:Z9"/>
-    <mergeCell ref="I23:Z23"/>
-    <mergeCell ref="C12:Z12"/>
-    <mergeCell ref="D13:Z13"/>
-    <mergeCell ref="D14:Z14"/>
-    <mergeCell ref="E15:Z15"/>
-    <mergeCell ref="E16:Z16"/>
-    <mergeCell ref="F17:Z17"/>
-    <mergeCell ref="F18:Z18"/>
-    <mergeCell ref="G19:Z19"/>
-    <mergeCell ref="G20:Z20"/>
-    <mergeCell ref="H21:Z21"/>
-    <mergeCell ref="H22:Z22"/>
-    <mergeCell ref="C30:Z30"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="I24:Z24"/>
-    <mergeCell ref="H25:Z25"/>
-    <mergeCell ref="G26:Z26"/>
-    <mergeCell ref="F27:Z27"/>
-    <mergeCell ref="E28:Z28"/>
-    <mergeCell ref="D29:Z29"/>
+    <mergeCell ref="B24:Z24"/>
+    <mergeCell ref="B22:Z22"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="B18:Z18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15134,42 +16862,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
       <c r="AA1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
       <c r="AF1" s="28"/>
       <c r="AG1" s="28"/>
       <c r="AH1" s="28"/>
@@ -15212,19 +16940,19 @@
         <v/>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="1"/>
@@ -16392,16 +18120,14 @@
     <row r="32" spans="2:37" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="B5:Z5"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="B7:Z7"/>
-    <mergeCell ref="B8:Z8"/>
-    <mergeCell ref="C9:Z9"/>
-    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B29:Z29"/>
+    <mergeCell ref="I22:Z22"/>
+    <mergeCell ref="H23:Z23"/>
+    <mergeCell ref="G24:Z24"/>
+    <mergeCell ref="F25:Z25"/>
+    <mergeCell ref="E26:Z26"/>
+    <mergeCell ref="D27:Z27"/>
     <mergeCell ref="I21:Z21"/>
     <mergeCell ref="C10:Z10"/>
     <mergeCell ref="D11:Z11"/>
@@ -16414,14 +18140,16 @@
     <mergeCell ref="G18:Z18"/>
     <mergeCell ref="H19:Z19"/>
     <mergeCell ref="H20:Z20"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B29:Z29"/>
-    <mergeCell ref="I22:Z22"/>
-    <mergeCell ref="H23:Z23"/>
-    <mergeCell ref="G24:Z24"/>
-    <mergeCell ref="F25:Z25"/>
-    <mergeCell ref="E26:Z26"/>
-    <mergeCell ref="D27:Z27"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="B7:Z7"/>
+    <mergeCell ref="B8:Z8"/>
+    <mergeCell ref="C9:Z9"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="B5:Z5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="393">
   <si>
     <t>Details</t>
   </si>
@@ -585,10 +585,6 @@
     <t>Revokes read access from all users to a file in a Google Cloud Storage Bucket.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Region:</t>
   </si>
   <si>
@@ -1460,6 +1456,73 @@
   </si>
   <si>
     <t>Lists images in your Google Container Registry.</t>
+  </si>
+  <si>
+    <t>gcloud app</t>
+  </si>
+  <si>
+    <t>gcloud datastore</t>
+  </si>
+  <si>
+    <t>Version:</t>
+  </si>
+  <si>
+    <t>index.yaml</t>
+  </si>
+  <si>
+    <t>Manages Google App Engine deployments.</t>
+  </si>
+  <si>
+    <t>Creates a GAE application within the current Google Cloud Project.</t>
+  </si>
+  <si>
+    <t>Deploys local code and/or configuration of current project's application to GAE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If no deployables are specified, the command defaults to app.yaml in the current directory. If that is not found, attempts to automatically generate necessary configuration files (such as app.yaml) in the current directory.
+ </t>
+  </si>
+  <si>
+    <t>Deployables:</t>
+  </si>
+  <si>
+    <t>Manges cloud datasore indexes.</t>
+  </si>
+  <si>
+    <t>Creates new datastore indexes.</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>Clones a cloud git repository.</t>
+  </si>
+  <si>
+    <t>Like "git clone" but with less shit.</t>
+  </si>
+  <si>
+    <t>gcloud debug</t>
+  </si>
+  <si>
+    <t>Commands for interacting with the Cloud Debugger.</t>
+  </si>
+  <si>
+    <t>Commands for interacting with Cloud Debugger logpoints.</t>
+  </si>
+  <si>
+    <t>Lists debug logpoints.</t>
+  </si>
+  <si>
+    <t>Creates debug logpoints.</t>
+  </si>
+  <si>
+    <t>guestbook.py:74</t>
+  </si>
+  <si>
+    <t>Log format:</t>
+  </si>
+  <si>
+    <t>"Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</t>
   </si>
 </sst>
 </file>
@@ -2093,10 +2156,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AQ118"/>
+  <dimension ref="B1:AQ130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:Z52"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="AA96" sqref="AA96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2176,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:43" ht="30">
+    <row r="2" spans="2:43" ht="30" collapsed="1">
       <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
@@ -2205,7 +2268,7 @@
       <c r="Y2" s="37"/>
       <c r="Z2" s="38"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA104" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA116" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>gcloud compute</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -2229,7 +2292,7 @@
       </c>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="2:43" outlineLevel="1">
+    <row r="3" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B3" s="10"/>
       <c r="C3" s="37" t="str">
         <f>B$2&amp;" instances"</f>
@@ -2283,7 +2346,7 @@
       </c>
       <c r="AQ3" s="1"/>
     </row>
-    <row r="4" spans="2:43" ht="30" outlineLevel="2">
+    <row r="4" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
       <c r="D4" s="39" t="str">
@@ -2320,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>11</v>
@@ -2329,25 +2392,25 @@
         <v>12</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG4" s="5"/>
       <c r="AH4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM4" s="5"/>
       <c r="AN4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AO4" s="5"/>
       <c r="AP4" s="1" t="s">
@@ -2355,7 +2418,7 @@
       </c>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="2:43" outlineLevel="2">
+    <row r="5" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="37" t="str">
@@ -2423,7 +2486,7 @@
       </c>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="2:43" outlineLevel="2">
+    <row r="6" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="37" t="str">
@@ -2479,11 +2542,11 @@
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="2:43" outlineLevel="2">
+    <row r="7" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
       <c r="D7" s="37" t="str">
@@ -2535,11 +2598,11 @@
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
       <c r="AP7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="2:43" outlineLevel="1">
+    <row r="8" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B8" s="12"/>
       <c r="C8" s="37" t="str">
         <f>B$2&amp;" disks"</f>
@@ -2593,7 +2656,7 @@
       </c>
       <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="2:43" outlineLevel="2">
+    <row r="9" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="37" t="str">
@@ -2657,7 +2720,7 @@
       </c>
       <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="2:43" outlineLevel="2">
+    <row r="10" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="37" t="str">
@@ -2715,7 +2778,7 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="2:43" outlineLevel="1">
+    <row r="11" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B11" s="12"/>
       <c r="C11" s="37" t="str">
         <f>B$2&amp;" ssh"</f>
@@ -2769,7 +2832,7 @@
       </c>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="2:43" outlineLevel="2">
+    <row r="12" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
       <c r="D12" s="37" t="str">
@@ -2829,7 +2892,7 @@
       </c>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="2:43" outlineLevel="1">
+    <row r="13" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B13" s="15"/>
       <c r="C13" s="37" t="str">
         <f>B$2&amp;" instance-templates"</f>
@@ -2879,11 +2942,11 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="2:43" ht="53.25" customHeight="1" outlineLevel="2">
+    <row r="14" spans="2:43" ht="53.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="39" t="str">
@@ -2917,47 +2980,47 @@
         <v>gcloud compute instance-templates create europe-west1-template --metadata startup-script-url=gs://cloudnet-lab/startup.sh --region europe-west1 --network httplb --tags www</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE14" s="5"/>
       <c r="AF14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG14" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AG14" s="5" t="s">
+      <c r="AH14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AH14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI14" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="AK14" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM14" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="2:43" outlineLevel="1">
+    <row r="15" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B15" s="15"/>
       <c r="C15" s="37" t="str">
         <f>B$2&amp;" target-pools"</f>
@@ -3007,11 +3070,11 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AQ15" s="1"/>
     </row>
-    <row r="16" spans="2:43" outlineLevel="2">
+    <row r="16" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="37" t="str">
@@ -3045,10 +3108,10 @@
         <v>gcloud compute target-pools create nginx-pool</v>
       </c>
       <c r="AB16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC16" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -3063,11 +3126,11 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="2:43" outlineLevel="1">
+    <row r="17" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B17" s="15"/>
       <c r="C17" s="37" t="str">
         <f>B$2&amp;" instance-groups"</f>
@@ -3117,11 +3180,11 @@
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="2:43" outlineLevel="2">
+    <row r="18" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="39" t="str">
@@ -3171,11 +3234,11 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
       <c r="AP18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="2:43" ht="41.25" customHeight="1" outlineLevel="3">
+    <row r="19" spans="2:43" ht="41.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -3209,16 +3272,16 @@
         <v>gcloud compute instance-groups managed create nginx-group --template nginx-template --size 2 --base-instance-name nginx --target-pool nginx-pool</v>
       </c>
       <c r="AB19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AC19" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="AD19" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF19" s="21" t="s">
         <v>41</v>
@@ -3227,27 +3290,27 @@
         <v>2</v>
       </c>
       <c r="AH19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AJ19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK19" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ19" s="1"/>
     </row>
-    <row r="20" spans="2:43" ht="28.5" customHeight="1" outlineLevel="3" collapsed="1">
+    <row r="20" spans="2:43" ht="28.5" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -3281,16 +3344,16 @@
         <v>gcloud compute instance-groups managed set-named-ports nginx-group --named-ports http:80</v>
       </c>
       <c r="AB20" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AC20" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="AD20" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE20" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -3303,11 +3366,11 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ20" s="1"/>
     </row>
-    <row r="21" spans="2:43" outlineLevel="2">
+    <row r="21" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="39" t="str">
@@ -3357,11 +3420,11 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AQ21" s="1"/>
     </row>
-    <row r="22" spans="2:43" ht="41.25" customHeight="1" outlineLevel="3">
+    <row r="22" spans="2:43" ht="41.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -3395,16 +3458,16 @@
         <v>gcloud compute instance-groups unmanaged create europe-resources-w --zone europe-west1-b</v>
       </c>
       <c r="AB22" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD22" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -3417,11 +3480,11 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AQ22" s="1"/>
     </row>
-    <row r="23" spans="2:43" ht="41.25" customHeight="1" outlineLevel="3">
+    <row r="23" spans="2:43" ht="41.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -3455,22 +3518,22 @@
         <v>gcloud compute instance-groups unmanaged add-instances europe-resources-w --instances www-3,www-4 --zone europe-west1-b</v>
       </c>
       <c r="AB23" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE23" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="AE23" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="AF23" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
@@ -3481,11 +3544,11 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AQ23" s="1"/>
     </row>
-    <row r="24" spans="2:43" ht="41.25" customHeight="1" outlineLevel="3">
+    <row r="24" spans="2:43" ht="41.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -3519,22 +3582,22 @@
         <v>gcloud compute instance-groups unmanaged set-named-ports europe-resources-w --named-ports http:80 --zone europe-west1-b</v>
       </c>
       <c r="AB24" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD24" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE24" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="AE24" s="23" t="s">
-        <v>103</v>
       </c>
       <c r="AF24" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
@@ -3545,11 +3608,11 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AQ24" s="1"/>
     </row>
-    <row r="25" spans="2:43" ht="30" outlineLevel="2">
+    <row r="25" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="39" t="str">
@@ -3583,16 +3646,16 @@
         <v>gcloud compute url-maps create web-map --default-backend-bucket nginx-backend</v>
       </c>
       <c r="AB25" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AC25" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="AD25" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -3605,11 +3668,11 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="2:43" outlineLevel="1">
+    <row r="26" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B26" s="15"/>
       <c r="C26" s="37" t="str">
         <f>B$2&amp;" firewall-rules"</f>
@@ -3659,11 +3722,11 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AQ26" s="1"/>
     </row>
-    <row r="27" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
+    <row r="27" spans="2:43" ht="50.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="39" t="str">
@@ -3697,43 +3760,43 @@
         <v>gcloud compute firewall-rules create allow-lb-and-healthcheck --allow tcp:80 --source-ranges 130.211.0.0/22,35.191.0.0/16 --target-tags http-tag</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AD27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AE27" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="AF27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG27" s="5"/>
       <c r="AH27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK27" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
+    <row r="28" spans="2:43" ht="50.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="39" t="str">
@@ -3767,10 +3830,10 @@
         <v>gcloud compute firewall-rules delete www-firewall</v>
       </c>
       <c r="AB28" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
@@ -3785,11 +3848,11 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="2:43" ht="30" outlineLevel="1">
+    <row r="29" spans="2:43" ht="30" hidden="1" outlineLevel="1">
       <c r="B29" s="15"/>
       <c r="C29" s="37" t="str">
         <f>B$2&amp;" forwarding-rules"</f>
@@ -3839,11 +3902,11 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
-    <row r="30" spans="2:43" outlineLevel="2">
+    <row r="30" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="39" t="str">
@@ -3893,11 +3956,11 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="2:43" ht="30.75" customHeight="1" outlineLevel="3">
+    <row r="31" spans="2:43" ht="30.75" hidden="1" customHeight="1" outlineLevel="3">
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -3931,23 +3994,23 @@
         <v>gcloud compute forwarding-rules create http-cr-rule --target-pool  --ports=80 --global</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE31" s="5"/>
       <c r="AF31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG31" s="5">
         <v>80</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="2"/>
@@ -3957,11 +4020,11 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="2:43" ht="38.25" customHeight="1" outlineLevel="3" collapsed="1">
+    <row r="32" spans="2:43" ht="38.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -3995,43 +4058,43 @@
         <v>gcloud compute forwarding-rules create http-cr-rule --target-http-proxy http-lb-proxy --ports=80 --global --address 123.456.789.123</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE32" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AE32" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="AF32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG32" s="5">
         <v>80</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK32" s="25" t="s">
         <v>196</v>
-      </c>
-      <c r="AK32" s="25" t="s">
-        <v>197</v>
       </c>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AQ32" s="1"/>
     </row>
-    <row r="33" spans="2:43" outlineLevel="2">
+    <row r="33" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="39"/>
@@ -4080,7 +4143,7 @@
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
     </row>
-    <row r="34" spans="2:43" outlineLevel="2">
+    <row r="34" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="37" t="str">
@@ -4130,11 +4193,11 @@
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
       <c r="AP34" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="2:43" outlineLevel="1">
+    <row r="35" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B35" s="15"/>
       <c r="C35" s="38" t="str">
         <f>B$2&amp;" health-checks"</f>
@@ -4181,7 +4244,7 @@
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
     </row>
-    <row r="36" spans="2:43" ht="30" outlineLevel="2">
+    <row r="36" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="39" t="str">
@@ -4215,16 +4278,16 @@
         <v>gcloud compute health-checks create http http-basic-check</v>
       </c>
       <c r="AB36" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD36" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -4237,11 +4300,11 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
       <c r="AP36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="2:43" ht="135" outlineLevel="1">
+    <row r="37" spans="2:43" ht="135" hidden="1" outlineLevel="1">
       <c r="B37" s="15"/>
       <c r="C37" s="37" t="str">
         <f>B$2&amp;" backend-services"</f>
@@ -4291,13 +4354,13 @@
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AQ37" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="2:43" ht="45" outlineLevel="2">
+    </row>
+    <row r="38" spans="2:43" ht="45" hidden="1" outlineLevel="2">
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
       <c r="D38" s="39" t="str">
@@ -4331,41 +4394,41 @@
         <v>gcloud compute backend-services create web-map-backend-service --protocol HTTP --global</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD38" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE38" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AE38" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="AF38" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK38" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AQ38" s="1"/>
     </row>
-    <row r="39" spans="2:43" ht="60" customHeight="1" outlineLevel="2">
+    <row r="39" spans="2:43" ht="60" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
       <c r="D39" s="39" t="str">
@@ -4399,37 +4462,37 @@
         <v>gcloud compute backend-services add-backend web-map-backend-service --instance-group europe-resources-w --instance-group-zone europe-west1-b --balancing-mode UTILIZATION --max-utilization 0.8 --capacity-scaler 1 --global</v>
       </c>
       <c r="AB39" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD39" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AH39" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI39" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AI39" s="5" t="s">
+      <c r="AJ39" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AJ39" s="2" t="s">
+      <c r="AK39" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="AK39" s="24" t="s">
+      <c r="AL39" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="AL39" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="AM39" s="5">
         <v>1</v>
@@ -4437,11 +4500,11 @@
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ39" s="1"/>
     </row>
-    <row r="40" spans="2:43" outlineLevel="1">
+    <row r="40" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B40" s="15"/>
       <c r="C40" s="37" t="str">
         <f>B$2&amp;" url-maps"</f>
@@ -4491,11 +4554,11 @@
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ40" s="1"/>
     </row>
-    <row r="41" spans="2:43" ht="30" outlineLevel="2">
+    <row r="41" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="39" t="str">
@@ -4529,16 +4592,16 @@
         <v>gcloud compute url-maps create web-map --default-service web-map-backend-service</v>
       </c>
       <c r="AB41" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AC41" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="AD41" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
@@ -4551,11 +4614,11 @@
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AQ41" s="1"/>
     </row>
-    <row r="42" spans="2:43" ht="105" outlineLevel="1">
+    <row r="42" spans="2:43" ht="105" hidden="1" outlineLevel="1">
       <c r="B42" s="15"/>
       <c r="C42" s="37" t="str">
         <f>B$2&amp;" target-http-proxies"</f>
@@ -4605,13 +4668,13 @@
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
       <c r="AP42" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AQ42" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="2:43" ht="30" outlineLevel="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
       <c r="D43" s="39" t="str">
@@ -4645,16 +4708,16 @@
         <v>gcloud compute target-http-proxies create http-lb-proxy --url-map web-map</v>
       </c>
       <c r="AB43" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AC43" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="AD43" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE43" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="AE43" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
@@ -4667,11 +4730,11 @@
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AQ43" s="1"/>
     </row>
-    <row r="44" spans="2:43" outlineLevel="1">
+    <row r="44" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B44" s="15"/>
       <c r="C44" s="37" t="str">
         <f>B$2&amp;" networks"</f>
@@ -4721,11 +4784,11 @@
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ44" s="1"/>
     </row>
-    <row r="45" spans="2:43" ht="30" outlineLevel="2">
+    <row r="45" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="39" t="str">
@@ -4759,16 +4822,16 @@
         <v>gcloud compute networks create custom-network1 --subnet-mode custom</v>
       </c>
       <c r="AB45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AC45" s="5" t="s">
+      <c r="AE45" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="AD45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE45" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
@@ -4781,11 +4844,11 @@
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
       <c r="AP45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AQ45" s="1"/>
     </row>
-    <row r="46" spans="2:43" outlineLevel="2">
+    <row r="46" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B46" s="27"/>
       <c r="C46" s="26"/>
       <c r="D46" s="39" t="str">
@@ -4835,11 +4898,11 @@
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
       <c r="AP46" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AQ46" s="1"/>
     </row>
-    <row r="47" spans="2:43" outlineLevel="2">
+    <row r="47" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
       <c r="D47" s="39" t="str">
@@ -4889,11 +4952,11 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
       <c r="AP47" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AQ47" s="1"/>
     </row>
-    <row r="48" spans="2:43" ht="39.75" customHeight="1" outlineLevel="3">
+    <row r="48" spans="2:43" ht="39.75" hidden="1" customHeight="1" outlineLevel="3">
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -4927,28 +4990,28 @@
         <v>gcloud compute networks subnets create subnet-europe-west-192 --network custom-network1 --region europe-west1 --range 192.168.5.0/24</v>
       </c>
       <c r="AB48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE48" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH48" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AC48" s="5" t="s">
+      <c r="AI48" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="AD48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE48" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG48" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI48" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
@@ -4957,11 +5020,11 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
       <c r="AP48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AQ48" s="1"/>
     </row>
-    <row r="49" spans="2:43" ht="30" outlineLevel="3" collapsed="1">
+    <row r="49" spans="2:43" ht="30" hidden="1" outlineLevel="3" collapsed="1">
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -4995,7 +5058,7 @@
         <v>gcloud compute networks subnets list</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="2"/>
@@ -5011,11 +5074,11 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
       <c r="AP49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ49" s="1"/>
     </row>
-    <row r="50" spans="2:43" outlineLevel="1">
+    <row r="50" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B50" s="15"/>
       <c r="C50" s="37" t="str">
         <f>B$2&amp;" addresses"</f>
@@ -5065,11 +5128,11 @@
       <c r="AN50" s="2"/>
       <c r="AO50" s="2"/>
       <c r="AP50" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ50" s="1"/>
     </row>
-    <row r="51" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
+    <row r="51" spans="2:43" ht="31.5" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
       <c r="D51" s="39" t="str">
@@ -5103,16 +5166,16 @@
         <v>gcloud compute addresses create lb-ipv6-cr --ip-version=IPV6 --global</v>
       </c>
       <c r="AB51" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD51" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="AC51" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD51" s="22" t="s">
-        <v>176</v>
-      </c>
       <c r="AE51" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
@@ -5125,11 +5188,11 @@
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ51" s="1"/>
     </row>
-    <row r="52" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
+    <row r="52" spans="2:43" ht="31.5" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
       <c r="D52" s="39" t="str">
@@ -5179,11 +5242,11 @@
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
       <c r="AP52" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ52" s="1"/>
     </row>
-    <row r="53" spans="2:43" outlineLevel="1">
+    <row r="53" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B53" s="10"/>
       <c r="C53" s="36"/>
       <c r="D53" s="37"/>
@@ -5210,7 +5273,7 @@
       <c r="Y53" s="37"/>
       <c r="Z53" s="38"/>
       <c r="AA53" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB53" s="2" t="s">
         <v>6</v>
@@ -5231,7 +5294,7 @@
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
     </row>
-    <row r="54" spans="2:43">
+    <row r="54" spans="2:43" collapsed="1">
       <c r="B54" s="36" t="s">
         <v>13</v>
       </c>
@@ -5284,7 +5347,7 @@
       </c>
       <c r="AQ54" s="1"/>
     </row>
-    <row r="55" spans="2:43" outlineLevel="1">
+    <row r="55" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B55" s="10"/>
       <c r="C55" s="37" t="str">
         <f>B54&amp;" list"</f>
@@ -5338,7 +5401,7 @@
       </c>
       <c r="AQ55" s="1"/>
     </row>
-    <row r="56" spans="2:43" outlineLevel="1">
+    <row r="56" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B56" s="10"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -5387,9 +5450,9 @@
       <c r="AP56" s="1"/>
       <c r="AQ56" s="1"/>
     </row>
-    <row r="57" spans="2:43">
+    <row r="57" spans="2:43" collapsed="1">
       <c r="B57" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -5440,7 +5503,7 @@
       </c>
       <c r="AQ57" s="1"/>
     </row>
-    <row r="58" spans="2:43" outlineLevel="1">
+    <row r="58" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B58" s="10"/>
       <c r="C58" s="37" t="str">
         <f>B$57&amp;" list project"</f>
@@ -5494,7 +5557,7 @@
       </c>
       <c r="AQ58" s="1"/>
     </row>
-    <row r="59" spans="2:43" outlineLevel="1">
+    <row r="59" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B59" s="10"/>
       <c r="C59" s="37" t="str">
         <f>B$57&amp;" list --all"</f>
@@ -5548,7 +5611,7 @@
       </c>
       <c r="AQ59" s="1"/>
     </row>
-    <row r="60" spans="2:43" outlineLevel="1">
+    <row r="60" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B60" s="15"/>
       <c r="C60" s="37" t="str">
         <f>B$57&amp;" set compute/zone "&amp;AC60</f>
@@ -5600,11 +5663,11 @@
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
       <c r="AP60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AQ60" s="1"/>
     </row>
-    <row r="61" spans="2:43" outlineLevel="1">
+    <row r="61" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B61" s="15"/>
       <c r="C61" s="37" t="str">
         <f>B$57&amp;" set compute/region "&amp;AC61</f>
@@ -5638,10 +5701,10 @@
         <v>gcloud config set compute/region us-central1</v>
       </c>
       <c r="AB61" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC61" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="AC61" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
@@ -5656,11 +5719,11 @@
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
       <c r="AP61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ61" s="1"/>
     </row>
-    <row r="62" spans="2:43" outlineLevel="1">
+    <row r="62" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B62" s="10"/>
       <c r="C62" s="37" t="str">
         <f>B$57&amp;" set project "&amp;AC62</f>
@@ -5694,10 +5757,10 @@
         <v>gcloud config set project whatever</v>
       </c>
       <c r="AB62" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
@@ -5712,7 +5775,7 @@
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
       <c r="AP62" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AQ62" s="1"/>
     </row>
@@ -5772,7 +5835,7 @@
       </c>
       <c r="AQ63" s="1"/>
     </row>
-    <row r="64" spans="2:43">
+    <row r="64" spans="2:43" collapsed="1">
       <c r="B64" s="36" t="s">
         <v>28</v>
       </c>
@@ -5825,7 +5888,7 @@
       </c>
       <c r="AQ64" s="1"/>
     </row>
-    <row r="65" spans="2:43" ht="45" outlineLevel="1">
+    <row r="65" spans="2:43" ht="45" hidden="1" outlineLevel="1">
       <c r="B65" s="10"/>
       <c r="C65" s="37" t="str">
         <f>B64&amp;" --console-only"</f>
@@ -5879,7 +5942,7 @@
       </c>
       <c r="AQ65" s="1"/>
     </row>
-    <row r="66" spans="2:43" outlineLevel="1">
+    <row r="66" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B66" s="10"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -5928,9 +5991,9 @@
       <c r="AP66" s="1"/>
       <c r="AQ66" s="1"/>
     </row>
-    <row r="67" spans="2:43">
+    <row r="67" spans="2:43" collapsed="1">
       <c r="B67" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -5979,7 +6042,7 @@
       <c r="AP67" s="1"/>
       <c r="AQ67" s="1"/>
     </row>
-    <row r="68" spans="2:43" outlineLevel="1">
+    <row r="68" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B68" s="27"/>
       <c r="C68" s="37" t="str">
         <f>B$67&amp;" keyrings"</f>
@@ -6029,13 +6092,13 @@
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
       <c r="AP68" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ68" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AQ68" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="69" spans="2:43" ht="39.75" customHeight="1" outlineLevel="2">
+    </row>
+    <row r="69" spans="2:43" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B69" s="27"/>
       <c r="C69" s="26"/>
       <c r="D69" s="39" t="str">
@@ -6069,16 +6132,16 @@
         <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
       </c>
       <c r="AB69" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC69" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AC69" s="5" t="s">
+      <c r="AD69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AD69" s="2" t="s">
+      <c r="AE69" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="AE69" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
@@ -6091,11 +6154,11 @@
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
       <c r="AP69" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AQ69" s="1"/>
     </row>
-    <row r="70" spans="2:43" ht="60" outlineLevel="2">
+    <row r="70" spans="2:43" ht="60" hidden="1" outlineLevel="2">
       <c r="B70" s="27"/>
       <c r="C70" s="26"/>
       <c r="D70" s="39" t="str">
@@ -6129,28 +6192,28 @@
         <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
       </c>
       <c r="AB70" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC70" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AC70" s="5" t="s">
+      <c r="AD70" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE70" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF70" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG70" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH70" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AD70" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE70" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF70" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG70" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH70" s="2" t="s">
+      <c r="AI70" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="AI70" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="AJ70" s="2"/>
       <c r="AK70" s="2"/>
@@ -6159,13 +6222,13 @@
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
       <c r="AP70" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AQ70" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="2:43" outlineLevel="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B71" s="27"/>
       <c r="C71" s="37" t="str">
         <f>B$67&amp;" keys"</f>
@@ -6215,11 +6278,11 @@
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
       <c r="AP71" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AQ71" s="1"/>
     </row>
-    <row r="72" spans="2:43" ht="39.75" customHeight="1" outlineLevel="2">
+    <row r="72" spans="2:43" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B72" s="27"/>
       <c r="C72" s="26"/>
       <c r="D72" s="39" t="str">
@@ -6253,28 +6316,28 @@
         <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
       </c>
       <c r="AB72" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC72" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AC72" s="5" t="s">
+      <c r="AD72" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE72" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF72" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AD72" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE72" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF72" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="AG72" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH72" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AH72" s="2" t="s">
+      <c r="AI72" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="AI72" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="AJ72" s="2"/>
       <c r="AK72" s="2"/>
@@ -6283,7 +6346,7 @@
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
       <c r="AP72" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AQ72" s="1"/>
     </row>
@@ -6340,9 +6403,9 @@
       </c>
       <c r="AQ73" s="1"/>
     </row>
-    <row r="74" spans="2:43">
+    <row r="74" spans="2:43" collapsed="1">
       <c r="B74" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -6389,11 +6452,11 @@
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
       <c r="AP74" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AQ74" s="1"/>
     </row>
-    <row r="75" spans="2:43" outlineLevel="1">
+    <row r="75" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B75" s="27"/>
       <c r="C75" s="37" t="str">
         <f>B$74&amp;" list --available"</f>
@@ -6443,11 +6506,11 @@
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
       <c r="AP75" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AQ75" s="1"/>
     </row>
-    <row r="76" spans="2:43" outlineLevel="1">
+    <row r="76" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B76" s="27"/>
       <c r="C76" s="37" t="str">
         <f>B$74&amp;" enable "&amp;AC76</f>
@@ -6481,10 +6544,10 @@
         <v>gcloud services enable cloudkms.googleapis.com</v>
       </c>
       <c r="AB76" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC76" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="AC76" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
@@ -6499,13 +6562,13 @@
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
       <c r="AP76" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AQ76" s="1"/>
     </row>
-    <row r="77" spans="2:43">
+    <row r="77" spans="2:43" collapsed="1">
       <c r="B77" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -6554,7 +6617,7 @@
       <c r="AP77" s="1"/>
       <c r="AQ77" s="1"/>
     </row>
-    <row r="78" spans="2:43" outlineLevel="1">
+    <row r="78" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B78" s="27"/>
       <c r="C78" s="37" t="str">
         <f>B$77&amp;" clusters"</f>
@@ -6604,11 +6667,11 @@
       <c r="AN78" s="2"/>
       <c r="AO78" s="2"/>
       <c r="AP78" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AQ78" s="1"/>
     </row>
-    <row r="79" spans="2:43" ht="51" customHeight="1" outlineLevel="2">
+    <row r="79" spans="2:43" ht="51" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B79" s="27"/>
       <c r="C79" s="26"/>
       <c r="D79" s="39" t="str">
@@ -6642,28 +6705,28 @@
         <v>gcloud container clusters create jenkins-cd --num-nodes 2 --machine-type n1-standard-2 --scopes "https://www.googleapis.com/auth/projecthosting,cloud-platform"</v>
       </c>
       <c r="AB79" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC79" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE79" s="5">
         <v>2</v>
       </c>
       <c r="AF79" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG79" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="AG79" s="5" t="s">
+      <c r="AH79" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI79" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="AH79" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AI79" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="AJ79" s="2"/>
       <c r="AK79" s="2"/>
@@ -6672,13 +6735,13 @@
       <c r="AN79" s="2"/>
       <c r="AO79" s="2"/>
       <c r="AP79" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AQ79" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="80" spans="2:43" ht="30" outlineLevel="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B80" s="27"/>
       <c r="C80" s="26"/>
       <c r="D80" s="39" t="str">
@@ -6712,10 +6775,10 @@
         <v>gcloud container clusters get-credentials jenkins-cd</v>
       </c>
       <c r="AB80" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AC80" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
@@ -6730,11 +6793,11 @@
       <c r="AN80" s="2"/>
       <c r="AO80" s="2"/>
       <c r="AP80" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AQ80" s="1"/>
     </row>
-    <row r="81" spans="2:43" outlineLevel="2">
+    <row r="81" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B81" s="33"/>
       <c r="C81" s="34"/>
       <c r="D81" s="39" t="str">
@@ -6784,11 +6847,11 @@
       <c r="AN81" s="2"/>
       <c r="AO81" s="2"/>
       <c r="AP81" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AQ81" s="1"/>
     </row>
-    <row r="82" spans="2:43" ht="30" outlineLevel="1">
+    <row r="82" spans="2:43" ht="30" hidden="1" outlineLevel="1">
       <c r="B82" s="27"/>
       <c r="C82" s="37" t="str">
         <f>B$77&amp;" images"</f>
@@ -6838,11 +6901,11 @@
       <c r="AN82" s="2"/>
       <c r="AO82" s="2"/>
       <c r="AP82" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AQ82" s="1"/>
     </row>
-    <row r="83" spans="2:43" outlineLevel="2">
+    <row r="83" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B83" s="33"/>
       <c r="C83" s="34"/>
       <c r="D83" s="39" t="str">
@@ -6892,13 +6955,13 @@
       <c r="AN83" s="2"/>
       <c r="AO83" s="2"/>
       <c r="AP83" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AQ83" s="1"/>
     </row>
     <row r="84" spans="2:43">
       <c r="B84" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
@@ -6925,7 +6988,7 @@
       <c r="Y84" s="37"/>
       <c r="Z84" s="38"/>
       <c r="AA84" s="8" t="str">
-        <f t="shared" ref="AA84:AA86" ca="1" si="32">IFERROR(OFFSET(A84,0,MATCH("",B84:Z84,-1)),"")</f>
+        <f t="shared" ref="AA84:AA88" ca="1" si="32">IFERROR(OFFSET(A84,0,MATCH("",B84:Z84,-1)),"")</f>
         <v>gcloud source</v>
       </c>
       <c r="AB84" s="2" t="s">
@@ -6945,7 +7008,7 @@
       <c r="AN84" s="2"/>
       <c r="AO84" s="2"/>
       <c r="AP84" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AQ84" s="1"/>
     </row>
@@ -6999,7 +7062,7 @@
       <c r="AN85" s="2"/>
       <c r="AO85" s="2"/>
       <c r="AP85" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AQ85" s="1"/>
     </row>
@@ -7037,10 +7100,10 @@
         <v>gcloud source repos create other</v>
       </c>
       <c r="AB86" s="21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC86" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
@@ -7055,46 +7118,49 @@
       <c r="AN86" s="2"/>
       <c r="AO86" s="2"/>
       <c r="AP86" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AQ86" s="1"/>
     </row>
-    <row r="87" spans="2:43" ht="60">
-      <c r="B87" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="37"/>
-      <c r="X87" s="37"/>
-      <c r="Y87" s="37"/>
-      <c r="Z87" s="38"/>
+    <row r="87" spans="2:43" ht="30" outlineLevel="2">
+      <c r="B87" s="33"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="39" t="str">
+        <f>C$85&amp;" clone "&amp;AC87</f>
+        <v>gcloud source repos clone DEFAULT</v>
+      </c>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
+      <c r="Z87" s="41"/>
       <c r="AA87" s="8" t="str">
-        <f t="shared" ref="AA87:AA88" ca="1" si="33">IFERROR(OFFSET(A87,0,MATCH("",B87:Z87,-1)),"")</f>
-        <v>gcloud docker</v>
-      </c>
-      <c r="AB87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC87" s="2"/>
+        <f t="shared" ref="AA87" ca="1" si="33">IFERROR(OFFSET(A87,0,MATCH("",B87:Z87,-1)),"")</f>
+        <v>gcloud source repos clone DEFAULT</v>
+      </c>
+      <c r="AB87" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC87" s="5" t="s">
+        <v>382</v>
+      </c>
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
@@ -7108,19 +7174,18 @@
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
       <c r="AP87" s="1" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="AQ87" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="88" spans="2:43" ht="30" outlineLevel="1">
-      <c r="B88" s="33"/>
-      <c r="C88" s="39" t="str">
-        <f>B$87&amp;" -- push "&amp;AC88&amp;"/"&amp;AE88&amp;"/"&amp;AG88</f>
-        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="D88" s="40"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="2:43" collapsed="1">
+      <c r="B88" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C88" s="37"/>
+      <c r="D88" s="39"/>
       <c r="E88" s="40"/>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
@@ -7144,27 +7209,17 @@
       <c r="Y88" s="40"/>
       <c r="Z88" s="41"/>
       <c r="AA88" s="8" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="AB88" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC88" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD88" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE88" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF88" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG88" s="5" t="s">
-        <v>362</v>
-      </c>
+        <f t="shared" ca="1" si="32"/>
+        <v>gcloud app</v>
+      </c>
+      <c r="AB88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
       <c r="AJ88" s="2"/>
@@ -7174,61 +7229,51 @@
       <c r="AN88" s="2"/>
       <c r="AO88" s="2"/>
       <c r="AP88" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AQ88" s="1"/>
     </row>
-    <row r="89" spans="2:43" ht="30" outlineLevel="1">
+    <row r="89" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B89" s="33"/>
-      <c r="C89" s="39" t="str">
-        <f>B$87&amp;" -- pull "&amp;AC89&amp;"/"&amp;AE89&amp;"/"&amp;AG89</f>
-        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="40"/>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
-      <c r="W89" s="40"/>
-      <c r="X89" s="40"/>
-      <c r="Y89" s="40"/>
-      <c r="Z89" s="41"/>
+      <c r="C89" s="36" t="str">
+        <f>B$88&amp;" create"</f>
+        <v>gcloud app create</v>
+      </c>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="38"/>
       <c r="AA89" s="8" t="str">
-        <f t="shared" ref="AA89" ca="1" si="34">IFERROR(OFFSET(A89,0,MATCH("",B89:Z89,-1)),"")</f>
-        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="AB89" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC89" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD89" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE89" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF89" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG89" s="5" t="s">
-        <v>362</v>
-      </c>
+        <f t="shared" ref="AA89:AA91" ca="1" si="34">IFERROR(OFFSET(A89,0,MATCH("",B89:Z89,-1)),"")</f>
+        <v>gcloud app create</v>
+      </c>
+      <c r="AB89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+      <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
       <c r="AJ89" s="2"/>
@@ -7238,13 +7283,16 @@
       <c r="AN89" s="2"/>
       <c r="AO89" s="2"/>
       <c r="AP89" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="AQ89" s="1"/>
     </row>
-    <row r="90" spans="2:43">
-      <c r="B90" s="36"/>
-      <c r="C90" s="37"/>
+    <row r="90" spans="2:43" ht="90" hidden="1" outlineLevel="1">
+      <c r="B90" s="33"/>
+      <c r="C90" s="36" t="str">
+        <f>B$88&amp;" deploy"&amp;IF(ISBLANK(AC90),""," "&amp;AC90)&amp;IF(ISBLANK(AE90),""," --version "&amp;AE90)</f>
+        <v>gcloud app deploy --version 1</v>
+      </c>
       <c r="D90" s="37"/>
       <c r="E90" s="37"/>
       <c r="F90" s="37"/>
@@ -7269,15 +7317,19 @@
       <c r="Y90" s="37"/>
       <c r="Z90" s="38"/>
       <c r="AA90" s="8" t="str">
-        <f t="shared" ref="AA90" ca="1" si="35">IFERROR(OFFSET(A90,0,MATCH("",B90:Z90,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="34"/>
+        <v>gcloud app deploy --version 1</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC90" s="2"/>
-      <c r="AD90" s="2"/>
-      <c r="AE90" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE90" s="5">
+        <v>1</v>
+      </c>
       <c r="AF90" s="2"/>
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
@@ -7288,11 +7340,17 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
       <c r="AO90" s="2"/>
-      <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
+      <c r="AP90" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ90" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="91" spans="2:43">
-      <c r="B91" s="36"/>
+      <c r="B91" s="36" t="s">
+        <v>372</v>
+      </c>
       <c r="C91" s="37"/>
       <c r="D91" s="39"/>
       <c r="E91" s="40"/>
@@ -7317,7 +7375,10 @@
       <c r="X91" s="40"/>
       <c r="Y91" s="40"/>
       <c r="Z91" s="41"/>
-      <c r="AA91" s="8"/>
+      <c r="AA91" s="8" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>gcloud datastore</v>
+      </c>
       <c r="AB91" s="2" t="s">
         <v>6</v>
       </c>
@@ -7334,12 +7395,17 @@
       <c r="AM91" s="2"/>
       <c r="AN91" s="2"/>
       <c r="AO91" s="2"/>
-      <c r="AP91" s="1"/>
+      <c r="AP91" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="AQ91" s="1"/>
     </row>
     <row r="92" spans="2:43" outlineLevel="1">
-      <c r="B92" s="10"/>
-      <c r="C92" s="36"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="36" t="str">
+        <f>B$91&amp;" create-indexes "&amp;AC92</f>
+        <v>gcloud datastore create-indexes index.yaml</v>
+      </c>
       <c r="D92" s="37"/>
       <c r="E92" s="37"/>
       <c r="F92" s="37"/>
@@ -7364,13 +7430,15 @@
       <c r="Y92" s="37"/>
       <c r="Z92" s="38"/>
       <c r="AA92" s="8" t="str">
-        <f t="shared" ref="AA92" ca="1" si="36">IFERROR(OFFSET(A92,0,MATCH("",B92:Z92,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC92" s="2"/>
+        <f t="shared" ref="AA92:AA95" ca="1" si="35">IFERROR(OFFSET(A92,0,MATCH("",B92:Z92,-1)),"")</f>
+        <v>gcloud datastore create-indexes index.yaml</v>
+      </c>
+      <c r="AB92" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC92" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
@@ -7383,12 +7451,16 @@
       <c r="AM92" s="2"/>
       <c r="AN92" s="2"/>
       <c r="AO92" s="2"/>
-      <c r="AP92" s="1"/>
+      <c r="AP92" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="AQ92" s="1"/>
     </row>
-    <row r="93" spans="2:43" ht="29.25" customHeight="1" outlineLevel="1">
-      <c r="B93" s="10"/>
-      <c r="C93" s="36"/>
+    <row r="93" spans="2:43">
+      <c r="B93" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="C93" s="37"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37"/>
       <c r="F93" s="37"/>
@@ -7413,8 +7485,8 @@
       <c r="Y93" s="37"/>
       <c r="Z93" s="38"/>
       <c r="AA93" s="8" t="str">
-        <f t="shared" ref="AA93" ca="1" si="37">IFERROR(OFFSET(A93,0,MATCH("",B93:Z93,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="35"/>
+        <v>gcloud debug</v>
       </c>
       <c r="AB93" s="2" t="s">
         <v>6</v>
@@ -7432,12 +7504,17 @@
       <c r="AM93" s="2"/>
       <c r="AN93" s="2"/>
       <c r="AO93" s="2"/>
-      <c r="AP93" s="1"/>
+      <c r="AP93" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="AQ93" s="1"/>
     </row>
     <row r="94" spans="2:43" outlineLevel="1">
-      <c r="B94" s="10"/>
-      <c r="C94" s="36"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="37" t="str">
+        <f>B$93&amp;" logpoints"</f>
+        <v>gcloud debug logpoints</v>
+      </c>
       <c r="D94" s="37"/>
       <c r="E94" s="37"/>
       <c r="F94" s="37"/>
@@ -7462,8 +7539,8 @@
       <c r="Y94" s="37"/>
       <c r="Z94" s="38"/>
       <c r="AA94" s="8" t="str">
-        <f t="shared" ref="AA94:AA97" ca="1" si="38">IFERROR(OFFSET(A94,0,MATCH("",B94:Z94,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="35"/>
+        <v>gcloud debug logpoints</v>
       </c>
       <c r="AB94" s="2" t="s">
         <v>6</v>
@@ -7481,13 +7558,18 @@
       <c r="AM94" s="2"/>
       <c r="AN94" s="2"/>
       <c r="AO94" s="2"/>
-      <c r="AP94" s="1"/>
+      <c r="AP94" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="AQ94" s="1"/>
     </row>
-    <row r="95" spans="2:43" outlineLevel="1">
-      <c r="B95" s="12"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="37"/>
+    <row r="95" spans="2:43" outlineLevel="2">
+      <c r="B95" s="33"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="37" t="str">
+        <f>C$94&amp;" list"</f>
+        <v>gcloud debug logpoints list</v>
+      </c>
       <c r="E95" s="37"/>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -7511,8 +7593,8 @@
       <c r="Y95" s="37"/>
       <c r="Z95" s="38"/>
       <c r="AA95" s="8" t="str">
-        <f t="shared" ref="AA95:AA96" ca="1" si="39">IFERROR(OFFSET(A95,0,MATCH("",B95:Z95,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="35"/>
+        <v>gcloud debug logpoints list</v>
       </c>
       <c r="AB95" s="2" t="s">
         <v>6</v>
@@ -7530,45 +7612,56 @@
       <c r="AM95" s="2"/>
       <c r="AN95" s="2"/>
       <c r="AO95" s="2"/>
-      <c r="AP95" s="1"/>
+      <c r="AP95" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="AQ95" s="1"/>
     </row>
-    <row r="96" spans="2:43" outlineLevel="1">
-      <c r="B96" s="12"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37"/>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="37"/>
-      <c r="V96" s="37"/>
-      <c r="W96" s="37"/>
-      <c r="X96" s="37"/>
-      <c r="Y96" s="37"/>
-      <c r="Z96" s="38"/>
+    <row r="96" spans="2:43" ht="60" outlineLevel="2">
+      <c r="B96" s="33"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="39" t="str">
+        <f>C$94&amp;" create "&amp;AC96&amp;" "&amp;AE96</f>
+        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
+      </c>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="40"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="40"/>
+      <c r="V96" s="40"/>
+      <c r="W96" s="40"/>
+      <c r="X96" s="40"/>
+      <c r="Y96" s="40"/>
+      <c r="Z96" s="41"/>
       <c r="AA96" s="8" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AB96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
-      <c r="AE96" s="2"/>
+        <f t="shared" ref="AA96" ca="1" si="36">IFERROR(OFFSET(A96,0,MATCH("",B96:Z96,-1)),"")</f>
+        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
+      </c>
+      <c r="AB96" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC96" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD96" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE96" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="AF96" s="2"/>
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
@@ -7579,12 +7672,16 @@
       <c r="AM96" s="2"/>
       <c r="AN96" s="2"/>
       <c r="AO96" s="2"/>
-      <c r="AP96" s="1"/>
+      <c r="AP96" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="AQ96" s="1"/>
     </row>
-    <row r="97" spans="2:43" outlineLevel="1">
-      <c r="B97" s="12"/>
-      <c r="C97" s="36"/>
+    <row r="97" spans="2:43" ht="60" collapsed="1">
+      <c r="B97" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C97" s="37"/>
       <c r="D97" s="37"/>
       <c r="E97" s="37"/>
       <c r="F97" s="37"/>
@@ -7609,8 +7706,8 @@
       <c r="Y97" s="37"/>
       <c r="Z97" s="38"/>
       <c r="AA97" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
+        <f t="shared" ref="AA97:AA98" ca="1" si="37">IFERROR(OFFSET(A97,0,MATCH("",B97:Z97,-1)),"")</f>
+        <v>gcloud docker</v>
       </c>
       <c r="AB97" s="2" t="s">
         <v>6</v>
@@ -7628,50 +7725,64 @@
       <c r="AM97" s="2"/>
       <c r="AN97" s="2"/>
       <c r="AO97" s="2"/>
-      <c r="AP97" s="1"/>
-      <c r="AQ97" s="1"/>
-    </row>
-    <row r="98" spans="2:43" outlineLevel="1">
-      <c r="B98" s="12"/>
-      <c r="C98" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="37"/>
-      <c r="T98" s="37"/>
-      <c r="U98" s="37"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="37"/>
-      <c r="X98" s="37"/>
-      <c r="Y98" s="37"/>
-      <c r="Z98" s="38"/>
+      <c r="AP97" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ97" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B98" s="33"/>
+      <c r="C98" s="39" t="str">
+        <f>B$97&amp;" -- push "&amp;AC98&amp;"/"&amp;AE98&amp;"/"&amp;AG98</f>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="40"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
+      <c r="R98" s="40"/>
+      <c r="S98" s="40"/>
+      <c r="T98" s="40"/>
+      <c r="U98" s="40"/>
+      <c r="V98" s="40"/>
+      <c r="W98" s="40"/>
+      <c r="X98" s="40"/>
+      <c r="Y98" s="40"/>
+      <c r="Z98" s="41"/>
       <c r="AA98" s="8" t="str">
-        <f t="shared" ref="AA98:AA102" ca="1" si="40">IFERROR(OFFSET(A98,0,MATCH("",B98:Z98,-1)),"")</f>
-        <v xml:space="preserve">
-</v>
-      </c>
-      <c r="AB98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC98" s="2"/>
-      <c r="AD98" s="2"/>
-      <c r="AE98" s="2"/>
-      <c r="AF98" s="2"/>
-      <c r="AG98" s="2"/>
+        <f t="shared" ca="1" si="37"/>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="AB98" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC98" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD98" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE98" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF98" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG98" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
       <c r="AJ98" s="2"/>
@@ -7680,47 +7791,62 @@
       <c r="AM98" s="2"/>
       <c r="AN98" s="2"/>
       <c r="AO98" s="2"/>
-      <c r="AP98" s="1"/>
+      <c r="AP98" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="AQ98" s="1"/>
     </row>
-    <row r="99" spans="2:43" outlineLevel="1">
-      <c r="B99" s="12"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="37"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="37"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="37"/>
-      <c r="T99" s="37"/>
-      <c r="U99" s="37"/>
-      <c r="V99" s="37"/>
-      <c r="W99" s="37"/>
-      <c r="X99" s="37"/>
-      <c r="Y99" s="37"/>
-      <c r="Z99" s="38"/>
+    <row r="99" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B99" s="33"/>
+      <c r="C99" s="39" t="str">
+        <f>B$97&amp;" -- pull "&amp;AC99&amp;"/"&amp;AE99&amp;"/"&amp;AG99</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="40"/>
+      <c r="S99" s="40"/>
+      <c r="T99" s="40"/>
+      <c r="U99" s="40"/>
+      <c r="V99" s="40"/>
+      <c r="W99" s="40"/>
+      <c r="X99" s="40"/>
+      <c r="Y99" s="40"/>
+      <c r="Z99" s="41"/>
       <c r="AA99" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AB99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="2"/>
-      <c r="AF99" s="2"/>
-      <c r="AG99" s="2"/>
+        <f t="shared" ref="AA99:AA105" ca="1" si="38">IFERROR(OFFSET(A99,0,MATCH("",B99:Z99,-1)),"")</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="AB99" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC99" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD99" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE99" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF99" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG99" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
       <c r="AJ99" s="2"/>
@@ -7729,12 +7855,14 @@
       <c r="AM99" s="2"/>
       <c r="AN99" s="2"/>
       <c r="AO99" s="2"/>
-      <c r="AP99" s="1"/>
+      <c r="AP99" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="AQ99" s="1"/>
     </row>
-    <row r="100" spans="2:43" outlineLevel="1">
-      <c r="B100" s="12"/>
-      <c r="C100" s="36"/>
+    <row r="100" spans="2:43">
+      <c r="B100" s="36"/>
+      <c r="C100" s="37"/>
       <c r="D100" s="37"/>
       <c r="E100" s="37"/>
       <c r="F100" s="37"/>
@@ -7759,7 +7887,7 @@
       <c r="Y100" s="37"/>
       <c r="Z100" s="38"/>
       <c r="AA100" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ref="AA100" ca="1" si="39">IFERROR(OFFSET(A100,0,MATCH("",B100:Z100,-1)),"")</f>
         <v/>
       </c>
       <c r="AB100" s="2" t="s">
@@ -7781,36 +7909,33 @@
       <c r="AP100" s="1"/>
       <c r="AQ100" s="1"/>
     </row>
-    <row r="101" spans="2:43" outlineLevel="1">
-      <c r="B101" s="12"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="37"/>
-      <c r="S101" s="37"/>
-      <c r="T101" s="37"/>
-      <c r="U101" s="37"/>
-      <c r="V101" s="37"/>
-      <c r="W101" s="37"/>
-      <c r="X101" s="37"/>
-      <c r="Y101" s="37"/>
-      <c r="Z101" s="38"/>
-      <c r="AA101" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
+    <row r="101" spans="2:43">
+      <c r="B101" s="36"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="40"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
+      <c r="Q101" s="40"/>
+      <c r="R101" s="40"/>
+      <c r="S101" s="40"/>
+      <c r="T101" s="40"/>
+      <c r="U101" s="40"/>
+      <c r="V101" s="40"/>
+      <c r="W101" s="40"/>
+      <c r="X101" s="40"/>
+      <c r="Y101" s="40"/>
+      <c r="Z101" s="41"/>
+      <c r="AA101" s="8"/>
       <c r="AB101" s="2" t="s">
         <v>6</v>
       </c>
@@ -7830,9 +7955,9 @@
       <c r="AP101" s="1"/>
       <c r="AQ101" s="1"/>
     </row>
-    <row r="102" spans="2:43" outlineLevel="1">
-      <c r="B102" s="12"/>
-      <c r="C102" s="36"/>
+    <row r="102" spans="2:43">
+      <c r="B102" s="36"/>
+      <c r="C102" s="37"/>
       <c r="D102" s="37"/>
       <c r="E102" s="37"/>
       <c r="F102" s="37"/>
@@ -7857,7 +7982,7 @@
       <c r="Y102" s="37"/>
       <c r="Z102" s="38"/>
       <c r="AA102" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ref="AA102" ca="1" si="40">IFERROR(OFFSET(A102,0,MATCH("",B102:Z102,-1)),"")</f>
         <v/>
       </c>
       <c r="AB102" s="2" t="s">
@@ -7879,36 +8004,33 @@
       <c r="AP102" s="1"/>
       <c r="AQ102" s="1"/>
     </row>
-    <row r="103" spans="2:43" outlineLevel="1">
-      <c r="B103" s="12"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
-      <c r="S103" s="37"/>
-      <c r="T103" s="37"/>
-      <c r="U103" s="37"/>
-      <c r="V103" s="37"/>
-      <c r="W103" s="37"/>
-      <c r="X103" s="37"/>
-      <c r="Y103" s="37"/>
-      <c r="Z103" s="38"/>
-      <c r="AA103" s="8" t="str">
-        <f t="shared" ref="AA103" ca="1" si="41">IFERROR(OFFSET(A103,0,MATCH("",B103:Z103,-1)),"")</f>
-        <v/>
-      </c>
+    <row r="103" spans="2:43">
+      <c r="B103" s="36"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="40"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="40"/>
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="40"/>
+      <c r="R103" s="40"/>
+      <c r="S103" s="40"/>
+      <c r="T103" s="40"/>
+      <c r="U103" s="40"/>
+      <c r="V103" s="40"/>
+      <c r="W103" s="40"/>
+      <c r="X103" s="40"/>
+      <c r="Y103" s="40"/>
+      <c r="Z103" s="41"/>
+      <c r="AA103" s="8"/>
       <c r="AB103" s="2" t="s">
         <v>6</v>
       </c>
@@ -7928,36 +8050,33 @@
       <c r="AP103" s="1"/>
       <c r="AQ103" s="1"/>
     </row>
-    <row r="104" spans="2:43" collapsed="1">
+    <row r="104" spans="2:43">
       <c r="B104" s="36"/>
       <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="37"/>
-      <c r="L104" s="37"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="37"/>
-      <c r="O104" s="37"/>
-      <c r="P104" s="37"/>
-      <c r="Q104" s="37"/>
-      <c r="R104" s="37"/>
-      <c r="S104" s="37"/>
-      <c r="T104" s="37"/>
-      <c r="U104" s="37"/>
-      <c r="V104" s="37"/>
-      <c r="W104" s="37"/>
-      <c r="X104" s="37"/>
-      <c r="Y104" s="37"/>
-      <c r="Z104" s="38"/>
-      <c r="AA104" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
+      <c r="D104" s="39"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="40"/>
+      <c r="L104" s="40"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="40"/>
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
+      <c r="Q104" s="40"/>
+      <c r="R104" s="40"/>
+      <c r="S104" s="40"/>
+      <c r="T104" s="40"/>
+      <c r="U104" s="40"/>
+      <c r="V104" s="40"/>
+      <c r="W104" s="40"/>
+      <c r="X104" s="40"/>
+      <c r="Y104" s="40"/>
+      <c r="Z104" s="41"/>
+      <c r="AA104" s="8"/>
       <c r="AB104" s="2" t="s">
         <v>6</v>
       </c>
@@ -8003,8 +8122,9 @@
       <c r="X105" s="37"/>
       <c r="Y105" s="37"/>
       <c r="Z105" s="38"/>
-      <c r="AA105" s="8" t="s">
-        <v>200</v>
+      <c r="AA105" s="8" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
       </c>
       <c r="AB105" s="2" t="s">
         <v>6</v>
@@ -8025,35 +8145,33 @@
       <c r="AP105" s="1"/>
       <c r="AQ105" s="1"/>
     </row>
-    <row r="106" spans="2:43" outlineLevel="1">
-      <c r="B106" s="15"/>
+    <row r="106" spans="2:43">
+      <c r="B106" s="36"/>
       <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
-      <c r="N106" s="37"/>
-      <c r="O106" s="37"/>
-      <c r="P106" s="37"/>
-      <c r="Q106" s="37"/>
-      <c r="R106" s="37"/>
-      <c r="S106" s="37"/>
-      <c r="T106" s="37"/>
-      <c r="U106" s="37"/>
-      <c r="V106" s="37"/>
-      <c r="W106" s="37"/>
-      <c r="X106" s="37"/>
-      <c r="Y106" s="37"/>
-      <c r="Z106" s="38"/>
-      <c r="AA106" s="8" t="s">
-        <v>200</v>
-      </c>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="40"/>
+      <c r="L106" s="40"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="40"/>
+      <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
+      <c r="Q106" s="40"/>
+      <c r="R106" s="40"/>
+      <c r="S106" s="40"/>
+      <c r="T106" s="40"/>
+      <c r="U106" s="40"/>
+      <c r="V106" s="40"/>
+      <c r="W106" s="40"/>
+      <c r="X106" s="40"/>
+      <c r="Y106" s="40"/>
+      <c r="Z106" s="41"/>
+      <c r="AA106" s="8"/>
       <c r="AB106" s="2" t="s">
         <v>6</v>
       </c>
@@ -8073,35 +8191,33 @@
       <c r="AP106" s="1"/>
       <c r="AQ106" s="1"/>
     </row>
-    <row r="107" spans="2:43" outlineLevel="1">
-      <c r="B107" s="3"/>
+    <row r="107" spans="2:43">
+      <c r="B107" s="36"/>
       <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="37"/>
-      <c r="L107" s="37"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="37"/>
-      <c r="O107" s="37"/>
-      <c r="P107" s="37"/>
-      <c r="Q107" s="37"/>
-      <c r="R107" s="37"/>
-      <c r="S107" s="37"/>
-      <c r="T107" s="37"/>
-      <c r="U107" s="37"/>
-      <c r="V107" s="37"/>
-      <c r="W107" s="37"/>
-      <c r="X107" s="37"/>
-      <c r="Y107" s="37"/>
-      <c r="Z107" s="38"/>
-      <c r="AA107" s="8" t="s">
-        <v>200</v>
-      </c>
+      <c r="D107" s="39"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="40"/>
+      <c r="M107" s="40"/>
+      <c r="N107" s="40"/>
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
+      <c r="Q107" s="40"/>
+      <c r="R107" s="40"/>
+      <c r="S107" s="40"/>
+      <c r="T107" s="40"/>
+      <c r="U107" s="40"/>
+      <c r="V107" s="40"/>
+      <c r="W107" s="40"/>
+      <c r="X107" s="40"/>
+      <c r="Y107" s="40"/>
+      <c r="Z107" s="41"/>
+      <c r="AA107" s="8"/>
       <c r="AB107" s="2" t="s">
         <v>6</v>
       </c>
@@ -8121,9 +8237,9 @@
       <c r="AP107" s="1"/>
       <c r="AQ107" s="1"/>
     </row>
-    <row r="108" spans="2:43" outlineLevel="2">
-      <c r="B108" s="3"/>
-      <c r="C108" s="4"/>
+    <row r="108" spans="2:43">
+      <c r="B108" s="36"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="37"/>
       <c r="E108" s="37"/>
       <c r="F108" s="37"/>
@@ -8147,8 +8263,9 @@
       <c r="X108" s="37"/>
       <c r="Y108" s="37"/>
       <c r="Z108" s="38"/>
-      <c r="AA108" s="8" t="s">
-        <v>200</v>
+      <c r="AA108" s="8" t="str">
+        <f t="shared" ref="AA108" ca="1" si="41">IFERROR(OFFSET(A108,0,MATCH("",B108:Z108,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB108" s="2" t="s">
         <v>6</v>
@@ -8169,35 +8286,33 @@
       <c r="AP108" s="1"/>
       <c r="AQ108" s="1"/>
     </row>
-    <row r="109" spans="2:43" outlineLevel="2">
-      <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="37"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="37"/>
-      <c r="O109" s="37"/>
-      <c r="P109" s="37"/>
-      <c r="Q109" s="37"/>
-      <c r="R109" s="37"/>
-      <c r="S109" s="37"/>
-      <c r="T109" s="37"/>
-      <c r="U109" s="37"/>
-      <c r="V109" s="37"/>
-      <c r="W109" s="37"/>
-      <c r="X109" s="37"/>
-      <c r="Y109" s="37"/>
-      <c r="Z109" s="38"/>
-      <c r="AA109" s="8" t="s">
-        <v>200</v>
-      </c>
+    <row r="109" spans="2:43">
+      <c r="B109" s="36"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="40"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="40"/>
+      <c r="N109" s="40"/>
+      <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
+      <c r="Q109" s="40"/>
+      <c r="R109" s="40"/>
+      <c r="S109" s="40"/>
+      <c r="T109" s="40"/>
+      <c r="U109" s="40"/>
+      <c r="V109" s="40"/>
+      <c r="W109" s="40"/>
+      <c r="X109" s="40"/>
+      <c r="Y109" s="40"/>
+      <c r="Z109" s="41"/>
+      <c r="AA109" s="8"/>
       <c r="AB109" s="2" t="s">
         <v>6</v>
       </c>
@@ -8217,35 +8332,33 @@
       <c r="AP109" s="1"/>
       <c r="AQ109" s="1"/>
     </row>
-    <row r="110" spans="2:43" outlineLevel="3">
-      <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="37"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="37"/>
-      <c r="O110" s="37"/>
-      <c r="P110" s="37"/>
-      <c r="Q110" s="37"/>
-      <c r="R110" s="37"/>
-      <c r="S110" s="37"/>
-      <c r="T110" s="37"/>
-      <c r="U110" s="37"/>
-      <c r="V110" s="37"/>
-      <c r="W110" s="37"/>
-      <c r="X110" s="37"/>
-      <c r="Y110" s="37"/>
-      <c r="Z110" s="38"/>
-      <c r="AA110" s="8" t="s">
-        <v>200</v>
-      </c>
+    <row r="110" spans="2:43" collapsed="1">
+      <c r="B110" s="36"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="40"/>
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="40"/>
+      <c r="R110" s="40"/>
+      <c r="S110" s="40"/>
+      <c r="T110" s="40"/>
+      <c r="U110" s="40"/>
+      <c r="V110" s="40"/>
+      <c r="W110" s="40"/>
+      <c r="X110" s="40"/>
+      <c r="Y110" s="40"/>
+      <c r="Z110" s="41"/>
+      <c r="AA110" s="8"/>
       <c r="AB110" s="2" t="s">
         <v>6</v>
       </c>
@@ -8265,10 +8378,10 @@
       <c r="AP110" s="1"/>
       <c r="AQ110" s="1"/>
     </row>
-    <row r="111" spans="2:43" outlineLevel="3">
-      <c r="B111" s="3"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+    <row r="111" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B111" s="10"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="37"/>
       <c r="E111" s="37"/>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -8291,8 +8404,9 @@
       <c r="X111" s="37"/>
       <c r="Y111" s="37"/>
       <c r="Z111" s="38"/>
-      <c r="AA111" s="8" t="s">
-        <v>200</v>
+      <c r="AA111" s="8" t="str">
+        <f t="shared" ref="AA111" ca="1" si="42">IFERROR(OFFSET(A111,0,MATCH("",B111:Z111,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB111" s="2" t="s">
         <v>6</v>
@@ -8313,11 +8427,11 @@
       <c r="AP111" s="1"/>
       <c r="AQ111" s="1"/>
     </row>
-    <row r="112" spans="2:43" outlineLevel="4">
-      <c r="B112" s="3"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+    <row r="112" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B112" s="10"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
       <c r="H112" s="37"/>
@@ -8339,8 +8453,9 @@
       <c r="X112" s="37"/>
       <c r="Y112" s="37"/>
       <c r="Z112" s="38"/>
-      <c r="AA112" s="8" t="s">
-        <v>200</v>
+      <c r="AA112" s="8" t="str">
+        <f t="shared" ref="AA112" ca="1" si="43">IFERROR(OFFSET(A112,0,MATCH("",B112:Z112,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB112" s="2" t="s">
         <v>6</v>
@@ -8361,11 +8476,11 @@
       <c r="AP112" s="1"/>
       <c r="AQ112" s="1"/>
     </row>
-    <row r="113" spans="2:43" outlineLevel="4">
-      <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+    <row r="113" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B113" s="10"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
@@ -8387,8 +8502,9 @@
       <c r="X113" s="37"/>
       <c r="Y113" s="37"/>
       <c r="Z113" s="38"/>
-      <c r="AA113" s="8" t="s">
-        <v>200</v>
+      <c r="AA113" s="8" t="str">
+        <f t="shared" ref="AA113" ca="1" si="44">IFERROR(OFFSET(A113,0,MATCH("",B113:Z113,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB113" s="2" t="s">
         <v>6</v>
@@ -8409,12 +8525,12 @@
       <c r="AP113" s="1"/>
       <c r="AQ113" s="1"/>
     </row>
-    <row r="114" spans="2:43" outlineLevel="5">
-      <c r="B114" s="3"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
+    <row r="114" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B114" s="12"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
       <c r="G114" s="37"/>
       <c r="H114" s="37"/>
       <c r="I114" s="37"/>
@@ -8435,8 +8551,9 @@
       <c r="X114" s="37"/>
       <c r="Y114" s="37"/>
       <c r="Z114" s="38"/>
-      <c r="AA114" s="8" t="s">
-        <v>200</v>
+      <c r="AA114" s="8" t="str">
+        <f t="shared" ref="AA114:AA115" ca="1" si="45">IFERROR(OFFSET(A114,0,MATCH("",B114:Z114,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB114" s="2" t="s">
         <v>6</v>
@@ -8457,12 +8574,12 @@
       <c r="AP114" s="1"/>
       <c r="AQ114" s="1"/>
     </row>
-    <row r="115" spans="2:43" outlineLevel="5">
-      <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
+    <row r="115" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B115" s="12"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
       <c r="I115" s="37"/>
@@ -8483,8 +8600,9 @@
       <c r="X115" s="37"/>
       <c r="Y115" s="37"/>
       <c r="Z115" s="38"/>
-      <c r="AA115" s="8" t="s">
-        <v>200</v>
+      <c r="AA115" s="8" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
       </c>
       <c r="AB115" s="2" t="s">
         <v>6</v>
@@ -8505,13 +8623,13 @@
       <c r="AP115" s="1"/>
       <c r="AQ115" s="1"/>
     </row>
-    <row r="116" spans="2:43" outlineLevel="6">
-      <c r="B116" s="3"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+    <row r="116" spans="2:43" collapsed="1">
+      <c r="B116" s="36"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
       <c r="H116" s="37"/>
       <c r="I116" s="37"/>
       <c r="J116" s="37"/>
@@ -8531,8 +8649,9 @@
       <c r="X116" s="37"/>
       <c r="Y116" s="37"/>
       <c r="Z116" s="38"/>
-      <c r="AA116" s="8" t="s">
-        <v>200</v>
+      <c r="AA116" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="AB116" s="2" t="s">
         <v>6</v>
@@ -8553,13 +8672,13 @@
       <c r="AP116" s="1"/>
       <c r="AQ116" s="1"/>
     </row>
-    <row r="117" spans="2:43" outlineLevel="6">
-      <c r="B117" s="3"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+    <row r="117" spans="2:43">
+      <c r="B117" s="36"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
       <c r="H117" s="37"/>
       <c r="I117" s="37"/>
       <c r="J117" s="37"/>
@@ -8580,7 +8699,7 @@
       <c r="Y117" s="37"/>
       <c r="Z117" s="38"/>
       <c r="AA117" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB117" s="2" t="s">
         <v>6</v>
@@ -8601,8 +8720,8 @@
       <c r="AP117" s="1"/>
       <c r="AQ117" s="1"/>
     </row>
-    <row r="118" spans="2:43">
-      <c r="B118" s="36"/>
+    <row r="118" spans="2:43" outlineLevel="1">
+      <c r="B118" s="15"/>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
       <c r="E118" s="37"/>
@@ -8628,7 +8747,7 @@
       <c r="Y118" s="37"/>
       <c r="Z118" s="38"/>
       <c r="AA118" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB118" s="2" t="s">
         <v>6</v>
@@ -8649,13 +8768,608 @@
       <c r="AP118" s="1"/>
       <c r="AQ118" s="1"/>
     </row>
+    <row r="119" spans="2:43" outlineLevel="1">
+      <c r="B119" s="3"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="37"/>
+      <c r="L119" s="37"/>
+      <c r="M119" s="37"/>
+      <c r="N119" s="37"/>
+      <c r="O119" s="37"/>
+      <c r="P119" s="37"/>
+      <c r="Q119" s="37"/>
+      <c r="R119" s="37"/>
+      <c r="S119" s="37"/>
+      <c r="T119" s="37"/>
+      <c r="U119" s="37"/>
+      <c r="V119" s="37"/>
+      <c r="W119" s="37"/>
+      <c r="X119" s="37"/>
+      <c r="Y119" s="37"/>
+      <c r="Z119" s="38"/>
+      <c r="AA119" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
+      <c r="AF119" s="2"/>
+      <c r="AG119" s="2"/>
+      <c r="AH119" s="2"/>
+      <c r="AI119" s="2"/>
+      <c r="AJ119" s="2"/>
+      <c r="AK119" s="2"/>
+      <c r="AL119" s="2"/>
+      <c r="AM119" s="2"/>
+      <c r="AN119" s="2"/>
+      <c r="AO119" s="2"/>
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+    </row>
+    <row r="120" spans="2:43" outlineLevel="2">
+      <c r="B120" s="3"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="37"/>
+      <c r="O120" s="37"/>
+      <c r="P120" s="37"/>
+      <c r="Q120" s="37"/>
+      <c r="R120" s="37"/>
+      <c r="S120" s="37"/>
+      <c r="T120" s="37"/>
+      <c r="U120" s="37"/>
+      <c r="V120" s="37"/>
+      <c r="W120" s="37"/>
+      <c r="X120" s="37"/>
+      <c r="Y120" s="37"/>
+      <c r="Z120" s="38"/>
+      <c r="AA120" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="2"/>
+      <c r="AG120" s="2"/>
+      <c r="AH120" s="2"/>
+      <c r="AI120" s="2"/>
+      <c r="AJ120" s="2"/>
+      <c r="AK120" s="2"/>
+      <c r="AL120" s="2"/>
+      <c r="AM120" s="2"/>
+      <c r="AN120" s="2"/>
+      <c r="AO120" s="2"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+    </row>
+    <row r="121" spans="2:43" outlineLevel="2">
+      <c r="B121" s="3"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+      <c r="N121" s="37"/>
+      <c r="O121" s="37"/>
+      <c r="P121" s="37"/>
+      <c r="Q121" s="37"/>
+      <c r="R121" s="37"/>
+      <c r="S121" s="37"/>
+      <c r="T121" s="37"/>
+      <c r="U121" s="37"/>
+      <c r="V121" s="37"/>
+      <c r="W121" s="37"/>
+      <c r="X121" s="37"/>
+      <c r="Y121" s="37"/>
+      <c r="Z121" s="38"/>
+      <c r="AA121" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
+      <c r="AF121" s="2"/>
+      <c r="AG121" s="2"/>
+      <c r="AH121" s="2"/>
+      <c r="AI121" s="2"/>
+      <c r="AJ121" s="2"/>
+      <c r="AK121" s="2"/>
+      <c r="AL121" s="2"/>
+      <c r="AM121" s="2"/>
+      <c r="AN121" s="2"/>
+      <c r="AO121" s="2"/>
+      <c r="AP121" s="1"/>
+      <c r="AQ121" s="1"/>
+    </row>
+    <row r="122" spans="2:43" outlineLevel="3">
+      <c r="B122" s="3"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="37"/>
+      <c r="O122" s="37"/>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="37"/>
+      <c r="R122" s="37"/>
+      <c r="S122" s="37"/>
+      <c r="T122" s="37"/>
+      <c r="U122" s="37"/>
+      <c r="V122" s="37"/>
+      <c r="W122" s="37"/>
+      <c r="X122" s="37"/>
+      <c r="Y122" s="37"/>
+      <c r="Z122" s="38"/>
+      <c r="AA122" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC122" s="2"/>
+      <c r="AD122" s="2"/>
+      <c r="AE122" s="2"/>
+      <c r="AF122" s="2"/>
+      <c r="AG122" s="2"/>
+      <c r="AH122" s="2"/>
+      <c r="AI122" s="2"/>
+      <c r="AJ122" s="2"/>
+      <c r="AK122" s="2"/>
+      <c r="AL122" s="2"/>
+      <c r="AM122" s="2"/>
+      <c r="AN122" s="2"/>
+      <c r="AO122" s="2"/>
+      <c r="AP122" s="1"/>
+      <c r="AQ122" s="1"/>
+    </row>
+    <row r="123" spans="2:43" outlineLevel="3">
+      <c r="B123" s="3"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="37"/>
+      <c r="L123" s="37"/>
+      <c r="M123" s="37"/>
+      <c r="N123" s="37"/>
+      <c r="O123" s="37"/>
+      <c r="P123" s="37"/>
+      <c r="Q123" s="37"/>
+      <c r="R123" s="37"/>
+      <c r="S123" s="37"/>
+      <c r="T123" s="37"/>
+      <c r="U123" s="37"/>
+      <c r="V123" s="37"/>
+      <c r="W123" s="37"/>
+      <c r="X123" s="37"/>
+      <c r="Y123" s="37"/>
+      <c r="Z123" s="38"/>
+      <c r="AA123" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
+      <c r="AF123" s="2"/>
+      <c r="AG123" s="2"/>
+      <c r="AH123" s="2"/>
+      <c r="AI123" s="2"/>
+      <c r="AJ123" s="2"/>
+      <c r="AK123" s="2"/>
+      <c r="AL123" s="2"/>
+      <c r="AM123" s="2"/>
+      <c r="AN123" s="2"/>
+      <c r="AO123" s="2"/>
+      <c r="AP123" s="1"/>
+      <c r="AQ123" s="1"/>
+    </row>
+    <row r="124" spans="2:43" outlineLevel="4">
+      <c r="B124" s="3"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="37"/>
+      <c r="M124" s="37"/>
+      <c r="N124" s="37"/>
+      <c r="O124" s="37"/>
+      <c r="P124" s="37"/>
+      <c r="Q124" s="37"/>
+      <c r="R124" s="37"/>
+      <c r="S124" s="37"/>
+      <c r="T124" s="37"/>
+      <c r="U124" s="37"/>
+      <c r="V124" s="37"/>
+      <c r="W124" s="37"/>
+      <c r="X124" s="37"/>
+      <c r="Y124" s="37"/>
+      <c r="Z124" s="38"/>
+      <c r="AA124" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+      <c r="AF124" s="2"/>
+      <c r="AG124" s="2"/>
+      <c r="AH124" s="2"/>
+      <c r="AI124" s="2"/>
+      <c r="AJ124" s="2"/>
+      <c r="AK124" s="2"/>
+      <c r="AL124" s="2"/>
+      <c r="AM124" s="2"/>
+      <c r="AN124" s="2"/>
+      <c r="AO124" s="2"/>
+      <c r="AP124" s="1"/>
+      <c r="AQ124" s="1"/>
+    </row>
+    <row r="125" spans="2:43" outlineLevel="4">
+      <c r="B125" s="3"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
+      <c r="O125" s="37"/>
+      <c r="P125" s="37"/>
+      <c r="Q125" s="37"/>
+      <c r="R125" s="37"/>
+      <c r="S125" s="37"/>
+      <c r="T125" s="37"/>
+      <c r="U125" s="37"/>
+      <c r="V125" s="37"/>
+      <c r="W125" s="37"/>
+      <c r="X125" s="37"/>
+      <c r="Y125" s="37"/>
+      <c r="Z125" s="38"/>
+      <c r="AA125" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
+      <c r="AF125" s="2"/>
+      <c r="AG125" s="2"/>
+      <c r="AH125" s="2"/>
+      <c r="AI125" s="2"/>
+      <c r="AJ125" s="2"/>
+      <c r="AK125" s="2"/>
+      <c r="AL125" s="2"/>
+      <c r="AM125" s="2"/>
+      <c r="AN125" s="2"/>
+      <c r="AO125" s="2"/>
+      <c r="AP125" s="1"/>
+      <c r="AQ125" s="1"/>
+    </row>
+    <row r="126" spans="2:43" outlineLevel="5">
+      <c r="B126" s="3"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="37"/>
+      <c r="O126" s="37"/>
+      <c r="P126" s="37"/>
+      <c r="Q126" s="37"/>
+      <c r="R126" s="37"/>
+      <c r="S126" s="37"/>
+      <c r="T126" s="37"/>
+      <c r="U126" s="37"/>
+      <c r="V126" s="37"/>
+      <c r="W126" s="37"/>
+      <c r="X126" s="37"/>
+      <c r="Y126" s="37"/>
+      <c r="Z126" s="38"/>
+      <c r="AA126" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
+      <c r="AF126" s="2"/>
+      <c r="AG126" s="2"/>
+      <c r="AH126" s="2"/>
+      <c r="AI126" s="2"/>
+      <c r="AJ126" s="2"/>
+      <c r="AK126" s="2"/>
+      <c r="AL126" s="2"/>
+      <c r="AM126" s="2"/>
+      <c r="AN126" s="2"/>
+      <c r="AO126" s="2"/>
+      <c r="AP126" s="1"/>
+      <c r="AQ126" s="1"/>
+    </row>
+    <row r="127" spans="2:43" outlineLevel="5">
+      <c r="B127" s="3"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="37"/>
+      <c r="L127" s="37"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="37"/>
+      <c r="O127" s="37"/>
+      <c r="P127" s="37"/>
+      <c r="Q127" s="37"/>
+      <c r="R127" s="37"/>
+      <c r="S127" s="37"/>
+      <c r="T127" s="37"/>
+      <c r="U127" s="37"/>
+      <c r="V127" s="37"/>
+      <c r="W127" s="37"/>
+      <c r="X127" s="37"/>
+      <c r="Y127" s="37"/>
+      <c r="Z127" s="38"/>
+      <c r="AA127" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC127" s="2"/>
+      <c r="AD127" s="2"/>
+      <c r="AE127" s="2"/>
+      <c r="AF127" s="2"/>
+      <c r="AG127" s="2"/>
+      <c r="AH127" s="2"/>
+      <c r="AI127" s="2"/>
+      <c r="AJ127" s="2"/>
+      <c r="AK127" s="2"/>
+      <c r="AL127" s="2"/>
+      <c r="AM127" s="2"/>
+      <c r="AN127" s="2"/>
+      <c r="AO127" s="2"/>
+      <c r="AP127" s="1"/>
+      <c r="AQ127" s="1"/>
+    </row>
+    <row r="128" spans="2:43" outlineLevel="6">
+      <c r="B128" s="3"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
+      <c r="O128" s="37"/>
+      <c r="P128" s="37"/>
+      <c r="Q128" s="37"/>
+      <c r="R128" s="37"/>
+      <c r="S128" s="37"/>
+      <c r="T128" s="37"/>
+      <c r="U128" s="37"/>
+      <c r="V128" s="37"/>
+      <c r="W128" s="37"/>
+      <c r="X128" s="37"/>
+      <c r="Y128" s="37"/>
+      <c r="Z128" s="38"/>
+      <c r="AA128" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
+      <c r="AF128" s="2"/>
+      <c r="AG128" s="2"/>
+      <c r="AH128" s="2"/>
+      <c r="AI128" s="2"/>
+      <c r="AJ128" s="2"/>
+      <c r="AK128" s="2"/>
+      <c r="AL128" s="2"/>
+      <c r="AM128" s="2"/>
+      <c r="AN128" s="2"/>
+      <c r="AO128" s="2"/>
+      <c r="AP128" s="1"/>
+      <c r="AQ128" s="1"/>
+    </row>
+    <row r="129" spans="2:43" outlineLevel="6">
+      <c r="B129" s="3"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="37"/>
+      <c r="K129" s="37"/>
+      <c r="L129" s="37"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="37"/>
+      <c r="O129" s="37"/>
+      <c r="P129" s="37"/>
+      <c r="Q129" s="37"/>
+      <c r="R129" s="37"/>
+      <c r="S129" s="37"/>
+      <c r="T129" s="37"/>
+      <c r="U129" s="37"/>
+      <c r="V129" s="37"/>
+      <c r="W129" s="37"/>
+      <c r="X129" s="37"/>
+      <c r="Y129" s="37"/>
+      <c r="Z129" s="38"/>
+      <c r="AA129" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC129" s="2"/>
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
+      <c r="AF129" s="2"/>
+      <c r="AG129" s="2"/>
+      <c r="AH129" s="2"/>
+      <c r="AI129" s="2"/>
+      <c r="AJ129" s="2"/>
+      <c r="AK129" s="2"/>
+      <c r="AL129" s="2"/>
+      <c r="AM129" s="2"/>
+      <c r="AN129" s="2"/>
+      <c r="AO129" s="2"/>
+      <c r="AP129" s="1"/>
+      <c r="AQ129" s="1"/>
+    </row>
+    <row r="130" spans="2:43">
+      <c r="B130" s="36"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="37"/>
+      <c r="O130" s="37"/>
+      <c r="P130" s="37"/>
+      <c r="Q130" s="37"/>
+      <c r="R130" s="37"/>
+      <c r="S130" s="37"/>
+      <c r="T130" s="37"/>
+      <c r="U130" s="37"/>
+      <c r="V130" s="37"/>
+      <c r="W130" s="37"/>
+      <c r="X130" s="37"/>
+      <c r="Y130" s="37"/>
+      <c r="Z130" s="38"/>
+      <c r="AA130" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC130" s="2"/>
+      <c r="AD130" s="2"/>
+      <c r="AE130" s="2"/>
+      <c r="AF130" s="2"/>
+      <c r="AG130" s="2"/>
+      <c r="AH130" s="2"/>
+      <c r="AI130" s="2"/>
+      <c r="AJ130" s="2"/>
+      <c r="AK130" s="2"/>
+      <c r="AL130" s="2"/>
+      <c r="AM130" s="2"/>
+      <c r="AN130" s="2"/>
+      <c r="AO130" s="2"/>
+      <c r="AP130" s="1"/>
+      <c r="AQ130" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="131">
     <mergeCell ref="D86:Z86"/>
-    <mergeCell ref="B87:Z87"/>
-    <mergeCell ref="C88:Z88"/>
+    <mergeCell ref="B97:Z97"/>
+    <mergeCell ref="C98:Z98"/>
+    <mergeCell ref="C99:Z99"/>
+    <mergeCell ref="D83:Z83"/>
+    <mergeCell ref="B109:Z109"/>
+    <mergeCell ref="B105:Z105"/>
+    <mergeCell ref="B106:Z106"/>
+    <mergeCell ref="B107:Z107"/>
+    <mergeCell ref="B100:Z100"/>
+    <mergeCell ref="B101:Z101"/>
+    <mergeCell ref="B88:Z88"/>
+    <mergeCell ref="B102:Z102"/>
+    <mergeCell ref="B103:Z103"/>
+    <mergeCell ref="B104:Z104"/>
     <mergeCell ref="C89:Z89"/>
-    <mergeCell ref="D83:Z83"/>
+    <mergeCell ref="C90:Z90"/>
+    <mergeCell ref="B91:Z91"/>
+    <mergeCell ref="C92:Z92"/>
+    <mergeCell ref="D87:Z87"/>
+    <mergeCell ref="B93:Z93"/>
+    <mergeCell ref="C94:Z94"/>
+    <mergeCell ref="D95:Z95"/>
+    <mergeCell ref="D96:Z96"/>
     <mergeCell ref="D52:Z52"/>
     <mergeCell ref="C50:Z50"/>
     <mergeCell ref="D51:Z51"/>
@@ -8674,8 +9388,8 @@
     <mergeCell ref="C82:Z82"/>
     <mergeCell ref="D79:Z79"/>
     <mergeCell ref="D80:Z80"/>
-    <mergeCell ref="C95:Z95"/>
-    <mergeCell ref="C96:Z96"/>
+    <mergeCell ref="C114:Z114"/>
+    <mergeCell ref="C115:Z115"/>
     <mergeCell ref="D21:Z21"/>
     <mergeCell ref="E22:Z22"/>
     <mergeCell ref="E23:Z23"/>
@@ -8693,7 +9407,7 @@
     <mergeCell ref="E24:Z24"/>
     <mergeCell ref="D46:Z46"/>
     <mergeCell ref="B74:Z74"/>
-    <mergeCell ref="B90:Z90"/>
+    <mergeCell ref="B108:Z108"/>
     <mergeCell ref="B67:Z67"/>
     <mergeCell ref="C68:Z68"/>
     <mergeCell ref="D69:Z69"/>
@@ -8723,21 +9437,21 @@
     <mergeCell ref="C37:Z37"/>
     <mergeCell ref="D38:Z38"/>
     <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="G114:Z114"/>
-    <mergeCell ref="G115:Z115"/>
-    <mergeCell ref="H116:Z116"/>
-    <mergeCell ref="H117:Z117"/>
-    <mergeCell ref="F113:Z113"/>
+    <mergeCell ref="G126:Z126"/>
+    <mergeCell ref="G127:Z127"/>
+    <mergeCell ref="H128:Z128"/>
+    <mergeCell ref="H129:Z129"/>
+    <mergeCell ref="F125:Z125"/>
     <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="D109:Z109"/>
+    <mergeCell ref="D121:Z121"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="B104:Z104"/>
-    <mergeCell ref="E110:Z110"/>
-    <mergeCell ref="B105:Z105"/>
-    <mergeCell ref="C106:Z106"/>
-    <mergeCell ref="C107:Z107"/>
-    <mergeCell ref="D108:Z108"/>
+    <mergeCell ref="B116:Z116"/>
+    <mergeCell ref="E122:Z122"/>
+    <mergeCell ref="B117:Z117"/>
+    <mergeCell ref="C118:Z118"/>
+    <mergeCell ref="C119:Z119"/>
+    <mergeCell ref="D120:Z120"/>
     <mergeCell ref="D5:Z5"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="D12:Z12"/>
@@ -8746,23 +9460,16 @@
     <mergeCell ref="D39:Z39"/>
     <mergeCell ref="E31:Z31"/>
     <mergeCell ref="E32:Z32"/>
-    <mergeCell ref="B118:Z118"/>
-    <mergeCell ref="E111:Z111"/>
-    <mergeCell ref="F112:Z112"/>
-    <mergeCell ref="C99:Z99"/>
-    <mergeCell ref="C100:Z100"/>
-    <mergeCell ref="C101:Z101"/>
-    <mergeCell ref="C102:Z102"/>
-    <mergeCell ref="C103:Z103"/>
+    <mergeCell ref="B130:Z130"/>
+    <mergeCell ref="E123:Z123"/>
+    <mergeCell ref="F124:Z124"/>
     <mergeCell ref="C58:Z58"/>
     <mergeCell ref="C62:Z62"/>
-    <mergeCell ref="B91:Z91"/>
-    <mergeCell ref="C92:Z92"/>
-    <mergeCell ref="C93:Z93"/>
-    <mergeCell ref="C94:Z94"/>
+    <mergeCell ref="B110:Z110"/>
+    <mergeCell ref="C111:Z111"/>
+    <mergeCell ref="C112:Z112"/>
+    <mergeCell ref="C113:Z113"/>
     <mergeCell ref="B73:Z73"/>
-    <mergeCell ref="C98:Z98"/>
-    <mergeCell ref="C97:Z97"/>
     <mergeCell ref="C60:Z60"/>
     <mergeCell ref="C61:Z61"/>
     <mergeCell ref="B63:Z63"/>
@@ -8994,7 +9701,7 @@
         <v>14</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -9224,13 +9931,13 @@
         <v>59</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH9" s="2" t="s">
         <v>61</v>
@@ -9895,7 +10602,7 @@
     </row>
     <row r="23" spans="2:37">
       <c r="B23" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -11009,19 +11716,19 @@
         <v>kubectl run nginx --image=nginx:1.10.0</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="2"/>
@@ -11029,7 +11736,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM2" s="1"/>
     </row>
@@ -11067,25 +11774,25 @@
         <v>kubectl expose deployment nginx --type LoadBalancer --port 80</v>
       </c>
       <c r="AB3" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG3" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AC3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="AH3" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AI3" s="5">
         <v>80</v>
@@ -11093,10 +11800,10 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:39" ht="30">
@@ -11133,33 +11840,33 @@
         <v>kubectl get pods -l app=gceme -l role=frontend -n production</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD4" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM4" s="1"/>
     </row>
@@ -11209,7 +11916,7 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM5" s="1"/>
     </row>
@@ -11247,10 +11954,10 @@
         <v>kubectl create -f pods/monolith.yaml</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -11261,7 +11968,7 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM6" s="1"/>
     </row>
@@ -11347,16 +12054,16 @@
         <v>kubectl create secret generic tls-certs --from-file tls/</v>
       </c>
       <c r="AB8" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AD8" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="AD8" s="21" t="s">
-        <v>291</v>
-      </c>
       <c r="AE8" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -11365,7 +12072,7 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AM8" s="1"/>
     </row>
@@ -11496,16 +12203,16 @@
         <v>kubectl create configmap nginx-proxy-conf --from-file nginx/proxy.conf</v>
       </c>
       <c r="AB11" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AD11" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE11" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="AD11" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -11514,7 +12221,7 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AM11" s="1"/>
     </row>
@@ -11564,7 +12271,7 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM12" s="1"/>
     </row>
@@ -11602,31 +12309,31 @@
         <v>kubectl create clusterrolebinding tiller-admin-binding --clusterrole=cluster-admin --serviceaccount=kube-system:tiller</v>
       </c>
       <c r="AB13" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD13" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE13" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="AC13" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="AD13" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AF13" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM13" s="1"/>
     </row>
@@ -11676,7 +12383,7 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AM14" s="1"/>
     </row>
@@ -11714,16 +12421,16 @@
         <v>kubectl create serviceaccount tiller --namespace kube-system</v>
       </c>
       <c r="AB15" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD15" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="AC15" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AE15" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -11782,7 +12489,7 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AM16" s="1"/>
     </row>
@@ -11820,10 +12527,10 @@
         <v>kubectl create ns production</v>
       </c>
       <c r="AB17" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC17" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -11917,16 +12624,16 @@
         <v>kubectl describe services monolith</v>
       </c>
       <c r="AB19" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD19" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -11935,7 +12642,7 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM19" s="1"/>
     </row>
@@ -11973,19 +12680,19 @@
         <v>kubectl port-forward monolith 10080:80</v>
       </c>
       <c r="AB20" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="AC20" s="5" t="s">
+      <c r="AD20" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="AE20" s="5">
         <v>10080</v>
       </c>
       <c r="AF20" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG20" s="5">
         <v>80</v>
@@ -11995,7 +12702,7 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM20" s="1"/>
     </row>
@@ -12033,13 +12740,13 @@
         <v>kubectl logs -f monolith</v>
       </c>
       <c r="AB21" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC21" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="AC21" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="AD21" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE21" s="5" t="b">
         <v>1</v>
@@ -12051,7 +12758,7 @@
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM21" s="1"/>
     </row>
@@ -12101,7 +12808,7 @@
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM22" s="1"/>
     </row>
@@ -12139,27 +12846,27 @@
         <v>kubectl exec monolith -- ls</v>
       </c>
       <c r="AB23" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="AC23" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="AD23" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="21" t="s">
         <v>21</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM23" s="1"/>
     </row>
@@ -12197,13 +12904,13 @@
         <v>kubectl exec monolith --stdin --tty /bin/sh</v>
       </c>
       <c r="AB24" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC24" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="AC24" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="AD24" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE24" s="5"/>
       <c r="AF24" s="2"/>
@@ -12213,7 +12920,7 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM24" s="1"/>
     </row>
@@ -12251,29 +12958,29 @@
         <v>kubectl label pods secure-monolith 'secure=enabled'</v>
       </c>
       <c r="AB25" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE25" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF25" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG25" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="AF25" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM25" s="1"/>
     </row>
@@ -12311,13 +13018,13 @@
         <v>kubectl explain deployment.metadata.name</v>
       </c>
       <c r="AB26" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="2"/>
@@ -12327,7 +13034,7 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM26" s="1"/>
     </row>
@@ -12377,7 +13084,7 @@
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM27" s="1"/>
     </row>
@@ -12415,33 +13122,33 @@
         <v>kubectl scale deployment gceme-frontend-production --replicas=4 -n production</v>
       </c>
       <c r="AB28" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC28" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD28" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AD28" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="AE28" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF28" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG28" s="5">
         <v>4</v>
       </c>
       <c r="AH28" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM28" s="1"/>
     </row>
@@ -12524,16 +13231,16 @@
         <v>kubectl edit deployment hello</v>
       </c>
       <c r="AB30" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC30" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD30" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AD30" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="AE30" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -12542,7 +13249,7 @@
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AM30" s="1"/>
     </row>
@@ -12592,7 +13299,7 @@
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AM31" s="1"/>
     </row>
@@ -12630,16 +13337,16 @@
         <v>kubectl rollout history deployment/hello</v>
       </c>
       <c r="AB32" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD32" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AD32" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="AE32" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
@@ -12648,7 +13355,7 @@
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AM32" s="1"/>
     </row>
@@ -12686,16 +13393,16 @@
         <v>kubectl rollout pause deployment/hello</v>
       </c>
       <c r="AB33" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC33" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD33" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AD33" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="AE33" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
@@ -12704,10 +13411,10 @@
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM33" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="AM33" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="34" spans="2:39" outlineLevel="1">
@@ -12744,16 +13451,16 @@
         <v>kubectl rollout resume deployment/hello</v>
       </c>
       <c r="AB34" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC34" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD34" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AD34" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="AE34" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
@@ -12762,10 +13469,10 @@
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM34" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="2:39" outlineLevel="1">
@@ -12802,16 +13509,16 @@
         <v>kubectl rollout status deployment/hello</v>
       </c>
       <c r="AB35" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC35" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD35" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AD35" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="AE35" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -12820,7 +13527,7 @@
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM35" s="1"/>
     </row>
@@ -12858,16 +13565,16 @@
         <v>kubectl rollout undo deployment/hello</v>
       </c>
       <c r="AB36" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC36" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD36" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AD36" s="21" t="s">
-        <v>267</v>
-      </c>
       <c r="AE36" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -12876,7 +13583,7 @@
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AM36" s="1"/>
     </row>
@@ -12962,16 +13669,16 @@
         <v>kubectl apply -f k8s/production -n production</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
@@ -12980,13 +13687,13 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AM38" s="1"/>
     </row>
     <row r="39" spans="2:39">
       <c r="B39" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -13027,7 +13734,7 @@
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AM39" s="1"/>
     </row>
@@ -15035,7 +15742,7 @@
     </row>
     <row r="7" spans="2:37" ht="102.75" customHeight="1">
       <c r="B7" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -15082,7 +15789,7 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK7" s="1"/>
     </row>
@@ -15120,31 +15827,31 @@
         <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:encrypt" -d "{\"plaintext\":\"$PLAINTEXT\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type: application/json"</v>
       </c>
       <c r="AB8" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AD8" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH8" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="AD8" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF8" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH8" s="21" t="s">
+      <c r="AI8" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="AJ8" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK8" s="1"/>
     </row>
@@ -15182,37 +15889,37 @@
         <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:decrypt" -d "{\"ciphertext\":\"$(cat 1.encrypted)\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type:  application/json"</v>
       </c>
       <c r="AB9" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="AD9" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH9" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI9" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="AJ9" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="2:37">
       <c r="B10" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
@@ -15255,7 +15962,7 @@
     </row>
     <row r="11" spans="2:37">
       <c r="B11" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
@@ -15298,7 +16005,7 @@
     </row>
     <row r="12" spans="2:37">
       <c r="B12" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
@@ -15341,7 +16048,7 @@
     </row>
     <row r="13" spans="2:37" ht="32.25" customHeight="1">
       <c r="B13" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -16940,19 +17647,19 @@
         <v/>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="1"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI31" authorId="0">
+    <comment ref="AI32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI32" authorId="0">
+    <comment ref="AI33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC60" authorId="0">
+    <comment ref="AC63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC61" authorId="0">
+    <comment ref="AC64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC63" authorId="0">
+    <comment ref="AC66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE72" authorId="0">
+    <comment ref="AE75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="418">
   <si>
     <t>Details</t>
   </si>
@@ -1558,19 +1558,46 @@
     <t>Creates a deployment.</t>
   </si>
   <si>
-    <t>single-vm</t>
-  </si>
-  <si>
     <t>Config file:</t>
   </si>
   <si>
-    <t>vm.yaml</t>
-  </si>
-  <si>
     <t>Creates a deployment specified by a .yaml file.</t>
   </si>
   <si>
     <t>Lists deployments in a project.</t>
+  </si>
+  <si>
+    <t>Lists Google Cloud Engine zones.</t>
+  </si>
+  <si>
+    <t>Describes a Google Cloud Engine zone.</t>
+  </si>
+  <si>
+    <t>advanced-configuration</t>
+  </si>
+  <si>
+    <t>nodejs.yaml</t>
+  </si>
+  <si>
+    <t>Commands for deployment-manager types.</t>
+  </si>
+  <si>
+    <t>Prints a list of available resource types.</t>
+  </si>
+  <si>
+    <t>Deletes a deployment.</t>
+  </si>
+  <si>
+    <t>Deployment:</t>
+  </si>
+  <si>
+    <t>custom-net-deployment</t>
+  </si>
+  <si>
+    <t>Provides information about a deployment.</t>
+  </si>
+  <si>
+    <t>Lists firewall rules.</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1804,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1902,6 +1929,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Code" xfId="1"/>
@@ -2210,30 +2240,30 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AQ138"/>
+  <dimension ref="B1:AQ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:Z110"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="24.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="14.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="19.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="15.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="43" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="42.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="10.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="14.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="8.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="16.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="7.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="24.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="14.140625" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="19.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="15.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="43" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="42.140625" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="10.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="8.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="7.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="12.7109375" customWidth="1" outlineLevel="1"/>
     <col min="42" max="42" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="46" customWidth="1"/>
     <col min="44" max="44" width="68.140625" customWidth="1"/>
@@ -2293,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:43" ht="30" collapsed="1">
+    <row r="2" spans="2:43" ht="30">
       <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
@@ -2322,7 +2352,7 @@
       <c r="Y2" s="42"/>
       <c r="Z2" s="43"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA124" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA131" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>gcloud compute</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -2346,7 +2376,7 @@
       </c>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="3" spans="2:43" outlineLevel="1" collapsed="1">
       <c r="B3" s="10"/>
       <c r="C3" s="42" t="str">
         <f>B$2&amp;" instances"</f>
@@ -2656,7 +2686,7 @@
       </c>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="8" spans="2:43" outlineLevel="1" collapsed="1">
       <c r="B8" s="12"/>
       <c r="C8" s="42" t="str">
         <f>B$2&amp;" disks"</f>
@@ -2832,7 +2862,7 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="11" spans="2:43" outlineLevel="1" collapsed="1">
       <c r="B11" s="12"/>
       <c r="C11" s="42" t="str">
         <f>B$2&amp;" ssh"</f>
@@ -2946,7 +2976,7 @@
       </c>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="13" spans="2:43" outlineLevel="1" collapsed="1">
       <c r="B13" s="15"/>
       <c r="C13" s="42" t="str">
         <f>B$2&amp;" instance-templates"</f>
@@ -3074,7 +3104,7 @@
       </c>
       <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="15" spans="2:43" outlineLevel="1" collapsed="1">
       <c r="B15" s="15"/>
       <c r="C15" s="42" t="str">
         <f>B$2&amp;" target-pools"</f>
@@ -3184,7 +3214,7 @@
       </c>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="17" spans="2:43" outlineLevel="1" collapsed="1">
       <c r="B17" s="15"/>
       <c r="C17" s="42" t="str">
         <f>B$2&amp;" instance-groups"</f>
@@ -3726,7 +3756,7 @@
       </c>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="26" spans="2:43" outlineLevel="1">
       <c r="B26" s="15"/>
       <c r="C26" s="42" t="str">
         <f>B$2&amp;" firewall-rules"</f>
@@ -3780,7 +3810,7 @@
       </c>
       <c r="AQ26" s="1"/>
     </row>
-    <row r="27" spans="2:43" ht="50.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="27" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="38" t="str">
@@ -3850,7 +3880,7 @@
       </c>
       <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="2:43" ht="50.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="28" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="38" t="str">
@@ -3906,38 +3936,38 @@
       </c>
       <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="2:43" ht="30" hidden="1" outlineLevel="1">
-      <c r="B29" s="15"/>
-      <c r="C29" s="42" t="str">
-        <f>B$2&amp;" forwarding-rules"</f>
-        <v>gcloud compute forwarding-rules</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="43"/>
+    <row r="29" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38" t="str">
+        <f>C$26&amp;" list"</f>
+        <v>gcloud compute firewall-rules list</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="40"/>
       <c r="AA29" s="8" t="str">
-        <f t="shared" ref="AA29:AA36" ca="1" si="15">IFERROR(OFFSET(A29,0,MATCH("",B29:Z29,-1)),"")</f>
-        <v>gcloud compute forwarding-rules</v>
+        <f t="shared" ref="AA29" ca="1" si="15">IFERROR(OFFSET(A29,0,MATCH("",B29:Z29,-1)),"")</f>
+        <v>gcloud compute firewall-rules list</v>
       </c>
       <c r="AB29" s="2" t="s">
         <v>6</v>
@@ -3956,42 +3986,42 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="1" t="s">
-        <v>115</v>
+        <v>417</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
-    <row r="30" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="30" spans="2:43" ht="30" outlineLevel="1" collapsed="1">
       <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="38" t="str">
-        <f>C$29&amp;" create"</f>
-        <v>gcloud compute forwarding-rules create</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="40"/>
+      <c r="C30" s="42" t="str">
+        <f>B$2&amp;" forwarding-rules"</f>
+        <v>gcloud compute forwarding-rules</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="43"/>
       <c r="AA30" s="8" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>gcloud compute forwarding-rules create</v>
+        <f t="shared" ref="AA30:AA36" ca="1" si="16">IFERROR(OFFSET(A30,0,MATCH("",B30:Z30,-1)),"")</f>
+        <v>gcloud compute forwarding-rules</v>
       </c>
       <c r="AB30" s="2" t="s">
         <v>6</v>
@@ -4010,18 +4040,18 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="2:43" ht="30.75" hidden="1" customHeight="1" outlineLevel="3">
+    <row r="31" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="38" t="str">
-        <f>D$30&amp;" "&amp;AC31&amp;" --target-pool "&amp;AE31&amp;" --ports="&amp;AG31&amp;IF(ISBLANK(AI31)," --global"," --region "&amp;AI31)</f>
-        <v>gcloud compute forwarding-rules create http-cr-rule --target-pool  --ports=80 --global</v>
-      </c>
+      <c r="D31" s="38" t="str">
+        <f>C$30&amp;" create"</f>
+        <v>gcloud compute forwarding-rules create</v>
+      </c>
+      <c r="E31" s="39"/>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
@@ -4044,29 +4074,19 @@
       <c r="Y31" s="39"/>
       <c r="Z31" s="40"/>
       <c r="AA31" s="8" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>gcloud compute forwarding-rules create http-cr-rule --target-pool  --ports=80 --global</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>gcloud compute forwarding-rules create</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>80</v>
-      </c>
-      <c r="AH31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI31" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
@@ -4074,17 +4094,17 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="2:43" ht="38.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
+    <row r="32" spans="2:43" ht="30.75" hidden="1" customHeight="1" outlineLevel="3">
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="38" t="str">
-        <f>D$30&amp;" "&amp;AC32&amp;" --target-http-proxy "&amp;AE32&amp;" --ports="&amp;AG32&amp;IF(ISBLANK(AI32)," --global"," --region "&amp;AI32)&amp;IF(ISBLANK(AK32),""," --address "&amp;AK32)</f>
-        <v>gcloud compute forwarding-rules create http-cr-rule --target-http-proxy http-lb-proxy --ports=80 --global --address 123.456.789.123</v>
+        <f>D$31&amp;" "&amp;AC32&amp;" --target-pool "&amp;AE32&amp;" --ports="&amp;AG32&amp;IF(ISBLANK(AI32)," --global"," --region "&amp;AI32)</f>
+        <v>gcloud compute forwarding-rules create http-cr-rule --target-pool  --ports=80 --global</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -4108,8 +4128,8 @@
       <c r="Y32" s="39"/>
       <c r="Z32" s="40"/>
       <c r="AA32" s="8" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>gcloud compute forwarding-rules create http-cr-rule --target-http-proxy http-lb-proxy --ports=80 --global --address 123.456.789.123</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>gcloud compute forwarding-rules create http-cr-rule --target-pool  --ports=80 --global</v>
       </c>
       <c r="AB32" s="2" t="s">
         <v>117</v>
@@ -4118,11 +4138,9 @@
         <v>194</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE32" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AE32" s="5"/>
       <c r="AF32" s="2" t="s">
         <v>100</v>
       </c>
@@ -4133,26 +4151,25 @@
         <v>82</v>
       </c>
       <c r="AI32" s="5"/>
-      <c r="AJ32" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK32" s="25" t="s">
-        <v>196</v>
-      </c>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ32" s="1"/>
     </row>
-    <row r="33" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="33" spans="2:43" ht="38.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="38" t="str">
+        <f>D$31&amp;" "&amp;AC33&amp;" --target-http-proxy "&amp;AE33&amp;" --ports="&amp;AG33&amp;IF(ISBLANK(AI33)," --global"," --region "&amp;AI33)&amp;IF(ISBLANK(AK33),""," --address "&amp;AK33)</f>
+        <v>gcloud compute forwarding-rules create http-cr-rule --target-http-proxy http-lb-proxy --ports=80 --global --address 123.456.789.123</v>
+      </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -4175,33 +4192,51 @@
       <c r="Y33" s="39"/>
       <c r="Z33" s="40"/>
       <c r="AA33" s="8" t="str">
-        <f t="shared" ref="AA33" ca="1" si="16">IFERROR(OFFSET(A33,0,MATCH("",B33:Z33,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="16"/>
+        <v>gcloud compute forwarding-rules create http-cr-rule --target-http-proxy http-lb-proxy --ports=80 --global --address 123.456.789.123</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>80</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK33" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
-      <c r="AP33" s="1"/>
+      <c r="AP33" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="AQ33" s="1"/>
     </row>
     <row r="34" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="42" t="str">
-        <f>C$29&amp;" list"</f>
+        <f>C$30&amp;" list"</f>
         <v>gcloud compute forwarding-rules list</v>
       </c>
       <c r="E34" s="42"/>
@@ -4227,7 +4262,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="43"/>
       <c r="AA34" s="8" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>gcloud compute forwarding-rules list</v>
       </c>
       <c r="AB34" s="2" t="s">
@@ -4251,7 +4286,7 @@
       </c>
       <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="35" spans="2:43" outlineLevel="1" collapsed="1">
       <c r="B35" s="15"/>
       <c r="C35" s="43" t="str">
         <f>B$2&amp;" health-checks"</f>
@@ -4328,7 +4363,7 @@
       <c r="Y36" s="39"/>
       <c r="Z36" s="40"/>
       <c r="AA36" s="8" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>gcloud compute health-checks create http http-basic-check</v>
       </c>
       <c r="AB36" s="21" t="s">
@@ -4358,7 +4393,7 @@
       </c>
       <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="2:43" ht="135" hidden="1" outlineLevel="1">
+    <row r="37" spans="2:43" ht="135" outlineLevel="1" collapsed="1">
       <c r="B37" s="15"/>
       <c r="C37" s="42" t="str">
         <f>B$2&amp;" backend-services"</f>
@@ -4558,7 +4593,7 @@
       </c>
       <c r="AQ39" s="1"/>
     </row>
-    <row r="40" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="40" spans="2:43" outlineLevel="1" collapsed="1">
       <c r="B40" s="15"/>
       <c r="C40" s="42" t="str">
         <f>B$2&amp;" url-maps"</f>
@@ -4672,7 +4707,7 @@
       </c>
       <c r="AQ41" s="1"/>
     </row>
-    <row r="42" spans="2:43" ht="105" hidden="1" outlineLevel="1">
+    <row r="42" spans="2:43" ht="105" outlineLevel="1" collapsed="1">
       <c r="B42" s="15"/>
       <c r="C42" s="42" t="str">
         <f>B$2&amp;" target-http-proxies"</f>
@@ -4788,7 +4823,7 @@
       </c>
       <c r="AQ43" s="1"/>
     </row>
-    <row r="44" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="44" spans="2:43" outlineLevel="1" collapsed="1">
       <c r="B44" s="15"/>
       <c r="C44" s="42" t="str">
         <f>B$2&amp;" networks"</f>
@@ -5132,7 +5167,7 @@
       </c>
       <c r="AQ49" s="1"/>
     </row>
-    <row r="50" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="50" spans="2:43" outlineLevel="1">
       <c r="B50" s="15"/>
       <c r="C50" s="42" t="str">
         <f>B$2&amp;" addresses"</f>
@@ -5186,7 +5221,7 @@
       </c>
       <c r="AQ50" s="1"/>
     </row>
-    <row r="51" spans="2:43" ht="31.5" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="51" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
       <c r="D51" s="38" t="str">
@@ -5216,7 +5251,7 @@
       <c r="Y51" s="39"/>
       <c r="Z51" s="40"/>
       <c r="AA51" s="8" t="str">
-        <f t="shared" ref="AA51:AA52" ca="1" si="23">IFERROR(OFFSET(A51,0,MATCH("",B51:Z51,-1)),"")</f>
+        <f t="shared" ref="AA51:AA53" ca="1" si="23">IFERROR(OFFSET(A51,0,MATCH("",B51:Z51,-1)),"")</f>
         <v>gcloud compute addresses create lb-ipv6-cr --ip-version=IPV6 --global</v>
       </c>
       <c r="AB51" s="22" t="s">
@@ -5246,7 +5281,7 @@
       </c>
       <c r="AQ51" s="1"/>
     </row>
-    <row r="52" spans="2:43" ht="31.5" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="52" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
       <c r="D52" s="38" t="str">
@@ -5300,9 +5335,12 @@
       </c>
       <c r="AQ52" s="1"/>
     </row>
-    <row r="53" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B53" s="10"/>
-      <c r="C53" s="41"/>
+    <row r="53" spans="2:43" outlineLevel="1" collapsed="1">
+      <c r="B53" s="36"/>
+      <c r="C53" s="42" t="str">
+        <f>B$2&amp;" zones"</f>
+        <v>gcloud compute zones</v>
+      </c>
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
@@ -5326,8 +5364,9 @@
       <c r="X53" s="42"/>
       <c r="Y53" s="42"/>
       <c r="Z53" s="43"/>
-      <c r="AA53" s="8" t="s">
-        <v>199</v>
+      <c r="AA53" s="8" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>gcloud compute zones</v>
       </c>
       <c r="AB53" s="2" t="s">
         <v>6</v>
@@ -5345,40 +5384,43 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
-      <c r="AP53" s="1"/>
+      <c r="AP53" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="AQ53" s="1"/>
     </row>
-    <row r="54" spans="2:43" collapsed="1">
-      <c r="B54" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="42"/>
-      <c r="Z54" s="43"/>
+    <row r="54" spans="2:43" ht="31.5" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38" t="str">
+        <f>C$53&amp;" list"</f>
+        <v>gcloud compute zones list</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="40"/>
       <c r="AA54" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>gcloud auth</v>
+        <f t="shared" ref="AA54:AA55" ca="1" si="24">IFERROR(OFFSET(A54,0,MATCH("",B54:Z54,-1)),"")</f>
+        <v>gcloud compute zones list</v>
       </c>
       <c r="AB54" s="2" t="s">
         <v>6</v>
@@ -5397,47 +5439,49 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
       <c r="AP54" s="1" t="s">
-        <v>34</v>
+        <v>407</v>
       </c>
       <c r="AQ54" s="1"/>
     </row>
-    <row r="55" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B55" s="10"/>
-      <c r="C55" s="42" t="str">
-        <f>B54&amp;" list"</f>
-        <v>gcloud auth list</v>
-      </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="43"/>
+    <row r="55" spans="2:43" ht="31.5" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38" t="str">
+        <f>C$53&amp;" describe "&amp;AC55</f>
+        <v>gcloud compute zones describe europe-west1-b</v>
+      </c>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="40"/>
       <c r="AA55" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>gcloud auth list</v>
-      </c>
-      <c r="AB55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <f t="shared" ca="1" si="24"/>
+        <v>gcloud compute zones describe europe-west1-b</v>
+      </c>
+      <c r="AB55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC55" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
@@ -5451,13 +5495,13 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
       <c r="AP55" s="1" t="s">
-        <v>23</v>
+        <v>408</v>
       </c>
       <c r="AQ55" s="1"/>
     </row>
-    <row r="56" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="56" spans="2:43" outlineLevel="1">
       <c r="B56" s="10"/>
-      <c r="C56" s="42"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="42"/>
       <c r="E56" s="42"/>
       <c r="F56" s="42"/>
@@ -5481,9 +5525,8 @@
       <c r="X56" s="42"/>
       <c r="Y56" s="42"/>
       <c r="Z56" s="43"/>
-      <c r="AA56" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="AA56" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="AB56" s="2" t="s">
         <v>6</v>
@@ -5506,7 +5549,7 @@
     </row>
     <row r="57" spans="2:43" collapsed="1">
       <c r="B57" s="41" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="42"/>
@@ -5533,8 +5576,8 @@
       <c r="Y57" s="42"/>
       <c r="Z57" s="43"/>
       <c r="AA57" s="8" t="str">
-        <f t="shared" ref="AA57:AA62" ca="1" si="24">IFERROR(OFFSET(A57,0,MATCH("",B57:Z57,-1)),"")</f>
-        <v>gcloud config</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>gcloud auth</v>
       </c>
       <c r="AB57" s="2" t="s">
         <v>6</v>
@@ -5553,15 +5596,15 @@
       <c r="AN57" s="2"/>
       <c r="AO57" s="2"/>
       <c r="AP57" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AQ57" s="1"/>
     </row>
     <row r="58" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B58" s="10"/>
       <c r="C58" s="42" t="str">
-        <f>B$57&amp;" list project"</f>
-        <v>gcloud config list project</v>
+        <f>B57&amp;" list"</f>
+        <v>gcloud auth list</v>
       </c>
       <c r="D58" s="42"/>
       <c r="E58" s="42"/>
@@ -5587,8 +5630,8 @@
       <c r="Y58" s="42"/>
       <c r="Z58" s="43"/>
       <c r="AA58" s="8" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>gcloud config list project</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>gcloud auth list</v>
       </c>
       <c r="AB58" s="2" t="s">
         <v>6</v>
@@ -5607,16 +5650,13 @@
       <c r="AN58" s="2"/>
       <c r="AO58" s="2"/>
       <c r="AP58" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AQ58" s="1"/>
     </row>
     <row r="59" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="42" t="str">
-        <f>B$57&amp;" list --all"</f>
-        <v>gcloud config list --all</v>
-      </c>
+      <c r="C59" s="42"/>
       <c r="D59" s="42"/>
       <c r="E59" s="42"/>
       <c r="F59" s="42"/>
@@ -5641,8 +5681,8 @@
       <c r="Y59" s="42"/>
       <c r="Z59" s="43"/>
       <c r="AA59" s="8" t="str">
-        <f t="shared" ref="AA59" ca="1" si="25">IFERROR(OFFSET(A59,0,MATCH("",B59:Z59,-1)),"")</f>
-        <v>gcloud config list --all</v>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="AB59" s="2" t="s">
         <v>6</v>
@@ -5660,17 +5700,14 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
       <c r="AO59" s="2"/>
-      <c r="AP59" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
     </row>
-    <row r="60" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B60" s="15"/>
-      <c r="C60" s="42" t="str">
-        <f>B$57&amp;" set compute/zone "&amp;AC60</f>
-        <v>gcloud config set compute/zone us-central1-a</v>
-      </c>
+    <row r="60" spans="2:43" collapsed="1">
+      <c r="B60" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="42"/>
       <c r="D60" s="42"/>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
@@ -5695,15 +5732,13 @@
       <c r="Y60" s="42"/>
       <c r="Z60" s="43"/>
       <c r="AA60" s="8" t="str">
-        <f t="shared" ref="AA60" ca="1" si="26">IFERROR(OFFSET(A60,0,MATCH("",B60:Z60,-1)),"")</f>
-        <v>gcloud config set compute/zone us-central1-a</v>
-      </c>
-      <c r="AB60" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC60" s="5" t="s">
-        <v>12</v>
-      </c>
+        <f t="shared" ref="AA60:AA65" ca="1" si="25">IFERROR(OFFSET(A60,0,MATCH("",B60:Z60,-1)),"")</f>
+        <v>gcloud config</v>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
@@ -5717,15 +5752,15 @@
       <c r="AN60" s="2"/>
       <c r="AO60" s="2"/>
       <c r="AP60" s="1" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="AQ60" s="1"/>
     </row>
     <row r="61" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B61" s="15"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="42" t="str">
-        <f>B$57&amp;" set compute/region "&amp;AC61</f>
-        <v>gcloud config set compute/region us-central1</v>
+        <f>B$60&amp;" list project"</f>
+        <v>gcloud config list project</v>
       </c>
       <c r="D61" s="42"/>
       <c r="E61" s="42"/>
@@ -5751,15 +5786,13 @@
       <c r="Y61" s="42"/>
       <c r="Z61" s="43"/>
       <c r="AA61" s="8" t="str">
-        <f t="shared" ref="AA61" ca="1" si="27">IFERROR(OFFSET(A61,0,MATCH("",B61:Z61,-1)),"")</f>
-        <v>gcloud config set compute/region us-central1</v>
-      </c>
-      <c r="AB61" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC61" s="5" t="s">
-        <v>83</v>
-      </c>
+        <f t="shared" ca="1" si="25"/>
+        <v>gcloud config list project</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
@@ -5773,15 +5806,15 @@
       <c r="AN61" s="2"/>
       <c r="AO61" s="2"/>
       <c r="AP61" s="1" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AQ61" s="1"/>
     </row>
     <row r="62" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B62" s="10"/>
       <c r="C62" s="42" t="str">
-        <f>B$57&amp;" set project "&amp;AC62</f>
-        <v>gcloud config set project whatever</v>
+        <f>B$60&amp;" list --all"</f>
+        <v>gcloud config list --all</v>
       </c>
       <c r="D62" s="42"/>
       <c r="E62" s="42"/>
@@ -5807,15 +5840,13 @@
       <c r="Y62" s="42"/>
       <c r="Z62" s="43"/>
       <c r="AA62" s="8" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>gcloud config set project whatever</v>
-      </c>
-      <c r="AB62" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC62" s="5" t="s">
-        <v>146</v>
-      </c>
+        <f t="shared" ref="AA62" ca="1" si="26">IFERROR(OFFSET(A62,0,MATCH("",B62:Z62,-1)),"")</f>
+        <v>gcloud config list --all</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
@@ -5829,16 +5860,16 @@
       <c r="AN62" s="2"/>
       <c r="AO62" s="2"/>
       <c r="AP62" s="1" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="AQ62" s="1"/>
     </row>
-    <row r="63" spans="2:43">
-      <c r="B63" s="41" t="str">
-        <f>"gcloud help "&amp;AC63</f>
-        <v>gcloud help config</v>
-      </c>
-      <c r="C63" s="42"/>
+    <row r="63" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B63" s="15"/>
+      <c r="C63" s="42" t="str">
+        <f>B$60&amp;" set compute/zone "&amp;AC63</f>
+        <v>gcloud config set compute/zone us-central1-a</v>
+      </c>
       <c r="D63" s="42"/>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
@@ -5863,14 +5894,14 @@
       <c r="Y63" s="42"/>
       <c r="Z63" s="43"/>
       <c r="AA63" s="8" t="str">
-        <f t="shared" ref="AA63:AA73" ca="1" si="28">IFERROR(OFFSET(A63,0,MATCH("",B63:Z63,-1)),"")</f>
-        <v>gcloud help config</v>
-      </c>
-      <c r="AB63" s="2" t="s">
-        <v>21</v>
+        <f t="shared" ref="AA63" ca="1" si="27">IFERROR(OFFSET(A63,0,MATCH("",B63:Z63,-1)),"")</f>
+        <v>gcloud config set compute/zone us-central1-a</v>
+      </c>
+      <c r="AB63" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="AC63" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
@@ -5885,15 +5916,16 @@
       <c r="AN63" s="2"/>
       <c r="AO63" s="2"/>
       <c r="AP63" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="AQ63" s="1"/>
     </row>
-    <row r="64" spans="2:43" collapsed="1">
-      <c r="B64" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="42"/>
+    <row r="64" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B64" s="15"/>
+      <c r="C64" s="42" t="str">
+        <f>B$60&amp;" set compute/region "&amp;AC64</f>
+        <v>gcloud config set compute/region us-central1</v>
+      </c>
       <c r="D64" s="42"/>
       <c r="E64" s="42"/>
       <c r="F64" s="42"/>
@@ -5918,13 +5950,15 @@
       <c r="Y64" s="42"/>
       <c r="Z64" s="43"/>
       <c r="AA64" s="8" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>gcloud init</v>
-      </c>
-      <c r="AB64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <f t="shared" ref="AA64" ca="1" si="28">IFERROR(OFFSET(A64,0,MATCH("",B64:Z64,-1)),"")</f>
+        <v>gcloud config set compute/region us-central1</v>
+      </c>
+      <c r="AB64" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC64" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
@@ -5938,15 +5972,15 @@
       <c r="AN64" s="2"/>
       <c r="AO64" s="2"/>
       <c r="AP64" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AQ64" s="1"/>
     </row>
-    <row r="65" spans="2:43" ht="45" hidden="1" outlineLevel="1">
+    <row r="65" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B65" s="10"/>
       <c r="C65" s="42" t="str">
-        <f>B64&amp;" --console-only"</f>
-        <v>gcloud init --console-only</v>
+        <f>B$60&amp;" set project "&amp;AC65</f>
+        <v>gcloud config set project whatever</v>
       </c>
       <c r="D65" s="42"/>
       <c r="E65" s="42"/>
@@ -5972,13 +6006,15 @@
       <c r="Y65" s="42"/>
       <c r="Z65" s="43"/>
       <c r="AA65" s="8" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>gcloud init --console-only</v>
-      </c>
-      <c r="AB65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC65" s="2"/>
+        <f t="shared" ca="1" si="25"/>
+        <v>gcloud config set project whatever</v>
+      </c>
+      <c r="AB65" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC65" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
@@ -5992,12 +6028,15 @@
       <c r="AN65" s="2"/>
       <c r="AO65" s="2"/>
       <c r="AP65" s="1" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="AQ65" s="1"/>
     </row>
-    <row r="66" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B66" s="10"/>
+    <row r="66" spans="2:43">
+      <c r="B66" s="41" t="str">
+        <f>"gcloud help "&amp;AC66</f>
+        <v>gcloud help config</v>
+      </c>
       <c r="C66" s="42"/>
       <c r="D66" s="42"/>
       <c r="E66" s="42"/>
@@ -6023,13 +6062,15 @@
       <c r="Y66" s="42"/>
       <c r="Z66" s="43"/>
       <c r="AA66" s="8" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v/>
+        <f t="shared" ref="AA66:AA76" ca="1" si="29">IFERROR(OFFSET(A66,0,MATCH("",B66:Z66,-1)),"")</f>
+        <v>gcloud help config</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC66" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="AC66" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
@@ -6042,12 +6083,14 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
       <c r="AO66" s="2"/>
-      <c r="AP66" s="1"/>
+      <c r="AP66" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="AQ66" s="1"/>
     </row>
     <row r="67" spans="2:43" collapsed="1">
       <c r="B67" s="41" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="C67" s="42"/>
       <c r="D67" s="42"/>
@@ -6074,8 +6117,8 @@
       <c r="Y67" s="42"/>
       <c r="Z67" s="43"/>
       <c r="AA67" s="8" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>gcloud kms</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>gcloud init</v>
       </c>
       <c r="AB67" s="2" t="s">
         <v>6</v>
@@ -6093,14 +6136,16 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
       <c r="AO67" s="2"/>
-      <c r="AP67" s="1"/>
+      <c r="AP67" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="AQ67" s="1"/>
     </row>
-    <row r="68" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B68" s="27"/>
+    <row r="68" spans="2:43" ht="45" hidden="1" outlineLevel="1">
+      <c r="B68" s="10"/>
       <c r="C68" s="42" t="str">
-        <f>B$67&amp;" keyrings"</f>
-        <v>gcloud kms keyrings</v>
+        <f>B67&amp;" --console-only"</f>
+        <v>gcloud init --console-only</v>
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="42"/>
@@ -6126,8 +6171,8 @@
       <c r="Y68" s="42"/>
       <c r="Z68" s="43"/>
       <c r="AA68" s="8" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>gcloud kms keyrings</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>gcloud init --console-only</v>
       </c>
       <c r="AB68" s="2" t="s">
         <v>6</v>
@@ -6146,57 +6191,46 @@
       <c r="AN68" s="2"/>
       <c r="AO68" s="2"/>
       <c r="AP68" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ68" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="2:43" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B69" s="27"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="38" t="str">
-        <f>C$68&amp;" create "&amp;AC69&amp;IF(ISBLANK(AE69),""," --location "&amp;AE69)</f>
-        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
-      </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="40"/>
+        <v>30</v>
+      </c>
+      <c r="AQ68" s="1"/>
+    </row>
+    <row r="69" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B69" s="10"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="43"/>
       <c r="AA69" s="8" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
-      </c>
-      <c r="AB69" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC69" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD69" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE69" s="5" t="s">
-        <v>214</v>
-      </c>
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
@@ -6207,86 +6241,65 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
-      <c r="AP69" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="AP69" s="1"/>
       <c r="AQ69" s="1"/>
     </row>
-    <row r="70" spans="2:43" ht="60" hidden="1" outlineLevel="2">
-      <c r="B70" s="27"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="38" t="str">
-        <f>C$68&amp;" add-iam-policy-binding "&amp;AC70&amp;" --member "&amp;AE70&amp;" --role "&amp;AG70&amp;IF(ISBLANK(AI70),""," --location "&amp;AI70)</f>
-        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
-      </c>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="40"/>
+    <row r="70" spans="2:43" collapsed="1">
+      <c r="B70" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="43"/>
       <c r="AA70" s="8" t="str">
-        <f t="shared" ref="AA70:AA72" ca="1" si="29">IFERROR(OFFSET(A70,0,MATCH("",B70:Z70,-1)),"")</f>
-        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
-      </c>
-      <c r="AB70" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC70" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD70" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE70" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF70" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG70" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH70" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI70" s="5" t="s">
-        <v>214</v>
-      </c>
+        <f t="shared" ca="1" si="29"/>
+        <v>gcloud kms</v>
+      </c>
+      <c r="AB70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
       <c r="AK70" s="2"/>
       <c r="AL70" s="2"/>
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
       <c r="AO70" s="2"/>
-      <c r="AP70" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AQ70" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
     </row>
     <row r="71" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B71" s="27"/>
       <c r="C71" s="42" t="str">
-        <f>B$67&amp;" keys"</f>
-        <v>gcloud kms keys</v>
+        <f>B$70&amp;" keyrings"</f>
+        <v>gcloud kms keyrings</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="42"/>
@@ -6313,7 +6326,7 @@
       <c r="Z71" s="43"/>
       <c r="AA71" s="8" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>gcloud kms keys</v>
+        <v>gcloud kms keyrings</v>
       </c>
       <c r="AB71" s="2" t="s">
         <v>6</v>
@@ -6332,16 +6345,18 @@
       <c r="AN71" s="2"/>
       <c r="AO71" s="2"/>
       <c r="AP71" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AQ71" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="AQ71" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="72" spans="2:43" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B72" s="27"/>
       <c r="C72" s="26"/>
       <c r="D72" s="38" t="str">
-        <f>C$71&amp;" create "&amp;AC72&amp;" --purpose "&amp;AE72&amp;IF(ISBLANK(AG72),""," --keyring "&amp;AG72)&amp;IF(ISBLANK(AI72),""," --location "&amp;AI72)</f>
-        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
+        <f>C$71&amp;" create "&amp;AC72&amp;IF(ISBLANK(AE72),""," --location "&amp;AE72)</f>
+        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
@@ -6365,34 +6380,26 @@
       <c r="X72" s="39"/>
       <c r="Y72" s="39"/>
       <c r="Z72" s="40"/>
-      <c r="AA72" s="32" t="str">
+      <c r="AA72" s="8" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
+        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
       </c>
       <c r="AB72" s="21" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AC72" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD72" s="21" t="s">
-        <v>223</v>
+        <v>212</v>
+      </c>
+      <c r="AD72" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="AE72" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF72" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG72" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH72" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI72" s="5" t="s">
         <v>214</v>
       </c>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
       <c r="AK72" s="2"/>
       <c r="AL72" s="2"/>
@@ -6400,52 +6407,67 @@
       <c r="AN72" s="2"/>
       <c r="AO72" s="2"/>
       <c r="AP72" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AQ72" s="1"/>
     </row>
-    <row r="73" spans="2:43" ht="30">
-      <c r="B73" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
-      <c r="Q73" s="42"/>
-      <c r="R73" s="42"/>
-      <c r="S73" s="42"/>
-      <c r="T73" s="42"/>
-      <c r="U73" s="42"/>
-      <c r="V73" s="42"/>
-      <c r="W73" s="42"/>
-      <c r="X73" s="42"/>
-      <c r="Y73" s="42"/>
-      <c r="Z73" s="43"/>
+    <row r="73" spans="2:43" ht="60" hidden="1" outlineLevel="2">
+      <c r="B73" s="27"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="38" t="str">
+        <f>C$71&amp;" add-iam-policy-binding "&amp;AC73&amp;" --member "&amp;AE73&amp;" --role "&amp;AG73&amp;IF(ISBLANK(AI73),""," --location "&amp;AI73)</f>
+        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
+      </c>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="39"/>
+      <c r="Z73" s="40"/>
       <c r="AA73" s="8" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>gcloud info</v>
-      </c>
-      <c r="AB73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC73" s="2"/>
-      <c r="AD73" s="2"/>
-      <c r="AE73" s="2"/>
-      <c r="AF73" s="2"/>
-      <c r="AG73" s="2"/>
-      <c r="AH73" s="2"/>
-      <c r="AI73" s="2"/>
+        <f t="shared" ref="AA73:AA75" ca="1" si="30">IFERROR(OFFSET(A73,0,MATCH("",B73:Z73,-1)),"")</f>
+        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
+      </c>
+      <c r="AB73" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC73" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD73" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE73" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF73" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG73" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH73" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI73" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="AJ73" s="2"/>
       <c r="AK73" s="2"/>
       <c r="AL73" s="2"/>
@@ -6453,15 +6475,18 @@
       <c r="AN73" s="2"/>
       <c r="AO73" s="2"/>
       <c r="AP73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ73" s="1"/>
-    </row>
-    <row r="74" spans="2:43" collapsed="1">
-      <c r="B74" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="42"/>
+        <v>231</v>
+      </c>
+      <c r="AQ73" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B74" s="27"/>
+      <c r="C74" s="42" t="str">
+        <f>B$70&amp;" keys"</f>
+        <v>gcloud kms keys</v>
+      </c>
       <c r="D74" s="42"/>
       <c r="E74" s="42"/>
       <c r="F74" s="42"/>
@@ -6486,8 +6511,8 @@
       <c r="Y74" s="42"/>
       <c r="Z74" s="43"/>
       <c r="AA74" s="8" t="str">
-        <f t="shared" ref="AA74:AA83" ca="1" si="30">IFERROR(OFFSET(A74,0,MATCH("",B74:Z74,-1)),"")</f>
-        <v>gcloud services</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>gcloud kms keys</v>
       </c>
       <c r="AB74" s="2" t="s">
         <v>6</v>
@@ -6506,53 +6531,67 @@
       <c r="AN74" s="2"/>
       <c r="AO74" s="2"/>
       <c r="AP74" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AQ74" s="1"/>
     </row>
-    <row r="75" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="75" spans="2:43" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B75" s="27"/>
-      <c r="C75" s="42" t="str">
-        <f>B$74&amp;" list --available"</f>
-        <v>gcloud services list --available</v>
-      </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="42"/>
-      <c r="T75" s="42"/>
-      <c r="U75" s="42"/>
-      <c r="V75" s="42"/>
-      <c r="W75" s="42"/>
-      <c r="X75" s="42"/>
-      <c r="Y75" s="42"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="8" t="str">
+      <c r="C75" s="26"/>
+      <c r="D75" s="38" t="str">
+        <f>C$74&amp;" create "&amp;AC75&amp;" --purpose "&amp;AE75&amp;IF(ISBLANK(AG75),""," --keyring "&amp;AG75)&amp;IF(ISBLANK(AI75),""," --location "&amp;AI75)</f>
+        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
+      </c>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
+      <c r="Z75" s="40"/>
+      <c r="AA75" s="32" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>gcloud services list --available</v>
-      </c>
-      <c r="AB75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="2"/>
-      <c r="AG75" s="2"/>
-      <c r="AH75" s="2"/>
-      <c r="AI75" s="2"/>
+        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
+      </c>
+      <c r="AB75" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC75" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD75" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE75" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF75" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG75" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI75" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="AJ75" s="2"/>
       <c r="AK75" s="2"/>
       <c r="AL75" s="2"/>
@@ -6560,16 +6599,15 @@
       <c r="AN75" s="2"/>
       <c r="AO75" s="2"/>
       <c r="AP75" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AQ75" s="1"/>
     </row>
-    <row r="76" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B76" s="27"/>
-      <c r="C76" s="42" t="str">
-        <f>B$74&amp;" enable "&amp;AC76</f>
-        <v>gcloud services enable cloudkms.googleapis.com</v>
-      </c>
+    <row r="76" spans="2:43" ht="30">
+      <c r="B76" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="42"/>
       <c r="D76" s="42"/>
       <c r="E76" s="42"/>
       <c r="F76" s="42"/>
@@ -6594,15 +6632,13 @@
       <c r="Y76" s="42"/>
       <c r="Z76" s="43"/>
       <c r="AA76" s="8" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>gcloud services enable cloudkms.googleapis.com</v>
-      </c>
-      <c r="AB76" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC76" s="5" t="s">
-        <v>239</v>
-      </c>
+        <f t="shared" ca="1" si="29"/>
+        <v>gcloud info</v>
+      </c>
+      <c r="AB76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
@@ -6616,13 +6652,13 @@
       <c r="AN76" s="2"/>
       <c r="AO76" s="2"/>
       <c r="AP76" s="1" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="AQ76" s="1"/>
     </row>
     <row r="77" spans="2:43" collapsed="1">
       <c r="B77" s="41" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="42"/>
@@ -6649,8 +6685,8 @@
       <c r="Y77" s="42"/>
       <c r="Z77" s="43"/>
       <c r="AA77" s="8" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>gcloud container</v>
+        <f t="shared" ref="AA77:AA86" ca="1" si="31">IFERROR(OFFSET(A77,0,MATCH("",B77:Z77,-1)),"")</f>
+        <v>gcloud services</v>
       </c>
       <c r="AB77" s="2" t="s">
         <v>6</v>
@@ -6668,14 +6704,16 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
       <c r="AO77" s="2"/>
-      <c r="AP77" s="1"/>
+      <c r="AP77" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="AQ77" s="1"/>
     </row>
     <row r="78" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B78" s="27"/>
       <c r="C78" s="42" t="str">
-        <f>B$77&amp;" clusters"</f>
-        <v>gcloud container clusters</v>
+        <f>B$77&amp;" list --available"</f>
+        <v>gcloud services list --available</v>
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="42"/>
@@ -6701,8 +6739,8 @@
       <c r="Y78" s="42"/>
       <c r="Z78" s="43"/>
       <c r="AA78" s="8" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>gcloud container clusters</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>gcloud services list --available</v>
       </c>
       <c r="AB78" s="2" t="s">
         <v>6</v>
@@ -6721,67 +6759,55 @@
       <c r="AN78" s="2"/>
       <c r="AO78" s="2"/>
       <c r="AP78" s="1" t="s">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="AQ78" s="1"/>
     </row>
-    <row r="79" spans="2:43" ht="51" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="79" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B79" s="27"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="38" t="str">
-        <f>C$78&amp;" create "&amp;AC79&amp;IF(ISBLANK(AE79),""," --num-nodes "&amp;AE79)&amp;IF(ISBLANK(AG79),""," --machine-type "&amp;AG79)&amp;IF(ISBLANK(AI79),""," --scopes "&amp;AI79)</f>
-        <v>gcloud container clusters create jenkins-cd --num-nodes 2 --machine-type n1-standard-2 --scopes "https://www.googleapis.com/auth/projecthosting,cloud-platform"</v>
-      </c>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="40"/>
+      <c r="C79" s="42" t="str">
+        <f>B$77&amp;" enable "&amp;AC79</f>
+        <v>gcloud services enable cloudkms.googleapis.com</v>
+      </c>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="43"/>
       <c r="AA79" s="8" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>gcloud container clusters create jenkins-cd --num-nodes 2 --machine-type n1-standard-2 --scopes "https://www.googleapis.com/auth/projecthosting,cloud-platform"</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>gcloud services enable cloudkms.googleapis.com</v>
       </c>
       <c r="AB79" s="21" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AC79" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="AD79" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE79" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF79" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG79" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="AH79" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI79" s="5" t="s">
-        <v>324</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2"/>
       <c r="AJ79" s="2"/>
       <c r="AK79" s="2"/>
       <c r="AL79" s="2"/>
@@ -6789,51 +6815,46 @@
       <c r="AN79" s="2"/>
       <c r="AO79" s="2"/>
       <c r="AP79" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AQ79" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="80" spans="2:43" ht="30" hidden="1" outlineLevel="2">
-      <c r="B80" s="27"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="38" t="str">
-        <f>C$78&amp;" get-credentials "&amp;AC80</f>
-        <v>gcloud container clusters get-credentials jenkins-cd</v>
-      </c>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
-      <c r="Z80" s="40"/>
+        <v>236</v>
+      </c>
+      <c r="AQ79" s="1"/>
+    </row>
+    <row r="80" spans="2:43" collapsed="1">
+      <c r="B80" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="43"/>
       <c r="AA80" s="8" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>gcloud container clusters get-credentials jenkins-cd</v>
-      </c>
-      <c r="AB80" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC80" s="23" t="s">
-        <v>321</v>
-      </c>
+        <f t="shared" ca="1" si="31"/>
+        <v>gcloud container</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
@@ -6846,43 +6867,41 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
       <c r="AO80" s="2"/>
-      <c r="AP80" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="AP80" s="1"/>
       <c r="AQ80" s="1"/>
     </row>
-    <row r="81" spans="2:43" hidden="1" outlineLevel="2">
-      <c r="B81" s="33"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="38" t="str">
-        <f>C$78&amp;" list"</f>
-        <v>gcloud container clusters list</v>
-      </c>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
-      <c r="Z81" s="40"/>
+    <row r="81" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B81" s="27"/>
+      <c r="C81" s="42" t="str">
+        <f>B$80&amp;" clusters"</f>
+        <v>gcloud container clusters</v>
+      </c>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="43"/>
       <c r="AA81" s="8" t="str">
-        <f t="shared" ref="AA81" ca="1" si="31">IFERROR(OFFSET(A81,0,MATCH("",B81:Z81,-1)),"")</f>
-        <v>gcloud container clusters list</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>gcloud container clusters</v>
       </c>
       <c r="AB81" s="2" t="s">
         <v>6</v>
@@ -6901,53 +6920,67 @@
       <c r="AN81" s="2"/>
       <c r="AO81" s="2"/>
       <c r="AP81" s="1" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="AQ81" s="1"/>
     </row>
-    <row r="82" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+    <row r="82" spans="2:43" ht="51" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B82" s="27"/>
-      <c r="C82" s="42" t="str">
-        <f>B$77&amp;" images"</f>
-        <v>gcloud container images</v>
-      </c>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
-      <c r="Q82" s="42"/>
-      <c r="R82" s="42"/>
-      <c r="S82" s="42"/>
-      <c r="T82" s="42"/>
-      <c r="U82" s="42"/>
-      <c r="V82" s="42"/>
-      <c r="W82" s="42"/>
-      <c r="X82" s="42"/>
-      <c r="Y82" s="42"/>
-      <c r="Z82" s="43"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="38" t="str">
+        <f>C$81&amp;" create "&amp;AC82&amp;IF(ISBLANK(AE82),""," --num-nodes "&amp;AE82)&amp;IF(ISBLANK(AG82),""," --machine-type "&amp;AG82)&amp;IF(ISBLANK(AI82),""," --scopes "&amp;AI82)</f>
+        <v>gcloud container clusters create jenkins-cd --num-nodes 2 --machine-type n1-standard-2 --scopes "https://www.googleapis.com/auth/projecthosting,cloud-platform"</v>
+      </c>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
+      <c r="Z82" s="40"/>
       <c r="AA82" s="8" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>gcloud container images</v>
-      </c>
-      <c r="AB82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="2"/>
-      <c r="AH82" s="2"/>
-      <c r="AI82" s="2"/>
+        <f t="shared" ca="1" si="31"/>
+        <v>gcloud container clusters create jenkins-cd --num-nodes 2 --machine-type n1-standard-2 --scopes "https://www.googleapis.com/auth/projecthosting,cloud-platform"</v>
+      </c>
+      <c r="AB82" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC82" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD82" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE82" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF82" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG82" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI82" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="AJ82" s="2"/>
       <c r="AK82" s="2"/>
       <c r="AL82" s="2"/>
@@ -6955,16 +6988,18 @@
       <c r="AN82" s="2"/>
       <c r="AO82" s="2"/>
       <c r="AP82" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AQ82" s="1"/>
-    </row>
-    <row r="83" spans="2:43" hidden="1" outlineLevel="2">
-      <c r="B83" s="33"/>
-      <c r="C83" s="34"/>
+        <v>250</v>
+      </c>
+      <c r="AQ82" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="2:43" ht="30" hidden="1" outlineLevel="2">
+      <c r="B83" s="27"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="38" t="str">
-        <f>C$82&amp;" list"</f>
-        <v>gcloud container images list</v>
+        <f>C$81&amp;" get-credentials "&amp;AC83</f>
+        <v>gcloud container clusters get-credentials jenkins-cd</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="39"/>
@@ -6989,13 +7024,15 @@
       <c r="Y83" s="39"/>
       <c r="Z83" s="40"/>
       <c r="AA83" s="8" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>gcloud container images list</v>
-      </c>
-      <c r="AB83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC83" s="2"/>
+        <f t="shared" ca="1" si="31"/>
+        <v>gcloud container clusters get-credentials jenkins-cd</v>
+      </c>
+      <c r="AB83" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC83" s="23" t="s">
+        <v>321</v>
+      </c>
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
@@ -7009,41 +7046,42 @@
       <c r="AN83" s="2"/>
       <c r="AO83" s="2"/>
       <c r="AP83" s="1" t="s">
-        <v>370</v>
+        <v>252</v>
       </c>
       <c r="AQ83" s="1"/>
     </row>
-    <row r="84" spans="2:43">
-      <c r="B84" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="42"/>
-      <c r="S84" s="42"/>
-      <c r="T84" s="42"/>
-      <c r="U84" s="42"/>
-      <c r="V84" s="42"/>
-      <c r="W84" s="42"/>
-      <c r="X84" s="42"/>
-      <c r="Y84" s="42"/>
-      <c r="Z84" s="43"/>
+    <row r="84" spans="2:43" hidden="1" outlineLevel="2">
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="38" t="str">
+        <f>C$81&amp;" list"</f>
+        <v>gcloud container clusters list</v>
+      </c>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
+      <c r="Z84" s="40"/>
       <c r="AA84" s="8" t="str">
-        <f t="shared" ref="AA84:AA88" ca="1" si="32">IFERROR(OFFSET(A84,0,MATCH("",B84:Z84,-1)),"")</f>
-        <v>gcloud source</v>
+        <f t="shared" ref="AA84" ca="1" si="32">IFERROR(OFFSET(A84,0,MATCH("",B84:Z84,-1)),"")</f>
+        <v>gcloud container clusters list</v>
       </c>
       <c r="AB84" s="2" t="s">
         <v>6</v>
@@ -7062,15 +7100,15 @@
       <c r="AN84" s="2"/>
       <c r="AO84" s="2"/>
       <c r="AP84" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AQ84" s="1"/>
     </row>
-    <row r="85" spans="2:43" outlineLevel="1">
-      <c r="B85" s="33"/>
+    <row r="85" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B85" s="27"/>
       <c r="C85" s="42" t="str">
-        <f>B$84&amp;" repos"</f>
-        <v>gcloud source repos</v>
+        <f>B$80&amp;" images"</f>
+        <v>gcloud container images</v>
       </c>
       <c r="D85" s="42"/>
       <c r="E85" s="42"/>
@@ -7096,8 +7134,8 @@
       <c r="Y85" s="42"/>
       <c r="Z85" s="43"/>
       <c r="AA85" s="8" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>gcloud source repos</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>gcloud container images</v>
       </c>
       <c r="AB85" s="2" t="s">
         <v>6</v>
@@ -7116,16 +7154,16 @@
       <c r="AN85" s="2"/>
       <c r="AO85" s="2"/>
       <c r="AP85" s="1" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="AQ85" s="1"/>
     </row>
-    <row r="86" spans="2:43" ht="30" outlineLevel="2">
+    <row r="86" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B86" s="33"/>
       <c r="C86" s="34"/>
       <c r="D86" s="38" t="str">
-        <f>C$85&amp;" create "&amp;AC86</f>
-        <v>gcloud source repos create other</v>
+        <f>C$85&amp;" list"</f>
+        <v>gcloud container images list</v>
       </c>
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
@@ -7150,15 +7188,13 @@
       <c r="Y86" s="39"/>
       <c r="Z86" s="40"/>
       <c r="AA86" s="8" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>gcloud source repos create other</v>
-      </c>
-      <c r="AB86" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC86" s="5" t="s">
-        <v>350</v>
-      </c>
+        <f t="shared" ca="1" si="31"/>
+        <v>gcloud container images list</v>
+      </c>
+      <c r="AB86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
@@ -7172,49 +7208,46 @@
       <c r="AN86" s="2"/>
       <c r="AO86" s="2"/>
       <c r="AP86" s="1" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="AQ86" s="1"/>
     </row>
-    <row r="87" spans="2:43" ht="30" outlineLevel="2">
-      <c r="B87" s="33"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="38" t="str">
-        <f>C$85&amp;" clone "&amp;AC87</f>
-        <v>gcloud source repos clone DEFAULT</v>
-      </c>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39"/>
-      <c r="Y87" s="39"/>
-      <c r="Z87" s="40"/>
+    <row r="87" spans="2:43" collapsed="1">
+      <c r="B87" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="42"/>
+      <c r="X87" s="42"/>
+      <c r="Y87" s="42"/>
+      <c r="Z87" s="43"/>
       <c r="AA87" s="8" t="str">
-        <f t="shared" ref="AA87" ca="1" si="33">IFERROR(OFFSET(A87,0,MATCH("",B87:Z87,-1)),"")</f>
-        <v>gcloud source repos clone DEFAULT</v>
-      </c>
-      <c r="AB87" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC87" s="5" t="s">
-        <v>382</v>
-      </c>
+        <f t="shared" ref="AA87:AA91" ca="1" si="33">IFERROR(OFFSET(A87,0,MATCH("",B87:Z87,-1)),"")</f>
+        <v>gcloud source</v>
+      </c>
+      <c r="AB87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
@@ -7228,43 +7261,42 @@
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
       <c r="AP87" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AQ87" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="88" spans="2:43" collapsed="1">
-      <c r="B88" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="C88" s="42"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
-      <c r="Z88" s="40"/>
+        <v>346</v>
+      </c>
+      <c r="AQ87" s="1"/>
+    </row>
+    <row r="88" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B88" s="33"/>
+      <c r="C88" s="42" t="str">
+        <f>B$87&amp;" repos"</f>
+        <v>gcloud source repos</v>
+      </c>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="42"/>
+      <c r="U88" s="42"/>
+      <c r="V88" s="42"/>
+      <c r="W88" s="42"/>
+      <c r="X88" s="42"/>
+      <c r="Y88" s="42"/>
+      <c r="Z88" s="43"/>
       <c r="AA88" s="8" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>gcloud app</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>gcloud source repos</v>
       </c>
       <c r="AB88" s="2" t="s">
         <v>6</v>
@@ -7283,47 +7315,49 @@
       <c r="AN88" s="2"/>
       <c r="AO88" s="2"/>
       <c r="AP88" s="1" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="AQ88" s="1"/>
     </row>
-    <row r="89" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="89" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B89" s="33"/>
-      <c r="C89" s="41" t="str">
-        <f>B$88&amp;" create"</f>
-        <v>gcloud app create</v>
-      </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="O89" s="42"/>
-      <c r="P89" s="42"/>
-      <c r="Q89" s="42"/>
-      <c r="R89" s="42"/>
-      <c r="S89" s="42"/>
-      <c r="T89" s="42"/>
-      <c r="U89" s="42"/>
-      <c r="V89" s="42"/>
-      <c r="W89" s="42"/>
-      <c r="X89" s="42"/>
-      <c r="Y89" s="42"/>
-      <c r="Z89" s="43"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="38" t="str">
+        <f>C$88&amp;" create "&amp;AC89</f>
+        <v>gcloud source repos create other</v>
+      </c>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="40"/>
       <c r="AA89" s="8" t="str">
-        <f t="shared" ref="AA89:AA91" ca="1" si="34">IFERROR(OFFSET(A89,0,MATCH("",B89:Z89,-1)),"")</f>
-        <v>gcloud app create</v>
-      </c>
-      <c r="AB89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC89" s="2"/>
+        <f t="shared" ca="1" si="33"/>
+        <v>gcloud source repos create other</v>
+      </c>
+      <c r="AB89" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC89" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
@@ -7337,53 +7371,51 @@
       <c r="AN89" s="2"/>
       <c r="AO89" s="2"/>
       <c r="AP89" s="1" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="AQ89" s="1"/>
     </row>
-    <row r="90" spans="2:43" ht="90" hidden="1" outlineLevel="1">
+    <row r="90" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B90" s="33"/>
-      <c r="C90" s="41" t="str">
-        <f>B$88&amp;" deploy"&amp;IF(ISBLANK(AC90),""," "&amp;AC90)&amp;IF(ISBLANK(AE90),""," --version "&amp;AE90)</f>
-        <v>gcloud app deploy --version 1</v>
-      </c>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42"/>
-      <c r="O90" s="42"/>
-      <c r="P90" s="42"/>
-      <c r="Q90" s="42"/>
-      <c r="R90" s="42"/>
-      <c r="S90" s="42"/>
-      <c r="T90" s="42"/>
-      <c r="U90" s="42"/>
-      <c r="V90" s="42"/>
-      <c r="W90" s="42"/>
-      <c r="X90" s="42"/>
-      <c r="Y90" s="42"/>
-      <c r="Z90" s="43"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="38" t="str">
+        <f>C$88&amp;" clone "&amp;AC90</f>
+        <v>gcloud source repos clone DEFAULT</v>
+      </c>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="40"/>
       <c r="AA90" s="8" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>gcloud app deploy --version 1</v>
-      </c>
-      <c r="AB90" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE90" s="5">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="AA90" ca="1" si="34">IFERROR(OFFSET(A90,0,MATCH("",B90:Z90,-1)),"")</f>
+        <v>gcloud source repos clone DEFAULT</v>
+      </c>
+      <c r="AB90" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC90" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
@@ -7395,15 +7427,15 @@
       <c r="AN90" s="2"/>
       <c r="AO90" s="2"/>
       <c r="AP90" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AQ90" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="91" spans="2:43">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="2:43" collapsed="1">
       <c r="B91" s="41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C91" s="42"/>
       <c r="D91" s="38"/>
@@ -7430,8 +7462,8 @@
       <c r="Y91" s="39"/>
       <c r="Z91" s="40"/>
       <c r="AA91" s="8" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v>gcloud datastore</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>gcloud app</v>
       </c>
       <c r="AB91" s="2" t="s">
         <v>6</v>
@@ -7450,15 +7482,15 @@
       <c r="AN91" s="2"/>
       <c r="AO91" s="2"/>
       <c r="AP91" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AQ91" s="1"/>
     </row>
-    <row r="92" spans="2:43" outlineLevel="1">
+    <row r="92" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B92" s="33"/>
       <c r="C92" s="41" t="str">
-        <f>B$91&amp;" create-indexes "&amp;AC92</f>
-        <v>gcloud datastore create-indexes index.yaml</v>
+        <f>B$91&amp;" create"</f>
+        <v>gcloud app create</v>
       </c>
       <c r="D92" s="42"/>
       <c r="E92" s="42"/>
@@ -7484,15 +7516,13 @@
       <c r="Y92" s="42"/>
       <c r="Z92" s="43"/>
       <c r="AA92" s="8" t="str">
-        <f t="shared" ref="AA92:AA95" ca="1" si="35">IFERROR(OFFSET(A92,0,MATCH("",B92:Z92,-1)),"")</f>
-        <v>gcloud datastore create-indexes index.yaml</v>
-      </c>
-      <c r="AB92" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC92" s="5" t="s">
-        <v>374</v>
-      </c>
+        <f t="shared" ref="AA92:AA94" ca="1" si="35">IFERROR(OFFSET(A92,0,MATCH("",B92:Z92,-1)),"")</f>
+        <v>gcloud app create</v>
+      </c>
+      <c r="AB92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
@@ -7506,15 +7536,16 @@
       <c r="AN92" s="2"/>
       <c r="AO92" s="2"/>
       <c r="AP92" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AQ92" s="1"/>
     </row>
-    <row r="93" spans="2:43">
-      <c r="B93" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="C93" s="42"/>
+    <row r="93" spans="2:43" ht="90" hidden="1" outlineLevel="1">
+      <c r="B93" s="33"/>
+      <c r="C93" s="41" t="str">
+        <f>B$91&amp;" deploy"&amp;IF(ISBLANK(AC93),""," "&amp;AC93)&amp;IF(ISBLANK(AE93),""," --version "&amp;AE93)</f>
+        <v>gcloud app deploy --version 1</v>
+      </c>
       <c r="D93" s="42"/>
       <c r="E93" s="42"/>
       <c r="F93" s="42"/>
@@ -7540,14 +7571,18 @@
       <c r="Z93" s="43"/>
       <c r="AA93" s="8" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>gcloud debug</v>
+        <v>gcloud app deploy --version 1</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC93" s="2"/>
-      <c r="AD93" s="2"/>
-      <c r="AE93" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE93" s="5">
+        <v>1</v>
+      </c>
       <c r="AF93" s="2"/>
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
@@ -7559,42 +7594,43 @@
       <c r="AN93" s="2"/>
       <c r="AO93" s="2"/>
       <c r="AP93" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AQ93" s="1"/>
-    </row>
-    <row r="94" spans="2:43" outlineLevel="1">
-      <c r="B94" s="33"/>
-      <c r="C94" s="42" t="str">
-        <f>B$93&amp;" logpoints"</f>
-        <v>gcloud debug logpoints</v>
-      </c>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
-      <c r="M94" s="42"/>
-      <c r="N94" s="42"/>
-      <c r="O94" s="42"/>
-      <c r="P94" s="42"/>
-      <c r="Q94" s="42"/>
-      <c r="R94" s="42"/>
-      <c r="S94" s="42"/>
-      <c r="T94" s="42"/>
-      <c r="U94" s="42"/>
-      <c r="V94" s="42"/>
-      <c r="W94" s="42"/>
-      <c r="X94" s="42"/>
-      <c r="Y94" s="42"/>
-      <c r="Z94" s="43"/>
+        <v>377</v>
+      </c>
+      <c r="AQ93" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="2:43" collapsed="1">
+      <c r="B94" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" s="42"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="39"/>
+      <c r="X94" s="39"/>
+      <c r="Y94" s="39"/>
+      <c r="Z94" s="40"/>
       <c r="AA94" s="8" t="str">
         <f t="shared" ca="1" si="35"/>
-        <v>gcloud debug logpoints</v>
+        <v>gcloud datastore</v>
       </c>
       <c r="AB94" s="2" t="s">
         <v>6</v>
@@ -7613,17 +7649,17 @@
       <c r="AN94" s="2"/>
       <c r="AO94" s="2"/>
       <c r="AP94" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AQ94" s="1"/>
     </row>
-    <row r="95" spans="2:43" outlineLevel="2">
+    <row r="95" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B95" s="33"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="42" t="str">
-        <f>C$94&amp;" list"</f>
-        <v>gcloud debug logpoints list</v>
-      </c>
+      <c r="C95" s="41" t="str">
+        <f>B$94&amp;" create-indexes "&amp;AC95</f>
+        <v>gcloud datastore create-indexes index.yaml</v>
+      </c>
+      <c r="D95" s="42"/>
       <c r="E95" s="42"/>
       <c r="F95" s="42"/>
       <c r="G95" s="42"/>
@@ -7647,13 +7683,15 @@
       <c r="Y95" s="42"/>
       <c r="Z95" s="43"/>
       <c r="AA95" s="8" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>gcloud debug logpoints list</v>
-      </c>
-      <c r="AB95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC95" s="2"/>
+        <f t="shared" ref="AA95:AA98" ca="1" si="36">IFERROR(OFFSET(A95,0,MATCH("",B95:Z95,-1)),"")</f>
+        <v>gcloud datastore create-indexes index.yaml</v>
+      </c>
+      <c r="AB95" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC95" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
@@ -7667,55 +7705,48 @@
       <c r="AN95" s="2"/>
       <c r="AO95" s="2"/>
       <c r="AP95" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AQ95" s="1"/>
     </row>
-    <row r="96" spans="2:43" ht="60" outlineLevel="2">
-      <c r="B96" s="33"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="38" t="str">
-        <f>C$94&amp;" create "&amp;AC96&amp;" "&amp;AE96</f>
-        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
-      </c>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="39"/>
-      <c r="W96" s="39"/>
-      <c r="X96" s="39"/>
-      <c r="Y96" s="39"/>
-      <c r="Z96" s="40"/>
+    <row r="96" spans="2:43" collapsed="1">
+      <c r="B96" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="42"/>
+      <c r="W96" s="42"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="42"/>
+      <c r="Z96" s="43"/>
       <c r="AA96" s="8" t="str">
-        <f t="shared" ref="AA96:AA104" ca="1" si="36">IFERROR(OFFSET(A96,0,MATCH("",B96:Z96,-1)),"")</f>
-        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
-      </c>
-      <c r="AB96" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC96" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD96" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE96" s="5" t="s">
-        <v>392</v>
-      </c>
+        <f t="shared" ca="1" si="36"/>
+        <v>gcloud debug</v>
+      </c>
+      <c r="AB96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
@@ -7727,15 +7758,16 @@
       <c r="AN96" s="2"/>
       <c r="AO96" s="2"/>
       <c r="AP96" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AQ96" s="1"/>
     </row>
-    <row r="97" spans="2:43">
-      <c r="B97" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="C97" s="42"/>
+    <row r="97" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B97" s="33"/>
+      <c r="C97" s="42" t="str">
+        <f>B$96&amp;" logpoints"</f>
+        <v>gcloud debug logpoints</v>
+      </c>
       <c r="D97" s="42"/>
       <c r="E97" s="42"/>
       <c r="F97" s="42"/>
@@ -7761,7 +7793,7 @@
       <c r="Z97" s="43"/>
       <c r="AA97" s="8" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>gcloud sql</v>
+        <v>gcloud debug logpoints</v>
       </c>
       <c r="AB97" s="2" t="s">
         <v>6</v>
@@ -7780,17 +7812,17 @@
       <c r="AN97" s="2"/>
       <c r="AO97" s="2"/>
       <c r="AP97" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AQ97" s="1"/>
     </row>
-    <row r="98" spans="2:43" outlineLevel="1">
-      <c r="B98" s="36"/>
-      <c r="C98" s="42" t="str">
-        <f>B97&amp;" connect "&amp;AC98&amp;IF(ISBLANK(AE98),""," --user="&amp;AE98)</f>
-        <v>gcloud sql connect myinstance --user=root</v>
-      </c>
-      <c r="D98" s="42"/>
+    <row r="98" spans="2:43" hidden="1" outlineLevel="2">
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="42" t="str">
+        <f>C$97&amp;" list"</f>
+        <v>gcloud debug logpoints list</v>
+      </c>
       <c r="E98" s="42"/>
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
@@ -7815,20 +7847,14 @@
       <c r="Z98" s="43"/>
       <c r="AA98" s="8" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>gcloud sql connect myinstance --user=root</v>
-      </c>
-      <c r="AB98" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="AC98" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD98" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE98" s="5" t="s">
-        <v>398</v>
-      </c>
+        <v>gcloud debug logpoints list</v>
+      </c>
+      <c r="AB98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
       <c r="AG98" s="2"/>
       <c r="AH98" s="2"/>
@@ -7840,48 +7866,55 @@
       <c r="AN98" s="2"/>
       <c r="AO98" s="2"/>
       <c r="AP98" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AQ98" s="1"/>
     </row>
-    <row r="99" spans="2:43" ht="30">
-      <c r="B99" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="42"/>
-      <c r="M99" s="42"/>
-      <c r="N99" s="42"/>
-      <c r="O99" s="42"/>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="42"/>
-      <c r="R99" s="42"/>
-      <c r="S99" s="42"/>
-      <c r="T99" s="42"/>
-      <c r="U99" s="42"/>
-      <c r="V99" s="42"/>
-      <c r="W99" s="42"/>
-      <c r="X99" s="42"/>
-      <c r="Y99" s="42"/>
-      <c r="Z99" s="43"/>
+    <row r="99" spans="2:43" ht="60" hidden="1" outlineLevel="2">
+      <c r="B99" s="33"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="38" t="str">
+        <f>C$97&amp;" create "&amp;AC99&amp;" "&amp;AE99</f>
+        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
+      </c>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="39"/>
+      <c r="Y99" s="39"/>
+      <c r="Z99" s="40"/>
       <c r="AA99" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>gcloud deployment-manager</v>
-      </c>
-      <c r="AB99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="2"/>
+        <f t="shared" ref="AA99:AA108" ca="1" si="37">IFERROR(OFFSET(A99,0,MATCH("",B99:Z99,-1)),"")</f>
+        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
+      </c>
+      <c r="AB99" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC99" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD99" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE99" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="AF99" s="2"/>
       <c r="AG99" s="2"/>
       <c r="AH99" s="2"/>
@@ -7893,18 +7926,15 @@
       <c r="AN99" s="2"/>
       <c r="AO99" s="2"/>
       <c r="AP99" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AQ99" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="100" spans="2:43" outlineLevel="1">
-      <c r="B100" s="36"/>
-      <c r="C100" s="42" t="str">
-        <f>B$99&amp;" deployments"</f>
-        <v>gcloud deployment-manager deployments</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="AQ99" s="1"/>
+    </row>
+    <row r="100" spans="2:43" collapsed="1">
+      <c r="B100" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="C100" s="42"/>
       <c r="D100" s="42"/>
       <c r="E100" s="42"/>
       <c r="F100" s="42"/>
@@ -7929,8 +7959,8 @@
       <c r="Y100" s="42"/>
       <c r="Z100" s="43"/>
       <c r="AA100" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>gcloud deployment-manager deployments</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>gcloud sql</v>
       </c>
       <c r="AB100" s="2" t="s">
         <v>6</v>
@@ -7949,17 +7979,17 @@
       <c r="AN100" s="2"/>
       <c r="AO100" s="2"/>
       <c r="AP100" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AQ100" s="1"/>
     </row>
-    <row r="101" spans="2:43" outlineLevel="2">
+    <row r="101" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B101" s="36"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="42" t="str">
-        <f>C$100&amp;" create"</f>
-        <v>gcloud deployment-manager deployments create</v>
-      </c>
+      <c r="C101" s="42" t="str">
+        <f>B100&amp;" connect "&amp;AC101&amp;IF(ISBLANK(AE101),""," --user="&amp;AE101)</f>
+        <v>gcloud sql connect myinstance --user=root</v>
+      </c>
+      <c r="D101" s="42"/>
       <c r="E101" s="42"/>
       <c r="F101" s="42"/>
       <c r="G101" s="42"/>
@@ -7983,15 +8013,21 @@
       <c r="Y101" s="42"/>
       <c r="Z101" s="43"/>
       <c r="AA101" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>gcloud deployment-manager deployments create</v>
-      </c>
-      <c r="AB101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-      <c r="AE101" s="2"/>
+        <f t="shared" ca="1" si="37"/>
+        <v>gcloud sql connect myinstance --user=root</v>
+      </c>
+      <c r="AB101" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC101" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD101" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE101" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="AF101" s="2"/>
       <c r="AG101" s="2"/>
       <c r="AH101" s="2"/>
@@ -8003,55 +8039,48 @@
       <c r="AN101" s="2"/>
       <c r="AO101" s="2"/>
       <c r="AP101" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AQ101" s="1"/>
     </row>
-    <row r="102" spans="2:43" ht="30" outlineLevel="3">
-      <c r="B102" s="36"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="38" t="str">
-        <f>D$101&amp;" "&amp;AC102&amp;" --config "&amp;AE102</f>
-        <v>gcloud deployment-manager deployments create single-vm --config vm.yaml</v>
-      </c>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="39"/>
-      <c r="K102" s="39"/>
-      <c r="L102" s="39"/>
-      <c r="M102" s="39"/>
-      <c r="N102" s="39"/>
-      <c r="O102" s="39"/>
-      <c r="P102" s="39"/>
-      <c r="Q102" s="39"/>
-      <c r="R102" s="39"/>
-      <c r="S102" s="39"/>
-      <c r="T102" s="39"/>
-      <c r="U102" s="39"/>
-      <c r="V102" s="39"/>
-      <c r="W102" s="39"/>
-      <c r="X102" s="39"/>
-      <c r="Y102" s="39"/>
-      <c r="Z102" s="40"/>
+    <row r="102" spans="2:43" ht="30" collapsed="1">
+      <c r="B102" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
+      <c r="Q102" s="42"/>
+      <c r="R102" s="42"/>
+      <c r="S102" s="42"/>
+      <c r="T102" s="42"/>
+      <c r="U102" s="42"/>
+      <c r="V102" s="42"/>
+      <c r="W102" s="42"/>
+      <c r="X102" s="42"/>
+      <c r="Y102" s="42"/>
+      <c r="Z102" s="43"/>
       <c r="AA102" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>gcloud deployment-manager deployments create single-vm --config vm.yaml</v>
-      </c>
-      <c r="AB102" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC102" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD102" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="AE102" s="5" t="s">
-        <v>406</v>
-      </c>
+        <f t="shared" ca="1" si="37"/>
+        <v>gcloud deployment-manager</v>
+      </c>
+      <c r="AB102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
       <c r="AG102" s="2"/>
       <c r="AH102" s="2"/>
@@ -8063,14 +8092,19 @@
       <c r="AN102" s="2"/>
       <c r="AO102" s="2"/>
       <c r="AP102" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AQ102" s="1"/>
-    </row>
-    <row r="103" spans="2:43" outlineLevel="3">
+        <v>400</v>
+      </c>
+      <c r="AQ102" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="103" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B103" s="36"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
+      <c r="C103" s="42" t="str">
+        <f>B$102&amp;" deployments"</f>
+        <v>gcloud deployment-manager deployments</v>
+      </c>
+      <c r="D103" s="42"/>
       <c r="E103" s="42"/>
       <c r="F103" s="42"/>
       <c r="G103" s="42"/>
@@ -8094,8 +8128,8 @@
       <c r="Y103" s="42"/>
       <c r="Z103" s="43"/>
       <c r="AA103" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
+        <f t="shared" ca="1" si="37"/>
+        <v>gcloud deployment-manager deployments</v>
       </c>
       <c r="AB103" s="2" t="s">
         <v>6</v>
@@ -8113,15 +8147,17 @@
       <c r="AM103" s="2"/>
       <c r="AN103" s="2"/>
       <c r="AO103" s="2"/>
-      <c r="AP103" s="1"/>
+      <c r="AP103" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="AQ103" s="1"/>
     </row>
-    <row r="104" spans="2:43" outlineLevel="2">
+    <row r="104" spans="2:43" hidden="1" outlineLevel="2" collapsed="1">
       <c r="B104" s="36"/>
       <c r="C104" s="37"/>
       <c r="D104" s="42" t="str">
-        <f>C$100&amp;" list"</f>
-        <v>gcloud deployment-manager deployments list</v>
+        <f>C$103&amp;" create"</f>
+        <v>gcloud deployment-manager deployments create</v>
       </c>
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
@@ -8146,8 +8182,8 @@
       <c r="Y104" s="42"/>
       <c r="Z104" s="43"/>
       <c r="AA104" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>gcloud deployment-manager deployments list</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>gcloud deployment-manager deployments create</v>
       </c>
       <c r="AB104" s="2" t="s">
         <v>6</v>
@@ -8166,48 +8202,55 @@
       <c r="AN104" s="2"/>
       <c r="AO104" s="2"/>
       <c r="AP104" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AQ104" s="1"/>
     </row>
-    <row r="105" spans="2:43" ht="60" collapsed="1">
-      <c r="B105" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
-      <c r="M105" s="42"/>
-      <c r="N105" s="42"/>
-      <c r="O105" s="42"/>
-      <c r="P105" s="42"/>
-      <c r="Q105" s="42"/>
-      <c r="R105" s="42"/>
-      <c r="S105" s="42"/>
-      <c r="T105" s="42"/>
-      <c r="U105" s="42"/>
-      <c r="V105" s="42"/>
-      <c r="W105" s="42"/>
-      <c r="X105" s="42"/>
-      <c r="Y105" s="42"/>
-      <c r="Z105" s="43"/>
+    <row r="105" spans="2:43" ht="30" hidden="1" outlineLevel="3">
+      <c r="B105" s="36"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="38" t="str">
+        <f>D$104&amp;" "&amp;AC105&amp;" --config "&amp;AE105</f>
+        <v>gcloud deployment-manager deployments create advanced-configuration --config nodejs.yaml</v>
+      </c>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="39"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="39"/>
+      <c r="T105" s="39"/>
+      <c r="U105" s="39"/>
+      <c r="V105" s="39"/>
+      <c r="W105" s="39"/>
+      <c r="X105" s="39"/>
+      <c r="Y105" s="39"/>
+      <c r="Z105" s="40"/>
       <c r="AA105" s="8" t="str">
-        <f t="shared" ref="AA105:AA106" ca="1" si="37">IFERROR(OFFSET(A105,0,MATCH("",B105:Z105,-1)),"")</f>
-        <v>gcloud docker</v>
-      </c>
-      <c r="AB105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC105" s="2"/>
-      <c r="AD105" s="2"/>
-      <c r="AE105" s="2"/>
+        <f t="shared" ca="1" si="37"/>
+        <v>gcloud deployment-manager deployments create advanced-configuration --config nodejs.yaml</v>
+      </c>
+      <c r="AB105" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC105" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="AD105" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE105" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="AF105" s="2"/>
       <c r="AG105" s="2"/>
       <c r="AH105" s="2"/>
@@ -8219,63 +8262,48 @@
       <c r="AN105" s="2"/>
       <c r="AO105" s="2"/>
       <c r="AP105" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AQ105" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="106" spans="2:43" ht="30" hidden="1" outlineLevel="1">
-      <c r="B106" s="33"/>
-      <c r="C106" s="38" t="str">
-        <f>B$105&amp;" -- push "&amp;AC106&amp;"/"&amp;AE106&amp;"/"&amp;AG106</f>
-        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="N106" s="39"/>
-      <c r="O106" s="39"/>
-      <c r="P106" s="39"/>
-      <c r="Q106" s="39"/>
-      <c r="R106" s="39"/>
-      <c r="S106" s="39"/>
-      <c r="T106" s="39"/>
-      <c r="U106" s="39"/>
-      <c r="V106" s="39"/>
-      <c r="W106" s="39"/>
-      <c r="X106" s="39"/>
-      <c r="Y106" s="39"/>
-      <c r="Z106" s="40"/>
+        <v>405</v>
+      </c>
+      <c r="AQ105" s="1"/>
+    </row>
+    <row r="106" spans="2:43" hidden="1" outlineLevel="3">
+      <c r="B106" s="36"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="42"/>
+      <c r="U106" s="42"/>
+      <c r="V106" s="42"/>
+      <c r="W106" s="42"/>
+      <c r="X106" s="42"/>
+      <c r="Y106" s="42"/>
+      <c r="Z106" s="43"/>
       <c r="AA106" s="8" t="str">
         <f t="shared" ca="1" si="37"/>
-        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="AB106" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC106" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD106" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE106" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF106" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG106" s="5" t="s">
-        <v>361</v>
-      </c>
+        <v/>
+      </c>
+      <c r="AB106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2"/>
+      <c r="AG106" s="2"/>
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
       <c r="AJ106" s="2"/>
@@ -8284,18 +8312,16 @@
       <c r="AM106" s="2"/>
       <c r="AN106" s="2"/>
       <c r="AO106" s="2"/>
-      <c r="AP106" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="AP106" s="1"/>
       <c r="AQ106" s="1"/>
     </row>
-    <row r="107" spans="2:43" ht="30" hidden="1" outlineLevel="1">
-      <c r="B107" s="33"/>
-      <c r="C107" s="38" t="str">
-        <f>B$105&amp;" -- pull "&amp;AC107&amp;"/"&amp;AE107&amp;"/"&amp;AG107</f>
-        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="D107" s="39"/>
+    <row r="107" spans="2:43" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B107" s="36"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="38" t="str">
+        <f>C$103&amp;" delete "&amp;AC107</f>
+        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
+      </c>
       <c r="E107" s="39"/>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
@@ -8318,28 +8344,20 @@
       <c r="X107" s="39"/>
       <c r="Y107" s="39"/>
       <c r="Z107" s="40"/>
-      <c r="AA107" s="8" t="str">
-        <f t="shared" ref="AA107:AA113" ca="1" si="38">IFERROR(OFFSET(A107,0,MATCH("",B107:Z107,-1)),"")</f>
-        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="AB107" s="22" t="s">
-        <v>359</v>
+      <c r="AA107" s="50" t="str">
+        <f t="shared" ref="AA107" ca="1" si="38">IFERROR(OFFSET(A107,0,MATCH("",B107:Z107,-1)),"")</f>
+        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
+      </c>
+      <c r="AB107" s="21" t="s">
+        <v>414</v>
       </c>
       <c r="AC107" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD107" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE107" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF107" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG107" s="5" t="s">
-        <v>361</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
       <c r="AJ107" s="2"/>
@@ -8349,14 +8367,17 @@
       <c r="AN107" s="2"/>
       <c r="AO107" s="2"/>
       <c r="AP107" s="1" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="AQ107" s="1"/>
     </row>
-    <row r="108" spans="2:43">
-      <c r="B108" s="41"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
+    <row r="108" spans="2:43" hidden="1" outlineLevel="2">
+      <c r="B108" s="36"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="42" t="str">
+        <f>C$103&amp;" list"</f>
+        <v>gcloud deployment-manager deployments list</v>
+      </c>
       <c r="E108" s="42"/>
       <c r="F108" s="42"/>
       <c r="G108" s="42"/>
@@ -8380,8 +8401,8 @@
       <c r="Y108" s="42"/>
       <c r="Z108" s="43"/>
       <c r="AA108" s="8" t="str">
-        <f t="shared" ref="AA108" ca="1" si="39">IFERROR(OFFSET(A108,0,MATCH("",B108:Z108,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="37"/>
+        <v>gcloud deployment-manager deployments list</v>
       </c>
       <c r="AB108" s="2" t="s">
         <v>6</v>
@@ -8399,13 +8420,18 @@
       <c r="AM108" s="2"/>
       <c r="AN108" s="2"/>
       <c r="AO108" s="2"/>
-      <c r="AP108" s="1"/>
+      <c r="AP108" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="AQ108" s="1"/>
     </row>
-    <row r="109" spans="2:43">
-      <c r="B109" s="41"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="38"/>
+    <row r="109" spans="2:43" ht="29.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B109" s="36"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="38" t="str">
+        <f>C$103&amp;" describe "&amp;AC109</f>
+        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
+      </c>
       <c r="E109" s="39"/>
       <c r="F109" s="39"/>
       <c r="G109" s="39"/>
@@ -8428,11 +8454,16 @@
       <c r="X109" s="39"/>
       <c r="Y109" s="39"/>
       <c r="Z109" s="40"/>
-      <c r="AA109" s="8"/>
-      <c r="AB109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC109" s="2"/>
+      <c r="AA109" s="8" t="str">
+        <f t="shared" ref="AA109" ca="1" si="39">IFERROR(OFFSET(A109,0,MATCH("",B109:Z109,-1)),"")</f>
+        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
+      </c>
+      <c r="AB109" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC109" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
@@ -8445,12 +8476,17 @@
       <c r="AM109" s="2"/>
       <c r="AN109" s="2"/>
       <c r="AO109" s="2"/>
-      <c r="AP109" s="1"/>
+      <c r="AP109" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="AQ109" s="1"/>
     </row>
-    <row r="110" spans="2:43">
-      <c r="B110" s="41"/>
-      <c r="C110" s="42"/>
+    <row r="110" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B110" s="36"/>
+      <c r="C110" s="42" t="str">
+        <f>B$102&amp;" types"</f>
+        <v>gcloud deployment-manager types</v>
+      </c>
       <c r="D110" s="42"/>
       <c r="E110" s="42"/>
       <c r="F110" s="42"/>
@@ -8475,8 +8511,8 @@
       <c r="Y110" s="42"/>
       <c r="Z110" s="43"/>
       <c r="AA110" s="8" t="str">
-        <f t="shared" ref="AA110" ca="1" si="40">IFERROR(OFFSET(A110,0,MATCH("",B110:Z110,-1)),"")</f>
-        <v/>
+        <f t="shared" ref="AA110:AA111" ca="1" si="40">IFERROR(OFFSET(A110,0,MATCH("",B110:Z110,-1)),"")</f>
+        <v>gcloud deployment-manager types</v>
       </c>
       <c r="AB110" s="2" t="s">
         <v>6</v>
@@ -8494,36 +8530,44 @@
       <c r="AM110" s="2"/>
       <c r="AN110" s="2"/>
       <c r="AO110" s="2"/>
-      <c r="AP110" s="1"/>
+      <c r="AP110" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="AQ110" s="1"/>
     </row>
-    <row r="111" spans="2:43">
-      <c r="B111" s="41"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="39"/>
-      <c r="F111" s="39"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-      <c r="J111" s="39"/>
-      <c r="K111" s="39"/>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
-      <c r="N111" s="39"/>
-      <c r="O111" s="39"/>
-      <c r="P111" s="39"/>
-      <c r="Q111" s="39"/>
-      <c r="R111" s="39"/>
-      <c r="S111" s="39"/>
-      <c r="T111" s="39"/>
-      <c r="U111" s="39"/>
-      <c r="V111" s="39"/>
-      <c r="W111" s="39"/>
-      <c r="X111" s="39"/>
-      <c r="Y111" s="39"/>
-      <c r="Z111" s="40"/>
-      <c r="AA111" s="8"/>
+    <row r="111" spans="2:43" hidden="1" outlineLevel="2">
+      <c r="B111" s="36"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="42" t="str">
+        <f>C$110&amp;" list"</f>
+        <v>gcloud deployment-manager types list</v>
+      </c>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
+      <c r="T111" s="42"/>
+      <c r="U111" s="42"/>
+      <c r="V111" s="42"/>
+      <c r="W111" s="42"/>
+      <c r="X111" s="42"/>
+      <c r="Y111" s="42"/>
+      <c r="Z111" s="43"/>
+      <c r="AA111" s="8" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>gcloud deployment-manager types list</v>
+      </c>
       <c r="AB111" s="2" t="s">
         <v>6</v>
       </c>
@@ -8540,36 +8584,43 @@
       <c r="AM111" s="2"/>
       <c r="AN111" s="2"/>
       <c r="AO111" s="2"/>
-      <c r="AP111" s="1"/>
+      <c r="AP111" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="AQ111" s="1"/>
     </row>
-    <row r="112" spans="2:43">
-      <c r="B112" s="41"/>
+    <row r="112" spans="2:43" ht="60" collapsed="1">
+      <c r="B112" s="41" t="s">
+        <v>358</v>
+      </c>
       <c r="C112" s="42"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="J112" s="39"/>
-      <c r="K112" s="39"/>
-      <c r="L112" s="39"/>
-      <c r="M112" s="39"/>
-      <c r="N112" s="39"/>
-      <c r="O112" s="39"/>
-      <c r="P112" s="39"/>
-      <c r="Q112" s="39"/>
-      <c r="R112" s="39"/>
-      <c r="S112" s="39"/>
-      <c r="T112" s="39"/>
-      <c r="U112" s="39"/>
-      <c r="V112" s="39"/>
-      <c r="W112" s="39"/>
-      <c r="X112" s="39"/>
-      <c r="Y112" s="39"/>
-      <c r="Z112" s="40"/>
-      <c r="AA112" s="8"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="42"/>
+      <c r="P112" s="42"/>
+      <c r="Q112" s="42"/>
+      <c r="R112" s="42"/>
+      <c r="S112" s="42"/>
+      <c r="T112" s="42"/>
+      <c r="U112" s="42"/>
+      <c r="V112" s="42"/>
+      <c r="W112" s="42"/>
+      <c r="X112" s="42"/>
+      <c r="Y112" s="42"/>
+      <c r="Z112" s="43"/>
+      <c r="AA112" s="8" t="str">
+        <f t="shared" ref="AA112:AA113" ca="1" si="41">IFERROR(OFFSET(A112,0,MATCH("",B112:Z112,-1)),"")</f>
+        <v>gcloud docker</v>
+      </c>
       <c r="AB112" s="2" t="s">
         <v>6</v>
       </c>
@@ -8586,47 +8637,64 @@
       <c r="AM112" s="2"/>
       <c r="AN112" s="2"/>
       <c r="AO112" s="2"/>
-      <c r="AP112" s="1"/>
-      <c r="AQ112" s="1"/>
-    </row>
-    <row r="113" spans="2:43">
-      <c r="B113" s="41"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="42"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="42"/>
-      <c r="L113" s="42"/>
-      <c r="M113" s="42"/>
-      <c r="N113" s="42"/>
-      <c r="O113" s="42"/>
-      <c r="P113" s="42"/>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="42"/>
-      <c r="S113" s="42"/>
-      <c r="T113" s="42"/>
-      <c r="U113" s="42"/>
-      <c r="V113" s="42"/>
-      <c r="W113" s="42"/>
-      <c r="X113" s="42"/>
-      <c r="Y113" s="42"/>
-      <c r="Z113" s="43"/>
+      <c r="AP112" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ112" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="113" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B113" s="33"/>
+      <c r="C113" s="38" t="str">
+        <f>B$112&amp;" -- push "&amp;AC113&amp;"/"&amp;AE113&amp;"/"&amp;AG113</f>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="39"/>
+      <c r="M113" s="39"/>
+      <c r="N113" s="39"/>
+      <c r="O113" s="39"/>
+      <c r="P113" s="39"/>
+      <c r="Q113" s="39"/>
+      <c r="R113" s="39"/>
+      <c r="S113" s="39"/>
+      <c r="T113" s="39"/>
+      <c r="U113" s="39"/>
+      <c r="V113" s="39"/>
+      <c r="W113" s="39"/>
+      <c r="X113" s="39"/>
+      <c r="Y113" s="39"/>
+      <c r="Z113" s="40"/>
       <c r="AA113" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AB113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC113" s="2"/>
-      <c r="AD113" s="2"/>
-      <c r="AE113" s="2"/>
-      <c r="AF113" s="2"/>
-      <c r="AG113" s="2"/>
+        <f t="shared" ca="1" si="41"/>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="AB113" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC113" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD113" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE113" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF113" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG113" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
       <c r="AJ113" s="2"/>
@@ -8635,13 +8703,18 @@
       <c r="AM113" s="2"/>
       <c r="AN113" s="2"/>
       <c r="AO113" s="2"/>
-      <c r="AP113" s="1"/>
+      <c r="AP113" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="AQ113" s="1"/>
     </row>
-    <row r="114" spans="2:43">
-      <c r="B114" s="41"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="38"/>
+    <row r="114" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B114" s="33"/>
+      <c r="C114" s="38" t="str">
+        <f>B$112&amp;" -- pull "&amp;AC114&amp;"/"&amp;AE114&amp;"/"&amp;AG114</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="D114" s="39"/>
       <c r="E114" s="39"/>
       <c r="F114" s="39"/>
       <c r="G114" s="39"/>
@@ -8664,15 +8737,28 @@
       <c r="X114" s="39"/>
       <c r="Y114" s="39"/>
       <c r="Z114" s="40"/>
-      <c r="AA114" s="8"/>
-      <c r="AB114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC114" s="2"/>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="2"/>
-      <c r="AF114" s="2"/>
-      <c r="AG114" s="2"/>
+      <c r="AA114" s="8" t="str">
+        <f t="shared" ref="AA114:AA120" ca="1" si="42">IFERROR(OFFSET(A114,0,MATCH("",B114:Z114,-1)),"")</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="AB114" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC114" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD114" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE114" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF114" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG114" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
       <c r="AJ114" s="2"/>
@@ -8681,36 +8767,41 @@
       <c r="AM114" s="2"/>
       <c r="AN114" s="2"/>
       <c r="AO114" s="2"/>
-      <c r="AP114" s="1"/>
+      <c r="AP114" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="AQ114" s="1"/>
     </row>
     <row r="115" spans="2:43">
       <c r="B115" s="41"/>
       <c r="C115" s="42"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="39"/>
-      <c r="K115" s="39"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="39"/>
-      <c r="N115" s="39"/>
-      <c r="O115" s="39"/>
-      <c r="P115" s="39"/>
-      <c r="Q115" s="39"/>
-      <c r="R115" s="39"/>
-      <c r="S115" s="39"/>
-      <c r="T115" s="39"/>
-      <c r="U115" s="39"/>
-      <c r="V115" s="39"/>
-      <c r="W115" s="39"/>
-      <c r="X115" s="39"/>
-      <c r="Y115" s="39"/>
-      <c r="Z115" s="40"/>
-      <c r="AA115" s="8"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
+      <c r="O115" s="42"/>
+      <c r="P115" s="42"/>
+      <c r="Q115" s="42"/>
+      <c r="R115" s="42"/>
+      <c r="S115" s="42"/>
+      <c r="T115" s="42"/>
+      <c r="U115" s="42"/>
+      <c r="V115" s="42"/>
+      <c r="W115" s="42"/>
+      <c r="X115" s="42"/>
+      <c r="Y115" s="42"/>
+      <c r="Z115" s="43"/>
+      <c r="AA115" s="8" t="str">
+        <f t="shared" ref="AA115" ca="1" si="43">IFERROR(OFFSET(A115,0,MATCH("",B115:Z115,-1)),"")</f>
+        <v/>
+      </c>
       <c r="AB115" s="2" t="s">
         <v>6</v>
       </c>
@@ -8733,33 +8824,30 @@
     <row r="116" spans="2:43">
       <c r="B116" s="41"/>
       <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="42"/>
-      <c r="M116" s="42"/>
-      <c r="N116" s="42"/>
-      <c r="O116" s="42"/>
-      <c r="P116" s="42"/>
-      <c r="Q116" s="42"/>
-      <c r="R116" s="42"/>
-      <c r="S116" s="42"/>
-      <c r="T116" s="42"/>
-      <c r="U116" s="42"/>
-      <c r="V116" s="42"/>
-      <c r="W116" s="42"/>
-      <c r="X116" s="42"/>
-      <c r="Y116" s="42"/>
-      <c r="Z116" s="43"/>
-      <c r="AA116" s="8" t="str">
-        <f t="shared" ref="AA116" ca="1" si="41">IFERROR(OFFSET(A116,0,MATCH("",B116:Z116,-1)),"")</f>
-        <v/>
-      </c>
+      <c r="D116" s="38"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="39"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39"/>
+      <c r="M116" s="39"/>
+      <c r="N116" s="39"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="39"/>
+      <c r="Q116" s="39"/>
+      <c r="R116" s="39"/>
+      <c r="S116" s="39"/>
+      <c r="T116" s="39"/>
+      <c r="U116" s="39"/>
+      <c r="V116" s="39"/>
+      <c r="W116" s="39"/>
+      <c r="X116" s="39"/>
+      <c r="Y116" s="39"/>
+      <c r="Z116" s="40"/>
+      <c r="AA116" s="8"/>
       <c r="AB116" s="2" t="s">
         <v>6</v>
       </c>
@@ -8779,33 +8867,36 @@
       <c r="AP116" s="1"/>
       <c r="AQ116" s="1"/>
     </row>
-    <row r="117" spans="2:43">
+    <row r="117" spans="2:43" ht="29.25" customHeight="1">
       <c r="B117" s="41"/>
       <c r="C117" s="42"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
-      <c r="N117" s="39"/>
-      <c r="O117" s="39"/>
-      <c r="P117" s="39"/>
-      <c r="Q117" s="39"/>
-      <c r="R117" s="39"/>
-      <c r="S117" s="39"/>
-      <c r="T117" s="39"/>
-      <c r="U117" s="39"/>
-      <c r="V117" s="39"/>
-      <c r="W117" s="39"/>
-      <c r="X117" s="39"/>
-      <c r="Y117" s="39"/>
-      <c r="Z117" s="40"/>
-      <c r="AA117" s="8"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
+      <c r="O117" s="42"/>
+      <c r="P117" s="42"/>
+      <c r="Q117" s="42"/>
+      <c r="R117" s="42"/>
+      <c r="S117" s="42"/>
+      <c r="T117" s="42"/>
+      <c r="U117" s="42"/>
+      <c r="V117" s="42"/>
+      <c r="W117" s="42"/>
+      <c r="X117" s="42"/>
+      <c r="Y117" s="42"/>
+      <c r="Z117" s="43"/>
+      <c r="AA117" s="8" t="str">
+        <f t="shared" ref="AA117" ca="1" si="44">IFERROR(OFFSET(A117,0,MATCH("",B117:Z117,-1)),"")</f>
+        <v/>
+      </c>
       <c r="AB117" s="2" t="s">
         <v>6</v>
       </c>
@@ -8825,7 +8916,7 @@
       <c r="AP117" s="1"/>
       <c r="AQ117" s="1"/>
     </row>
-    <row r="118" spans="2:43" collapsed="1">
+    <row r="118" spans="2:43" ht="30" customHeight="1">
       <c r="B118" s="41"/>
       <c r="C118" s="42"/>
       <c r="D118" s="38"/>
@@ -8871,36 +8962,33 @@
       <c r="AP118" s="1"/>
       <c r="AQ118" s="1"/>
     </row>
-    <row r="119" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B119" s="10"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="42"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="42"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="42"/>
-      <c r="L119" s="42"/>
-      <c r="M119" s="42"/>
-      <c r="N119" s="42"/>
-      <c r="O119" s="42"/>
-      <c r="P119" s="42"/>
-      <c r="Q119" s="42"/>
-      <c r="R119" s="42"/>
-      <c r="S119" s="42"/>
-      <c r="T119" s="42"/>
-      <c r="U119" s="42"/>
-      <c r="V119" s="42"/>
-      <c r="W119" s="42"/>
-      <c r="X119" s="42"/>
-      <c r="Y119" s="42"/>
-      <c r="Z119" s="43"/>
-      <c r="AA119" s="8" t="str">
-        <f t="shared" ref="AA119" ca="1" si="42">IFERROR(OFFSET(A119,0,MATCH("",B119:Z119,-1)),"")</f>
-        <v/>
-      </c>
+    <row r="119" spans="2:43">
+      <c r="B119" s="41"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="39"/>
+      <c r="M119" s="39"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="39"/>
+      <c r="P119" s="39"/>
+      <c r="Q119" s="39"/>
+      <c r="R119" s="39"/>
+      <c r="S119" s="39"/>
+      <c r="T119" s="39"/>
+      <c r="U119" s="39"/>
+      <c r="V119" s="39"/>
+      <c r="W119" s="39"/>
+      <c r="X119" s="39"/>
+      <c r="Y119" s="39"/>
+      <c r="Z119" s="40"/>
+      <c r="AA119" s="8"/>
       <c r="AB119" s="2" t="s">
         <v>6</v>
       </c>
@@ -8920,9 +9008,9 @@
       <c r="AP119" s="1"/>
       <c r="AQ119" s="1"/>
     </row>
-    <row r="120" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B120" s="10"/>
-      <c r="C120" s="41"/>
+    <row r="120" spans="2:43">
+      <c r="B120" s="41"/>
+      <c r="C120" s="42"/>
       <c r="D120" s="42"/>
       <c r="E120" s="42"/>
       <c r="F120" s="42"/>
@@ -8947,7 +9035,7 @@
       <c r="Y120" s="42"/>
       <c r="Z120" s="43"/>
       <c r="AA120" s="8" t="str">
-        <f t="shared" ref="AA120" ca="1" si="43">IFERROR(OFFSET(A120,0,MATCH("",B120:Z120,-1)),"")</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AB120" s="2" t="s">
@@ -8969,36 +9057,33 @@
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
     </row>
-    <row r="121" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B121" s="10"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="42"/>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="42"/>
-      <c r="L121" s="42"/>
-      <c r="M121" s="42"/>
-      <c r="N121" s="42"/>
-      <c r="O121" s="42"/>
-      <c r="P121" s="42"/>
-      <c r="Q121" s="42"/>
-      <c r="R121" s="42"/>
-      <c r="S121" s="42"/>
-      <c r="T121" s="42"/>
-      <c r="U121" s="42"/>
-      <c r="V121" s="42"/>
-      <c r="W121" s="42"/>
-      <c r="X121" s="42"/>
-      <c r="Y121" s="42"/>
-      <c r="Z121" s="43"/>
-      <c r="AA121" s="8" t="str">
-        <f t="shared" ref="AA121" ca="1" si="44">IFERROR(OFFSET(A121,0,MATCH("",B121:Z121,-1)),"")</f>
-        <v/>
-      </c>
+    <row r="121" spans="2:43">
+      <c r="B121" s="41"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39"/>
+      <c r="M121" s="39"/>
+      <c r="N121" s="39"/>
+      <c r="O121" s="39"/>
+      <c r="P121" s="39"/>
+      <c r="Q121" s="39"/>
+      <c r="R121" s="39"/>
+      <c r="S121" s="39"/>
+      <c r="T121" s="39"/>
+      <c r="U121" s="39"/>
+      <c r="V121" s="39"/>
+      <c r="W121" s="39"/>
+      <c r="X121" s="39"/>
+      <c r="Y121" s="39"/>
+      <c r="Z121" s="40"/>
+      <c r="AA121" s="8"/>
       <c r="AB121" s="2" t="s">
         <v>6</v>
       </c>
@@ -9018,36 +9103,33 @@
       <c r="AP121" s="1"/>
       <c r="AQ121" s="1"/>
     </row>
-    <row r="122" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B122" s="12"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="42"/>
-      <c r="M122" s="42"/>
-      <c r="N122" s="42"/>
-      <c r="O122" s="42"/>
-      <c r="P122" s="42"/>
-      <c r="Q122" s="42"/>
-      <c r="R122" s="42"/>
-      <c r="S122" s="42"/>
-      <c r="T122" s="42"/>
-      <c r="U122" s="42"/>
-      <c r="V122" s="42"/>
-      <c r="W122" s="42"/>
-      <c r="X122" s="42"/>
-      <c r="Y122" s="42"/>
-      <c r="Z122" s="43"/>
-      <c r="AA122" s="8" t="str">
-        <f t="shared" ref="AA122:AA123" ca="1" si="45">IFERROR(OFFSET(A122,0,MATCH("",B122:Z122,-1)),"")</f>
-        <v/>
-      </c>
+    <row r="122" spans="2:43">
+      <c r="B122" s="41"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="39"/>
+      <c r="M122" s="39"/>
+      <c r="N122" s="39"/>
+      <c r="O122" s="39"/>
+      <c r="P122" s="39"/>
+      <c r="Q122" s="39"/>
+      <c r="R122" s="39"/>
+      <c r="S122" s="39"/>
+      <c r="T122" s="39"/>
+      <c r="U122" s="39"/>
+      <c r="V122" s="39"/>
+      <c r="W122" s="39"/>
+      <c r="X122" s="39"/>
+      <c r="Y122" s="39"/>
+      <c r="Z122" s="40"/>
+      <c r="AA122" s="8"/>
       <c r="AB122" s="2" t="s">
         <v>6</v>
       </c>
@@ -9067,9 +9149,9 @@
       <c r="AP122" s="1"/>
       <c r="AQ122" s="1"/>
     </row>
-    <row r="123" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B123" s="12"/>
-      <c r="C123" s="41"/>
+    <row r="123" spans="2:43">
+      <c r="B123" s="41"/>
+      <c r="C123" s="42"/>
       <c r="D123" s="42"/>
       <c r="E123" s="42"/>
       <c r="F123" s="42"/>
@@ -9094,7 +9176,7 @@
       <c r="Y123" s="42"/>
       <c r="Z123" s="43"/>
       <c r="AA123" s="8" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ref="AA123" ca="1" si="45">IFERROR(OFFSET(A123,0,MATCH("",B123:Z123,-1)),"")</f>
         <v/>
       </c>
       <c r="AB123" s="2" t="s">
@@ -9116,36 +9198,33 @@
       <c r="AP123" s="1"/>
       <c r="AQ123" s="1"/>
     </row>
-    <row r="124" spans="2:43" collapsed="1">
+    <row r="124" spans="2:43">
       <c r="B124" s="41"/>
       <c r="C124" s="42"/>
-      <c r="D124" s="42"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="42"/>
-      <c r="L124" s="42"/>
-      <c r="M124" s="42"/>
-      <c r="N124" s="42"/>
-      <c r="O124" s="42"/>
-      <c r="P124" s="42"/>
-      <c r="Q124" s="42"/>
-      <c r="R124" s="42"/>
-      <c r="S124" s="42"/>
-      <c r="T124" s="42"/>
-      <c r="U124" s="42"/>
-      <c r="V124" s="42"/>
-      <c r="W124" s="42"/>
-      <c r="X124" s="42"/>
-      <c r="Y124" s="42"/>
-      <c r="Z124" s="43"/>
-      <c r="AA124" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
+      <c r="D124" s="38"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="39"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="39"/>
+      <c r="M124" s="39"/>
+      <c r="N124" s="39"/>
+      <c r="O124" s="39"/>
+      <c r="P124" s="39"/>
+      <c r="Q124" s="39"/>
+      <c r="R124" s="39"/>
+      <c r="S124" s="39"/>
+      <c r="T124" s="39"/>
+      <c r="U124" s="39"/>
+      <c r="V124" s="39"/>
+      <c r="W124" s="39"/>
+      <c r="X124" s="39"/>
+      <c r="Y124" s="39"/>
+      <c r="Z124" s="40"/>
+      <c r="AA124" s="8"/>
       <c r="AB124" s="2" t="s">
         <v>6</v>
       </c>
@@ -9165,35 +9244,33 @@
       <c r="AP124" s="1"/>
       <c r="AQ124" s="1"/>
     </row>
-    <row r="125" spans="2:43">
+    <row r="125" spans="2:43" collapsed="1">
       <c r="B125" s="41"/>
       <c r="C125" s="42"/>
-      <c r="D125" s="42"/>
-      <c r="E125" s="42"/>
-      <c r="F125" s="42"/>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
-      <c r="J125" s="42"/>
-      <c r="K125" s="42"/>
-      <c r="L125" s="42"/>
-      <c r="M125" s="42"/>
-      <c r="N125" s="42"/>
-      <c r="O125" s="42"/>
-      <c r="P125" s="42"/>
-      <c r="Q125" s="42"/>
-      <c r="R125" s="42"/>
-      <c r="S125" s="42"/>
-      <c r="T125" s="42"/>
-      <c r="U125" s="42"/>
-      <c r="V125" s="42"/>
-      <c r="W125" s="42"/>
-      <c r="X125" s="42"/>
-      <c r="Y125" s="42"/>
-      <c r="Z125" s="43"/>
-      <c r="AA125" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="D125" s="38"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39"/>
+      <c r="M125" s="39"/>
+      <c r="N125" s="39"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="39"/>
+      <c r="Q125" s="39"/>
+      <c r="R125" s="39"/>
+      <c r="S125" s="39"/>
+      <c r="T125" s="39"/>
+      <c r="U125" s="39"/>
+      <c r="V125" s="39"/>
+      <c r="W125" s="39"/>
+      <c r="X125" s="39"/>
+      <c r="Y125" s="39"/>
+      <c r="Z125" s="40"/>
+      <c r="AA125" s="8"/>
       <c r="AB125" s="2" t="s">
         <v>6</v>
       </c>
@@ -9213,9 +9290,9 @@
       <c r="AP125" s="1"/>
       <c r="AQ125" s="1"/>
     </row>
-    <row r="126" spans="2:43" outlineLevel="1">
-      <c r="B126" s="15"/>
-      <c r="C126" s="42"/>
+    <row r="126" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B126" s="10"/>
+      <c r="C126" s="41"/>
       <c r="D126" s="42"/>
       <c r="E126" s="42"/>
       <c r="F126" s="42"/>
@@ -9239,8 +9316,9 @@
       <c r="X126" s="42"/>
       <c r="Y126" s="42"/>
       <c r="Z126" s="43"/>
-      <c r="AA126" s="8" t="s">
-        <v>199</v>
+      <c r="AA126" s="8" t="str">
+        <f t="shared" ref="AA126" ca="1" si="46">IFERROR(OFFSET(A126,0,MATCH("",B126:Z126,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB126" s="2" t="s">
         <v>6</v>
@@ -9261,9 +9339,9 @@
       <c r="AP126" s="1"/>
       <c r="AQ126" s="1"/>
     </row>
-    <row r="127" spans="2:43" outlineLevel="1">
-      <c r="B127" s="3"/>
-      <c r="C127" s="42"/>
+    <row r="127" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B127" s="10"/>
+      <c r="C127" s="41"/>
       <c r="D127" s="42"/>
       <c r="E127" s="42"/>
       <c r="F127" s="42"/>
@@ -9287,8 +9365,9 @@
       <c r="X127" s="42"/>
       <c r="Y127" s="42"/>
       <c r="Z127" s="43"/>
-      <c r="AA127" s="8" t="s">
-        <v>199</v>
+      <c r="AA127" s="8" t="str">
+        <f t="shared" ref="AA127" ca="1" si="47">IFERROR(OFFSET(A127,0,MATCH("",B127:Z127,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB127" s="2" t="s">
         <v>6</v>
@@ -9309,9 +9388,9 @@
       <c r="AP127" s="1"/>
       <c r="AQ127" s="1"/>
     </row>
-    <row r="128" spans="2:43" outlineLevel="2">
-      <c r="B128" s="3"/>
-      <c r="C128" s="4"/>
+    <row r="128" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B128" s="10"/>
+      <c r="C128" s="41"/>
       <c r="D128" s="42"/>
       <c r="E128" s="42"/>
       <c r="F128" s="42"/>
@@ -9335,8 +9414,9 @@
       <c r="X128" s="42"/>
       <c r="Y128" s="42"/>
       <c r="Z128" s="43"/>
-      <c r="AA128" s="8" t="s">
-        <v>199</v>
+      <c r="AA128" s="8" t="str">
+        <f t="shared" ref="AA128" ca="1" si="48">IFERROR(OFFSET(A128,0,MATCH("",B128:Z128,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB128" s="2" t="s">
         <v>6</v>
@@ -9357,9 +9437,9 @@
       <c r="AP128" s="1"/>
       <c r="AQ128" s="1"/>
     </row>
-    <row r="129" spans="2:43" outlineLevel="2">
-      <c r="B129" s="3"/>
-      <c r="C129" s="4"/>
+    <row r="129" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B129" s="12"/>
+      <c r="C129" s="41"/>
       <c r="D129" s="42"/>
       <c r="E129" s="42"/>
       <c r="F129" s="42"/>
@@ -9383,8 +9463,9 @@
       <c r="X129" s="42"/>
       <c r="Y129" s="42"/>
       <c r="Z129" s="43"/>
-      <c r="AA129" s="8" t="s">
-        <v>199</v>
+      <c r="AA129" s="8" t="str">
+        <f t="shared" ref="AA129:AA130" ca="1" si="49">IFERROR(OFFSET(A129,0,MATCH("",B129:Z129,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB129" s="2" t="s">
         <v>6</v>
@@ -9405,10 +9486,10 @@
       <c r="AP129" s="1"/>
       <c r="AQ129" s="1"/>
     </row>
-    <row r="130" spans="2:43" outlineLevel="3">
-      <c r="B130" s="3"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+    <row r="130" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B130" s="12"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="42"/>
       <c r="E130" s="42"/>
       <c r="F130" s="42"/>
       <c r="G130" s="42"/>
@@ -9431,8 +9512,9 @@
       <c r="X130" s="42"/>
       <c r="Y130" s="42"/>
       <c r="Z130" s="43"/>
-      <c r="AA130" s="8" t="s">
-        <v>199</v>
+      <c r="AA130" s="8" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
       </c>
       <c r="AB130" s="2" t="s">
         <v>6</v>
@@ -9453,10 +9535,10 @@
       <c r="AP130" s="1"/>
       <c r="AQ130" s="1"/>
     </row>
-    <row r="131" spans="2:43" outlineLevel="3">
-      <c r="B131" s="3"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+    <row r="131" spans="2:43" collapsed="1">
+      <c r="B131" s="41"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
       <c r="E131" s="42"/>
       <c r="F131" s="42"/>
       <c r="G131" s="42"/>
@@ -9479,8 +9561,9 @@
       <c r="X131" s="42"/>
       <c r="Y131" s="42"/>
       <c r="Z131" s="43"/>
-      <c r="AA131" s="8" t="s">
-        <v>199</v>
+      <c r="AA131" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="AB131" s="2" t="s">
         <v>6</v>
@@ -9501,11 +9584,11 @@
       <c r="AP131" s="1"/>
       <c r="AQ131" s="1"/>
     </row>
-    <row r="132" spans="2:43" outlineLevel="4">
-      <c r="B132" s="3"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
+    <row r="132" spans="2:43" collapsed="1">
+      <c r="B132" s="41"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="42"/>
       <c r="F132" s="42"/>
       <c r="G132" s="42"/>
       <c r="H132" s="42"/>
@@ -9549,11 +9632,11 @@
       <c r="AP132" s="1"/>
       <c r="AQ132" s="1"/>
     </row>
-    <row r="133" spans="2:43" outlineLevel="4">
-      <c r="B133" s="3"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
+    <row r="133" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
       <c r="F133" s="42"/>
       <c r="G133" s="42"/>
       <c r="H133" s="42"/>
@@ -9597,12 +9680,12 @@
       <c r="AP133" s="1"/>
       <c r="AQ133" s="1"/>
     </row>
-    <row r="134" spans="2:43" outlineLevel="5">
+    <row r="134" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B134" s="3"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
       <c r="G134" s="42"/>
       <c r="H134" s="42"/>
       <c r="I134" s="42"/>
@@ -9645,12 +9728,12 @@
       <c r="AP134" s="1"/>
       <c r="AQ134" s="1"/>
     </row>
-    <row r="135" spans="2:43" outlineLevel="5">
+    <row r="135" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B135" s="3"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
       <c r="G135" s="42"/>
       <c r="H135" s="42"/>
       <c r="I135" s="42"/>
@@ -9693,13 +9776,13 @@
       <c r="AP135" s="1"/>
       <c r="AQ135" s="1"/>
     </row>
-    <row r="136" spans="2:43" outlineLevel="6">
+    <row r="136" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
       <c r="H136" s="42"/>
       <c r="I136" s="42"/>
       <c r="J136" s="42"/>
@@ -9741,13 +9824,13 @@
       <c r="AP136" s="1"/>
       <c r="AQ136" s="1"/>
     </row>
-    <row r="137" spans="2:43" outlineLevel="6">
+    <row r="137" spans="2:43" hidden="1" outlineLevel="3">
       <c r="B137" s="3"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="42"/>
       <c r="H137" s="42"/>
       <c r="I137" s="42"/>
       <c r="J137" s="42"/>
@@ -9789,10 +9872,10 @@
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
     </row>
-    <row r="138" spans="2:43">
-      <c r="B138" s="41"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="42"/>
+    <row r="138" spans="2:43" hidden="1" outlineLevel="3">
+      <c r="B138" s="3"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
       <c r="E138" s="42"/>
       <c r="F138" s="42"/>
       <c r="G138" s="42"/>
@@ -9837,62 +9920,406 @@
       <c r="AP138" s="1"/>
       <c r="AQ138" s="1"/>
     </row>
+    <row r="139" spans="2:43" hidden="1" outlineLevel="4">
+      <c r="B139" s="3"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="42"/>
+      <c r="G139" s="42"/>
+      <c r="H139" s="42"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="42"/>
+      <c r="K139" s="42"/>
+      <c r="L139" s="42"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="42"/>
+      <c r="O139" s="42"/>
+      <c r="P139" s="42"/>
+      <c r="Q139" s="42"/>
+      <c r="R139" s="42"/>
+      <c r="S139" s="42"/>
+      <c r="T139" s="42"/>
+      <c r="U139" s="42"/>
+      <c r="V139" s="42"/>
+      <c r="W139" s="42"/>
+      <c r="X139" s="42"/>
+      <c r="Y139" s="42"/>
+      <c r="Z139" s="43"/>
+      <c r="AA139" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC139" s="2"/>
+      <c r="AD139" s="2"/>
+      <c r="AE139" s="2"/>
+      <c r="AF139" s="2"/>
+      <c r="AG139" s="2"/>
+      <c r="AH139" s="2"/>
+      <c r="AI139" s="2"/>
+      <c r="AJ139" s="2"/>
+      <c r="AK139" s="2"/>
+      <c r="AL139" s="2"/>
+      <c r="AM139" s="2"/>
+      <c r="AN139" s="2"/>
+      <c r="AO139" s="2"/>
+      <c r="AP139" s="1"/>
+      <c r="AQ139" s="1"/>
+    </row>
+    <row r="140" spans="2:43" hidden="1" outlineLevel="4">
+      <c r="B140" s="3"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="42"/>
+      <c r="G140" s="42"/>
+      <c r="H140" s="42"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="42"/>
+      <c r="K140" s="42"/>
+      <c r="L140" s="42"/>
+      <c r="M140" s="42"/>
+      <c r="N140" s="42"/>
+      <c r="O140" s="42"/>
+      <c r="P140" s="42"/>
+      <c r="Q140" s="42"/>
+      <c r="R140" s="42"/>
+      <c r="S140" s="42"/>
+      <c r="T140" s="42"/>
+      <c r="U140" s="42"/>
+      <c r="V140" s="42"/>
+      <c r="W140" s="42"/>
+      <c r="X140" s="42"/>
+      <c r="Y140" s="42"/>
+      <c r="Z140" s="43"/>
+      <c r="AA140" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC140" s="2"/>
+      <c r="AD140" s="2"/>
+      <c r="AE140" s="2"/>
+      <c r="AF140" s="2"/>
+      <c r="AG140" s="2"/>
+      <c r="AH140" s="2"/>
+      <c r="AI140" s="2"/>
+      <c r="AJ140" s="2"/>
+      <c r="AK140" s="2"/>
+      <c r="AL140" s="2"/>
+      <c r="AM140" s="2"/>
+      <c r="AN140" s="2"/>
+      <c r="AO140" s="2"/>
+      <c r="AP140" s="1"/>
+      <c r="AQ140" s="1"/>
+    </row>
+    <row r="141" spans="2:43" hidden="1" outlineLevel="5">
+      <c r="B141" s="3"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="42"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="42"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="42"/>
+      <c r="O141" s="42"/>
+      <c r="P141" s="42"/>
+      <c r="Q141" s="42"/>
+      <c r="R141" s="42"/>
+      <c r="S141" s="42"/>
+      <c r="T141" s="42"/>
+      <c r="U141" s="42"/>
+      <c r="V141" s="42"/>
+      <c r="W141" s="42"/>
+      <c r="X141" s="42"/>
+      <c r="Y141" s="42"/>
+      <c r="Z141" s="43"/>
+      <c r="AA141" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC141" s="2"/>
+      <c r="AD141" s="2"/>
+      <c r="AE141" s="2"/>
+      <c r="AF141" s="2"/>
+      <c r="AG141" s="2"/>
+      <c r="AH141" s="2"/>
+      <c r="AI141" s="2"/>
+      <c r="AJ141" s="2"/>
+      <c r="AK141" s="2"/>
+      <c r="AL141" s="2"/>
+      <c r="AM141" s="2"/>
+      <c r="AN141" s="2"/>
+      <c r="AO141" s="2"/>
+      <c r="AP141" s="1"/>
+      <c r="AQ141" s="1"/>
+    </row>
+    <row r="142" spans="2:43" hidden="1" outlineLevel="5">
+      <c r="B142" s="3"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="42"/>
+      <c r="H142" s="42"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="42"/>
+      <c r="K142" s="42"/>
+      <c r="L142" s="42"/>
+      <c r="M142" s="42"/>
+      <c r="N142" s="42"/>
+      <c r="O142" s="42"/>
+      <c r="P142" s="42"/>
+      <c r="Q142" s="42"/>
+      <c r="R142" s="42"/>
+      <c r="S142" s="42"/>
+      <c r="T142" s="42"/>
+      <c r="U142" s="42"/>
+      <c r="V142" s="42"/>
+      <c r="W142" s="42"/>
+      <c r="X142" s="42"/>
+      <c r="Y142" s="42"/>
+      <c r="Z142" s="43"/>
+      <c r="AA142" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC142" s="2"/>
+      <c r="AD142" s="2"/>
+      <c r="AE142" s="2"/>
+      <c r="AF142" s="2"/>
+      <c r="AG142" s="2"/>
+      <c r="AH142" s="2"/>
+      <c r="AI142" s="2"/>
+      <c r="AJ142" s="2"/>
+      <c r="AK142" s="2"/>
+      <c r="AL142" s="2"/>
+      <c r="AM142" s="2"/>
+      <c r="AN142" s="2"/>
+      <c r="AO142" s="2"/>
+      <c r="AP142" s="1"/>
+      <c r="AQ142" s="1"/>
+    </row>
+    <row r="143" spans="2:43" hidden="1" outlineLevel="6">
+      <c r="B143" s="3"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="42"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="42"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="42"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="42"/>
+      <c r="O143" s="42"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="42"/>
+      <c r="R143" s="42"/>
+      <c r="S143" s="42"/>
+      <c r="T143" s="42"/>
+      <c r="U143" s="42"/>
+      <c r="V143" s="42"/>
+      <c r="W143" s="42"/>
+      <c r="X143" s="42"/>
+      <c r="Y143" s="42"/>
+      <c r="Z143" s="43"/>
+      <c r="AA143" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC143" s="2"/>
+      <c r="AD143" s="2"/>
+      <c r="AE143" s="2"/>
+      <c r="AF143" s="2"/>
+      <c r="AG143" s="2"/>
+      <c r="AH143" s="2"/>
+      <c r="AI143" s="2"/>
+      <c r="AJ143" s="2"/>
+      <c r="AK143" s="2"/>
+      <c r="AL143" s="2"/>
+      <c r="AM143" s="2"/>
+      <c r="AN143" s="2"/>
+      <c r="AO143" s="2"/>
+      <c r="AP143" s="1"/>
+      <c r="AQ143" s="1"/>
+    </row>
+    <row r="144" spans="2:43" hidden="1" outlineLevel="6">
+      <c r="B144" s="3"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="42"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="42"/>
+      <c r="M144" s="42"/>
+      <c r="N144" s="42"/>
+      <c r="O144" s="42"/>
+      <c r="P144" s="42"/>
+      <c r="Q144" s="42"/>
+      <c r="R144" s="42"/>
+      <c r="S144" s="42"/>
+      <c r="T144" s="42"/>
+      <c r="U144" s="42"/>
+      <c r="V144" s="42"/>
+      <c r="W144" s="42"/>
+      <c r="X144" s="42"/>
+      <c r="Y144" s="42"/>
+      <c r="Z144" s="43"/>
+      <c r="AA144" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC144" s="2"/>
+      <c r="AD144" s="2"/>
+      <c r="AE144" s="2"/>
+      <c r="AF144" s="2"/>
+      <c r="AG144" s="2"/>
+      <c r="AH144" s="2"/>
+      <c r="AI144" s="2"/>
+      <c r="AJ144" s="2"/>
+      <c r="AK144" s="2"/>
+      <c r="AL144" s="2"/>
+      <c r="AM144" s="2"/>
+      <c r="AN144" s="2"/>
+      <c r="AO144" s="2"/>
+      <c r="AP144" s="1"/>
+      <c r="AQ144" s="1"/>
+    </row>
+    <row r="145" spans="2:43">
+      <c r="B145" s="41"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="42"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
+      <c r="K145" s="42"/>
+      <c r="L145" s="42"/>
+      <c r="M145" s="42"/>
+      <c r="N145" s="42"/>
+      <c r="O145" s="42"/>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="42"/>
+      <c r="R145" s="42"/>
+      <c r="S145" s="42"/>
+      <c r="T145" s="42"/>
+      <c r="U145" s="42"/>
+      <c r="V145" s="42"/>
+      <c r="W145" s="42"/>
+      <c r="X145" s="42"/>
+      <c r="Y145" s="42"/>
+      <c r="Z145" s="43"/>
+      <c r="AA145" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC145" s="2"/>
+      <c r="AD145" s="2"/>
+      <c r="AE145" s="2"/>
+      <c r="AF145" s="2"/>
+      <c r="AG145" s="2"/>
+      <c r="AH145" s="2"/>
+      <c r="AI145" s="2"/>
+      <c r="AJ145" s="2"/>
+      <c r="AK145" s="2"/>
+      <c r="AL145" s="2"/>
+      <c r="AM145" s="2"/>
+      <c r="AN145" s="2"/>
+      <c r="AO145" s="2"/>
+      <c r="AP145" s="1"/>
+      <c r="AQ145" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="D104:Z104"/>
-    <mergeCell ref="E102:Z102"/>
-    <mergeCell ref="E103:Z103"/>
-    <mergeCell ref="B138:Z138"/>
-    <mergeCell ref="E131:Z131"/>
-    <mergeCell ref="F132:Z132"/>
-    <mergeCell ref="C58:Z58"/>
-    <mergeCell ref="C62:Z62"/>
-    <mergeCell ref="B118:Z118"/>
-    <mergeCell ref="C119:Z119"/>
-    <mergeCell ref="C120:Z120"/>
-    <mergeCell ref="C121:Z121"/>
-    <mergeCell ref="B73:Z73"/>
-    <mergeCell ref="C60:Z60"/>
+  <mergeCells count="146">
+    <mergeCell ref="D29:Z29"/>
+    <mergeCell ref="D108:Z108"/>
+    <mergeCell ref="E105:Z105"/>
+    <mergeCell ref="E106:Z106"/>
+    <mergeCell ref="C53:Z53"/>
+    <mergeCell ref="D54:Z54"/>
+    <mergeCell ref="D55:Z55"/>
+    <mergeCell ref="C110:Z110"/>
+    <mergeCell ref="D111:Z111"/>
+    <mergeCell ref="D107:Z107"/>
+    <mergeCell ref="D109:Z109"/>
+    <mergeCell ref="B145:Z145"/>
+    <mergeCell ref="E138:Z138"/>
+    <mergeCell ref="F139:Z139"/>
     <mergeCell ref="C61:Z61"/>
-    <mergeCell ref="B63:Z63"/>
     <mergeCell ref="C65:Z65"/>
-    <mergeCell ref="C59:Z59"/>
-    <mergeCell ref="B64:Z64"/>
-    <mergeCell ref="C66:Z66"/>
-    <mergeCell ref="B97:Z97"/>
-    <mergeCell ref="C98:Z98"/>
-    <mergeCell ref="B99:Z99"/>
-    <mergeCell ref="C100:Z100"/>
-    <mergeCell ref="D101:Z101"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="G134:Z134"/>
-    <mergeCell ref="G135:Z135"/>
-    <mergeCell ref="H136:Z136"/>
-    <mergeCell ref="H137:Z137"/>
-    <mergeCell ref="F133:Z133"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="D129:Z129"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="B124:Z124"/>
-    <mergeCell ref="E130:Z130"/>
     <mergeCell ref="B125:Z125"/>
     <mergeCell ref="C126:Z126"/>
     <mergeCell ref="C127:Z127"/>
-    <mergeCell ref="D128:Z128"/>
+    <mergeCell ref="C128:Z128"/>
+    <mergeCell ref="B76:Z76"/>
+    <mergeCell ref="C63:Z63"/>
+    <mergeCell ref="C64:Z64"/>
+    <mergeCell ref="B66:Z66"/>
+    <mergeCell ref="C68:Z68"/>
+    <mergeCell ref="C62:Z62"/>
+    <mergeCell ref="B67:Z67"/>
+    <mergeCell ref="C69:Z69"/>
+    <mergeCell ref="B100:Z100"/>
+    <mergeCell ref="C101:Z101"/>
+    <mergeCell ref="B102:Z102"/>
+    <mergeCell ref="C103:Z103"/>
+    <mergeCell ref="D104:Z104"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="G141:Z141"/>
+    <mergeCell ref="G142:Z142"/>
+    <mergeCell ref="H143:Z143"/>
+    <mergeCell ref="H144:Z144"/>
+    <mergeCell ref="F140:Z140"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="D136:Z136"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="B131:Z131"/>
+    <mergeCell ref="E137:Z137"/>
+    <mergeCell ref="B132:Z132"/>
+    <mergeCell ref="C133:Z133"/>
+    <mergeCell ref="C134:Z134"/>
+    <mergeCell ref="D135:Z135"/>
     <mergeCell ref="D5:Z5"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="D12:Z12"/>
     <mergeCell ref="D28:Z28"/>
     <mergeCell ref="D7:Z7"/>
     <mergeCell ref="D39:Z39"/>
-    <mergeCell ref="E31:Z31"/>
     <mergeCell ref="E32:Z32"/>
+    <mergeCell ref="E33:Z33"/>
     <mergeCell ref="D4:Z4"/>
-    <mergeCell ref="B54:Z54"/>
-    <mergeCell ref="C55:Z55"/>
-    <mergeCell ref="C56:Z56"/>
     <mergeCell ref="B57:Z57"/>
+    <mergeCell ref="C58:Z58"/>
+    <mergeCell ref="C59:Z59"/>
+    <mergeCell ref="B60:Z60"/>
     <mergeCell ref="C13:Z13"/>
     <mergeCell ref="D14:Z14"/>
     <mergeCell ref="C15:Z15"/>
@@ -9902,18 +10329,18 @@
     <mergeCell ref="D6:Z6"/>
     <mergeCell ref="C26:Z26"/>
     <mergeCell ref="D27:Z27"/>
-    <mergeCell ref="C29:Z29"/>
-    <mergeCell ref="D30:Z30"/>
+    <mergeCell ref="C30:Z30"/>
+    <mergeCell ref="D31:Z31"/>
     <mergeCell ref="C8:Z8"/>
     <mergeCell ref="D10:Z10"/>
-    <mergeCell ref="C53:Z53"/>
+    <mergeCell ref="C56:Z56"/>
     <mergeCell ref="D9:Z9"/>
     <mergeCell ref="E19:Z19"/>
     <mergeCell ref="E20:Z20"/>
     <mergeCell ref="C37:Z37"/>
     <mergeCell ref="D38:Z38"/>
-    <mergeCell ref="C122:Z122"/>
-    <mergeCell ref="C123:Z123"/>
+    <mergeCell ref="C129:Z129"/>
+    <mergeCell ref="C130:Z130"/>
     <mergeCell ref="D21:Z21"/>
     <mergeCell ref="E22:Z22"/>
     <mergeCell ref="E23:Z23"/>
@@ -9923,66 +10350,65 @@
     <mergeCell ref="D41:Z41"/>
     <mergeCell ref="C42:Z42"/>
     <mergeCell ref="D43:Z43"/>
-    <mergeCell ref="D33:Z33"/>
     <mergeCell ref="D34:Z34"/>
     <mergeCell ref="C35:Z35"/>
     <mergeCell ref="D36:Z36"/>
     <mergeCell ref="D25:Z25"/>
     <mergeCell ref="E24:Z24"/>
     <mergeCell ref="D46:Z46"/>
-    <mergeCell ref="B74:Z74"/>
-    <mergeCell ref="B116:Z116"/>
-    <mergeCell ref="B67:Z67"/>
-    <mergeCell ref="C68:Z68"/>
-    <mergeCell ref="D69:Z69"/>
-    <mergeCell ref="D70:Z70"/>
+    <mergeCell ref="B77:Z77"/>
+    <mergeCell ref="B123:Z123"/>
+    <mergeCell ref="B70:Z70"/>
+    <mergeCell ref="C71:Z71"/>
+    <mergeCell ref="D72:Z72"/>
+    <mergeCell ref="D73:Z73"/>
     <mergeCell ref="D52:Z52"/>
     <mergeCell ref="C50:Z50"/>
     <mergeCell ref="D51:Z51"/>
     <mergeCell ref="D47:Z47"/>
     <mergeCell ref="E48:Z48"/>
     <mergeCell ref="E49:Z49"/>
-    <mergeCell ref="D81:Z81"/>
-    <mergeCell ref="B84:Z84"/>
+    <mergeCell ref="D84:Z84"/>
+    <mergeCell ref="B87:Z87"/>
+    <mergeCell ref="C88:Z88"/>
+    <mergeCell ref="C74:Z74"/>
+    <mergeCell ref="D75:Z75"/>
+    <mergeCell ref="C79:Z79"/>
+    <mergeCell ref="C78:Z78"/>
+    <mergeCell ref="B80:Z80"/>
+    <mergeCell ref="C81:Z81"/>
     <mergeCell ref="C85:Z85"/>
-    <mergeCell ref="C71:Z71"/>
-    <mergeCell ref="D72:Z72"/>
-    <mergeCell ref="C76:Z76"/>
-    <mergeCell ref="C75:Z75"/>
-    <mergeCell ref="B77:Z77"/>
-    <mergeCell ref="C78:Z78"/>
-    <mergeCell ref="C82:Z82"/>
-    <mergeCell ref="D79:Z79"/>
-    <mergeCell ref="D80:Z80"/>
+    <mergeCell ref="D82:Z82"/>
+    <mergeCell ref="D83:Z83"/>
+    <mergeCell ref="D89:Z89"/>
+    <mergeCell ref="B112:Z112"/>
+    <mergeCell ref="C113:Z113"/>
+    <mergeCell ref="C114:Z114"/>
     <mergeCell ref="D86:Z86"/>
-    <mergeCell ref="B105:Z105"/>
-    <mergeCell ref="C106:Z106"/>
-    <mergeCell ref="C107:Z107"/>
-    <mergeCell ref="D83:Z83"/>
+    <mergeCell ref="B124:Z124"/>
+    <mergeCell ref="B120:Z120"/>
+    <mergeCell ref="B121:Z121"/>
+    <mergeCell ref="B122:Z122"/>
+    <mergeCell ref="B115:Z115"/>
+    <mergeCell ref="B116:Z116"/>
+    <mergeCell ref="B91:Z91"/>
     <mergeCell ref="B117:Z117"/>
-    <mergeCell ref="B113:Z113"/>
-    <mergeCell ref="B114:Z114"/>
-    <mergeCell ref="B115:Z115"/>
-    <mergeCell ref="B108:Z108"/>
-    <mergeCell ref="B109:Z109"/>
-    <mergeCell ref="B88:Z88"/>
-    <mergeCell ref="B110:Z110"/>
-    <mergeCell ref="B111:Z111"/>
-    <mergeCell ref="B112:Z112"/>
-    <mergeCell ref="C89:Z89"/>
-    <mergeCell ref="C90:Z90"/>
-    <mergeCell ref="B91:Z91"/>
+    <mergeCell ref="B118:Z118"/>
+    <mergeCell ref="B119:Z119"/>
     <mergeCell ref="C92:Z92"/>
-    <mergeCell ref="D87:Z87"/>
-    <mergeCell ref="B93:Z93"/>
-    <mergeCell ref="C94:Z94"/>
-    <mergeCell ref="D95:Z95"/>
-    <mergeCell ref="D96:Z96"/>
+    <mergeCell ref="C93:Z93"/>
+    <mergeCell ref="B94:Z94"/>
+    <mergeCell ref="C95:Z95"/>
+    <mergeCell ref="D90:Z90"/>
+    <mergeCell ref="B96:Z96"/>
+    <mergeCell ref="C97:Z97"/>
+    <mergeCell ref="D98:Z98"/>
+    <mergeCell ref="D99:Z99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AK32" numberStoredAsText="1"/>
+    <ignoredError sqref="AK33" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="445">
   <si>
     <t>Details</t>
   </si>
@@ -1641,6 +1641,58 @@
   </si>
   <si>
     <t>$REGION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcloud beta functions logs read helloWorld
+</t>
+  </si>
+  <si>
+    <t>gcloud functions</t>
+  </si>
+  <si>
+    <t>Manages  Google Cloud Functions.</t>
+  </si>
+  <si>
+    <t>Creates or updates a Google Cloud Function.</t>
+  </si>
+  <si>
+    <t>Function name:</t>
+  </si>
+  <si>
+    <t>helloWorld</t>
+  </si>
+  <si>
+    <t>Stage bucket:</t>
+  </si>
+  <si>
+    <t>ioso_bucket2</t>
+  </si>
+  <si>
+    <t>Creates a Google Cloud Function.</t>
+  </si>
+  <si>
+    <t>Trigger topic:</t>
+  </si>
+  <si>
+    <t>hello_world</t>
+  </si>
+  <si>
+    <t>Function:</t>
+  </si>
+  <si>
+    <t>Displays details of a Google Cloud Function.</t>
+  </si>
+  <si>
+    <t>Triggers the execution of a Google Cloud Function.</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t>{"message":"Hello World!"}</t>
+  </si>
+  <si>
+    <t>Displays log entries produced by Google Cloud Functions.</t>
   </si>
 </sst>
 </file>
@@ -2288,30 +2340,30 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AQ143"/>
+  <dimension ref="B1:AQ150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121:Z121"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="24.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="14.140625" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="19.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="15.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="43" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="42.140625" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="10.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="14.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="8.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="16.140625" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="7.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="12.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="24.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="14.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="19.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="15.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="43" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="42.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="10.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="14.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="8.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="16.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="7.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="42" max="42" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="46" customWidth="1"/>
     <col min="44" max="44" width="68.140625" customWidth="1"/>
@@ -2400,7 +2452,7 @@
       <c r="Y2" s="43"/>
       <c r="Z2" s="44"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA129" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA136" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>gcloud compute</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -8802,9 +8854,9 @@
       </c>
       <c r="AQ114" s="1"/>
     </row>
-    <row r="115" spans="2:43" ht="60" collapsed="1">
+    <row r="115" spans="2:43">
       <c r="B115" s="42" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="C115" s="43"/>
       <c r="D115" s="43"/>
@@ -8831,8 +8883,8 @@
       <c r="Y115" s="43"/>
       <c r="Z115" s="44"/>
       <c r="AA115" s="8" t="str">
-        <f t="shared" ref="AA115:AA116" ca="1" si="41">IFERROR(OFFSET(A115,0,MATCH("",B115:Z115,-1)),"")</f>
-        <v>gcloud docker</v>
+        <f t="shared" ref="AA115:AA117" ca="1" si="41">IFERROR(OFFSET(A115,0,MATCH("",B115:Z115,-1)),"")</f>
+        <v>gcloud functions</v>
       </c>
       <c r="AB115" s="2" t="s">
         <v>6</v>
@@ -8851,17 +8903,15 @@
       <c r="AN115" s="2"/>
       <c r="AO115" s="2"/>
       <c r="AP115" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AQ115" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="116" spans="2:43" ht="30" hidden="1" outlineLevel="1">
-      <c r="B116" s="33"/>
+        <v>430</v>
+      </c>
+      <c r="AQ115" s="1"/>
+    </row>
+    <row r="116" spans="2:43" outlineLevel="1">
+      <c r="B116" s="36"/>
       <c r="C116" s="39" t="str">
-        <f>B$115&amp;" -- push "&amp;AC116&amp;"/"&amp;AE116&amp;"/"&amp;AG116</f>
-        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+        <f>B$115&amp;" deploy"</f>
+        <v>gcloud functions deploy</v>
       </c>
       <c r="D116" s="40"/>
       <c r="E116" s="40"/>
@@ -8888,26 +8938,16 @@
       <c r="Z116" s="41"/>
       <c r="AA116" s="8" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="AB116" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC116" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="AD116" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE116" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="AF116" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG116" s="5" t="s">
-        <v>360</v>
-      </c>
+        <v>gcloud functions deploy</v>
+      </c>
+      <c r="AB116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="2"/>
+      <c r="AG116" s="2"/>
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
       <c r="AJ116" s="2"/>
@@ -8917,17 +8957,17 @@
       <c r="AN116" s="2"/>
       <c r="AO116" s="2"/>
       <c r="AP116" s="1" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="AQ116" s="1"/>
     </row>
-    <row r="117" spans="2:43" ht="30" hidden="1" outlineLevel="1">
-      <c r="B117" s="33"/>
-      <c r="C117" s="39" t="str">
-        <f>B$115&amp;" -- pull "&amp;AC117&amp;"/"&amp;AE117&amp;"/"&amp;AG117</f>
-        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="D117" s="40"/>
+    <row r="117" spans="2:43" ht="30" outlineLevel="2">
+      <c r="B117" s="36"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="39" t="str">
+        <f>C$116&amp;" "&amp;AC117&amp;" --stage-bucket "&amp;AE117&amp;IF(ISBLANK(AG117),""," --trigger-topic "&amp;AG117)</f>
+        <v>gcloud functions deploy helloWorld --stage-bucket ioso_bucket2 --trigger-topic hello_world</v>
+      </c>
       <c r="E117" s="40"/>
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
@@ -8951,26 +8991,26 @@
       <c r="Y117" s="40"/>
       <c r="Z117" s="41"/>
       <c r="AA117" s="8" t="str">
-        <f t="shared" ref="AA117:AA123" ca="1" si="42">IFERROR(OFFSET(A117,0,MATCH("",B117:Z117,-1)),"")</f>
-        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="AB117" s="22" t="s">
-        <v>358</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>gcloud functions deploy helloWorld --stage-bucket ioso_bucket2 --trigger-topic hello_world</v>
+      </c>
+      <c r="AB117" s="21" t="s">
+        <v>432</v>
       </c>
       <c r="AC117" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="AD117" s="22" t="s">
-        <v>147</v>
+        <v>433</v>
+      </c>
+      <c r="AD117" s="21" t="s">
+        <v>434</v>
       </c>
       <c r="AE117" s="5" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="AF117" s="2" t="s">
-        <v>261</v>
+        <v>437</v>
       </c>
       <c r="AG117" s="5" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="AH117" s="2"/>
       <c r="AI117" s="2"/>
@@ -8981,44 +9021,49 @@
       <c r="AN117" s="2"/>
       <c r="AO117" s="2"/>
       <c r="AP117" s="1" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="AQ117" s="1"/>
     </row>
-    <row r="118" spans="2:43">
-      <c r="B118" s="42"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="43"/>
-      <c r="K118" s="43"/>
-      <c r="L118" s="43"/>
-      <c r="M118" s="43"/>
-      <c r="N118" s="43"/>
-      <c r="O118" s="43"/>
-      <c r="P118" s="43"/>
-      <c r="Q118" s="43"/>
-      <c r="R118" s="43"/>
-      <c r="S118" s="43"/>
-      <c r="T118" s="43"/>
-      <c r="U118" s="43"/>
-      <c r="V118" s="43"/>
-      <c r="W118" s="43"/>
-      <c r="X118" s="43"/>
-      <c r="Y118" s="43"/>
-      <c r="Z118" s="44"/>
+    <row r="118" spans="2:43" outlineLevel="1">
+      <c r="B118" s="36"/>
+      <c r="C118" s="39" t="str">
+        <f>B$115&amp;" describe "&amp;AC118</f>
+        <v>gcloud functions describe helloWorld</v>
+      </c>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="40"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="40"/>
+      <c r="O118" s="40"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="40"/>
+      <c r="R118" s="40"/>
+      <c r="S118" s="40"/>
+      <c r="T118" s="40"/>
+      <c r="U118" s="40"/>
+      <c r="V118" s="40"/>
+      <c r="W118" s="40"/>
+      <c r="X118" s="40"/>
+      <c r="Y118" s="40"/>
+      <c r="Z118" s="41"/>
       <c r="AA118" s="8" t="str">
-        <f t="shared" ref="AA118" ca="1" si="43">IFERROR(OFFSET(A118,0,MATCH("",B118:Z118,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB118" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC118" s="2"/>
+        <f t="shared" ref="AA118" ca="1" si="42">IFERROR(OFFSET(A118,0,MATCH("",B118:Z118,-1)),"")</f>
+        <v>gcloud functions describe helloWorld</v>
+      </c>
+      <c r="AB118" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC118" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
@@ -9031,13 +9076,18 @@
       <c r="AM118" s="2"/>
       <c r="AN118" s="2"/>
       <c r="AO118" s="2"/>
-      <c r="AP118" s="1"/>
+      <c r="AP118" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="AQ118" s="1"/>
     </row>
-    <row r="119" spans="2:43">
-      <c r="B119" s="42"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="39"/>
+    <row r="119" spans="2:43" ht="30" outlineLevel="1">
+      <c r="B119" s="36"/>
+      <c r="C119" s="39" t="str">
+        <f>B$115&amp;" call "&amp;AC119&amp;IF(ISBLANK(AE119),""," --data "&amp;"'"&amp;AE119&amp;"'")</f>
+        <v>gcloud functions call helloWorld --data '{"message":"Hello World!"}'</v>
+      </c>
+      <c r="D119" s="40"/>
       <c r="E119" s="40"/>
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
@@ -9060,13 +9110,22 @@
       <c r="X119" s="40"/>
       <c r="Y119" s="40"/>
       <c r="Z119" s="41"/>
-      <c r="AA119" s="8"/>
-      <c r="AB119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC119" s="2"/>
-      <c r="AD119" s="2"/>
-      <c r="AE119" s="2"/>
+      <c r="AA119" s="8" t="str">
+        <f t="shared" ref="AA119" ca="1" si="43">IFERROR(OFFSET(A119,0,MATCH("",B119:Z119,-1)),"")</f>
+        <v>gcloud functions call helloWorld --data '{"message":"Hello World!"}'</v>
+      </c>
+      <c r="AB119" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC119" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD119" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE119" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="AF119" s="2"/>
       <c r="AG119" s="2"/>
       <c r="AH119" s="2"/>
@@ -9077,38 +9136,43 @@
       <c r="AM119" s="2"/>
       <c r="AN119" s="2"/>
       <c r="AO119" s="2"/>
-      <c r="AP119" s="1"/>
+      <c r="AP119" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="AQ119" s="1"/>
     </row>
-    <row r="120" spans="2:43">
-      <c r="B120" s="42"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="43"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="43"/>
-      <c r="G120" s="43"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="43"/>
-      <c r="K120" s="43"/>
-      <c r="L120" s="43"/>
-      <c r="M120" s="43"/>
-      <c r="N120" s="43"/>
-      <c r="O120" s="43"/>
-      <c r="P120" s="43"/>
-      <c r="Q120" s="43"/>
-      <c r="R120" s="43"/>
-      <c r="S120" s="43"/>
-      <c r="T120" s="43"/>
-      <c r="U120" s="43"/>
-      <c r="V120" s="43"/>
-      <c r="W120" s="43"/>
-      <c r="X120" s="43"/>
-      <c r="Y120" s="43"/>
-      <c r="Z120" s="44"/>
+    <row r="120" spans="2:43" outlineLevel="1">
+      <c r="B120" s="36"/>
+      <c r="C120" s="39" t="str">
+        <f>B$115&amp;" logs"</f>
+        <v>gcloud functions logs</v>
+      </c>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="40"/>
+      <c r="P120" s="40"/>
+      <c r="Q120" s="40"/>
+      <c r="R120" s="40"/>
+      <c r="S120" s="40"/>
+      <c r="T120" s="40"/>
+      <c r="U120" s="40"/>
+      <c r="V120" s="40"/>
+      <c r="W120" s="40"/>
+      <c r="X120" s="40"/>
+      <c r="Y120" s="40"/>
+      <c r="Z120" s="41"/>
       <c r="AA120" s="8" t="str">
-        <f t="shared" ref="AA120" ca="1" si="44">IFERROR(OFFSET(A120,0,MATCH("",B120:Z120,-1)),"")</f>
-        <v/>
+        <f t="shared" ref="AA120:AA121" ca="1" si="44">IFERROR(OFFSET(A120,0,MATCH("",B120:Z120,-1)),"")</f>
+        <v>gcloud functions logs</v>
       </c>
       <c r="AB120" s="2" t="s">
         <v>6</v>
@@ -9126,13 +9190,18 @@
       <c r="AM120" s="2"/>
       <c r="AN120" s="2"/>
       <c r="AO120" s="2"/>
-      <c r="AP120" s="1"/>
+      <c r="AP120" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="AQ120" s="1"/>
     </row>
-    <row r="121" spans="2:43">
-      <c r="B121" s="42"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="39"/>
+    <row r="121" spans="2:43" outlineLevel="2">
+      <c r="B121" s="36"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="39" t="str">
+        <f>C$120&amp;" read "&amp;AC121</f>
+        <v>gcloud functions logs read helloWorld</v>
+      </c>
       <c r="E121" s="40"/>
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
@@ -9155,11 +9224,16 @@
       <c r="X121" s="40"/>
       <c r="Y121" s="40"/>
       <c r="Z121" s="41"/>
-      <c r="AA121" s="8"/>
-      <c r="AB121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC121" s="2"/>
+      <c r="AA121" s="8" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v>gcloud functions logs read helloWorld</v>
+      </c>
+      <c r="AB121" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC121" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
@@ -9172,36 +9246,43 @@
       <c r="AM121" s="2"/>
       <c r="AN121" s="2"/>
       <c r="AO121" s="2"/>
-      <c r="AP121" s="1"/>
+      <c r="AP121" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="AQ121" s="1"/>
     </row>
-    <row r="122" spans="2:43">
-      <c r="B122" s="42"/>
+    <row r="122" spans="2:43" ht="60" collapsed="1">
+      <c r="B122" s="42" t="s">
+        <v>357</v>
+      </c>
       <c r="C122" s="43"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="40"/>
-      <c r="G122" s="40"/>
-      <c r="H122" s="40"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="40"/>
-      <c r="K122" s="40"/>
-      <c r="L122" s="40"/>
-      <c r="M122" s="40"/>
-      <c r="N122" s="40"/>
-      <c r="O122" s="40"/>
-      <c r="P122" s="40"/>
-      <c r="Q122" s="40"/>
-      <c r="R122" s="40"/>
-      <c r="S122" s="40"/>
-      <c r="T122" s="40"/>
-      <c r="U122" s="40"/>
-      <c r="V122" s="40"/>
-      <c r="W122" s="40"/>
-      <c r="X122" s="40"/>
-      <c r="Y122" s="40"/>
-      <c r="Z122" s="41"/>
-      <c r="AA122" s="8"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
+      <c r="O122" s="43"/>
+      <c r="P122" s="43"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="43"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="43"/>
+      <c r="W122" s="43"/>
+      <c r="X122" s="43"/>
+      <c r="Y122" s="43"/>
+      <c r="Z122" s="44"/>
+      <c r="AA122" s="8" t="str">
+        <f t="shared" ref="AA122:AA123" ca="1" si="45">IFERROR(OFFSET(A122,0,MATCH("",B122:Z122,-1)),"")</f>
+        <v>gcloud docker</v>
+      </c>
       <c r="AB122" s="2" t="s">
         <v>6</v>
       </c>
@@ -9218,47 +9299,64 @@
       <c r="AM122" s="2"/>
       <c r="AN122" s="2"/>
       <c r="AO122" s="2"/>
-      <c r="AP122" s="1"/>
-      <c r="AQ122" s="1"/>
-    </row>
-    <row r="123" spans="2:43">
-      <c r="B123" s="42"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="43"/>
-      <c r="E123" s="43"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
-      <c r="K123" s="43"/>
-      <c r="L123" s="43"/>
-      <c r="M123" s="43"/>
-      <c r="N123" s="43"/>
-      <c r="O123" s="43"/>
-      <c r="P123" s="43"/>
-      <c r="Q123" s="43"/>
-      <c r="R123" s="43"/>
-      <c r="S123" s="43"/>
-      <c r="T123" s="43"/>
-      <c r="U123" s="43"/>
-      <c r="V123" s="43"/>
-      <c r="W123" s="43"/>
-      <c r="X123" s="43"/>
-      <c r="Y123" s="43"/>
-      <c r="Z123" s="44"/>
+      <c r="AP122" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ122" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="123" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B123" s="33"/>
+      <c r="C123" s="39" t="str">
+        <f>B$122&amp;" -- push "&amp;AC123&amp;"/"&amp;AE123&amp;"/"&amp;AG123</f>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="40"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="40"/>
+      <c r="P123" s="40"/>
+      <c r="Q123" s="40"/>
+      <c r="R123" s="40"/>
+      <c r="S123" s="40"/>
+      <c r="T123" s="40"/>
+      <c r="U123" s="40"/>
+      <c r="V123" s="40"/>
+      <c r="W123" s="40"/>
+      <c r="X123" s="40"/>
+      <c r="Y123" s="40"/>
+      <c r="Z123" s="41"/>
       <c r="AA123" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="AB123" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC123" s="2"/>
-      <c r="AD123" s="2"/>
-      <c r="AE123" s="2"/>
-      <c r="AF123" s="2"/>
-      <c r="AG123" s="2"/>
+        <f t="shared" ca="1" si="45"/>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="AB123" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC123" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD123" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE123" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF123" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG123" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="AH123" s="2"/>
       <c r="AI123" s="2"/>
       <c r="AJ123" s="2"/>
@@ -9267,13 +9365,18 @@
       <c r="AM123" s="2"/>
       <c r="AN123" s="2"/>
       <c r="AO123" s="2"/>
-      <c r="AP123" s="1"/>
+      <c r="AP123" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="AQ123" s="1"/>
     </row>
-    <row r="124" spans="2:43">
-      <c r="B124" s="42"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="39"/>
+    <row r="124" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B124" s="33"/>
+      <c r="C124" s="39" t="str">
+        <f>B$122&amp;" -- pull "&amp;AC124&amp;"/"&amp;AE124&amp;"/"&amp;AG124</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="D124" s="40"/>
       <c r="E124" s="40"/>
       <c r="F124" s="40"/>
       <c r="G124" s="40"/>
@@ -9296,15 +9399,28 @@
       <c r="X124" s="40"/>
       <c r="Y124" s="40"/>
       <c r="Z124" s="41"/>
-      <c r="AA124" s="8"/>
-      <c r="AB124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC124" s="2"/>
-      <c r="AD124" s="2"/>
-      <c r="AE124" s="2"/>
-      <c r="AF124" s="2"/>
-      <c r="AG124" s="2"/>
+      <c r="AA124" s="8" t="str">
+        <f t="shared" ref="AA124:AA130" ca="1" si="46">IFERROR(OFFSET(A124,0,MATCH("",B124:Z124,-1)),"")</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="AB124" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC124" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD124" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE124" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF124" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG124" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="AH124" s="2"/>
       <c r="AI124" s="2"/>
       <c r="AJ124" s="2"/>
@@ -9313,36 +9429,41 @@
       <c r="AM124" s="2"/>
       <c r="AN124" s="2"/>
       <c r="AO124" s="2"/>
-      <c r="AP124" s="1"/>
+      <c r="AP124" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="AQ124" s="1"/>
     </row>
     <row r="125" spans="2:43">
       <c r="B125" s="42"/>
       <c r="C125" s="43"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
-      <c r="H125" s="40"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="40"/>
-      <c r="K125" s="40"/>
-      <c r="L125" s="40"/>
-      <c r="M125" s="40"/>
-      <c r="N125" s="40"/>
-      <c r="O125" s="40"/>
-      <c r="P125" s="40"/>
-      <c r="Q125" s="40"/>
-      <c r="R125" s="40"/>
-      <c r="S125" s="40"/>
-      <c r="T125" s="40"/>
-      <c r="U125" s="40"/>
-      <c r="V125" s="40"/>
-      <c r="W125" s="40"/>
-      <c r="X125" s="40"/>
-      <c r="Y125" s="40"/>
-      <c r="Z125" s="41"/>
-      <c r="AA125" s="8"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="43"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="43"/>
+      <c r="O125" s="43"/>
+      <c r="P125" s="43"/>
+      <c r="Q125" s="43"/>
+      <c r="R125" s="43"/>
+      <c r="S125" s="43"/>
+      <c r="T125" s="43"/>
+      <c r="U125" s="43"/>
+      <c r="V125" s="43"/>
+      <c r="W125" s="43"/>
+      <c r="X125" s="43"/>
+      <c r="Y125" s="43"/>
+      <c r="Z125" s="44"/>
+      <c r="AA125" s="8" t="str">
+        <f t="shared" ref="AA125" ca="1" si="47">IFERROR(OFFSET(A125,0,MATCH("",B125:Z125,-1)),"")</f>
+        <v/>
+      </c>
       <c r="AB125" s="2" t="s">
         <v>6</v>
       </c>
@@ -9365,33 +9486,30 @@
     <row r="126" spans="2:43">
       <c r="B126" s="42"/>
       <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="43"/>
-      <c r="M126" s="43"/>
-      <c r="N126" s="43"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="43"/>
-      <c r="Q126" s="43"/>
-      <c r="R126" s="43"/>
-      <c r="S126" s="43"/>
-      <c r="T126" s="43"/>
-      <c r="U126" s="43"/>
-      <c r="V126" s="43"/>
-      <c r="W126" s="43"/>
-      <c r="X126" s="43"/>
-      <c r="Y126" s="43"/>
-      <c r="Z126" s="44"/>
-      <c r="AA126" s="8" t="str">
-        <f t="shared" ref="AA126" ca="1" si="45">IFERROR(OFFSET(A126,0,MATCH("",B126:Z126,-1)),"")</f>
-        <v/>
-      </c>
+      <c r="D126" s="39"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="40"/>
+      <c r="P126" s="40"/>
+      <c r="Q126" s="40"/>
+      <c r="R126" s="40"/>
+      <c r="S126" s="40"/>
+      <c r="T126" s="40"/>
+      <c r="U126" s="40"/>
+      <c r="V126" s="40"/>
+      <c r="W126" s="40"/>
+      <c r="X126" s="40"/>
+      <c r="Y126" s="40"/>
+      <c r="Z126" s="41"/>
+      <c r="AA126" s="8"/>
       <c r="AB126" s="2" t="s">
         <v>6</v>
       </c>
@@ -9411,33 +9529,36 @@
       <c r="AP126" s="1"/>
       <c r="AQ126" s="1"/>
     </row>
-    <row r="127" spans="2:43">
+    <row r="127" spans="2:43" ht="30" customHeight="1">
       <c r="B127" s="42"/>
       <c r="C127" s="43"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="40"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40"/>
-      <c r="H127" s="40"/>
-      <c r="I127" s="40"/>
-      <c r="J127" s="40"/>
-      <c r="K127" s="40"/>
-      <c r="L127" s="40"/>
-      <c r="M127" s="40"/>
-      <c r="N127" s="40"/>
-      <c r="O127" s="40"/>
-      <c r="P127" s="40"/>
-      <c r="Q127" s="40"/>
-      <c r="R127" s="40"/>
-      <c r="S127" s="40"/>
-      <c r="T127" s="40"/>
-      <c r="U127" s="40"/>
-      <c r="V127" s="40"/>
-      <c r="W127" s="40"/>
-      <c r="X127" s="40"/>
-      <c r="Y127" s="40"/>
-      <c r="Z127" s="41"/>
-      <c r="AA127" s="8"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="43"/>
+      <c r="O127" s="43"/>
+      <c r="P127" s="43"/>
+      <c r="Q127" s="43"/>
+      <c r="R127" s="43"/>
+      <c r="S127" s="43"/>
+      <c r="T127" s="43"/>
+      <c r="U127" s="43"/>
+      <c r="V127" s="43"/>
+      <c r="W127" s="43"/>
+      <c r="X127" s="43"/>
+      <c r="Y127" s="43"/>
+      <c r="Z127" s="44"/>
+      <c r="AA127" s="8" t="str">
+        <f t="shared" ref="AA127:AA128" ca="1" si="48">IFERROR(OFFSET(A127,0,MATCH("",B127:Z127,-1)),"")</f>
+        <v/>
+      </c>
       <c r="AB127" s="2" t="s">
         <v>6</v>
       </c>
@@ -9483,7 +9604,10 @@
       <c r="X128" s="40"/>
       <c r="Y128" s="40"/>
       <c r="Z128" s="41"/>
-      <c r="AA128" s="8"/>
+      <c r="AA128" s="8" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
       <c r="AB128" s="2" t="s">
         <v>6</v>
       </c>
@@ -9503,36 +9627,33 @@
       <c r="AP128" s="1"/>
       <c r="AQ128" s="1"/>
     </row>
-    <row r="129" spans="2:43" collapsed="1">
+    <row r="129" spans="2:43" ht="30.75" customHeight="1">
       <c r="B129" s="42"/>
       <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-      <c r="L129" s="43"/>
-      <c r="M129" s="43"/>
-      <c r="N129" s="43"/>
-      <c r="O129" s="43"/>
-      <c r="P129" s="43"/>
-      <c r="Q129" s="43"/>
-      <c r="R129" s="43"/>
-      <c r="S129" s="43"/>
-      <c r="T129" s="43"/>
-      <c r="U129" s="43"/>
-      <c r="V129" s="43"/>
-      <c r="W129" s="43"/>
-      <c r="X129" s="43"/>
-      <c r="Y129" s="43"/>
-      <c r="Z129" s="44"/>
-      <c r="AA129" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
+      <c r="D129" s="39"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="40"/>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
+      <c r="N129" s="40"/>
+      <c r="O129" s="40"/>
+      <c r="P129" s="40"/>
+      <c r="Q129" s="40"/>
+      <c r="R129" s="40"/>
+      <c r="S129" s="40"/>
+      <c r="T129" s="40"/>
+      <c r="U129" s="40"/>
+      <c r="V129" s="40"/>
+      <c r="W129" s="40"/>
+      <c r="X129" s="40"/>
+      <c r="Y129" s="40"/>
+      <c r="Z129" s="41"/>
+      <c r="AA129" s="8"/>
       <c r="AB129" s="2" t="s">
         <v>6</v>
       </c>
@@ -9553,7 +9674,9 @@
       <c r="AQ129" s="1"/>
     </row>
     <row r="130" spans="2:43">
-      <c r="B130" s="42"/>
+      <c r="B130" s="42" t="s">
+        <v>428</v>
+      </c>
       <c r="C130" s="43"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
@@ -9578,8 +9701,10 @@
       <c r="X130" s="43"/>
       <c r="Y130" s="43"/>
       <c r="Z130" s="44"/>
-      <c r="AA130" s="8" t="s">
-        <v>199</v>
+      <c r="AA130" s="8" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v xml:space="preserve">gcloud beta functions logs read helloWorld
+</v>
       </c>
       <c r="AB130" s="2" t="s">
         <v>6</v>
@@ -9600,35 +9725,33 @@
       <c r="AP130" s="1"/>
       <c r="AQ130" s="1"/>
     </row>
-    <row r="131" spans="2:43" outlineLevel="1">
-      <c r="B131" s="15"/>
+    <row r="131" spans="2:43">
+      <c r="B131" s="42"/>
       <c r="C131" s="43"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="43"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="43"/>
-      <c r="I131" s="43"/>
-      <c r="J131" s="43"/>
-      <c r="K131" s="43"/>
-      <c r="L131" s="43"/>
-      <c r="M131" s="43"/>
-      <c r="N131" s="43"/>
-      <c r="O131" s="43"/>
-      <c r="P131" s="43"/>
-      <c r="Q131" s="43"/>
-      <c r="R131" s="43"/>
-      <c r="S131" s="43"/>
-      <c r="T131" s="43"/>
-      <c r="U131" s="43"/>
-      <c r="V131" s="43"/>
-      <c r="W131" s="43"/>
-      <c r="X131" s="43"/>
-      <c r="Y131" s="43"/>
-      <c r="Z131" s="44"/>
-      <c r="AA131" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="D131" s="39"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="40"/>
+      <c r="L131" s="40"/>
+      <c r="M131" s="40"/>
+      <c r="N131" s="40"/>
+      <c r="O131" s="40"/>
+      <c r="P131" s="40"/>
+      <c r="Q131" s="40"/>
+      <c r="R131" s="40"/>
+      <c r="S131" s="40"/>
+      <c r="T131" s="40"/>
+      <c r="U131" s="40"/>
+      <c r="V131" s="40"/>
+      <c r="W131" s="40"/>
+      <c r="X131" s="40"/>
+      <c r="Y131" s="40"/>
+      <c r="Z131" s="41"/>
+      <c r="AA131" s="8"/>
       <c r="AB131" s="2" t="s">
         <v>6</v>
       </c>
@@ -9648,35 +9771,33 @@
       <c r="AP131" s="1"/>
       <c r="AQ131" s="1"/>
     </row>
-    <row r="132" spans="2:43" outlineLevel="1">
-      <c r="B132" s="3"/>
+    <row r="132" spans="2:43">
+      <c r="B132" s="42"/>
       <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="43"/>
-      <c r="L132" s="43"/>
-      <c r="M132" s="43"/>
-      <c r="N132" s="43"/>
-      <c r="O132" s="43"/>
-      <c r="P132" s="43"/>
-      <c r="Q132" s="43"/>
-      <c r="R132" s="43"/>
-      <c r="S132" s="43"/>
-      <c r="T132" s="43"/>
-      <c r="U132" s="43"/>
-      <c r="V132" s="43"/>
-      <c r="W132" s="43"/>
-      <c r="X132" s="43"/>
-      <c r="Y132" s="43"/>
-      <c r="Z132" s="44"/>
-      <c r="AA132" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="D132" s="39"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="40"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="40"/>
+      <c r="O132" s="40"/>
+      <c r="P132" s="40"/>
+      <c r="Q132" s="40"/>
+      <c r="R132" s="40"/>
+      <c r="S132" s="40"/>
+      <c r="T132" s="40"/>
+      <c r="U132" s="40"/>
+      <c r="V132" s="40"/>
+      <c r="W132" s="40"/>
+      <c r="X132" s="40"/>
+      <c r="Y132" s="40"/>
+      <c r="Z132" s="41"/>
+      <c r="AA132" s="8"/>
       <c r="AB132" s="2" t="s">
         <v>6</v>
       </c>
@@ -9696,9 +9817,9 @@
       <c r="AP132" s="1"/>
       <c r="AQ132" s="1"/>
     </row>
-    <row r="133" spans="2:43" outlineLevel="2">
-      <c r="B133" s="3"/>
-      <c r="C133" s="4"/>
+    <row r="133" spans="2:43">
+      <c r="B133" s="42"/>
+      <c r="C133" s="43"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
       <c r="F133" s="43"/>
@@ -9722,8 +9843,9 @@
       <c r="X133" s="43"/>
       <c r="Y133" s="43"/>
       <c r="Z133" s="44"/>
-      <c r="AA133" s="8" t="s">
-        <v>199</v>
+      <c r="AA133" s="8" t="str">
+        <f t="shared" ref="AA133" ca="1" si="49">IFERROR(OFFSET(A133,0,MATCH("",B133:Z133,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB133" s="2" t="s">
         <v>6</v>
@@ -9744,35 +9866,33 @@
       <c r="AP133" s="1"/>
       <c r="AQ133" s="1"/>
     </row>
-    <row r="134" spans="2:43" outlineLevel="2">
-      <c r="B134" s="3"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="43"/>
-      <c r="H134" s="43"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="43"/>
-      <c r="K134" s="43"/>
-      <c r="L134" s="43"/>
-      <c r="M134" s="43"/>
-      <c r="N134" s="43"/>
-      <c r="O134" s="43"/>
-      <c r="P134" s="43"/>
-      <c r="Q134" s="43"/>
-      <c r="R134" s="43"/>
-      <c r="S134" s="43"/>
-      <c r="T134" s="43"/>
-      <c r="U134" s="43"/>
-      <c r="V134" s="43"/>
-      <c r="W134" s="43"/>
-      <c r="X134" s="43"/>
-      <c r="Y134" s="43"/>
-      <c r="Z134" s="44"/>
-      <c r="AA134" s="8" t="s">
-        <v>199</v>
-      </c>
+    <row r="134" spans="2:43">
+      <c r="B134" s="42"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="40"/>
+      <c r="F134" s="40"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="40"/>
+      <c r="L134" s="40"/>
+      <c r="M134" s="40"/>
+      <c r="N134" s="40"/>
+      <c r="O134" s="40"/>
+      <c r="P134" s="40"/>
+      <c r="Q134" s="40"/>
+      <c r="R134" s="40"/>
+      <c r="S134" s="40"/>
+      <c r="T134" s="40"/>
+      <c r="U134" s="40"/>
+      <c r="V134" s="40"/>
+      <c r="W134" s="40"/>
+      <c r="X134" s="40"/>
+      <c r="Y134" s="40"/>
+      <c r="Z134" s="41"/>
+      <c r="AA134" s="8"/>
       <c r="AB134" s="2" t="s">
         <v>6</v>
       </c>
@@ -9792,35 +9912,33 @@
       <c r="AP134" s="1"/>
       <c r="AQ134" s="1"/>
     </row>
-    <row r="135" spans="2:43" outlineLevel="3">
-      <c r="B135" s="3"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="43"/>
-      <c r="I135" s="43"/>
-      <c r="J135" s="43"/>
-      <c r="K135" s="43"/>
-      <c r="L135" s="43"/>
-      <c r="M135" s="43"/>
-      <c r="N135" s="43"/>
-      <c r="O135" s="43"/>
-      <c r="P135" s="43"/>
-      <c r="Q135" s="43"/>
-      <c r="R135" s="43"/>
-      <c r="S135" s="43"/>
-      <c r="T135" s="43"/>
-      <c r="U135" s="43"/>
-      <c r="V135" s="43"/>
-      <c r="W135" s="43"/>
-      <c r="X135" s="43"/>
-      <c r="Y135" s="43"/>
-      <c r="Z135" s="44"/>
-      <c r="AA135" s="8" t="s">
-        <v>199</v>
-      </c>
+    <row r="135" spans="2:43">
+      <c r="B135" s="42"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="40"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="40"/>
+      <c r="O135" s="40"/>
+      <c r="P135" s="40"/>
+      <c r="Q135" s="40"/>
+      <c r="R135" s="40"/>
+      <c r="S135" s="40"/>
+      <c r="T135" s="40"/>
+      <c r="U135" s="40"/>
+      <c r="V135" s="40"/>
+      <c r="W135" s="40"/>
+      <c r="X135" s="40"/>
+      <c r="Y135" s="40"/>
+      <c r="Z135" s="41"/>
+      <c r="AA135" s="8"/>
       <c r="AB135" s="2" t="s">
         <v>6</v>
       </c>
@@ -9840,10 +9958,10 @@
       <c r="AP135" s="1"/>
       <c r="AQ135" s="1"/>
     </row>
-    <row r="136" spans="2:43" outlineLevel="3">
-      <c r="B136" s="3"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+    <row r="136" spans="2:43" collapsed="1">
+      <c r="B136" s="42"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
       <c r="E136" s="43"/>
       <c r="F136" s="43"/>
       <c r="G136" s="43"/>
@@ -9866,8 +9984,9 @@
       <c r="X136" s="43"/>
       <c r="Y136" s="43"/>
       <c r="Z136" s="44"/>
-      <c r="AA136" s="8" t="s">
-        <v>199</v>
+      <c r="AA136" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="AB136" s="2" t="s">
         <v>6</v>
@@ -9888,11 +10007,11 @@
       <c r="AP136" s="1"/>
       <c r="AQ136" s="1"/>
     </row>
-    <row r="137" spans="2:43" outlineLevel="4">
-      <c r="B137" s="3"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
+    <row r="137" spans="2:43">
+      <c r="B137" s="42"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
       <c r="F137" s="43"/>
       <c r="G137" s="43"/>
       <c r="H137" s="43"/>
@@ -9936,11 +10055,11 @@
       <c r="AP137" s="1"/>
       <c r="AQ137" s="1"/>
     </row>
-    <row r="138" spans="2:43" outlineLevel="4">
-      <c r="B138" s="3"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
+    <row r="138" spans="2:43" outlineLevel="1">
+      <c r="B138" s="15"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="43"/>
       <c r="F138" s="43"/>
       <c r="G138" s="43"/>
       <c r="H138" s="43"/>
@@ -9984,12 +10103,12 @@
       <c r="AP138" s="1"/>
       <c r="AQ138" s="1"/>
     </row>
-    <row r="139" spans="2:43" outlineLevel="5">
+    <row r="139" spans="2:43" outlineLevel="1">
       <c r="B139" s="3"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="43"/>
+      <c r="F139" s="43"/>
       <c r="G139" s="43"/>
       <c r="H139" s="43"/>
       <c r="I139" s="43"/>
@@ -10032,12 +10151,12 @@
       <c r="AP139" s="1"/>
       <c r="AQ139" s="1"/>
     </row>
-    <row r="140" spans="2:43" outlineLevel="5">
+    <row r="140" spans="2:43" outlineLevel="2">
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
       <c r="G140" s="43"/>
       <c r="H140" s="43"/>
       <c r="I140" s="43"/>
@@ -10080,13 +10199,13 @@
       <c r="AP140" s="1"/>
       <c r="AQ140" s="1"/>
     </row>
-    <row r="141" spans="2:43" outlineLevel="6">
+    <row r="141" spans="2:43" outlineLevel="2">
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="43"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="43"/>
       <c r="H141" s="43"/>
       <c r="I141" s="43"/>
       <c r="J141" s="43"/>
@@ -10128,13 +10247,13 @@
       <c r="AP141" s="1"/>
       <c r="AQ141" s="1"/>
     </row>
-    <row r="142" spans="2:43" outlineLevel="6">
+    <row r="142" spans="2:43" outlineLevel="3">
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
       <c r="H142" s="43"/>
       <c r="I142" s="43"/>
       <c r="J142" s="43"/>
@@ -10176,10 +10295,10 @@
       <c r="AP142" s="1"/>
       <c r="AQ142" s="1"/>
     </row>
-    <row r="143" spans="2:43">
-      <c r="B143" s="42"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="43"/>
+    <row r="143" spans="2:43" outlineLevel="3">
+      <c r="B143" s="3"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
       <c r="E143" s="43"/>
       <c r="F143" s="43"/>
       <c r="G143" s="43"/>
@@ -10224,12 +10343,355 @@
       <c r="AP143" s="1"/>
       <c r="AQ143" s="1"/>
     </row>
+    <row r="144" spans="2:43" outlineLevel="4">
+      <c r="B144" s="3"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="43"/>
+      <c r="J144" s="43"/>
+      <c r="K144" s="43"/>
+      <c r="L144" s="43"/>
+      <c r="M144" s="43"/>
+      <c r="N144" s="43"/>
+      <c r="O144" s="43"/>
+      <c r="P144" s="43"/>
+      <c r="Q144" s="43"/>
+      <c r="R144" s="43"/>
+      <c r="S144" s="43"/>
+      <c r="T144" s="43"/>
+      <c r="U144" s="43"/>
+      <c r="V144" s="43"/>
+      <c r="W144" s="43"/>
+      <c r="X144" s="43"/>
+      <c r="Y144" s="43"/>
+      <c r="Z144" s="44"/>
+      <c r="AA144" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC144" s="2"/>
+      <c r="AD144" s="2"/>
+      <c r="AE144" s="2"/>
+      <c r="AF144" s="2"/>
+      <c r="AG144" s="2"/>
+      <c r="AH144" s="2"/>
+      <c r="AI144" s="2"/>
+      <c r="AJ144" s="2"/>
+      <c r="AK144" s="2"/>
+      <c r="AL144" s="2"/>
+      <c r="AM144" s="2"/>
+      <c r="AN144" s="2"/>
+      <c r="AO144" s="2"/>
+      <c r="AP144" s="1"/>
+      <c r="AQ144" s="1"/>
+    </row>
+    <row r="145" spans="2:43" outlineLevel="4">
+      <c r="B145" s="3"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="43"/>
+      <c r="K145" s="43"/>
+      <c r="L145" s="43"/>
+      <c r="M145" s="43"/>
+      <c r="N145" s="43"/>
+      <c r="O145" s="43"/>
+      <c r="P145" s="43"/>
+      <c r="Q145" s="43"/>
+      <c r="R145" s="43"/>
+      <c r="S145" s="43"/>
+      <c r="T145" s="43"/>
+      <c r="U145" s="43"/>
+      <c r="V145" s="43"/>
+      <c r="W145" s="43"/>
+      <c r="X145" s="43"/>
+      <c r="Y145" s="43"/>
+      <c r="Z145" s="44"/>
+      <c r="AA145" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC145" s="2"/>
+      <c r="AD145" s="2"/>
+      <c r="AE145" s="2"/>
+      <c r="AF145" s="2"/>
+      <c r="AG145" s="2"/>
+      <c r="AH145" s="2"/>
+      <c r="AI145" s="2"/>
+      <c r="AJ145" s="2"/>
+      <c r="AK145" s="2"/>
+      <c r="AL145" s="2"/>
+      <c r="AM145" s="2"/>
+      <c r="AN145" s="2"/>
+      <c r="AO145" s="2"/>
+      <c r="AP145" s="1"/>
+      <c r="AQ145" s="1"/>
+    </row>
+    <row r="146" spans="2:43" outlineLevel="5">
+      <c r="B146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
+      <c r="I146" s="43"/>
+      <c r="J146" s="43"/>
+      <c r="K146" s="43"/>
+      <c r="L146" s="43"/>
+      <c r="M146" s="43"/>
+      <c r="N146" s="43"/>
+      <c r="O146" s="43"/>
+      <c r="P146" s="43"/>
+      <c r="Q146" s="43"/>
+      <c r="R146" s="43"/>
+      <c r="S146" s="43"/>
+      <c r="T146" s="43"/>
+      <c r="U146" s="43"/>
+      <c r="V146" s="43"/>
+      <c r="W146" s="43"/>
+      <c r="X146" s="43"/>
+      <c r="Y146" s="43"/>
+      <c r="Z146" s="44"/>
+      <c r="AA146" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC146" s="2"/>
+      <c r="AD146" s="2"/>
+      <c r="AE146" s="2"/>
+      <c r="AF146" s="2"/>
+      <c r="AG146" s="2"/>
+      <c r="AH146" s="2"/>
+      <c r="AI146" s="2"/>
+      <c r="AJ146" s="2"/>
+      <c r="AK146" s="2"/>
+      <c r="AL146" s="2"/>
+      <c r="AM146" s="2"/>
+      <c r="AN146" s="2"/>
+      <c r="AO146" s="2"/>
+      <c r="AP146" s="1"/>
+      <c r="AQ146" s="1"/>
+    </row>
+    <row r="147" spans="2:43" outlineLevel="5">
+      <c r="B147" s="3"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="43"/>
+      <c r="K147" s="43"/>
+      <c r="L147" s="43"/>
+      <c r="M147" s="43"/>
+      <c r="N147" s="43"/>
+      <c r="O147" s="43"/>
+      <c r="P147" s="43"/>
+      <c r="Q147" s="43"/>
+      <c r="R147" s="43"/>
+      <c r="S147" s="43"/>
+      <c r="T147" s="43"/>
+      <c r="U147" s="43"/>
+      <c r="V147" s="43"/>
+      <c r="W147" s="43"/>
+      <c r="X147" s="43"/>
+      <c r="Y147" s="43"/>
+      <c r="Z147" s="44"/>
+      <c r="AA147" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC147" s="2"/>
+      <c r="AD147" s="2"/>
+      <c r="AE147" s="2"/>
+      <c r="AF147" s="2"/>
+      <c r="AG147" s="2"/>
+      <c r="AH147" s="2"/>
+      <c r="AI147" s="2"/>
+      <c r="AJ147" s="2"/>
+      <c r="AK147" s="2"/>
+      <c r="AL147" s="2"/>
+      <c r="AM147" s="2"/>
+      <c r="AN147" s="2"/>
+      <c r="AO147" s="2"/>
+      <c r="AP147" s="1"/>
+      <c r="AQ147" s="1"/>
+    </row>
+    <row r="148" spans="2:43" outlineLevel="6">
+      <c r="B148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="43"/>
+      <c r="J148" s="43"/>
+      <c r="K148" s="43"/>
+      <c r="L148" s="43"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="43"/>
+      <c r="O148" s="43"/>
+      <c r="P148" s="43"/>
+      <c r="Q148" s="43"/>
+      <c r="R148" s="43"/>
+      <c r="S148" s="43"/>
+      <c r="T148" s="43"/>
+      <c r="U148" s="43"/>
+      <c r="V148" s="43"/>
+      <c r="W148" s="43"/>
+      <c r="X148" s="43"/>
+      <c r="Y148" s="43"/>
+      <c r="Z148" s="44"/>
+      <c r="AA148" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC148" s="2"/>
+      <c r="AD148" s="2"/>
+      <c r="AE148" s="2"/>
+      <c r="AF148" s="2"/>
+      <c r="AG148" s="2"/>
+      <c r="AH148" s="2"/>
+      <c r="AI148" s="2"/>
+      <c r="AJ148" s="2"/>
+      <c r="AK148" s="2"/>
+      <c r="AL148" s="2"/>
+      <c r="AM148" s="2"/>
+      <c r="AN148" s="2"/>
+      <c r="AO148" s="2"/>
+      <c r="AP148" s="1"/>
+      <c r="AQ148" s="1"/>
+    </row>
+    <row r="149" spans="2:43" outlineLevel="6">
+      <c r="B149" s="3"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="43"/>
+      <c r="K149" s="43"/>
+      <c r="L149" s="43"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="43"/>
+      <c r="O149" s="43"/>
+      <c r="P149" s="43"/>
+      <c r="Q149" s="43"/>
+      <c r="R149" s="43"/>
+      <c r="S149" s="43"/>
+      <c r="T149" s="43"/>
+      <c r="U149" s="43"/>
+      <c r="V149" s="43"/>
+      <c r="W149" s="43"/>
+      <c r="X149" s="43"/>
+      <c r="Y149" s="43"/>
+      <c r="Z149" s="44"/>
+      <c r="AA149" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC149" s="2"/>
+      <c r="AD149" s="2"/>
+      <c r="AE149" s="2"/>
+      <c r="AF149" s="2"/>
+      <c r="AG149" s="2"/>
+      <c r="AH149" s="2"/>
+      <c r="AI149" s="2"/>
+      <c r="AJ149" s="2"/>
+      <c r="AK149" s="2"/>
+      <c r="AL149" s="2"/>
+      <c r="AM149" s="2"/>
+      <c r="AN149" s="2"/>
+      <c r="AO149" s="2"/>
+      <c r="AP149" s="1"/>
+      <c r="AQ149" s="1"/>
+    </row>
+    <row r="150" spans="2:43">
+      <c r="B150" s="42"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
+      <c r="K150" s="43"/>
+      <c r="L150" s="43"/>
+      <c r="M150" s="43"/>
+      <c r="N150" s="43"/>
+      <c r="O150" s="43"/>
+      <c r="P150" s="43"/>
+      <c r="Q150" s="43"/>
+      <c r="R150" s="43"/>
+      <c r="S150" s="43"/>
+      <c r="T150" s="43"/>
+      <c r="U150" s="43"/>
+      <c r="V150" s="43"/>
+      <c r="W150" s="43"/>
+      <c r="X150" s="43"/>
+      <c r="Y150" s="43"/>
+      <c r="Z150" s="44"/>
+      <c r="AA150" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC150" s="2"/>
+      <c r="AD150" s="2"/>
+      <c r="AE150" s="2"/>
+      <c r="AF150" s="2"/>
+      <c r="AG150" s="2"/>
+      <c r="AH150" s="2"/>
+      <c r="AI150" s="2"/>
+      <c r="AJ150" s="2"/>
+      <c r="AK150" s="2"/>
+      <c r="AL150" s="2"/>
+      <c r="AM150" s="2"/>
+      <c r="AN150" s="2"/>
+      <c r="AO150" s="2"/>
+      <c r="AP150" s="1"/>
+      <c r="AQ150" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="151">
+    <mergeCell ref="C120:Z120"/>
+    <mergeCell ref="D121:Z121"/>
     <mergeCell ref="D29:Z29"/>
     <mergeCell ref="B112:Z112"/>
     <mergeCell ref="C113:Z113"/>
     <mergeCell ref="D114:Z114"/>
+    <mergeCell ref="B115:Z115"/>
+    <mergeCell ref="C116:Z116"/>
+    <mergeCell ref="D117:Z117"/>
+    <mergeCell ref="C118:Z118"/>
+    <mergeCell ref="C119:Z119"/>
     <mergeCell ref="D108:Z108"/>
     <mergeCell ref="E105:Z105"/>
     <mergeCell ref="E106:Z106"/>
@@ -10240,12 +10702,12 @@
     <mergeCell ref="D111:Z111"/>
     <mergeCell ref="D107:Z107"/>
     <mergeCell ref="D109:Z109"/>
-    <mergeCell ref="B143:Z143"/>
-    <mergeCell ref="E136:Z136"/>
-    <mergeCell ref="F137:Z137"/>
+    <mergeCell ref="B150:Z150"/>
+    <mergeCell ref="E143:Z143"/>
+    <mergeCell ref="F144:Z144"/>
     <mergeCell ref="C61:Z61"/>
     <mergeCell ref="C65:Z65"/>
-    <mergeCell ref="B128:Z128"/>
+    <mergeCell ref="B135:Z135"/>
     <mergeCell ref="B76:Z76"/>
     <mergeCell ref="C63:Z63"/>
     <mergeCell ref="C64:Z64"/>
@@ -10260,21 +10722,21 @@
     <mergeCell ref="C103:Z103"/>
     <mergeCell ref="D104:Z104"/>
     <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="G139:Z139"/>
-    <mergeCell ref="G140:Z140"/>
-    <mergeCell ref="H141:Z141"/>
-    <mergeCell ref="H142:Z142"/>
-    <mergeCell ref="F138:Z138"/>
+    <mergeCell ref="G146:Z146"/>
+    <mergeCell ref="G147:Z147"/>
+    <mergeCell ref="H148:Z148"/>
+    <mergeCell ref="H149:Z149"/>
+    <mergeCell ref="F145:Z145"/>
     <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="D134:Z134"/>
+    <mergeCell ref="D141:Z141"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="B129:Z129"/>
-    <mergeCell ref="E135:Z135"/>
-    <mergeCell ref="B130:Z130"/>
-    <mergeCell ref="C131:Z131"/>
-    <mergeCell ref="C132:Z132"/>
-    <mergeCell ref="D133:Z133"/>
+    <mergeCell ref="B136:Z136"/>
+    <mergeCell ref="E142:Z142"/>
+    <mergeCell ref="B137:Z137"/>
+    <mergeCell ref="C138:Z138"/>
+    <mergeCell ref="C139:Z139"/>
+    <mergeCell ref="D140:Z140"/>
     <mergeCell ref="D5:Z5"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="D12:Z12"/>
@@ -10323,7 +10785,7 @@
     <mergeCell ref="E24:Z24"/>
     <mergeCell ref="D46:Z46"/>
     <mergeCell ref="B77:Z77"/>
-    <mergeCell ref="B126:Z126"/>
+    <mergeCell ref="B133:Z133"/>
     <mergeCell ref="B70:Z70"/>
     <mergeCell ref="C71:Z71"/>
     <mergeCell ref="D72:Z72"/>
@@ -10347,20 +10809,20 @@
     <mergeCell ref="D82:Z82"/>
     <mergeCell ref="D83:Z83"/>
     <mergeCell ref="D89:Z89"/>
-    <mergeCell ref="B115:Z115"/>
-    <mergeCell ref="C116:Z116"/>
-    <mergeCell ref="C117:Z117"/>
+    <mergeCell ref="B122:Z122"/>
+    <mergeCell ref="C123:Z123"/>
+    <mergeCell ref="C124:Z124"/>
     <mergeCell ref="D86:Z86"/>
+    <mergeCell ref="B134:Z134"/>
+    <mergeCell ref="B130:Z130"/>
+    <mergeCell ref="B131:Z131"/>
+    <mergeCell ref="B132:Z132"/>
+    <mergeCell ref="B125:Z125"/>
+    <mergeCell ref="B126:Z126"/>
+    <mergeCell ref="B91:Z91"/>
     <mergeCell ref="B127:Z127"/>
-    <mergeCell ref="B123:Z123"/>
-    <mergeCell ref="B124:Z124"/>
-    <mergeCell ref="B125:Z125"/>
-    <mergeCell ref="B118:Z118"/>
-    <mergeCell ref="B119:Z119"/>
-    <mergeCell ref="B91:Z91"/>
-    <mergeCell ref="B120:Z120"/>
-    <mergeCell ref="B121:Z121"/>
-    <mergeCell ref="B122:Z122"/>
+    <mergeCell ref="B128:Z128"/>
+    <mergeCell ref="B129:Z129"/>
     <mergeCell ref="C92:Z92"/>
     <mergeCell ref="C93:Z93"/>
     <mergeCell ref="B94:Z94"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="gcloud cheatsheet" sheetId="4" r:id="rId1"/>
     <sheet name="gsutil cheatsheet" sheetId="7" r:id="rId2"/>
     <sheet name="kubectl cheatsheet" sheetId="10" r:id="rId3"/>
     <sheet name="cbt cheatsheet" sheetId="11" r:id="rId4"/>
-    <sheet name="misc cheatsheet" sheetId="8" r:id="rId5"/>
-    <sheet name="template cheatsheet" sheetId="9" r:id="rId6"/>
+    <sheet name="bq cheatsheet" sheetId="12" r:id="rId5"/>
+    <sheet name="misc cheatsheet" sheetId="8" r:id="rId6"/>
+    <sheet name="template cheatsheet" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -298,6 +299,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This could be a drop-down since zones are a fixed set.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AC92" authorId="0">
       <text>
         <r>
@@ -339,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="498">
   <si>
     <t>Details</t>
   </si>
@@ -1173,9 +1187,6 @@
     <t>nginx:1.10.0</t>
   </si>
   <si>
-    <t>pods/monolith.yaml</t>
-  </si>
-  <si>
     <t>Creates a resource out of a .yaml file.</t>
   </si>
   <si>
@@ -1326,12 +1337,6 @@
     <t>Machine type:</t>
   </si>
   <si>
-    <t>n1-standard-2</t>
-  </si>
-  <si>
-    <t>"https://www.googleapis.com/auth/projecthosting,cloud-platform"</t>
-  </si>
-  <si>
     <t>Role binding(?) name:</t>
   </si>
   <si>
@@ -1417,9 +1422,6 @@
   </si>
   <si>
     <t>Creates some sort of proxy of the cluster in localhost(?).</t>
-  </si>
-  <si>
-    <t>app=gceme role=frontend</t>
   </si>
   <si>
     <t>Creates a ClusterRoleBinding for a particular ClusterRole(???!!!)</t>
@@ -1814,6 +1816,59 @@
   </si>
   <si>
     <t>Deletes a table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kube-redis-bq/redis/redis-master.yaml
+</t>
+  </si>
+  <si>
+    <t>deployments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Dataset name:</t>
+  </si>
+  <si>
+    <t>rtda</t>
+  </si>
+  <si>
+    <t>Creates a BigQuery dataset.</t>
+  </si>
+  <si>
+    <t>Creates BigQuery objects.</t>
+  </si>
+  <si>
+    <t>Creates a BigQuery table.</t>
+  </si>
+  <si>
+    <t>Dataset:</t>
+  </si>
+  <si>
+    <t>tweets</t>
+  </si>
+  <si>
+    <t>Schema file:</t>
+  </si>
+  <si>
+    <t>kube-redis-bq/bigquery-setup/schema.json</t>
+  </si>
+  <si>
+    <t>Lists the objects contained in the named collection.</t>
+  </si>
+  <si>
+    <t>Apparently, GCE project id is also the name of your collection.</t>
+  </si>
+  <si>
+    <t>Collection:</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>compute-rw,monitoring,bigquery,logging-write,storage-ro</t>
   </si>
 </sst>
 </file>
@@ -2471,8 +2526,8 @@
   </sheetPr>
   <dimension ref="B1:AQ176"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150:Z150"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139:Z139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2552,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:43" ht="30">
+    <row r="2" spans="2:43" ht="30" collapsed="1">
       <c r="B2" s="49" t="s">
         <v>7</v>
       </c>
@@ -2605,7 +2660,7 @@
       </c>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="3" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B3" s="10"/>
       <c r="C3" s="50" t="str">
         <f>B$2&amp;" instances"</f>
@@ -2915,7 +2970,7 @@
       </c>
       <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="8" spans="2:43" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B8" s="12"/>
       <c r="C8" s="50" t="str">
         <f>B$2&amp;" disks"</f>
@@ -3091,7 +3146,7 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="11" spans="2:43" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B11" s="12"/>
       <c r="C11" s="50" t="str">
         <f>B$2&amp;" ssh"</f>
@@ -3205,7 +3260,7 @@
       </c>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="13" spans="2:43" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B13" s="15"/>
       <c r="C13" s="50" t="str">
         <f>B$2&amp;" instance-templates"</f>
@@ -3333,7 +3388,7 @@
       </c>
       <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="15" spans="2:43" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B15" s="15"/>
       <c r="C15" s="50" t="str">
         <f>B$2&amp;" target-pools"</f>
@@ -3443,7 +3498,7 @@
       </c>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="17" spans="2:43" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B17" s="15"/>
       <c r="C17" s="50" t="str">
         <f>B$2&amp;" instance-groups"</f>
@@ -3985,7 +4040,7 @@
       </c>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="2:43" outlineLevel="1">
+    <row r="26" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B26" s="15"/>
       <c r="C26" s="50" t="str">
         <f>B$2&amp;" firewall-rules"</f>
@@ -4039,7 +4094,7 @@
       </c>
       <c r="AQ26" s="1"/>
     </row>
-    <row r="27" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
+    <row r="27" spans="2:43" ht="50.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="46" t="str">
@@ -4109,7 +4164,7 @@
       </c>
       <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
+    <row r="28" spans="2:43" ht="50.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="46" t="str">
@@ -4165,7 +4220,7 @@
       </c>
       <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="2:43" ht="50.25" customHeight="1" outlineLevel="2">
+    <row r="29" spans="2:43" ht="50.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B29" s="36"/>
       <c r="C29" s="37"/>
       <c r="D29" s="46" t="str">
@@ -4215,11 +4270,11 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
-    <row r="30" spans="2:43" ht="30" outlineLevel="1" collapsed="1">
+    <row r="30" spans="2:43" ht="30" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B30" s="15"/>
       <c r="C30" s="50" t="str">
         <f>B$2&amp;" forwarding-rules"</f>
@@ -4515,7 +4570,7 @@
       </c>
       <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="35" spans="2:43" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B35" s="15"/>
       <c r="C35" s="51" t="str">
         <f>B$2&amp;" health-checks"</f>
@@ -4622,7 +4677,7 @@
       </c>
       <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="2:43" ht="135" outlineLevel="1" collapsed="1">
+    <row r="37" spans="2:43" ht="135" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B37" s="15"/>
       <c r="C37" s="50" t="str">
         <f>B$2&amp;" backend-services"</f>
@@ -4822,7 +4877,7 @@
       </c>
       <c r="AQ39" s="1"/>
     </row>
-    <row r="40" spans="2:43" outlineLevel="1">
+    <row r="40" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B40" s="15"/>
       <c r="C40" s="50" t="str">
         <f>B$2&amp;" url-maps"</f>
@@ -4876,7 +4931,7 @@
       </c>
       <c r="AQ40" s="1"/>
     </row>
-    <row r="41" spans="2:43" ht="30" outlineLevel="2">
+    <row r="41" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="46" t="str">
@@ -4936,7 +4991,7 @@
       </c>
       <c r="AQ41" s="1"/>
     </row>
-    <row r="42" spans="2:43" ht="105" outlineLevel="1" collapsed="1">
+    <row r="42" spans="2:43" ht="105" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B42" s="15"/>
       <c r="C42" s="50" t="str">
         <f>B$2&amp;" target-http-proxies"</f>
@@ -5052,7 +5107,7 @@
       </c>
       <c r="AQ43" s="1"/>
     </row>
-    <row r="44" spans="2:43" outlineLevel="1">
+    <row r="44" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B44" s="15"/>
       <c r="C44" s="50" t="str">
         <f>B$2&amp;" networks"</f>
@@ -5106,7 +5161,7 @@
       </c>
       <c r="AQ44" s="1"/>
     </row>
-    <row r="45" spans="2:43" ht="30" outlineLevel="2">
+    <row r="45" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="46" t="str">
@@ -5166,7 +5221,7 @@
       </c>
       <c r="AQ45" s="1"/>
     </row>
-    <row r="46" spans="2:43" outlineLevel="2">
+    <row r="46" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B46" s="27"/>
       <c r="C46" s="26"/>
       <c r="D46" s="46" t="str">
@@ -5220,7 +5275,7 @@
       </c>
       <c r="AQ46" s="1"/>
     </row>
-    <row r="47" spans="2:43" outlineLevel="2">
+    <row r="47" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
       <c r="D47" s="46" t="str">
@@ -5274,7 +5329,7 @@
       </c>
       <c r="AQ47" s="1"/>
     </row>
-    <row r="48" spans="2:43" ht="39.75" customHeight="1" outlineLevel="3">
+    <row r="48" spans="2:43" ht="39.75" hidden="1" customHeight="1" outlineLevel="3">
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -5342,7 +5397,7 @@
       </c>
       <c r="AQ48" s="1"/>
     </row>
-    <row r="49" spans="2:43" ht="30" outlineLevel="3" collapsed="1">
+    <row r="49" spans="2:43" ht="30" hidden="1" outlineLevel="3" collapsed="1">
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -5396,7 +5451,7 @@
       </c>
       <c r="AQ49" s="1"/>
     </row>
-    <row r="50" spans="2:43" outlineLevel="1">
+    <row r="50" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B50" s="15"/>
       <c r="C50" s="50" t="str">
         <f>B$2&amp;" addresses"</f>
@@ -5450,7 +5505,7 @@
       </c>
       <c r="AQ50" s="1"/>
     </row>
-    <row r="51" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
+    <row r="51" spans="2:43" ht="31.5" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
       <c r="D51" s="46" t="str">
@@ -5510,7 +5565,7 @@
       </c>
       <c r="AQ51" s="1"/>
     </row>
-    <row r="52" spans="2:43" ht="31.5" customHeight="1" outlineLevel="2">
+    <row r="52" spans="2:43" ht="31.5" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
       <c r="D52" s="46" t="str">
@@ -5564,7 +5619,7 @@
       </c>
       <c r="AQ52" s="1"/>
     </row>
-    <row r="53" spans="2:43" outlineLevel="1" collapsed="1">
+    <row r="53" spans="2:43" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B53" s="36"/>
       <c r="C53" s="50" t="str">
         <f>B$2&amp;" zones"</f>
@@ -5614,7 +5669,7 @@
       <c r="AN53" s="2"/>
       <c r="AO53" s="2"/>
       <c r="AP53" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AQ53" s="1"/>
     </row>
@@ -5668,7 +5723,7 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
       <c r="AP54" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AQ54" s="1"/>
     </row>
@@ -5724,11 +5779,11 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
       <c r="AP55" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AQ55" s="1"/>
     </row>
-    <row r="56" spans="2:43" outlineLevel="1">
+    <row r="56" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B56" s="10"/>
       <c r="C56" s="49"/>
       <c r="D56" s="50"/>
@@ -7048,7 +7103,7 @@
       </c>
       <c r="AQ79" s="1"/>
     </row>
-    <row r="80" spans="2:43" collapsed="1">
+    <row r="80" spans="2:43">
       <c r="B80" s="49" t="s">
         <v>250</v>
       </c>
@@ -7099,7 +7154,7 @@
       <c r="AP80" s="1"/>
       <c r="AQ80" s="1"/>
     </row>
-    <row r="81" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="81" spans="2:43" outlineLevel="1">
       <c r="B81" s="27"/>
       <c r="C81" s="50" t="str">
         <f>B$80&amp;" clusters"</f>
@@ -7149,16 +7204,16 @@
       <c r="AN81" s="2"/>
       <c r="AO81" s="2"/>
       <c r="AP81" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AQ81" s="1"/>
     </row>
-    <row r="82" spans="2:43" ht="51" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="82" spans="2:43" ht="51" customHeight="1" outlineLevel="2">
       <c r="B82" s="27"/>
       <c r="C82" s="26"/>
       <c r="D82" s="46" t="str">
-        <f>C$81&amp;" create "&amp;AC82&amp;IF(ISBLANK(AE82),""," --num-nodes "&amp;AE82)&amp;IF(ISBLANK(AG82),""," --machine-type "&amp;AG82)&amp;IF(ISBLANK(AI82),""," --scopes "&amp;AI82)</f>
-        <v>gcloud container clusters create jenkins-cd --num-nodes 2 --machine-type n1-standard-2 --scopes "https://www.googleapis.com/auth/projecthosting,cloud-platform"</v>
+        <f>C$81&amp;" create "&amp;AC82&amp;IF(ISBLANK(AE82),""," --num-nodes "&amp;AE82)&amp;IF(ISBLANK(AG82),""," --machine-type "&amp;AG82)&amp;IF(ISBLANK(AI82),""," --scopes "&amp;AI82)&amp;IF(ISBLANK(AK82),""," --zone "&amp;AK82)</f>
+        <v>gcloud container clusters create test --scopes compute-rw,monitoring,bigquery,logging-write,storage-ro --zone us-central1-a</v>
       </c>
       <c r="E82" s="47"/>
       <c r="F82" s="47"/>
@@ -7184,34 +7239,34 @@
       <c r="Z82" s="48"/>
       <c r="AA82" s="8" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>gcloud container clusters create jenkins-cd --num-nodes 2 --machine-type n1-standard-2 --scopes "https://www.googleapis.com/auth/projecthosting,cloud-platform"</v>
+        <v>gcloud container clusters create test --scopes compute-rw,monitoring,bigquery,logging-write,storage-ro --zone us-central1-a</v>
       </c>
       <c r="AB82" s="21" t="s">
         <v>248</v>
       </c>
       <c r="AC82" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="AD82" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="AD82" s="2" t="s">
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="AE82" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF82" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG82" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="AH82" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="AI82" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="AJ82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK82" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="AL82" s="2"/>
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
@@ -7220,10 +7275,10 @@
         <v>249</v>
       </c>
       <c r="AQ82" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" spans="2:43" ht="30" hidden="1" outlineLevel="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="2:43" ht="30" outlineLevel="2">
       <c r="B83" s="27"/>
       <c r="C83" s="26"/>
       <c r="D83" s="46" t="str">
@@ -7260,7 +7315,7 @@
         <v>252</v>
       </c>
       <c r="AC83" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
@@ -7279,7 +7334,7 @@
       </c>
       <c r="AQ83" s="1"/>
     </row>
-    <row r="84" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="84" spans="2:43" outlineLevel="2">
       <c r="B84" s="33"/>
       <c r="C84" s="34"/>
       <c r="D84" s="46" t="str">
@@ -7329,11 +7384,11 @@
       <c r="AN84" s="2"/>
       <c r="AO84" s="2"/>
       <c r="AP84" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AQ84" s="1"/>
     </row>
-    <row r="85" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+    <row r="85" spans="2:43" ht="30" outlineLevel="1" collapsed="1">
       <c r="B85" s="27"/>
       <c r="C85" s="50" t="str">
         <f>B$80&amp;" images"</f>
@@ -7383,7 +7438,7 @@
       <c r="AN85" s="2"/>
       <c r="AO85" s="2"/>
       <c r="AP85" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AQ85" s="1"/>
     </row>
@@ -7437,13 +7492,13 @@
       <c r="AN86" s="2"/>
       <c r="AO86" s="2"/>
       <c r="AP86" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AQ86" s="1"/>
     </row>
     <row r="87" spans="2:43" collapsed="1">
       <c r="B87" s="49" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C87" s="50"/>
       <c r="D87" s="50"/>
@@ -7490,7 +7545,7 @@
       <c r="AN87" s="2"/>
       <c r="AO87" s="2"/>
       <c r="AP87" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AQ87" s="1"/>
     </row>
@@ -7544,7 +7599,7 @@
       <c r="AN88" s="2"/>
       <c r="AO88" s="2"/>
       <c r="AP88" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AQ88" s="1"/>
     </row>
@@ -7582,10 +7637,10 @@
         <v>gcloud source repos create other</v>
       </c>
       <c r="AB89" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AC89" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
@@ -7600,7 +7655,7 @@
       <c r="AN89" s="2"/>
       <c r="AO89" s="2"/>
       <c r="AP89" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AQ89" s="1"/>
     </row>
@@ -7638,10 +7693,10 @@
         <v>gcloud source repos clone DEFAULT</v>
       </c>
       <c r="AB90" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AC90" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
@@ -7656,15 +7711,15 @@
       <c r="AN90" s="2"/>
       <c r="AO90" s="2"/>
       <c r="AP90" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AQ90" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="91" spans="2:43">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="2:43" collapsed="1">
       <c r="B91" s="49" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C91" s="50"/>
       <c r="D91" s="46"/>
@@ -7711,11 +7766,11 @@
       <c r="AN91" s="2"/>
       <c r="AO91" s="2"/>
       <c r="AP91" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AQ91" s="1"/>
     </row>
-    <row r="92" spans="2:43" outlineLevel="1">
+    <row r="92" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B92" s="33"/>
       <c r="C92" s="49" t="str">
         <f>B$91&amp;" create"&amp;IF(ISBLANK(AC92),""," --region="&amp;AC92)</f>
@@ -7752,7 +7807,7 @@
         <v>82</v>
       </c>
       <c r="AC92" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
@@ -7767,11 +7822,11 @@
       <c r="AN92" s="2"/>
       <c r="AO92" s="2"/>
       <c r="AP92" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AQ92" s="1"/>
     </row>
-    <row r="93" spans="2:43" ht="90" outlineLevel="1">
+    <row r="93" spans="2:43" ht="90" hidden="1" outlineLevel="1">
       <c r="B93" s="33"/>
       <c r="C93" s="49" t="str">
         <f>B$91&amp;" deploy"&amp;IF(ISBLANK(AC93),""," "&amp;AC93)&amp;IF(ISBLANK(AE93),""," --version "&amp;AE93)</f>
@@ -7805,11 +7860,11 @@
         <v>gcloud app deploy --version 1</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AC93" s="5"/>
       <c r="AD93" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AE93" s="5">
         <v>1</v>
@@ -7825,15 +7880,15 @@
       <c r="AN93" s="2"/>
       <c r="AO93" s="2"/>
       <c r="AP93" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AQ93" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="2:43" collapsed="1">
       <c r="B94" s="49" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="46"/>
@@ -7880,7 +7935,7 @@
       <c r="AN94" s="2"/>
       <c r="AO94" s="2"/>
       <c r="AP94" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AQ94" s="1"/>
     </row>
@@ -7918,10 +7973,10 @@
         <v>gcloud datastore create-indexes index.yaml</v>
       </c>
       <c r="AB95" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
@@ -7936,13 +7991,13 @@
       <c r="AN95" s="2"/>
       <c r="AO95" s="2"/>
       <c r="AP95" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AQ95" s="1"/>
     </row>
     <row r="96" spans="2:43" collapsed="1">
       <c r="B96" s="49" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C96" s="50"/>
       <c r="D96" s="50"/>
@@ -7989,7 +8044,7 @@
       <c r="AN96" s="2"/>
       <c r="AO96" s="2"/>
       <c r="AP96" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AQ96" s="1"/>
     </row>
@@ -8043,7 +8098,7 @@
       <c r="AN97" s="2"/>
       <c r="AO97" s="2"/>
       <c r="AP97" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AQ97" s="1"/>
     </row>
@@ -8097,7 +8152,7 @@
       <c r="AN98" s="2"/>
       <c r="AO98" s="2"/>
       <c r="AP98" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AQ98" s="1"/>
     </row>
@@ -8138,13 +8193,13 @@
         <v>213</v>
       </c>
       <c r="AC99" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AD99" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AE99" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AF99" s="2"/>
       <c r="AG99" s="2"/>
@@ -8157,13 +8212,13 @@
       <c r="AN99" s="2"/>
       <c r="AO99" s="2"/>
       <c r="AP99" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AQ99" s="1"/>
     </row>
     <row r="100" spans="2:43" collapsed="1">
       <c r="B100" s="49" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C100" s="50"/>
       <c r="D100" s="50"/>
@@ -8210,7 +8265,7 @@
       <c r="AN100" s="2"/>
       <c r="AO100" s="2"/>
       <c r="AP100" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AQ100" s="1"/>
     </row>
@@ -8248,16 +8303,16 @@
         <v>gcloud sql connect myinstance --user=root</v>
       </c>
       <c r="AB101" s="21" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AC101" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AE101" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AF101" s="2"/>
       <c r="AG101" s="2"/>
@@ -8270,13 +8325,13 @@
       <c r="AN101" s="2"/>
       <c r="AO101" s="2"/>
       <c r="AP101" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AQ101" s="1"/>
     </row>
     <row r="102" spans="2:43" ht="30" collapsed="1">
       <c r="B102" s="49" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C102" s="50"/>
       <c r="D102" s="50"/>
@@ -8323,10 +8378,10 @@
       <c r="AN102" s="2"/>
       <c r="AO102" s="2"/>
       <c r="AP102" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AQ102" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="2:43" hidden="1" outlineLevel="1">
@@ -8379,7 +8434,7 @@
       <c r="AN103" s="2"/>
       <c r="AO103" s="2"/>
       <c r="AP103" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AQ103" s="1"/>
     </row>
@@ -8433,7 +8488,7 @@
       <c r="AN104" s="2"/>
       <c r="AO104" s="2"/>
       <c r="AP104" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AQ104" s="1"/>
     </row>
@@ -8474,13 +8529,13 @@
         <v>260</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AD105" s="21" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AE105" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AF105" s="2"/>
       <c r="AG105" s="2"/>
@@ -8493,7 +8548,7 @@
       <c r="AN105" s="2"/>
       <c r="AO105" s="2"/>
       <c r="AP105" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AQ105" s="1"/>
     </row>
@@ -8580,10 +8635,10 @@
         <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
       </c>
       <c r="AB107" s="21" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AC107" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
@@ -8598,7 +8653,7 @@
       <c r="AN107" s="2"/>
       <c r="AO107" s="2"/>
       <c r="AP107" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AQ107" s="1"/>
     </row>
@@ -8652,7 +8707,7 @@
       <c r="AN108" s="2"/>
       <c r="AO108" s="2"/>
       <c r="AP108" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AQ108" s="1"/>
     </row>
@@ -8690,10 +8745,10 @@
         <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
       </c>
       <c r="AB109" s="21" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AC109" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
@@ -8708,7 +8763,7 @@
       <c r="AN109" s="2"/>
       <c r="AO109" s="2"/>
       <c r="AP109" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AQ109" s="1"/>
     </row>
@@ -8762,7 +8817,7 @@
       <c r="AN110" s="2"/>
       <c r="AO110" s="2"/>
       <c r="AP110" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AQ110" s="1"/>
     </row>
@@ -8816,13 +8871,13 @@
       <c r="AN111" s="2"/>
       <c r="AO111" s="2"/>
       <c r="AP111" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AQ111" s="1"/>
     </row>
-    <row r="112" spans="2:43">
+    <row r="112" spans="2:43" collapsed="1">
       <c r="B112" s="49" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C112" s="50"/>
       <c r="D112" s="50"/>
@@ -8869,11 +8924,11 @@
       <c r="AN112" s="2"/>
       <c r="AO112" s="2"/>
       <c r="AP112" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AQ112" s="1"/>
     </row>
-    <row r="113" spans="2:43" outlineLevel="1">
+    <row r="113" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B113" s="36"/>
       <c r="C113" s="50" t="str">
         <f>B$112&amp;" services"</f>
@@ -8923,11 +8978,11 @@
       <c r="AN113" s="2"/>
       <c r="AO113" s="2"/>
       <c r="AP113" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AQ113" s="1"/>
     </row>
-    <row r="114" spans="2:43" outlineLevel="2">
+    <row r="114" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B114" s="36"/>
       <c r="C114" s="37"/>
       <c r="D114" s="50" t="str">
@@ -8961,10 +9016,10 @@
         <v>gcloud endpoints services deploy openapi.yaml</v>
       </c>
       <c r="AB114" s="21" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AC114" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
@@ -8979,13 +9034,13 @@
       <c r="AN114" s="2"/>
       <c r="AO114" s="2"/>
       <c r="AP114" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AQ114" s="1"/>
     </row>
-    <row r="115" spans="2:43">
+    <row r="115" spans="2:43" collapsed="1">
       <c r="B115" s="49" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C115" s="50"/>
       <c r="D115" s="50"/>
@@ -9032,11 +9087,11 @@
       <c r="AN115" s="2"/>
       <c r="AO115" s="2"/>
       <c r="AP115" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AQ115" s="1"/>
     </row>
-    <row r="116" spans="2:43" outlineLevel="1">
+    <row r="116" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B116" s="36"/>
       <c r="C116" s="46" t="str">
         <f>B$115&amp;" deploy"</f>
@@ -9086,11 +9141,11 @@
       <c r="AN116" s="2"/>
       <c r="AO116" s="2"/>
       <c r="AP116" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AQ116" s="1"/>
     </row>
-    <row r="117" spans="2:43" ht="30" outlineLevel="2">
+    <row r="117" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B117" s="36"/>
       <c r="C117" s="37"/>
       <c r="D117" s="46" t="str">
@@ -9124,22 +9179,22 @@
         <v>gcloud functions deploy helloWorld --stage-bucket ioso_bucket2 --trigger-topic hello_world</v>
       </c>
       <c r="AB117" s="21" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AC117" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD117" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE117" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF117" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AD117" s="21" t="s">
+      <c r="AG117" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="AE117" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="AF117" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="AG117" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="AH117" s="2"/>
       <c r="AI117" s="2"/>
@@ -9150,11 +9205,11 @@
       <c r="AN117" s="2"/>
       <c r="AO117" s="2"/>
       <c r="AP117" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AQ117" s="1"/>
     </row>
-    <row r="118" spans="2:43" outlineLevel="1">
+    <row r="118" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B118" s="36"/>
       <c r="C118" s="46" t="str">
         <f>B$115&amp;" describe "&amp;AC118</f>
@@ -9188,10 +9243,10 @@
         <v>gcloud functions describe helloWorld</v>
       </c>
       <c r="AB118" s="21" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AC118" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
@@ -9206,11 +9261,11 @@
       <c r="AN118" s="2"/>
       <c r="AO118" s="2"/>
       <c r="AP118" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AQ118" s="1"/>
     </row>
-    <row r="119" spans="2:43" ht="30" outlineLevel="1">
+    <row r="119" spans="2:43" ht="30" hidden="1" outlineLevel="1">
       <c r="B119" s="36"/>
       <c r="C119" s="46" t="str">
         <f>B$115&amp;" call "&amp;AC119&amp;IF(ISBLANK(AE119),""," --data "&amp;"'"&amp;AE119&amp;"'")</f>
@@ -9244,16 +9299,16 @@
         <v>gcloud functions call helloWorld --data '{"message":"Hello World!"}'</v>
       </c>
       <c r="AB119" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC119" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD119" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE119" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="AC119" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="AD119" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="AE119" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="AF119" s="2"/>
       <c r="AG119" s="2"/>
@@ -9266,11 +9321,11 @@
       <c r="AN119" s="2"/>
       <c r="AO119" s="2"/>
       <c r="AP119" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AQ119" s="1"/>
     </row>
-    <row r="120" spans="2:43" outlineLevel="1">
+    <row r="120" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B120" s="36"/>
       <c r="C120" s="46" t="str">
         <f>B$115&amp;" logs"</f>
@@ -9320,11 +9375,11 @@
       <c r="AN120" s="2"/>
       <c r="AO120" s="2"/>
       <c r="AP120" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AQ120" s="1"/>
     </row>
-    <row r="121" spans="2:43" outlineLevel="2">
+    <row r="121" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B121" s="36"/>
       <c r="C121" s="37"/>
       <c r="D121" s="46" t="str">
@@ -9358,10 +9413,10 @@
         <v>gcloud functions logs read helloWorld</v>
       </c>
       <c r="AB121" s="21" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AC121" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
@@ -9376,13 +9431,13 @@
       <c r="AN121" s="2"/>
       <c r="AO121" s="2"/>
       <c r="AP121" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AQ121" s="1"/>
     </row>
-    <row r="122" spans="2:43">
+    <row r="122" spans="2:43" collapsed="1">
       <c r="B122" s="49" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C122" s="50"/>
       <c r="D122" s="50"/>
@@ -9429,11 +9484,11 @@
       <c r="AN122" s="2"/>
       <c r="AO122" s="2"/>
       <c r="AP122" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AQ122" s="1"/>
     </row>
-    <row r="123" spans="2:43" outlineLevel="1">
+    <row r="123" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B123" s="36"/>
       <c r="C123" s="50" t="str">
         <f>B$122&amp;" topics"</f>
@@ -9483,11 +9538,11 @@
       <c r="AN123" s="2"/>
       <c r="AO123" s="2"/>
       <c r="AP123" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AQ123" s="1"/>
     </row>
-    <row r="124" spans="2:43" outlineLevel="2">
+    <row r="124" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B124" s="36"/>
       <c r="C124" s="37"/>
       <c r="D124" s="50" t="str">
@@ -9521,10 +9576,10 @@
         <v>gcloud pubsub topics create myTopic</v>
       </c>
       <c r="AB124" s="21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AC124" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
@@ -9539,11 +9594,11 @@
       <c r="AN124" s="2"/>
       <c r="AO124" s="2"/>
       <c r="AP124" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AQ124" s="1"/>
     </row>
-    <row r="125" spans="2:43" outlineLevel="2">
+    <row r="125" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B125" s="36"/>
       <c r="C125" s="37"/>
       <c r="D125" s="50" t="str">
@@ -9593,11 +9648,11 @@
       <c r="AN125" s="2"/>
       <c r="AO125" s="2"/>
       <c r="AP125" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AQ125" s="1"/>
     </row>
-    <row r="126" spans="2:43" outlineLevel="2">
+    <row r="126" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B126" s="36"/>
       <c r="C126" s="37"/>
       <c r="D126" s="50" t="str">
@@ -9631,10 +9686,10 @@
         <v>gcloud pubsub topics list-subscriptions myTopic</v>
       </c>
       <c r="AB126" s="21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AC126" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
@@ -9649,11 +9704,11 @@
       <c r="AN126" s="2"/>
       <c r="AO126" s="2"/>
       <c r="AP126" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AQ126" s="1"/>
     </row>
-    <row r="127" spans="2:43" outlineLevel="2">
+    <row r="127" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B127" s="39"/>
       <c r="C127" s="40"/>
       <c r="D127" s="46" t="str">
@@ -9687,16 +9742,16 @@
         <v>gcloud pubsub topics publish myTopic --message "Hello"</v>
       </c>
       <c r="AB127" s="21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AC127" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AD127" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AE127" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AF127" s="2"/>
       <c r="AG127" s="2"/>
@@ -9709,11 +9764,11 @@
       <c r="AN127" s="2"/>
       <c r="AO127" s="2"/>
       <c r="AP127" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AQ127" s="1"/>
     </row>
-    <row r="128" spans="2:43" outlineLevel="2">
+    <row r="128" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B128" s="36"/>
       <c r="C128" s="37"/>
       <c r="D128" s="50" t="str">
@@ -9747,10 +9802,10 @@
         <v>gcloud pubsub topics delete myTopic</v>
       </c>
       <c r="AB128" s="21" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AC128" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
@@ -9765,11 +9820,11 @@
       <c r="AN128" s="2"/>
       <c r="AO128" s="2"/>
       <c r="AP128" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AQ128" s="1"/>
     </row>
-    <row r="129" spans="2:43" outlineLevel="1">
+    <row r="129" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B129" s="36"/>
       <c r="C129" s="50" t="str">
         <f>B$122&amp;" subscriptions"</f>
@@ -9819,11 +9874,11 @@
       <c r="AN129" s="2"/>
       <c r="AO129" s="2"/>
       <c r="AP129" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AQ129" s="1"/>
     </row>
-    <row r="130" spans="2:43" ht="30" outlineLevel="2">
+    <row r="130" spans="2:43" ht="30" hidden="1" outlineLevel="2">
       <c r="B130" s="36"/>
       <c r="C130" s="37"/>
       <c r="D130" s="46" t="str">
@@ -9857,16 +9912,16 @@
         <v>gcloud pubsub subscriptions create --topic myTopic mySubscription</v>
       </c>
       <c r="AB130" s="21" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="AC130" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AD130" s="21" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AE130" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AF130" s="2"/>
       <c r="AG130" s="2"/>
@@ -9879,11 +9934,11 @@
       <c r="AN130" s="2"/>
       <c r="AO130" s="2"/>
       <c r="AP130" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AQ130" s="1"/>
     </row>
-    <row r="131" spans="2:43" ht="30.75" customHeight="1" outlineLevel="2">
+    <row r="131" spans="2:43" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B131" s="39"/>
       <c r="C131" s="40"/>
       <c r="D131" s="46" t="str">
@@ -9917,19 +9972,19 @@
         <v>gcloud pubsub subscriptions pull mySubscription --auto-ack --limit=3</v>
       </c>
       <c r="AB131" s="21" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AC131" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AE131" s="5" t="b">
         <v>1</v>
       </c>
       <c r="AF131" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AG131" s="5">
         <v>3</v>
@@ -9943,11 +9998,11 @@
       <c r="AN131" s="2"/>
       <c r="AO131" s="2"/>
       <c r="AP131" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AQ131" s="1"/>
     </row>
-    <row r="132" spans="2:43" outlineLevel="2">
+    <row r="132" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B132" s="36"/>
       <c r="C132" s="37"/>
       <c r="D132" s="46" t="str">
@@ -9981,10 +10036,10 @@
         <v>gcloud pubsub subscriptions delete Test1</v>
       </c>
       <c r="AB132" s="21" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AC132" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
@@ -9999,13 +10054,13 @@
       <c r="AN132" s="2"/>
       <c r="AO132" s="2"/>
       <c r="AP132" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AQ132" s="1"/>
     </row>
     <row r="133" spans="2:43" ht="60" collapsed="1">
       <c r="B133" s="49" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C133" s="50"/>
       <c r="D133" s="50"/>
@@ -10052,10 +10107,10 @@
       <c r="AN133" s="2"/>
       <c r="AO133" s="2"/>
       <c r="AP133" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AQ133" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="2:43" ht="30" hidden="1" outlineLevel="1">
@@ -10092,22 +10147,22 @@
         <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
       </c>
       <c r="AB134" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AC134" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AD134" s="22" t="s">
         <v>147</v>
       </c>
       <c r="AE134" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AF134" s="2" t="s">
         <v>261</v>
       </c>
       <c r="AG134" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AH134" s="2"/>
       <c r="AI134" s="2"/>
@@ -10118,7 +10173,7 @@
       <c r="AN134" s="2"/>
       <c r="AO134" s="2"/>
       <c r="AP134" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AQ134" s="1"/>
     </row>
@@ -10156,22 +10211,22 @@
         <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
       </c>
       <c r="AB135" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AC135" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AD135" s="22" t="s">
         <v>147</v>
       </c>
       <c r="AE135" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AF135" s="2" t="s">
         <v>261</v>
       </c>
       <c r="AG135" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AH135" s="2"/>
       <c r="AI135" s="2"/>
@@ -10182,7 +10237,7 @@
       <c r="AN135" s="2"/>
       <c r="AO135" s="2"/>
       <c r="AP135" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AQ135" s="1"/>
     </row>
@@ -10426,7 +10481,9 @@
       <c r="AQ140" s="1"/>
     </row>
     <row r="141" spans="2:43" ht="27" customHeight="1">
-      <c r="B141" s="46"/>
+      <c r="B141" s="46" t="s">
+        <v>483</v>
+      </c>
       <c r="C141" s="47"/>
       <c r="D141" s="47"/>
       <c r="E141" s="47"/>
@@ -10453,7 +10510,8 @@
       <c r="Z141" s="48"/>
       <c r="AA141" s="8" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB141" s="2" t="s">
         <v>6</v>
@@ -10475,7 +10533,9 @@
       <c r="AQ141" s="1"/>
     </row>
     <row r="142" spans="2:43" ht="30.75" customHeight="1">
-      <c r="B142" s="46"/>
+      <c r="B142" s="46" t="s">
+        <v>483</v>
+      </c>
       <c r="C142" s="47"/>
       <c r="D142" s="47"/>
       <c r="E142" s="47"/>
@@ -10502,7 +10562,8 @@
       <c r="Z142" s="48"/>
       <c r="AA142" s="8" t="str">
         <f t="shared" ca="1" si="51"/>
-        <v/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB142" s="2" t="s">
         <v>6</v>
@@ -11490,7 +11551,7 @@
       <c r="AP162" s="1"/>
       <c r="AQ162" s="1"/>
     </row>
-    <row r="163" spans="2:43">
+    <row r="163" spans="2:43" collapsed="1">
       <c r="B163" s="49"/>
       <c r="C163" s="50"/>
       <c r="D163" s="50"/>
@@ -11538,7 +11599,7 @@
       <c r="AP163" s="1"/>
       <c r="AQ163" s="1"/>
     </row>
-    <row r="164" spans="2:43" outlineLevel="1">
+    <row r="164" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B164" s="15"/>
       <c r="C164" s="50"/>
       <c r="D164" s="50"/>
@@ -11586,7 +11647,7 @@
       <c r="AP164" s="1"/>
       <c r="AQ164" s="1"/>
     </row>
-    <row r="165" spans="2:43" outlineLevel="1">
+    <row r="165" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B165" s="3"/>
       <c r="C165" s="50"/>
       <c r="D165" s="50"/>
@@ -11634,7 +11695,7 @@
       <c r="AP165" s="1"/>
       <c r="AQ165" s="1"/>
     </row>
-    <row r="166" spans="2:43" outlineLevel="2">
+    <row r="166" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B166" s="3"/>
       <c r="C166" s="4"/>
       <c r="D166" s="50"/>
@@ -11682,7 +11743,7 @@
       <c r="AP166" s="1"/>
       <c r="AQ166" s="1"/>
     </row>
-    <row r="167" spans="2:43" outlineLevel="2">
+    <row r="167" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B167" s="3"/>
       <c r="C167" s="4"/>
       <c r="D167" s="50"/>
@@ -11730,7 +11791,7 @@
       <c r="AP167" s="1"/>
       <c r="AQ167" s="1"/>
     </row>
-    <row r="168" spans="2:43" outlineLevel="3">
+    <row r="168" spans="2:43" hidden="1" outlineLevel="3">
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -11778,7 +11839,7 @@
       <c r="AP168" s="1"/>
       <c r="AQ168" s="1"/>
     </row>
-    <row r="169" spans="2:43" outlineLevel="3">
+    <row r="169" spans="2:43" hidden="1" outlineLevel="3">
       <c r="B169" s="3"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -11826,7 +11887,7 @@
       <c r="AP169" s="1"/>
       <c r="AQ169" s="1"/>
     </row>
-    <row r="170" spans="2:43" outlineLevel="4">
+    <row r="170" spans="2:43" hidden="1" outlineLevel="4">
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -11874,7 +11935,7 @@
       <c r="AP170" s="1"/>
       <c r="AQ170" s="1"/>
     </row>
-    <row r="171" spans="2:43" outlineLevel="4">
+    <row r="171" spans="2:43" hidden="1" outlineLevel="4">
       <c r="B171" s="3"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -11922,7 +11983,7 @@
       <c r="AP171" s="1"/>
       <c r="AQ171" s="1"/>
     </row>
-    <row r="172" spans="2:43" outlineLevel="5">
+    <row r="172" spans="2:43" hidden="1" outlineLevel="5">
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -11970,7 +12031,7 @@
       <c r="AP172" s="1"/>
       <c r="AQ172" s="1"/>
     </row>
-    <row r="173" spans="2:43" outlineLevel="5">
+    <row r="173" spans="2:43" hidden="1" outlineLevel="5">
       <c r="B173" s="3"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -12018,7 +12079,7 @@
       <c r="AP173" s="1"/>
       <c r="AQ173" s="1"/>
     </row>
-    <row r="174" spans="2:43" outlineLevel="6">
+    <row r="174" spans="2:43" hidden="1" outlineLevel="6">
       <c r="B174" s="3"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -12066,7 +12127,7 @@
       <c r="AP174" s="1"/>
       <c r="AQ174" s="1"/>
     </row>
-    <row r="175" spans="2:43" outlineLevel="6">
+    <row r="175" spans="2:43" hidden="1" outlineLevel="6">
       <c r="B175" s="3"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -12789,7 +12850,7 @@
         <v>57</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="2:41" ht="30" outlineLevel="1">
@@ -12833,24 +12894,24 @@
         <v>59</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AH9" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AK9" s="5"/>
       <c r="AL9" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AM9" s="5"/>
       <c r="AN9" s="1" t="s">
@@ -15091,8 +15152,8 @@
   </sheetPr>
   <dimension ref="B1:AM78"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:Z46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -15288,10 +15349,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="2:39" ht="30">
+    <row r="4" spans="2:39">
       <c r="B4" s="49" t="str">
         <f>"kubectl get "&amp;AC4&amp;IF(ISBLANK(AE4),""," "&amp;AE4)&amp;IF(ISBLANK(AG4),""," -l "&amp;SUBSTITUTE(AG4," "," -l "))&amp;IF(ISBLANK(AI4),""," --show-labels")&amp;IF(ISBLANK(AK4),""," -n "&amp;AK4)</f>
-        <v>kubectl get pods -l app=gceme -l role=frontend -n production</v>
+        <v>kubectl get deployments</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -15319,34 +15380,30 @@
       <c r="Z4" s="51"/>
       <c r="AA4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kubectl get pods -l app=gceme -l role=frontend -n production</v>
+        <v>kubectl get deployments</v>
       </c>
       <c r="AB4" s="21" t="s">
         <v>266</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>269</v>
+        <v>482</v>
       </c>
       <c r="AD4" s="22" t="s">
         <v>265</v>
       </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>353</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="AG4" s="5"/>
       <c r="AH4" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>337</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="AK4" s="5"/>
       <c r="AL4" s="1" t="s">
         <v>268</v>
       </c>
@@ -15398,15 +15455,16 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="2:39" ht="30" outlineLevel="1">
+    <row r="6" spans="2:39" ht="60" outlineLevel="1">
       <c r="B6" s="27"/>
       <c r="C6" s="50" t="str">
         <f>B$5&amp;" -f "&amp;AC6</f>
-        <v>kubectl create -f pods/monolith.yaml</v>
+        <v xml:space="preserve">kubectl create -f kube-redis-bq/redis/redis-master.yaml
+</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
@@ -15433,13 +15491,14 @@
       <c r="Z6" s="51"/>
       <c r="AA6" s="8" t="str">
         <f t="shared" ref="AA6:AA18" ca="1" si="1">IFERROR(OFFSET(A6,0,MATCH("",B6:Z6,-1)),"")</f>
-        <v>kubectl create -f pods/monolith.yaml</v>
+        <v xml:space="preserve">kubectl create -f kube-redis-bq/redis/redis-master.yaml
+</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>271</v>
+        <v>481</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -15450,11 +15509,11 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="2:39" outlineLevel="1">
+    <row r="7" spans="2:39" outlineLevel="1" collapsed="1">
       <c r="B7" s="31"/>
       <c r="C7" s="50" t="str">
         <f>B$5&amp;" secret"</f>
@@ -15502,7 +15561,7 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="2:39" outlineLevel="2">
+    <row r="8" spans="2:39" hidden="1" outlineLevel="2">
       <c r="B8" s="31"/>
       <c r="C8" s="30"/>
       <c r="D8" s="50" t="str">
@@ -15536,16 +15595,16 @@
         <v>kubectl create secret generic tls-certs --from-file tls/</v>
       </c>
       <c r="AB8" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AD8" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AD8" s="21" t="s">
-        <v>289</v>
-      </c>
       <c r="AE8" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -15554,11 +15613,11 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="2:39" outlineLevel="2">
+    <row r="9" spans="2:39" hidden="1" outlineLevel="2">
       <c r="B9" s="31"/>
       <c r="C9" s="30"/>
       <c r="D9" s="50"/>
@@ -15603,7 +15662,7 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="2:39" outlineLevel="1">
+    <row r="10" spans="2:39" outlineLevel="1" collapsed="1">
       <c r="B10" s="31"/>
       <c r="C10" s="50" t="str">
         <f>B$5&amp;" configmap"</f>
@@ -15651,7 +15710,7 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="2:39" ht="30" customHeight="1" outlineLevel="2">
+    <row r="11" spans="2:39" ht="30" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B11" s="31"/>
       <c r="C11" s="30"/>
       <c r="D11" s="46" t="str">
@@ -15685,16 +15744,16 @@
         <v>kubectl create configmap nginx-proxy-conf --from-file nginx/proxy.conf</v>
       </c>
       <c r="AB11" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AD11" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE11" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="AD11" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -15703,11 +15762,11 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM11" s="1"/>
     </row>
-    <row r="12" spans="2:39" outlineLevel="1">
+    <row r="12" spans="2:39" outlineLevel="1" collapsed="1">
       <c r="B12" s="33"/>
       <c r="C12" s="50" t="str">
         <f>B$5&amp;" clusterrolebinding"</f>
@@ -15753,11 +15812,11 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="2:39" ht="41.25" customHeight="1" outlineLevel="2">
+    <row r="13" spans="2:39" ht="41.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
       <c r="D13" s="46" t="str">
@@ -15791,35 +15850,35 @@
         <v>kubectl create clusterrolebinding tiller-admin-binding --clusterrole=cluster-admin --serviceaccount=kube-system:tiller</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AD13" s="22" t="s">
         <v>217</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="2:39" outlineLevel="1">
+    <row r="14" spans="2:39" outlineLevel="1" collapsed="1">
       <c r="B14" s="33"/>
       <c r="C14" s="50" t="str">
         <f>B$5&amp;" serviceaccount"</f>
@@ -15865,11 +15924,11 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="2:39" ht="41.25" customHeight="1" outlineLevel="2">
+    <row r="15" spans="2:39" ht="41.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
       <c r="D15" s="46" t="str">
@@ -15903,16 +15962,16 @@
         <v>kubectl create serviceaccount tiller --namespace kube-system</v>
       </c>
       <c r="AB15" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC15" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE15" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -15925,7 +15984,7 @@
       </c>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="2:39" outlineLevel="1">
+    <row r="16" spans="2:39" outlineLevel="1" collapsed="1">
       <c r="B16" s="33"/>
       <c r="C16" s="50" t="str">
         <f>B$5&amp;" ns"</f>
@@ -15971,11 +16030,11 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="2:39" ht="41.25" customHeight="1" outlineLevel="2">
+    <row r="17" spans="2:39" ht="41.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
       <c r="D17" s="46" t="str">
@@ -16009,10 +16068,10 @@
         <v>kubectl create ns production</v>
       </c>
       <c r="AB17" s="21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -16109,13 +16168,13 @@
         <v>266</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD19" s="22" t="s">
         <v>265</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -16124,7 +16183,7 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM19" s="1"/>
     </row>
@@ -16162,19 +16221,19 @@
         <v>kubectl port-forward monolith 10080:80</v>
       </c>
       <c r="AB20" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="AC20" s="5" t="s">
+      <c r="AD20" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="AE20" s="5">
         <v>10080</v>
       </c>
       <c r="AF20" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG20" s="5">
         <v>80</v>
@@ -16184,7 +16243,7 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM20" s="1"/>
     </row>
@@ -16222,13 +16281,13 @@
         <v>kubectl logs -f monolith</v>
       </c>
       <c r="AB21" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC21" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="AC21" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="AD21" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AE21" s="5" t="b">
         <v>1</v>
@@ -16240,11 +16299,11 @@
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM21" s="1"/>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:39" collapsed="1">
       <c r="B22" s="49" t="str">
         <f>"kubectl exec"</f>
         <v>kubectl exec</v>
@@ -16290,11 +16349,11 @@
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM22" s="1"/>
     </row>
-    <row r="23" spans="2:39" outlineLevel="1">
+    <row r="23" spans="2:39" hidden="1" outlineLevel="1">
       <c r="B23" s="27"/>
       <c r="C23" s="50" t="str">
         <f>B$22&amp;" "&amp;AC23&amp;IF(ISBLANK(AE23),""," -c "&amp;AE23)&amp;" -- "&amp;AG23</f>
@@ -16328,31 +16387,31 @@
         <v>kubectl exec monolith -- ls</v>
       </c>
       <c r="AB23" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="AC23" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="AD23" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="21" t="s">
         <v>21</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM23" s="1"/>
     </row>
-    <row r="24" spans="2:39" outlineLevel="1">
+    <row r="24" spans="2:39" hidden="1" outlineLevel="1">
       <c r="B24" s="27"/>
       <c r="C24" s="50" t="str">
         <f>B$22&amp;" "&amp;AC24&amp;" --stdin --tty "&amp;IF(ISBLANK(AE24),""," -c "&amp;AE24)&amp;"/bin/sh"</f>
@@ -16386,13 +16445,13 @@
         <v>kubectl exec monolith --stdin --tty /bin/sh</v>
       </c>
       <c r="AB24" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC24" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="AC24" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="AD24" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE24" s="5"/>
       <c r="AF24" s="2"/>
@@ -16402,7 +16461,7 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM24" s="1"/>
     </row>
@@ -16449,20 +16508,20 @@
         <v>265</v>
       </c>
       <c r="AE25" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF25" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG25" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="AF25" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM25" s="1"/>
     </row>
@@ -16500,13 +16559,13 @@
         <v>kubectl explain deployment.metadata.name</v>
       </c>
       <c r="AB26" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="2"/>
@@ -16516,11 +16575,11 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM26" s="1"/>
     </row>
-    <row r="27" spans="2:39" ht="30">
+    <row r="27" spans="2:39" ht="30" collapsed="1">
       <c r="B27" s="49" t="str">
         <f>"kubectl scale"</f>
         <v>kubectl scale</v>
@@ -16566,11 +16625,11 @@
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="2:39" ht="30" outlineLevel="1">
+    <row r="28" spans="2:39" ht="30" hidden="1" outlineLevel="1">
       <c r="B28" s="31"/>
       <c r="C28" s="46" t="str">
         <f>B$27&amp;" "&amp;AC28&amp;" "&amp;AE28&amp;" --replicas="&amp;AG28&amp;IF(ISBLANK(AI28),""," -n "&amp;AI28)</f>
@@ -16613,28 +16672,28 @@
         <v>265</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AF28" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG28" s="5">
         <v>4</v>
       </c>
       <c r="AH28" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AM28" s="1"/>
     </row>
-    <row r="29" spans="2:39" outlineLevel="1">
+    <row r="29" spans="2:39" hidden="1" outlineLevel="1">
       <c r="B29" s="31"/>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -16722,7 +16781,7 @@
         <v>265</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -16731,11 +16790,11 @@
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM30" s="1"/>
     </row>
-    <row r="31" spans="2:39">
+    <row r="31" spans="2:39" collapsed="1">
       <c r="B31" s="49" t="str">
         <f>"kubectl rollout"</f>
         <v>kubectl rollout</v>
@@ -16781,11 +16840,11 @@
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="2:39" outlineLevel="1">
+    <row r="32" spans="2:39" hidden="1" outlineLevel="1">
       <c r="B32" s="31"/>
       <c r="C32" s="50" t="str">
         <f>B$31&amp;" history "&amp;AC32&amp;"/"&amp;AE32</f>
@@ -16828,7 +16887,7 @@
         <v>265</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
@@ -16837,11 +16896,11 @@
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AM32" s="1"/>
     </row>
-    <row r="33" spans="2:39" outlineLevel="1">
+    <row r="33" spans="2:39" hidden="1" outlineLevel="1">
       <c r="B33" s="31"/>
       <c r="C33" s="50" t="str">
         <f>B$31&amp;" pause "&amp;AC33&amp;"/"&amp;AE33</f>
@@ -16884,7 +16943,7 @@
         <v>265</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
@@ -16893,13 +16952,13 @@
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM33" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AM33" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="2:39" outlineLevel="1">
+    </row>
+    <row r="34" spans="2:39" hidden="1" outlineLevel="1">
       <c r="B34" s="31"/>
       <c r="C34" s="50" t="str">
         <f>B$31&amp;" resume "&amp;AC34&amp;"/"&amp;AE34</f>
@@ -16942,7 +17001,7 @@
         <v>265</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
@@ -16951,13 +17010,13 @@
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM34" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="2:39" outlineLevel="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="2:39" hidden="1" outlineLevel="1">
       <c r="B35" s="31"/>
       <c r="C35" s="50" t="str">
         <f>B$31&amp;" status "&amp;AC35&amp;"/"&amp;AE35</f>
@@ -17000,7 +17059,7 @@
         <v>265</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -17009,11 +17068,11 @@
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AM35" s="1"/>
     </row>
-    <row r="36" spans="2:39" outlineLevel="1">
+    <row r="36" spans="2:39" hidden="1" outlineLevel="1">
       <c r="B36" s="31"/>
       <c r="C36" s="50" t="str">
         <f>B$31&amp;" undo "&amp;AC36&amp;"/"&amp;AE36</f>
@@ -17056,7 +17115,7 @@
         <v>265</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -17065,7 +17124,7 @@
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM36" s="1"/>
     </row>
@@ -17151,16 +17210,16 @@
         <v>kubectl apply -f k8s/production -n production</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
@@ -17169,13 +17228,13 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AM38" s="1"/>
     </row>
     <row r="39" spans="2:39">
       <c r="B39" s="49" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
@@ -17216,7 +17275,7 @@
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AM39" s="1"/>
     </row>
@@ -17263,7 +17322,7 @@
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
     </row>
-    <row r="41" spans="2:39" ht="39" customHeight="1">
+    <row r="41" spans="2:39">
       <c r="B41" s="49"/>
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
@@ -17306,7 +17365,7 @@
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
     </row>
-    <row r="42" spans="2:39">
+    <row r="42" spans="2:39" ht="27.75" customHeight="1">
       <c r="B42" s="49"/>
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
@@ -17392,7 +17451,7 @@
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
     </row>
-    <row r="44" spans="2:39">
+    <row r="44" spans="2:39" ht="27" customHeight="1">
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
       <c r="D44" s="50"/>
@@ -18903,7 +18962,7 @@
   </sheetPr>
   <dimension ref="B1:AM45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:Z8"/>
     </sheetView>
   </sheetViews>
@@ -19010,10 +19069,10 @@
         <v>cbt createtable my-table</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -19024,7 +19083,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AM2" s="1"/>
     </row>
@@ -19062,10 +19121,10 @@
         <v>cbt ls my-table</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -19076,7 +19135,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AM3" s="1"/>
     </row>
@@ -19114,16 +19173,16 @@
         <v>cbt createfamily my-table cf1</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AD4" s="21" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -19132,7 +19191,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AM4" s="1"/>
     </row>
@@ -19170,37 +19229,37 @@
         <v>cbt set my-table r1 cf1:c1=test-value</v>
       </c>
       <c r="AB5" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE5" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="AC5" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AF5" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH5" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="AI5" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AJ5" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AK5" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="AG5" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AL5" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ5" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="AM5" s="1"/>
     </row>
@@ -19238,10 +19297,10 @@
         <v>cbt read my-table</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -19252,7 +19311,7 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AM6" s="1"/>
     </row>
@@ -19290,10 +19349,10 @@
         <v>cbt deletetable my-table</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -19304,7 +19363,7 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AM7" s="1"/>
     </row>
@@ -20940,6 +20999,1405 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:AK33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="26" width="2.85546875" customWidth="1"/>
+    <col min="27" max="27" width="21.28515625" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="22.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="15.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="7.140625" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="15.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="40.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="15.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="26.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="46" customWidth="1"/>
+    <col min="38" max="38" width="68.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:37">
+      <c r="B1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:37">
+      <c r="B2" s="49" t="str">
+        <f>"bq mk"</f>
+        <v>bq mk</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="8" t="str">
+        <f t="shared" ref="AA2:AA30" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <v>bq mk</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="2:37" outlineLevel="1">
+      <c r="B3" s="39"/>
+      <c r="C3" s="50" t="str">
+        <f>B$2&amp;" "&amp;AC3</f>
+        <v>bq mk rtda</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="8" t="str">
+        <f t="shared" ref="AA3:AA4" ca="1" si="1">IFERROR(OFFSET(A3,0,MATCH("",B3:Z3,-1)),"")</f>
+        <v>bq mk rtda</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="2:37" ht="30" customHeight="1" outlineLevel="1">
+      <c r="B4" s="39"/>
+      <c r="C4" s="46" t="str">
+        <f>B$2&amp;" -t "&amp;AC4&amp;"."&amp;AE4&amp;" "&amp;AG4</f>
+        <v>bq mk -t rtda.tweets kube-redis-bq/bigquery-setup/schema.json</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>bq mk -t rtda.tweets kube-redis-bq/bigquery-setup/schema.json</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF4" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AK4" s="1"/>
+    </row>
+    <row r="5" spans="2:37" ht="30">
+      <c r="B5" s="49" t="str">
+        <f>"bq ls"&amp;IF(ISBLANK(AC5),""," "&amp;AC5&amp;":")</f>
+        <v>bq ls $DEVSHELL_PROJECT_ID:</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>bq ls $DEVSHELL_PROJECT_ID:</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="2:37">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+    </row>
+    <row r="8" spans="2:37">
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="2:37" collapsed="1">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+    </row>
+    <row r="10" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="2:37" hidden="1" outlineLevel="1">
+      <c r="B11" s="39"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+    </row>
+    <row r="12" spans="2:37" hidden="1" outlineLevel="2">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+    </row>
+    <row r="13" spans="2:37" hidden="1" outlineLevel="2">
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="2:37" hidden="1" outlineLevel="3">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+    </row>
+    <row r="15" spans="2:37" hidden="1" outlineLevel="3">
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="2:37" hidden="1" outlineLevel="4">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+    </row>
+    <row r="17" spans="2:37" hidden="1" outlineLevel="4">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+    </row>
+    <row r="18" spans="2:37" hidden="1" outlineLevel="5">
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+    </row>
+    <row r="19" spans="2:37" hidden="1" outlineLevel="5">
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+    </row>
+    <row r="20" spans="2:37" hidden="1" outlineLevel="6">
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+    </row>
+    <row r="21" spans="2:37" hidden="1" outlineLevel="6">
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+    </row>
+    <row r="22" spans="2:37" hidden="1" outlineLevel="7">
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+    </row>
+    <row r="23" spans="2:37" hidden="1" outlineLevel="7">
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+    </row>
+    <row r="24" spans="2:37" hidden="1" outlineLevel="6">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+    </row>
+    <row r="25" spans="2:37" hidden="1" outlineLevel="5">
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+    </row>
+    <row r="26" spans="2:37" hidden="1" outlineLevel="4">
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+    </row>
+    <row r="27" spans="2:37" hidden="1" outlineLevel="3">
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+    </row>
+    <row r="28" spans="2:37" hidden="1" outlineLevel="3">
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+    </row>
+    <row r="29" spans="2:37" hidden="1" outlineLevel="2">
+      <c r="B29" s="39"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+    </row>
+    <row r="30" spans="2:37">
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+    </row>
+    <row r="33" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="G25:Z25"/>
+    <mergeCell ref="F26:Z26"/>
+    <mergeCell ref="E27:Z27"/>
+    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="C29:Z29"/>
+    <mergeCell ref="B30:Z30"/>
+    <mergeCell ref="G19:Z19"/>
+    <mergeCell ref="H20:Z20"/>
+    <mergeCell ref="H21:Z21"/>
+    <mergeCell ref="I22:Z22"/>
+    <mergeCell ref="I23:Z23"/>
+    <mergeCell ref="H24:Z24"/>
+    <mergeCell ref="D13:Z13"/>
+    <mergeCell ref="E14:Z14"/>
+    <mergeCell ref="E15:Z15"/>
+    <mergeCell ref="F16:Z16"/>
+    <mergeCell ref="F17:Z17"/>
+    <mergeCell ref="G18:Z18"/>
+    <mergeCell ref="B7:Z7"/>
+    <mergeCell ref="B8:Z8"/>
+    <mergeCell ref="B9:Z9"/>
+    <mergeCell ref="C10:Z10"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="D12:Z12"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="C4:Z4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <dimension ref="B1:AK49"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -21440,7 +22898,7 @@
     </row>
     <row r="10" spans="2:37">
       <c r="B10" s="49" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
@@ -21483,7 +22941,7 @@
     </row>
     <row r="11" spans="2:37">
       <c r="B11" s="49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
@@ -21526,7 +22984,7 @@
     </row>
     <row r="12" spans="2:37">
       <c r="B12" s="49" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
@@ -21569,7 +23027,7 @@
     </row>
     <row r="13" spans="2:37" ht="32.25" customHeight="1">
       <c r="B13" s="49" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
@@ -23061,7 +24519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="gcloud cheatsheet" sheetId="4" r:id="rId1"/>
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="544">
   <si>
     <t>Details</t>
   </si>
@@ -776,9 +776,6 @@
     <t>Allow protocol(:port)</t>
   </si>
   <si>
-    <t>tcp:80</t>
-  </si>
-  <si>
     <t>Subnet:</t>
   </si>
   <si>
@@ -1832,9 +1829,6 @@
     <t>Collection:</t>
   </si>
   <si>
-    <t>allow-http</t>
-  </si>
-  <si>
     <t>us-central1-b</t>
   </si>
   <si>
@@ -1868,9 +1862,6 @@
     <t>Print the client and server versions for the current context (?).</t>
   </si>
   <si>
-    <t>./index.yaml ./app.yaml</t>
-  </si>
-  <si>
     <t>mydeploy.yaml</t>
   </si>
   <si>
@@ -2010,6 +2001,24 @@
   </si>
   <si>
     <t>$FILE_NAME</t>
+  </si>
+  <si>
+    <t>nginx-firewall</t>
+  </si>
+  <si>
+    <t>tcp:80,tcp:443</t>
+  </si>
+  <si>
+    <t>nginxstack-tcp-80,nginxstack-tcp-443</t>
+  </si>
+  <si>
+    <t>app.yaml</t>
+  </si>
+  <si>
+    <t>Silent?</t>
+  </si>
+  <si>
+    <t>Opens the current app in a web browser.</t>
   </si>
 </sst>
 </file>
@@ -2679,10 +2688,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AU178"/>
+  <dimension ref="B1:AU179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA60" sqref="AA60"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AA94" sqref="AA94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2922,47 +2931,47 @@
         <v>9</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG4" s="5"/>
       <c r="AH4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="AM4" s="5"/>
       <c r="AN4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AO4" s="5"/>
       <c r="AP4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AS4" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>8</v>
@@ -3161,7 +3170,7 @@
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AU7" s="1"/>
     </row>
@@ -3570,35 +3579,35 @@
         <v>85</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AE14" s="5"/>
       <c r="AF14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG14" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="AH14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
@@ -3783,7 +3792,7 @@
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AU17" s="1"/>
     </row>
@@ -3841,7 +3850,7 @@
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AU18" s="1"/>
     </row>
@@ -3885,7 +3894,7 @@
         <v>93</v>
       </c>
       <c r="AD19" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE19" s="5" t="s">
         <v>86</v>
@@ -3917,7 +3926,7 @@
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AU19" s="1"/>
     </row>
@@ -4039,7 +4048,7 @@
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
       <c r="AT21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AU21" s="1"/>
     </row>
@@ -4080,13 +4089,13 @@
         <v>92</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AD22" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -4103,7 +4112,7 @@
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
       <c r="AT22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AU22" s="1"/>
     </row>
@@ -4144,19 +4153,19 @@
         <v>92</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AD23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE23" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="AE23" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="AF23" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
@@ -4171,7 +4180,7 @@
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AU23" s="1"/>
     </row>
@@ -4212,7 +4221,7 @@
         <v>92</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AD24" s="22" t="s">
         <v>98</v>
@@ -4224,7 +4233,7 @@
         <v>11</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
@@ -4239,7 +4248,7 @@
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AU24" s="1"/>
     </row>
@@ -4283,7 +4292,7 @@
         <v>105</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AE25" s="5" t="s">
         <v>102</v>
@@ -4303,11 +4312,11 @@
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
       <c r="AT25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AU25" s="1"/>
     </row>
-    <row r="26" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="26" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B26" s="15"/>
       <c r="C26" s="56" t="str">
         <f>B$2&amp;" firewall-rules"</f>
@@ -4370,7 +4379,7 @@
       <c r="C27" s="16"/>
       <c r="D27" s="52" t="str">
         <f>C$26&amp;" create "&amp;AC27&amp;" --allow "&amp;AE27&amp;IF(ISBLANK(AG27),""," --network "&amp;AG27)&amp;IF(ISBLANK(AI27),""," --source-ranges "&amp;AI27)&amp;IF(ISBLANK(AK27),""," --target-tags "&amp;AK27)</f>
-        <v>gcloud compute firewall-rules create allow-http --allow tcp:80</v>
+        <v>gcloud compute firewall-rules create nginx-firewall --allow tcp:80,tcp:443 --target-tags nginxstack-tcp-80,nginxstack-tcp-443</v>
       </c>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
@@ -4396,32 +4405,34 @@
       <c r="Z27" s="54"/>
       <c r="AA27" s="8" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>gcloud compute firewall-rules create allow-http --allow tcp:80</v>
+        <v>gcloud compute firewall-rules create nginx-firewall --allow tcp:80,tcp:443 --target-tags nginxstack-tcp-80,nginxstack-tcp-443</v>
       </c>
       <c r="AB27" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="AD27" s="2" t="s">
         <v>129</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>130</v>
+        <v>539</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG27" s="5"/>
       <c r="AH27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AK27" s="5"/>
+      <c r="AK27" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
@@ -4472,7 +4483,7 @@
         <v>114</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
@@ -4491,7 +4502,7 @@
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AU28" s="1"/>
     </row>
@@ -4549,7 +4560,7 @@
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
       <c r="AT29" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AU29" s="1"/>
     </row>
@@ -4706,7 +4717,7 @@
         <v>114</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>89</v>
@@ -4774,7 +4785,7 @@
         <v>114</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD33" s="2" t="s">
         <v>107</v>
@@ -4793,10 +4804,10 @@
       </c>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK33" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="AK33" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
@@ -4865,7 +4876,7 @@
       <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
       <c r="AT34" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AU34" s="1"/>
     </row>
@@ -4954,13 +4965,13 @@
         <v>gcloud compute health-checks create http http-basic-check</v>
       </c>
       <c r="AB36" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AD36" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AE36" s="5" t="s">
         <v>126</v>
@@ -5038,10 +5049,10 @@
       <c r="AR37" s="2"/>
       <c r="AS37" s="2"/>
       <c r="AT37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU37" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AU37" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="2:47" ht="45" hidden="1" outlineLevel="2">
@@ -5081,16 +5092,16 @@
         <v>101</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD38" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AE38" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="AF38" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="2" t="s">
@@ -5098,10 +5109,10 @@
       </c>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
@@ -5112,7 +5123,7 @@
       <c r="AR38" s="2"/>
       <c r="AS38" s="2"/>
       <c r="AT38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AU38" s="1"/>
     </row>
@@ -5153,34 +5164,34 @@
         <v>101</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD39" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI39" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="AI39" s="5" t="s">
+      <c r="AJ39" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AJ39" s="2" t="s">
+      <c r="AK39" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="AK39" s="24" t="s">
+      <c r="AL39" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="AL39" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="AM39" s="5">
         <v>1</v>
@@ -5192,7 +5203,7 @@
       <c r="AR39" s="2"/>
       <c r="AS39" s="2"/>
       <c r="AT39" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AU39" s="1"/>
     </row>
@@ -5294,10 +5305,10 @@
         <v>105</v>
       </c>
       <c r="AD41" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
@@ -5314,7 +5325,7 @@
       <c r="AR41" s="2"/>
       <c r="AS41" s="2"/>
       <c r="AT41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AU41" s="1"/>
     </row>
@@ -5372,10 +5383,10 @@
       <c r="AR42" s="2"/>
       <c r="AS42" s="2"/>
       <c r="AT42" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:47" ht="30" hidden="1" outlineLevel="2">
@@ -5438,7 +5449,7 @@
       <c r="AR43" s="2"/>
       <c r="AS43" s="2"/>
       <c r="AT43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AU43" s="1"/>
     </row>
@@ -5537,13 +5548,13 @@
         <v>117</v>
       </c>
       <c r="AC45" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AD45" s="2" t="s">
         <v>118</v>
       </c>
       <c r="AE45" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
@@ -5618,7 +5629,7 @@
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
       <c r="AT46" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AU46" s="1"/>
     </row>
@@ -5717,25 +5728,25 @@
         <v>123</v>
       </c>
       <c r="AC48" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE48" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF48" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AG48" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AH48" s="2" t="s">
         <v>124</v>
       </c>
       <c r="AI48" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
@@ -5786,7 +5797,7 @@
         <v>gcloud compute networks subnets list</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="2"/>
@@ -5806,7 +5817,7 @@
       <c r="AR49" s="2"/>
       <c r="AS49" s="2"/>
       <c r="AT49" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU49" s="1"/>
     </row>
@@ -5847,10 +5858,10 @@
         <v>123</v>
       </c>
       <c r="AC50" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AD50" s="21" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AE50" s="5">
         <v>23</v>
@@ -5859,7 +5870,7 @@
         <v>79</v>
       </c>
       <c r="AG50" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
@@ -5874,7 +5885,7 @@
       <c r="AR50" s="2"/>
       <c r="AS50" s="2"/>
       <c r="AT50" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AU50" s="1"/>
     </row>
@@ -5932,7 +5943,7 @@
       <c r="AR51" s="2"/>
       <c r="AS51" s="2"/>
       <c r="AT51" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AU51" s="1"/>
     </row>
@@ -5970,16 +5981,16 @@
         <v>gcloud compute addresses create lb-ipv6-cr --ip-version=IPV6 --global</v>
       </c>
       <c r="AB52" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC52" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD52" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="AC52" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD52" s="22" t="s">
-        <v>171</v>
-      </c>
       <c r="AE52" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
@@ -5996,7 +6007,7 @@
       <c r="AR52" s="2"/>
       <c r="AS52" s="2"/>
       <c r="AT52" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AU52" s="1"/>
     </row>
@@ -6054,7 +6065,7 @@
       <c r="AR53" s="2"/>
       <c r="AS53" s="2"/>
       <c r="AT53" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AU53" s="1"/>
     </row>
@@ -6112,7 +6123,7 @@
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
       <c r="AT54" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AU54" s="1"/>
     </row>
@@ -6170,7 +6181,7 @@
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
       <c r="AT55" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AU55" s="1"/>
     </row>
@@ -6211,7 +6222,7 @@
         <v>11</v>
       </c>
       <c r="AC56" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
@@ -6230,7 +6241,7 @@
       <c r="AR56" s="2"/>
       <c r="AS56" s="2"/>
       <c r="AT56" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AU56" s="1"/>
     </row>
@@ -6261,7 +6272,7 @@
       <c r="Y57" s="56"/>
       <c r="Z57" s="57"/>
       <c r="AA57" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB57" s="2" t="s">
         <v>6</v>
@@ -6286,7 +6297,7 @@
       <c r="AT57" s="1"/>
       <c r="AU57" s="1"/>
     </row>
-    <row r="58" spans="2:47">
+    <row r="58" spans="2:47" collapsed="1">
       <c r="B58" s="55" t="s">
         <v>13</v>
       </c>
@@ -6343,7 +6354,7 @@
       </c>
       <c r="AU58" s="1"/>
     </row>
-    <row r="59" spans="2:47" outlineLevel="1">
+    <row r="59" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B59" s="10"/>
       <c r="C59" s="56" t="str">
         <f>B$58&amp;" list"</f>
@@ -6401,7 +6412,7 @@
       </c>
       <c r="AU59" s="1"/>
     </row>
-    <row r="60" spans="2:47" ht="30" customHeight="1" outlineLevel="1">
+    <row r="60" spans="2:47" ht="30" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B60" s="10"/>
       <c r="C60" s="52" t="str">
         <f>B$58&amp;" activate-service-account --key-file "&amp;AC60</f>
@@ -6435,10 +6446,10 @@
         <v>gcloud auth activate-service-account --key-file credentials.json</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AC60" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -6457,11 +6468,11 @@
       <c r="AR60" s="2"/>
       <c r="AS60" s="2"/>
       <c r="AT60" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AU60" s="1"/>
     </row>
-    <row r="61" spans="2:47">
+    <row r="61" spans="2:47" collapsed="1">
       <c r="B61" s="55" t="s">
         <v>109</v>
       </c>
@@ -6518,7 +6529,7 @@
       </c>
       <c r="AU61" s="1"/>
     </row>
-    <row r="62" spans="2:47" outlineLevel="1">
+    <row r="62" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B62" s="10"/>
       <c r="C62" s="56" t="str">
         <f>B$61&amp;" list project"</f>
@@ -6576,7 +6587,7 @@
       </c>
       <c r="AU62" s="1"/>
     </row>
-    <row r="63" spans="2:47" outlineLevel="1">
+    <row r="63" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B63" s="10"/>
       <c r="C63" s="56" t="str">
         <f>B$61&amp;" list --all"</f>
@@ -6634,7 +6645,7 @@
       </c>
       <c r="AU63" s="1"/>
     </row>
-    <row r="64" spans="2:47" outlineLevel="1">
+    <row r="64" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B64" s="15"/>
       <c r="C64" s="56" t="str">
         <f>B$61&amp;" set compute/zone "&amp;AC64</f>
@@ -6671,7 +6682,7 @@
         <v>11</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
@@ -6694,7 +6705,7 @@
       </c>
       <c r="AU64" s="1"/>
     </row>
-    <row r="65" spans="2:47" outlineLevel="1">
+    <row r="65" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B65" s="15"/>
       <c r="C65" s="56" t="str">
         <f>B$61&amp;" set compute/region "&amp;AC65</f>
@@ -6754,7 +6765,7 @@
       </c>
       <c r="AU65" s="1"/>
     </row>
-    <row r="66" spans="2:47" outlineLevel="1">
+    <row r="66" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B66" s="10"/>
       <c r="C66" s="56" t="str">
         <f>B$61&amp;" set project "&amp;AC66</f>
@@ -6788,10 +6799,10 @@
         <v>gcloud config set project whatever</v>
       </c>
       <c r="AB66" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
@@ -6810,7 +6821,7 @@
       <c r="AR66" s="2"/>
       <c r="AS66" s="2"/>
       <c r="AT66" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AU66" s="1"/>
     </row>
@@ -7044,7 +7055,7 @@
     </row>
     <row r="71" spans="2:47" collapsed="1">
       <c r="B71" s="55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
@@ -7151,10 +7162,10 @@
       <c r="AR72" s="2"/>
       <c r="AS72" s="2"/>
       <c r="AT72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU72" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AU72" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="73" spans="2:47" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
@@ -7191,16 +7202,16 @@
         <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
       </c>
       <c r="AB73" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC73" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AC73" s="5" t="s">
+      <c r="AD73" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AD73" s="2" t="s">
+      <c r="AE73" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="AE73" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
@@ -7217,7 +7228,7 @@
       <c r="AR73" s="2"/>
       <c r="AS73" s="2"/>
       <c r="AT73" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU73" s="1"/>
     </row>
@@ -7255,28 +7266,28 @@
         <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
       </c>
       <c r="AB74" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC74" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AC74" s="5" t="s">
+      <c r="AD74" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE74" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF74" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG74" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH74" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AD74" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE74" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF74" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG74" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH74" s="2" t="s">
+      <c r="AI74" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="AI74" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="AJ74" s="2"/>
       <c r="AK74" s="2"/>
@@ -7289,10 +7300,10 @@
       <c r="AR74" s="2"/>
       <c r="AS74" s="2"/>
       <c r="AT74" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AU74" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
@@ -7349,7 +7360,7 @@
       <c r="AR75" s="2"/>
       <c r="AS75" s="2"/>
       <c r="AT75" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AU75" s="1"/>
     </row>
@@ -7387,28 +7398,28 @@
         <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
       </c>
       <c r="AB76" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC76" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AC76" s="5" t="s">
+      <c r="AD76" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE76" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF76" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AD76" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE76" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF76" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="AG76" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH76" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AH76" s="2" t="s">
+      <c r="AI76" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="AI76" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="AJ76" s="2"/>
       <c r="AK76" s="2"/>
@@ -7421,7 +7432,7 @@
       <c r="AR76" s="2"/>
       <c r="AS76" s="2"/>
       <c r="AT76" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AU76" s="1"/>
     </row>
@@ -7484,7 +7495,7 @@
     </row>
     <row r="78" spans="2:47" collapsed="1">
       <c r="B78" s="55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C78" s="56"/>
       <c r="D78" s="56"/>
@@ -7535,7 +7546,7 @@
       <c r="AR78" s="2"/>
       <c r="AS78" s="2"/>
       <c r="AT78" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AU78" s="1"/>
     </row>
@@ -7593,7 +7604,7 @@
       <c r="AR79" s="2"/>
       <c r="AS79" s="2"/>
       <c r="AT79" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AU79" s="1"/>
     </row>
@@ -7631,10 +7642,10 @@
         <v>gcloud services enable cloudkms.googleapis.com</v>
       </c>
       <c r="AB80" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC80" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="AC80" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
@@ -7653,13 +7664,13 @@
       <c r="AR80" s="2"/>
       <c r="AS80" s="2"/>
       <c r="AT80" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AU80" s="1"/>
     </row>
     <row r="81" spans="2:47" collapsed="1">
       <c r="B81" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="56"/>
       <c r="D81" s="56"/>
@@ -7766,7 +7777,7 @@
       <c r="AR82" s="2"/>
       <c r="AS82" s="2"/>
       <c r="AT82" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AU82" s="1"/>
     </row>
@@ -7804,30 +7815,30 @@
         <v>gcloud container clusters create webfrontend --num-nodes 2 --zone $MY_ZONE</v>
       </c>
       <c r="AB83" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AE83" s="5">
         <v>2</v>
       </c>
       <c r="AF83" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG83" s="5"/>
       <c r="AH83" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI83" s="5"/>
       <c r="AJ83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AK83" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AL83" s="2"/>
       <c r="AM83" s="2"/>
@@ -7838,10 +7849,10 @@
       <c r="AR83" s="2"/>
       <c r="AS83" s="2"/>
       <c r="AT83" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="2:47" ht="30" hidden="1" outlineLevel="2">
@@ -7878,10 +7889,10 @@
         <v>gcloud container clusters get-credentials jenkins-cd</v>
       </c>
       <c r="AB84" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC84" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
@@ -7900,7 +7911,7 @@
       <c r="AR84" s="2"/>
       <c r="AS84" s="2"/>
       <c r="AT84" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AU84" s="1"/>
     </row>
@@ -7958,7 +7969,7 @@
       <c r="AR85" s="2"/>
       <c r="AS85" s="2"/>
       <c r="AT85" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AU85" s="1"/>
     </row>
@@ -8016,7 +8027,7 @@
       <c r="AR86" s="2"/>
       <c r="AS86" s="2"/>
       <c r="AT86" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AU86" s="1"/>
     </row>
@@ -8074,13 +8085,13 @@
       <c r="AR87" s="2"/>
       <c r="AS87" s="2"/>
       <c r="AT87" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AU87" s="1"/>
     </row>
     <row r="88" spans="2:47" collapsed="1">
       <c r="B88" s="55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C88" s="56"/>
       <c r="D88" s="56"/>
@@ -8131,7 +8142,7 @@
       <c r="AR88" s="2"/>
       <c r="AS88" s="2"/>
       <c r="AT88" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AU88" s="1"/>
     </row>
@@ -8189,7 +8200,7 @@
       <c r="AR89" s="2"/>
       <c r="AS89" s="2"/>
       <c r="AT89" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AU89" s="1"/>
     </row>
@@ -8227,10 +8238,10 @@
         <v>gcloud source repos create other</v>
       </c>
       <c r="AB90" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AC90" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
@@ -8249,7 +8260,7 @@
       <c r="AR90" s="2"/>
       <c r="AS90" s="2"/>
       <c r="AT90" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AU90" s="1"/>
     </row>
@@ -8287,10 +8298,10 @@
         <v>gcloud source repos clone DEFAULT</v>
       </c>
       <c r="AB91" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AC91" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
@@ -8309,15 +8320,15 @@
       <c r="AR91" s="2"/>
       <c r="AS91" s="2"/>
       <c r="AT91" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AU91" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="AU91" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="92" spans="2:47" collapsed="1">
       <c r="B92" s="55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C92" s="56"/>
       <c r="D92" s="52"/>
@@ -8368,7 +8379,7 @@
       <c r="AR92" s="2"/>
       <c r="AS92" s="2"/>
       <c r="AT92" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AU92" s="1"/>
     </row>
@@ -8402,14 +8413,14 @@
       <c r="Y93" s="56"/>
       <c r="Z93" s="57"/>
       <c r="AA93" s="8" t="str">
-        <f t="shared" ref="AA93:AA95" ca="1" si="36">IFERROR(OFFSET(A93,0,MATCH("",B93:Z93,-1)),"")</f>
+        <f t="shared" ref="AA93:AA96" ca="1" si="36">IFERROR(OFFSET(A93,0,MATCH("",B93:Z93,-1)),"")</f>
         <v>gcloud app create --region=$REGION</v>
       </c>
       <c r="AB93" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AC93" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
@@ -8428,15 +8439,15 @@
       <c r="AR93" s="2"/>
       <c r="AS93" s="2"/>
       <c r="AT93" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AU93" s="1"/>
     </row>
     <row r="94" spans="2:47" ht="90" hidden="1" outlineLevel="1">
       <c r="B94" s="33"/>
       <c r="C94" s="55" t="str">
-        <f>B$92&amp;" deploy"&amp;IF(ISBLANK(AC94),""," "&amp;AC94)&amp;IF(ISBLANK(AE94),""," --version "&amp;AE94)</f>
-        <v>gcloud app deploy ./index.yaml ./app.yaml</v>
+        <f>B$92&amp;" deploy"&amp;IF(ISBLANK(AC94),""," "&amp;AC94)&amp;IF(ISBLANK(AE94),""," --version "&amp;AE94)&amp;IF(AG94," --quiet","")</f>
+        <v>gcloud app deploy app.yaml --quiet</v>
       </c>
       <c r="D94" s="56"/>
       <c r="E94" s="56"/>
@@ -8463,20 +8474,24 @@
       <c r="Z94" s="57"/>
       <c r="AA94" s="8" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>gcloud app deploy ./index.yaml ./app.yaml</v>
+        <v>gcloud app deploy app.yaml --quiet</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE94" s="5"/>
-      <c r="AF94" s="2"/>
-      <c r="AG94" s="2"/>
+      <c r="AF94" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="AG94" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
       <c r="AJ94" s="2"/>
@@ -8490,43 +8505,44 @@
       <c r="AR94" s="2"/>
       <c r="AS94" s="2"/>
       <c r="AT94" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AU94" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AU94" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="95" spans="2:47" collapsed="1">
-      <c r="B95" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="C95" s="56"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="53"/>
-      <c r="R95" s="53"/>
-      <c r="S95" s="53"/>
-      <c r="T95" s="53"/>
-      <c r="U95" s="53"/>
-      <c r="V95" s="53"/>
-      <c r="W95" s="53"/>
-      <c r="X95" s="53"/>
-      <c r="Y95" s="53"/>
-      <c r="Z95" s="54"/>
+    </row>
+    <row r="95" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B95" s="50"/>
+      <c r="C95" s="55" t="str">
+        <f>B$92&amp;" browse"</f>
+        <v>gcloud app browse</v>
+      </c>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="56"/>
+      <c r="P95" s="56"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="56"/>
+      <c r="T95" s="56"/>
+      <c r="U95" s="56"/>
+      <c r="V95" s="56"/>
+      <c r="W95" s="56"/>
+      <c r="X95" s="56"/>
+      <c r="Y95" s="56"/>
+      <c r="Z95" s="57"/>
       <c r="AA95" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>gcloud datastore</v>
+        <f t="shared" ref="AA95" ca="1" si="37">IFERROR(OFFSET(A95,0,MATCH("",B95:Z95,-1)),"")</f>
+        <v>gcloud app browse</v>
       </c>
       <c r="AB95" s="2" t="s">
         <v>6</v>
@@ -8549,49 +8565,46 @@
       <c r="AR95" s="2"/>
       <c r="AS95" s="2"/>
       <c r="AT95" s="1" t="s">
-        <v>365</v>
+        <v>543</v>
       </c>
       <c r="AU95" s="1"/>
     </row>
-    <row r="96" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B96" s="33"/>
-      <c r="C96" s="55" t="str">
-        <f>B$95&amp;" create-indexes "&amp;AC96</f>
-        <v>gcloud datastore create-indexes index.yaml</v>
-      </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="56"/>
-      <c r="K96" s="56"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="56"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="56"/>
-      <c r="R96" s="56"/>
-      <c r="S96" s="56"/>
-      <c r="T96" s="56"/>
-      <c r="U96" s="56"/>
-      <c r="V96" s="56"/>
-      <c r="W96" s="56"/>
-      <c r="X96" s="56"/>
-      <c r="Y96" s="56"/>
-      <c r="Z96" s="57"/>
+    <row r="96" spans="2:47" collapsed="1">
+      <c r="B96" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="C96" s="56"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="53"/>
+      <c r="L96" s="53"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="53"/>
+      <c r="P96" s="53"/>
+      <c r="Q96" s="53"/>
+      <c r="R96" s="53"/>
+      <c r="S96" s="53"/>
+      <c r="T96" s="53"/>
+      <c r="U96" s="53"/>
+      <c r="V96" s="53"/>
+      <c r="W96" s="53"/>
+      <c r="X96" s="53"/>
+      <c r="Y96" s="53"/>
+      <c r="Z96" s="54"/>
       <c r="AA96" s="8" t="str">
-        <f t="shared" ref="AA96:AA99" ca="1" si="37">IFERROR(OFFSET(A96,0,MATCH("",B96:Z96,-1)),"")</f>
-        <v>gcloud datastore create-indexes index.yaml</v>
-      </c>
-      <c r="AB96" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC96" s="5" t="s">
-        <v>359</v>
-      </c>
+        <f t="shared" ca="1" si="36"/>
+        <v>gcloud datastore</v>
+      </c>
+      <c r="AB96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
@@ -8609,15 +8622,16 @@
       <c r="AR96" s="2"/>
       <c r="AS96" s="2"/>
       <c r="AT96" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AU96" s="1"/>
     </row>
-    <row r="97" spans="2:47" collapsed="1">
-      <c r="B97" s="55" t="s">
-        <v>370</v>
-      </c>
-      <c r="C97" s="56"/>
+    <row r="97" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B97" s="33"/>
+      <c r="C97" s="55" t="str">
+        <f>B$96&amp;" create-indexes "&amp;AC97</f>
+        <v>gcloud datastore create-indexes index.yaml</v>
+      </c>
       <c r="D97" s="56"/>
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
@@ -8642,13 +8656,15 @@
       <c r="Y97" s="56"/>
       <c r="Z97" s="57"/>
       <c r="AA97" s="8" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>gcloud debug</v>
-      </c>
-      <c r="AB97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC97" s="2"/>
+        <f t="shared" ref="AA97:AA100" ca="1" si="38">IFERROR(OFFSET(A97,0,MATCH("",B97:Z97,-1)),"")</f>
+        <v>gcloud datastore create-indexes index.yaml</v>
+      </c>
+      <c r="AB97" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC97" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
@@ -8666,16 +8682,15 @@
       <c r="AR97" s="2"/>
       <c r="AS97" s="2"/>
       <c r="AT97" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AU97" s="1"/>
     </row>
-    <row r="98" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B98" s="33"/>
-      <c r="C98" s="56" t="str">
-        <f>B$97&amp;" logpoints"</f>
-        <v>gcloud debug logpoints</v>
-      </c>
+    <row r="98" spans="2:47" collapsed="1">
+      <c r="B98" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="56"/>
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
       <c r="F98" s="56"/>
@@ -8700,8 +8715,8 @@
       <c r="Y98" s="56"/>
       <c r="Z98" s="57"/>
       <c r="AA98" s="8" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>gcloud debug logpoints</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>gcloud debug</v>
       </c>
       <c r="AB98" s="2" t="s">
         <v>6</v>
@@ -8724,17 +8739,17 @@
       <c r="AR98" s="2"/>
       <c r="AS98" s="2"/>
       <c r="AT98" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AU98" s="1"/>
     </row>
-    <row r="99" spans="2:47" hidden="1" outlineLevel="2">
+    <row r="99" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B99" s="33"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="56" t="str">
-        <f>C$98&amp;" list"</f>
-        <v>gcloud debug logpoints list</v>
-      </c>
+      <c r="C99" s="56" t="str">
+        <f>B$98&amp;" logpoints"</f>
+        <v>gcloud debug logpoints</v>
+      </c>
+      <c r="D99" s="56"/>
       <c r="E99" s="56"/>
       <c r="F99" s="56"/>
       <c r="G99" s="56"/>
@@ -8758,8 +8773,8 @@
       <c r="Y99" s="56"/>
       <c r="Z99" s="57"/>
       <c r="AA99" s="8" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>gcloud debug logpoints list</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>gcloud debug logpoints</v>
       </c>
       <c r="AB99" s="2" t="s">
         <v>6</v>
@@ -8782,55 +8797,49 @@
       <c r="AR99" s="2"/>
       <c r="AS99" s="2"/>
       <c r="AT99" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AU99" s="1"/>
     </row>
-    <row r="100" spans="2:47" ht="60" hidden="1" outlineLevel="2">
+    <row r="100" spans="2:47" hidden="1" outlineLevel="2">
       <c r="B100" s="33"/>
       <c r="C100" s="34"/>
-      <c r="D100" s="52" t="str">
-        <f>C$98&amp;" create "&amp;AC100&amp;" "&amp;AE100</f>
-        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
-      </c>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
-      <c r="O100" s="53"/>
-      <c r="P100" s="53"/>
-      <c r="Q100" s="53"/>
-      <c r="R100" s="53"/>
-      <c r="S100" s="53"/>
-      <c r="T100" s="53"/>
-      <c r="U100" s="53"/>
-      <c r="V100" s="53"/>
-      <c r="W100" s="53"/>
-      <c r="X100" s="53"/>
-      <c r="Y100" s="53"/>
-      <c r="Z100" s="54"/>
+      <c r="D100" s="56" t="str">
+        <f>C$99&amp;" list"</f>
+        <v>gcloud debug logpoints list</v>
+      </c>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="56"/>
+      <c r="N100" s="56"/>
+      <c r="O100" s="56"/>
+      <c r="P100" s="56"/>
+      <c r="Q100" s="56"/>
+      <c r="R100" s="56"/>
+      <c r="S100" s="56"/>
+      <c r="T100" s="56"/>
+      <c r="U100" s="56"/>
+      <c r="V100" s="56"/>
+      <c r="W100" s="56"/>
+      <c r="X100" s="56"/>
+      <c r="Y100" s="56"/>
+      <c r="Z100" s="57"/>
       <c r="AA100" s="8" t="str">
-        <f t="shared" ref="AA100:AA110" ca="1" si="38">IFERROR(OFFSET(A100,0,MATCH("",B100:Z100,-1)),"")</f>
-        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
-      </c>
-      <c r="AB100" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC100" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD100" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE100" s="5" t="s">
-        <v>377</v>
-      </c>
+        <f t="shared" ca="1" si="38"/>
+        <v>gcloud debug logpoints list</v>
+      </c>
+      <c r="AB100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
       <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
@@ -8846,48 +8855,55 @@
       <c r="AR100" s="2"/>
       <c r="AS100" s="2"/>
       <c r="AT100" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU100" s="1"/>
+    </row>
+    <row r="101" spans="2:47" ht="60" hidden="1" outlineLevel="2">
+      <c r="B101" s="33"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="52" t="str">
+        <f>C$99&amp;" create "&amp;AC101&amp;" "&amp;AE101</f>
+        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
+      </c>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
+      <c r="K101" s="53"/>
+      <c r="L101" s="53"/>
+      <c r="M101" s="53"/>
+      <c r="N101" s="53"/>
+      <c r="O101" s="53"/>
+      <c r="P101" s="53"/>
+      <c r="Q101" s="53"/>
+      <c r="R101" s="53"/>
+      <c r="S101" s="53"/>
+      <c r="T101" s="53"/>
+      <c r="U101" s="53"/>
+      <c r="V101" s="53"/>
+      <c r="W101" s="53"/>
+      <c r="X101" s="53"/>
+      <c r="Y101" s="53"/>
+      <c r="Z101" s="54"/>
+      <c r="AA101" s="8" t="str">
+        <f t="shared" ref="AA101:AA111" ca="1" si="39">IFERROR(OFFSET(A101,0,MATCH("",B101:Z101,-1)),"")</f>
+        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
+      </c>
+      <c r="AB101" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC101" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="AU100" s="1"/>
-    </row>
-    <row r="101" spans="2:47" collapsed="1">
-      <c r="B101" s="55" t="s">
-        <v>378</v>
-      </c>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="56"/>
-      <c r="M101" s="56"/>
-      <c r="N101" s="56"/>
-      <c r="O101" s="56"/>
-      <c r="P101" s="56"/>
-      <c r="Q101" s="56"/>
-      <c r="R101" s="56"/>
-      <c r="S101" s="56"/>
-      <c r="T101" s="56"/>
-      <c r="U101" s="56"/>
-      <c r="V101" s="56"/>
-      <c r="W101" s="56"/>
-      <c r="X101" s="56"/>
-      <c r="Y101" s="56"/>
-      <c r="Z101" s="57"/>
-      <c r="AA101" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>gcloud sql</v>
-      </c>
-      <c r="AB101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-      <c r="AE101" s="2"/>
+      <c r="AD101" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE101" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="AF101" s="2"/>
       <c r="AG101" s="2"/>
       <c r="AH101" s="2"/>
@@ -8903,16 +8919,15 @@
       <c r="AR101" s="2"/>
       <c r="AS101" s="2"/>
       <c r="AT101" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AU101" s="1"/>
     </row>
-    <row r="102" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B102" s="36"/>
-      <c r="C102" s="56" t="str">
-        <f>B101&amp;" connect "&amp;AC102&amp;IF(ISBLANK(AE102),""," --user="&amp;AE102)</f>
-        <v>gcloud sql connect myinstance --user=root</v>
-      </c>
+    <row r="102" spans="2:47" collapsed="1">
+      <c r="B102" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="C102" s="56"/>
       <c r="D102" s="56"/>
       <c r="E102" s="56"/>
       <c r="F102" s="56"/>
@@ -8937,21 +8952,15 @@
       <c r="Y102" s="56"/>
       <c r="Z102" s="57"/>
       <c r="AA102" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>gcloud sql connect myinstance --user=root</v>
-      </c>
-      <c r="AB102" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC102" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AD102" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE102" s="5" t="s">
-        <v>383</v>
-      </c>
+        <f t="shared" ca="1" si="39"/>
+        <v>gcloud sql</v>
+      </c>
+      <c r="AB102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
       <c r="AG102" s="2"/>
       <c r="AH102" s="2"/>
@@ -8967,15 +8976,16 @@
       <c r="AR102" s="2"/>
       <c r="AS102" s="2"/>
       <c r="AT102" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AU102" s="1"/>
     </row>
-    <row r="103" spans="2:47" ht="30" collapsed="1">
-      <c r="B103" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="C103" s="56"/>
+    <row r="103" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B103" s="36"/>
+      <c r="C103" s="56" t="str">
+        <f>B102&amp;" connect "&amp;AC103&amp;IF(ISBLANK(AE103),""," --user="&amp;AE103)</f>
+        <v>gcloud sql connect myinstance --user=root</v>
+      </c>
       <c r="D103" s="56"/>
       <c r="E103" s="56"/>
       <c r="F103" s="56"/>
@@ -9000,15 +9010,21 @@
       <c r="Y103" s="56"/>
       <c r="Z103" s="57"/>
       <c r="AA103" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>gcloud deployment-manager</v>
-      </c>
-      <c r="AB103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC103" s="2"/>
-      <c r="AD103" s="2"/>
-      <c r="AE103" s="2"/>
+        <f t="shared" ca="1" si="39"/>
+        <v>gcloud sql connect myinstance --user=root</v>
+      </c>
+      <c r="AB103" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC103" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD103" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE103" s="5" t="s">
+        <v>382</v>
+      </c>
       <c r="AF103" s="2"/>
       <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
@@ -9024,18 +9040,15 @@
       <c r="AR103" s="2"/>
       <c r="AS103" s="2"/>
       <c r="AT103" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AU103" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="104" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B104" s="36"/>
-      <c r="C104" s="56" t="str">
-        <f>B$103&amp;" deployments"</f>
-        <v>gcloud deployment-manager deployments</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="AU103" s="1"/>
+    </row>
+    <row r="104" spans="2:47" ht="30" collapsed="1">
+      <c r="B104" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="C104" s="56"/>
       <c r="D104" s="56"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
@@ -9060,8 +9073,8 @@
       <c r="Y104" s="56"/>
       <c r="Z104" s="57"/>
       <c r="AA104" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>gcloud deployment-manager deployments</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>gcloud deployment-manager</v>
       </c>
       <c r="AB104" s="2" t="s">
         <v>6</v>
@@ -9084,17 +9097,19 @@
       <c r="AR104" s="2"/>
       <c r="AS104" s="2"/>
       <c r="AT104" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AU104" s="1"/>
-    </row>
-    <row r="105" spans="2:47" hidden="1" outlineLevel="2">
+        <v>384</v>
+      </c>
+      <c r="AU104" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B105" s="36"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="56" t="str">
-        <f>C$104&amp;" create"</f>
-        <v>gcloud deployment-manager deployments create</v>
-      </c>
+      <c r="C105" s="56" t="str">
+        <f>B$104&amp;" deployments"</f>
+        <v>gcloud deployment-manager deployments</v>
+      </c>
+      <c r="D105" s="56"/>
       <c r="E105" s="56"/>
       <c r="F105" s="56"/>
       <c r="G105" s="56"/>
@@ -9118,8 +9133,8 @@
       <c r="Y105" s="56"/>
       <c r="Z105" s="57"/>
       <c r="AA105" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>gcloud deployment-manager deployments create</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>gcloud deployment-manager deployments</v>
       </c>
       <c r="AB105" s="2" t="s">
         <v>6</v>
@@ -9142,55 +9157,49 @@
       <c r="AR105" s="2"/>
       <c r="AS105" s="2"/>
       <c r="AT105" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AU105" s="1"/>
     </row>
-    <row r="106" spans="2:47" ht="30" hidden="1" outlineLevel="3">
+    <row r="106" spans="2:47" hidden="1" outlineLevel="2">
       <c r="B106" s="36"/>
       <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="52" t="str">
-        <f>D$105&amp;" "&amp;AC106&amp;" --config "&amp;AE106</f>
-        <v>gcloud deployment-manager deployments create my-first-depl --config mydeploy.yaml</v>
-      </c>
-      <c r="F106" s="53"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="53"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="53"/>
-      <c r="O106" s="53"/>
-      <c r="P106" s="53"/>
-      <c r="Q106" s="53"/>
-      <c r="R106" s="53"/>
-      <c r="S106" s="53"/>
-      <c r="T106" s="53"/>
-      <c r="U106" s="53"/>
-      <c r="V106" s="53"/>
-      <c r="W106" s="53"/>
-      <c r="X106" s="53"/>
-      <c r="Y106" s="53"/>
-      <c r="Z106" s="54"/>
+      <c r="D106" s="56" t="str">
+        <f>C$105&amp;" create"</f>
+        <v>gcloud deployment-manager deployments create</v>
+      </c>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="56"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="56"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="56"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="56"/>
+      <c r="P106" s="56"/>
+      <c r="Q106" s="56"/>
+      <c r="R106" s="56"/>
+      <c r="S106" s="56"/>
+      <c r="T106" s="56"/>
+      <c r="U106" s="56"/>
+      <c r="V106" s="56"/>
+      <c r="W106" s="56"/>
+      <c r="X106" s="56"/>
+      <c r="Y106" s="56"/>
+      <c r="Z106" s="57"/>
       <c r="AA106" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>gcloud deployment-manager deployments create my-first-depl --config mydeploy.yaml</v>
-      </c>
-      <c r="AB106" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC106" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="AD106" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE106" s="5" t="s">
-        <v>494</v>
-      </c>
+        <f t="shared" ca="1" si="39"/>
+        <v>gcloud deployment-manager deployments create</v>
+      </c>
+      <c r="AB106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
       <c r="AG106" s="2"/>
       <c r="AH106" s="2"/>
@@ -9206,46 +9215,55 @@
       <c r="AR106" s="2"/>
       <c r="AS106" s="2"/>
       <c r="AT106" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AU106" s="1"/>
     </row>
-    <row r="107" spans="2:47" hidden="1" outlineLevel="3">
+    <row r="107" spans="2:47" ht="30" hidden="1" outlineLevel="3">
       <c r="B107" s="36"/>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="56"/>
-      <c r="N107" s="56"/>
-      <c r="O107" s="56"/>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="56"/>
-      <c r="R107" s="56"/>
-      <c r="S107" s="56"/>
-      <c r="T107" s="56"/>
-      <c r="U107" s="56"/>
-      <c r="V107" s="56"/>
-      <c r="W107" s="56"/>
-      <c r="X107" s="56"/>
-      <c r="Y107" s="56"/>
-      <c r="Z107" s="57"/>
+      <c r="E107" s="52" t="str">
+        <f>D$106&amp;" "&amp;AC107&amp;" --config "&amp;AE107</f>
+        <v>gcloud deployment-manager deployments create my-first-depl --config mydeploy.yaml</v>
+      </c>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53"/>
+      <c r="K107" s="53"/>
+      <c r="L107" s="53"/>
+      <c r="M107" s="53"/>
+      <c r="N107" s="53"/>
+      <c r="O107" s="53"/>
+      <c r="P107" s="53"/>
+      <c r="Q107" s="53"/>
+      <c r="R107" s="53"/>
+      <c r="S107" s="53"/>
+      <c r="T107" s="53"/>
+      <c r="U107" s="53"/>
+      <c r="V107" s="53"/>
+      <c r="W107" s="53"/>
+      <c r="X107" s="53"/>
+      <c r="Y107" s="53"/>
+      <c r="Z107" s="54"/>
       <c r="AA107" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AB107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC107" s="2"/>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="2"/>
+        <f t="shared" ca="1" si="39"/>
+        <v>gcloud deployment-manager deployments create my-first-depl --config mydeploy.yaml</v>
+      </c>
+      <c r="AB107" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC107" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="AD107" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE107" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="AF107" s="2"/>
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
@@ -9260,48 +9278,45 @@
       <c r="AQ107" s="2"/>
       <c r="AR107" s="2"/>
       <c r="AS107" s="2"/>
-      <c r="AT107" s="1"/>
+      <c r="AT107" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="AU107" s="1"/>
     </row>
-    <row r="108" spans="2:47" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="108" spans="2:47" hidden="1" outlineLevel="3">
       <c r="B108" s="36"/>
       <c r="C108" s="37"/>
-      <c r="D108" s="52" t="str">
-        <f>C$104&amp;" delete "&amp;AC108</f>
-        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
-      </c>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="53"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="53"/>
-      <c r="O108" s="53"/>
-      <c r="P108" s="53"/>
-      <c r="Q108" s="53"/>
-      <c r="R108" s="53"/>
-      <c r="S108" s="53"/>
-      <c r="T108" s="53"/>
-      <c r="U108" s="53"/>
-      <c r="V108" s="53"/>
-      <c r="W108" s="53"/>
-      <c r="X108" s="53"/>
-      <c r="Y108" s="53"/>
-      <c r="Z108" s="54"/>
-      <c r="AA108" s="43" t="str">
-        <f t="shared" ref="AA108" ca="1" si="39">IFERROR(OFFSET(A108,0,MATCH("",B108:Z108,-1)),"")</f>
-        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
-      </c>
-      <c r="AB108" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="AC108" s="5" t="s">
-        <v>398</v>
-      </c>
+      <c r="D108" s="37"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="56"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="56"/>
+      <c r="N108" s="56"/>
+      <c r="O108" s="56"/>
+      <c r="P108" s="56"/>
+      <c r="Q108" s="56"/>
+      <c r="R108" s="56"/>
+      <c r="S108" s="56"/>
+      <c r="T108" s="56"/>
+      <c r="U108" s="56"/>
+      <c r="V108" s="56"/>
+      <c r="W108" s="56"/>
+      <c r="X108" s="56"/>
+      <c r="Y108" s="56"/>
+      <c r="Z108" s="57"/>
+      <c r="AA108" s="8" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AB108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
@@ -9318,17 +9333,15 @@
       <c r="AQ108" s="2"/>
       <c r="AR108" s="2"/>
       <c r="AS108" s="2"/>
-      <c r="AT108" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="AT108" s="1"/>
       <c r="AU108" s="1"/>
     </row>
     <row r="109" spans="2:47" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B109" s="47"/>
-      <c r="C109" s="48"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="52" t="str">
-        <f>C$104&amp;" update "&amp;AC109&amp;" --config "&amp;AE109</f>
-        <v>gcloud deployment-manager deployments update my-first-depl --config mydeploy.yaml</v>
+        <f>C$105&amp;" delete "&amp;AC109</f>
+        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
       </c>
       <c r="E109" s="53"/>
       <c r="F109" s="53"/>
@@ -9354,20 +9367,16 @@
       <c r="Z109" s="54"/>
       <c r="AA109" s="43" t="str">
         <f t="shared" ref="AA109" ca="1" si="40">IFERROR(OFFSET(A109,0,MATCH("",B109:Z109,-1)),"")</f>
-        <v>gcloud deployment-manager deployments update my-first-depl --config mydeploy.yaml</v>
+        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
       </c>
       <c r="AB109" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC109" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="AC109" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="AD109" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE109" s="5" t="s">
-        <v>494</v>
-      </c>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
       <c r="AG109" s="2"/>
       <c r="AH109" s="2"/>
@@ -9383,49 +9392,55 @@
       <c r="AR109" s="2"/>
       <c r="AS109" s="2"/>
       <c r="AT109" s="1" t="s">
-        <v>496</v>
+        <v>395</v>
       </c>
       <c r="AU109" s="1"/>
     </row>
-    <row r="110" spans="2:47" hidden="1" outlineLevel="2">
-      <c r="B110" s="36"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="56" t="str">
-        <f>C$104&amp;" list"</f>
-        <v>gcloud deployment-manager deployments list</v>
-      </c>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="56"/>
-      <c r="O110" s="56"/>
-      <c r="P110" s="56"/>
-      <c r="Q110" s="56"/>
-      <c r="R110" s="56"/>
-      <c r="S110" s="56"/>
-      <c r="T110" s="56"/>
-      <c r="U110" s="56"/>
-      <c r="V110" s="56"/>
-      <c r="W110" s="56"/>
-      <c r="X110" s="56"/>
-      <c r="Y110" s="56"/>
-      <c r="Z110" s="57"/>
-      <c r="AA110" s="8" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>gcloud deployment-manager deployments list</v>
-      </c>
-      <c r="AB110" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
-      <c r="AE110" s="2"/>
+    <row r="110" spans="2:47" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B110" s="47"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="52" t="str">
+        <f>C$105&amp;" update "&amp;AC110&amp;" --config "&amp;AE110</f>
+        <v>gcloud deployment-manager deployments update my-first-depl --config mydeploy.yaml</v>
+      </c>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="53"/>
+      <c r="K110" s="53"/>
+      <c r="L110" s="53"/>
+      <c r="M110" s="53"/>
+      <c r="N110" s="53"/>
+      <c r="O110" s="53"/>
+      <c r="P110" s="53"/>
+      <c r="Q110" s="53"/>
+      <c r="R110" s="53"/>
+      <c r="S110" s="53"/>
+      <c r="T110" s="53"/>
+      <c r="U110" s="53"/>
+      <c r="V110" s="53"/>
+      <c r="W110" s="53"/>
+      <c r="X110" s="53"/>
+      <c r="Y110" s="53"/>
+      <c r="Z110" s="54"/>
+      <c r="AA110" s="43" t="str">
+        <f t="shared" ref="AA110" ca="1" si="41">IFERROR(OFFSET(A110,0,MATCH("",B110:Z110,-1)),"")</f>
+        <v>gcloud deployment-manager deployments update my-first-depl --config mydeploy.yaml</v>
+      </c>
+      <c r="AB110" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC110" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="AD110" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE110" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="AF110" s="2"/>
       <c r="AG110" s="2"/>
       <c r="AH110" s="2"/>
@@ -9441,49 +9456,47 @@
       <c r="AR110" s="2"/>
       <c r="AS110" s="2"/>
       <c r="AT110" s="1" t="s">
-        <v>391</v>
+        <v>493</v>
       </c>
       <c r="AU110" s="1"/>
     </row>
-    <row r="111" spans="2:47" ht="29.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="111" spans="2:47" hidden="1" outlineLevel="2">
       <c r="B111" s="36"/>
       <c r="C111" s="37"/>
-      <c r="D111" s="52" t="str">
-        <f>C$104&amp;" describe "&amp;AC111</f>
-        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
-      </c>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="53"/>
-      <c r="J111" s="53"/>
-      <c r="K111" s="53"/>
-      <c r="L111" s="53"/>
-      <c r="M111" s="53"/>
-      <c r="N111" s="53"/>
-      <c r="O111" s="53"/>
-      <c r="P111" s="53"/>
-      <c r="Q111" s="53"/>
-      <c r="R111" s="53"/>
-      <c r="S111" s="53"/>
-      <c r="T111" s="53"/>
-      <c r="U111" s="53"/>
-      <c r="V111" s="53"/>
-      <c r="W111" s="53"/>
-      <c r="X111" s="53"/>
-      <c r="Y111" s="53"/>
-      <c r="Z111" s="54"/>
+      <c r="D111" s="56" t="str">
+        <f>C$105&amp;" list"</f>
+        <v>gcloud deployment-manager deployments list</v>
+      </c>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="56"/>
+      <c r="J111" s="56"/>
+      <c r="K111" s="56"/>
+      <c r="L111" s="56"/>
+      <c r="M111" s="56"/>
+      <c r="N111" s="56"/>
+      <c r="O111" s="56"/>
+      <c r="P111" s="56"/>
+      <c r="Q111" s="56"/>
+      <c r="R111" s="56"/>
+      <c r="S111" s="56"/>
+      <c r="T111" s="56"/>
+      <c r="U111" s="56"/>
+      <c r="V111" s="56"/>
+      <c r="W111" s="56"/>
+      <c r="X111" s="56"/>
+      <c r="Y111" s="56"/>
+      <c r="Z111" s="57"/>
       <c r="AA111" s="8" t="str">
-        <f t="shared" ref="AA111" ca="1" si="41">IFERROR(OFFSET(A111,0,MATCH("",B111:Z111,-1)),"")</f>
-        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
-      </c>
-      <c r="AB111" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="AC111" s="5" t="s">
-        <v>398</v>
-      </c>
+        <f t="shared" ca="1" si="39"/>
+        <v>gcloud deployment-manager deployments list</v>
+      </c>
+      <c r="AB111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
@@ -9501,47 +9514,49 @@
       <c r="AR111" s="2"/>
       <c r="AS111" s="2"/>
       <c r="AT111" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AU111" s="1"/>
     </row>
-    <row r="112" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="112" spans="2:47" ht="29.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B112" s="36"/>
-      <c r="C112" s="56" t="str">
-        <f>B$103&amp;" types"</f>
-        <v>gcloud deployment-manager types</v>
-      </c>
-      <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="56"/>
-      <c r="L112" s="56"/>
-      <c r="M112" s="56"/>
-      <c r="N112" s="56"/>
-      <c r="O112" s="56"/>
-      <c r="P112" s="56"/>
-      <c r="Q112" s="56"/>
-      <c r="R112" s="56"/>
-      <c r="S112" s="56"/>
-      <c r="T112" s="56"/>
-      <c r="U112" s="56"/>
-      <c r="V112" s="56"/>
-      <c r="W112" s="56"/>
-      <c r="X112" s="56"/>
-      <c r="Y112" s="56"/>
-      <c r="Z112" s="57"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="52" t="str">
+        <f>C$105&amp;" describe "&amp;AC112</f>
+        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
+      </c>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
+      <c r="K112" s="53"/>
+      <c r="L112" s="53"/>
+      <c r="M112" s="53"/>
+      <c r="N112" s="53"/>
+      <c r="O112" s="53"/>
+      <c r="P112" s="53"/>
+      <c r="Q112" s="53"/>
+      <c r="R112" s="53"/>
+      <c r="S112" s="53"/>
+      <c r="T112" s="53"/>
+      <c r="U112" s="53"/>
+      <c r="V112" s="53"/>
+      <c r="W112" s="53"/>
+      <c r="X112" s="53"/>
+      <c r="Y112" s="53"/>
+      <c r="Z112" s="54"/>
       <c r="AA112" s="8" t="str">
-        <f t="shared" ref="AA112:AA116" ca="1" si="42">IFERROR(OFFSET(A112,0,MATCH("",B112:Z112,-1)),"")</f>
-        <v>gcloud deployment-manager types</v>
-      </c>
-      <c r="AB112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC112" s="2"/>
+        <f t="shared" ref="AA112" ca="1" si="42">IFERROR(OFFSET(A112,0,MATCH("",B112:Z112,-1)),"")</f>
+        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
+      </c>
+      <c r="AB112" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC112" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
@@ -9559,17 +9574,17 @@
       <c r="AR112" s="2"/>
       <c r="AS112" s="2"/>
       <c r="AT112" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AU112" s="1"/>
     </row>
-    <row r="113" spans="2:47" hidden="1" outlineLevel="2">
+    <row r="113" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B113" s="36"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="56" t="str">
-        <f>C$112&amp;" list"</f>
-        <v>gcloud deployment-manager types list</v>
-      </c>
+      <c r="C113" s="56" t="str">
+        <f>B$104&amp;" types"</f>
+        <v>gcloud deployment-manager types</v>
+      </c>
+      <c r="D113" s="56"/>
       <c r="E113" s="56"/>
       <c r="F113" s="56"/>
       <c r="G113" s="56"/>
@@ -9593,8 +9608,8 @@
       <c r="Y113" s="56"/>
       <c r="Z113" s="57"/>
       <c r="AA113" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud deployment-manager types list</v>
+        <f t="shared" ref="AA113:AA117" ca="1" si="43">IFERROR(OFFSET(A113,0,MATCH("",B113:Z113,-1)),"")</f>
+        <v>gcloud deployment-manager types</v>
       </c>
       <c r="AB113" s="2" t="s">
         <v>6</v>
@@ -9617,16 +9632,17 @@
       <c r="AR113" s="2"/>
       <c r="AS113" s="2"/>
       <c r="AT113" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AU113" s="1"/>
     </row>
-    <row r="114" spans="2:47" collapsed="1">
-      <c r="B114" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="C114" s="56"/>
-      <c r="D114" s="56"/>
+    <row r="114" spans="2:47" hidden="1" outlineLevel="2">
+      <c r="B114" s="36"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="56" t="str">
+        <f>C$113&amp;" list"</f>
+        <v>gcloud deployment-manager types list</v>
+      </c>
       <c r="E114" s="56"/>
       <c r="F114" s="56"/>
       <c r="G114" s="56"/>
@@ -9650,8 +9666,8 @@
       <c r="Y114" s="56"/>
       <c r="Z114" s="57"/>
       <c r="AA114" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud endpoints</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud deployment-manager types list</v>
       </c>
       <c r="AB114" s="2" t="s">
         <v>6</v>
@@ -9674,16 +9690,15 @@
       <c r="AR114" s="2"/>
       <c r="AS114" s="2"/>
       <c r="AT114" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AU114" s="1"/>
     </row>
-    <row r="115" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B115" s="36"/>
-      <c r="C115" s="56" t="str">
-        <f>B$114&amp;" services"</f>
-        <v>gcloud endpoints services</v>
-      </c>
+    <row r="115" spans="2:47" collapsed="1">
+      <c r="B115" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="C115" s="56"/>
       <c r="D115" s="56"/>
       <c r="E115" s="56"/>
       <c r="F115" s="56"/>
@@ -9708,8 +9723,8 @@
       <c r="Y115" s="56"/>
       <c r="Z115" s="57"/>
       <c r="AA115" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud endpoints services</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud endpoints</v>
       </c>
       <c r="AB115" s="2" t="s">
         <v>6</v>
@@ -9732,17 +9747,17 @@
       <c r="AR115" s="2"/>
       <c r="AS115" s="2"/>
       <c r="AT115" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AU115" s="1"/>
     </row>
-    <row r="116" spans="2:47" hidden="1" outlineLevel="2">
+    <row r="116" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B116" s="36"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="56" t="str">
-        <f>C$115&amp;" deploy "&amp;AC116</f>
-        <v>gcloud endpoints services deploy openapi.yaml</v>
-      </c>
+      <c r="C116" s="56" t="str">
+        <f>B$115&amp;" services"</f>
+        <v>gcloud endpoints services</v>
+      </c>
+      <c r="D116" s="56"/>
       <c r="E116" s="56"/>
       <c r="F116" s="56"/>
       <c r="G116" s="56"/>
@@ -9766,15 +9781,13 @@
       <c r="Y116" s="56"/>
       <c r="Z116" s="57"/>
       <c r="AA116" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud endpoints services deploy openapi.yaml</v>
-      </c>
-      <c r="AB116" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="AC116" s="5" t="s">
-        <v>408</v>
-      </c>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud endpoints services</v>
+      </c>
+      <c r="AB116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
@@ -9792,16 +9805,17 @@
       <c r="AR116" s="2"/>
       <c r="AS116" s="2"/>
       <c r="AT116" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
-    <row r="117" spans="2:47" collapsed="1">
-      <c r="B117" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="C117" s="56"/>
-      <c r="D117" s="56"/>
+    <row r="117" spans="2:47" hidden="1" outlineLevel="2">
+      <c r="B117" s="36"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="56" t="str">
+        <f>C$116&amp;" deploy "&amp;AC117</f>
+        <v>gcloud endpoints services deploy openapi.yaml</v>
+      </c>
       <c r="E117" s="56"/>
       <c r="F117" s="56"/>
       <c r="G117" s="56"/>
@@ -9825,13 +9839,15 @@
       <c r="Y117" s="56"/>
       <c r="Z117" s="57"/>
       <c r="AA117" s="8" t="str">
-        <f t="shared" ref="AA117:AA119" ca="1" si="43">IFERROR(OFFSET(A117,0,MATCH("",B117:Z117,-1)),"")</f>
-        <v>gcloud functions</v>
-      </c>
-      <c r="AB117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC117" s="2"/>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud endpoints services deploy openapi.yaml</v>
+      </c>
+      <c r="AB117" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC117" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
@@ -9849,42 +9865,41 @@
       <c r="AR117" s="2"/>
       <c r="AS117" s="2"/>
       <c r="AT117" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AU117" s="1"/>
     </row>
-    <row r="118" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B118" s="36"/>
-      <c r="C118" s="52" t="str">
-        <f>B$117&amp;" deploy"</f>
-        <v>gcloud functions deploy</v>
-      </c>
-      <c r="D118" s="53"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53"/>
-      <c r="L118" s="53"/>
-      <c r="M118" s="53"/>
-      <c r="N118" s="53"/>
-      <c r="O118" s="53"/>
-      <c r="P118" s="53"/>
-      <c r="Q118" s="53"/>
-      <c r="R118" s="53"/>
-      <c r="S118" s="53"/>
-      <c r="T118" s="53"/>
-      <c r="U118" s="53"/>
-      <c r="V118" s="53"/>
-      <c r="W118" s="53"/>
-      <c r="X118" s="53"/>
-      <c r="Y118" s="53"/>
-      <c r="Z118" s="54"/>
+    <row r="118" spans="2:47" collapsed="1">
+      <c r="B118" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="C118" s="56"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="56"/>
+      <c r="I118" s="56"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
+      <c r="P118" s="56"/>
+      <c r="Q118" s="56"/>
+      <c r="R118" s="56"/>
+      <c r="S118" s="56"/>
+      <c r="T118" s="56"/>
+      <c r="U118" s="56"/>
+      <c r="V118" s="56"/>
+      <c r="W118" s="56"/>
+      <c r="X118" s="56"/>
+      <c r="Y118" s="56"/>
+      <c r="Z118" s="57"/>
       <c r="AA118" s="8" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v>gcloud functions deploy</v>
+        <f t="shared" ref="AA118:AA120" ca="1" si="44">IFERROR(OFFSET(A118,0,MATCH("",B118:Z118,-1)),"")</f>
+        <v>gcloud functions</v>
       </c>
       <c r="AB118" s="2" t="s">
         <v>6</v>
@@ -9907,17 +9922,17 @@
       <c r="AR118" s="2"/>
       <c r="AS118" s="2"/>
       <c r="AT118" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AU118" s="1"/>
     </row>
-    <row r="119" spans="2:47" ht="30" hidden="1" outlineLevel="2">
+    <row r="119" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B119" s="36"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="52" t="str">
-        <f>C$118&amp;" "&amp;AC119&amp;" --stage-bucket "&amp;AE119&amp;IF(ISBLANK(AG119),""," --trigger-topic "&amp;AG119)</f>
-        <v>gcloud functions deploy helloWorld --stage-bucket ioso_bucket2 --trigger-topic hello_world</v>
-      </c>
+      <c r="C119" s="52" t="str">
+        <f>B$118&amp;" deploy"</f>
+        <v>gcloud functions deploy</v>
+      </c>
+      <c r="D119" s="53"/>
       <c r="E119" s="53"/>
       <c r="F119" s="53"/>
       <c r="G119" s="53"/>
@@ -9941,27 +9956,17 @@
       <c r="Y119" s="53"/>
       <c r="Z119" s="54"/>
       <c r="AA119" s="8" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v>gcloud functions deploy helloWorld --stage-bucket ioso_bucket2 --trigger-topic hello_world</v>
-      </c>
-      <c r="AB119" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="AC119" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD119" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="AE119" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AF119" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG119" s="5" t="s">
-        <v>419</v>
-      </c>
+        <f t="shared" ca="1" si="44"/>
+        <v>gcloud functions deploy</v>
+      </c>
+      <c r="AB119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
+      <c r="AF119" s="2"/>
+      <c r="AG119" s="2"/>
       <c r="AH119" s="2"/>
       <c r="AI119" s="2"/>
       <c r="AJ119" s="2"/>
@@ -9975,17 +9980,17 @@
       <c r="AR119" s="2"/>
       <c r="AS119" s="2"/>
       <c r="AT119" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AU119" s="1"/>
     </row>
-    <row r="120" spans="2:47" hidden="1" outlineLevel="1">
+    <row r="120" spans="2:47" ht="30" hidden="1" outlineLevel="2">
       <c r="B120" s="36"/>
-      <c r="C120" s="52" t="str">
-        <f>B$117&amp;" describe "&amp;AC120</f>
-        <v>gcloud functions describe helloWorld</v>
-      </c>
-      <c r="D120" s="53"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="52" t="str">
+        <f>C$119&amp;" "&amp;AC120&amp;" --stage-bucket "&amp;AE120&amp;IF(ISBLANK(AG120),""," --trigger-topic "&amp;AG120)</f>
+        <v>gcloud functions deploy helloWorld --stage-bucket ioso_bucket2 --trigger-topic hello_world</v>
+      </c>
       <c r="E120" s="53"/>
       <c r="F120" s="53"/>
       <c r="G120" s="53"/>
@@ -10009,19 +10014,27 @@
       <c r="Y120" s="53"/>
       <c r="Z120" s="54"/>
       <c r="AA120" s="8" t="str">
-        <f t="shared" ref="AA120" ca="1" si="44">IFERROR(OFFSET(A120,0,MATCH("",B120:Z120,-1)),"")</f>
-        <v>gcloud functions describe helloWorld</v>
+        <f t="shared" ca="1" si="44"/>
+        <v>gcloud functions deploy helloWorld --stage-bucket ioso_bucket2 --trigger-topic hello_world</v>
       </c>
       <c r="AB120" s="21" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AC120" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD120" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AD120" s="2"/>
-      <c r="AE120" s="2"/>
-      <c r="AF120" s="2"/>
-      <c r="AG120" s="2"/>
+      <c r="AE120" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF120" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG120" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="AH120" s="2"/>
       <c r="AI120" s="2"/>
       <c r="AJ120" s="2"/>
@@ -10035,15 +10048,15 @@
       <c r="AR120" s="2"/>
       <c r="AS120" s="2"/>
       <c r="AT120" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AU120" s="1"/>
     </row>
-    <row r="121" spans="2:47" ht="30" hidden="1" outlineLevel="1">
+    <row r="121" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B121" s="36"/>
       <c r="C121" s="52" t="str">
-        <f>B$117&amp;" call "&amp;AC121&amp;IF(ISBLANK(AE121),""," --data "&amp;"'"&amp;AE121&amp;"'")</f>
-        <v>gcloud functions call helloWorld --data '{"message":"Hello World!"}'</v>
+        <f>B$118&amp;" describe "&amp;AC121</f>
+        <v>gcloud functions describe helloWorld</v>
       </c>
       <c r="D121" s="53"/>
       <c r="E121" s="53"/>
@@ -10070,20 +10083,16 @@
       <c r="Z121" s="54"/>
       <c r="AA121" s="8" t="str">
         <f t="shared" ref="AA121" ca="1" si="45">IFERROR(OFFSET(A121,0,MATCH("",B121:Z121,-1)),"")</f>
-        <v>gcloud functions call helloWorld --data '{"message":"Hello World!"}'</v>
+        <v>gcloud functions describe helloWorld</v>
       </c>
       <c r="AB121" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AC121" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD121" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE121" s="5" t="s">
-        <v>424</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
       <c r="AG121" s="2"/>
       <c r="AH121" s="2"/>
@@ -10099,15 +10108,15 @@
       <c r="AR121" s="2"/>
       <c r="AS121" s="2"/>
       <c r="AT121" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AU121" s="1"/>
     </row>
-    <row r="122" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="122" spans="2:47" ht="30" hidden="1" outlineLevel="1">
       <c r="B122" s="36"/>
       <c r="C122" s="52" t="str">
-        <f>B$117&amp;" logs"</f>
-        <v>gcloud functions logs</v>
+        <f>B$118&amp;" call "&amp;AC122&amp;IF(ISBLANK(AE122),""," --data "&amp;"'"&amp;AE122&amp;"'")</f>
+        <v>gcloud functions call helloWorld --data '{"message":"Hello World!"}'</v>
       </c>
       <c r="D122" s="53"/>
       <c r="E122" s="53"/>
@@ -10133,15 +10142,21 @@
       <c r="Y122" s="53"/>
       <c r="Z122" s="54"/>
       <c r="AA122" s="8" t="str">
-        <f t="shared" ref="AA122:AA134" ca="1" si="46">IFERROR(OFFSET(A122,0,MATCH("",B122:Z122,-1)),"")</f>
-        <v>gcloud functions logs</v>
-      </c>
-      <c r="AB122" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC122" s="2"/>
-      <c r="AD122" s="2"/>
-      <c r="AE122" s="2"/>
+        <f t="shared" ref="AA122" ca="1" si="46">IFERROR(OFFSET(A122,0,MATCH("",B122:Z122,-1)),"")</f>
+        <v>gcloud functions call helloWorld --data '{"message":"Hello World!"}'</v>
+      </c>
+      <c r="AB122" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC122" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD122" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE122" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="AF122" s="2"/>
       <c r="AG122" s="2"/>
       <c r="AH122" s="2"/>
@@ -10157,17 +10172,17 @@
       <c r="AR122" s="2"/>
       <c r="AS122" s="2"/>
       <c r="AT122" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AU122" s="1"/>
     </row>
-    <row r="123" spans="2:47" hidden="1" outlineLevel="2">
+    <row r="123" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B123" s="36"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="52" t="str">
-        <f>C$122&amp;" read "&amp;AC123</f>
-        <v>gcloud functions logs read helloWorld</v>
-      </c>
+      <c r="C123" s="52" t="str">
+        <f>B$118&amp;" logs"</f>
+        <v>gcloud functions logs</v>
+      </c>
+      <c r="D123" s="53"/>
       <c r="E123" s="53"/>
       <c r="F123" s="53"/>
       <c r="G123" s="53"/>
@@ -10191,15 +10206,13 @@
       <c r="Y123" s="53"/>
       <c r="Z123" s="54"/>
       <c r="AA123" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud functions logs read helloWorld</v>
-      </c>
-      <c r="AB123" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC123" s="5" t="s">
-        <v>414</v>
-      </c>
+        <f t="shared" ref="AA123:AA135" ca="1" si="47">IFERROR(OFFSET(A123,0,MATCH("",B123:Z123,-1)),"")</f>
+        <v>gcloud functions logs</v>
+      </c>
+      <c r="AB123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
@@ -10217,46 +10230,49 @@
       <c r="AR123" s="2"/>
       <c r="AS123" s="2"/>
       <c r="AT123" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AU123" s="1"/>
     </row>
-    <row r="124" spans="2:47" collapsed="1">
-      <c r="B124" s="55" t="s">
-        <v>426</v>
-      </c>
-      <c r="C124" s="56"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="56"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="56"/>
-      <c r="L124" s="56"/>
-      <c r="M124" s="56"/>
-      <c r="N124" s="56"/>
-      <c r="O124" s="56"/>
-      <c r="P124" s="56"/>
-      <c r="Q124" s="56"/>
-      <c r="R124" s="56"/>
-      <c r="S124" s="56"/>
-      <c r="T124" s="56"/>
-      <c r="U124" s="56"/>
-      <c r="V124" s="56"/>
-      <c r="W124" s="56"/>
-      <c r="X124" s="56"/>
-      <c r="Y124" s="56"/>
-      <c r="Z124" s="57"/>
+    <row r="124" spans="2:47" hidden="1" outlineLevel="2">
+      <c r="B124" s="36"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="52" t="str">
+        <f>C$123&amp;" read "&amp;AC124</f>
+        <v>gcloud functions logs read helloWorld</v>
+      </c>
+      <c r="E124" s="53"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
+      <c r="L124" s="53"/>
+      <c r="M124" s="53"/>
+      <c r="N124" s="53"/>
+      <c r="O124" s="53"/>
+      <c r="P124" s="53"/>
+      <c r="Q124" s="53"/>
+      <c r="R124" s="53"/>
+      <c r="S124" s="53"/>
+      <c r="T124" s="53"/>
+      <c r="U124" s="53"/>
+      <c r="V124" s="53"/>
+      <c r="W124" s="53"/>
+      <c r="X124" s="53"/>
+      <c r="Y124" s="53"/>
+      <c r="Z124" s="54"/>
       <c r="AA124" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud pubsub</v>
-      </c>
-      <c r="AB124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC124" s="2"/>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud functions logs read helloWorld</v>
+      </c>
+      <c r="AB124" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC124" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
@@ -10274,16 +10290,15 @@
       <c r="AR124" s="2"/>
       <c r="AS124" s="2"/>
       <c r="AT124" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AU124" s="1"/>
     </row>
-    <row r="125" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B125" s="36"/>
-      <c r="C125" s="56" t="str">
-        <f>B$124&amp;" topics"</f>
-        <v>gcloud pubsub topics</v>
-      </c>
+    <row r="125" spans="2:47" collapsed="1">
+      <c r="B125" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C125" s="56"/>
       <c r="D125" s="56"/>
       <c r="E125" s="56"/>
       <c r="F125" s="56"/>
@@ -10308,8 +10323,8 @@
       <c r="Y125" s="56"/>
       <c r="Z125" s="57"/>
       <c r="AA125" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud pubsub topics</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud pubsub</v>
       </c>
       <c r="AB125" s="2" t="s">
         <v>6</v>
@@ -10332,17 +10347,17 @@
       <c r="AR125" s="2"/>
       <c r="AS125" s="2"/>
       <c r="AT125" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AU125" s="1"/>
     </row>
-    <row r="126" spans="2:47" hidden="1" outlineLevel="2">
+    <row r="126" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B126" s="36"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="56" t="str">
-        <f>C$125&amp;" create "&amp;AC126</f>
-        <v>gcloud pubsub topics create myTopic</v>
-      </c>
+      <c r="C126" s="56" t="str">
+        <f>B$125&amp;" topics"</f>
+        <v>gcloud pubsub topics</v>
+      </c>
+      <c r="D126" s="56"/>
       <c r="E126" s="56"/>
       <c r="F126" s="56"/>
       <c r="G126" s="56"/>
@@ -10366,15 +10381,13 @@
       <c r="Y126" s="56"/>
       <c r="Z126" s="57"/>
       <c r="AA126" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud pubsub topics create myTopic</v>
-      </c>
-      <c r="AB126" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC126" s="5" t="s">
-        <v>431</v>
-      </c>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud pubsub topics</v>
+      </c>
+      <c r="AB126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
@@ -10392,7 +10405,7 @@
       <c r="AR126" s="2"/>
       <c r="AS126" s="2"/>
       <c r="AT126" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AU126" s="1"/>
     </row>
@@ -10400,8 +10413,8 @@
       <c r="B127" s="36"/>
       <c r="C127" s="37"/>
       <c r="D127" s="56" t="str">
-        <f>C$125&amp;" list"</f>
-        <v>gcloud pubsub topics list</v>
+        <f>C$126&amp;" create "&amp;AC127</f>
+        <v>gcloud pubsub topics create myTopic</v>
       </c>
       <c r="E127" s="56"/>
       <c r="F127" s="56"/>
@@ -10426,13 +10439,15 @@
       <c r="Y127" s="56"/>
       <c r="Z127" s="57"/>
       <c r="AA127" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud pubsub topics list</v>
-      </c>
-      <c r="AB127" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC127" s="2"/>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud pubsub topics create myTopic</v>
+      </c>
+      <c r="AB127" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC127" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
@@ -10450,7 +10465,7 @@
       <c r="AR127" s="2"/>
       <c r="AS127" s="2"/>
       <c r="AT127" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AU127" s="1"/>
     </row>
@@ -10458,8 +10473,8 @@
       <c r="B128" s="36"/>
       <c r="C128" s="37"/>
       <c r="D128" s="56" t="str">
-        <f>C$125&amp;" list-subscriptions "&amp;AC128</f>
-        <v>gcloud pubsub topics list-subscriptions myTopic</v>
+        <f>C$126&amp;" list"</f>
+        <v>gcloud pubsub topics list</v>
       </c>
       <c r="E128" s="56"/>
       <c r="F128" s="56"/>
@@ -10484,15 +10499,13 @@
       <c r="Y128" s="56"/>
       <c r="Z128" s="57"/>
       <c r="AA128" s="8" t="str">
-        <f t="shared" ref="AA128:AA129" ca="1" si="47">IFERROR(OFFSET(A128,0,MATCH("",B128:Z128,-1)),"")</f>
-        <v>gcloud pubsub topics list-subscriptions myTopic</v>
-      </c>
-      <c r="AB128" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC128" s="5" t="s">
-        <v>431</v>
-      </c>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud pubsub topics list</v>
+      </c>
+      <c r="AB128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
@@ -10510,55 +10523,51 @@
       <c r="AR128" s="2"/>
       <c r="AS128" s="2"/>
       <c r="AT128" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AU128" s="1"/>
     </row>
     <row r="129" spans="2:47" hidden="1" outlineLevel="2">
-      <c r="B129" s="39"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="52" t="str">
-        <f>C$125&amp;" publish "&amp;AC129&amp;IF(ISBLANK(AE129),""," --message "&amp;CHAR(34)&amp;""&amp;AE129&amp;CHAR(34))</f>
-        <v>gcloud pubsub topics publish myTopic --message "Hello"</v>
-      </c>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="53"/>
-      <c r="H129" s="53"/>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="53"/>
-      <c r="L129" s="53"/>
-      <c r="M129" s="53"/>
-      <c r="N129" s="53"/>
-      <c r="O129" s="53"/>
-      <c r="P129" s="53"/>
-      <c r="Q129" s="53"/>
-      <c r="R129" s="53"/>
-      <c r="S129" s="53"/>
-      <c r="T129" s="53"/>
-      <c r="U129" s="53"/>
-      <c r="V129" s="53"/>
-      <c r="W129" s="53"/>
-      <c r="X129" s="53"/>
-      <c r="Y129" s="53"/>
-      <c r="Z129" s="54"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="56" t="str">
+        <f>C$126&amp;" list-subscriptions "&amp;AC129</f>
+        <v>gcloud pubsub topics list-subscriptions myTopic</v>
+      </c>
+      <c r="E129" s="56"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="56"/>
+      <c r="H129" s="56"/>
+      <c r="I129" s="56"/>
+      <c r="J129" s="56"/>
+      <c r="K129" s="56"/>
+      <c r="L129" s="56"/>
+      <c r="M129" s="56"/>
+      <c r="N129" s="56"/>
+      <c r="O129" s="56"/>
+      <c r="P129" s="56"/>
+      <c r="Q129" s="56"/>
+      <c r="R129" s="56"/>
+      <c r="S129" s="56"/>
+      <c r="T129" s="56"/>
+      <c r="U129" s="56"/>
+      <c r="V129" s="56"/>
+      <c r="W129" s="56"/>
+      <c r="X129" s="56"/>
+      <c r="Y129" s="56"/>
+      <c r="Z129" s="57"/>
       <c r="AA129" s="8" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>gcloud pubsub topics publish myTopic --message "Hello"</v>
+        <f t="shared" ref="AA129:AA130" ca="1" si="48">IFERROR(OFFSET(A129,0,MATCH("",B129:Z129,-1)),"")</f>
+        <v>gcloud pubsub topics list-subscriptions myTopic</v>
       </c>
       <c r="AB129" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC129" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="AC129" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD129" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="AE129" s="5" t="s">
-        <v>445</v>
-      </c>
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
       <c r="AG129" s="2"/>
       <c r="AH129" s="2"/>
@@ -10574,51 +10583,55 @@
       <c r="AR129" s="2"/>
       <c r="AS129" s="2"/>
       <c r="AT129" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="AU129" s="1"/>
+    </row>
+    <row r="130" spans="2:47" hidden="1" outlineLevel="2">
+      <c r="B130" s="39"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="52" t="str">
+        <f>C$126&amp;" publish "&amp;AC130&amp;IF(ISBLANK(AE130),""," --message "&amp;CHAR(34)&amp;""&amp;AE130&amp;CHAR(34))</f>
+        <v>gcloud pubsub topics publish myTopic --message "Hello"</v>
+      </c>
+      <c r="E130" s="53"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="53"/>
+      <c r="I130" s="53"/>
+      <c r="J130" s="53"/>
+      <c r="K130" s="53"/>
+      <c r="L130" s="53"/>
+      <c r="M130" s="53"/>
+      <c r="N130" s="53"/>
+      <c r="O130" s="53"/>
+      <c r="P130" s="53"/>
+      <c r="Q130" s="53"/>
+      <c r="R130" s="53"/>
+      <c r="S130" s="53"/>
+      <c r="T130" s="53"/>
+      <c r="U130" s="53"/>
+      <c r="V130" s="53"/>
+      <c r="W130" s="53"/>
+      <c r="X130" s="53"/>
+      <c r="Y130" s="53"/>
+      <c r="Z130" s="54"/>
+      <c r="AA130" s="8" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v>gcloud pubsub topics publish myTopic --message "Hello"</v>
+      </c>
+      <c r="AB130" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC130" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD130" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="AU129" s="1"/>
-    </row>
-    <row r="130" spans="2:47" hidden="1" outlineLevel="2">
-      <c r="B130" s="36"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="56" t="str">
-        <f>C$125&amp;" delete "&amp;AC130</f>
-        <v>gcloud pubsub topics delete myTopic</v>
-      </c>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="56"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="56"/>
-      <c r="L130" s="56"/>
-      <c r="M130" s="56"/>
-      <c r="N130" s="56"/>
-      <c r="O130" s="56"/>
-      <c r="P130" s="56"/>
-      <c r="Q130" s="56"/>
-      <c r="R130" s="56"/>
-      <c r="S130" s="56"/>
-      <c r="T130" s="56"/>
-      <c r="U130" s="56"/>
-      <c r="V130" s="56"/>
-      <c r="W130" s="56"/>
-      <c r="X130" s="56"/>
-      <c r="Y130" s="56"/>
-      <c r="Z130" s="57"/>
-      <c r="AA130" s="8" t="str">
-        <f t="shared" ref="AA130" ca="1" si="48">IFERROR(OFFSET(A130,0,MATCH("",B130:Z130,-1)),"")</f>
-        <v>gcloud pubsub topics delete myTopic</v>
-      </c>
-      <c r="AB130" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC130" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="AD130" s="2"/>
-      <c r="AE130" s="2"/>
+      <c r="AE130" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="AF130" s="2"/>
       <c r="AG130" s="2"/>
       <c r="AH130" s="2"/>
@@ -10634,17 +10647,17 @@
       <c r="AR130" s="2"/>
       <c r="AS130" s="2"/>
       <c r="AT130" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AU130" s="1"/>
     </row>
-    <row r="131" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="131" spans="2:47" hidden="1" outlineLevel="2">
       <c r="B131" s="36"/>
-      <c r="C131" s="56" t="str">
-        <f>B$124&amp;" subscriptions"</f>
-        <v>gcloud pubsub subscriptions</v>
-      </c>
-      <c r="D131" s="56"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="56" t="str">
+        <f>C$126&amp;" delete "&amp;AC131</f>
+        <v>gcloud pubsub topics delete myTopic</v>
+      </c>
       <c r="E131" s="56"/>
       <c r="F131" s="56"/>
       <c r="G131" s="56"/>
@@ -10668,13 +10681,15 @@
       <c r="Y131" s="56"/>
       <c r="Z131" s="57"/>
       <c r="AA131" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud pubsub subscriptions</v>
-      </c>
-      <c r="AB131" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC131" s="2"/>
+        <f t="shared" ref="AA131" ca="1" si="49">IFERROR(OFFSET(A131,0,MATCH("",B131:Z131,-1)),"")</f>
+        <v>gcloud pubsub topics delete myTopic</v>
+      </c>
+      <c r="AB131" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC131" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
@@ -10692,55 +10707,49 @@
       <c r="AR131" s="2"/>
       <c r="AS131" s="2"/>
       <c r="AT131" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AU131" s="1"/>
     </row>
-    <row r="132" spans="2:47" ht="30" hidden="1" outlineLevel="2">
+    <row r="132" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B132" s="36"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="52" t="str">
-        <f>C$131&amp;" create --topic "&amp;AE132&amp;" "&amp;AC132</f>
-        <v>gcloud pubsub subscriptions create --topic myTopic mySubscription</v>
-      </c>
-      <c r="E132" s="53"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="53"/>
-      <c r="L132" s="53"/>
-      <c r="M132" s="53"/>
-      <c r="N132" s="53"/>
-      <c r="O132" s="53"/>
-      <c r="P132" s="53"/>
-      <c r="Q132" s="53"/>
-      <c r="R132" s="53"/>
-      <c r="S132" s="53"/>
-      <c r="T132" s="53"/>
-      <c r="U132" s="53"/>
-      <c r="V132" s="53"/>
-      <c r="W132" s="53"/>
-      <c r="X132" s="53"/>
-      <c r="Y132" s="53"/>
-      <c r="Z132" s="54"/>
+      <c r="C132" s="56" t="str">
+        <f>B$125&amp;" subscriptions"</f>
+        <v>gcloud pubsub subscriptions</v>
+      </c>
+      <c r="D132" s="56"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="56"/>
+      <c r="H132" s="56"/>
+      <c r="I132" s="56"/>
+      <c r="J132" s="56"/>
+      <c r="K132" s="56"/>
+      <c r="L132" s="56"/>
+      <c r="M132" s="56"/>
+      <c r="N132" s="56"/>
+      <c r="O132" s="56"/>
+      <c r="P132" s="56"/>
+      <c r="Q132" s="56"/>
+      <c r="R132" s="56"/>
+      <c r="S132" s="56"/>
+      <c r="T132" s="56"/>
+      <c r="U132" s="56"/>
+      <c r="V132" s="56"/>
+      <c r="W132" s="56"/>
+      <c r="X132" s="56"/>
+      <c r="Y132" s="56"/>
+      <c r="Z132" s="57"/>
       <c r="AA132" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud pubsub subscriptions create --topic myTopic mySubscription</v>
-      </c>
-      <c r="AB132" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="AC132" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="AD132" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE132" s="5" t="s">
-        <v>431</v>
-      </c>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud pubsub subscriptions</v>
+      </c>
+      <c r="AB132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC132" s="2"/>
+      <c r="AD132" s="2"/>
+      <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
       <c r="AG132" s="2"/>
       <c r="AH132" s="2"/>
@@ -10756,16 +10765,16 @@
       <c r="AR132" s="2"/>
       <c r="AS132" s="2"/>
       <c r="AT132" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AU132" s="1"/>
     </row>
-    <row r="133" spans="2:47" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B133" s="39"/>
-      <c r="C133" s="40"/>
+    <row r="133" spans="2:47" ht="30" hidden="1" outlineLevel="2">
+      <c r="B133" s="36"/>
+      <c r="C133" s="37"/>
       <c r="D133" s="52" t="str">
-        <f>C$131&amp;" pull "&amp;AC133&amp;IF(AE133," --auto-ack","")&amp;IF(ISBLANK(AG133),""," --limit="&amp;AG133)</f>
-        <v>gcloud pubsub subscriptions pull mySubscription --auto-ack --limit=3</v>
+        <f>C$132&amp;" create --topic "&amp;AE133&amp;" "&amp;AC133</f>
+        <v>gcloud pubsub subscriptions create --topic myTopic mySubscription</v>
       </c>
       <c r="E133" s="53"/>
       <c r="F133" s="53"/>
@@ -10790,27 +10799,23 @@
       <c r="Y133" s="53"/>
       <c r="Z133" s="54"/>
       <c r="AA133" s="8" t="str">
-        <f t="shared" ref="AA133" ca="1" si="49">IFERROR(OFFSET(A133,0,MATCH("",B133:Z133,-1)),"")</f>
-        <v>gcloud pubsub subscriptions pull mySubscription --auto-ack --limit=3</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud pubsub subscriptions create --topic myTopic mySubscription</v>
       </c>
       <c r="AB133" s="21" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AC133" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="AD133" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE133" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF133" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AG133" s="5">
-        <v>3</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="AD133" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE133" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF133" s="2"/>
+      <c r="AG133" s="2"/>
       <c r="AH133" s="2"/>
       <c r="AI133" s="2"/>
       <c r="AJ133" s="2"/>
@@ -10824,16 +10829,16 @@
       <c r="AR133" s="2"/>
       <c r="AS133" s="2"/>
       <c r="AT133" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AU133" s="1"/>
     </row>
-    <row r="134" spans="2:47" hidden="1" outlineLevel="2">
-      <c r="B134" s="36"/>
-      <c r="C134" s="37"/>
+    <row r="134" spans="2:47" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B134" s="39"/>
+      <c r="C134" s="40"/>
       <c r="D134" s="52" t="str">
-        <f>C$131&amp;" delete "&amp;AC134</f>
-        <v>gcloud pubsub subscriptions delete Test1</v>
+        <f>C$132&amp;" pull "&amp;AC134&amp;IF(AE134," --auto-ack","")&amp;IF(ISBLANK(AG134),""," --limit="&amp;AG134)</f>
+        <v>gcloud pubsub subscriptions pull mySubscription --auto-ack --limit=3</v>
       </c>
       <c r="E134" s="53"/>
       <c r="F134" s="53"/>
@@ -10858,19 +10863,27 @@
       <c r="Y134" s="53"/>
       <c r="Z134" s="54"/>
       <c r="AA134" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud pubsub subscriptions delete Test1</v>
+        <f t="shared" ref="AA134" ca="1" si="50">IFERROR(OFFSET(A134,0,MATCH("",B134:Z134,-1)),"")</f>
+        <v>gcloud pubsub subscriptions pull mySubscription --auto-ack --limit=3</v>
       </c>
       <c r="AB134" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AC134" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="AD134" s="2"/>
-      <c r="AE134" s="2"/>
-      <c r="AF134" s="2"/>
-      <c r="AG134" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="AD134" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE134" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF134" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG134" s="5">
+        <v>3</v>
+      </c>
       <c r="AH134" s="2"/>
       <c r="AI134" s="2"/>
       <c r="AJ134" s="2"/>
@@ -10884,46 +10897,49 @@
       <c r="AR134" s="2"/>
       <c r="AS134" s="2"/>
       <c r="AT134" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AU134" s="1"/>
     </row>
-    <row r="135" spans="2:47" ht="60" collapsed="1">
-      <c r="B135" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="C135" s="56"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="56"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="56"/>
-      <c r="L135" s="56"/>
-      <c r="M135" s="56"/>
-      <c r="N135" s="56"/>
-      <c r="O135" s="56"/>
-      <c r="P135" s="56"/>
-      <c r="Q135" s="56"/>
-      <c r="R135" s="56"/>
-      <c r="S135" s="56"/>
-      <c r="T135" s="56"/>
-      <c r="U135" s="56"/>
-      <c r="V135" s="56"/>
-      <c r="W135" s="56"/>
-      <c r="X135" s="56"/>
-      <c r="Y135" s="56"/>
-      <c r="Z135" s="57"/>
+    <row r="135" spans="2:47" hidden="1" outlineLevel="2">
+      <c r="B135" s="36"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="52" t="str">
+        <f>C$132&amp;" delete "&amp;AC135</f>
+        <v>gcloud pubsub subscriptions delete Test1</v>
+      </c>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="53"/>
+      <c r="I135" s="53"/>
+      <c r="J135" s="53"/>
+      <c r="K135" s="53"/>
+      <c r="L135" s="53"/>
+      <c r="M135" s="53"/>
+      <c r="N135" s="53"/>
+      <c r="O135" s="53"/>
+      <c r="P135" s="53"/>
+      <c r="Q135" s="53"/>
+      <c r="R135" s="53"/>
+      <c r="S135" s="53"/>
+      <c r="T135" s="53"/>
+      <c r="U135" s="53"/>
+      <c r="V135" s="53"/>
+      <c r="W135" s="53"/>
+      <c r="X135" s="53"/>
+      <c r="Y135" s="53"/>
+      <c r="Z135" s="54"/>
       <c r="AA135" s="8" t="str">
-        <f t="shared" ref="AA135:AA136" ca="1" si="50">IFERROR(OFFSET(A135,0,MATCH("",B135:Z135,-1)),"")</f>
-        <v>gcloud docker</v>
-      </c>
-      <c r="AB135" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC135" s="2"/>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud pubsub subscriptions delete Test1</v>
+      </c>
+      <c r="AB135" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC135" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="AD135" s="2"/>
       <c r="AE135" s="2"/>
       <c r="AF135" s="2"/>
@@ -10941,63 +10957,50 @@
       <c r="AR135" s="2"/>
       <c r="AS135" s="2"/>
       <c r="AT135" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AU135" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="136" spans="2:47" ht="30" hidden="1" outlineLevel="1">
-      <c r="B136" s="33"/>
-      <c r="C136" s="52" t="str">
-        <f>B$135&amp;" -- push "&amp;AC136&amp;"/"&amp;AE136&amp;"/"&amp;AG136</f>
-        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="53"/>
-      <c r="H136" s="53"/>
-      <c r="I136" s="53"/>
-      <c r="J136" s="53"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="53"/>
-      <c r="M136" s="53"/>
-      <c r="N136" s="53"/>
-      <c r="O136" s="53"/>
-      <c r="P136" s="53"/>
-      <c r="Q136" s="53"/>
-      <c r="R136" s="53"/>
-      <c r="S136" s="53"/>
-      <c r="T136" s="53"/>
-      <c r="U136" s="53"/>
-      <c r="V136" s="53"/>
-      <c r="W136" s="53"/>
-      <c r="X136" s="53"/>
-      <c r="Y136" s="53"/>
-      <c r="Z136" s="54"/>
+        <v>441</v>
+      </c>
+      <c r="AU135" s="1"/>
+    </row>
+    <row r="136" spans="2:47" ht="60" collapsed="1">
+      <c r="B136" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="C136" s="56"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="56"/>
+      <c r="H136" s="56"/>
+      <c r="I136" s="56"/>
+      <c r="J136" s="56"/>
+      <c r="K136" s="56"/>
+      <c r="L136" s="56"/>
+      <c r="M136" s="56"/>
+      <c r="N136" s="56"/>
+      <c r="O136" s="56"/>
+      <c r="P136" s="56"/>
+      <c r="Q136" s="56"/>
+      <c r="R136" s="56"/>
+      <c r="S136" s="56"/>
+      <c r="T136" s="56"/>
+      <c r="U136" s="56"/>
+      <c r="V136" s="56"/>
+      <c r="W136" s="56"/>
+      <c r="X136" s="56"/>
+      <c r="Y136" s="56"/>
+      <c r="Z136" s="57"/>
       <c r="AA136" s="8" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
-      </c>
-      <c r="AB136" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC136" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD136" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE136" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF136" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG136" s="5" t="s">
-        <v>346</v>
-      </c>
+        <f t="shared" ref="AA136:AA137" ca="1" si="51">IFERROR(OFFSET(A136,0,MATCH("",B136:Z136,-1)),"")</f>
+        <v>gcloud docker</v>
+      </c>
+      <c r="AB136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC136" s="2"/>
+      <c r="AD136" s="2"/>
+      <c r="AE136" s="2"/>
+      <c r="AF136" s="2"/>
+      <c r="AG136" s="2"/>
       <c r="AH136" s="2"/>
       <c r="AI136" s="2"/>
       <c r="AJ136" s="2"/>
@@ -11011,15 +11014,17 @@
       <c r="AR136" s="2"/>
       <c r="AS136" s="2"/>
       <c r="AT136" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AU136" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="AU136" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="137" spans="2:47" ht="30" hidden="1" outlineLevel="1">
       <c r="B137" s="33"/>
       <c r="C137" s="52" t="str">
-        <f>B$135&amp;" -- pull "&amp;AC137&amp;"/"&amp;AE137&amp;"/"&amp;AG137</f>
-        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+        <f>B$136&amp;" -- push "&amp;AC137&amp;"/"&amp;AE137&amp;"/"&amp;AG137</f>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
       </c>
       <c r="D137" s="53"/>
       <c r="E137" s="53"/>
@@ -11045,26 +11050,26 @@
       <c r="Y137" s="53"/>
       <c r="Z137" s="54"/>
       <c r="AA137" s="8" t="str">
-        <f t="shared" ref="AA137:AA147" ca="1" si="51">IFERROR(OFFSET(A137,0,MATCH("",B137:Z137,-1)),"")</f>
-        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
       </c>
       <c r="AB137" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC137" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="AC137" s="5" t="s">
+      <c r="AD137" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE137" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF137" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG137" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="AD137" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE137" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF137" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG137" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="AH137" s="2"/>
       <c r="AI137" s="2"/>
@@ -11079,13 +11084,16 @@
       <c r="AR137" s="2"/>
       <c r="AS137" s="2"/>
       <c r="AT137" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AU137" s="1"/>
     </row>
-    <row r="138" spans="2:47">
-      <c r="B138" s="52"/>
-      <c r="C138" s="53"/>
+    <row r="138" spans="2:47" ht="30" hidden="1" outlineLevel="1">
+      <c r="B138" s="33"/>
+      <c r="C138" s="52" t="str">
+        <f>B$136&amp;" -- pull "&amp;AC138&amp;"/"&amp;AE138&amp;"/"&amp;AG138</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
       <c r="D138" s="53"/>
       <c r="E138" s="53"/>
       <c r="F138" s="53"/>
@@ -11110,17 +11118,27 @@
       <c r="Y138" s="53"/>
       <c r="Z138" s="54"/>
       <c r="AA138" s="8" t="str">
-        <f t="shared" ref="AA138" ca="1" si="52">IFERROR(OFFSET(A138,0,MATCH("",B138:Z138,-1)),"")</f>
-        <v/>
-      </c>
-      <c r="AB138" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC138" s="2"/>
-      <c r="AD138" s="2"/>
-      <c r="AE138" s="2"/>
-      <c r="AF138" s="2"/>
-      <c r="AG138" s="2"/>
+        <f t="shared" ref="AA138:AA148" ca="1" si="52">IFERROR(OFFSET(A138,0,MATCH("",B138:Z138,-1)),"")</f>
+        <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
+      </c>
+      <c r="AB138" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC138" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD138" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE138" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF138" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG138" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="AH138" s="2"/>
       <c r="AI138" s="2"/>
       <c r="AJ138" s="2"/>
@@ -11133,13 +11151,15 @@
       <c r="AQ138" s="2"/>
       <c r="AR138" s="2"/>
       <c r="AS138" s="2"/>
-      <c r="AT138" s="1"/>
+      <c r="AT138" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="AU138" s="1"/>
     </row>
     <row r="139" spans="2:47">
-      <c r="B139" s="55"/>
-      <c r="C139" s="56"/>
-      <c r="D139" s="52"/>
+      <c r="B139" s="52"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="53"/>
       <c r="E139" s="53"/>
       <c r="F139" s="53"/>
       <c r="G139" s="53"/>
@@ -11162,7 +11182,10 @@
       <c r="X139" s="53"/>
       <c r="Y139" s="53"/>
       <c r="Z139" s="54"/>
-      <c r="AA139" s="8"/>
+      <c r="AA139" s="8" t="str">
+        <f t="shared" ref="AA139" ca="1" si="53">IFERROR(OFFSET(A139,0,MATCH("",B139:Z139,-1)),"")</f>
+        <v/>
+      </c>
       <c r="AB139" s="2" t="s">
         <v>6</v>
       </c>
@@ -11186,36 +11209,33 @@
       <c r="AT139" s="1"/>
       <c r="AU139" s="1"/>
     </row>
-    <row r="140" spans="2:47" collapsed="1">
+    <row r="140" spans="2:47">
       <c r="B140" s="55"/>
       <c r="C140" s="56"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56"/>
-      <c r="G140" s="56"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="56"/>
-      <c r="J140" s="56"/>
-      <c r="K140" s="56"/>
-      <c r="L140" s="56"/>
-      <c r="M140" s="56"/>
-      <c r="N140" s="56"/>
-      <c r="O140" s="56"/>
-      <c r="P140" s="56"/>
-      <c r="Q140" s="56"/>
-      <c r="R140" s="56"/>
-      <c r="S140" s="56"/>
-      <c r="T140" s="56"/>
-      <c r="U140" s="56"/>
-      <c r="V140" s="56"/>
-      <c r="W140" s="56"/>
-      <c r="X140" s="56"/>
-      <c r="Y140" s="56"/>
-      <c r="Z140" s="57"/>
-      <c r="AA140" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A140,0,MATCH("",B140:Z140,-1)),"")</f>
-        <v/>
-      </c>
+      <c r="D140" s="52"/>
+      <c r="E140" s="53"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="53"/>
+      <c r="H140" s="53"/>
+      <c r="I140" s="53"/>
+      <c r="J140" s="53"/>
+      <c r="K140" s="53"/>
+      <c r="L140" s="53"/>
+      <c r="M140" s="53"/>
+      <c r="N140" s="53"/>
+      <c r="O140" s="53"/>
+      <c r="P140" s="53"/>
+      <c r="Q140" s="53"/>
+      <c r="R140" s="53"/>
+      <c r="S140" s="53"/>
+      <c r="T140" s="53"/>
+      <c r="U140" s="53"/>
+      <c r="V140" s="53"/>
+      <c r="W140" s="53"/>
+      <c r="X140" s="53"/>
+      <c r="Y140" s="53"/>
+      <c r="Z140" s="54"/>
+      <c r="AA140" s="8"/>
       <c r="AB140" s="2" t="s">
         <v>6</v>
       </c>
@@ -11239,33 +11259,36 @@
       <c r="AT140" s="1"/>
       <c r="AU140" s="1"/>
     </row>
-    <row r="141" spans="2:47" ht="27.75" customHeight="1">
-      <c r="B141" s="52"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="53"/>
-      <c r="E141" s="53"/>
-      <c r="F141" s="53"/>
-      <c r="G141" s="53"/>
-      <c r="H141" s="53"/>
-      <c r="I141" s="53"/>
-      <c r="J141" s="53"/>
-      <c r="K141" s="53"/>
-      <c r="L141" s="53"/>
-      <c r="M141" s="53"/>
-      <c r="N141" s="53"/>
-      <c r="O141" s="53"/>
-      <c r="P141" s="53"/>
-      <c r="Q141" s="53"/>
-      <c r="R141" s="53"/>
-      <c r="S141" s="53"/>
-      <c r="T141" s="53"/>
-      <c r="U141" s="53"/>
-      <c r="V141" s="53"/>
-      <c r="W141" s="53"/>
-      <c r="X141" s="53"/>
-      <c r="Y141" s="53"/>
-      <c r="Z141" s="54"/>
-      <c r="AA141" s="8"/>
+    <row r="141" spans="2:47" collapsed="1">
+      <c r="B141" s="55"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="56"/>
+      <c r="E141" s="56"/>
+      <c r="F141" s="56"/>
+      <c r="G141" s="56"/>
+      <c r="H141" s="56"/>
+      <c r="I141" s="56"/>
+      <c r="J141" s="56"/>
+      <c r="K141" s="56"/>
+      <c r="L141" s="56"/>
+      <c r="M141" s="56"/>
+      <c r="N141" s="56"/>
+      <c r="O141" s="56"/>
+      <c r="P141" s="56"/>
+      <c r="Q141" s="56"/>
+      <c r="R141" s="56"/>
+      <c r="S141" s="56"/>
+      <c r="T141" s="56"/>
+      <c r="U141" s="56"/>
+      <c r="V141" s="56"/>
+      <c r="W141" s="56"/>
+      <c r="X141" s="56"/>
+      <c r="Y141" s="56"/>
+      <c r="Z141" s="57"/>
+      <c r="AA141" s="8" t="str">
+        <f ca="1">IFERROR(OFFSET(A141,0,MATCH("",B141:Z141,-1)),"")</f>
+        <v/>
+      </c>
       <c r="AB141" s="2" t="s">
         <v>6</v>
       </c>
@@ -11289,7 +11312,7 @@
       <c r="AT141" s="1"/>
       <c r="AU141" s="1"/>
     </row>
-    <row r="142" spans="2:47" ht="30" customHeight="1">
+    <row r="142" spans="2:47" ht="27.75" customHeight="1">
       <c r="B142" s="52"/>
       <c r="C142" s="53"/>
       <c r="D142" s="53"/>
@@ -11315,10 +11338,7 @@
       <c r="X142" s="53"/>
       <c r="Y142" s="53"/>
       <c r="Z142" s="54"/>
-      <c r="AA142" s="8" t="str">
-        <f t="shared" ref="AA142:AA144" ca="1" si="53">IFERROR(OFFSET(A142,0,MATCH("",B142:Z142,-1)),"")</f>
-        <v/>
-      </c>
+      <c r="AA142" s="8"/>
       <c r="AB142" s="2" t="s">
         <v>6</v>
       </c>
@@ -11342,10 +11362,8 @@
       <c r="AT142" s="1"/>
       <c r="AU142" s="1"/>
     </row>
-    <row r="143" spans="2:47" ht="27" customHeight="1">
-      <c r="B143" s="52" t="s">
-        <v>468</v>
-      </c>
+    <row r="143" spans="2:47" ht="30" customHeight="1">
+      <c r="B143" s="52"/>
       <c r="C143" s="53"/>
       <c r="D143" s="53"/>
       <c r="E143" s="53"/>
@@ -11371,9 +11389,8 @@
       <c r="Y143" s="53"/>
       <c r="Z143" s="54"/>
       <c r="AA143" s="8" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v xml:space="preserve">
-</v>
+        <f t="shared" ref="AA143:AA145" ca="1" si="54">IFERROR(OFFSET(A143,0,MATCH("",B143:Z143,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB143" s="2" t="s">
         <v>6</v>
@@ -11398,9 +11415,9 @@
       <c r="AT143" s="1"/>
       <c r="AU143" s="1"/>
     </row>
-    <row r="144" spans="2:47" ht="30.75" customHeight="1">
+    <row r="144" spans="2:47" ht="27" customHeight="1">
       <c r="B144" s="52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C144" s="53"/>
       <c r="D144" s="53"/>
@@ -11427,7 +11444,7 @@
       <c r="Y144" s="53"/>
       <c r="Z144" s="54"/>
       <c r="AA144" s="8" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="54"/>
         <v xml:space="preserve">
 </v>
       </c>
@@ -11454,8 +11471,10 @@
       <c r="AT144" s="1"/>
       <c r="AU144" s="1"/>
     </row>
-    <row r="145" spans="2:47" ht="15" customHeight="1">
-      <c r="B145" s="52"/>
+    <row r="145" spans="2:47" ht="30.75" customHeight="1">
+      <c r="B145" s="52" t="s">
+        <v>467</v>
+      </c>
       <c r="C145" s="53"/>
       <c r="D145" s="53"/>
       <c r="E145" s="53"/>
@@ -11481,8 +11500,9 @@
       <c r="Y145" s="53"/>
       <c r="Z145" s="54"/>
       <c r="AA145" s="8" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
+        <f t="shared" ca="1" si="54"/>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="AB145" s="2" t="s">
         <v>6</v>
@@ -11534,7 +11554,7 @@
       <c r="Y146" s="53"/>
       <c r="Z146" s="54"/>
       <c r="AA146" s="8" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AB146" s="2" t="s">
@@ -11587,7 +11607,7 @@
       <c r="Y147" s="53"/>
       <c r="Z147" s="54"/>
       <c r="AA147" s="8" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AB147" s="2" t="s">
@@ -11613,34 +11633,34 @@
       <c r="AT147" s="1"/>
       <c r="AU147" s="1"/>
     </row>
-    <row r="148" spans="2:47">
-      <c r="B148" s="55"/>
-      <c r="C148" s="56"/>
-      <c r="D148" s="56"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="56"/>
-      <c r="H148" s="56"/>
-      <c r="I148" s="56"/>
-      <c r="J148" s="56"/>
-      <c r="K148" s="56"/>
-      <c r="L148" s="56"/>
-      <c r="M148" s="56"/>
-      <c r="N148" s="56"/>
-      <c r="O148" s="56"/>
-      <c r="P148" s="56"/>
-      <c r="Q148" s="56"/>
-      <c r="R148" s="56"/>
-      <c r="S148" s="56"/>
-      <c r="T148" s="56"/>
-      <c r="U148" s="56"/>
-      <c r="V148" s="56"/>
-      <c r="W148" s="56"/>
-      <c r="X148" s="56"/>
-      <c r="Y148" s="56"/>
-      <c r="Z148" s="57"/>
+    <row r="148" spans="2:47" ht="15" customHeight="1">
+      <c r="B148" s="52"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="53"/>
+      <c r="H148" s="53"/>
+      <c r="I148" s="53"/>
+      <c r="J148" s="53"/>
+      <c r="K148" s="53"/>
+      <c r="L148" s="53"/>
+      <c r="M148" s="53"/>
+      <c r="N148" s="53"/>
+      <c r="O148" s="53"/>
+      <c r="P148" s="53"/>
+      <c r="Q148" s="53"/>
+      <c r="R148" s="53"/>
+      <c r="S148" s="53"/>
+      <c r="T148" s="53"/>
+      <c r="U148" s="53"/>
+      <c r="V148" s="53"/>
+      <c r="W148" s="53"/>
+      <c r="X148" s="53"/>
+      <c r="Y148" s="53"/>
+      <c r="Z148" s="54"/>
       <c r="AA148" s="8" t="str">
-        <f t="shared" ref="AA148:AA151" ca="1" si="54">IFERROR(OFFSET(A148,0,MATCH("",B148:Z148,-1)),"")</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AB148" s="2" t="s">
@@ -11669,31 +11689,31 @@
     <row r="149" spans="2:47">
       <c r="B149" s="55"/>
       <c r="C149" s="56"/>
-      <c r="D149" s="52"/>
-      <c r="E149" s="53"/>
-      <c r="F149" s="53"/>
-      <c r="G149" s="53"/>
-      <c r="H149" s="53"/>
-      <c r="I149" s="53"/>
-      <c r="J149" s="53"/>
-      <c r="K149" s="53"/>
-      <c r="L149" s="53"/>
-      <c r="M149" s="53"/>
-      <c r="N149" s="53"/>
-      <c r="O149" s="53"/>
-      <c r="P149" s="53"/>
-      <c r="Q149" s="53"/>
-      <c r="R149" s="53"/>
-      <c r="S149" s="53"/>
-      <c r="T149" s="53"/>
-      <c r="U149" s="53"/>
-      <c r="V149" s="53"/>
-      <c r="W149" s="53"/>
-      <c r="X149" s="53"/>
-      <c r="Y149" s="53"/>
-      <c r="Z149" s="54"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="56"/>
+      <c r="H149" s="56"/>
+      <c r="I149" s="56"/>
+      <c r="J149" s="56"/>
+      <c r="K149" s="56"/>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
+      <c r="N149" s="56"/>
+      <c r="O149" s="56"/>
+      <c r="P149" s="56"/>
+      <c r="Q149" s="56"/>
+      <c r="R149" s="56"/>
+      <c r="S149" s="56"/>
+      <c r="T149" s="56"/>
+      <c r="U149" s="56"/>
+      <c r="V149" s="56"/>
+      <c r="W149" s="56"/>
+      <c r="X149" s="56"/>
+      <c r="Y149" s="56"/>
+      <c r="Z149" s="57"/>
       <c r="AA149" s="8" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ref="AA149:AA152" ca="1" si="55">IFERROR(OFFSET(A149,0,MATCH("",B149:Z149,-1)),"")</f>
         <v/>
       </c>
       <c r="AB149" s="2" t="s">
@@ -11722,31 +11742,31 @@
     <row r="150" spans="2:47">
       <c r="B150" s="55"/>
       <c r="C150" s="56"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="56"/>
-      <c r="H150" s="56"/>
-      <c r="I150" s="56"/>
-      <c r="J150" s="56"/>
-      <c r="K150" s="56"/>
-      <c r="L150" s="56"/>
-      <c r="M150" s="56"/>
-      <c r="N150" s="56"/>
-      <c r="O150" s="56"/>
-      <c r="P150" s="56"/>
-      <c r="Q150" s="56"/>
-      <c r="R150" s="56"/>
-      <c r="S150" s="56"/>
-      <c r="T150" s="56"/>
-      <c r="U150" s="56"/>
-      <c r="V150" s="56"/>
-      <c r="W150" s="56"/>
-      <c r="X150" s="56"/>
-      <c r="Y150" s="56"/>
-      <c r="Z150" s="57"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="53"/>
+      <c r="F150" s="53"/>
+      <c r="G150" s="53"/>
+      <c r="H150" s="53"/>
+      <c r="I150" s="53"/>
+      <c r="J150" s="53"/>
+      <c r="K150" s="53"/>
+      <c r="L150" s="53"/>
+      <c r="M150" s="53"/>
+      <c r="N150" s="53"/>
+      <c r="O150" s="53"/>
+      <c r="P150" s="53"/>
+      <c r="Q150" s="53"/>
+      <c r="R150" s="53"/>
+      <c r="S150" s="53"/>
+      <c r="T150" s="53"/>
+      <c r="U150" s="53"/>
+      <c r="V150" s="53"/>
+      <c r="W150" s="53"/>
+      <c r="X150" s="53"/>
+      <c r="Y150" s="53"/>
+      <c r="Z150" s="54"/>
       <c r="AA150" s="8" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AB150" s="2" t="s">
@@ -11799,7 +11819,7 @@
       <c r="Y151" s="56"/>
       <c r="Z151" s="57"/>
       <c r="AA151" s="8" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AB151" s="2" t="s">
@@ -11851,8 +11871,9 @@
       <c r="X152" s="56"/>
       <c r="Y152" s="56"/>
       <c r="Z152" s="57"/>
-      <c r="AA152" s="8" t="s">
-        <v>193</v>
+      <c r="AA152" s="8" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
       </c>
       <c r="AB152" s="2" t="s">
         <v>6</v>
@@ -11904,7 +11925,7 @@
       <c r="Y153" s="56"/>
       <c r="Z153" s="57"/>
       <c r="AA153" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB153" s="2" t="s">
         <v>6</v>
@@ -11956,7 +11977,7 @@
       <c r="Y154" s="56"/>
       <c r="Z154" s="57"/>
       <c r="AA154" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB154" s="2" t="s">
         <v>6</v>
@@ -12008,7 +12029,7 @@
       <c r="Y155" s="56"/>
       <c r="Z155" s="57"/>
       <c r="AA155" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB155" s="2" t="s">
         <v>6</v>
@@ -12060,7 +12081,7 @@
       <c r="Y156" s="56"/>
       <c r="Z156" s="57"/>
       <c r="AA156" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB156" s="2" t="s">
         <v>6</v>
@@ -12112,7 +12133,7 @@
       <c r="Y157" s="56"/>
       <c r="Z157" s="57"/>
       <c r="AA157" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB157" s="2" t="s">
         <v>6</v>
@@ -12164,7 +12185,7 @@
       <c r="Y158" s="56"/>
       <c r="Z158" s="57"/>
       <c r="AA158" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB158" s="2" t="s">
         <v>6</v>
@@ -12216,7 +12237,7 @@
       <c r="Y159" s="56"/>
       <c r="Z159" s="57"/>
       <c r="AA159" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB159" s="2" t="s">
         <v>6</v>
@@ -12268,7 +12289,7 @@
       <c r="Y160" s="56"/>
       <c r="Z160" s="57"/>
       <c r="AA160" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB160" s="2" t="s">
         <v>6</v>
@@ -12320,7 +12341,7 @@
       <c r="Y161" s="56"/>
       <c r="Z161" s="57"/>
       <c r="AA161" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB161" s="2" t="s">
         <v>6</v>
@@ -12372,7 +12393,7 @@
       <c r="Y162" s="56"/>
       <c r="Z162" s="57"/>
       <c r="AA162" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB162" s="2" t="s">
         <v>6</v>
@@ -12424,7 +12445,7 @@
       <c r="Y163" s="56"/>
       <c r="Z163" s="57"/>
       <c r="AA163" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB163" s="2" t="s">
         <v>6</v>
@@ -12476,7 +12497,7 @@
       <c r="Y164" s="56"/>
       <c r="Z164" s="57"/>
       <c r="AA164" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB164" s="2" t="s">
         <v>6</v>
@@ -12501,7 +12522,7 @@
       <c r="AT164" s="1"/>
       <c r="AU164" s="1"/>
     </row>
-    <row r="165" spans="2:47" collapsed="1">
+    <row r="165" spans="2:47">
       <c r="B165" s="55"/>
       <c r="C165" s="56"/>
       <c r="D165" s="56"/>
@@ -12528,7 +12549,7 @@
       <c r="Y165" s="56"/>
       <c r="Z165" s="57"/>
       <c r="AA165" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB165" s="2" t="s">
         <v>6</v>
@@ -12553,8 +12574,8 @@
       <c r="AT165" s="1"/>
       <c r="AU165" s="1"/>
     </row>
-    <row r="166" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B166" s="15"/>
+    <row r="166" spans="2:47" collapsed="1">
+      <c r="B166" s="55"/>
       <c r="C166" s="56"/>
       <c r="D166" s="56"/>
       <c r="E166" s="56"/>
@@ -12580,7 +12601,7 @@
       <c r="Y166" s="56"/>
       <c r="Z166" s="57"/>
       <c r="AA166" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB166" s="2" t="s">
         <v>6</v>
@@ -12605,8 +12626,8 @@
       <c r="AT166" s="1"/>
       <c r="AU166" s="1"/>
     </row>
-    <row r="167" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B167" s="3"/>
+    <row r="167" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B167" s="15"/>
       <c r="C167" s="56"/>
       <c r="D167" s="56"/>
       <c r="E167" s="56"/>
@@ -12632,7 +12653,7 @@
       <c r="Y167" s="56"/>
       <c r="Z167" s="57"/>
       <c r="AA167" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB167" s="2" t="s">
         <v>6</v>
@@ -12657,9 +12678,9 @@
       <c r="AT167" s="1"/>
       <c r="AU167" s="1"/>
     </row>
-    <row r="168" spans="2:47" hidden="1" outlineLevel="2">
+    <row r="168" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
       <c r="B168" s="3"/>
-      <c r="C168" s="4"/>
+      <c r="C168" s="56"/>
       <c r="D168" s="56"/>
       <c r="E168" s="56"/>
       <c r="F168" s="56"/>
@@ -12684,7 +12705,7 @@
       <c r="Y168" s="56"/>
       <c r="Z168" s="57"/>
       <c r="AA168" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB168" s="2" t="s">
         <v>6</v>
@@ -12736,7 +12757,7 @@
       <c r="Y169" s="56"/>
       <c r="Z169" s="57"/>
       <c r="AA169" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB169" s="2" t="s">
         <v>6</v>
@@ -12761,10 +12782,10 @@
       <c r="AT169" s="1"/>
       <c r="AU169" s="1"/>
     </row>
-    <row r="170" spans="2:47" hidden="1" outlineLevel="3">
+    <row r="170" spans="2:47" hidden="1" outlineLevel="2">
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="D170" s="56"/>
       <c r="E170" s="56"/>
       <c r="F170" s="56"/>
       <c r="G170" s="56"/>
@@ -12788,7 +12809,7 @@
       <c r="Y170" s="56"/>
       <c r="Z170" s="57"/>
       <c r="AA170" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB170" s="2" t="s">
         <v>6</v>
@@ -12840,7 +12861,7 @@
       <c r="Y171" s="56"/>
       <c r="Z171" s="57"/>
       <c r="AA171" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB171" s="2" t="s">
         <v>6</v>
@@ -12865,11 +12886,11 @@
       <c r="AT171" s="1"/>
       <c r="AU171" s="1"/>
     </row>
-    <row r="172" spans="2:47" hidden="1" outlineLevel="4">
+    <row r="172" spans="2:47" hidden="1" outlineLevel="3">
       <c r="B172" s="3"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
+      <c r="E172" s="56"/>
       <c r="F172" s="56"/>
       <c r="G172" s="56"/>
       <c r="H172" s="56"/>
@@ -12892,7 +12913,7 @@
       <c r="Y172" s="56"/>
       <c r="Z172" s="57"/>
       <c r="AA172" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB172" s="2" t="s">
         <v>6</v>
@@ -12944,7 +12965,7 @@
       <c r="Y173" s="56"/>
       <c r="Z173" s="57"/>
       <c r="AA173" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB173" s="2" t="s">
         <v>6</v>
@@ -12969,12 +12990,12 @@
       <c r="AT173" s="1"/>
       <c r="AU173" s="1"/>
     </row>
-    <row r="174" spans="2:47" hidden="1" outlineLevel="5">
+    <row r="174" spans="2:47" hidden="1" outlineLevel="4">
       <c r="B174" s="3"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
+      <c r="F174" s="56"/>
       <c r="G174" s="56"/>
       <c r="H174" s="56"/>
       <c r="I174" s="56"/>
@@ -12996,7 +13017,7 @@
       <c r="Y174" s="56"/>
       <c r="Z174" s="57"/>
       <c r="AA174" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB174" s="2" t="s">
         <v>6</v>
@@ -13048,7 +13069,7 @@
       <c r="Y175" s="56"/>
       <c r="Z175" s="57"/>
       <c r="AA175" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB175" s="2" t="s">
         <v>6</v>
@@ -13073,13 +13094,13 @@
       <c r="AT175" s="1"/>
       <c r="AU175" s="1"/>
     </row>
-    <row r="176" spans="2:47" hidden="1" outlineLevel="6">
+    <row r="176" spans="2:47" hidden="1" outlineLevel="5">
       <c r="B176" s="3"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
+      <c r="G176" s="56"/>
       <c r="H176" s="56"/>
       <c r="I176" s="56"/>
       <c r="J176" s="56"/>
@@ -13100,7 +13121,7 @@
       <c r="Y176" s="56"/>
       <c r="Z176" s="57"/>
       <c r="AA176" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB176" s="2" t="s">
         <v>6</v>
@@ -13152,7 +13173,7 @@
       <c r="Y177" s="56"/>
       <c r="Z177" s="57"/>
       <c r="AA177" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB177" s="2" t="s">
         <v>6</v>
@@ -13177,13 +13198,13 @@
       <c r="AT177" s="1"/>
       <c r="AU177" s="1"/>
     </row>
-    <row r="178" spans="2:47">
-      <c r="B178" s="55"/>
-      <c r="C178" s="56"/>
-      <c r="D178" s="56"/>
-      <c r="E178" s="56"/>
-      <c r="F178" s="56"/>
-      <c r="G178" s="56"/>
+    <row r="178" spans="2:47" hidden="1" outlineLevel="6">
+      <c r="B178" s="3"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
       <c r="H178" s="56"/>
       <c r="I178" s="56"/>
       <c r="J178" s="56"/>
@@ -13204,7 +13225,7 @@
       <c r="Y178" s="56"/>
       <c r="Z178" s="57"/>
       <c r="AA178" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB178" s="2" t="s">
         <v>6</v>
@@ -13229,32 +13250,85 @@
       <c r="AT178" s="1"/>
       <c r="AU178" s="1"/>
     </row>
+    <row r="179" spans="2:47">
+      <c r="B179" s="55"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="56"/>
+      <c r="G179" s="56"/>
+      <c r="H179" s="56"/>
+      <c r="I179" s="56"/>
+      <c r="J179" s="56"/>
+      <c r="K179" s="56"/>
+      <c r="L179" s="56"/>
+      <c r="M179" s="56"/>
+      <c r="N179" s="56"/>
+      <c r="O179" s="56"/>
+      <c r="P179" s="56"/>
+      <c r="Q179" s="56"/>
+      <c r="R179" s="56"/>
+      <c r="S179" s="56"/>
+      <c r="T179" s="56"/>
+      <c r="U179" s="56"/>
+      <c r="V179" s="56"/>
+      <c r="W179" s="56"/>
+      <c r="X179" s="56"/>
+      <c r="Y179" s="56"/>
+      <c r="Z179" s="57"/>
+      <c r="AA179" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC179" s="2"/>
+      <c r="AD179" s="2"/>
+      <c r="AE179" s="2"/>
+      <c r="AF179" s="2"/>
+      <c r="AG179" s="2"/>
+      <c r="AH179" s="2"/>
+      <c r="AI179" s="2"/>
+      <c r="AJ179" s="2"/>
+      <c r="AK179" s="2"/>
+      <c r="AL179" s="2"/>
+      <c r="AM179" s="2"/>
+      <c r="AN179" s="2"/>
+      <c r="AO179" s="2"/>
+      <c r="AP179" s="2"/>
+      <c r="AQ179" s="2"/>
+      <c r="AR179" s="2"/>
+      <c r="AS179" s="2"/>
+      <c r="AT179" s="1"/>
+      <c r="AU179" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="179">
-    <mergeCell ref="C131:Z131"/>
-    <mergeCell ref="D132:Z132"/>
+  <mergeCells count="180">
+    <mergeCell ref="C132:Z132"/>
+    <mergeCell ref="D133:Z133"/>
+    <mergeCell ref="D135:Z135"/>
+    <mergeCell ref="D127:Z127"/>
+    <mergeCell ref="D128:Z128"/>
+    <mergeCell ref="D131:Z131"/>
+    <mergeCell ref="D129:Z129"/>
+    <mergeCell ref="D130:Z130"/>
     <mergeCell ref="D134:Z134"/>
-    <mergeCell ref="D126:Z126"/>
-    <mergeCell ref="D127:Z127"/>
-    <mergeCell ref="D130:Z130"/>
-    <mergeCell ref="D128:Z128"/>
-    <mergeCell ref="D129:Z129"/>
-    <mergeCell ref="D133:Z133"/>
-    <mergeCell ref="E106:Z106"/>
     <mergeCell ref="E107:Z107"/>
+    <mergeCell ref="E108:Z108"/>
     <mergeCell ref="C54:Z54"/>
     <mergeCell ref="D55:Z55"/>
     <mergeCell ref="D56:Z56"/>
-    <mergeCell ref="C112:Z112"/>
-    <mergeCell ref="D113:Z113"/>
-    <mergeCell ref="D108:Z108"/>
-    <mergeCell ref="D111:Z111"/>
-    <mergeCell ref="B178:Z178"/>
-    <mergeCell ref="E171:Z171"/>
-    <mergeCell ref="F172:Z172"/>
+    <mergeCell ref="C113:Z113"/>
+    <mergeCell ref="D114:Z114"/>
+    <mergeCell ref="D109:Z109"/>
+    <mergeCell ref="D112:Z112"/>
+    <mergeCell ref="C95:Z95"/>
+    <mergeCell ref="B179:Z179"/>
+    <mergeCell ref="E172:Z172"/>
+    <mergeCell ref="F173:Z173"/>
     <mergeCell ref="C62:Z62"/>
     <mergeCell ref="C66:Z66"/>
-    <mergeCell ref="B139:Z139"/>
+    <mergeCell ref="B140:Z140"/>
     <mergeCell ref="B77:Z77"/>
     <mergeCell ref="C64:Z64"/>
     <mergeCell ref="C65:Z65"/>
@@ -13263,40 +13337,40 @@
     <mergeCell ref="C63:Z63"/>
     <mergeCell ref="B68:Z68"/>
     <mergeCell ref="C70:Z70"/>
-    <mergeCell ref="B101:Z101"/>
-    <mergeCell ref="C102:Z102"/>
-    <mergeCell ref="B103:Z103"/>
-    <mergeCell ref="C104:Z104"/>
-    <mergeCell ref="D105:Z105"/>
+    <mergeCell ref="B102:Z102"/>
+    <mergeCell ref="C103:Z103"/>
+    <mergeCell ref="B104:Z104"/>
+    <mergeCell ref="C105:Z105"/>
+    <mergeCell ref="D106:Z106"/>
     <mergeCell ref="B78:Z78"/>
-    <mergeCell ref="B148:Z148"/>
+    <mergeCell ref="B149:Z149"/>
     <mergeCell ref="D74:Z74"/>
-    <mergeCell ref="C122:Z122"/>
-    <mergeCell ref="D123:Z123"/>
+    <mergeCell ref="C123:Z123"/>
+    <mergeCell ref="D124:Z124"/>
     <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="G174:Z174"/>
     <mergeCell ref="G175:Z175"/>
-    <mergeCell ref="H176:Z176"/>
+    <mergeCell ref="G176:Z176"/>
     <mergeCell ref="H177:Z177"/>
-    <mergeCell ref="F173:Z173"/>
+    <mergeCell ref="H178:Z178"/>
+    <mergeCell ref="F174:Z174"/>
     <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="D169:Z169"/>
+    <mergeCell ref="D170:Z170"/>
     <mergeCell ref="B2:Z2"/>
     <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="B140:Z140"/>
-    <mergeCell ref="E170:Z170"/>
-    <mergeCell ref="B165:Z165"/>
-    <mergeCell ref="C166:Z166"/>
+    <mergeCell ref="B141:Z141"/>
+    <mergeCell ref="E171:Z171"/>
+    <mergeCell ref="B166:Z166"/>
     <mergeCell ref="C167:Z167"/>
-    <mergeCell ref="D168:Z168"/>
+    <mergeCell ref="C168:Z168"/>
+    <mergeCell ref="D169:Z169"/>
     <mergeCell ref="D5:Z5"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="D12:Z12"/>
     <mergeCell ref="D28:Z28"/>
     <mergeCell ref="D7:Z7"/>
-    <mergeCell ref="C120:Z120"/>
     <mergeCell ref="C121:Z121"/>
-    <mergeCell ref="D110:Z110"/>
+    <mergeCell ref="C122:Z122"/>
+    <mergeCell ref="D111:Z111"/>
     <mergeCell ref="D4:Z4"/>
     <mergeCell ref="B58:Z58"/>
     <mergeCell ref="C59:Z59"/>
@@ -13363,38 +13437,37 @@
     <mergeCell ref="D52:Z52"/>
     <mergeCell ref="E50:Z50"/>
     <mergeCell ref="D90:Z90"/>
-    <mergeCell ref="B135:Z135"/>
-    <mergeCell ref="C136:Z136"/>
+    <mergeCell ref="B136:Z136"/>
     <mergeCell ref="C137:Z137"/>
+    <mergeCell ref="C138:Z138"/>
     <mergeCell ref="D87:Z87"/>
-    <mergeCell ref="B149:Z149"/>
-    <mergeCell ref="B145:Z145"/>
+    <mergeCell ref="B150:Z150"/>
     <mergeCell ref="B146:Z146"/>
     <mergeCell ref="B147:Z147"/>
-    <mergeCell ref="B138:Z138"/>
-    <mergeCell ref="B141:Z141"/>
+    <mergeCell ref="B148:Z148"/>
+    <mergeCell ref="B139:Z139"/>
+    <mergeCell ref="B142:Z142"/>
     <mergeCell ref="B92:Z92"/>
-    <mergeCell ref="B142:Z142"/>
     <mergeCell ref="B143:Z143"/>
     <mergeCell ref="B144:Z144"/>
+    <mergeCell ref="B145:Z145"/>
     <mergeCell ref="C93:Z93"/>
     <mergeCell ref="C94:Z94"/>
-    <mergeCell ref="B95:Z95"/>
-    <mergeCell ref="C96:Z96"/>
+    <mergeCell ref="B96:Z96"/>
+    <mergeCell ref="C97:Z97"/>
     <mergeCell ref="D91:Z91"/>
-    <mergeCell ref="B97:Z97"/>
-    <mergeCell ref="C98:Z98"/>
-    <mergeCell ref="D99:Z99"/>
+    <mergeCell ref="B98:Z98"/>
+    <mergeCell ref="C99:Z99"/>
     <mergeCell ref="D100:Z100"/>
-    <mergeCell ref="D109:Z109"/>
+    <mergeCell ref="D101:Z101"/>
+    <mergeCell ref="D110:Z110"/>
+    <mergeCell ref="B165:Z165"/>
+    <mergeCell ref="B163:Z163"/>
     <mergeCell ref="B164:Z164"/>
-    <mergeCell ref="B162:Z162"/>
-    <mergeCell ref="B163:Z163"/>
-    <mergeCell ref="B158:Z158"/>
     <mergeCell ref="B159:Z159"/>
     <mergeCell ref="B160:Z160"/>
     <mergeCell ref="B161:Z161"/>
-    <mergeCell ref="B150:Z150"/>
+    <mergeCell ref="B162:Z162"/>
     <mergeCell ref="B151:Z151"/>
     <mergeCell ref="B152:Z152"/>
     <mergeCell ref="B153:Z153"/>
@@ -13402,14 +13475,15 @@
     <mergeCell ref="B155:Z155"/>
     <mergeCell ref="B156:Z156"/>
     <mergeCell ref="B157:Z157"/>
-    <mergeCell ref="B124:Z124"/>
-    <mergeCell ref="C125:Z125"/>
-    <mergeCell ref="B114:Z114"/>
-    <mergeCell ref="C115:Z115"/>
-    <mergeCell ref="D116:Z116"/>
-    <mergeCell ref="B117:Z117"/>
-    <mergeCell ref="C118:Z118"/>
-    <mergeCell ref="D119:Z119"/>
+    <mergeCell ref="B158:Z158"/>
+    <mergeCell ref="B125:Z125"/>
+    <mergeCell ref="C126:Z126"/>
+    <mergeCell ref="B115:Z115"/>
+    <mergeCell ref="C116:Z116"/>
+    <mergeCell ref="D117:Z117"/>
+    <mergeCell ref="B118:Z118"/>
+    <mergeCell ref="C119:Z119"/>
+    <mergeCell ref="D120:Z120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13427,7 +13501,7 @@
   </sheetPr>
   <dimension ref="B1:AS70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B38" sqref="B38:Z38"/>
     </sheetView>
   </sheetViews>
@@ -13598,13 +13672,13 @@
         <v>14</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
@@ -13768,7 +13842,7 @@
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="2:43" ht="60">
+    <row r="7" spans="2:43" ht="60" collapsed="1">
       <c r="B7" s="55" t="s">
         <v>53</v>
       </c>
@@ -13820,10 +13894,10 @@
         <v>54</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="2:43" ht="30" outlineLevel="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43" ht="30" hidden="1" outlineLevel="1">
       <c r="B8" s="12"/>
       <c r="C8" s="52" t="str">
         <f>"gsutil"&amp;IF(ISBLANK(AM8),""," -h "&amp;"'"&amp;SUBSTITUTE(AM8," ","' -h '")&amp;"'")&amp;IF(ISBLANK(AK8),""," -a "&amp;AK8)&amp;" cp "&amp;IF(AO8,"-v ","")&amp;IF(ISBLANK(AC8),"","gs://"&amp;AC8&amp;"/")&amp;AE8&amp;" "&amp;IF(ISBLANK(AG8),"","gs://"&amp;AG8&amp;"/")&amp;AI8</f>
@@ -13864,28 +13938,28 @@
         <v>56</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AH8" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AK8" s="5"/>
       <c r="AL8" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AM8" s="5"/>
       <c r="AN8" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AO8" s="5" t="b">
         <v>1</v>
@@ -13895,7 +13969,7 @@
       </c>
       <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="2:43" outlineLevel="1">
+    <row r="9" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B9" s="12"/>
       <c r="C9" s="56" t="str">
         <f>B$7&amp;" -r "&amp;IF(ISBLANK(AC9),"","gs://"&amp;AC9&amp;"/")&amp;AE9&amp;" "&amp;IF(ISBLANK(AG9),"","gs://"&amp;AG9&amp;"/")&amp;AI9</f>
@@ -13961,7 +14035,7 @@
       </c>
       <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="2:43">
+    <row r="10" spans="2:43" collapsed="1">
       <c r="B10" s="55" t="s">
         <v>65</v>
       </c>
@@ -14014,7 +14088,7 @@
       </c>
       <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="2:43" outlineLevel="1">
+    <row r="11" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B11" s="12"/>
       <c r="C11" s="56" t="str">
         <f>B$10&amp;" gs://"&amp;AC11&amp;"/"&amp;AE11</f>
@@ -14074,7 +14148,7 @@
       </c>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="2:43" outlineLevel="1">
+    <row r="12" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B12" s="12"/>
       <c r="C12" s="56" t="str">
         <f>B$10&amp;" -l gs://"&amp;AC12&amp;"/"&amp;AE12</f>
@@ -14134,7 +14208,7 @@
       </c>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="2:43" ht="30" outlineLevel="1">
+    <row r="13" spans="2:43" ht="30" hidden="1" outlineLevel="1">
       <c r="B13" s="50"/>
       <c r="C13" s="56" t="str">
         <f>B$10&amp;" -a gs://"&amp;AC13&amp;"/"&amp;AE13</f>
@@ -14171,13 +14245,13 @@
         <v>14</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -14190,7 +14264,7 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AQ13" s="1"/>
     </row>
@@ -14504,13 +14578,13 @@
         <v>14</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -14624,13 +14698,13 @@
         <v>14</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -14643,7 +14717,7 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AQ21" s="1"/>
     </row>
@@ -14681,22 +14755,22 @@
         <v>gsutil acl set private gs://$BUCKET_NAME_1/setup.html</v>
       </c>
       <c r="AB22" s="21" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
@@ -14709,13 +14783,13 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="2:45">
+    <row r="23" spans="2:45" collapsed="1">
       <c r="B23" s="55" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
@@ -14762,11 +14836,11 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AQ23" s="1"/>
     </row>
-    <row r="24" spans="2:45" ht="30" outlineLevel="1">
+    <row r="24" spans="2:45" ht="30" hidden="1" outlineLevel="1">
       <c r="B24" s="50"/>
       <c r="C24" s="56" t="str">
         <f>B$23&amp;" -k gs://"&amp;AC24&amp;"/"&amp;AE24</f>
@@ -14803,13 +14877,13 @@
         <v>14</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AD24" s="21" t="s">
         <v>66</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
@@ -14822,13 +14896,13 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AQ24" s="1"/>
     </row>
     <row r="25" spans="2:45" collapsed="1">
       <c r="B25" s="55" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C25" s="56"/>
       <c r="D25" s="56"/>
@@ -14875,7 +14949,7 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AQ25" s="1"/>
     </row>
@@ -14916,7 +14990,7 @@
         <v>14</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -14931,7 +15005,7 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AQ26" s="1"/>
     </row>
@@ -14969,16 +15043,16 @@
         <v>gsutil lifecycle set life.json gs://$BUCKET_NAME_1</v>
       </c>
       <c r="AB27" s="21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>14</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
@@ -14991,13 +15065,13 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="2:45">
+    <row r="28" spans="2:45" collapsed="1">
       <c r="B28" s="55" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
@@ -15044,11 +15118,11 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="2:45" ht="30" outlineLevel="1">
+    <row r="29" spans="2:45" ht="30" hidden="1" outlineLevel="1">
       <c r="B29" s="50"/>
       <c r="C29" s="56" t="str">
         <f>B$28&amp;" get gs://"&amp;AC29</f>
@@ -15085,7 +15159,7 @@
         <v>14</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -15100,11 +15174,11 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
-    <row r="30" spans="2:45" ht="30" outlineLevel="1">
+    <row r="30" spans="2:45" ht="30" hidden="1" outlineLevel="1">
       <c r="B30" s="50"/>
       <c r="C30" s="56" t="str">
         <f>B$28&amp;" set "&amp;IF(AC30,"on","off")&amp;" gs://"&amp;AE30</f>
@@ -15138,7 +15212,7 @@
         <v>gsutil versioning set on gs://$BUCKET_NAME_1</v>
       </c>
       <c r="AB30" s="21" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AC30" s="5" t="b">
         <v>1</v>
@@ -15147,7 +15221,7 @@
         <v>14</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -15160,13 +15234,13 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="2:45">
+    <row r="31" spans="2:45" collapsed="1">
       <c r="B31" s="55" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
@@ -15213,11 +15287,11 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="2:45" ht="30" outlineLevel="1">
+    <row r="32" spans="2:45" ht="30" hidden="1" outlineLevel="1">
       <c r="B32" s="50"/>
       <c r="C32" s="56" t="str">
         <f>B$31&amp;" "&amp;IF(ISBLANK(AC32),"","gs://"&amp;AC32&amp;"/")&amp;AE32&amp;" "&amp;IF(ISBLANK(AG32),"","gs://"&amp;AG32&amp;"/")&amp;AI32</f>
@@ -15258,19 +15332,19 @@
         <v>56</v>
       </c>
       <c r="AE32" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AF32" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AG32" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AH32" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AI32" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
@@ -15279,11 +15353,11 @@
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AQ32" s="1"/>
     </row>
-    <row r="33" spans="2:43" ht="30" outlineLevel="1">
+    <row r="33" spans="2:43" ht="30" hidden="1" outlineLevel="1">
       <c r="B33" s="50"/>
       <c r="C33" s="56" t="str">
         <f>B$31&amp;" -r "&amp;IF(ISBLANK(AC33),"","gs://"&amp;AC33&amp;"/")&amp;AE33&amp;" "&amp;IF(ISBLANK(AG33),"","gs://"&amp;AG33&amp;"/")&amp;AI33</f>
@@ -15324,19 +15398,19 @@
         <v>56</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AF33" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AG33" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AH33" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
@@ -15345,13 +15419,13 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AQ33" s="1"/>
     </row>
-    <row r="34" spans="2:43" s="44" customFormat="1">
+    <row r="34" spans="2:43" s="44" customFormat="1" collapsed="1">
       <c r="B34" s="55" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
@@ -15398,11 +15472,11 @@
       <c r="AN34" s="22"/>
       <c r="AO34" s="22"/>
       <c r="AP34" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AQ34" s="45"/>
     </row>
-    <row r="35" spans="2:43" outlineLevel="1">
+    <row r="35" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B35" s="50"/>
       <c r="C35" s="56" t="str">
         <f>B$34&amp;" -n"</f>
@@ -15452,7 +15526,7 @@
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
       <c r="AP35" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AQ35" s="1"/>
     </row>
@@ -15493,13 +15567,13 @@
         <v>14</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AD36" s="21" t="s">
         <v>66</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -15512,7 +15586,7 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
       <c r="AP36" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AQ36" s="1"/>
     </row>
@@ -15567,7 +15641,7 @@
     </row>
     <row r="38" spans="2:43" collapsed="1">
       <c r="B38" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
@@ -16676,7 +16750,7 @@
         <v/>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
@@ -17228,19 +17302,19 @@
         <v>kubectl run nginx --image=nginx:1.10.0</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>95</v>
       </c>
       <c r="AD2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="2"/>
@@ -17248,7 +17322,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AM2" s="1"/>
     </row>
@@ -17286,25 +17360,25 @@
         <v>kubectl expose deployment nginx --type LoadBalancer --port 80</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD3" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>95</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AI3" s="5">
         <v>80</v>
@@ -17312,10 +17386,10 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:39">
@@ -17352,29 +17426,29 @@
         <v>kubectl get services</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD4" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG4" s="5"/>
       <c r="AH4" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM4" s="1"/>
     </row>
@@ -17424,7 +17498,7 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM5" s="1"/>
     </row>
@@ -17464,10 +17538,10 @@
 </v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -17478,7 +17552,7 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AM6" s="1"/>
     </row>
@@ -17564,16 +17638,16 @@
         <v>kubectl create secret generic tls-certs --from-file tls/</v>
       </c>
       <c r="AB8" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AD8" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AD8" s="21" t="s">
-        <v>279</v>
-      </c>
       <c r="AE8" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -17582,7 +17656,7 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM8" s="1"/>
     </row>
@@ -17713,16 +17787,16 @@
         <v>kubectl create configmap nginx-proxy-conf --from-file nginx/proxy.conf</v>
       </c>
       <c r="AB11" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AD11" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE11" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="AD11" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -17731,7 +17805,7 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM11" s="1"/>
     </row>
@@ -17781,7 +17855,7 @@
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM12" s="1"/>
     </row>
@@ -17819,31 +17893,31 @@
         <v>kubectl create clusterrolebinding tiller-admin-binding --clusterrole=cluster-admin --serviceaccount=kube-system:tiller</v>
       </c>
       <c r="AB13" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD13" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE13" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AC13" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD13" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE13" s="5" t="s">
+      <c r="AF13" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AM13" s="1"/>
     </row>
@@ -17893,7 +17967,7 @@
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AM14" s="1"/>
     </row>
@@ -17931,16 +18005,16 @@
         <v>kubectl create serviceaccount tiller --namespace kube-system</v>
       </c>
       <c r="AB15" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD15" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="AC15" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AE15" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -17999,7 +18073,7 @@
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AM16" s="1"/>
     </row>
@@ -18037,10 +18111,10 @@
         <v>kubectl create ns production</v>
       </c>
       <c r="AB17" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC17" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -18134,16 +18208,16 @@
         <v>kubectl describe services monolith</v>
       </c>
       <c r="AB19" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD19" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -18152,7 +18226,7 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AM19" s="1"/>
     </row>
@@ -18190,19 +18264,19 @@
         <v>kubectl port-forward monolith 10080:80</v>
       </c>
       <c r="AB20" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AC20" s="5" t="s">
+      <c r="AD20" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="AE20" s="5">
         <v>10080</v>
       </c>
       <c r="AF20" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG20" s="5">
         <v>80</v>
@@ -18212,7 +18286,7 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AM20" s="1"/>
     </row>
@@ -18250,13 +18324,13 @@
         <v>kubectl logs -f monolith</v>
       </c>
       <c r="AB21" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC21" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AC21" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="AD21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AE21" s="5" t="b">
         <v>1</v>
@@ -18268,7 +18342,7 @@
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM21" s="1"/>
     </row>
@@ -18318,7 +18392,7 @@
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM22" s="1"/>
     </row>
@@ -18356,27 +18430,27 @@
         <v>kubectl exec monolith -- ls</v>
       </c>
       <c r="AB23" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AC23" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="AD23" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM23" s="1"/>
     </row>
@@ -18414,13 +18488,13 @@
         <v>kubectl exec monolith --stdin --tty /bin/sh</v>
       </c>
       <c r="AB24" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC24" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AC24" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="AD24" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE24" s="5"/>
       <c r="AF24" s="2"/>
@@ -18430,7 +18504,7 @@
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM24" s="1"/>
     </row>
@@ -18468,29 +18542,29 @@
         <v>kubectl label pods secure-monolith 'secure=enabled'</v>
       </c>
       <c r="AB25" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE25" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF25" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG25" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="AF25" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
       <c r="AL25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM25" s="1"/>
     </row>
@@ -18528,13 +18602,13 @@
         <v>kubectl explain deployment.metadata.name</v>
       </c>
       <c r="AB26" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="2"/>
@@ -18544,7 +18618,7 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AM26" s="1"/>
     </row>
@@ -18594,7 +18668,7 @@
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
       <c r="AL27" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM27" s="1"/>
     </row>
@@ -18632,31 +18706,31 @@
         <v>kubectl scale deployment nginx --replicas=3</v>
       </c>
       <c r="AB28" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC28" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD28" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="AD28" s="21" t="s">
-        <v>256</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>95</v>
       </c>
       <c r="AF28" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG28" s="5">
         <v>3</v>
       </c>
       <c r="AH28" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AM28" s="1"/>
     </row>
@@ -18739,16 +18813,16 @@
         <v>kubectl edit deployment hello</v>
       </c>
       <c r="AB30" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC30" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD30" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="AD30" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="AE30" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -18757,7 +18831,7 @@
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM30" s="1"/>
     </row>
@@ -18807,7 +18881,7 @@
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM31" s="1"/>
     </row>
@@ -18845,16 +18919,16 @@
         <v>kubectl rollout history deployment/hello</v>
       </c>
       <c r="AB32" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC32" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD32" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="AD32" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="AE32" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
@@ -18863,7 +18937,7 @@
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM32" s="1"/>
     </row>
@@ -18901,16 +18975,16 @@
         <v>kubectl rollout pause deployment/hello</v>
       </c>
       <c r="AB33" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC33" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD33" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="AD33" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="AE33" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
@@ -18919,10 +18993,10 @@
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
       <c r="AL33" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM33" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="AM33" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="34" spans="2:39" hidden="1" outlineLevel="1">
@@ -18959,16 +19033,16 @@
         <v>kubectl rollout resume deployment/hello</v>
       </c>
       <c r="AB34" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC34" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD34" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="AD34" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="AE34" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
@@ -18977,10 +19051,10 @@
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="2:39" hidden="1" outlineLevel="1">
@@ -19017,16 +19091,16 @@
         <v>kubectl rollout status deployment/hello</v>
       </c>
       <c r="AB35" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD35" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="AD35" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="AE35" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -19035,7 +19109,7 @@
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AM35" s="1"/>
     </row>
@@ -19073,16 +19147,16 @@
         <v>kubectl rollout undo deployment/hello</v>
       </c>
       <c r="AB36" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC36" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD36" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="AD36" s="21" t="s">
-        <v>256</v>
-      </c>
       <c r="AE36" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -19091,7 +19165,7 @@
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AM36" s="1"/>
     </row>
@@ -19177,16 +19251,16 @@
         <v>kubectl apply -f k8s/production -n production</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
@@ -19195,13 +19269,13 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM38" s="1"/>
     </row>
     <row r="39" spans="2:39">
       <c r="B39" s="55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
@@ -19242,13 +19316,13 @@
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AM39" s="1"/>
     </row>
     <row r="40" spans="2:39">
       <c r="B40" s="55" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
@@ -19289,7 +19363,7 @@
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AM40" s="1"/>
     </row>
@@ -21040,10 +21114,10 @@
         <v>cbt createtable my-table</v>
       </c>
       <c r="AB2" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -21054,7 +21128,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AM2" s="1"/>
     </row>
@@ -21092,10 +21166,10 @@
         <v>cbt ls my-table</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -21106,7 +21180,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM3" s="1"/>
     </row>
@@ -21144,16 +21218,16 @@
         <v>cbt createfamily my-table cf1</v>
       </c>
       <c r="AB4" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD4" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="AC4" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AE4" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -21162,7 +21236,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AM4" s="1"/>
     </row>
@@ -21200,37 +21274,37 @@
         <v>cbt set my-table r1 cf1:c1=test-value</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD5" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE5" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AG5" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH5" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="AG5" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AI5" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AJ5" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="AJ5" s="21" t="s">
+      <c r="AK5" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="AM5" s="1"/>
     </row>
@@ -21268,10 +21342,10 @@
         <v>cbt read my-table</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -21282,7 +21356,7 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AM6" s="1"/>
     </row>
@@ -21320,10 +21394,10 @@
         <v>cbt deletetable my-table</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -21334,7 +21408,7 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AM7" s="1"/>
     </row>
@@ -23085,7 +23159,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AK2" s="1"/>
     </row>
@@ -23123,10 +23197,10 @@
         <v>bq mk rtda</v>
       </c>
       <c r="AB3" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -23135,7 +23209,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AK3" s="1"/>
     </row>
@@ -23173,27 +23247,27 @@
         <v>bq mk -t rtda.tweets kube-redis-bq/bigquery-setup/schema.json</v>
       </c>
       <c r="AB4" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE4" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="AC4" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AG4" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AK4" s="1"/>
     </row>
@@ -23231,10 +23305,10 @@
         <v>bq ls $DEVSHELL_PROJECT_ID:</v>
       </c>
       <c r="AB5" s="22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -23243,10 +23317,10 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="6" spans="2:37" ht="42" customHeight="1">
@@ -23283,10 +23357,10 @@
         <v>bq query "select string_field_10 as request, count(*) as requestcount from logdata.accesslog group by request order by requestcount desc"</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -23295,7 +23369,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AK6" s="1"/>
     </row>
@@ -24784,31 +24858,31 @@
         <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:encrypt" -d "{\"plaintext\":\"$PLAINTEXT\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type: application/json"</v>
       </c>
       <c r="AB8" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AD8" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH8" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD8" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF8" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH8" s="21" t="s">
+      <c r="AI8" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="AJ8" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK8" s="1"/>
     </row>
@@ -24846,37 +24920,37 @@
         <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:decrypt" -d "{\"ciphertext\":\"$(cat 1.encrypted)\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type:  application/json"</v>
       </c>
       <c r="AB9" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC9" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="AD9" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH9" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI9" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="AJ9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="2:37">
       <c r="B10" s="55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -24919,7 +24993,7 @@
     </row>
     <row r="11" spans="2:37">
       <c r="B11" s="55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -24962,7 +25036,7 @@
     </row>
     <row r="12" spans="2:37">
       <c r="B12" s="55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -25005,7 +25079,7 @@
     </row>
     <row r="13" spans="2:37" ht="32.25" customHeight="1">
       <c r="B13" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -26604,19 +26678,19 @@
         <v/>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="1"/>

--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7230" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="gcloud cheatsheet" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="bq cheatsheet" sheetId="12" r:id="rId5"/>
     <sheet name="misc cheatsheet" sheetId="8" r:id="rId6"/>
     <sheet name="template cheatsheet" sheetId="9" r:id="rId7"/>
+    <sheet name="deployment-manager.yaml" sheetId="13" r:id="rId8"/>
+    <sheet name="deployment-manager.jinja" sheetId="14" r:id="rId9"/>
+    <sheet name="deployment-manager.jinja.schema" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -568,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="743">
   <si>
     <t>Details</t>
   </si>
@@ -1977,9 +1980,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>$LOCATION</t>
-  </si>
-  <si>
     <t>$MY_ZONE</t>
   </si>
   <si>
@@ -2088,9 +2088,6 @@
     <t>Print version URL?</t>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>Lists all versions of files in Google Cloud Storage buckets.</t>
   </si>
   <si>
@@ -2394,12 +2391,6 @@
     <t>As user:</t>
   </si>
   <si>
-    <t>cloud-training</t>
-  </si>
-  <si>
-    <t>archinfra/dm*</t>
-  </si>
-  <si>
     <t>ingress</t>
   </si>
   <si>
@@ -2448,9 +2439,6 @@
     <t>f1-micro</t>
   </si>
   <si>
-    <t>appserver.yaml</t>
-  </si>
-  <si>
     <t>Read Google Compute Engine virtual machine types.</t>
   </si>
   <si>
@@ -2473,6 +2461,366 @@
   </si>
   <si>
     <t>Print URI only?</t>
+  </si>
+  <si>
+    <t>qwiklabs-gcp-5b57f7da0359cd75</t>
+  </si>
+  <si>
+    <t>echo-service</t>
+  </si>
+  <si>
+    <t>config.yaml</t>
+  </si>
+  <si>
+    <t>imports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - path: instance.jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - path: install-echo.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name: startup-script</t>
+  </si>
+  <si>
+    <t>resources:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - name: instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    type: instance.jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    properties:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      zone: europe-west1-c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      tags: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      metadata:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - key: echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          value: https://storage.googleapis.com/qwiklabs-gcp-5b57f7da0359cd75/echo-0.0.1.tar.gz</t>
+  </si>
+  <si>
+    <t>{#</t>
+  </si>
+  <si>
+    <t>Copyright 2017 Google Inc.</t>
+  </si>
+  <si>
+    <t>Licensed under the Apache License, Version 2.0 (the "License");</t>
+  </si>
+  <si>
+    <t>you may not use this file except in compliance with the License.</t>
+  </si>
+  <si>
+    <t>You may obtain a copy of the License at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    http://www.apache.org/licenses/LICENSE-2.0</t>
+  </si>
+  <si>
+    <t>Unless required by applicable law or agreed to in writing, software</t>
+  </si>
+  <si>
+    <t>distributed under the License is distributed on an "AS IS" BASIS,</t>
+  </si>
+  <si>
+    <t>WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
+  </si>
+  <si>
+    <t>See the License for the specific language governing permissions and</t>
+  </si>
+  <si>
+    <t>limitations under the License.</t>
+  </si>
+  <si>
+    <t>#}</t>
+  </si>
+  <si>
+    <t>- name: {{ env['deployment'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: compute.v1.instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  properties:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    zone: {{ properties['zone'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    machineType: zones/{{ properties['zone'] }}/machineTypes/{{ properties['machineType'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    metadata:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      items:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - key: deployment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          value: {{ env['deployment'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {% if imports['startup-script'] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - key: startup-script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          value: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            {{ imports['startup-script']|indent(12) }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {% endif %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {% for i in properties["metadata"] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - {{ i }} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {% endfor %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    disks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - deviceName: boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        boot: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        autoDelete: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        initializeParams:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          diskSizeGb: 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          sourceImage: {{ properties['sourceImage'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    networkInterfaces:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - name: {{ ID }}-eth0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        network: {{ properties['network'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {% if properties['subnet'] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        subnetwork: {{ properties['subnet'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        accessConfigs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - name: eth0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            type: ONE_TO_ONE_NAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    serviceAccounts: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - email: {{ properties['serviceAccount'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        scopes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - 'https://www.googleapis.com/auth/cloud-platform'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {% if properties['tags'] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tags:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {% for i in properties["tags"] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - {{ i }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {% endif %}</t>
+  </si>
+  <si>
+    <t>outputs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - name: url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    value: http://$(ref.{{ env['deployment'] }}.networkInterfaces[0].accessConfigs[0].natIP)</t>
+  </si>
+  <si>
+    <t>info:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  title: Test instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  author: cloud-training@google.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  description: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Creates a test instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  version: 0.1</t>
+  </si>
+  <si>
+    <t>required:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - zone</t>
+  </si>
+  <si>
+    <t>properties:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  zone:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    type: string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description: i.e. us-east1-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  network:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description: Network URL i.e. projects/project/global/networks/network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default: global/networks/default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  subnet:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description: Subnet URL i.e regions/region/subnetworks/subnetwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sourceImage: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description: Image uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default: projects/ubuntu-os-cloud/global/images/family/ubuntu-1404-lts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  machineType:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default: n1-standard-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  serviceAccount:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description: Service account with permissions to label resources i.e. Project editor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default: default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tags:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    type: array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description: Array of tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    items:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      type: string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  metadata:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    type: array </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description: Array of metadata key pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      type: object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      required:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      properties:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        key:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          type: string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        value: </t>
+  </si>
+  <si>
+    <t>echo-0.0.1.tar.gz</t>
+  </si>
+  <si>
+    <t>$MY_BUCKET</t>
+  </si>
+  <si>
+    <t>public-read</t>
+  </si>
+  <si>
+    <t>Content-Type:application/gzip Cache-Control:private</t>
+  </si>
+  <si>
+    <t>Lists even more details of files and directories in Google Cloud Storage buckets.</t>
   </si>
 </sst>
 </file>
@@ -3160,32 +3508,30 @@
   </sheetPr>
   <dimension ref="B1:AU203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Z2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="24.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="14.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="19.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="15.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="43" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="13.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="42.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="10.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="14.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="9.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="16.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="12.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="10.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="43" max="43" width="12.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="44" max="44" width="8.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="13.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="20.5703125" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="24.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="14.140625" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="19.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="15.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="43" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="13.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="42.140625" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="10.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="9.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="12.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="10.140625" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="12.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="8.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="13.28515625" customWidth="1" outlineLevel="1"/>
     <col min="46" max="46" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="46" customWidth="1"/>
     <col min="48" max="48" width="68.140625" customWidth="1"/>
@@ -3251,7 +3597,7 @@
     </row>
     <row r="2" spans="2:47">
       <c r="B2" s="61" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -3302,7 +3648,7 @@
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AU2" s="1"/>
     </row>
@@ -3417,7 +3763,7 @@
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AU4" s="1"/>
     </row>
@@ -3475,7 +3821,7 @@
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
       <c r="AT5" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AU5" s="1"/>
     </row>
@@ -3516,7 +3862,7 @@
         <v>160</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AD6" s="22" t="s">
         <v>161</v>
@@ -3541,7 +3887,7 @@
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AU6" s="1"/>
     </row>
@@ -3582,19 +3928,19 @@
         <v>160</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
@@ -3609,7 +3955,7 @@
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AU7" s="1"/>
     </row>
@@ -3710,35 +4056,35 @@
         <v>101</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AD9" s="21" t="s">
         <v>130</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AH9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AL9" s="2" t="s">
         <v>173</v>
       </c>
       <c r="AM9" s="5"/>
       <c r="AN9" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AO9" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
@@ -3786,25 +4132,25 @@
         <v>101</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AD10" s="21" t="s">
         <v>168</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AF10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AH10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>165</v>
@@ -4127,7 +4473,7 @@
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AU15" s="1"/>
     </row>
@@ -4168,13 +4514,13 @@
         <v>112</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AD16" s="21" t="s">
         <v>124</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AF16" s="2" t="s">
         <v>141</v>
@@ -4187,10 +4533,10 @@
       </c>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -4201,7 +4547,7 @@
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AU16" s="1"/>
     </row>
@@ -4377,7 +4723,7 @@
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AU19" s="1"/>
     </row>
@@ -4435,7 +4781,7 @@
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AU20" s="1"/>
     </row>
@@ -4476,13 +4822,13 @@
         <v>112</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AD21" s="21" t="s">
         <v>89</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>97</v>
@@ -4494,13 +4840,13 @@
         <v>79</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AJ21" s="2" t="s">
         <v>175</v>
       </c>
       <c r="AK21" s="57" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
@@ -4626,13 +4972,13 @@
         <v>112</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AD23" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>97</v>
@@ -4650,13 +4996,13 @@
         <v>175</v>
       </c>
       <c r="AK23" s="57" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AL23" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AM23" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
@@ -4665,7 +5011,7 @@
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AU23" s="1"/>
     </row>
@@ -4706,13 +5052,13 @@
         <v>112</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AD24" s="21" t="s">
         <v>152</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AF24" s="2" t="s">
         <v>97</v>
@@ -4724,13 +5070,13 @@
         <v>79</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AL24" s="2" t="s">
         <v>141</v>
@@ -4739,7 +5085,7 @@
         <v>461</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AO24" s="57" t="s">
         <v>461</v>
@@ -4749,7 +5095,7 @@
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AU24" s="1"/>
     </row>
@@ -4899,13 +5245,13 @@
         <v>129</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>172</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AF27" s="2" t="s">
         <v>236</v>
@@ -4984,7 +5330,7 @@
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AU28" s="1"/>
     </row>
@@ -5022,7 +5368,7 @@
         <v>gcloud compute images list --uri</v>
       </c>
       <c r="AB29" s="21" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AC29" s="5" t="b">
         <v>1</v>
@@ -5044,7 +5390,7 @@
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
       <c r="AT29" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AU29" s="1"/>
     </row>
@@ -5399,13 +5745,13 @@
         <v>92</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AD35" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -5463,19 +5809,19 @@
         <v>92</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>163</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AF36" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
@@ -5857,7 +6203,7 @@
         <v>9</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AD42" s="2" t="s">
         <v>291</v>
@@ -5867,7 +6213,7 @@
         <v>11</v>
       </c>
       <c r="AG42" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AH42" s="2" t="s">
         <v>139</v>
@@ -5883,13 +6229,13 @@
         <v>126</v>
       </c>
       <c r="AM42" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AN42" s="2" t="s">
         <v>158</v>
       </c>
       <c r="AO42" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AP42" s="2" t="s">
         <v>159</v>
@@ -6156,7 +6502,7 @@
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
       <c r="AT46" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AU46" s="1"/>
     </row>
@@ -6214,7 +6560,7 @@
       <c r="AR47" s="2"/>
       <c r="AS47" s="2"/>
       <c r="AT47" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AU47" s="1"/>
     </row>
@@ -6252,10 +6598,10 @@
         <v>gcloud compute machine-types describe f1-micro --zone europe-west1-b</v>
       </c>
       <c r="AB48" s="21" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AC48" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AD48" s="22" t="s">
         <v>11</v>
@@ -6278,7 +6624,7 @@
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
       <c r="AT48" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AU48" s="1"/>
     </row>
@@ -6460,7 +6806,7 @@
       <c r="AR51" s="2"/>
       <c r="AS51" s="2"/>
       <c r="AT51" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AU51" s="1"/>
     </row>
@@ -6634,7 +6980,7 @@
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
       <c r="AT54" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AU54" s="1"/>
     </row>
@@ -6692,7 +7038,7 @@
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
       <c r="AT55" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AU55" s="1"/>
     </row>
@@ -6750,7 +7096,7 @@
       <c r="AR56" s="2"/>
       <c r="AS56" s="2"/>
       <c r="AT56" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AU56" s="1"/>
     </row>
@@ -6808,7 +7154,7 @@
       <c r="AR57" s="2"/>
       <c r="AS57" s="2"/>
       <c r="AT57" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AU57" s="1"/>
     </row>
@@ -6846,25 +7192,25 @@
         <v>gcloud compute routes create route2to1 --destination-range 10.5.4.0/24 --next-hop-vpn-tunnel tunnel2to1 --next-hop-vpn-tunnel-region europe-west1 --network vpn-network-2</v>
       </c>
       <c r="AB58" s="21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AC58" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AD58" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE58" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="AF58" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="AE58" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="AF58" s="21" t="s">
-        <v>555</v>
-      </c>
       <c r="AG58" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AH58" s="21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AI58" s="5" t="s">
         <v>143</v>
@@ -6873,7 +7219,7 @@
         <v>141</v>
       </c>
       <c r="AK58" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
@@ -6884,7 +7230,7 @@
       <c r="AR58" s="2"/>
       <c r="AS58" s="2"/>
       <c r="AT58" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AU58" s="1"/>
     </row>
@@ -6983,16 +7329,16 @@
         <v>9</v>
       </c>
       <c r="AC60" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AD60" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AE60" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AF60" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AG60" s="5"/>
       <c r="AH60" s="2"/>
@@ -7231,19 +7577,19 @@
         <v>89</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AD64" s="21" t="s">
         <v>79</v>
       </c>
       <c r="AE64" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AF64" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AG64" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
@@ -7296,22 +7642,22 @@
         <v>gcloud compute target-pools add-instances extloadbalancer --instances webserver1,webserver2,webserver3 --instances-zone=$MY_ZONE1</v>
       </c>
       <c r="AB65" s="21" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AD65" s="21" t="s">
         <v>163</v>
       </c>
       <c r="AE65" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF65" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AG65" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
@@ -7384,7 +7730,7 @@
       <c r="AR66" s="2"/>
       <c r="AS66" s="2"/>
       <c r="AT66" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AU66" s="1"/>
     </row>
@@ -7442,7 +7788,7 @@
       <c r="AR67" s="2"/>
       <c r="AS67" s="2"/>
       <c r="AT67" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AU67" s="1"/>
     </row>
@@ -7480,16 +7826,16 @@
         <v>gcloud compute target-vpn-gateways create vpn-2 --network vpn-network-2 --region us-central1</v>
       </c>
       <c r="AB68" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AD68" s="21" t="s">
         <v>141</v>
       </c>
       <c r="AE68" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AF68" s="21" t="s">
         <v>79</v>
@@ -7510,7 +7856,7 @@
       <c r="AR68" s="2"/>
       <c r="AS68" s="2"/>
       <c r="AT68" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AU68" s="1"/>
     </row>
@@ -7803,10 +8149,10 @@
         <v>121</v>
       </c>
       <c r="AC73" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD73" s="21" t="s">
         <v>472</v>
-      </c>
-      <c r="AD73" s="21" t="s">
-        <v>473</v>
       </c>
       <c r="AE73" s="5">
         <v>23</v>
@@ -7815,7 +8161,7 @@
         <v>79</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
@@ -7830,7 +8176,7 @@
       <c r="AR73" s="2"/>
       <c r="AS73" s="2"/>
       <c r="AT73" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AU73" s="1"/>
     </row>
@@ -7888,7 +8234,7 @@
       <c r="AR74" s="2"/>
       <c r="AS74" s="2"/>
       <c r="AT74" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AU74" s="1"/>
     </row>
@@ -7946,7 +8292,7 @@
       <c r="AR75" s="2"/>
       <c r="AS75" s="2"/>
       <c r="AT75" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AU75" s="1"/>
     </row>
@@ -7984,28 +8330,28 @@
         <v>gcloud compute vpn-tunnels create tunnel2to1 --peer-address $STATIC_IP_VPN_1 --shared-secret gcprocks --target-vpn-gateway vpn-2 --region europe-west1 --ike-version 2 --local-traffic-selector 0.0.0.0/0 --remote-traffic-selector 0.0.0.0/0</v>
       </c>
       <c r="AB76" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC76" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD76" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE76" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF76" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="AC76" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="AD76" s="21" t="s">
+      <c r="AG76" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="AH76" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="AE76" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="AF76" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="AG76" s="5" t="s">
+      <c r="AI76" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="AH76" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="AI76" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="AJ76" s="21" t="s">
         <v>79</v>
@@ -8014,31 +8360,31 @@
         <v>143</v>
       </c>
       <c r="AL76" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AM76" s="5">
         <v>2</v>
       </c>
       <c r="AN76" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AO76" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AP76" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AQ76" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AR76" s="2"/>
       <c r="AS76" s="2"/>
       <c r="AT76" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AU76" s="1"/>
     </row>
-    <row r="77" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="77" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B77" s="36"/>
       <c r="C77" s="62" t="str">
         <f>B$3&amp;" zones"</f>
@@ -8092,7 +8438,7 @@
       <c r="AR77" s="2"/>
       <c r="AS77" s="2"/>
       <c r="AT77" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AU77" s="1"/>
     </row>
@@ -8100,8 +8446,8 @@
       <c r="B78" s="36"/>
       <c r="C78" s="37"/>
       <c r="D78" s="58" t="str">
-        <f>C$77&amp;" list"</f>
-        <v>gcloud compute zones list</v>
+        <f>C$77&amp;" describe "&amp;AC78</f>
+        <v>gcloud compute zones describe europe-west1-b</v>
       </c>
       <c r="E78" s="59"/>
       <c r="F78" s="59"/>
@@ -8126,13 +8472,15 @@
       <c r="Y78" s="59"/>
       <c r="Z78" s="60"/>
       <c r="AA78" s="8" t="str">
-        <f t="shared" ref="AA78:AA79" ca="1" si="35">IFERROR(OFFSET(A78,0,MATCH("",B78:Z78,-1)),"")</f>
-        <v>gcloud compute zones list</v>
-      </c>
-      <c r="AB78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC78" s="2"/>
+        <f ca="1">IFERROR(OFFSET(A78,0,MATCH("",B78:Z78,-1)),"")</f>
+        <v>gcloud compute zones describe europe-west1-b</v>
+      </c>
+      <c r="AB78" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC78" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
@@ -8150,7 +8498,7 @@
       <c r="AR78" s="2"/>
       <c r="AS78" s="2"/>
       <c r="AT78" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AU78" s="1"/>
     </row>
@@ -8158,8 +8506,8 @@
       <c r="B79" s="36"/>
       <c r="C79" s="37"/>
       <c r="D79" s="58" t="str">
-        <f>C$77&amp;" describe "&amp;AC79</f>
-        <v>gcloud compute zones describe europe-west1-b</v>
+        <f>C$77&amp;" list"</f>
+        <v>gcloud compute zones list</v>
       </c>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
@@ -8184,15 +8532,13 @@
       <c r="Y79" s="59"/>
       <c r="Z79" s="60"/>
       <c r="AA79" s="8" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v>gcloud compute zones describe europe-west1-b</v>
-      </c>
-      <c r="AB79" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC79" s="5" t="s">
-        <v>171</v>
-      </c>
+        <f t="shared" ref="AA79" ca="1" si="35">IFERROR(OFFSET(A79,0,MATCH("",B79:Z79,-1)),"")</f>
+        <v>gcloud compute zones list</v>
+      </c>
+      <c r="AB79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
@@ -8210,7 +8556,7 @@
       <c r="AR79" s="2"/>
       <c r="AS79" s="2"/>
       <c r="AT79" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AU79" s="1"/>
     </row>
@@ -8415,10 +8761,10 @@
         <v>gcloud auth activate-service-account --key-file credentials.json</v>
       </c>
       <c r="AB83" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC83" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="AC83" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
@@ -8437,10 +8783,10 @@
       <c r="AR83" s="2"/>
       <c r="AS83" s="2"/>
       <c r="AT83" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="84" spans="2:47" collapsed="1">
@@ -8653,7 +8999,7 @@
         <v>11</v>
       </c>
       <c r="AC87" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
@@ -8713,7 +9059,7 @@
         <v>79</v>
       </c>
       <c r="AC88" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
@@ -9847,7 +10193,7 @@
         <v>223</v>
       </c>
       <c r="AC107" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AD107" s="2" t="s">
         <v>268</v>
@@ -9865,7 +10211,7 @@
         <v>11</v>
       </c>
       <c r="AK107" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AL107" s="2"/>
       <c r="AM107" s="2"/>
@@ -9979,13 +10325,13 @@
         <v>227</v>
       </c>
       <c r="AC109" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AD109" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AE109" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF109" s="2"/>
       <c r="AG109" s="2"/>
@@ -10002,7 +10348,7 @@
       <c r="AR109" s="2"/>
       <c r="AS109" s="2"/>
       <c r="AT109" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AU109" s="1"/>
     </row>
@@ -10513,14 +10859,14 @@
         <v>344</v>
       </c>
       <c r="AC118" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AD118" s="2" t="s">
         <v>338</v>
       </c>
       <c r="AE118" s="5"/>
       <c r="AF118" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AG118" s="5" t="b">
         <v>1</v>
@@ -10598,7 +10944,7 @@
       <c r="AR119" s="2"/>
       <c r="AS119" s="2"/>
       <c r="AT119" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AU119" s="1"/>
     </row>
@@ -11258,7 +11604,7 @@
       <c r="D131" s="37"/>
       <c r="E131" s="58" t="str">
         <f>D$130&amp;" "&amp;AC131&amp;" --config "&amp;AE131</f>
-        <v>gcloud deployment-manager deployments create production --config appserver.yaml</v>
+        <v>gcloud deployment-manager deployments create echo-service --config config.yaml</v>
       </c>
       <c r="F131" s="59"/>
       <c r="G131" s="59"/>
@@ -11283,19 +11629,19 @@
       <c r="Z131" s="60"/>
       <c r="AA131" s="8" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>gcloud deployment-manager deployments create production --config appserver.yaml</v>
+        <v>gcloud deployment-manager deployments create echo-service --config config.yaml</v>
       </c>
       <c r="AB131" s="21" t="s">
         <v>234</v>
       </c>
       <c r="AC131" s="5" t="s">
-        <v>305</v>
+        <v>624</v>
       </c>
       <c r="AD131" s="21" t="s">
         <v>369</v>
       </c>
       <c r="AE131" s="5" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AF131" s="2"/>
       <c r="AG131" s="2"/>
@@ -11466,13 +11812,13 @@
         <v>377</v>
       </c>
       <c r="AC134" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AD134" s="21" t="s">
         <v>369</v>
       </c>
       <c r="AE134" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF134" s="2"/>
       <c r="AG134" s="2"/>
@@ -11489,7 +11835,7 @@
       <c r="AR134" s="2"/>
       <c r="AS134" s="2"/>
       <c r="AT134" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AU134" s="1"/>
     </row>
@@ -15352,8 +15698,8 @@
     <mergeCell ref="E131:Z131"/>
     <mergeCell ref="E132:Z132"/>
     <mergeCell ref="C77:Z77"/>
+    <mergeCell ref="D79:Z79"/>
     <mergeCell ref="D78:Z78"/>
-    <mergeCell ref="D79:Z79"/>
     <mergeCell ref="C137:Z137"/>
     <mergeCell ref="D138:Z138"/>
     <mergeCell ref="D133:Z133"/>
@@ -15548,12 +15894,292 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AS70"/>
+  <dimension ref="B1:AS69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15663,7 +16289,7 @@
       <c r="Y2" s="62"/>
       <c r="Z2" s="63"/>
       <c r="AA2" s="8" t="str">
-        <f t="shared" ref="AA2:AA48" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
+        <f t="shared" ref="AA2:AA49" ca="1" si="0">IFERROR(OFFSET(A2,0,MATCH("",B2:Z2,-1)),"")</f>
         <v>gsutil mb</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -15687,11 +16313,11 @@
       </c>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+    <row r="3" spans="2:43" ht="45" hidden="1" outlineLevel="1">
       <c r="B3" s="10"/>
       <c r="C3" s="62" t="str">
         <f>B$2&amp;IF(ISBLANK(AE3),""," -l "&amp;AE3)&amp;" gs://"&amp;AC3</f>
-        <v>gsutil mb -l $LOCATION gs://$DEVSHELL_PROJECT_ID</v>
+        <v>gsutil mb gs://qwiklabs-gcp-5b57f7da0359cd75</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
@@ -15718,20 +16344,18 @@
       <c r="Z3" s="63"/>
       <c r="AA3" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>gsutil mb -l $LOCATION gs://$DEVSHELL_PROJECT_ID</v>
+        <v>gsutil mb gs://qwiklabs-gcp-5b57f7da0359cd75</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>217</v>
+        <v>623</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AE3" s="5" t="s">
-        <v>462</v>
-      </c>
+      <c r="AE3" s="5"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -15949,11 +16573,11 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+    <row r="8" spans="2:43" ht="45" hidden="1" outlineLevel="1">
       <c r="B8" s="12"/>
       <c r="C8" s="58" t="str">
         <f>"gsutil"&amp;IF(ISBLANK(AM8),""," -h "&amp;"'"&amp;SUBSTITUTE(AM8," ","' -h '")&amp;"'")&amp;IF(ISBLANK(AK8),""," -a "&amp;AK8)&amp;" cp "&amp;IF(AO8,"-v ","")&amp;IF(ISBLANK(AC8),"","gs://"&amp;AC8&amp;"/")&amp;AE8&amp;" "&amp;IF(ISBLANK(AG8),"","gs://"&amp;AG8&amp;"/")&amp;AI8</f>
-        <v>gsutil cp gs://cloud-training/archinfra/dm* .</v>
+        <v>gsutil -h 'Content-Type:application/gzip' -h 'Cache-Control:private' -a public-read cp echo-0.0.1.tar.gz gs://$MY_BUCKET/</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
@@ -15980,40 +16604,42 @@
       <c r="Z8" s="60"/>
       <c r="AA8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gsutil cp gs://cloud-training/archinfra/dm* .</v>
+        <v>gsutil -h 'Content-Type:application/gzip' -h 'Cache-Control:private' -a public-read cp echo-0.0.1.tar.gz gs://$MY_BUCKET/</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>601</v>
-      </c>
+      <c r="AC8" s="5"/>
       <c r="AD8" s="22" t="s">
         <v>56</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>602</v>
+        <v>738</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AG8" s="5"/>
+      <c r="AG8" s="5" t="s">
+        <v>739</v>
+      </c>
       <c r="AH8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="AI8" s="5"/>
       <c r="AJ8" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AK8" s="5"/>
+      <c r="AK8" s="5" t="s">
+        <v>740</v>
+      </c>
       <c r="AL8" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="AM8" s="5"/>
+      <c r="AM8" s="5" t="s">
+        <v>741</v>
+      </c>
       <c r="AN8" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO8" s="5"/>
       <c r="AP8" s="1" t="s">
@@ -16200,11 +16826,11 @@
       </c>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B12" s="12"/>
+    <row r="12" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B12" s="50"/>
       <c r="C12" s="62" t="str">
-        <f>B$10&amp;" -l gs://"&amp;AC12&amp;"/"&amp;AE12</f>
-        <v>gsutil ls -l gs://ioso-bucket/image-dir/ada.jpg</v>
+        <f>B$10&amp;" -a gs://"&amp;AC12&amp;"/"&amp;AE12</f>
+        <v>gsutil ls -a gs://$BUCKET_NAME_1/setup.html</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -16230,20 +16856,20 @@
       <c r="Y12" s="62"/>
       <c r="Z12" s="63"/>
       <c r="AA12" s="8" t="str">
-        <f t="shared" ref="AA12:AA15" ca="1" si="3">IFERROR(OFFSET(A12,0,MATCH("",B12:Z12,-1)),"")</f>
-        <v>gsutil ls -l gs://ioso-bucket/image-dir/ada.jpg</v>
+        <f t="shared" ref="AA12" ca="1" si="3">IFERROR(OFFSET(A12,0,MATCH("",B12:Z12,-1)),"")</f>
+        <v>gsutil ls -a gs://$BUCKET_NAME_1/setup.html</v>
       </c>
       <c r="AB12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>60</v>
+        <v>477</v>
       </c>
       <c r="AD12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -16256,15 +16882,15 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="1" t="s">
-        <v>69</v>
+        <v>498</v>
       </c>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="2:43" ht="30" hidden="1" outlineLevel="1">
-      <c r="B13" s="50"/>
+    <row r="13" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B13" s="12"/>
       <c r="C13" s="62" t="str">
-        <f>B$10&amp;" -a gs://"&amp;AC13&amp;"/"&amp;AE13</f>
-        <v>gsutil ls -a gs://$BUCKET_NAME_1/setup.html</v>
+        <f>B$10&amp;" -l gs://"&amp;AC13&amp;"/"&amp;AE13</f>
+        <v>gsutil ls -l gs://ioso-bucket/image-dir/ada.jpg</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -16290,20 +16916,20 @@
       <c r="Y13" s="62"/>
       <c r="Z13" s="63"/>
       <c r="AA13" s="8" t="str">
-        <f t="shared" ref="AA13" ca="1" si="4">IFERROR(OFFSET(A13,0,MATCH("",B13:Z13,-1)),"")</f>
-        <v>gsutil ls -a gs://$BUCKET_NAME_1/setup.html</v>
+        <f t="shared" ref="AA13:AA16" ca="1" si="4">IFERROR(OFFSET(A13,0,MATCH("",B13:Z13,-1)),"")</f>
+        <v>gsutil ls -l gs://ioso-bucket/image-dir/ada.jpg</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>478</v>
+        <v>60</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>479</v>
+        <v>72</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -16316,15 +16942,16 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="1" t="s">
-        <v>500</v>
+        <v>69</v>
       </c>
       <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="2:43" collapsed="1">
-      <c r="B14" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="62"/>
+    <row r="14" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B14" s="56"/>
+      <c r="C14" s="62" t="str">
+        <f>B$10&amp;" -L gs://"&amp;AC14&amp;"/"&amp;AE14</f>
+        <v>gsutil ls -L gs://$MY_BUCKET/echo-0.0.1.tar.gz</v>
+      </c>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
@@ -16349,15 +16976,21 @@
       <c r="Y14" s="62"/>
       <c r="Z14" s="63"/>
       <c r="AA14" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>gsutil rm</v>
+        <f t="shared" ref="AA14" ca="1" si="5">IFERROR(OFFSET(A14,0,MATCH("",B14:Z14,-1)),"")</f>
+        <v>gsutil ls -L gs://$MY_BUCKET/echo-0.0.1.tar.gz</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>738</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -16369,16 +17002,15 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="1" t="s">
-        <v>73</v>
+        <v>742</v>
       </c>
       <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="62" t="str">
-        <f>B$14&amp;" gs://"&amp;AC15&amp;"/"&amp;AE15</f>
-        <v>gsutil rm gs://ioso-bucket/ada.jpg</v>
-      </c>
+    <row r="15" spans="2:43" collapsed="1">
+      <c r="B15" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="62"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
@@ -16403,21 +17035,15 @@
       <c r="Y15" s="62"/>
       <c r="Z15" s="63"/>
       <c r="AA15" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>gsutil rm gs://ioso-bucket/ada.jpg</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>gsutil rm</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -16429,13 +17055,16 @@
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AQ15" s="1"/>
     </row>
     <row r="16" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B16" s="12"/>
-      <c r="C16" s="62"/>
+      <c r="C16" s="62" t="str">
+        <f>B$15&amp;" gs://"&amp;AC16&amp;"/"&amp;AE16</f>
+        <v>gsutil rm gs://ioso-bucket/ada.jpg</v>
+      </c>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
       <c r="F16" s="62"/>
@@ -16460,8 +17089,8 @@
       <c r="Y16" s="62"/>
       <c r="Z16" s="63"/>
       <c r="AA16" s="8" t="str">
-        <f t="shared" ref="AA16:AA21" ca="1" si="5">IFERROR(OFFSET(A16,0,MATCH("",B16:Z16,-1)),"")</f>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>gsutil rm gs://ioso-bucket/ada.jpg</v>
       </c>
       <c r="AB16" s="2" t="s">
         <v>14</v>
@@ -16485,13 +17114,13 @@
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
-      <c r="AP16" s="1"/>
+      <c r="AP16" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="2:45" ht="30" collapsed="1">
-      <c r="B17" s="61" t="s">
-        <v>75</v>
-      </c>
+    <row r="17" spans="2:45" hidden="1" outlineLevel="1">
+      <c r="B17" s="12"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -16517,15 +17146,21 @@
       <c r="Y17" s="62"/>
       <c r="Z17" s="63"/>
       <c r="AA17" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>gsutil acl</v>
+        <f t="shared" ref="AA17:AA22" ca="1" si="6">IFERROR(OFFSET(A17,0,MATCH("",B17:Z17,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -16536,17 +17171,14 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2"/>
-      <c r="AP17" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="2:45" hidden="1" outlineLevel="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="62" t="str">
-        <f>B$17&amp;" ch"</f>
-        <v>gsutil acl ch</v>
-      </c>
+    <row r="18" spans="2:45" ht="30" collapsed="1">
+      <c r="B18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="62"/>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
       <c r="F18" s="62"/>
@@ -16571,8 +17203,8 @@
       <c r="Y18" s="62"/>
       <c r="Z18" s="63"/>
       <c r="AA18" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>gsutil acl ch</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>gsutil acl</v>
       </c>
       <c r="AB18" s="2" t="s">
         <v>6</v>
@@ -16590,16 +17222,18 @@
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2"/>
-      <c r="AP18" s="1"/>
+      <c r="AP18" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="2:45" ht="30" hidden="1" outlineLevel="2">
+    <row r="19" spans="2:45" hidden="1" outlineLevel="1">
       <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="62" t="str">
-        <f>C$18&amp;" -u AllUsers:R gs://"&amp;AC19&amp;"/"&amp;AE19</f>
-        <v>gsutil acl ch -u AllUsers:R gs://$BUCKET_NAME_1/setup.html</v>
-      </c>
+      <c r="C19" s="62" t="str">
+        <f>B$18&amp;" ch"</f>
+        <v>gsutil acl ch</v>
+      </c>
+      <c r="D19" s="62"/>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
       <c r="G19" s="62"/>
@@ -16623,21 +17257,15 @@
       <c r="Y19" s="62"/>
       <c r="Z19" s="63"/>
       <c r="AA19" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>gsutil acl ch -u AllUsers:R gs://$BUCKET_NAME_1/setup.html</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>gsutil acl ch</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>479</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -16648,17 +17276,15 @@
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
-      <c r="AP19" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
     </row>
     <row r="20" spans="2:45" ht="30" hidden="1" outlineLevel="2">
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="62" t="str">
-        <f>C$18&amp;" -d AllUsers gs://"&amp;AC20&amp;"/"&amp;AE20</f>
-        <v>gsutil acl ch -d AllUsers gs://ioso-bucket/ada.jpg</v>
+        <f>C$19&amp;" -u AllUsers:R gs://"&amp;AC20&amp;"/"&amp;AE20</f>
+        <v>gsutil acl ch -u AllUsers:R gs://$BUCKET_NAME_1/setup.html</v>
       </c>
       <c r="E20" s="62"/>
       <c r="F20" s="62"/>
@@ -16683,20 +17309,20 @@
       <c r="Y20" s="62"/>
       <c r="Z20" s="63"/>
       <c r="AA20" s="8" t="str">
-        <f t="shared" ref="AA20" ca="1" si="6">IFERROR(OFFSET(A20,0,MATCH("",B20:Z20,-1)),"")</f>
-        <v>gsutil acl ch -d AllUsers gs://ioso-bucket/ada.jpg</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>gsutil acl ch -u AllUsers:R gs://$BUCKET_NAME_1/setup.html</v>
       </c>
       <c r="AB20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>60</v>
+        <v>477</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>59</v>
+        <v>478</v>
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -16709,17 +17335,17 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ20" s="1"/>
     </row>
-    <row r="21" spans="2:45" ht="30" hidden="1" outlineLevel="1">
+    <row r="21" spans="2:45" ht="30" hidden="1" outlineLevel="2">
       <c r="B21" s="12"/>
-      <c r="C21" s="62" t="str">
-        <f>B$17&amp;" get gs://"&amp;AC21&amp;"/"&amp;AE21</f>
-        <v>gsutil acl get gs://$BUCKET_NAME_1/setup.html</v>
-      </c>
-      <c r="D21" s="62"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="62" t="str">
+        <f>C$19&amp;" -d AllUsers gs://"&amp;AC21&amp;"/"&amp;AE21</f>
+        <v>gsutil acl ch -d AllUsers gs://ioso-bucket/ada.jpg</v>
+      </c>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
       <c r="G21" s="62"/>
@@ -16743,20 +17369,20 @@
       <c r="Y21" s="62"/>
       <c r="Z21" s="63"/>
       <c r="AA21" s="8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>gsutil acl get gs://$BUCKET_NAME_1/setup.html</v>
-      </c>
-      <c r="AB21" s="21" t="s">
+        <f t="shared" ref="AA21" ca="1" si="7">IFERROR(OFFSET(A21,0,MATCH("",B21:Z21,-1)),"")</f>
+        <v>gsutil acl ch -d AllUsers gs://ioso-bucket/ada.jpg</v>
+      </c>
+      <c r="AB21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>478</v>
+        <v>60</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>479</v>
+        <v>59</v>
       </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -16769,15 +17395,15 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="1" t="s">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="AQ21" s="1"/>
     </row>
     <row r="22" spans="2:45" ht="30" hidden="1" outlineLevel="1">
-      <c r="B22" s="50"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="62" t="str">
-        <f>B$17&amp;" set "&amp;AC22&amp;" gs://"&amp;AE22&amp;"/"&amp;AG22</f>
-        <v>gsutil acl set private gs://$BUCKET_NAME_1/setup.html</v>
+        <f>B$18&amp;" get gs://"&amp;AC22&amp;"/"&amp;AE22</f>
+        <v>gsutil acl get gs://$BUCKET_NAME_1/setup.html</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -16803,27 +17429,23 @@
       <c r="Y22" s="62"/>
       <c r="Z22" s="63"/>
       <c r="AA22" s="8" t="str">
-        <f t="shared" ref="AA22:AA24" ca="1" si="7">IFERROR(OFFSET(A22,0,MATCH("",B22:Z22,-1)),"")</f>
-        <v>gsutil acl set private gs://$BUCKET_NAME_1/setup.html</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>gsutil acl get gs://$BUCKET_NAME_1/setup.html</v>
       </c>
       <c r="AB22" s="21" t="s">
-        <v>485</v>
+        <v>14</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="AE22" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="AF22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG22" s="5" t="s">
-        <v>479</v>
-      </c>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
@@ -16832,18 +17454,17 @@
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="AS22" s="1"/>
-    </row>
-    <row r="23" spans="2:45" collapsed="1">
-      <c r="B23" s="61" t="s">
-        <v>480</v>
-      </c>
-      <c r="C23" s="62"/>
+      <c r="AP22" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AQ22" s="1"/>
+    </row>
+    <row r="23" spans="2:45" ht="30" hidden="1" outlineLevel="1">
+      <c r="B23" s="50"/>
+      <c r="C23" s="62" t="str">
+        <f>B$18&amp;" set "&amp;AC23&amp;" gs://"&amp;AE23&amp;"/"&amp;AG23</f>
+        <v>gsutil acl set private gs://$BUCKET_NAME_1/setup.html</v>
+      </c>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
@@ -16868,17 +17489,27 @@
       <c r="Y23" s="62"/>
       <c r="Z23" s="63"/>
       <c r="AA23" s="8" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>gsutil rewrite</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
+        <f t="shared" ref="AA23:AA25" ca="1" si="8">IFERROR(OFFSET(A23,0,MATCH("",B23:Z23,-1)),"")</f>
+        <v>gsutil acl set private gs://$BUCKET_NAME_1/setup.html</v>
+      </c>
+      <c r="AB23" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE23" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG23" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
@@ -16887,17 +17518,18 @@
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
-      <c r="AP23" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="AQ23" s="1"/>
-    </row>
-    <row r="24" spans="2:45" ht="30" hidden="1" outlineLevel="1">
-      <c r="B24" s="50"/>
-      <c r="C24" s="62" t="str">
-        <f>B$23&amp;" -k gs://"&amp;AC24&amp;"/"&amp;AE24</f>
-        <v>gsutil rewrite -k gs://$BUCKET_NAME_1/setup.html</v>
-      </c>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AS23" s="1"/>
+    </row>
+    <row r="24" spans="2:45" collapsed="1">
+      <c r="B24" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="C24" s="62"/>
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
@@ -16922,21 +17554,15 @@
       <c r="Y24" s="62"/>
       <c r="Z24" s="63"/>
       <c r="AA24" s="8" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>gsutil rewrite -k gs://$BUCKET_NAME_1/setup.html</v>
-      </c>
-      <c r="AB24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD24" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE24" s="5" t="s">
-        <v>479</v>
-      </c>
+        <f t="shared" ca="1" si="8"/>
+        <v>gsutil rewrite</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -16948,15 +17574,16 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AQ24" s="1"/>
     </row>
-    <row r="25" spans="2:45" collapsed="1">
-      <c r="B25" s="61" t="s">
-        <v>481</v>
-      </c>
-      <c r="C25" s="62"/>
+    <row r="25" spans="2:45" ht="30" hidden="1" outlineLevel="1">
+      <c r="B25" s="50"/>
+      <c r="C25" s="62" t="str">
+        <f>B$24&amp;" -k gs://"&amp;AC25&amp;"/"&amp;AE25</f>
+        <v>gsutil rewrite -k gs://$BUCKET_NAME_1/setup.html</v>
+      </c>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
       <c r="F25" s="62"/>
@@ -16981,15 +17608,21 @@
       <c r="Y25" s="62"/>
       <c r="Z25" s="63"/>
       <c r="AA25" s="8" t="str">
-        <f t="shared" ref="AA25:AA26" ca="1" si="8">IFERROR(OFFSET(A25,0,MATCH("",B25:Z25,-1)),"")</f>
-        <v>gsutil lifecycle</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
+        <f t="shared" ca="1" si="8"/>
+        <v>gsutil rewrite -k gs://$BUCKET_NAME_1/setup.html</v>
+      </c>
+      <c r="AB25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD25" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE25" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -17001,16 +17634,15 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="2:45" ht="30" hidden="1" outlineLevel="1">
-      <c r="B26" s="50"/>
-      <c r="C26" s="62" t="str">
-        <f>B$25&amp;" get gs://"&amp;AC26</f>
-        <v>gsutil lifecycle get gs://$BUCKET_NAME_1</v>
-      </c>
+    <row r="26" spans="2:45" collapsed="1">
+      <c r="B26" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
       <c r="F26" s="62"/>
@@ -17035,15 +17667,13 @@
       <c r="Y26" s="62"/>
       <c r="Z26" s="63"/>
       <c r="AA26" s="8" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>gsutil lifecycle get gs://$BUCKET_NAME_1</v>
-      </c>
-      <c r="AB26" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>478</v>
-      </c>
+        <f t="shared" ref="AA26:AA27" ca="1" si="9">IFERROR(OFFSET(A26,0,MATCH("",B26:Z26,-1)),"")</f>
+        <v>gsutil lifecycle</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -17057,15 +17687,15 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AQ26" s="1"/>
     </row>
     <row r="27" spans="2:45" ht="30" hidden="1" outlineLevel="1">
       <c r="B27" s="50"/>
       <c r="C27" s="62" t="str">
-        <f>B$25&amp;" set "&amp;AC27&amp;" gs://"&amp;AE27</f>
-        <v>gsutil lifecycle set life.json gs://$BUCKET_NAME_1</v>
+        <f>B$26&amp;" get gs://"&amp;AC27</f>
+        <v>gsutil lifecycle get gs://$BUCKET_NAME_1</v>
       </c>
       <c r="D27" s="62"/>
       <c r="E27" s="62"/>
@@ -17091,21 +17721,17 @@
       <c r="Y27" s="62"/>
       <c r="Z27" s="63"/>
       <c r="AA27" s="8" t="str">
-        <f t="shared" ref="AA27:AA29" ca="1" si="9">IFERROR(OFFSET(A27,0,MATCH("",B27:Z27,-1)),"")</f>
-        <v>gsutil lifecycle set life.json gs://$BUCKET_NAME_1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>gsutil lifecycle get gs://$BUCKET_NAME_1</v>
       </c>
       <c r="AB27" s="21" t="s">
-        <v>491</v>
+        <v>14</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD27" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE27" s="5" t="s">
-        <v>478</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
@@ -17117,15 +17743,16 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="2:45" collapsed="1">
-      <c r="B28" s="61" t="s">
-        <v>482</v>
-      </c>
-      <c r="C28" s="62"/>
+    <row r="28" spans="2:45" ht="30" hidden="1" outlineLevel="1">
+      <c r="B28" s="50"/>
+      <c r="C28" s="62" t="str">
+        <f>B$26&amp;" set "&amp;AC28&amp;" gs://"&amp;AE28</f>
+        <v>gsutil lifecycle set life.json gs://$BUCKET_NAME_1</v>
+      </c>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
       <c r="F28" s="62"/>
@@ -17150,15 +17777,21 @@
       <c r="Y28" s="62"/>
       <c r="Z28" s="63"/>
       <c r="AA28" s="8" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>gsutil versioning</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
+        <f t="shared" ref="AA28:AA30" ca="1" si="10">IFERROR(OFFSET(A28,0,MATCH("",B28:Z28,-1)),"")</f>
+        <v>gsutil lifecycle set life.json gs://$BUCKET_NAME_1</v>
+      </c>
+      <c r="AB28" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="AD28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE28" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
@@ -17174,12 +17807,11 @@
       </c>
       <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="2:45" ht="30" hidden="1" outlineLevel="1">
-      <c r="B29" s="50"/>
-      <c r="C29" s="62" t="str">
-        <f>B$28&amp;" get gs://"&amp;AC29</f>
-        <v>gsutil versioning get gs://$BUCKET_NAME_1</v>
-      </c>
+    <row r="29" spans="2:45" collapsed="1">
+      <c r="B29" s="61" t="s">
+        <v>481</v>
+      </c>
+      <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
       <c r="F29" s="62"/>
@@ -17204,15 +17836,13 @@
       <c r="Y29" s="62"/>
       <c r="Z29" s="63"/>
       <c r="AA29" s="8" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>gsutil versioning get gs://$BUCKET_NAME_1</v>
-      </c>
-      <c r="AB29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC29" s="5" t="s">
-        <v>478</v>
-      </c>
+        <f t="shared" ca="1" si="10"/>
+        <v>gsutil versioning</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
@@ -17226,15 +17856,15 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
     <row r="30" spans="2:45" ht="30" hidden="1" outlineLevel="1">
       <c r="B30" s="50"/>
       <c r="C30" s="62" t="str">
-        <f>B$28&amp;" set "&amp;IF(AC30,"on","off")&amp;" gs://"&amp;AE30</f>
-        <v>gsutil versioning set on gs://$BUCKET_NAME_1</v>
+        <f>B$29&amp;" get gs://"&amp;AC30</f>
+        <v>gsutil versioning get gs://$BUCKET_NAME_1</v>
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="62"/>
@@ -17260,21 +17890,17 @@
       <c r="Y30" s="62"/>
       <c r="Z30" s="63"/>
       <c r="AA30" s="8" t="str">
-        <f t="shared" ref="AA30:AA36" ca="1" si="10">IFERROR(OFFSET(A30,0,MATCH("",B30:Z30,-1)),"")</f>
-        <v>gsutil versioning set on gs://$BUCKET_NAME_1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>gsutil versioning get gs://$BUCKET_NAME_1</v>
       </c>
       <c r="AB30" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC30" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AE30" s="5" t="s">
-        <v>478</v>
-      </c>
+      <c r="AC30" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
@@ -17286,15 +17912,16 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="2:45" collapsed="1">
-      <c r="B31" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C31" s="62"/>
+    <row r="31" spans="2:45" ht="30" hidden="1" outlineLevel="1">
+      <c r="B31" s="50"/>
+      <c r="C31" s="62" t="str">
+        <f>B$29&amp;" set "&amp;IF(AC31,"on","off")&amp;" gs://"&amp;AE31</f>
+        <v>gsutil versioning set on gs://$BUCKET_NAME_1</v>
+      </c>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
@@ -17319,15 +17946,21 @@
       <c r="Y31" s="62"/>
       <c r="Z31" s="63"/>
       <c r="AA31" s="8" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>gsutil rsync</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
+        <f t="shared" ref="AA31:AA37" ca="1" si="11">IFERROR(OFFSET(A31,0,MATCH("",B31:Z31,-1)),"")</f>
+        <v>gsutil versioning set on gs://$BUCKET_NAME_1</v>
+      </c>
+      <c r="AB31" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC31" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE31" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
@@ -17339,16 +17972,15 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="2:45" ht="30" hidden="1" outlineLevel="1">
-      <c r="B32" s="50"/>
-      <c r="C32" s="62" t="str">
-        <f>B$31&amp;" "&amp;IF(ISBLANK(AC32),"","gs://"&amp;AC32&amp;"/")&amp;AE32&amp;" "&amp;IF(ISBLANK(AG32),"","gs://"&amp;AG32&amp;"/")&amp;AI32</f>
-        <v>gsutil rsync ./firstlevel gs://$BUCKET_NAME_1/firstlevel</v>
-      </c>
+    <row r="32" spans="2:45" collapsed="1">
+      <c r="B32" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
       <c r="F32" s="62"/>
@@ -17373,31 +18005,19 @@
       <c r="Y32" s="62"/>
       <c r="Z32" s="63"/>
       <c r="AA32" s="8" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>gsutil rsync ./firstlevel gs://$BUCKET_NAME_1/firstlevel</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gsutil rsync</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE32" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG32" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH32" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI32" s="5" t="s">
-        <v>505</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
@@ -17405,15 +18025,15 @@
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AQ32" s="1"/>
     </row>
     <row r="33" spans="2:43" ht="30" hidden="1" outlineLevel="1">
       <c r="B33" s="50"/>
       <c r="C33" s="62" t="str">
-        <f>B$31&amp;" -r "&amp;IF(ISBLANK(AC33),"","gs://"&amp;AC33&amp;"/")&amp;AE33&amp;" "&amp;IF(ISBLANK(AG33),"","gs://"&amp;AG33&amp;"/")&amp;AI33</f>
-        <v>gsutil rsync -r ./firstlevel gs://$BUCKET_NAME_1/firstlevel</v>
+        <f>B$32&amp;" "&amp;IF(ISBLANK(AC33),"","gs://"&amp;AC33&amp;"/")&amp;AE33&amp;" "&amp;IF(ISBLANK(AG33),"","gs://"&amp;AG33&amp;"/")&amp;AI33</f>
+        <v>gsutil rsync ./firstlevel gs://$BUCKET_NAME_1/firstlevel</v>
       </c>
       <c r="D33" s="62"/>
       <c r="E33" s="62"/>
@@ -17439,8 +18059,8 @@
       <c r="Y33" s="62"/>
       <c r="Z33" s="63"/>
       <c r="AA33" s="8" t="str">
-        <f t="shared" ref="AA33" ca="1" si="11">IFERROR(OFFSET(A33,0,MATCH("",B33:Z33,-1)),"")</f>
-        <v>gsutil rsync -r ./firstlevel gs://$BUCKET_NAME_1/firstlevel</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>gsutil rsync ./firstlevel gs://$BUCKET_NAME_1/firstlevel</v>
       </c>
       <c r="AB33" s="2" t="s">
         <v>55</v>
@@ -17450,19 +18070,19 @@
         <v>56</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AF33" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AG33" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AH33" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
@@ -17471,15 +18091,16 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AQ33" s="1"/>
     </row>
-    <row r="34" spans="2:43" s="44" customFormat="1" collapsed="1">
-      <c r="B34" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="C34" s="62"/>
+    <row r="34" spans="2:43" ht="30" hidden="1" outlineLevel="1">
+      <c r="B34" s="50"/>
+      <c r="C34" s="62" t="str">
+        <f>B$32&amp;" -r "&amp;IF(ISBLANK(AC34),"","gs://"&amp;AC34&amp;"/")&amp;AE34&amp;" "&amp;IF(ISBLANK(AG34),"","gs://"&amp;AG34&amp;"/")&amp;AI34</f>
+        <v>gsutil rsync -r ./firstlevel gs://$BUCKET_NAME_1/firstlevel</v>
+      </c>
       <c r="D34" s="62"/>
       <c r="E34" s="62"/>
       <c r="F34" s="62"/>
@@ -17503,37 +18124,48 @@
       <c r="X34" s="62"/>
       <c r="Y34" s="62"/>
       <c r="Z34" s="63"/>
-      <c r="AA34" s="43" t="str">
-        <f ca="1">IFERROR(OFFSET(A34,0,MATCH("",B34:Z34,-1)),"")</f>
-        <v>gsutil config</v>
-      </c>
-      <c r="AB34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="22"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="22"/>
-      <c r="AL34" s="22"/>
-      <c r="AM34" s="22"/>
-      <c r="AN34" s="22"/>
-      <c r="AO34" s="22"/>
+      <c r="AA34" s="8" t="str">
+        <f t="shared" ref="AA34" ca="1" si="12">IFERROR(OFFSET(A34,0,MATCH("",B34:Z34,-1)),"")</f>
+        <v>gsutil rsync -r ./firstlevel gs://$BUCKET_NAME_1/firstlevel</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE34" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG34" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI34" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
       <c r="AP34" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="AQ34" s="45"/>
-    </row>
-    <row r="35" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B35" s="50"/>
-      <c r="C35" s="62" t="str">
-        <f>B$34&amp;" -n"</f>
-        <v>gsutil config -n</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="AQ34" s="1"/>
+    </row>
+    <row r="35" spans="2:43" s="44" customFormat="1" collapsed="1">
+      <c r="B35" s="61" t="s">
+        <v>505</v>
+      </c>
+      <c r="C35" s="62"/>
       <c r="D35" s="62"/>
       <c r="E35" s="62"/>
       <c r="F35" s="62"/>
@@ -17557,37 +18189,37 @@
       <c r="X35" s="62"/>
       <c r="Y35" s="62"/>
       <c r="Z35" s="63"/>
-      <c r="AA35" s="8" t="str">
-        <f t="shared" ref="AA35" ca="1" si="12">IFERROR(OFFSET(A35,0,MATCH("",B35:Z35,-1)),"")</f>
+      <c r="AA35" s="43" t="str">
+        <f ca="1">IFERROR(OFFSET(A35,0,MATCH("",B35:Z35,-1)),"")</f>
+        <v>gsutil config</v>
+      </c>
+      <c r="AB35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35" s="22"/>
+      <c r="AP35" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AQ35" s="45"/>
+    </row>
+    <row r="36" spans="2:43" hidden="1" outlineLevel="1">
+      <c r="B36" s="50"/>
+      <c r="C36" s="62" t="str">
+        <f>B$35&amp;" -n"</f>
         <v>gsutil config -n</v>
       </c>
-      <c r="AB35" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="AQ35" s="1"/>
-    </row>
-    <row r="36" spans="2:43" ht="30">
-      <c r="B36" s="61" t="str">
-        <f>"gsutil cat gs://"&amp;AC36&amp;"/"&amp;AE36</f>
-        <v>gsutil cat gs://$BUCKET_NAME_2/$FILE_NAME</v>
-      </c>
-      <c r="C36" s="62"/>
       <c r="D36" s="62"/>
       <c r="E36" s="62"/>
       <c r="F36" s="62"/>
@@ -17612,21 +18244,15 @@
       <c r="Y36" s="62"/>
       <c r="Z36" s="63"/>
       <c r="AA36" s="8" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>gsutil cat gs://$BUCKET_NAME_2/$FILE_NAME</v>
-      </c>
-      <c r="AB36" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AD36" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>512</v>
-      </c>
+        <f t="shared" ref="AA36" ca="1" si="13">IFERROR(OFFSET(A36,0,MATCH("",B36:Z36,-1)),"")</f>
+        <v>gsutil config -n</v>
+      </c>
+      <c r="AB36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
@@ -17638,12 +18264,15 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
       <c r="AP36" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="2:43" collapsed="1">
-      <c r="B37" s="61"/>
+    <row r="37" spans="2:43" ht="30">
+      <c r="B37" s="61" t="str">
+        <f>"gsutil cat gs://"&amp;AC37&amp;"/"&amp;AE37</f>
+        <v>gsutil cat gs://$BUCKET_NAME_2/$FILE_NAME</v>
+      </c>
       <c r="C37" s="62"/>
       <c r="D37" s="62"/>
       <c r="E37" s="62"/>
@@ -17669,15 +18298,21 @@
       <c r="Y37" s="62"/>
       <c r="Z37" s="63"/>
       <c r="AA37" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>gsutil cat gs://$BUCKET_NAME_2/$FILE_NAME</v>
+      </c>
+      <c r="AB37" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="AD37" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE37" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
@@ -17688,13 +18323,13 @@
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
-      <c r="AP37" s="1"/>
+      <c r="AP37" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="AQ37" s="1"/>
     </row>
     <row r="38" spans="2:43" collapsed="1">
-      <c r="B38" s="61" t="s">
-        <v>201</v>
-      </c>
+      <c r="B38" s="61"/>
       <c r="C38" s="62"/>
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
@@ -17721,7 +18356,7 @@
       <c r="Z38" s="63"/>
       <c r="AA38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>gsutil -m cp -r gs://enron_corpus/allen-p .</v>
+        <v/>
       </c>
       <c r="AB38" s="2" t="s">
         <v>6</v>
@@ -17742,8 +18377,10 @@
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
     </row>
-    <row r="39" spans="2:43" hidden="1" outlineLevel="1">
-      <c r="B39" s="10"/>
+    <row r="39" spans="2:43" collapsed="1">
+      <c r="B39" s="61" t="s">
+        <v>201</v>
+      </c>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
       <c r="E39" s="62"/>
@@ -17770,7 +18407,7 @@
       <c r="Z39" s="63"/>
       <c r="AA39" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>gsutil -m cp -r gs://enron_corpus/allen-p .</v>
       </c>
       <c r="AB39" s="2" t="s">
         <v>6</v>
@@ -17840,9 +18477,9 @@
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
     </row>
-    <row r="41" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="41" spans="2:43" hidden="1" outlineLevel="1">
       <c r="B41" s="10"/>
-      <c r="C41" s="9"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="62"/>
       <c r="E41" s="62"/>
       <c r="F41" s="62"/>
@@ -17889,7 +18526,7 @@
       <c r="AP41" s="1"/>
       <c r="AQ41" s="1"/>
     </row>
-    <row r="42" spans="2:43" hidden="1" outlineLevel="2" collapsed="1">
+    <row r="42" spans="2:43" hidden="1" outlineLevel="2">
       <c r="B42" s="10"/>
       <c r="C42" s="9"/>
       <c r="D42" s="62"/>
@@ -17938,10 +18575,10 @@
       <c r="AP42" s="1"/>
       <c r="AQ42" s="1"/>
     </row>
-    <row r="43" spans="2:43" hidden="1" outlineLevel="3">
+    <row r="43" spans="2:43" hidden="1" outlineLevel="2" collapsed="1">
       <c r="B43" s="10"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="62"/>
       <c r="F43" s="62"/>
       <c r="G43" s="62"/>
@@ -18036,11 +18673,11 @@
       <c r="AP44" s="1"/>
       <c r="AQ44" s="1"/>
     </row>
-    <row r="45" spans="2:43" hidden="1" outlineLevel="4">
+    <row r="45" spans="2:43" hidden="1" outlineLevel="3">
       <c r="B45" s="10"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="62"/>
       <c r="G45" s="62"/>
       <c r="H45" s="62"/>
@@ -18134,12 +18771,12 @@
       <c r="AP46" s="1"/>
       <c r="AQ46" s="1"/>
     </row>
-    <row r="47" spans="2:43" hidden="1" outlineLevel="5">
+    <row r="47" spans="2:43" hidden="1" outlineLevel="4">
       <c r="B47" s="10"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="62"/>
       <c r="H47" s="62"/>
       <c r="I47" s="62"/>
@@ -18232,13 +18869,13 @@
       <c r="AP48" s="1"/>
       <c r="AQ48" s="1"/>
     </row>
-    <row r="49" spans="2:43" hidden="1" outlineLevel="6">
+    <row r="49" spans="2:43" hidden="1" outlineLevel="5">
       <c r="B49" s="10"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="62"/>
       <c r="I49" s="62"/>
       <c r="J49" s="62"/>
@@ -18259,7 +18896,7 @@
       <c r="Y49" s="62"/>
       <c r="Z49" s="63"/>
       <c r="AA49" s="8" t="str">
-        <f t="shared" ref="AA49:AA67" ca="1" si="13">IFERROR(OFFSET(A49,0,MATCH("",B49:Z49,-1)),"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="AB49" s="2" t="s">
@@ -18308,7 +18945,7 @@
       <c r="Y50" s="62"/>
       <c r="Z50" s="63"/>
       <c r="AA50" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="AA50:AA66" ca="1" si="14">IFERROR(OFFSET(A50,0,MATCH("",B50:Z50,-1)),"")</f>
         <v/>
       </c>
       <c r="AB50" s="2" t="s">
@@ -18330,14 +18967,14 @@
       <c r="AP50" s="1"/>
       <c r="AQ50" s="1"/>
     </row>
-    <row r="51" spans="2:43" hidden="1" outlineLevel="7">
+    <row r="51" spans="2:43" hidden="1" outlineLevel="6">
       <c r="B51" s="10"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="62"/>
       <c r="I51" s="62"/>
       <c r="J51" s="62"/>
       <c r="K51" s="62"/>
@@ -18357,7 +18994,7 @@
       <c r="Y51" s="62"/>
       <c r="Z51" s="63"/>
       <c r="AA51" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AB51" s="2" t="s">
@@ -18406,7 +19043,7 @@
       <c r="Y52" s="62"/>
       <c r="Z52" s="63"/>
       <c r="AA52" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AB52" s="2" t="s">
@@ -18428,14 +19065,14 @@
       <c r="AP52" s="1"/>
       <c r="AQ52" s="1"/>
     </row>
-    <row r="53" spans="2:43" hidden="1" outlineLevel="6">
+    <row r="53" spans="2:43" hidden="1" outlineLevel="7">
       <c r="B53" s="10"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="62"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="62"/>
       <c r="J53" s="62"/>
       <c r="K53" s="62"/>
@@ -18455,7 +19092,7 @@
       <c r="Y53" s="62"/>
       <c r="Z53" s="63"/>
       <c r="AA53" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AB53" s="2" t="s">
@@ -18477,13 +19114,13 @@
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
     </row>
-    <row r="54" spans="2:43" hidden="1" outlineLevel="5">
+    <row r="54" spans="2:43" hidden="1" outlineLevel="6">
       <c r="B54" s="10"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="62"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="62"/>
       <c r="I54" s="62"/>
       <c r="J54" s="62"/>
@@ -18504,7 +19141,7 @@
       <c r="Y54" s="62"/>
       <c r="Z54" s="63"/>
       <c r="AA54" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AB54" s="2" t="s">
@@ -18526,12 +19163,12 @@
       <c r="AP54" s="1"/>
       <c r="AQ54" s="1"/>
     </row>
-    <row r="55" spans="2:43" hidden="1" outlineLevel="4">
+    <row r="55" spans="2:43" hidden="1" outlineLevel="5">
       <c r="B55" s="10"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="62"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="62"/>
       <c r="H55" s="62"/>
       <c r="I55" s="62"/>
@@ -18553,7 +19190,7 @@
       <c r="Y55" s="62"/>
       <c r="Z55" s="63"/>
       <c r="AA55" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AB55" s="2" t="s">
@@ -18575,11 +19212,11 @@
       <c r="AP55" s="1"/>
       <c r="AQ55" s="1"/>
     </row>
-    <row r="56" spans="2:43" hidden="1" outlineLevel="3">
+    <row r="56" spans="2:43" hidden="1" outlineLevel="4">
       <c r="B56" s="10"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="62"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="62"/>
       <c r="G56" s="62"/>
       <c r="H56" s="62"/>
@@ -18602,7 +19239,7 @@
       <c r="Y56" s="62"/>
       <c r="Z56" s="63"/>
       <c r="AA56" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AB56" s="2" t="s">
@@ -18627,7 +19264,7 @@
     <row r="57" spans="2:43" hidden="1" outlineLevel="3">
       <c r="B57" s="10"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="62"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="62"/>
       <c r="F57" s="62"/>
       <c r="G57" s="62"/>
@@ -18651,7 +19288,7 @@
       <c r="Y57" s="62"/>
       <c r="Z57" s="63"/>
       <c r="AA57" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AB57" s="2" t="s">
@@ -18673,9 +19310,9 @@
       <c r="AP57" s="1"/>
       <c r="AQ57" s="1"/>
     </row>
-    <row r="58" spans="2:43" hidden="1" outlineLevel="2">
+    <row r="58" spans="2:43" hidden="1" outlineLevel="3">
       <c r="B58" s="10"/>
-      <c r="C58" s="62"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="62"/>
       <c r="E58" s="62"/>
       <c r="F58" s="62"/>
@@ -18700,7 +19337,7 @@
       <c r="Y58" s="62"/>
       <c r="Z58" s="63"/>
       <c r="AA58" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AB58" s="2" t="s">
@@ -18722,8 +19359,8 @@
       <c r="AP58" s="1"/>
       <c r="AQ58" s="1"/>
     </row>
-    <row r="59" spans="2:43">
-      <c r="B59" s="61"/>
+    <row r="59" spans="2:43" hidden="1" outlineLevel="2">
+      <c r="B59" s="10"/>
       <c r="C59" s="62"/>
       <c r="D59" s="62"/>
       <c r="E59" s="62"/>
@@ -18749,7 +19386,7 @@
       <c r="Y59" s="62"/>
       <c r="Z59" s="63"/>
       <c r="AA59" s="8" t="str">
-        <f t="shared" ref="AA59:AA66" ca="1" si="14">IFERROR(OFFSET(A59,0,MATCH("",B59:Z59,-1)),"")</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AB59" s="2" t="s">
@@ -18771,7 +19408,7 @@
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
     </row>
-    <row r="60" spans="2:43">
+    <row r="60" spans="2:43" s="44" customFormat="1">
       <c r="B60" s="61"/>
       <c r="C60" s="62"/>
       <c r="D60" s="62"/>
@@ -18797,28 +19434,28 @@
       <c r="X60" s="62"/>
       <c r="Y60" s="62"/>
       <c r="Z60" s="63"/>
-      <c r="AA60" s="8" t="str">
-        <f t="shared" ca="1" si="14"/>
+      <c r="AA60" s="43" t="str">
+        <f t="shared" ref="AA60:AA65" ca="1" si="15">IFERROR(OFFSET(A60,0,MATCH("",B60:Z60,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB60" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="2"/>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="2"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-      <c r="AM60" s="2"/>
-      <c r="AN60" s="2"/>
-      <c r="AO60" s="2"/>
-      <c r="AP60" s="1"/>
-      <c r="AQ60" s="1"/>
+      <c r="AB60" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="22"/>
+      <c r="AJ60" s="22"/>
+      <c r="AK60" s="22"/>
+      <c r="AL60" s="22"/>
+      <c r="AM60" s="22"/>
+      <c r="AN60" s="22"/>
+      <c r="AO60" s="22"/>
+      <c r="AP60" s="45"/>
+      <c r="AQ60" s="45"/>
     </row>
     <row r="61" spans="2:43" s="44" customFormat="1">
       <c r="B61" s="61"/>
@@ -18847,7 +19484,7 @@
       <c r="Y61" s="62"/>
       <c r="Z61" s="63"/>
       <c r="AA61" s="43" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="AA61:AA62" ca="1" si="16">IFERROR(OFFSET(A61,0,MATCH("",B61:Z61,-1)),"")</f>
         <v/>
       </c>
       <c r="AB61" s="22" t="s">
@@ -18896,7 +19533,7 @@
       <c r="Y62" s="62"/>
       <c r="Z62" s="63"/>
       <c r="AA62" s="43" t="str">
-        <f t="shared" ref="AA62:AA63" ca="1" si="15">IFERROR(OFFSET(A62,0,MATCH("",B62:Z62,-1)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AB62" s="22" t="s">
@@ -18918,7 +19555,7 @@
       <c r="AP62" s="45"/>
       <c r="AQ62" s="45"/>
     </row>
-    <row r="63" spans="2:43" s="44" customFormat="1">
+    <row r="63" spans="2:43">
       <c r="B63" s="61"/>
       <c r="C63" s="62"/>
       <c r="D63" s="62"/>
@@ -18944,28 +19581,28 @@
       <c r="X63" s="62"/>
       <c r="Y63" s="62"/>
       <c r="Z63" s="63"/>
-      <c r="AA63" s="43" t="str">
-        <f t="shared" ca="1" si="15"/>
+      <c r="AA63" s="8" t="str">
+        <f t="shared" ref="AA63:AA64" ca="1" si="17">IFERROR(OFFSET(A63,0,MATCH("",B63:Z63,-1)),"")</f>
         <v/>
       </c>
-      <c r="AB63" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="22"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="22"/>
-      <c r="AI63" s="22"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="22"/>
-      <c r="AM63" s="22"/>
-      <c r="AN63" s="22"/>
-      <c r="AO63" s="22"/>
-      <c r="AP63" s="45"/>
-      <c r="AQ63" s="45"/>
+      <c r="AB63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+      <c r="AM63" s="2"/>
+      <c r="AN63" s="2"/>
+      <c r="AO63" s="2"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
     </row>
     <row r="64" spans="2:43">
       <c r="B64" s="61"/>
@@ -18994,7 +19631,7 @@
       <c r="Y64" s="62"/>
       <c r="Z64" s="63"/>
       <c r="AA64" s="8" t="str">
-        <f t="shared" ref="AA64:AA65" ca="1" si="16">IFERROR(OFFSET(A64,0,MATCH("",B64:Z64,-1)),"")</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB64" s="2" t="s">
@@ -19043,7 +19680,7 @@
       <c r="Y65" s="62"/>
       <c r="Z65" s="63"/>
       <c r="AA65" s="8" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB65" s="2" t="s">
@@ -19114,85 +19751,34 @@
       <c r="AP66" s="1"/>
       <c r="AQ66" s="1"/>
     </row>
-    <row r="67" spans="2:43">
-      <c r="B67" s="61"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="62"/>
-      <c r="S67" s="62"/>
-      <c r="T67" s="62"/>
-      <c r="U67" s="62"/>
-      <c r="V67" s="62"/>
-      <c r="W67" s="62"/>
-      <c r="X67" s="62"/>
-      <c r="Y67" s="62"/>
-      <c r="Z67" s="63"/>
-      <c r="AA67" s="8" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AB67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="2"/>
-      <c r="AF67" s="2"/>
-      <c r="AG67" s="2"/>
-      <c r="AH67" s="2"/>
-      <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
-      <c r="AL67" s="2"/>
-      <c r="AM67" s="2"/>
-      <c r="AN67" s="2"/>
-      <c r="AO67" s="2"/>
-      <c r="AP67" s="1"/>
-      <c r="AQ67" s="1"/>
-    </row>
-    <row r="70" spans="2:43" ht="15" customHeight="1"/>
+    <row r="69" spans="2:43" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B36:Z36"/>
-    <mergeCell ref="C13:Z13"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="C32:Z32"/>
+  <mergeCells count="67">
+    <mergeCell ref="B37:Z37"/>
+    <mergeCell ref="C12:Z12"/>
+    <mergeCell ref="B32:Z32"/>
     <mergeCell ref="C33:Z33"/>
-    <mergeCell ref="C35:Z35"/>
+    <mergeCell ref="C34:Z34"/>
+    <mergeCell ref="C36:Z36"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B29:Z29"/>
+    <mergeCell ref="C30:Z30"/>
+    <mergeCell ref="C31:Z31"/>
+    <mergeCell ref="C23:Z23"/>
+    <mergeCell ref="B24:Z24"/>
+    <mergeCell ref="C25:Z25"/>
+    <mergeCell ref="B26:Z26"/>
     <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="B28:Z28"/>
-    <mergeCell ref="C29:Z29"/>
-    <mergeCell ref="C30:Z30"/>
-    <mergeCell ref="C22:Z22"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C24:Z24"/>
-    <mergeCell ref="B25:Z25"/>
-    <mergeCell ref="C26:Z26"/>
-    <mergeCell ref="B34:Z34"/>
-    <mergeCell ref="B59:Z59"/>
+    <mergeCell ref="B35:Z35"/>
+    <mergeCell ref="B65:Z65"/>
+    <mergeCell ref="B63:Z63"/>
+    <mergeCell ref="B64:Z64"/>
     <mergeCell ref="B60:Z60"/>
-    <mergeCell ref="B66:Z66"/>
-    <mergeCell ref="B64:Z64"/>
-    <mergeCell ref="B65:Z65"/>
     <mergeCell ref="B61:Z61"/>
     <mergeCell ref="B62:Z62"/>
-    <mergeCell ref="B63:Z63"/>
-    <mergeCell ref="C18:Z18"/>
-    <mergeCell ref="D19:Z19"/>
+    <mergeCell ref="C19:Z19"/>
     <mergeCell ref="D20:Z20"/>
+    <mergeCell ref="D21:Z21"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="B7:Z7"/>
@@ -19202,38 +19788,39 @@
     <mergeCell ref="C3:Z3"/>
     <mergeCell ref="C4:Z4"/>
     <mergeCell ref="C5:Z5"/>
-    <mergeCell ref="G47:Z47"/>
+    <mergeCell ref="C14:Z14"/>
+    <mergeCell ref="G48:Z48"/>
     <mergeCell ref="C6:Z6"/>
-    <mergeCell ref="B37:Z37"/>
     <mergeCell ref="B38:Z38"/>
-    <mergeCell ref="C39:Z39"/>
+    <mergeCell ref="B39:Z39"/>
     <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="D41:Z41"/>
+    <mergeCell ref="C41:Z41"/>
+    <mergeCell ref="D42:Z42"/>
     <mergeCell ref="B10:Z10"/>
     <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="C12:Z12"/>
-    <mergeCell ref="B14:Z14"/>
-    <mergeCell ref="C15:Z15"/>
+    <mergeCell ref="C13:Z13"/>
+    <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C16:Z16"/>
-    <mergeCell ref="B17:Z17"/>
-    <mergeCell ref="C21:Z21"/>
-    <mergeCell ref="D42:Z42"/>
-    <mergeCell ref="E43:Z43"/>
+    <mergeCell ref="C17:Z17"/>
+    <mergeCell ref="B18:Z18"/>
+    <mergeCell ref="C22:Z22"/>
+    <mergeCell ref="D43:Z43"/>
     <mergeCell ref="E44:Z44"/>
-    <mergeCell ref="F45:Z45"/>
+    <mergeCell ref="E45:Z45"/>
     <mergeCell ref="F46:Z46"/>
-    <mergeCell ref="B67:Z67"/>
-    <mergeCell ref="G48:Z48"/>
-    <mergeCell ref="H49:Z49"/>
+    <mergeCell ref="F47:Z47"/>
+    <mergeCell ref="B66:Z66"/>
+    <mergeCell ref="G49:Z49"/>
     <mergeCell ref="H50:Z50"/>
-    <mergeCell ref="I51:Z51"/>
+    <mergeCell ref="H51:Z51"/>
     <mergeCell ref="I52:Z52"/>
-    <mergeCell ref="H53:Z53"/>
-    <mergeCell ref="G54:Z54"/>
-    <mergeCell ref="F55:Z55"/>
-    <mergeCell ref="E56:Z56"/>
-    <mergeCell ref="D57:Z57"/>
-    <mergeCell ref="C58:Z58"/>
+    <mergeCell ref="I53:Z53"/>
+    <mergeCell ref="H54:Z54"/>
+    <mergeCell ref="G55:Z55"/>
+    <mergeCell ref="F56:Z56"/>
+    <mergeCell ref="E57:Z57"/>
+    <mergeCell ref="D58:Z58"/>
+    <mergeCell ref="C59:Z59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19378,7 +19965,7 @@
         <v>80</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="2"/>
@@ -19441,14 +20028,14 @@
         <v>237</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>236</v>
       </c>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AK3" s="5">
         <v>80</v>
@@ -19461,7 +20048,7 @@
         <v>229</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="2:43" ht="30">
@@ -19501,13 +20088,13 @@
         <v>240</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AD4" s="22" t="s">
         <v>239</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AF4" s="2" t="s">
         <v>267</v>
@@ -19522,11 +20109,11 @@
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AM4" s="5"/>
       <c r="AN4" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AO4" s="5" t="b">
         <v>1</v>
@@ -19627,7 +20214,7 @@
         <v>244</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -20349,13 +20936,13 @@
         <v>240</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AD19" s="22" t="s">
         <v>239</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
@@ -21544,7 +22131,7 @@
     </row>
     <row r="40" spans="2:43">
       <c r="B40" s="61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C40" s="62"/>
       <c r="D40" s="62"/>
@@ -21589,13 +22176,13 @@
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AQ40" s="1"/>
     </row>
     <row r="41" spans="2:43" collapsed="1">
       <c r="B41" s="61" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C41" s="62"/>
       <c r="D41" s="62"/>
@@ -21640,7 +22227,7 @@
       <c r="AN41" s="2"/>
       <c r="AO41" s="2"/>
       <c r="AP41" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AQ41" s="1"/>
     </row>
@@ -21700,7 +22287,7 @@
       <c r="AN42" s="2"/>
       <c r="AO42" s="2"/>
       <c r="AP42" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AQ42" s="1"/>
     </row>
@@ -21741,7 +22328,7 @@
         <v>244</v>
       </c>
       <c r="AC43" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
@@ -21756,7 +22343,7 @@
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AQ43" s="1"/>
     </row>
@@ -25893,10 +26480,10 @@
         <v>bq query "select string_field_10 as request, count(*) as requestcount from logdata.accesslog group by request order by requestcount desc"</v>
       </c>
       <c r="AB6" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -25905,7 +26492,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AK6" s="1"/>
     </row>
@@ -30424,4 +31011,404 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:A65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Google Cloud Platform Cheatsheet.xlsx
@@ -430,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC87" authorId="0">
+    <comment ref="AC98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC88" authorId="0">
+    <comment ref="AC99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC90" authorId="0">
+    <comment ref="AC101" authorId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE99" authorId="0">
+    <comment ref="AE110" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK107" authorId="0">
+    <comment ref="AK118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE109" authorId="0">
+    <comment ref="AE120" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC117" authorId="0">
+    <comment ref="AC128" authorId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="781">
   <si>
     <t>Details</t>
   </si>
@@ -1195,9 +1195,6 @@
     <t>cloudkms.admin role allows to CRUD KMS objectes (keyrings, keys,…). cloudkms.cryptoKeyEncrypterDecrypter allows to cipher and decipher data using those keys.</t>
   </si>
   <si>
-    <t>gsutil -m cp -r gs://enron_corpus/allen-p .</t>
-  </si>
-  <si>
     <t>Manages keyrings.</t>
   </si>
   <si>
@@ -2391,6 +2388,9 @@
     <t>As user:</t>
   </si>
   <si>
+    <t>cloud-training</t>
+  </si>
+  <si>
     <t>ingress</t>
   </si>
   <si>
@@ -2463,21 +2463,9 @@
     <t>Print URI only?</t>
   </si>
   <si>
-    <t>qwiklabs-gcp-5b57f7da0359cd75</t>
-  </si>
-  <si>
-    <t>echo-service</t>
-  </si>
-  <si>
-    <t>config.yaml</t>
-  </si>
-  <si>
     <t>imports:</t>
   </si>
   <si>
-    <t xml:space="preserve">  - path: instance.jinja</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - path: install-echo.sh</t>
   </si>
   <si>
@@ -2487,12 +2475,6 @@
     <t>resources:</t>
   </si>
   <si>
-    <t xml:space="preserve">  - name: instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    type: instance.jinja</t>
-  </si>
-  <si>
     <t xml:space="preserve">    properties:</t>
   </si>
   <si>
@@ -2511,192 +2493,27 @@
     <t xml:space="preserve">        - key: echo</t>
   </si>
   <si>
-    <t xml:space="preserve">          value: https://storage.googleapis.com/qwiklabs-gcp-5b57f7da0359cd75/echo-0.0.1.tar.gz</t>
-  </si>
-  <si>
-    <t>{#</t>
-  </si>
-  <si>
-    <t>Copyright 2017 Google Inc.</t>
-  </si>
-  <si>
-    <t>Licensed under the Apache License, Version 2.0 (the "License");</t>
-  </si>
-  <si>
-    <t>you may not use this file except in compliance with the License.</t>
-  </si>
-  <si>
-    <t>You may obtain a copy of the License at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    http://www.apache.org/licenses/LICENSE-2.0</t>
-  </si>
-  <si>
-    <t>Unless required by applicable law or agreed to in writing, software</t>
-  </si>
-  <si>
-    <t>distributed under the License is distributed on an "AS IS" BASIS,</t>
-  </si>
-  <si>
-    <t>WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
-  </si>
-  <si>
-    <t>See the License for the specific language governing permissions and</t>
-  </si>
-  <si>
-    <t>limitations under the License.</t>
-  </si>
-  <si>
-    <t>#}</t>
-  </si>
-  <si>
-    <t>- name: {{ env['deployment'] }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  type: compute.v1.instance</t>
-  </si>
-  <si>
     <t xml:space="preserve">  properties:</t>
   </si>
   <si>
     <t xml:space="preserve">    zone: {{ properties['zone'] }}</t>
   </si>
   <si>
-    <t xml:space="preserve">    machineType: zones/{{ properties['zone'] }}/machineTypes/{{ properties['machineType'] }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    metadata:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      items:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - key: deployment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          value: {{ env['deployment'] }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {% if imports['startup-script'] %}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - key: startup-script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          value: |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            {{ imports['startup-script']|indent(12) }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {% endif %}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {% for i in properties["metadata"] %}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - {{ i }} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {% endfor %}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    disks:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      - deviceName: boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        boot: true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        autoDelete: true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        initializeParams:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          diskSizeGb: 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          sourceImage: {{ properties['sourceImage'] }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    networkInterfaces:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      - name: {{ ID }}-eth0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        network: {{ properties['network'] }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {% if properties['subnet'] %}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        subnetwork: {{ properties['subnet'] }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        accessConfigs:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          - name: eth0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            type: ONE_TO_ONE_NAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    serviceAccounts: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      - email: {{ properties['serviceAccount'] }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        scopes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          - 'https://www.googleapis.com/auth/cloud-platform'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {% if properties['tags'] %}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    tags:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {% for i in properties["tags"] %}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        - {{ i }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {% endif %}</t>
-  </si>
-  <si>
     <t>outputs:</t>
   </si>
   <si>
     <t xml:space="preserve">  - name: url</t>
   </si>
   <si>
-    <t xml:space="preserve">    value: http://$(ref.{{ env['deployment'] }}.networkInterfaces[0].accessConfigs[0].natIP)</t>
-  </si>
-  <si>
     <t>info:</t>
   </si>
   <si>
-    <t xml:space="preserve">  title: Test instance</t>
-  </si>
-  <si>
     <t xml:space="preserve">  author: cloud-training@google.com</t>
   </si>
   <si>
     <t xml:space="preserve">  description: |</t>
   </si>
   <si>
-    <t xml:space="preserve">    Creates a test instance</t>
-  </si>
-  <si>
     <t xml:space="preserve">  version: 0.1</t>
   </si>
   <si>
@@ -2821,6 +2638,303 @@
   </si>
   <si>
     <t>Lists even more details of files and directories in Google Cloud Storage buckets.</t>
+  </si>
+  <si>
+    <t>archdp/archdp-echo.tar.gz</t>
+  </si>
+  <si>
+    <t>echo-lb-service</t>
+  </si>
+  <si>
+    <t>http-lb.yaml</t>
+  </si>
+  <si>
+    <t>qwiklabs-gcp-cc2483e60648b3b8</t>
+  </si>
+  <si>
+    <t>Multi-threaded transfer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - path: http-lb-service.jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - name: echo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    type: http-lb-service.jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          value: https://storage.googleapis.com/qwiklabs-gcp-cc2483e60648b3b8/echo-0.0.1.tar.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - path: deployment-manager.jinja</t>
+  </si>
+  <si>
+    <t>{% set id = env["deployment"] %}</t>
+  </si>
+  <si>
+    <t>- name: {{ id }}-it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: compute.v1.instanceTemplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      machineType: {{ properties['machineType'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        items:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - key: deployment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            value: {{ id }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {% if imports['startup-script'] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - key: startup-script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            value: |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              {{ imports['startup-script']|indent(14) }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {% endif %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {% for i in properties["metadata"] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - {{ i }} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {% endfor %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      disks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - deviceName: boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          boot: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          autoDelete: true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          initializeParams:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            diskSizeGb: 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            sourceImage: {{ properties['sourceImage'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      networkInterfaces:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - name: {{ id }}-eth0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          network: {{ properties['network'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {% if properties['subnet'] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            subnetwork: {{ properties['subnet'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          accessConfigs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            - name: eth0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              type: ONE_TO_ONE_NAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      serviceAccounts: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - email: {{ properties['serviceAccount'] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          scopes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            - 'https://www.googleapis.com/auth/cloud-platform'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      {% if properties['tags'] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      tags:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {% for i in properties["tags"] %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          - {{ i }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      {% endif %}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>- name: {{ id }}-igm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: compute.v1.instanceGroupManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    targetSize: {{ properties["maxReplicas"] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    baseInstanceName: {{ id }}-instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    instanceTemplate: $(ref.{{ id }}-it.selfLink)</t>
+  </si>
+  <si>
+    <t>- name: {{ id }}-as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: compute.v1.autoscaler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    zone: {{ properties["zone"] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    target: $(ref.{{ id }}-igm.selfLink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    autoscalingPolicy:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      maxNumReplicas: {{ properties["maxReplicas"] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      cpuUtilization:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        utilizationTarget: 0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      coolDownPeriodSec: 90</t>
+  </si>
+  <si>
+    <t>- name: {{ id }}-hc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: compute.v1.httpHealthCheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    port: {{ properties["port"] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    requestPath: /</t>
+  </si>
+  <si>
+    <t>- name: {{ id }}-bes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: compute.v1.backendService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    portName: {{ env["name"] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    backends:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - name: {{ id }}-{{ properties["service"] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        group: $(ref.{{ id }}-igm.instanceGroup)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    healthChecks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - $(ref.{{ id }}-hc.selfLink)</t>
+  </si>
+  <si>
+    <t>- name: {{ id }}-urlmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: compute.v1.urlMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    defaultService: $(ref.{{ id }}-bes.selfLink)</t>
+  </si>
+  <si>
+    <t>- name: {{ id }}-targetproxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: compute.v1.targetHttpProxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    urlMap: $(ref.{{ id }}-urlmap.selfLink)</t>
+  </si>
+  <si>
+    <t>- name: {{ id }}-l7lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type: compute.v1.globalForwardingRule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    IPProtocol: TCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    portRange: {{ properties["port"] }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    target: $(ref.{{ id }}-targetproxy.selfLink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    value: http://$(ref.{{ id }}-l7lb.IPAddress)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  title: http service template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Creates a http load balanced service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  maxReplicas: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    type: integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description: Max number of instance for backend service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    minimum: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    maximum: 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  port: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    description: Service port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    default: 80</t>
   </si>
 </sst>
 </file>
@@ -3508,7 +3622,9 @@
   </sheetPr>
   <dimension ref="B1:AU203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Z1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
@@ -3597,7 +3713,7 @@
     </row>
     <row r="2" spans="2:47">
       <c r="B2" s="61" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -3648,11 +3764,11 @@
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AU2" s="1"/>
     </row>
-    <row r="3" spans="2:47" ht="30" collapsed="1">
+    <row r="3" spans="2:47" ht="30">
       <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
@@ -3681,7 +3797,7 @@
       <c r="Y3" s="62"/>
       <c r="Z3" s="63"/>
       <c r="AA3" s="8" t="str">
-        <f t="shared" ref="AA3:AA83" ca="1" si="1">IFERROR(OFFSET(A3,0,MATCH("",B3:Z3,-1)),"")</f>
+        <f t="shared" ref="AA3:AA94" ca="1" si="1">IFERROR(OFFSET(A3,0,MATCH("",B3:Z3,-1)),"")</f>
         <v>gcloud compute</v>
       </c>
       <c r="AB3" s="2" t="s">
@@ -3709,7 +3825,7 @@
       </c>
       <c r="AU3" s="1"/>
     </row>
-    <row r="4" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="4" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B4" s="15"/>
       <c r="C4" s="62" t="str">
         <f>B$3&amp;" addresses"</f>
@@ -3763,7 +3879,7 @@
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AU4" s="1"/>
     </row>
@@ -3821,7 +3937,7 @@
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
       <c r="AT5" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU5" s="1"/>
     </row>
@@ -3862,7 +3978,7 @@
         <v>160</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AD6" s="22" t="s">
         <v>161</v>
@@ -3887,7 +4003,7 @@
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AU6" s="1"/>
     </row>
@@ -3928,19 +4044,19 @@
         <v>160</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AD7" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE7" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
@@ -3955,11 +4071,11 @@
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AU7" s="1"/>
     </row>
-    <row r="8" spans="2:47" ht="135" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="8" spans="2:47" ht="135" outlineLevel="1" collapsed="1">
       <c r="B8" s="15"/>
       <c r="C8" s="62" t="str">
         <f>B$3&amp;" backend-services"</f>
@@ -4056,35 +4172,35 @@
         <v>101</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AD9" s="21" t="s">
         <v>130</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AH9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AL9" s="2" t="s">
         <v>173</v>
       </c>
       <c r="AM9" s="5"/>
       <c r="AN9" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AO9" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
@@ -4132,25 +4248,25 @@
         <v>101</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AD10" s="21" t="s">
         <v>168</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AH10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>165</v>
@@ -4173,7 +4289,7 @@
       </c>
       <c r="AU10" s="1"/>
     </row>
-    <row r="11" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="11" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B11" s="12"/>
       <c r="C11" s="62" t="str">
         <f>B$3&amp;" disks"</f>
@@ -4361,7 +4477,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
     </row>
-    <row r="14" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="14" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B14" s="15"/>
       <c r="C14" s="62" t="str">
         <f>B$3&amp;" firewall-rules"</f>
@@ -4473,7 +4589,7 @@
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AU15" s="1"/>
     </row>
@@ -4514,29 +4630,29 @@
         <v>112</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AD16" s="21" t="s">
         <v>124</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF16" s="2" t="s">
         <v>141</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AH16" s="2" t="s">
         <v>137</v>
       </c>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -4547,7 +4663,7 @@
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AU16" s="1"/>
     </row>
@@ -4665,11 +4781,11 @@
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AU18" s="1"/>
     </row>
-    <row r="19" spans="2:47" ht="30" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="19" spans="2:47" ht="30" outlineLevel="1" collapsed="1">
       <c r="B19" s="15"/>
       <c r="C19" s="62" t="str">
         <f>B$3&amp;" forwarding-rules"</f>
@@ -4723,7 +4839,7 @@
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AU19" s="1"/>
     </row>
@@ -4781,7 +4897,7 @@
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AU20" s="1"/>
     </row>
@@ -4822,13 +4938,13 @@
         <v>112</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AD21" s="21" t="s">
         <v>89</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>97</v>
@@ -4840,13 +4956,13 @@
         <v>79</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AJ21" s="2" t="s">
         <v>175</v>
       </c>
       <c r="AK21" s="57" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
@@ -4972,13 +5088,13 @@
         <v>112</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AD23" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>97</v>
@@ -4996,13 +5112,13 @@
         <v>175</v>
       </c>
       <c r="AK23" s="57" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL23" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AM23" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="AM23" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
@@ -5011,7 +5127,7 @@
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AU23" s="1"/>
     </row>
@@ -5052,13 +5168,13 @@
         <v>112</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AD24" s="21" t="s">
         <v>152</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AF24" s="2" t="s">
         <v>97</v>
@@ -5070,32 +5186,32 @@
         <v>79</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AL24" s="2" t="s">
         <v>141</v>
       </c>
       <c r="AM24" s="57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO24" s="57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AU24" s="1"/>
     </row>
@@ -5157,7 +5273,7 @@
       </c>
       <c r="AU25" s="1"/>
     </row>
-    <row r="26" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="26" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B26" s="15"/>
       <c r="C26" s="63" t="str">
         <f>B$3&amp;" health-checks"</f>
@@ -5245,16 +5361,16 @@
         <v>129</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>172</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG27" s="5">
         <v>80</v>
@@ -5276,7 +5392,7 @@
       </c>
       <c r="AU27" s="1"/>
     </row>
-    <row r="28" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="28" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B28" s="56"/>
       <c r="C28" s="62" t="str">
         <f>B$3&amp;" images"</f>
@@ -5394,7 +5510,7 @@
       </c>
       <c r="AU29" s="1"/>
     </row>
-    <row r="30" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="30" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B30" s="15"/>
       <c r="C30" s="62" t="str">
         <f>B$3&amp;" instance-groups"</f>
@@ -5745,13 +5861,13 @@
         <v>92</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AD35" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -5809,19 +5925,19 @@
         <v>92</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>163</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AF36" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
@@ -5972,7 +6088,7 @@
       </c>
       <c r="AU38" s="1"/>
     </row>
-    <row r="39" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="39" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B39" s="15"/>
       <c r="C39" s="62" t="str">
         <f>B$3&amp;" instance-templates"</f>
@@ -6108,7 +6224,7 @@
       </c>
       <c r="AU40" s="1"/>
     </row>
-    <row r="41" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="41" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B41" s="10"/>
       <c r="C41" s="62" t="str">
         <f>B$3&amp;" instances"</f>
@@ -6203,17 +6319,17 @@
         <v>9</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE42" s="5"/>
       <c r="AF42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AG42" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AH42" s="2" t="s">
         <v>139</v>
@@ -6223,28 +6339,28 @@
         <v>125</v>
       </c>
       <c r="AK42" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AL42" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AM42" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AN42" s="2" t="s">
         <v>158</v>
       </c>
       <c r="AO42" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AP42" s="2" t="s">
         <v>159</v>
       </c>
       <c r="AQ42" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AR42" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AS42" s="5"/>
       <c r="AT42" s="1" t="s">
@@ -6448,7 +6564,7 @@
       </c>
       <c r="AU45" s="1"/>
     </row>
-    <row r="46" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="46" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B46" s="56"/>
       <c r="C46" s="62" t="str">
         <f>B$3&amp;" machine-types"</f>
@@ -6628,7 +6744,7 @@
       </c>
       <c r="AU48" s="1"/>
     </row>
-    <row r="49" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="49" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B49" s="15"/>
       <c r="C49" s="62" t="str">
         <f>B$3&amp;" networks"</f>
@@ -6787,7 +6903,7 @@
         <v>115</v>
       </c>
       <c r="AC51" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
@@ -6926,7 +7042,7 @@
       </c>
       <c r="AU53" s="1"/>
     </row>
-    <row r="54" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="54" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B54" s="52"/>
       <c r="C54" s="62" t="str">
         <f>B$3&amp;" regions"</f>
@@ -6980,7 +7096,7 @@
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
       <c r="AT54" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AU54" s="1"/>
     </row>
@@ -7038,11 +7154,11 @@
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
       <c r="AT55" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AU55" s="1"/>
     </row>
-    <row r="56" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="56" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B56" s="52"/>
       <c r="C56" s="62" t="str">
         <f>B$3&amp;" routes"</f>
@@ -7096,7 +7212,7 @@
       <c r="AR56" s="2"/>
       <c r="AS56" s="2"/>
       <c r="AT56" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AU56" s="1"/>
     </row>
@@ -7154,7 +7270,7 @@
       <c r="AR57" s="2"/>
       <c r="AS57" s="2"/>
       <c r="AT57" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU57" s="1"/>
     </row>
@@ -7192,25 +7308,25 @@
         <v>gcloud compute routes create route2to1 --destination-range 10.5.4.0/24 --next-hop-vpn-tunnel tunnel2to1 --next-hop-vpn-tunnel-region europe-west1 --network vpn-network-2</v>
       </c>
       <c r="AB58" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC58" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="AD58" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="AC58" s="5" t="s">
+      <c r="AE58" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="AD58" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE58" s="5" t="s">
-        <v>556</v>
-      </c>
       <c r="AF58" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="AG58" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AH58" s="21" t="s">
         <v>553</v>
-      </c>
-      <c r="AG58" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="AH58" s="21" t="s">
-        <v>554</v>
       </c>
       <c r="AI58" s="5" t="s">
         <v>143</v>
@@ -7219,7 +7335,7 @@
         <v>141</v>
       </c>
       <c r="AK58" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
@@ -7230,11 +7346,11 @@
       <c r="AR58" s="2"/>
       <c r="AS58" s="2"/>
       <c r="AT58" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AU58" s="1"/>
     </row>
-    <row r="59" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="59" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B59" s="12"/>
       <c r="C59" s="62" t="str">
         <f>B$3&amp;" ssh"</f>
@@ -7329,16 +7445,16 @@
         <v>9</v>
       </c>
       <c r="AC60" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD60" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AE60" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF60" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AG60" s="5"/>
       <c r="AH60" s="2"/>
@@ -7358,7 +7474,7 @@
       </c>
       <c r="AU60" s="1"/>
     </row>
-    <row r="61" spans="2:47" ht="105" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="61" spans="2:47" ht="105" outlineLevel="1" collapsed="1">
       <c r="B61" s="15"/>
       <c r="C61" s="62" t="str">
         <f>B$3&amp;" target-http-proxies"</f>
@@ -7482,7 +7598,7 @@
       </c>
       <c r="AU62" s="1"/>
     </row>
-    <row r="63" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="63" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B63" s="15"/>
       <c r="C63" s="62" t="str">
         <f>B$3&amp;" target-pools"</f>
@@ -7577,19 +7693,19 @@
         <v>89</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AD64" s="21" t="s">
         <v>79</v>
       </c>
       <c r="AE64" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="AF64" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG64" s="5" t="s">
         <v>563</v>
-      </c>
-      <c r="AF64" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG64" s="5" t="s">
-        <v>564</v>
       </c>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
@@ -7642,22 +7758,22 @@
         <v>gcloud compute target-pools add-instances extloadbalancer --instances webserver1,webserver2,webserver3 --instances-zone=$MY_ZONE1</v>
       </c>
       <c r="AB65" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AD65" s="21" t="s">
         <v>163</v>
       </c>
       <c r="AE65" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AF65" s="21" t="s">
         <v>11</v>
       </c>
       <c r="AG65" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
@@ -7676,7 +7792,7 @@
       </c>
       <c r="AU65" s="1"/>
     </row>
-    <row r="66" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="66" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B66" s="52"/>
       <c r="C66" s="62" t="str">
         <f>B$3&amp;" target-vpn-gateways"</f>
@@ -7730,7 +7846,7 @@
       <c r="AR66" s="2"/>
       <c r="AS66" s="2"/>
       <c r="AT66" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AU66" s="1"/>
     </row>
@@ -7788,7 +7904,7 @@
       <c r="AR67" s="2"/>
       <c r="AS67" s="2"/>
       <c r="AT67" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AU67" s="1"/>
     </row>
@@ -7826,16 +7942,16 @@
         <v>gcloud compute target-vpn-gateways create vpn-2 --network vpn-network-2 --region us-central1</v>
       </c>
       <c r="AB68" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AD68" s="21" t="s">
         <v>141</v>
       </c>
       <c r="AE68" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF68" s="21" t="s">
         <v>79</v>
@@ -7856,11 +7972,11 @@
       <c r="AR68" s="2"/>
       <c r="AS68" s="2"/>
       <c r="AT68" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AU68" s="1"/>
     </row>
-    <row r="69" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="69" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B69" s="15"/>
       <c r="C69" s="62" t="str">
         <f>B$3&amp;" url-maps"</f>
@@ -8149,10 +8265,10 @@
         <v>121</v>
       </c>
       <c r="AC73" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD73" s="21" t="s">
         <v>471</v>
-      </c>
-      <c r="AD73" s="21" t="s">
-        <v>472</v>
       </c>
       <c r="AE73" s="5">
         <v>23</v>
@@ -8161,7 +8277,7 @@
         <v>79</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
@@ -8176,11 +8292,11 @@
       <c r="AR73" s="2"/>
       <c r="AS73" s="2"/>
       <c r="AT73" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AU73" s="1"/>
     </row>
-    <row r="74" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="74" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B74" s="52"/>
       <c r="C74" s="62" t="str">
         <f>B$3&amp;" vpn-tunnels"</f>
@@ -8234,7 +8350,7 @@
       <c r="AR74" s="2"/>
       <c r="AS74" s="2"/>
       <c r="AT74" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AU74" s="1"/>
     </row>
@@ -8292,7 +8408,7 @@
       <c r="AR75" s="2"/>
       <c r="AS75" s="2"/>
       <c r="AT75" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AU75" s="1"/>
     </row>
@@ -8330,28 +8446,28 @@
         <v>gcloud compute vpn-tunnels create tunnel2to1 --peer-address $STATIC_IP_VPN_1 --shared-secret gcprocks --target-vpn-gateway vpn-2 --region europe-west1 --ike-version 2 --local-traffic-selector 0.0.0.0/0 --remote-traffic-selector 0.0.0.0/0</v>
       </c>
       <c r="AB76" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC76" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD76" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="AC76" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="AD76" s="21" t="s">
+      <c r="AE76" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AF76" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="AE76" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF76" s="21" t="s">
+      <c r="AG76" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH76" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="AG76" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="AH76" s="21" t="s">
-        <v>542</v>
-      </c>
       <c r="AI76" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ76" s="21" t="s">
         <v>79</v>
@@ -8360,31 +8476,31 @@
         <v>143</v>
       </c>
       <c r="AL76" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AM76" s="5">
         <v>2</v>
       </c>
       <c r="AN76" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AO76" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="AP76" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="AO76" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="AP76" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="AQ76" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AR76" s="2"/>
       <c r="AS76" s="2"/>
       <c r="AT76" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AU76" s="1"/>
     </row>
-    <row r="77" spans="2:47" hidden="1" outlineLevel="1">
+    <row r="77" spans="2:47" outlineLevel="1" collapsed="1">
       <c r="B77" s="36"/>
       <c r="C77" s="62" t="str">
         <f>B$3&amp;" zones"</f>
@@ -8438,7 +8554,7 @@
       <c r="AR77" s="2"/>
       <c r="AS77" s="2"/>
       <c r="AT77" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AU77" s="1"/>
     </row>
@@ -8498,7 +8614,7 @@
       <c r="AR78" s="2"/>
       <c r="AS78" s="2"/>
       <c r="AT78" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AU78" s="1"/>
     </row>
@@ -8556,11 +8672,11 @@
       <c r="AR79" s="2"/>
       <c r="AS79" s="2"/>
       <c r="AT79" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU79" s="1"/>
     </row>
-    <row r="80" spans="2:47" hidden="1" outlineLevel="1">
+    <row r="80" spans="2:47" outlineLevel="1">
       <c r="B80" s="10"/>
       <c r="C80" s="61"/>
       <c r="D80" s="62"/>
@@ -8612,9 +8728,9 @@
       <c r="AT80" s="1"/>
       <c r="AU80" s="1"/>
     </row>
-    <row r="81" spans="2:47" collapsed="1">
+    <row r="81" spans="2:47" ht="30" collapsed="1">
       <c r="B81" s="61" t="s">
-        <v>13</v>
+        <v>363</v>
       </c>
       <c r="C81" s="62"/>
       <c r="D81" s="62"/>
@@ -8641,8 +8757,8 @@
       <c r="Y81" s="62"/>
       <c r="Z81" s="63"/>
       <c r="AA81" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>gcloud auth</v>
+        <f ca="1">IFERROR(OFFSET(A81,0,MATCH("",B81:Z81,-1)),"")</f>
+        <v>gcloud deployment-manager</v>
       </c>
       <c r="AB81" s="2" t="s">
         <v>6</v>
@@ -8665,15 +8781,17 @@
       <c r="AR81" s="2"/>
       <c r="AS81" s="2"/>
       <c r="AT81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU81" s="1"/>
-    </row>
-    <row r="82" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B82" s="10"/>
+        <v>364</v>
+      </c>
+      <c r="AU81" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="B82" s="36"/>
       <c r="C82" s="62" t="str">
-        <f>B$81&amp;" list"</f>
-        <v>gcloud auth list</v>
+        <f>B$81&amp;" deployments"</f>
+        <v>gcloud deployment-manager deployments</v>
       </c>
       <c r="D82" s="62"/>
       <c r="E82" s="62"/>
@@ -8699,8 +8817,8 @@
       <c r="Y82" s="62"/>
       <c r="Z82" s="63"/>
       <c r="AA82" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>gcloud auth list</v>
+        <f ca="1">IFERROR(OFFSET(A82,0,MATCH("",B82:Z82,-1)),"")</f>
+        <v>gcloud deployment-manager deployments</v>
       </c>
       <c r="AB82" s="2" t="s">
         <v>6</v>
@@ -8723,49 +8841,47 @@
       <c r="AR82" s="2"/>
       <c r="AS82" s="2"/>
       <c r="AT82" s="1" t="s">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AU82" s="1"/>
     </row>
-    <row r="83" spans="2:47" ht="30" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B83" s="10"/>
-      <c r="C83" s="58" t="str">
-        <f>B$81&amp;" activate-service-account --key-file "&amp;AC83</f>
-        <v>gcloud auth activate-service-account --key-file credentials.json</v>
-      </c>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="59"/>
-      <c r="T83" s="59"/>
-      <c r="U83" s="59"/>
-      <c r="V83" s="59"/>
-      <c r="W83" s="59"/>
-      <c r="X83" s="59"/>
-      <c r="Y83" s="59"/>
-      <c r="Z83" s="60"/>
+    <row r="83" spans="2:47" hidden="1" outlineLevel="2" collapsed="1">
+      <c r="B83" s="36"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="62" t="str">
+        <f>C$82&amp;" create"</f>
+        <v>gcloud deployment-manager deployments create</v>
+      </c>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="62"/>
+      <c r="S83" s="62"/>
+      <c r="T83" s="62"/>
+      <c r="U83" s="62"/>
+      <c r="V83" s="62"/>
+      <c r="W83" s="62"/>
+      <c r="X83" s="62"/>
+      <c r="Y83" s="62"/>
+      <c r="Z83" s="63"/>
       <c r="AA83" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>gcloud auth activate-service-account --key-file credentials.json</v>
-      </c>
-      <c r="AB83" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="AC83" s="5" t="s">
-        <v>476</v>
-      </c>
+        <f ca="1">IFERROR(OFFSET(A83,0,MATCH("",B83:Z83,-1)),"")</f>
+        <v>gcloud deployment-manager deployments create</v>
+      </c>
+      <c r="AB83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
@@ -8783,50 +8899,55 @@
       <c r="AR83" s="2"/>
       <c r="AS83" s="2"/>
       <c r="AT83" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AU83" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="84" spans="2:47" collapsed="1">
-      <c r="B84" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
-      <c r="O84" s="62"/>
-      <c r="P84" s="62"/>
-      <c r="Q84" s="62"/>
-      <c r="R84" s="62"/>
-      <c r="S84" s="62"/>
-      <c r="T84" s="62"/>
-      <c r="U84" s="62"/>
-      <c r="V84" s="62"/>
-      <c r="W84" s="62"/>
-      <c r="X84" s="62"/>
-      <c r="Y84" s="62"/>
-      <c r="Z84" s="63"/>
+        <v>367</v>
+      </c>
+      <c r="AU83" s="1"/>
+    </row>
+    <row r="84" spans="2:47" ht="30" hidden="1" outlineLevel="3">
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="58" t="str">
+        <f>D$83&amp;" "&amp;AC84&amp;" --config "&amp;AE84</f>
+        <v>gcloud deployment-manager deployments create echo-lb-service --config http-lb.yaml</v>
+      </c>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="59"/>
+      <c r="V84" s="59"/>
+      <c r="W84" s="59"/>
+      <c r="X84" s="59"/>
+      <c r="Y84" s="59"/>
+      <c r="Z84" s="60"/>
       <c r="AA84" s="8" t="str">
-        <f t="shared" ref="AA84:AA89" ca="1" si="36">IFERROR(OFFSET(A84,0,MATCH("",B84:Z84,-1)),"")</f>
-        <v>gcloud config</v>
-      </c>
-      <c r="AB84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="2"/>
+        <f ca="1">IFERROR(OFFSET(A84,0,MATCH("",B84:Z84,-1)),"")</f>
+        <v>gcloud deployment-manager deployments create echo-lb-service --config http-lb.yaml</v>
+      </c>
+      <c r="AB84" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC84" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD84" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE84" s="5" t="s">
+        <v>684</v>
+      </c>
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
@@ -8842,17 +8963,14 @@
       <c r="AR84" s="2"/>
       <c r="AS84" s="2"/>
       <c r="AT84" s="1" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="AU84" s="1"/>
     </row>
-    <row r="85" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B85" s="10"/>
-      <c r="C85" s="62" t="str">
-        <f>B$84&amp;" list project"</f>
-        <v>gcloud config list project</v>
-      </c>
-      <c r="D85" s="62"/>
+    <row r="85" spans="2:47" hidden="1" outlineLevel="3">
+      <c r="B85" s="36"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
       <c r="E85" s="62"/>
       <c r="F85" s="62"/>
       <c r="G85" s="62"/>
@@ -8876,8 +8994,8 @@
       <c r="Y85" s="62"/>
       <c r="Z85" s="63"/>
       <c r="AA85" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>gcloud config list project</v>
+        <f ca="1">IFERROR(OFFSET(A85,0,MATCH("",B85:Z85,-1)),"")</f>
+        <v/>
       </c>
       <c r="AB85" s="2" t="s">
         <v>6</v>
@@ -8899,48 +9017,48 @@
       <c r="AQ85" s="2"/>
       <c r="AR85" s="2"/>
       <c r="AS85" s="2"/>
-      <c r="AT85" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AT85" s="1"/>
       <c r="AU85" s="1"/>
     </row>
-    <row r="86" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B86" s="10"/>
-      <c r="C86" s="62" t="str">
-        <f>B$84&amp;" list --all"</f>
-        <v>gcloud config list --all</v>
-      </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
-      <c r="O86" s="62"/>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="62"/>
-      <c r="R86" s="62"/>
-      <c r="S86" s="62"/>
-      <c r="T86" s="62"/>
-      <c r="U86" s="62"/>
-      <c r="V86" s="62"/>
-      <c r="W86" s="62"/>
-      <c r="X86" s="62"/>
-      <c r="Y86" s="62"/>
-      <c r="Z86" s="63"/>
-      <c r="AA86" s="8" t="str">
-        <f t="shared" ref="AA86" ca="1" si="37">IFERROR(OFFSET(A86,0,MATCH("",B86:Z86,-1)),"")</f>
-        <v>gcloud config list --all</v>
-      </c>
-      <c r="AB86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC86" s="2"/>
+    <row r="86" spans="2:47" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="58" t="str">
+        <f>C$82&amp;" delete "&amp;AC86</f>
+        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
+      </c>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
+      <c r="X86" s="59"/>
+      <c r="Y86" s="59"/>
+      <c r="Z86" s="60"/>
+      <c r="AA86" s="43" t="str">
+        <f t="shared" ref="AA86" ca="1" si="36">IFERROR(OFFSET(A86,0,MATCH("",B86:Z86,-1)),"")</f>
+        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
+      </c>
+      <c r="AB86" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC86" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
@@ -8958,51 +9076,55 @@
       <c r="AR86" s="2"/>
       <c r="AS86" s="2"/>
       <c r="AT86" s="1" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
       <c r="AU86" s="1"/>
     </row>
-    <row r="87" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B87" s="15"/>
-      <c r="C87" s="62" t="str">
-        <f>B$84&amp;" set compute/zone "&amp;AC87</f>
-        <v>gcloud config set compute/zone $MY_ZONE</v>
-      </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="62"/>
-      <c r="N87" s="62"/>
-      <c r="O87" s="62"/>
-      <c r="P87" s="62"/>
-      <c r="Q87" s="62"/>
-      <c r="R87" s="62"/>
-      <c r="S87" s="62"/>
-      <c r="T87" s="62"/>
-      <c r="U87" s="62"/>
-      <c r="V87" s="62"/>
-      <c r="W87" s="62"/>
-      <c r="X87" s="62"/>
-      <c r="Y87" s="62"/>
-      <c r="Z87" s="63"/>
-      <c r="AA87" s="8" t="str">
-        <f t="shared" ref="AA87" ca="1" si="38">IFERROR(OFFSET(A87,0,MATCH("",B87:Z87,-1)),"")</f>
-        <v>gcloud config set compute/zone $MY_ZONE</v>
+    <row r="87" spans="2:47" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B87" s="47"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="58" t="str">
+        <f>C$82&amp;" update "&amp;AC87&amp;" --config "&amp;AE87</f>
+        <v>gcloud deployment-manager deployments update my-first-depl --config mydeploy.yaml</v>
+      </c>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="59"/>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="59"/>
+      <c r="S87" s="59"/>
+      <c r="T87" s="59"/>
+      <c r="U87" s="59"/>
+      <c r="V87" s="59"/>
+      <c r="W87" s="59"/>
+      <c r="X87" s="59"/>
+      <c r="Y87" s="59"/>
+      <c r="Z87" s="60"/>
+      <c r="AA87" s="43" t="str">
+        <f t="shared" ref="AA87" ca="1" si="37">IFERROR(OFFSET(A87,0,MATCH("",B87:Z87,-1)),"")</f>
+        <v>gcloud deployment-manager deployments update my-first-depl --config mydeploy.yaml</v>
       </c>
       <c r="AB87" s="21" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="AC87" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD87" s="2"/>
-      <c r="AE87" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="AD87" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE87" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="AF87" s="2"/>
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
@@ -9018,17 +9140,17 @@
       <c r="AR87" s="2"/>
       <c r="AS87" s="2"/>
       <c r="AT87" s="1" t="s">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="AU87" s="1"/>
     </row>
-    <row r="88" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B88" s="15"/>
-      <c r="C88" s="62" t="str">
-        <f>B$84&amp;" set compute/region "&amp;AC88</f>
-        <v>gcloud config set compute/region $MY_REGION</v>
-      </c>
-      <c r="D88" s="62"/>
+    <row r="88" spans="2:47" hidden="1" outlineLevel="2">
+      <c r="B88" s="36"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="62" t="str">
+        <f>C$82&amp;" list"</f>
+        <v>gcloud deployment-manager deployments list</v>
+      </c>
       <c r="E88" s="62"/>
       <c r="F88" s="62"/>
       <c r="G88" s="62"/>
@@ -9052,15 +9174,13 @@
       <c r="Y88" s="62"/>
       <c r="Z88" s="63"/>
       <c r="AA88" s="8" t="str">
-        <f t="shared" ref="AA88" ca="1" si="39">IFERROR(OFFSET(A88,0,MATCH("",B88:Z88,-1)),"")</f>
-        <v>gcloud config set compute/region $MY_REGION</v>
-      </c>
-      <c r="AB88" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC88" s="5" t="s">
-        <v>563</v>
-      </c>
+        <f ca="1">IFERROR(OFFSET(A88,0,MATCH("",B88:Z88,-1)),"")</f>
+        <v>gcloud deployment-manager deployments list</v>
+      </c>
+      <c r="AB88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
@@ -9078,48 +9198,48 @@
       <c r="AR88" s="2"/>
       <c r="AS88" s="2"/>
       <c r="AT88" s="1" t="s">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AU88" s="1"/>
     </row>
-    <row r="89" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B89" s="10"/>
-      <c r="C89" s="62" t="str">
-        <f>B$84&amp;" set project "&amp;AC89</f>
-        <v>gcloud config set project $DEVSHELL_PROJECT_ID</v>
-      </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="62"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="62"/>
-      <c r="J89" s="62"/>
-      <c r="K89" s="62"/>
-      <c r="L89" s="62"/>
-      <c r="M89" s="62"/>
-      <c r="N89" s="62"/>
-      <c r="O89" s="62"/>
-      <c r="P89" s="62"/>
-      <c r="Q89" s="62"/>
-      <c r="R89" s="62"/>
-      <c r="S89" s="62"/>
-      <c r="T89" s="62"/>
-      <c r="U89" s="62"/>
-      <c r="V89" s="62"/>
-      <c r="W89" s="62"/>
-      <c r="X89" s="62"/>
-      <c r="Y89" s="62"/>
-      <c r="Z89" s="63"/>
+    <row r="89" spans="2:47" ht="29.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B89" s="36"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="58" t="str">
+        <f>C$82&amp;" describe "&amp;AC89</f>
+        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
+      </c>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="59"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="59"/>
+      <c r="S89" s="59"/>
+      <c r="T89" s="59"/>
+      <c r="U89" s="59"/>
+      <c r="V89" s="59"/>
+      <c r="W89" s="59"/>
+      <c r="X89" s="59"/>
+      <c r="Y89" s="59"/>
+      <c r="Z89" s="60"/>
       <c r="AA89" s="8" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>gcloud config set project $DEVSHELL_PROJECT_ID</v>
+        <f t="shared" ref="AA89" ca="1" si="38">IFERROR(OFFSET(A89,0,MATCH("",B89:Z89,-1)),"")</f>
+        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
       </c>
       <c r="AB89" s="21" t="s">
-        <v>134</v>
+        <v>376</v>
       </c>
       <c r="AC89" s="5" t="s">
-        <v>217</v>
+        <v>377</v>
       </c>
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
@@ -9138,16 +9258,16 @@
       <c r="AR89" s="2"/>
       <c r="AS89" s="2"/>
       <c r="AT89" s="1" t="s">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="AU89" s="1"/>
     </row>
-    <row r="90" spans="2:47">
-      <c r="B90" s="61" t="str">
-        <f>"gcloud help "&amp;AC90</f>
-        <v>gcloud help config</v>
-      </c>
-      <c r="C90" s="62"/>
+    <row r="90" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="B90" s="36"/>
+      <c r="C90" s="62" t="str">
+        <f>B$81&amp;" types"</f>
+        <v>gcloud deployment-manager types</v>
+      </c>
       <c r="D90" s="62"/>
       <c r="E90" s="62"/>
       <c r="F90" s="62"/>
@@ -9172,15 +9292,13 @@
       <c r="Y90" s="62"/>
       <c r="Z90" s="63"/>
       <c r="AA90" s="8" t="str">
-        <f t="shared" ref="AA90:AA100" ca="1" si="40">IFERROR(OFFSET(A90,0,MATCH("",B90:Z90,-1)),"")</f>
-        <v>gcloud help config</v>
+        <f ca="1">IFERROR(OFFSET(A90,0,MATCH("",B90:Z90,-1)),"")</f>
+        <v>gcloud deployment-manager types</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC90" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
@@ -9198,16 +9316,17 @@
       <c r="AR90" s="2"/>
       <c r="AS90" s="2"/>
       <c r="AT90" s="1" t="s">
-        <v>17</v>
+        <v>373</v>
       </c>
       <c r="AU90" s="1"/>
     </row>
-    <row r="91" spans="2:47" collapsed="1">
-      <c r="B91" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
+    <row r="91" spans="2:47" hidden="1" outlineLevel="2">
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="62" t="str">
+        <f>C$90&amp;" list"</f>
+        <v>gcloud deployment-manager types list</v>
+      </c>
       <c r="E91" s="62"/>
       <c r="F91" s="62"/>
       <c r="G91" s="62"/>
@@ -9231,8 +9350,8 @@
       <c r="Y91" s="62"/>
       <c r="Z91" s="63"/>
       <c r="AA91" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>gcloud init</v>
+        <f ca="1">IFERROR(OFFSET(A91,0,MATCH("",B91:Z91,-1)),"")</f>
+        <v>gcloud deployment-manager types list</v>
       </c>
       <c r="AB91" s="2" t="s">
         <v>6</v>
@@ -9255,16 +9374,15 @@
       <c r="AR91" s="2"/>
       <c r="AS91" s="2"/>
       <c r="AT91" s="1" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
       <c r="AU91" s="1"/>
     </row>
-    <row r="92" spans="2:47" ht="45" hidden="1" outlineLevel="1">
-      <c r="B92" s="10"/>
-      <c r="C92" s="62" t="str">
-        <f>B91&amp;" --console-only"</f>
-        <v>gcloud init --console-only</v>
-      </c>
+    <row r="92" spans="2:47" collapsed="1">
+      <c r="B92" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="62"/>
       <c r="D92" s="62"/>
       <c r="E92" s="62"/>
       <c r="F92" s="62"/>
@@ -9289,8 +9407,8 @@
       <c r="Y92" s="62"/>
       <c r="Z92" s="63"/>
       <c r="AA92" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>gcloud init --console-only</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>gcloud auth</v>
       </c>
       <c r="AB92" s="2" t="s">
         <v>6</v>
@@ -9313,13 +9431,16 @@
       <c r="AR92" s="2"/>
       <c r="AS92" s="2"/>
       <c r="AT92" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AU92" s="1"/>
     </row>
     <row r="93" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B93" s="10"/>
-      <c r="C93" s="62"/>
+      <c r="C93" s="62" t="str">
+        <f>B$92&amp;" list"</f>
+        <v>gcloud auth list</v>
+      </c>
       <c r="D93" s="62"/>
       <c r="E93" s="62"/>
       <c r="F93" s="62"/>
@@ -9344,8 +9465,8 @@
       <c r="Y93" s="62"/>
       <c r="Z93" s="63"/>
       <c r="AA93" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
+        <f t="shared" ca="1" si="1"/>
+        <v>gcloud auth list</v>
       </c>
       <c r="AB93" s="2" t="s">
         <v>6</v>
@@ -9367,45 +9488,50 @@
       <c r="AQ93" s="2"/>
       <c r="AR93" s="2"/>
       <c r="AS93" s="2"/>
-      <c r="AT93" s="1"/>
+      <c r="AT93" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="AU93" s="1"/>
     </row>
-    <row r="94" spans="2:47" collapsed="1">
-      <c r="B94" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" s="62"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="62"/>
-      <c r="H94" s="62"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="62"/>
-      <c r="K94" s="62"/>
-      <c r="L94" s="62"/>
-      <c r="M94" s="62"/>
-      <c r="N94" s="62"/>
-      <c r="O94" s="62"/>
-      <c r="P94" s="62"/>
-      <c r="Q94" s="62"/>
-      <c r="R94" s="62"/>
-      <c r="S94" s="62"/>
-      <c r="T94" s="62"/>
-      <c r="U94" s="62"/>
-      <c r="V94" s="62"/>
-      <c r="W94" s="62"/>
-      <c r="X94" s="62"/>
-      <c r="Y94" s="62"/>
-      <c r="Z94" s="63"/>
+    <row r="94" spans="2:47" ht="30" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B94" s="10"/>
+      <c r="C94" s="58" t="str">
+        <f>B$92&amp;" activate-service-account --key-file "&amp;AC94</f>
+        <v>gcloud auth activate-service-account --key-file credentials.json</v>
+      </c>
+      <c r="D94" s="59"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="59"/>
+      <c r="S94" s="59"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="59"/>
+      <c r="V94" s="59"/>
+      <c r="W94" s="59"/>
+      <c r="X94" s="59"/>
+      <c r="Y94" s="59"/>
+      <c r="Z94" s="60"/>
       <c r="AA94" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>gcloud kms</v>
-      </c>
-      <c r="AB94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC94" s="2"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>gcloud auth activate-service-account --key-file credentials.json</v>
+      </c>
+      <c r="AB94" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC94" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
@@ -9422,15 +9548,18 @@
       <c r="AQ94" s="2"/>
       <c r="AR94" s="2"/>
       <c r="AS94" s="2"/>
-      <c r="AT94" s="1"/>
-      <c r="AU94" s="1"/>
-    </row>
-    <row r="95" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B95" s="27"/>
-      <c r="C95" s="62" t="str">
-        <f>B$94&amp;" keyrings"</f>
-        <v>gcloud kms keyrings</v>
-      </c>
+      <c r="AT94" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AU94" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="95" spans="2:47" collapsed="1">
+      <c r="B95" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="62"/>
       <c r="D95" s="62"/>
       <c r="E95" s="62"/>
       <c r="F95" s="62"/>
@@ -9455,8 +9584,8 @@
       <c r="Y95" s="62"/>
       <c r="Z95" s="63"/>
       <c r="AA95" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>gcloud kms keyrings</v>
+        <f t="shared" ref="AA95:AA100" ca="1" si="39">IFERROR(OFFSET(A95,0,MATCH("",B95:Z95,-1)),"")</f>
+        <v>gcloud config</v>
       </c>
       <c r="AB95" s="2" t="s">
         <v>6</v>
@@ -9479,57 +9608,49 @@
       <c r="AR95" s="2"/>
       <c r="AS95" s="2"/>
       <c r="AT95" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU95" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="96" spans="2:47" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B96" s="27"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="58" t="str">
-        <f>C$95&amp;" create "&amp;AC96&amp;IF(ISBLANK(AE96),""," --location "&amp;AE96)</f>
-        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
-      </c>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="59"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="59"/>
-      <c r="N96" s="59"/>
-      <c r="O96" s="59"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="59"/>
-      <c r="R96" s="59"/>
-      <c r="S96" s="59"/>
-      <c r="T96" s="59"/>
-      <c r="U96" s="59"/>
-      <c r="V96" s="59"/>
-      <c r="W96" s="59"/>
-      <c r="X96" s="59"/>
-      <c r="Y96" s="59"/>
-      <c r="Z96" s="60"/>
+        <v>32</v>
+      </c>
+      <c r="AU95" s="1"/>
+    </row>
+    <row r="96" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B96" s="10"/>
+      <c r="C96" s="62" t="str">
+        <f>B$95&amp;" list project"</f>
+        <v>gcloud config list project</v>
+      </c>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="62"/>
+      <c r="K96" s="62"/>
+      <c r="L96" s="62"/>
+      <c r="M96" s="62"/>
+      <c r="N96" s="62"/>
+      <c r="O96" s="62"/>
+      <c r="P96" s="62"/>
+      <c r="Q96" s="62"/>
+      <c r="R96" s="62"/>
+      <c r="S96" s="62"/>
+      <c r="T96" s="62"/>
+      <c r="U96" s="62"/>
+      <c r="V96" s="62"/>
+      <c r="W96" s="62"/>
+      <c r="X96" s="62"/>
+      <c r="Y96" s="62"/>
+      <c r="Z96" s="63"/>
       <c r="AA96" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
-      </c>
-      <c r="AB96" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC96" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD96" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE96" s="5" t="s">
-        <v>190</v>
-      </c>
+        <f t="shared" ca="1" si="39"/>
+        <v>gcloud config list project</v>
+      </c>
+      <c r="AB96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
@@ -9545,67 +9666,53 @@
       <c r="AR96" s="2"/>
       <c r="AS96" s="2"/>
       <c r="AT96" s="1" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="AU96" s="1"/>
     </row>
-    <row r="97" spans="2:47" ht="60" hidden="1" outlineLevel="2">
-      <c r="B97" s="27"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="58" t="str">
-        <f>C$95&amp;" add-iam-policy-binding "&amp;AC97&amp;" --member "&amp;AE97&amp;" --role "&amp;AG97&amp;IF(ISBLANK(AI97),""," --location "&amp;AI97)</f>
-        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
-      </c>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="59"/>
-      <c r="N97" s="59"/>
-      <c r="O97" s="59"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="59"/>
-      <c r="R97" s="59"/>
-      <c r="S97" s="59"/>
-      <c r="T97" s="59"/>
-      <c r="U97" s="59"/>
-      <c r="V97" s="59"/>
-      <c r="W97" s="59"/>
-      <c r="X97" s="59"/>
-      <c r="Y97" s="59"/>
-      <c r="Z97" s="60"/>
+    <row r="97" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B97" s="10"/>
+      <c r="C97" s="62" t="str">
+        <f>B$95&amp;" list --all"</f>
+        <v>gcloud config list --all</v>
+      </c>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="62"/>
+      <c r="K97" s="62"/>
+      <c r="L97" s="62"/>
+      <c r="M97" s="62"/>
+      <c r="N97" s="62"/>
+      <c r="O97" s="62"/>
+      <c r="P97" s="62"/>
+      <c r="Q97" s="62"/>
+      <c r="R97" s="62"/>
+      <c r="S97" s="62"/>
+      <c r="T97" s="62"/>
+      <c r="U97" s="62"/>
+      <c r="V97" s="62"/>
+      <c r="W97" s="62"/>
+      <c r="X97" s="62"/>
+      <c r="Y97" s="62"/>
+      <c r="Z97" s="63"/>
       <c r="AA97" s="8" t="str">
-        <f t="shared" ref="AA97:AA99" ca="1" si="41">IFERROR(OFFSET(A97,0,MATCH("",B97:Z97,-1)),"")</f>
-        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
-      </c>
-      <c r="AB97" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC97" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD97" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE97" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF97" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG97" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH97" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI97" s="5" t="s">
-        <v>190</v>
-      </c>
+        <f t="shared" ref="AA97" ca="1" si="40">IFERROR(OFFSET(A97,0,MATCH("",B97:Z97,-1)),"")</f>
+        <v>gcloud config list --all</v>
+      </c>
+      <c r="AB97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2"/>
+      <c r="AG97" s="2"/>
+      <c r="AH97" s="2"/>
+      <c r="AI97" s="2"/>
       <c r="AJ97" s="2"/>
       <c r="AK97" s="2"/>
       <c r="AL97" s="2"/>
@@ -9617,17 +9724,15 @@
       <c r="AR97" s="2"/>
       <c r="AS97" s="2"/>
       <c r="AT97" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU97" s="1" t="s">
-        <v>200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AU97" s="1"/>
     </row>
     <row r="98" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B98" s="27"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="62" t="str">
-        <f>B$94&amp;" keys"</f>
-        <v>gcloud kms keys</v>
+        <f>B$95&amp;" set compute/zone "&amp;AC98</f>
+        <v>gcloud config set compute/zone $MY_ZONE</v>
       </c>
       <c r="D98" s="62"/>
       <c r="E98" s="62"/>
@@ -9653,13 +9758,15 @@
       <c r="Y98" s="62"/>
       <c r="Z98" s="63"/>
       <c r="AA98" s="8" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>gcloud kms keys</v>
-      </c>
-      <c r="AB98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC98" s="2"/>
+        <f t="shared" ref="AA98" ca="1" si="41">IFERROR(OFFSET(A98,0,MATCH("",B98:Z98,-1)),"")</f>
+        <v>gcloud config set compute/zone $MY_ZONE</v>
+      </c>
+      <c r="AB98" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC98" s="5" t="s">
+        <v>461</v>
+      </c>
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
@@ -9677,67 +9784,55 @@
       <c r="AR98" s="2"/>
       <c r="AS98" s="2"/>
       <c r="AT98" s="1" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="AU98" s="1"/>
     </row>
-    <row r="99" spans="2:47" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B99" s="27"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="58" t="str">
-        <f>C$98&amp;" create "&amp;AC99&amp;" --purpose "&amp;AE99&amp;IF(ISBLANK(AG99),""," --keyring "&amp;AG99)&amp;IF(ISBLANK(AI99),""," --location "&amp;AI99)</f>
-        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
-      </c>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="59"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="59"/>
-      <c r="S99" s="59"/>
-      <c r="T99" s="59"/>
-      <c r="U99" s="59"/>
-      <c r="V99" s="59"/>
-      <c r="W99" s="59"/>
-      <c r="X99" s="59"/>
-      <c r="Y99" s="59"/>
-      <c r="Z99" s="60"/>
-      <c r="AA99" s="32" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
+    <row r="99" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B99" s="15"/>
+      <c r="C99" s="62" t="str">
+        <f>B$95&amp;" set compute/region "&amp;AC99</f>
+        <v>gcloud config set compute/region $MY_REGION</v>
+      </c>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="62"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="62"/>
+      <c r="N99" s="62"/>
+      <c r="O99" s="62"/>
+      <c r="P99" s="62"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="62"/>
+      <c r="S99" s="62"/>
+      <c r="T99" s="62"/>
+      <c r="U99" s="62"/>
+      <c r="V99" s="62"/>
+      <c r="W99" s="62"/>
+      <c r="X99" s="62"/>
+      <c r="Y99" s="62"/>
+      <c r="Z99" s="63"/>
+      <c r="AA99" s="8" t="str">
+        <f t="shared" ref="AA99" ca="1" si="42">IFERROR(OFFSET(A99,0,MATCH("",B99:Z99,-1)),"")</f>
+        <v>gcloud config set compute/region $MY_REGION</v>
       </c>
       <c r="AB99" s="21" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AC99" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD99" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE99" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF99" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG99" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH99" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI99" s="5" t="s">
-        <v>190</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
+      <c r="AF99" s="2"/>
+      <c r="AG99" s="2"/>
+      <c r="AH99" s="2"/>
+      <c r="AI99" s="2"/>
       <c r="AJ99" s="2"/>
       <c r="AK99" s="2"/>
       <c r="AL99" s="2"/>
@@ -9749,15 +9844,16 @@
       <c r="AR99" s="2"/>
       <c r="AS99" s="2"/>
       <c r="AT99" s="1" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="AU99" s="1"/>
     </row>
-    <row r="100" spans="2:47" ht="30">
-      <c r="B100" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" s="62"/>
+    <row r="100" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B100" s="10"/>
+      <c r="C100" s="62" t="str">
+        <f>B$95&amp;" set project "&amp;AC100</f>
+        <v>gcloud config set project $DEVSHELL_PROJECT_ID</v>
+      </c>
       <c r="D100" s="62"/>
       <c r="E100" s="62"/>
       <c r="F100" s="62"/>
@@ -9782,13 +9878,15 @@
       <c r="Y100" s="62"/>
       <c r="Z100" s="63"/>
       <c r="AA100" s="8" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v>gcloud info</v>
-      </c>
-      <c r="AB100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC100" s="2"/>
+        <f t="shared" ca="1" si="39"/>
+        <v>gcloud config set project $DEVSHELL_PROJECT_ID</v>
+      </c>
+      <c r="AB100" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC100" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
@@ -9806,13 +9904,14 @@
       <c r="AR100" s="2"/>
       <c r="AS100" s="2"/>
       <c r="AT100" s="1" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="AU100" s="1"/>
     </row>
-    <row r="101" spans="2:47" collapsed="1">
-      <c r="B101" s="61" t="s">
-        <v>209</v>
+    <row r="101" spans="2:47">
+      <c r="B101" s="61" t="str">
+        <f>"gcloud help "&amp;AC101</f>
+        <v>gcloud help config</v>
       </c>
       <c r="C101" s="62"/>
       <c r="D101" s="62"/>
@@ -9839,13 +9938,15 @@
       <c r="Y101" s="62"/>
       <c r="Z101" s="63"/>
       <c r="AA101" s="8" t="str">
-        <f t="shared" ref="AA101:AA111" ca="1" si="42">IFERROR(OFFSET(A101,0,MATCH("",B101:Z101,-1)),"")</f>
-        <v>gcloud services</v>
+        <f t="shared" ref="AA101:AA111" ca="1" si="43">IFERROR(OFFSET(A101,0,MATCH("",B101:Z101,-1)),"")</f>
+        <v>gcloud help config</v>
       </c>
       <c r="AB101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC101" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="AC101" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
@@ -9863,16 +9964,15 @@
       <c r="AR101" s="2"/>
       <c r="AS101" s="2"/>
       <c r="AT101" s="1" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="AU101" s="1"/>
     </row>
-    <row r="102" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B102" s="27"/>
-      <c r="C102" s="62" t="str">
-        <f>B$101&amp;" list --available"</f>
-        <v>gcloud services list --available</v>
-      </c>
+    <row r="102" spans="2:47" collapsed="1">
+      <c r="B102" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="62"/>
       <c r="D102" s="62"/>
       <c r="E102" s="62"/>
       <c r="F102" s="62"/>
@@ -9897,8 +9997,8 @@
       <c r="Y102" s="62"/>
       <c r="Z102" s="63"/>
       <c r="AA102" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud services list --available</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud init</v>
       </c>
       <c r="AB102" s="2" t="s">
         <v>6</v>
@@ -9921,15 +10021,15 @@
       <c r="AR102" s="2"/>
       <c r="AS102" s="2"/>
       <c r="AT102" s="1" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="AU102" s="1"/>
     </row>
-    <row r="103" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B103" s="27"/>
+    <row r="103" spans="2:47" ht="45" hidden="1" outlineLevel="1">
+      <c r="B103" s="10"/>
       <c r="C103" s="62" t="str">
-        <f>B$101&amp;" enable "&amp;AC103</f>
-        <v>gcloud services enable cloudkms.googleapis.com</v>
+        <f>B102&amp;" --console-only"</f>
+        <v>gcloud init --console-only</v>
       </c>
       <c r="D103" s="62"/>
       <c r="E103" s="62"/>
@@ -9955,15 +10055,13 @@
       <c r="Y103" s="62"/>
       <c r="Z103" s="63"/>
       <c r="AA103" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud services enable cloudkms.googleapis.com</v>
-      </c>
-      <c r="AB103" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC103" s="5" t="s">
-        <v>213</v>
-      </c>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud init --console-only</v>
+      </c>
+      <c r="AB103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
@@ -9981,14 +10079,12 @@
       <c r="AR103" s="2"/>
       <c r="AS103" s="2"/>
       <c r="AT103" s="1" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="AU103" s="1"/>
     </row>
-    <row r="104" spans="2:47" collapsed="1">
-      <c r="B104" s="61" t="s">
-        <v>225</v>
-      </c>
+    <row r="104" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B104" s="10"/>
       <c r="C104" s="62"/>
       <c r="D104" s="62"/>
       <c r="E104" s="62"/>
@@ -10014,8 +10110,8 @@
       <c r="Y104" s="62"/>
       <c r="Z104" s="63"/>
       <c r="AA104" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud container</v>
+        <f t="shared" ca="1" si="43"/>
+        <v/>
       </c>
       <c r="AB104" s="2" t="s">
         <v>6</v>
@@ -10040,12 +10136,11 @@
       <c r="AT104" s="1"/>
       <c r="AU104" s="1"/>
     </row>
-    <row r="105" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B105" s="27"/>
-      <c r="C105" s="62" t="str">
-        <f>B$104&amp;" clusters"</f>
-        <v>gcloud container clusters</v>
-      </c>
+    <row r="105" spans="2:47" collapsed="1">
+      <c r="B105" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C105" s="62"/>
       <c r="D105" s="62"/>
       <c r="E105" s="62"/>
       <c r="F105" s="62"/>
@@ -10070,8 +10165,8 @@
       <c r="Y105" s="62"/>
       <c r="Z105" s="63"/>
       <c r="AA105" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud container clusters</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud kms</v>
       </c>
       <c r="AB105" s="2" t="s">
         <v>6</v>
@@ -10093,43 +10188,41 @@
       <c r="AQ105" s="2"/>
       <c r="AR105" s="2"/>
       <c r="AS105" s="2"/>
-      <c r="AT105" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="AT105" s="1"/>
       <c r="AU105" s="1"/>
     </row>
-    <row r="106" spans="2:47" hidden="1" outlineLevel="2">
-      <c r="B106" s="33"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="58" t="str">
-        <f>C$105&amp;" list"</f>
-        <v>gcloud container clusters list</v>
-      </c>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="59"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="59"/>
-      <c r="S106" s="59"/>
-      <c r="T106" s="59"/>
-      <c r="U106" s="59"/>
-      <c r="V106" s="59"/>
-      <c r="W106" s="59"/>
-      <c r="X106" s="59"/>
-      <c r="Y106" s="59"/>
-      <c r="Z106" s="60"/>
+    <row r="106" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B106" s="27"/>
+      <c r="C106" s="62" t="str">
+        <f>B$105&amp;" keyrings"</f>
+        <v>gcloud kms keyrings</v>
+      </c>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="62"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="62"/>
+      <c r="O106" s="62"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="62"/>
+      <c r="S106" s="62"/>
+      <c r="T106" s="62"/>
+      <c r="U106" s="62"/>
+      <c r="V106" s="62"/>
+      <c r="W106" s="62"/>
+      <c r="X106" s="62"/>
+      <c r="Y106" s="62"/>
+      <c r="Z106" s="63"/>
       <c r="AA106" s="8" t="str">
-        <f ca="1">IFERROR(OFFSET(A106,0,MATCH("",B106:Z106,-1)),"")</f>
-        <v>gcloud container clusters list</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud kms keyrings</v>
       </c>
       <c r="AB106" s="2" t="s">
         <v>6</v>
@@ -10152,16 +10245,18 @@
       <c r="AR106" s="2"/>
       <c r="AS106" s="2"/>
       <c r="AT106" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AU106" s="1"/>
-    </row>
-    <row r="107" spans="2:47" ht="51" hidden="1" customHeight="1" outlineLevel="2">
+        <v>201</v>
+      </c>
+      <c r="AU106" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="2:47" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B107" s="27"/>
       <c r="C107" s="26"/>
       <c r="D107" s="58" t="str">
-        <f>C$105&amp;" create "&amp;AC107&amp;IF(ISBLANK(AE107),""," --num-nodes "&amp;AE107)&amp;IF(ISBLANK(AG107),""," --machine-type "&amp;AG107)&amp;IF(ISBLANK(AI107),""," --scopes "&amp;AI107)&amp;IF(ISBLANK(AK107),""," --zone "&amp;AK107)</f>
-        <v>gcloud container clusters create $CLUSTER_NAME --zone $MY_ZONE</v>
+        <f>C$106&amp;" create "&amp;AC107&amp;IF(ISBLANK(AE107),""," --location "&amp;AE107)</f>
+        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
       </c>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -10186,33 +10281,27 @@
       <c r="Y107" s="59"/>
       <c r="Z107" s="60"/>
       <c r="AA107" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud container clusters create $CLUSTER_NAME --zone $MY_ZONE</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud kms keyrings create $KEYRING_NAME --location global</v>
       </c>
       <c r="AB107" s="21" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="AC107" s="5" t="s">
-        <v>609</v>
+        <v>188</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE107" s="5"/>
-      <c r="AF107" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG107" s="5"/>
-      <c r="AH107" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI107" s="5"/>
-      <c r="AJ107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK107" s="5" t="s">
-        <v>462</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="AE107" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2"/>
+      <c r="AH107" s="2"/>
+      <c r="AI107" s="2"/>
+      <c r="AJ107" s="2"/>
+      <c r="AK107" s="2"/>
       <c r="AL107" s="2"/>
       <c r="AM107" s="2"/>
       <c r="AN107" s="2"/>
@@ -10222,18 +10311,16 @@
       <c r="AR107" s="2"/>
       <c r="AS107" s="2"/>
       <c r="AT107" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AU107" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="108" spans="2:47" ht="30" hidden="1" outlineLevel="2">
+        <v>203</v>
+      </c>
+      <c r="AU107" s="1"/>
+    </row>
+    <row r="108" spans="2:47" ht="60" hidden="1" outlineLevel="2">
       <c r="B108" s="27"/>
       <c r="C108" s="26"/>
       <c r="D108" s="58" t="str">
-        <f>C$105&amp;" get-credentials "&amp;AC108</f>
-        <v>gcloud container clusters get-credentials jenkins-cd</v>
+        <f>C$106&amp;" add-iam-policy-binding "&amp;AC108&amp;" --member "&amp;AE108&amp;" --role "&amp;AG108&amp;IF(ISBLANK(AI108),""," --location "&amp;AI108)</f>
+        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
       </c>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -10258,21 +10345,33 @@
       <c r="Y108" s="59"/>
       <c r="Z108" s="60"/>
       <c r="AA108" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud container clusters get-credentials jenkins-cd</v>
+        <f t="shared" ref="AA108:AA110" ca="1" si="44">IFERROR(OFFSET(A108,0,MATCH("",B108:Z108,-1)),"")</f>
+        <v>gcloud kms keyrings add-iam-policy-binding $KEYRING_NAME --member user:$USER_EMAIL --role roles/cloudkms.cryptoKeyEncrypterDecrypter --location global</v>
       </c>
       <c r="AB108" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC108" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD108" s="2"/>
-      <c r="AE108" s="2"/>
-      <c r="AF108" s="2"/>
-      <c r="AG108" s="2"/>
-      <c r="AH108" s="2"/>
-      <c r="AI108" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="AC108" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD108" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE108" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF108" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG108" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH108" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI108" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="AJ108" s="2"/>
       <c r="AK108" s="2"/>
       <c r="AL108" s="2"/>
@@ -10284,55 +10383,51 @@
       <c r="AR108" s="2"/>
       <c r="AS108" s="2"/>
       <c r="AT108" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AU108" s="1"/>
-    </row>
-    <row r="109" spans="2:47" ht="26.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B109" s="52"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="58" t="str">
-        <f>C$105&amp;" delete "&amp;AC109&amp;" --zone "&amp;AE109</f>
-        <v>gcloud container clusters delete $CLUSTER_NAME --zone $MY_ZONE</v>
-      </c>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="59"/>
-      <c r="K109" s="59"/>
-      <c r="L109" s="59"/>
-      <c r="M109" s="59"/>
-      <c r="N109" s="59"/>
-      <c r="O109" s="59"/>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="59"/>
-      <c r="R109" s="59"/>
-      <c r="S109" s="59"/>
-      <c r="T109" s="59"/>
-      <c r="U109" s="59"/>
-      <c r="V109" s="59"/>
-      <c r="W109" s="59"/>
-      <c r="X109" s="59"/>
-      <c r="Y109" s="59"/>
-      <c r="Z109" s="60"/>
+        <v>204</v>
+      </c>
+      <c r="AU108" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B109" s="27"/>
+      <c r="C109" s="62" t="str">
+        <f>B$105&amp;" keys"</f>
+        <v>gcloud kms keys</v>
+      </c>
+      <c r="D109" s="62"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="62"/>
+      <c r="K109" s="62"/>
+      <c r="L109" s="62"/>
+      <c r="M109" s="62"/>
+      <c r="N109" s="62"/>
+      <c r="O109" s="62"/>
+      <c r="P109" s="62"/>
+      <c r="Q109" s="62"/>
+      <c r="R109" s="62"/>
+      <c r="S109" s="62"/>
+      <c r="T109" s="62"/>
+      <c r="U109" s="62"/>
+      <c r="V109" s="62"/>
+      <c r="W109" s="62"/>
+      <c r="X109" s="62"/>
+      <c r="Y109" s="62"/>
+      <c r="Z109" s="63"/>
       <c r="AA109" s="8" t="str">
-        <f t="shared" ref="AA109" ca="1" si="43">IFERROR(OFFSET(A109,0,MATCH("",B109:Z109,-1)),"")</f>
-        <v>gcloud container clusters delete $CLUSTER_NAME --zone $MY_ZONE</v>
-      </c>
-      <c r="AB109" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC109" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="AD109" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE109" s="5" t="s">
-        <v>462</v>
-      </c>
+        <f t="shared" ca="1" si="44"/>
+        <v>gcloud kms keys</v>
+      </c>
+      <c r="AB109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
       <c r="AG109" s="2"/>
       <c r="AH109" s="2"/>
@@ -10348,53 +10443,67 @@
       <c r="AR109" s="2"/>
       <c r="AS109" s="2"/>
       <c r="AT109" s="1" t="s">
-        <v>608</v>
+        <v>205</v>
       </c>
       <c r="AU109" s="1"/>
     </row>
-    <row r="110" spans="2:47" ht="30" hidden="1" outlineLevel="1">
+    <row r="110" spans="2:47" ht="39.75" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B110" s="27"/>
-      <c r="C110" s="62" t="str">
-        <f>B$104&amp;" images"</f>
-        <v>gcloud container images</v>
-      </c>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="62"/>
-      <c r="K110" s="62"/>
-      <c r="L110" s="62"/>
-      <c r="M110" s="62"/>
-      <c r="N110" s="62"/>
-      <c r="O110" s="62"/>
-      <c r="P110" s="62"/>
-      <c r="Q110" s="62"/>
-      <c r="R110" s="62"/>
-      <c r="S110" s="62"/>
-      <c r="T110" s="62"/>
-      <c r="U110" s="62"/>
-      <c r="V110" s="62"/>
-      <c r="W110" s="62"/>
-      <c r="X110" s="62"/>
-      <c r="Y110" s="62"/>
-      <c r="Z110" s="63"/>
-      <c r="AA110" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud container images</v>
-      </c>
-      <c r="AB110" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
-      <c r="AE110" s="2"/>
-      <c r="AF110" s="2"/>
-      <c r="AG110" s="2"/>
-      <c r="AH110" s="2"/>
-      <c r="AI110" s="2"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="58" t="str">
+        <f>C$109&amp;" create "&amp;AC110&amp;" --purpose "&amp;AE110&amp;IF(ISBLANK(AG110),""," --keyring "&amp;AG110)&amp;IF(ISBLANK(AI110),""," --location "&amp;AI110)</f>
+        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
+      </c>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="59"/>
+      <c r="K110" s="59"/>
+      <c r="L110" s="59"/>
+      <c r="M110" s="59"/>
+      <c r="N110" s="59"/>
+      <c r="O110" s="59"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="59"/>
+      <c r="R110" s="59"/>
+      <c r="S110" s="59"/>
+      <c r="T110" s="59"/>
+      <c r="U110" s="59"/>
+      <c r="V110" s="59"/>
+      <c r="W110" s="59"/>
+      <c r="X110" s="59"/>
+      <c r="Y110" s="59"/>
+      <c r="Z110" s="60"/>
+      <c r="AA110" s="32" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v>gcloud kms keys create $CRYPTOKEY_NAME --purpose encryption --keyring $KEYRING_NAME --location global</v>
+      </c>
+      <c r="AB110" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC110" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD110" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE110" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF110" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG110" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH110" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI110" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="AJ110" s="2"/>
       <c r="AK110" s="2"/>
       <c r="AL110" s="2"/>
@@ -10406,42 +10515,41 @@
       <c r="AR110" s="2"/>
       <c r="AS110" s="2"/>
       <c r="AT110" s="1" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
       <c r="AU110" s="1"/>
     </row>
-    <row r="111" spans="2:47" hidden="1" outlineLevel="2">
-      <c r="B111" s="33"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="58" t="str">
-        <f>C$110&amp;" list"</f>
-        <v>gcloud container images list</v>
-      </c>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
-      <c r="I111" s="59"/>
-      <c r="J111" s="59"/>
-      <c r="K111" s="59"/>
-      <c r="L111" s="59"/>
-      <c r="M111" s="59"/>
-      <c r="N111" s="59"/>
-      <c r="O111" s="59"/>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="59"/>
-      <c r="R111" s="59"/>
-      <c r="S111" s="59"/>
-      <c r="T111" s="59"/>
-      <c r="U111" s="59"/>
-      <c r="V111" s="59"/>
-      <c r="W111" s="59"/>
-      <c r="X111" s="59"/>
-      <c r="Y111" s="59"/>
-      <c r="Z111" s="60"/>
+    <row r="111" spans="2:47" ht="30">
+      <c r="B111" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="62"/>
+      <c r="K111" s="62"/>
+      <c r="L111" s="62"/>
+      <c r="M111" s="62"/>
+      <c r="N111" s="62"/>
+      <c r="O111" s="62"/>
+      <c r="P111" s="62"/>
+      <c r="Q111" s="62"/>
+      <c r="R111" s="62"/>
+      <c r="S111" s="62"/>
+      <c r="T111" s="62"/>
+      <c r="U111" s="62"/>
+      <c r="V111" s="62"/>
+      <c r="W111" s="62"/>
+      <c r="X111" s="62"/>
+      <c r="Y111" s="62"/>
+      <c r="Z111" s="63"/>
       <c r="AA111" s="8" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>gcloud container images list</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>gcloud info</v>
       </c>
       <c r="AB111" s="2" t="s">
         <v>6</v>
@@ -10464,13 +10572,13 @@
       <c r="AR111" s="2"/>
       <c r="AS111" s="2"/>
       <c r="AT111" s="1" t="s">
-        <v>335</v>
+        <v>28</v>
       </c>
       <c r="AU111" s="1"/>
     </row>
     <row r="112" spans="2:47" collapsed="1">
       <c r="B112" s="61" t="s">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="C112" s="62"/>
       <c r="D112" s="62"/>
@@ -10497,8 +10605,8 @@
       <c r="Y112" s="62"/>
       <c r="Z112" s="63"/>
       <c r="AA112" s="8" t="str">
-        <f t="shared" ref="AA112:AA116" ca="1" si="44">IFERROR(OFFSET(A112,0,MATCH("",B112:Z112,-1)),"")</f>
-        <v>gcloud source</v>
+        <f t="shared" ref="AA112:AA122" ca="1" si="45">IFERROR(OFFSET(A112,0,MATCH("",B112:Z112,-1)),"")</f>
+        <v>gcloud services</v>
       </c>
       <c r="AB112" s="2" t="s">
         <v>6</v>
@@ -10521,15 +10629,15 @@
       <c r="AR112" s="2"/>
       <c r="AS112" s="2"/>
       <c r="AT112" s="1" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="AU112" s="1"/>
     </row>
     <row r="113" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B113" s="33"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="62" t="str">
-        <f>B$112&amp;" repos"</f>
-        <v>gcloud source repos</v>
+        <f>B$112&amp;" list --available"</f>
+        <v>gcloud services list --available</v>
       </c>
       <c r="D113" s="62"/>
       <c r="E113" s="62"/>
@@ -10555,8 +10663,8 @@
       <c r="Y113" s="62"/>
       <c r="Z113" s="63"/>
       <c r="AA113" s="8" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>gcloud source repos</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>gcloud services list --available</v>
       </c>
       <c r="AB113" s="2" t="s">
         <v>6</v>
@@ -10579,48 +10687,48 @@
       <c r="AR113" s="2"/>
       <c r="AS113" s="2"/>
       <c r="AT113" s="1" t="s">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="AU113" s="1"/>
     </row>
-    <row r="114" spans="2:47" ht="30" hidden="1" outlineLevel="2">
-      <c r="B114" s="33"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="58" t="str">
-        <f>C$113&amp;" create "&amp;AC114</f>
-        <v>gcloud source repos create other</v>
-      </c>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="59"/>
-      <c r="I114" s="59"/>
-      <c r="J114" s="59"/>
-      <c r="K114" s="59"/>
-      <c r="L114" s="59"/>
-      <c r="M114" s="59"/>
-      <c r="N114" s="59"/>
-      <c r="O114" s="59"/>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="59"/>
-      <c r="R114" s="59"/>
-      <c r="S114" s="59"/>
-      <c r="T114" s="59"/>
-      <c r="U114" s="59"/>
-      <c r="V114" s="59"/>
-      <c r="W114" s="59"/>
-      <c r="X114" s="59"/>
-      <c r="Y114" s="59"/>
-      <c r="Z114" s="60"/>
+    <row r="114" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B114" s="27"/>
+      <c r="C114" s="62" t="str">
+        <f>B$112&amp;" enable "&amp;AC114</f>
+        <v>gcloud services enable cloudkms.googleapis.com</v>
+      </c>
+      <c r="D114" s="62"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="62"/>
+      <c r="J114" s="62"/>
+      <c r="K114" s="62"/>
+      <c r="L114" s="62"/>
+      <c r="M114" s="62"/>
+      <c r="N114" s="62"/>
+      <c r="O114" s="62"/>
+      <c r="P114" s="62"/>
+      <c r="Q114" s="62"/>
+      <c r="R114" s="62"/>
+      <c r="S114" s="62"/>
+      <c r="T114" s="62"/>
+      <c r="U114" s="62"/>
+      <c r="V114" s="62"/>
+      <c r="W114" s="62"/>
+      <c r="X114" s="62"/>
+      <c r="Y114" s="62"/>
+      <c r="Z114" s="63"/>
       <c r="AA114" s="8" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>gcloud source repos create other</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>gcloud services enable cloudkms.googleapis.com</v>
       </c>
       <c r="AB114" s="21" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="AC114" s="5" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
@@ -10639,49 +10747,46 @@
       <c r="AR114" s="2"/>
       <c r="AS114" s="2"/>
       <c r="AT114" s="1" t="s">
-        <v>315</v>
+        <v>209</v>
       </c>
       <c r="AU114" s="1"/>
     </row>
-    <row r="115" spans="2:47" ht="30" hidden="1" outlineLevel="2">
-      <c r="B115" s="33"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="58" t="str">
-        <f>C$113&amp;" clone "&amp;AC115</f>
-        <v>gcloud source repos clone DEFAULT</v>
-      </c>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="59"/>
-      <c r="H115" s="59"/>
-      <c r="I115" s="59"/>
-      <c r="J115" s="59"/>
-      <c r="K115" s="59"/>
-      <c r="L115" s="59"/>
-      <c r="M115" s="59"/>
-      <c r="N115" s="59"/>
-      <c r="O115" s="59"/>
-      <c r="P115" s="59"/>
-      <c r="Q115" s="59"/>
-      <c r="R115" s="59"/>
-      <c r="S115" s="59"/>
-      <c r="T115" s="59"/>
-      <c r="U115" s="59"/>
-      <c r="V115" s="59"/>
-      <c r="W115" s="59"/>
-      <c r="X115" s="59"/>
-      <c r="Y115" s="59"/>
-      <c r="Z115" s="60"/>
+    <row r="115" spans="2:47" collapsed="1">
+      <c r="B115" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="62"/>
+      <c r="J115" s="62"/>
+      <c r="K115" s="62"/>
+      <c r="L115" s="62"/>
+      <c r="M115" s="62"/>
+      <c r="N115" s="62"/>
+      <c r="O115" s="62"/>
+      <c r="P115" s="62"/>
+      <c r="Q115" s="62"/>
+      <c r="R115" s="62"/>
+      <c r="S115" s="62"/>
+      <c r="T115" s="62"/>
+      <c r="U115" s="62"/>
+      <c r="V115" s="62"/>
+      <c r="W115" s="62"/>
+      <c r="X115" s="62"/>
+      <c r="Y115" s="62"/>
+      <c r="Z115" s="63"/>
       <c r="AA115" s="8" t="str">
-        <f t="shared" ref="AA115" ca="1" si="45">IFERROR(OFFSET(A115,0,MATCH("",B115:Z115,-1)),"")</f>
-        <v>gcloud source repos clone DEFAULT</v>
-      </c>
-      <c r="AB115" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC115" s="5" t="s">
-        <v>347</v>
-      </c>
+        <f t="shared" ca="1" si="45"/>
+        <v>gcloud container</v>
+      </c>
+      <c r="AB115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
@@ -10698,44 +10803,41 @@
       <c r="AQ115" s="2"/>
       <c r="AR115" s="2"/>
       <c r="AS115" s="2"/>
-      <c r="AT115" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AU115" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="116" spans="2:47" collapsed="1">
-      <c r="B116" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="C116" s="62"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="59"/>
-      <c r="I116" s="59"/>
-      <c r="J116" s="59"/>
-      <c r="K116" s="59"/>
-      <c r="L116" s="59"/>
-      <c r="M116" s="59"/>
-      <c r="N116" s="59"/>
-      <c r="O116" s="59"/>
-      <c r="P116" s="59"/>
-      <c r="Q116" s="59"/>
-      <c r="R116" s="59"/>
-      <c r="S116" s="59"/>
-      <c r="T116" s="59"/>
-      <c r="U116" s="59"/>
-      <c r="V116" s="59"/>
-      <c r="W116" s="59"/>
-      <c r="X116" s="59"/>
-      <c r="Y116" s="59"/>
-      <c r="Z116" s="60"/>
+      <c r="AT115" s="1"/>
+      <c r="AU115" s="1"/>
+    </row>
+    <row r="116" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B116" s="27"/>
+      <c r="C116" s="62" t="str">
+        <f>B$115&amp;" clusters"</f>
+        <v>gcloud container clusters</v>
+      </c>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="62"/>
+      <c r="H116" s="62"/>
+      <c r="I116" s="62"/>
+      <c r="J116" s="62"/>
+      <c r="K116" s="62"/>
+      <c r="L116" s="62"/>
+      <c r="M116" s="62"/>
+      <c r="N116" s="62"/>
+      <c r="O116" s="62"/>
+      <c r="P116" s="62"/>
+      <c r="Q116" s="62"/>
+      <c r="R116" s="62"/>
+      <c r="S116" s="62"/>
+      <c r="T116" s="62"/>
+      <c r="U116" s="62"/>
+      <c r="V116" s="62"/>
+      <c r="W116" s="62"/>
+      <c r="X116" s="62"/>
+      <c r="Y116" s="62"/>
+      <c r="Z116" s="63"/>
       <c r="AA116" s="8" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v>gcloud app</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>gcloud container clusters</v>
       </c>
       <c r="AB116" s="2" t="s">
         <v>6</v>
@@ -10758,49 +10860,47 @@
       <c r="AR116" s="2"/>
       <c r="AS116" s="2"/>
       <c r="AT116" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AU116" s="1"/>
     </row>
-    <row r="117" spans="2:47" hidden="1" outlineLevel="1">
+    <row r="117" spans="2:47" hidden="1" outlineLevel="2">
       <c r="B117" s="33"/>
-      <c r="C117" s="61" t="str">
-        <f>B$116&amp;" create"&amp;IF(ISBLANK(AC117),""," --region="&amp;AC117)</f>
-        <v>gcloud app create --region=$REGION</v>
-      </c>
-      <c r="D117" s="62"/>
-      <c r="E117" s="62"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="62"/>
-      <c r="H117" s="62"/>
-      <c r="I117" s="62"/>
-      <c r="J117" s="62"/>
-      <c r="K117" s="62"/>
-      <c r="L117" s="62"/>
-      <c r="M117" s="62"/>
-      <c r="N117" s="62"/>
-      <c r="O117" s="62"/>
-      <c r="P117" s="62"/>
-      <c r="Q117" s="62"/>
-      <c r="R117" s="62"/>
-      <c r="S117" s="62"/>
-      <c r="T117" s="62"/>
-      <c r="U117" s="62"/>
-      <c r="V117" s="62"/>
-      <c r="W117" s="62"/>
-      <c r="X117" s="62"/>
-      <c r="Y117" s="62"/>
-      <c r="Z117" s="63"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="58" t="str">
+        <f>C$116&amp;" list"</f>
+        <v>gcloud container clusters list</v>
+      </c>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="59"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="59"/>
+      <c r="J117" s="59"/>
+      <c r="K117" s="59"/>
+      <c r="L117" s="59"/>
+      <c r="M117" s="59"/>
+      <c r="N117" s="59"/>
+      <c r="O117" s="59"/>
+      <c r="P117" s="59"/>
+      <c r="Q117" s="59"/>
+      <c r="R117" s="59"/>
+      <c r="S117" s="59"/>
+      <c r="T117" s="59"/>
+      <c r="U117" s="59"/>
+      <c r="V117" s="59"/>
+      <c r="W117" s="59"/>
+      <c r="X117" s="59"/>
+      <c r="Y117" s="59"/>
+      <c r="Z117" s="60"/>
       <c r="AA117" s="8" t="str">
-        <f t="shared" ref="AA117:AA120" ca="1" si="46">IFERROR(OFFSET(A117,0,MATCH("",B117:Z117,-1)),"")</f>
-        <v>gcloud app create --region=$REGION</v>
+        <f ca="1">IFERROR(OFFSET(A117,0,MATCH("",B117:Z117,-1)),"")</f>
+        <v>gcloud container clusters list</v>
       </c>
       <c r="AB117" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC117" s="5" t="s">
-        <v>389</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
@@ -10818,63 +10918,67 @@
       <c r="AR117" s="2"/>
       <c r="AS117" s="2"/>
       <c r="AT117" s="1" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="AU117" s="1"/>
     </row>
-    <row r="118" spans="2:47" ht="90" hidden="1" outlineLevel="1">
-      <c r="B118" s="33"/>
-      <c r="C118" s="61" t="str">
-        <f>B$116&amp;" deploy"&amp;IF(ISBLANK(AC118),""," "&amp;AC118)&amp;IF(ISBLANK(AE118),""," --version "&amp;AE118)&amp;IF(AG118," --quiet","")</f>
-        <v>gcloud app deploy app.yaml --quiet</v>
-      </c>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="62"/>
-      <c r="G118" s="62"/>
-      <c r="H118" s="62"/>
-      <c r="I118" s="62"/>
-      <c r="J118" s="62"/>
-      <c r="K118" s="62"/>
-      <c r="L118" s="62"/>
-      <c r="M118" s="62"/>
-      <c r="N118" s="62"/>
-      <c r="O118" s="62"/>
-      <c r="P118" s="62"/>
-      <c r="Q118" s="62"/>
-      <c r="R118" s="62"/>
-      <c r="S118" s="62"/>
-      <c r="T118" s="62"/>
-      <c r="U118" s="62"/>
-      <c r="V118" s="62"/>
-      <c r="W118" s="62"/>
-      <c r="X118" s="62"/>
-      <c r="Y118" s="62"/>
-      <c r="Z118" s="63"/>
+    <row r="118" spans="2:47" ht="51" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B118" s="27"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="58" t="str">
+        <f>C$116&amp;" create "&amp;AC118&amp;IF(ISBLANK(AE118),""," --num-nodes "&amp;AE118)&amp;IF(ISBLANK(AG118),""," --machine-type "&amp;AG118)&amp;IF(ISBLANK(AI118),""," --scopes "&amp;AI118)&amp;IF(ISBLANK(AK118),""," --zone "&amp;AK118)</f>
+        <v>gcloud container clusters create $CLUSTER_NAME --zone $MY_ZONE</v>
+      </c>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="59"/>
+      <c r="I118" s="59"/>
+      <c r="J118" s="59"/>
+      <c r="K118" s="59"/>
+      <c r="L118" s="59"/>
+      <c r="M118" s="59"/>
+      <c r="N118" s="59"/>
+      <c r="O118" s="59"/>
+      <c r="P118" s="59"/>
+      <c r="Q118" s="59"/>
+      <c r="R118" s="59"/>
+      <c r="S118" s="59"/>
+      <c r="T118" s="59"/>
+      <c r="U118" s="59"/>
+      <c r="V118" s="59"/>
+      <c r="W118" s="59"/>
+      <c r="X118" s="59"/>
+      <c r="Y118" s="59"/>
+      <c r="Z118" s="60"/>
       <c r="AA118" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud app deploy app.yaml --quiet</v>
-      </c>
-      <c r="AB118" s="2" t="s">
-        <v>344</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>gcloud container clusters create $CLUSTER_NAME --zone $MY_ZONE</v>
+      </c>
+      <c r="AB118" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="AC118" s="5" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
       <c r="AD118" s="2" t="s">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c r="AE118" s="5"/>
       <c r="AF118" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="AG118" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH118" s="2"/>
-      <c r="AI118" s="2"/>
-      <c r="AJ118" s="2"/>
-      <c r="AK118" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="AG118" s="5"/>
+      <c r="AH118" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI118" s="5"/>
+      <c r="AJ118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK118" s="5" t="s">
+        <v>461</v>
+      </c>
       <c r="AL118" s="2"/>
       <c r="AM118" s="2"/>
       <c r="AN118" s="2"/>
@@ -10884,49 +10988,51 @@
       <c r="AR118" s="2"/>
       <c r="AS118" s="2"/>
       <c r="AT118" s="1" t="s">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="119" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B119" s="50"/>
-      <c r="C119" s="61" t="str">
-        <f>B$116&amp;" browse"</f>
-        <v>gcloud app browse</v>
-      </c>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="62"/>
-      <c r="G119" s="62"/>
-      <c r="H119" s="62"/>
-      <c r="I119" s="62"/>
-      <c r="J119" s="62"/>
-      <c r="K119" s="62"/>
-      <c r="L119" s="62"/>
-      <c r="M119" s="62"/>
-      <c r="N119" s="62"/>
-      <c r="O119" s="62"/>
-      <c r="P119" s="62"/>
-      <c r="Q119" s="62"/>
-      <c r="R119" s="62"/>
-      <c r="S119" s="62"/>
-      <c r="T119" s="62"/>
-      <c r="U119" s="62"/>
-      <c r="V119" s="62"/>
-      <c r="W119" s="62"/>
-      <c r="X119" s="62"/>
-      <c r="Y119" s="62"/>
-      <c r="Z119" s="63"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="2:47" ht="30" hidden="1" outlineLevel="2">
+      <c r="B119" s="27"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="58" t="str">
+        <f>C$116&amp;" get-credentials "&amp;AC119</f>
+        <v>gcloud container clusters get-credentials jenkins-cd</v>
+      </c>
+      <c r="E119" s="59"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="59"/>
+      <c r="H119" s="59"/>
+      <c r="I119" s="59"/>
+      <c r="J119" s="59"/>
+      <c r="K119" s="59"/>
+      <c r="L119" s="59"/>
+      <c r="M119" s="59"/>
+      <c r="N119" s="59"/>
+      <c r="O119" s="59"/>
+      <c r="P119" s="59"/>
+      <c r="Q119" s="59"/>
+      <c r="R119" s="59"/>
+      <c r="S119" s="59"/>
+      <c r="T119" s="59"/>
+      <c r="U119" s="59"/>
+      <c r="V119" s="59"/>
+      <c r="W119" s="59"/>
+      <c r="X119" s="59"/>
+      <c r="Y119" s="59"/>
+      <c r="Z119" s="60"/>
       <c r="AA119" s="8" t="str">
-        <f t="shared" ref="AA119" ca="1" si="47">IFERROR(OFFSET(A119,0,MATCH("",B119:Z119,-1)),"")</f>
-        <v>gcloud app browse</v>
-      </c>
-      <c r="AB119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC119" s="2"/>
+        <f t="shared" ca="1" si="45"/>
+        <v>gcloud container clusters get-credentials jenkins-cd</v>
+      </c>
+      <c r="AB119" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC119" s="23" t="s">
+        <v>289</v>
+      </c>
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
@@ -10944,16 +11050,17 @@
       <c r="AR119" s="2"/>
       <c r="AS119" s="2"/>
       <c r="AT119" s="1" t="s">
-        <v>513</v>
+        <v>225</v>
       </c>
       <c r="AU119" s="1"/>
     </row>
-    <row r="120" spans="2:47" collapsed="1">
-      <c r="B120" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="C120" s="62"/>
-      <c r="D120" s="58"/>
+    <row r="120" spans="2:47" ht="26.25" hidden="1" customHeight="1" outlineLevel="2">
+      <c r="B120" s="52"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="58" t="str">
+        <f>C$116&amp;" delete "&amp;AC120&amp;" --zone "&amp;AE120</f>
+        <v>gcloud container clusters delete $CLUSTER_NAME --zone $MY_ZONE</v>
+      </c>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
       <c r="G120" s="59"/>
@@ -10977,15 +11084,21 @@
       <c r="Y120" s="59"/>
       <c r="Z120" s="60"/>
       <c r="AA120" s="8" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>gcloud datastore</v>
-      </c>
-      <c r="AB120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC120" s="2"/>
-      <c r="AD120" s="2"/>
-      <c r="AE120" s="2"/>
+        <f t="shared" ref="AA120" ca="1" si="46">IFERROR(OFFSET(A120,0,MATCH("",B120:Z120,-1)),"")</f>
+        <v>gcloud container clusters delete $CLUSTER_NAME --zone $MY_ZONE</v>
+      </c>
+      <c r="AB120" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC120" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD120" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE120" s="5" t="s">
+        <v>461</v>
+      </c>
       <c r="AF120" s="2"/>
       <c r="AG120" s="2"/>
       <c r="AH120" s="2"/>
@@ -11001,15 +11114,15 @@
       <c r="AR120" s="2"/>
       <c r="AS120" s="2"/>
       <c r="AT120" s="1" t="s">
-        <v>345</v>
+        <v>608</v>
       </c>
       <c r="AU120" s="1"/>
     </row>
-    <row r="121" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B121" s="33"/>
-      <c r="C121" s="61" t="str">
-        <f>B$120&amp;" create-indexes "&amp;AC121</f>
-        <v>gcloud datastore create-indexes index.yaml</v>
+    <row r="121" spans="2:47" ht="30" hidden="1" outlineLevel="1">
+      <c r="B121" s="27"/>
+      <c r="C121" s="62" t="str">
+        <f>B$115&amp;" images"</f>
+        <v>gcloud container images</v>
       </c>
       <c r="D121" s="62"/>
       <c r="E121" s="62"/>
@@ -11035,15 +11148,13 @@
       <c r="Y121" s="62"/>
       <c r="Z121" s="63"/>
       <c r="AA121" s="8" t="str">
-        <f t="shared" ref="AA121:AA124" ca="1" si="48">IFERROR(OFFSET(A121,0,MATCH("",B121:Z121,-1)),"")</f>
-        <v>gcloud datastore create-indexes index.yaml</v>
-      </c>
-      <c r="AB121" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC121" s="5" t="s">
-        <v>339</v>
-      </c>
+        <f t="shared" ca="1" si="45"/>
+        <v>gcloud container images</v>
+      </c>
+      <c r="AB121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
@@ -11061,41 +11172,42 @@
       <c r="AR121" s="2"/>
       <c r="AS121" s="2"/>
       <c r="AT121" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AU121" s="1"/>
     </row>
-    <row r="122" spans="2:47" collapsed="1">
-      <c r="B122" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="62"/>
-      <c r="I122" s="62"/>
-      <c r="J122" s="62"/>
-      <c r="K122" s="62"/>
-      <c r="L122" s="62"/>
-      <c r="M122" s="62"/>
-      <c r="N122" s="62"/>
-      <c r="O122" s="62"/>
-      <c r="P122" s="62"/>
-      <c r="Q122" s="62"/>
-      <c r="R122" s="62"/>
-      <c r="S122" s="62"/>
-      <c r="T122" s="62"/>
-      <c r="U122" s="62"/>
-      <c r="V122" s="62"/>
-      <c r="W122" s="62"/>
-      <c r="X122" s="62"/>
-      <c r="Y122" s="62"/>
-      <c r="Z122" s="63"/>
+    <row r="122" spans="2:47" hidden="1" outlineLevel="2">
+      <c r="B122" s="33"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="58" t="str">
+        <f>C$121&amp;" list"</f>
+        <v>gcloud container images list</v>
+      </c>
+      <c r="E122" s="59"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="59"/>
+      <c r="L122" s="59"/>
+      <c r="M122" s="59"/>
+      <c r="N122" s="59"/>
+      <c r="O122" s="59"/>
+      <c r="P122" s="59"/>
+      <c r="Q122" s="59"/>
+      <c r="R122" s="59"/>
+      <c r="S122" s="59"/>
+      <c r="T122" s="59"/>
+      <c r="U122" s="59"/>
+      <c r="V122" s="59"/>
+      <c r="W122" s="59"/>
+      <c r="X122" s="59"/>
+      <c r="Y122" s="59"/>
+      <c r="Z122" s="60"/>
       <c r="AA122" s="8" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>gcloud debug</v>
+        <f t="shared" ca="1" si="45"/>
+        <v>gcloud container images list</v>
       </c>
       <c r="AB122" s="2" t="s">
         <v>6</v>
@@ -11118,16 +11230,15 @@
       <c r="AR122" s="2"/>
       <c r="AS122" s="2"/>
       <c r="AT122" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="AU122" s="1"/>
     </row>
-    <row r="123" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B123" s="33"/>
-      <c r="C123" s="62" t="str">
-        <f>B$122&amp;" logpoints"</f>
-        <v>gcloud debug logpoints</v>
-      </c>
+    <row r="123" spans="2:47" collapsed="1">
+      <c r="B123" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C123" s="62"/>
       <c r="D123" s="62"/>
       <c r="E123" s="62"/>
       <c r="F123" s="62"/>
@@ -11152,8 +11263,8 @@
       <c r="Y123" s="62"/>
       <c r="Z123" s="63"/>
       <c r="AA123" s="8" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>gcloud debug logpoints</v>
+        <f t="shared" ref="AA123:AA127" ca="1" si="47">IFERROR(OFFSET(A123,0,MATCH("",B123:Z123,-1)),"")</f>
+        <v>gcloud source</v>
       </c>
       <c r="AB123" s="2" t="s">
         <v>6</v>
@@ -11176,17 +11287,17 @@
       <c r="AR123" s="2"/>
       <c r="AS123" s="2"/>
       <c r="AT123" s="1" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="AU123" s="1"/>
     </row>
-    <row r="124" spans="2:47" hidden="1" outlineLevel="2">
+    <row r="124" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B124" s="33"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="62" t="str">
-        <f>C$123&amp;" list"</f>
-        <v>gcloud debug logpoints list</v>
-      </c>
+      <c r="C124" s="62" t="str">
+        <f>B$123&amp;" repos"</f>
+        <v>gcloud source repos</v>
+      </c>
+      <c r="D124" s="62"/>
       <c r="E124" s="62"/>
       <c r="F124" s="62"/>
       <c r="G124" s="62"/>
@@ -11210,8 +11321,8 @@
       <c r="Y124" s="62"/>
       <c r="Z124" s="63"/>
       <c r="AA124" s="8" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>gcloud debug logpoints list</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud source repos</v>
       </c>
       <c r="AB124" s="2" t="s">
         <v>6</v>
@@ -11234,16 +11345,16 @@
       <c r="AR124" s="2"/>
       <c r="AS124" s="2"/>
       <c r="AT124" s="1" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="AU124" s="1"/>
     </row>
-    <row r="125" spans="2:47" ht="60" hidden="1" outlineLevel="2">
+    <row r="125" spans="2:47" ht="30" hidden="1" outlineLevel="2">
       <c r="B125" s="33"/>
       <c r="C125" s="34"/>
       <c r="D125" s="58" t="str">
-        <f>C$123&amp;" create "&amp;AC125&amp;" "&amp;AE125</f>
-        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
+        <f>C$124&amp;" create "&amp;AC125</f>
+        <v>gcloud source repos create other</v>
       </c>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
@@ -11268,21 +11379,17 @@
       <c r="Y125" s="59"/>
       <c r="Z125" s="60"/>
       <c r="AA125" s="8" t="str">
-        <f t="shared" ref="AA125:AA135" ca="1" si="49">IFERROR(OFFSET(A125,0,MATCH("",B125:Z125,-1)),"")</f>
-        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud source repos create other</v>
       </c>
       <c r="AB125" s="21" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="AC125" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD125" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE125" s="5" t="s">
-        <v>357</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
       <c r="AG125" s="2"/>
       <c r="AH125" s="2"/>
@@ -11298,46 +11405,49 @@
       <c r="AR125" s="2"/>
       <c r="AS125" s="2"/>
       <c r="AT125" s="1" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="AU125" s="1"/>
     </row>
-    <row r="126" spans="2:47" collapsed="1">
-      <c r="B126" s="61" t="s">
-        <v>358</v>
-      </c>
-      <c r="C126" s="62"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="62"/>
-      <c r="L126" s="62"/>
-      <c r="M126" s="62"/>
-      <c r="N126" s="62"/>
-      <c r="O126" s="62"/>
-      <c r="P126" s="62"/>
-      <c r="Q126" s="62"/>
-      <c r="R126" s="62"/>
-      <c r="S126" s="62"/>
-      <c r="T126" s="62"/>
-      <c r="U126" s="62"/>
-      <c r="V126" s="62"/>
-      <c r="W126" s="62"/>
-      <c r="X126" s="62"/>
-      <c r="Y126" s="62"/>
-      <c r="Z126" s="63"/>
+    <row r="126" spans="2:47" ht="30" hidden="1" outlineLevel="2">
+      <c r="B126" s="33"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="58" t="str">
+        <f>C$124&amp;" clone "&amp;AC126</f>
+        <v>gcloud source repos clone DEFAULT</v>
+      </c>
+      <c r="E126" s="59"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="59"/>
+      <c r="K126" s="59"/>
+      <c r="L126" s="59"/>
+      <c r="M126" s="59"/>
+      <c r="N126" s="59"/>
+      <c r="O126" s="59"/>
+      <c r="P126" s="59"/>
+      <c r="Q126" s="59"/>
+      <c r="R126" s="59"/>
+      <c r="S126" s="59"/>
+      <c r="T126" s="59"/>
+      <c r="U126" s="59"/>
+      <c r="V126" s="59"/>
+      <c r="W126" s="59"/>
+      <c r="X126" s="59"/>
+      <c r="Y126" s="59"/>
+      <c r="Z126" s="60"/>
       <c r="AA126" s="8" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v>gcloud sql</v>
-      </c>
-      <c r="AB126" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC126" s="2"/>
+        <f t="shared" ref="AA126" ca="1" si="48">IFERROR(OFFSET(A126,0,MATCH("",B126:Z126,-1)),"")</f>
+        <v>gcloud source repos clone DEFAULT</v>
+      </c>
+      <c r="AB126" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC126" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
@@ -11355,55 +11465,50 @@
       <c r="AR126" s="2"/>
       <c r="AS126" s="2"/>
       <c r="AT126" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AU126" s="1"/>
-    </row>
-    <row r="127" spans="2:47" hidden="1" outlineLevel="1">
-      <c r="B127" s="36"/>
-      <c r="C127" s="62" t="str">
-        <f>B126&amp;" connect "&amp;AC127&amp;IF(ISBLANK(AE127),""," --user="&amp;AE127)</f>
-        <v>gcloud sql connect myinstance --user=root</v>
-      </c>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="62"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="62"/>
-      <c r="J127" s="62"/>
-      <c r="K127" s="62"/>
-      <c r="L127" s="62"/>
-      <c r="M127" s="62"/>
-      <c r="N127" s="62"/>
-      <c r="O127" s="62"/>
-      <c r="P127" s="62"/>
-      <c r="Q127" s="62"/>
-      <c r="R127" s="62"/>
-      <c r="S127" s="62"/>
-      <c r="T127" s="62"/>
-      <c r="U127" s="62"/>
-      <c r="V127" s="62"/>
-      <c r="W127" s="62"/>
-      <c r="X127" s="62"/>
-      <c r="Y127" s="62"/>
-      <c r="Z127" s="63"/>
+        <v>347</v>
+      </c>
+      <c r="AU126" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="2:47" collapsed="1">
+      <c r="B127" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="C127" s="62"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="59"/>
+      <c r="H127" s="59"/>
+      <c r="I127" s="59"/>
+      <c r="J127" s="59"/>
+      <c r="K127" s="59"/>
+      <c r="L127" s="59"/>
+      <c r="M127" s="59"/>
+      <c r="N127" s="59"/>
+      <c r="O127" s="59"/>
+      <c r="P127" s="59"/>
+      <c r="Q127" s="59"/>
+      <c r="R127" s="59"/>
+      <c r="S127" s="59"/>
+      <c r="T127" s="59"/>
+      <c r="U127" s="59"/>
+      <c r="V127" s="59"/>
+      <c r="W127" s="59"/>
+      <c r="X127" s="59"/>
+      <c r="Y127" s="59"/>
+      <c r="Z127" s="60"/>
       <c r="AA127" s="8" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v>gcloud sql connect myinstance --user=root</v>
-      </c>
-      <c r="AB127" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="AC127" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD127" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE127" s="5" t="s">
-        <v>363</v>
-      </c>
+        <f t="shared" ca="1" si="47"/>
+        <v>gcloud app</v>
+      </c>
+      <c r="AB127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC127" s="2"/>
+      <c r="AD127" s="2"/>
+      <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
       <c r="AG127" s="2"/>
       <c r="AH127" s="2"/>
@@ -11419,15 +11524,16 @@
       <c r="AR127" s="2"/>
       <c r="AS127" s="2"/>
       <c r="AT127" s="1" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="AU127" s="1"/>
     </row>
-    <row r="128" spans="2:47" ht="30" collapsed="1">
-      <c r="B128" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="C128" s="62"/>
+    <row r="128" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B128" s="33"/>
+      <c r="C128" s="61" t="str">
+        <f>B$127&amp;" create"&amp;IF(ISBLANK(AC128),""," --region="&amp;AC128)</f>
+        <v>gcloud app create --region=$REGION</v>
+      </c>
       <c r="D128" s="62"/>
       <c r="E128" s="62"/>
       <c r="F128" s="62"/>
@@ -11452,13 +11558,15 @@
       <c r="Y128" s="62"/>
       <c r="Z128" s="63"/>
       <c r="AA128" s="8" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v>gcloud deployment-manager</v>
+        <f t="shared" ref="AA128:AA131" ca="1" si="49">IFERROR(OFFSET(A128,0,MATCH("",B128:Z128,-1)),"")</f>
+        <v>gcloud app create --region=$REGION</v>
       </c>
       <c r="AB128" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC128" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC128" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
@@ -11476,17 +11584,15 @@
       <c r="AR128" s="2"/>
       <c r="AS128" s="2"/>
       <c r="AT128" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AU128" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="129" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B129" s="36"/>
-      <c r="C129" s="62" t="str">
-        <f>B$128&amp;" deployments"</f>
-        <v>gcloud deployment-manager deployments</v>
+        <v>340</v>
+      </c>
+      <c r="AU128" s="1"/>
+    </row>
+    <row r="129" spans="2:47" ht="90" hidden="1" outlineLevel="1">
+      <c r="B129" s="33"/>
+      <c r="C129" s="61" t="str">
+        <f>B$127&amp;" deploy"&amp;IF(ISBLANK(AC129),""," "&amp;AC129)&amp;IF(ISBLANK(AE129),""," --version "&amp;AE129)&amp;IF(AG129," --quiet","")</f>
+        <v>gcloud app deploy app.yaml --quiet</v>
       </c>
       <c r="D129" s="62"/>
       <c r="E129" s="62"/>
@@ -11513,16 +11619,24 @@
       <c r="Z129" s="63"/>
       <c r="AA129" s="8" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>gcloud deployment-manager deployments</v>
+        <v>gcloud app deploy app.yaml --quiet</v>
       </c>
       <c r="AB129" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC129" s="2"/>
-      <c r="AD129" s="2"/>
-      <c r="AE129" s="2"/>
-      <c r="AF129" s="2"/>
-      <c r="AG129" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="AC129" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD129" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE129" s="5"/>
+      <c r="AF129" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AG129" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="AH129" s="2"/>
       <c r="AI129" s="2"/>
       <c r="AJ129" s="2"/>
@@ -11536,17 +11650,19 @@
       <c r="AR129" s="2"/>
       <c r="AS129" s="2"/>
       <c r="AT129" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AU129" s="1"/>
-    </row>
-    <row r="130" spans="2:47" hidden="1" outlineLevel="2" collapsed="1">
-      <c r="B130" s="36"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="62" t="str">
-        <f>C$129&amp;" create"</f>
-        <v>gcloud deployment-manager deployments create</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="AU129" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="130" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B130" s="50"/>
+      <c r="C130" s="61" t="str">
+        <f>B$127&amp;" browse"</f>
+        <v>gcloud app browse</v>
+      </c>
+      <c r="D130" s="62"/>
       <c r="E130" s="62"/>
       <c r="F130" s="62"/>
       <c r="G130" s="62"/>
@@ -11570,8 +11686,8 @@
       <c r="Y130" s="62"/>
       <c r="Z130" s="63"/>
       <c r="AA130" s="8" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v>gcloud deployment-manager deployments create</v>
+        <f t="shared" ref="AA130" ca="1" si="50">IFERROR(OFFSET(A130,0,MATCH("",B130:Z130,-1)),"")</f>
+        <v>gcloud app browse</v>
       </c>
       <c r="AB130" s="2" t="s">
         <v>6</v>
@@ -11594,18 +11710,17 @@
       <c r="AR130" s="2"/>
       <c r="AS130" s="2"/>
       <c r="AT130" s="1" t="s">
-        <v>368</v>
+        <v>512</v>
       </c>
       <c r="AU130" s="1"/>
     </row>
-    <row r="131" spans="2:47" ht="30" hidden="1" outlineLevel="3">
-      <c r="B131" s="36"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="58" t="str">
-        <f>D$130&amp;" "&amp;AC131&amp;" --config "&amp;AE131</f>
-        <v>gcloud deployment-manager deployments create echo-service --config config.yaml</v>
-      </c>
+    <row r="131" spans="2:47" collapsed="1">
+      <c r="B131" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C131" s="62"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="59"/>
       <c r="F131" s="59"/>
       <c r="G131" s="59"/>
       <c r="H131" s="59"/>
@@ -11629,20 +11744,14 @@
       <c r="Z131" s="60"/>
       <c r="AA131" s="8" t="str">
         <f t="shared" ca="1" si="49"/>
-        <v>gcloud deployment-manager deployments create echo-service --config config.yaml</v>
-      </c>
-      <c r="AB131" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC131" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="AD131" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE131" s="5" t="s">
-        <v>625</v>
-      </c>
+        <v>gcloud datastore</v>
+      </c>
+      <c r="AB131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC131" s="2"/>
+      <c r="AD131" s="2"/>
+      <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
       <c r="AG131" s="2"/>
       <c r="AH131" s="2"/>
@@ -11658,14 +11767,17 @@
       <c r="AR131" s="2"/>
       <c r="AS131" s="2"/>
       <c r="AT131" s="1" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="AU131" s="1"/>
     </row>
-    <row r="132" spans="2:47" hidden="1" outlineLevel="3">
-      <c r="B132" s="36"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
+    <row r="132" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B132" s="33"/>
+      <c r="C132" s="61" t="str">
+        <f>B$131&amp;" create-indexes "&amp;AC132</f>
+        <v>gcloud datastore create-indexes index.yaml</v>
+      </c>
+      <c r="D132" s="62"/>
       <c r="E132" s="62"/>
       <c r="F132" s="62"/>
       <c r="G132" s="62"/>
@@ -11689,13 +11801,15 @@
       <c r="Y132" s="62"/>
       <c r="Z132" s="63"/>
       <c r="AA132" s="8" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AB132" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC132" s="2"/>
+        <f t="shared" ref="AA132:AA135" ca="1" si="51">IFERROR(OFFSET(A132,0,MATCH("",B132:Z132,-1)),"")</f>
+        <v>gcloud datastore create-indexes index.yaml</v>
+      </c>
+      <c r="AB132" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC132" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
@@ -11712,48 +11826,47 @@
       <c r="AQ132" s="2"/>
       <c r="AR132" s="2"/>
       <c r="AS132" s="2"/>
-      <c r="AT132" s="1"/>
+      <c r="AT132" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="AU132" s="1"/>
     </row>
-    <row r="133" spans="2:47" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B133" s="36"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="58" t="str">
-        <f>C$129&amp;" delete "&amp;AC133</f>
-        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
-      </c>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="59"/>
-      <c r="H133" s="59"/>
-      <c r="I133" s="59"/>
-      <c r="J133" s="59"/>
-      <c r="K133" s="59"/>
-      <c r="L133" s="59"/>
-      <c r="M133" s="59"/>
-      <c r="N133" s="59"/>
-      <c r="O133" s="59"/>
-      <c r="P133" s="59"/>
-      <c r="Q133" s="59"/>
-      <c r="R133" s="59"/>
-      <c r="S133" s="59"/>
-      <c r="T133" s="59"/>
-      <c r="U133" s="59"/>
-      <c r="V133" s="59"/>
-      <c r="W133" s="59"/>
-      <c r="X133" s="59"/>
-      <c r="Y133" s="59"/>
-      <c r="Z133" s="60"/>
-      <c r="AA133" s="43" t="str">
-        <f t="shared" ref="AA133" ca="1" si="50">IFERROR(OFFSET(A133,0,MATCH("",B133:Z133,-1)),"")</f>
-        <v>gcloud deployment-manager deployments delete custom-net-deployment</v>
-      </c>
-      <c r="AB133" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC133" s="5" t="s">
-        <v>378</v>
-      </c>
+    <row r="133" spans="2:47" collapsed="1">
+      <c r="B133" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="C133" s="62"/>
+      <c r="D133" s="62"/>
+      <c r="E133" s="62"/>
+      <c r="F133" s="62"/>
+      <c r="G133" s="62"/>
+      <c r="H133" s="62"/>
+      <c r="I133" s="62"/>
+      <c r="J133" s="62"/>
+      <c r="K133" s="62"/>
+      <c r="L133" s="62"/>
+      <c r="M133" s="62"/>
+      <c r="N133" s="62"/>
+      <c r="O133" s="62"/>
+      <c r="P133" s="62"/>
+      <c r="Q133" s="62"/>
+      <c r="R133" s="62"/>
+      <c r="S133" s="62"/>
+      <c r="T133" s="62"/>
+      <c r="U133" s="62"/>
+      <c r="V133" s="62"/>
+      <c r="W133" s="62"/>
+      <c r="X133" s="62"/>
+      <c r="Y133" s="62"/>
+      <c r="Z133" s="63"/>
+      <c r="AA133" s="8" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>gcloud debug</v>
+      </c>
+      <c r="AB133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC133" s="2"/>
       <c r="AD133" s="2"/>
       <c r="AE133" s="2"/>
       <c r="AF133" s="2"/>
@@ -11771,55 +11884,49 @@
       <c r="AR133" s="2"/>
       <c r="AS133" s="2"/>
       <c r="AT133" s="1" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="AU133" s="1"/>
     </row>
-    <row r="134" spans="2:47" ht="30.75" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B134" s="47"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="58" t="str">
-        <f>C$129&amp;" update "&amp;AC134&amp;" --config "&amp;AE134</f>
-        <v>gcloud deployment-manager deployments update my-first-depl --config mydeploy.yaml</v>
-      </c>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="59"/>
-      <c r="H134" s="59"/>
-      <c r="I134" s="59"/>
-      <c r="J134" s="59"/>
-      <c r="K134" s="59"/>
-      <c r="L134" s="59"/>
-      <c r="M134" s="59"/>
-      <c r="N134" s="59"/>
-      <c r="O134" s="59"/>
-      <c r="P134" s="59"/>
-      <c r="Q134" s="59"/>
-      <c r="R134" s="59"/>
-      <c r="S134" s="59"/>
-      <c r="T134" s="59"/>
-      <c r="U134" s="59"/>
-      <c r="V134" s="59"/>
-      <c r="W134" s="59"/>
-      <c r="X134" s="59"/>
-      <c r="Y134" s="59"/>
-      <c r="Z134" s="60"/>
-      <c r="AA134" s="43" t="str">
-        <f t="shared" ref="AA134" ca="1" si="51">IFERROR(OFFSET(A134,0,MATCH("",B134:Z134,-1)),"")</f>
-        <v>gcloud deployment-manager deployments update my-first-depl --config mydeploy.yaml</v>
-      </c>
-      <c r="AB134" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC134" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD134" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE134" s="5" t="s">
-        <v>465</v>
-      </c>
+    <row r="134" spans="2:47" hidden="1" outlineLevel="1">
+      <c r="B134" s="33"/>
+      <c r="C134" s="62" t="str">
+        <f>B$133&amp;" logpoints"</f>
+        <v>gcloud debug logpoints</v>
+      </c>
+      <c r="D134" s="62"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="62"/>
+      <c r="H134" s="62"/>
+      <c r="I134" s="62"/>
+      <c r="J134" s="62"/>
+      <c r="K134" s="62"/>
+      <c r="L134" s="62"/>
+      <c r="M134" s="62"/>
+      <c r="N134" s="62"/>
+      <c r="O134" s="62"/>
+      <c r="P134" s="62"/>
+      <c r="Q134" s="62"/>
+      <c r="R134" s="62"/>
+      <c r="S134" s="62"/>
+      <c r="T134" s="62"/>
+      <c r="U134" s="62"/>
+      <c r="V134" s="62"/>
+      <c r="W134" s="62"/>
+      <c r="X134" s="62"/>
+      <c r="Y134" s="62"/>
+      <c r="Z134" s="63"/>
+      <c r="AA134" s="8" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v>gcloud debug logpoints</v>
+      </c>
+      <c r="AB134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC134" s="2"/>
+      <c r="AD134" s="2"/>
+      <c r="AE134" s="2"/>
       <c r="AF134" s="2"/>
       <c r="AG134" s="2"/>
       <c r="AH134" s="2"/>
@@ -11835,16 +11942,16 @@
       <c r="AR134" s="2"/>
       <c r="AS134" s="2"/>
       <c r="AT134" s="1" t="s">
-        <v>467</v>
+        <v>351</v>
       </c>
       <c r="AU134" s="1"/>
     </row>
     <row r="135" spans="2:47" hidden="1" outlineLevel="2">
-      <c r="B135" s="36"/>
-      <c r="C135" s="37"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="34"/>
       <c r="D135" s="62" t="str">
-        <f>C$129&amp;" list"</f>
-        <v>gcloud deployment-manager deployments list</v>
+        <f>C$134&amp;" list"</f>
+        <v>gcloud debug logpoints list</v>
       </c>
       <c r="E135" s="62"/>
       <c r="F135" s="62"/>
@@ -11869,8 +11976,8 @@
       <c r="Y135" s="62"/>
       <c r="Z135" s="63"/>
       <c r="AA135" s="8" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v>gcloud deployment-manager deployments list</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>gcloud debug logpoints list</v>
       </c>
       <c r="AB135" s="2" t="s">
         <v>6</v>
@@ -11893,16 +12000,16 @@
       <c r="AR135" s="2"/>
       <c r="AS135" s="2"/>
       <c r="AT135" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="AU135" s="1"/>
     </row>
-    <row r="136" spans="2:47" ht="29.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="B136" s="36"/>
-      <c r="C136" s="37"/>
+    <row r="136" spans="2:47" ht="60" hidden="1" outlineLevel="2">
+      <c r="B136" s="33"/>
+      <c r="C136" s="34"/>
       <c r="D136" s="58" t="str">
-        <f>C$129&amp;" describe "&amp;AC136</f>
-        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
+        <f>C$134&amp;" create "&amp;AC136&amp;" "&amp;AE136</f>
+        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
       </c>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
@@ -11927,17 +12034,21 @@
       <c r="Y136" s="59"/>
       <c r="Z136" s="60"/>
       <c r="AA136" s="8" t="str">
-        <f t="shared" ref="AA136" ca="1" si="52">IFERROR(OFFSET(A136,0,MATCH("",B136:Z136,-1)),"")</f>
-        <v>gcloud deployment-manager deployments describe custom-net-deployment</v>
+        <f t="shared" ref="AA136:AA138" ca="1" si="52">IFERROR(OFFSET(A136,0,MATCH("",B136:Z136,-1)),"")</f>
+        <v>gcloud debug logpoints create guestbook.py:74 "Fetched greetings from Datastore. Count of greetings : {len(greetings)}"</v>
       </c>
       <c r="AB136" s="21" t="s">
-        <v>377</v>
+        <v>189</v>
       </c>
       <c r="AC136" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD136" s="2"/>
-      <c r="AE136" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="AD136" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE136" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="AF136" s="2"/>
       <c r="AG136" s="2"/>
       <c r="AH136" s="2"/>
@@ -11953,16 +12064,15 @@
       <c r="AR136" s="2"/>
       <c r="AS136" s="2"/>
       <c r="AT136" s="1" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="AU136" s="1"/>
     </row>
-    <row r="137" spans="2:47" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="B137" s="36"/>
-      <c r="C137" s="62" t="str">
-        <f>B$128&amp;" types"</f>
-        <v>gcloud deployment-manager types</v>
-      </c>
+    <row r="137" spans="2:47" collapsed="1">
+      <c r="B137" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137" s="62"/>
       <c r="D137" s="62"/>
       <c r="E137" s="62"/>
       <c r="F137" s="62"/>
@@ -11987,8 +12097,8 @@
       <c r="Y137" s="62"/>
       <c r="Z137" s="63"/>
       <c r="AA137" s="8" t="str">
-        <f t="shared" ref="AA137:AA141" ca="1" si="53">IFERROR(OFFSET(A137,0,MATCH("",B137:Z137,-1)),"")</f>
-        <v>gcloud deployment-manager types</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>gcloud sql</v>
       </c>
       <c r="AB137" s="2" t="s">
         <v>6</v>
@@ -12011,17 +12121,17 @@
       <c r="AR137" s="2"/>
       <c r="AS137" s="2"/>
       <c r="AT137" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AU137" s="1"/>
     </row>
-    <row r="138" spans="2:47" hidden="1" outlineLevel="2">
+    <row r="138" spans="2:47" hidden="1" outlineLevel="1">
       <c r="B138" s="36"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="62" t="str">
-        <f>C$137&amp;" list"</f>
-        <v>gcloud deployment-manager types list</v>
-      </c>
+      <c r="C138" s="62" t="str">
+        <f>B137&amp;" connect "&amp;AC138&amp;IF(ISBLANK(AE138),""," --user="&amp;AE138)</f>
+        <v>gcloud sql connect myinstance --user=root</v>
+      </c>
+      <c r="D138" s="62"/>
       <c r="E138" s="62"/>
       <c r="F138" s="62"/>
       <c r="G138" s="62"/>
@@ -12045,15 +12155,21 @@
       <c r="Y138" s="62"/>
       <c r="Z138" s="63"/>
       <c r="AA138" s="8" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v>gcloud deployment-manager types list</v>
-      </c>
-      <c r="AB138" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC138" s="2"/>
-      <c r="AD138" s="2"/>
-      <c r="AE138" s="2"/>
+        <f t="shared" ca="1" si="52"/>
+        <v>gcloud sql connect myinstance --user=root</v>
+      </c>
+      <c r="AB138" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC138" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD138" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE138" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="AF138" s="2"/>
       <c r="AG138" s="2"/>
       <c r="AH138" s="2"/>
@@ -12069,13 +12185,13 @@
       <c r="AR138" s="2"/>
       <c r="AS138" s="2"/>
       <c r="AT138" s="1" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="AU138" s="1"/>
     </row>
     <row r="139" spans="2:47" collapsed="1">
       <c r="B139" s="61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C139" s="62"/>
       <c r="D139" s="62"/>
@@ -12102,7 +12218,7 @@
       <c r="Y139" s="62"/>
       <c r="Z139" s="63"/>
       <c r="AA139" s="8" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ref="AA139:AA141" ca="1" si="53">IFERROR(OFFSET(A139,0,MATCH("",B139:Z139,-1)),"")</f>
         <v>gcloud endpoints</v>
       </c>
       <c r="AB139" s="2" t="s">
@@ -12126,7 +12242,7 @@
       <c r="AR139" s="2"/>
       <c r="AS139" s="2"/>
       <c r="AT139" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AU139" s="1"/>
     </row>
@@ -12184,7 +12300,7 @@
       <c r="AR140" s="2"/>
       <c r="AS140" s="2"/>
       <c r="AT140" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AU140" s="1"/>
     </row>
@@ -12222,10 +12338,10 @@
         <v>gcloud endpoints services deploy openapi.yaml</v>
       </c>
       <c r="AB141" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AC141" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AD141" s="2"/>
       <c r="AE141" s="2"/>
@@ -12244,13 +12360,13 @@
       <c r="AR141" s="2"/>
       <c r="AS141" s="2"/>
       <c r="AT141" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AU141" s="1"/>
     </row>
     <row r="142" spans="2:47" collapsed="1">
       <c r="B142" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C142" s="62"/>
       <c r="D142" s="62"/>
@@ -12301,7 +12417,7 @@
       <c r="AR142" s="2"/>
       <c r="AS142" s="2"/>
       <c r="AT142" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AU142" s="1"/>
     </row>
@@ -12359,7 +12475,7 @@
       <c r="AR143" s="2"/>
       <c r="AS143" s="2"/>
       <c r="AT143" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AU143" s="1"/>
     </row>
@@ -12397,22 +12513,22 @@
         <v>gcloud functions deploy helloWorld --stage-bucket ioso_bucket2 --trigger-topic hello_world</v>
       </c>
       <c r="AB144" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC144" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="AC144" s="5" t="s">
+      <c r="AD144" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="AD144" s="21" t="s">
+      <c r="AE144" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="AE144" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="AF144" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG144" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="AG144" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="AH144" s="2"/>
       <c r="AI144" s="2"/>
@@ -12427,7 +12543,7 @@
       <c r="AR144" s="2"/>
       <c r="AS144" s="2"/>
       <c r="AT144" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AU144" s="1"/>
     </row>
@@ -12465,10 +12581,10 @@
         <v>gcloud functions describe helloWorld</v>
       </c>
       <c r="AB145" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC145" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AD145" s="2"/>
       <c r="AE145" s="2"/>
@@ -12487,7 +12603,7 @@
       <c r="AR145" s="2"/>
       <c r="AS145" s="2"/>
       <c r="AT145" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AU145" s="1"/>
     </row>
@@ -12525,16 +12641,16 @@
         <v>gcloud functions call helloWorld --data '{"message":"Hello World!"}'</v>
       </c>
       <c r="AB146" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC146" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AD146" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE146" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="AE146" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="AF146" s="2"/>
       <c r="AG146" s="2"/>
@@ -12551,7 +12667,7 @@
       <c r="AR146" s="2"/>
       <c r="AS146" s="2"/>
       <c r="AT146" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AU146" s="1"/>
     </row>
@@ -12609,7 +12725,7 @@
       <c r="AR147" s="2"/>
       <c r="AS147" s="2"/>
       <c r="AT147" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AU147" s="1"/>
     </row>
@@ -12647,10 +12763,10 @@
         <v>gcloud functions logs read helloWorld</v>
       </c>
       <c r="AB148" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC148" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AD148" s="2"/>
       <c r="AE148" s="2"/>
@@ -12669,13 +12785,13 @@
       <c r="AR148" s="2"/>
       <c r="AS148" s="2"/>
       <c r="AT148" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AU148" s="1"/>
     </row>
     <row r="149" spans="2:47" collapsed="1">
       <c r="B149" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C149" s="62"/>
       <c r="D149" s="62"/>
@@ -12726,7 +12842,7 @@
       <c r="AR149" s="2"/>
       <c r="AS149" s="2"/>
       <c r="AT149" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AU149" s="1"/>
     </row>
@@ -12784,7 +12900,7 @@
       <c r="AR150" s="2"/>
       <c r="AS150" s="2"/>
       <c r="AT150" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AU150" s="1"/>
     </row>
@@ -12822,10 +12938,10 @@
         <v>gcloud pubsub topics create myTopic</v>
       </c>
       <c r="AB151" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC151" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="AC151" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="AD151" s="2"/>
       <c r="AE151" s="2"/>
@@ -12844,7 +12960,7 @@
       <c r="AR151" s="2"/>
       <c r="AS151" s="2"/>
       <c r="AT151" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AU151" s="1"/>
     </row>
@@ -12902,7 +13018,7 @@
       <c r="AR152" s="2"/>
       <c r="AS152" s="2"/>
       <c r="AT152" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AU152" s="1"/>
     </row>
@@ -12940,10 +13056,10 @@
         <v>gcloud pubsub topics list-subscriptions myTopic</v>
       </c>
       <c r="AB153" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC153" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="AC153" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="AD153" s="2"/>
       <c r="AE153" s="2"/>
@@ -12962,7 +13078,7 @@
       <c r="AR153" s="2"/>
       <c r="AS153" s="2"/>
       <c r="AT153" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AU153" s="1"/>
     </row>
@@ -13000,16 +13116,16 @@
         <v>gcloud pubsub topics publish myTopic --message "Hello"</v>
       </c>
       <c r="AB154" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC154" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="AC154" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="AD154" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE154" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="AE154" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="AF154" s="2"/>
       <c r="AG154" s="2"/>
@@ -13026,7 +13142,7 @@
       <c r="AR154" s="2"/>
       <c r="AS154" s="2"/>
       <c r="AT154" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AU154" s="1"/>
     </row>
@@ -13064,10 +13180,10 @@
         <v>gcloud pubsub topics delete myTopic</v>
       </c>
       <c r="AB155" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC155" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="AC155" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="AD155" s="2"/>
       <c r="AE155" s="2"/>
@@ -13086,7 +13202,7 @@
       <c r="AR155" s="2"/>
       <c r="AS155" s="2"/>
       <c r="AT155" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AU155" s="1"/>
     </row>
@@ -13144,7 +13260,7 @@
       <c r="AR156" s="2"/>
       <c r="AS156" s="2"/>
       <c r="AT156" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AU156" s="1"/>
     </row>
@@ -13182,16 +13298,16 @@
         <v>gcloud pubsub subscriptions create --topic myTopic mySubscription</v>
       </c>
       <c r="AB157" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC157" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="AC157" s="5" t="s">
-        <v>418</v>
-      </c>
       <c r="AD157" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AE157" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF157" s="2"/>
       <c r="AG157" s="2"/>
@@ -13208,7 +13324,7 @@
       <c r="AR157" s="2"/>
       <c r="AS157" s="2"/>
       <c r="AT157" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AU157" s="1"/>
     </row>
@@ -13246,19 +13362,19 @@
         <v>gcloud pubsub subscriptions pull mySubscription --auto-ack --limit=3</v>
       </c>
       <c r="AB158" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AC158" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AE158" s="5" t="b">
         <v>1</v>
       </c>
       <c r="AF158" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG158" s="5">
         <v>3</v>
@@ -13276,7 +13392,7 @@
       <c r="AR158" s="2"/>
       <c r="AS158" s="2"/>
       <c r="AT158" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AU158" s="1"/>
     </row>
@@ -13314,10 +13430,10 @@
         <v>gcloud pubsub subscriptions delete Test1</v>
       </c>
       <c r="AB159" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AC159" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AD159" s="2"/>
       <c r="AE159" s="2"/>
@@ -13336,13 +13452,13 @@
       <c r="AR159" s="2"/>
       <c r="AS159" s="2"/>
       <c r="AT159" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AU159" s="1"/>
     </row>
     <row r="160" spans="2:47" ht="60" collapsed="1">
       <c r="B160" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C160" s="62"/>
       <c r="D160" s="62"/>
@@ -13393,10 +13509,10 @@
       <c r="AR160" s="2"/>
       <c r="AS160" s="2"/>
       <c r="AT160" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AU160" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="161" spans="2:47" ht="30" hidden="1" outlineLevel="1">
@@ -13433,22 +13549,22 @@
         <v>gcloud docker -- push gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
       </c>
       <c r="AB161" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC161" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="AC161" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="AD161" s="22" t="s">
         <v>134</v>
       </c>
       <c r="AE161" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF161" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG161" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH161" s="2"/>
       <c r="AI161" s="2"/>
@@ -13463,7 +13579,7 @@
       <c r="AR161" s="2"/>
       <c r="AS161" s="2"/>
       <c r="AT161" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AU161" s="1"/>
     </row>
@@ -13501,22 +13617,22 @@
         <v>gcloud docker -- pull gcr.io/qwiklabs-gcp-a02f70a41a3fba35/quickstart-image</v>
       </c>
       <c r="AB162" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC162" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="AC162" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="AD162" s="22" t="s">
         <v>134</v>
       </c>
       <c r="AE162" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF162" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG162" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH162" s="2"/>
       <c r="AI162" s="2"/>
@@ -13531,7 +13647,7 @@
       <c r="AR162" s="2"/>
       <c r="AS162" s="2"/>
       <c r="AT162" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AU162" s="1"/>
     </row>
@@ -13796,7 +13912,7 @@
     </row>
     <row r="168" spans="2:47" ht="27" customHeight="1">
       <c r="B168" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C168" s="59"/>
       <c r="D168" s="59"/>
@@ -13852,7 +13968,7 @@
     </row>
     <row r="169" spans="2:47" ht="30.75" customHeight="1">
       <c r="B169" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C169" s="59"/>
       <c r="D169" s="59"/>
@@ -15695,42 +15811,42 @@
     <mergeCell ref="D153:Z153"/>
     <mergeCell ref="D154:Z154"/>
     <mergeCell ref="D158:Z158"/>
-    <mergeCell ref="E131:Z131"/>
-    <mergeCell ref="E132:Z132"/>
+    <mergeCell ref="E84:Z84"/>
+    <mergeCell ref="E85:Z85"/>
     <mergeCell ref="C77:Z77"/>
     <mergeCell ref="D79:Z79"/>
     <mergeCell ref="D78:Z78"/>
-    <mergeCell ref="C137:Z137"/>
-    <mergeCell ref="D138:Z138"/>
-    <mergeCell ref="D133:Z133"/>
-    <mergeCell ref="D136:Z136"/>
-    <mergeCell ref="C119:Z119"/>
-    <mergeCell ref="D114:Z114"/>
+    <mergeCell ref="C90:Z90"/>
+    <mergeCell ref="D91:Z91"/>
+    <mergeCell ref="D86:Z86"/>
+    <mergeCell ref="D89:Z89"/>
+    <mergeCell ref="C130:Z130"/>
+    <mergeCell ref="D125:Z125"/>
     <mergeCell ref="C46:Z46"/>
     <mergeCell ref="D47:Z47"/>
     <mergeCell ref="D48:Z48"/>
     <mergeCell ref="B203:Z203"/>
     <mergeCell ref="E196:Z196"/>
     <mergeCell ref="F197:Z197"/>
-    <mergeCell ref="C85:Z85"/>
-    <mergeCell ref="C89:Z89"/>
+    <mergeCell ref="C96:Z96"/>
+    <mergeCell ref="C100:Z100"/>
     <mergeCell ref="B164:Z164"/>
-    <mergeCell ref="B100:Z100"/>
-    <mergeCell ref="C87:Z87"/>
-    <mergeCell ref="C88:Z88"/>
-    <mergeCell ref="B90:Z90"/>
-    <mergeCell ref="C92:Z92"/>
-    <mergeCell ref="C86:Z86"/>
-    <mergeCell ref="B91:Z91"/>
-    <mergeCell ref="C93:Z93"/>
-    <mergeCell ref="B126:Z126"/>
-    <mergeCell ref="C127:Z127"/>
-    <mergeCell ref="B128:Z128"/>
-    <mergeCell ref="C129:Z129"/>
-    <mergeCell ref="D130:Z130"/>
+    <mergeCell ref="B111:Z111"/>
+    <mergeCell ref="C98:Z98"/>
+    <mergeCell ref="C99:Z99"/>
     <mergeCell ref="B101:Z101"/>
+    <mergeCell ref="C103:Z103"/>
+    <mergeCell ref="C97:Z97"/>
+    <mergeCell ref="B102:Z102"/>
+    <mergeCell ref="C104:Z104"/>
+    <mergeCell ref="B137:Z137"/>
+    <mergeCell ref="C138:Z138"/>
+    <mergeCell ref="B81:Z81"/>
+    <mergeCell ref="C82:Z82"/>
+    <mergeCell ref="D83:Z83"/>
+    <mergeCell ref="B112:Z112"/>
     <mergeCell ref="B173:Z173"/>
-    <mergeCell ref="D97:Z97"/>
+    <mergeCell ref="D108:Z108"/>
     <mergeCell ref="C147:Z147"/>
     <mergeCell ref="D148:Z148"/>
     <mergeCell ref="AB1:AE1"/>
@@ -15756,12 +15872,12 @@
     <mergeCell ref="D45:Z45"/>
     <mergeCell ref="C145:Z145"/>
     <mergeCell ref="C146:Z146"/>
-    <mergeCell ref="D135:Z135"/>
+    <mergeCell ref="D88:Z88"/>
     <mergeCell ref="D42:Z42"/>
-    <mergeCell ref="B81:Z81"/>
-    <mergeCell ref="C82:Z82"/>
-    <mergeCell ref="C83:Z83"/>
-    <mergeCell ref="B84:Z84"/>
+    <mergeCell ref="B92:Z92"/>
+    <mergeCell ref="C93:Z93"/>
+    <mergeCell ref="C94:Z94"/>
+    <mergeCell ref="B95:Z95"/>
     <mergeCell ref="C39:Z39"/>
     <mergeCell ref="D40:Z40"/>
     <mergeCell ref="C63:Z63"/>
@@ -15804,21 +15920,21 @@
     <mergeCell ref="E22:Z22"/>
     <mergeCell ref="E23:Z23"/>
     <mergeCell ref="E72:Z72"/>
-    <mergeCell ref="D106:Z106"/>
-    <mergeCell ref="B112:Z112"/>
+    <mergeCell ref="D117:Z117"/>
+    <mergeCell ref="B123:Z123"/>
+    <mergeCell ref="C124:Z124"/>
+    <mergeCell ref="C109:Z109"/>
+    <mergeCell ref="D110:Z110"/>
+    <mergeCell ref="C114:Z114"/>
     <mergeCell ref="C113:Z113"/>
-    <mergeCell ref="C98:Z98"/>
-    <mergeCell ref="D99:Z99"/>
-    <mergeCell ref="C103:Z103"/>
-    <mergeCell ref="C102:Z102"/>
-    <mergeCell ref="B104:Z104"/>
-    <mergeCell ref="C105:Z105"/>
-    <mergeCell ref="C110:Z110"/>
+    <mergeCell ref="B115:Z115"/>
+    <mergeCell ref="C116:Z116"/>
+    <mergeCell ref="C121:Z121"/>
+    <mergeCell ref="D118:Z118"/>
+    <mergeCell ref="D119:Z119"/>
+    <mergeCell ref="B105:Z105"/>
+    <mergeCell ref="C106:Z106"/>
     <mergeCell ref="D107:Z107"/>
-    <mergeCell ref="D108:Z108"/>
-    <mergeCell ref="B94:Z94"/>
-    <mergeCell ref="C95:Z95"/>
-    <mergeCell ref="D96:Z96"/>
     <mergeCell ref="D6:Z6"/>
     <mergeCell ref="E73:Z73"/>
     <mergeCell ref="D7:Z7"/>
@@ -15827,27 +15943,27 @@
     <mergeCell ref="B160:Z160"/>
     <mergeCell ref="C161:Z161"/>
     <mergeCell ref="C162:Z162"/>
-    <mergeCell ref="D111:Z111"/>
+    <mergeCell ref="D122:Z122"/>
     <mergeCell ref="B174:Z174"/>
     <mergeCell ref="B170:Z170"/>
     <mergeCell ref="B171:Z171"/>
     <mergeCell ref="B172:Z172"/>
     <mergeCell ref="B163:Z163"/>
     <mergeCell ref="B166:Z166"/>
-    <mergeCell ref="B116:Z116"/>
+    <mergeCell ref="B127:Z127"/>
     <mergeCell ref="B167:Z167"/>
     <mergeCell ref="B168:Z168"/>
     <mergeCell ref="B169:Z169"/>
-    <mergeCell ref="C117:Z117"/>
-    <mergeCell ref="C118:Z118"/>
-    <mergeCell ref="B120:Z120"/>
-    <mergeCell ref="C121:Z121"/>
-    <mergeCell ref="D115:Z115"/>
-    <mergeCell ref="B122:Z122"/>
-    <mergeCell ref="C123:Z123"/>
-    <mergeCell ref="D124:Z124"/>
-    <mergeCell ref="D125:Z125"/>
-    <mergeCell ref="D134:Z134"/>
+    <mergeCell ref="C128:Z128"/>
+    <mergeCell ref="C129:Z129"/>
+    <mergeCell ref="B131:Z131"/>
+    <mergeCell ref="C132:Z132"/>
+    <mergeCell ref="D126:Z126"/>
+    <mergeCell ref="B133:Z133"/>
+    <mergeCell ref="C134:Z134"/>
+    <mergeCell ref="D135:Z135"/>
+    <mergeCell ref="D136:Z136"/>
+    <mergeCell ref="D87:Z87"/>
     <mergeCell ref="B189:Z189"/>
     <mergeCell ref="B187:Z187"/>
     <mergeCell ref="B188:Z188"/>
@@ -15867,7 +15983,7 @@
     <mergeCell ref="E24:Z24"/>
     <mergeCell ref="E16:Z16"/>
     <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="D109:Z109"/>
+    <mergeCell ref="D120:Z120"/>
     <mergeCell ref="B149:Z149"/>
     <mergeCell ref="C150:Z150"/>
     <mergeCell ref="B139:Z139"/>
@@ -15896,277 +16012,327 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A53"/>
+      <selection sqref="A1:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>696</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>697</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>699</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>700</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>701</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>702</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>703</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>704</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>705</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>706</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>707</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>708</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>709</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>706</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>710</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>711</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>712</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>706</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>713</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>714</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>706</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>715</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>716</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>708</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>717</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>706</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>718</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>708</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>706</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>720</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>721</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>722</v>
+        <v>661</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>723</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>724</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>725</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>726</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>727</v>
+        <v>666</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>728</v>
+        <v>667</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>729</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>725</v>
+        <v>664</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>730</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>731</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>732</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>733</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>734</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>735</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>736</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>737</v>
+        <v>676</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>736</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -16181,7 +16347,9 @@
   </sheetPr>
   <dimension ref="B1:AS69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Z2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
@@ -16317,7 +16485,7 @@
       <c r="B3" s="10"/>
       <c r="C3" s="62" t="str">
         <f>B$2&amp;IF(ISBLANK(AE3),""," -l "&amp;AE3)&amp;" gs://"&amp;AC3</f>
-        <v>gsutil mb gs://qwiklabs-gcp-5b57f7da0359cd75</v>
+        <v>gsutil mb gs://qwiklabs-gcp-cc2483e60648b3b8</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
@@ -16344,13 +16512,13 @@
       <c r="Z3" s="63"/>
       <c r="AA3" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>gsutil mb gs://qwiklabs-gcp-5b57f7da0359cd75</v>
+        <v>gsutil mb gs://qwiklabs-gcp-cc2483e60648b3b8</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>623</v>
+        <v>685</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>189</v>
@@ -16570,14 +16738,14 @@
         <v>54</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="2:43" ht="45" hidden="1" outlineLevel="1">
       <c r="B8" s="12"/>
       <c r="C8" s="58" t="str">
-        <f>"gsutil"&amp;IF(ISBLANK(AM8),""," -h "&amp;"'"&amp;SUBSTITUTE(AM8," ","' -h '")&amp;"'")&amp;IF(ISBLANK(AK8),""," -a "&amp;AK8)&amp;" cp "&amp;IF(AO8,"-v ","")&amp;IF(ISBLANK(AC8),"","gs://"&amp;AC8&amp;"/")&amp;AE8&amp;" "&amp;IF(ISBLANK(AG8),"","gs://"&amp;AG8&amp;"/")&amp;AI8</f>
-        <v>gsutil -h 'Content-Type:application/gzip' -h 'Cache-Control:private' -a public-read cp echo-0.0.1.tar.gz gs://$MY_BUCKET/</v>
+        <f>"gsutil"&amp;IF(ISBLANK(AM8),""," -h "&amp;"'"&amp;SUBSTITUTE(AM8," ","' -h '")&amp;"'")&amp;" cp"&amp;IF(ISBLANK(AK8),""," -a "&amp;AK8)&amp;IF(AO8," -v ","")&amp;IF(ISBLANK(AC8)," "," gs://"&amp;AC8&amp;"/")&amp;AE8&amp;" "&amp;IF(ISBLANK(AG8),"","gs://"&amp;AG8&amp;"/")&amp;AI8</f>
+        <v>gsutil -h 'Content-Type:application/gzip' -h 'Cache-Control:private' cp -a public-read echo-0.0.1.tar.gz gs://qwiklabs-gcp-cc2483e60648b3b8/</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
@@ -16604,7 +16772,7 @@
       <c r="Z8" s="60"/>
       <c r="AA8" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>gsutil -h 'Content-Type:application/gzip' -h 'Cache-Control:private' -a public-read cp echo-0.0.1.tar.gz gs://$MY_BUCKET/</v>
+        <v>gsutil -h 'Content-Type:application/gzip' -h 'Cache-Control:private' cp -a public-read echo-0.0.1.tar.gz gs://qwiklabs-gcp-cc2483e60648b3b8/</v>
       </c>
       <c r="AB8" s="2" t="s">
         <v>55</v>
@@ -16614,32 +16782,32 @@
         <v>56</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>738</v>
+        <v>677</v>
       </c>
       <c r="AF8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>739</v>
+        <v>685</v>
       </c>
       <c r="AH8" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>740</v>
+        <v>679</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>741</v>
+        <v>680</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AO8" s="5"/>
       <c r="AP8" s="1" t="s">
@@ -16647,11 +16815,11 @@
       </c>
       <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="2:43" hidden="1" outlineLevel="1">
+    <row r="9" spans="2:43" ht="30" hidden="1" outlineLevel="1">
       <c r="B9" s="12"/>
       <c r="C9" s="62" t="str">
-        <f>B$7&amp;" -r "&amp;IF(ISBLANK(AC9),"","gs://"&amp;AC9&amp;"/")&amp;AE9&amp;" "&amp;IF(ISBLANK(AG9),"","gs://"&amp;AG9&amp;"/")&amp;AI9</f>
-        <v>gsutil cp -r gs://ioso-bucket/ada.jpg .</v>
+        <f>"gsutil"&amp;IF(AK9," -m","")&amp;" cp"&amp;" -r "&amp;IF(ISBLANK(AC9),"","gs://"&amp;AC9&amp;"/")&amp;AE9&amp;" "&amp;IF(ISBLANK(AG9),"","gs://"&amp;AG9&amp;"/")&amp;AI9</f>
+        <v>gsutil -m cp -r gs://cloud-training/archdp/archdp-echo.tar.gz .</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -16678,19 +16846,19 @@
       <c r="Z9" s="63"/>
       <c r="AA9" s="8" t="str">
         <f t="shared" ref="AA9:AA11" ca="1" si="2">IFERROR(OFFSET(A9,0,MATCH("",B9:Z9,-1)),"")</f>
-        <v>gsutil cp -r gs://ioso-bucket/ada.jpg .</v>
+        <v>gsutil -m cp -r gs://cloud-training/archdp/archdp-echo.tar.gz .</v>
       </c>
       <c r="AB9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>60</v>
+        <v>598</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>59</v>
+        <v>682</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>57</v>
@@ -16702,8 +16870,12 @@
       <c r="AI9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
+      <c r="AJ9" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AK9" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
@@ -16863,13 +17035,13 @@
         <v>14</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AD12" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -16882,7 +17054,7 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AQ12" s="1"/>
     </row>
@@ -16983,13 +17155,13 @@
         <v>14</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>739</v>
+        <v>678</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>738</v>
+        <v>677</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -17002,7 +17174,7 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="1" t="s">
-        <v>742</v>
+        <v>681</v>
       </c>
       <c r="AQ14" s="1"/>
     </row>
@@ -17316,13 +17488,13 @@
         <v>14</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
@@ -17436,13 +17608,13 @@
         <v>14</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -17455,7 +17627,7 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AQ22" s="1"/>
     </row>
@@ -17493,22 +17665,22 @@
         <v>gsutil acl set private gs://$BUCKET_NAME_1/setup.html</v>
       </c>
       <c r="AB23" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="AD23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
@@ -17521,13 +17693,13 @@
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AS23" s="1"/>
     </row>
     <row r="24" spans="2:45" collapsed="1">
       <c r="B24" s="61" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
@@ -17574,7 +17746,7 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AQ24" s="1"/>
     </row>
@@ -17615,13 +17787,13 @@
         <v>14</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AD25" s="21" t="s">
         <v>66</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
@@ -17634,13 +17806,13 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AQ25" s="1"/>
     </row>
     <row r="26" spans="2:45" collapsed="1">
       <c r="B26" s="61" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
@@ -17687,7 +17859,7 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AQ26" s="1"/>
     </row>
@@ -17728,7 +17900,7 @@
         <v>14</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
@@ -17743,7 +17915,7 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AQ27" s="1"/>
     </row>
@@ -17781,16 +17953,16 @@
         <v>gsutil lifecycle set life.json gs://$BUCKET_NAME_1</v>
       </c>
       <c r="AB28" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC28" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="AC28" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="AD28" s="21" t="s">
         <v>14</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
@@ -17803,13 +17975,13 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AQ28" s="1"/>
     </row>
     <row r="29" spans="2:45" collapsed="1">
       <c r="B29" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
@@ -17856,7 +18028,7 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
       <c r="AP29" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AQ29" s="1"/>
     </row>
@@ -17897,7 +18069,7 @@
         <v>14</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -17912,7 +18084,7 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AQ30" s="1"/>
     </row>
@@ -17950,7 +18122,7 @@
         <v>gsutil versioning set on gs://$BUCKET_NAME_1</v>
       </c>
       <c r="AB31" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AC31" s="5" t="b">
         <v>1</v>
@@ -17959,7 +18131,7 @@
         <v>14</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
@@ -17972,13 +18144,13 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AQ31" s="1"/>
     </row>
     <row r="32" spans="2:45" collapsed="1">
       <c r="B32" s="61" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
@@ -18025,7 +18197,7 @@
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AQ32" s="1"/>
     </row>
@@ -18070,19 +18242,19 @@
         <v>56</v>
       </c>
       <c r="AE33" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF33" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AG33" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AH33" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
@@ -18091,7 +18263,7 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AQ33" s="1"/>
     </row>
@@ -18136,19 +18308,19 @@
         <v>56</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF34" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AG34" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AH34" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AI34" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
@@ -18157,13 +18329,13 @@
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
       <c r="AP34" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AQ34" s="1"/>
     </row>
     <row r="35" spans="2:43" s="44" customFormat="1" collapsed="1">
       <c r="B35" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C35" s="62"/>
       <c r="D35" s="62"/>
@@ -18210,7 +18382,7 @@
       <c r="AN35" s="22"/>
       <c r="AO35" s="22"/>
       <c r="AP35" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AQ35" s="45"/>
     </row>
@@ -18264,7 +18436,7 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
       <c r="AP36" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AQ36" s="1"/>
     </row>
@@ -18305,13 +18477,13 @@
         <v>14</v>
       </c>
       <c r="AC37" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AD37" s="21" t="s">
         <v>66</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
@@ -18324,7 +18496,7 @@
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AQ37" s="1"/>
     </row>
@@ -18378,9 +18550,7 @@
       <c r="AQ38" s="1"/>
     </row>
     <row r="39" spans="2:43" collapsed="1">
-      <c r="B39" s="61" t="s">
-        <v>201</v>
-      </c>
+      <c r="B39" s="61"/>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
       <c r="E39" s="62"/>
@@ -18407,7 +18577,7 @@
       <c r="Z39" s="63"/>
       <c r="AA39" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>gsutil -m cp -r gs://enron_corpus/allen-p .</v>
+        <v/>
       </c>
       <c r="AB39" s="2" t="s">
         <v>6</v>
@@ -19947,19 +20117,19 @@
         <v>kubectl run nginx --image=nginx --port 80</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>95</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AE2" s="5" t="s">
         <v>95</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG2" s="5">
         <v>80</v>
@@ -19975,7 +20145,7 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AQ2" s="1"/>
     </row>
@@ -20013,25 +20183,25 @@
         <v>kubectl expose deployment nginx --type NodePort --target-port=80</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC3" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD3" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>95</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>611</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="2" t="s">
@@ -20045,7 +20215,7 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>610</v>
@@ -20085,27 +20255,27 @@
         <v>kubectl get ingress basic-ingress --watch</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>599</v>
       </c>
       <c r="AD4" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE4" s="5" t="s">
         <v>600</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG4" s="5"/>
       <c r="AH4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="2" t="s">
@@ -20119,7 +20289,7 @@
         <v>1</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AQ4" s="1"/>
     </row>
@@ -20173,7 +20343,7 @@
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AQ5" s="1"/>
     </row>
@@ -20211,7 +20381,7 @@
         <v>kubectl create -f basic-ingress.yaml</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AC6" s="5" t="s">
         <v>612</v>
@@ -20229,7 +20399,7 @@
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AQ6" s="1"/>
     </row>
@@ -20319,16 +20489,16 @@
         <v>kubectl create secret generic tls-certs --from-file tls/</v>
       </c>
       <c r="AB8" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AD8" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="AD8" s="21" t="s">
-        <v>260</v>
-      </c>
       <c r="AE8" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -20341,7 +20511,7 @@
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AQ8" s="1"/>
     </row>
@@ -20480,16 +20650,16 @@
         <v>kubectl create configmap nginx-proxy-conf --from-file nginx/proxy.conf</v>
       </c>
       <c r="AB11" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AD11" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE11" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="AD11" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -20502,7 +20672,7 @@
       <c r="AN11" s="2"/>
       <c r="AO11" s="2"/>
       <c r="AP11" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AQ11" s="1"/>
     </row>
@@ -20556,7 +20726,7 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AQ12" s="1"/>
     </row>
@@ -20594,26 +20764,26 @@
         <v>kubectl create clusterrolebinding tiller-admin-binding --clusterrole=cluster-admin --serviceaccount=kube-system:tiller</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD13" s="22" t="s">
         <v>193</v>
       </c>
       <c r="AE13" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF13" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
@@ -20622,7 +20792,7 @@
       <c r="AN13" s="2"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ13" s="1"/>
     </row>
@@ -20676,7 +20846,7 @@
       <c r="AN14" s="2"/>
       <c r="AO14" s="2"/>
       <c r="AP14" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AQ14" s="1"/>
     </row>
@@ -20714,16 +20884,16 @@
         <v>kubectl create serviceaccount tiller --namespace kube-system</v>
       </c>
       <c r="AB15" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD15" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="AC15" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AE15" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -20790,7 +20960,7 @@
       <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AQ16" s="1"/>
     </row>
@@ -20828,10 +20998,10 @@
         <v>kubectl create ns production</v>
       </c>
       <c r="AB17" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC17" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -20933,13 +21103,13 @@
         <v>kubectl describe ingress basic-ingress</v>
       </c>
       <c r="AB19" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC19" s="5" t="s">
         <v>599</v>
       </c>
       <c r="AD19" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE19" s="5" t="s">
         <v>600</v>
@@ -20955,7 +21125,7 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AQ19" s="1"/>
     </row>
@@ -20993,19 +21163,19 @@
         <v>kubectl port-forward monolith 10080:80</v>
       </c>
       <c r="AB20" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AC20" s="5" t="s">
+      <c r="AD20" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="AE20" s="5">
         <v>10080</v>
       </c>
       <c r="AF20" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG20" s="5">
         <v>80</v>
@@ -21019,7 +21189,7 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
       <c r="AP20" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AQ20" s="1"/>
     </row>
@@ -21057,13 +21227,13 @@
         <v>kubectl logs -f monolith</v>
       </c>
       <c r="AB21" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC21" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AC21" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="AD21" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE21" s="5" t="b">
         <v>1</v>
@@ -21079,7 +21249,7 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
       <c r="AP21" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AQ21" s="1"/>
     </row>
@@ -21133,7 +21303,7 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AQ22" s="1"/>
     </row>
@@ -21171,20 +21341,20 @@
         <v>kubectl exec monolith -- ls</v>
       </c>
       <c r="AB23" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AC23" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="AD23" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="21" t="s">
         <v>18</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
@@ -21195,7 +21365,7 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AQ23" s="1"/>
     </row>
@@ -21233,13 +21403,13 @@
         <v>kubectl exec monolith --stdin --tty /bin/sh</v>
       </c>
       <c r="AB24" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC24" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AC24" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="AD24" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE24" s="5"/>
       <c r="AF24" s="2"/>
@@ -21253,7 +21423,7 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AQ24" s="1"/>
     </row>
@@ -21291,22 +21461,22 @@
         <v>kubectl label pods secure-monolith 'secure=enabled'</v>
       </c>
       <c r="AB25" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE25" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF25" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG25" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="AF25" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
@@ -21317,7 +21487,7 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AQ25" s="1"/>
     </row>
@@ -21355,13 +21525,13 @@
         <v>kubectl explain deployment.metadata.name</v>
       </c>
       <c r="AB26" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="2"/>
@@ -21375,7 +21545,7 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AQ26" s="1"/>
     </row>
@@ -21429,7 +21599,7 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AQ27" s="1"/>
     </row>
@@ -21467,25 +21637,25 @@
         <v>kubectl scale deployment nginx --replicas=3</v>
       </c>
       <c r="AB28" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC28" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD28" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="AD28" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>95</v>
       </c>
       <c r="AF28" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG28" s="5">
         <v>3</v>
       </c>
       <c r="AH28" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="2"/>
@@ -21495,7 +21665,7 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="2"/>
       <c r="AP28" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AQ28" s="1"/>
     </row>
@@ -21582,16 +21752,16 @@
         <v>kubectl edit deployment hello</v>
       </c>
       <c r="AB30" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC30" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD30" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="AD30" s="21" t="s">
-        <v>239</v>
-      </c>
       <c r="AE30" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -21604,7 +21774,7 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AQ30" s="1"/>
     </row>
@@ -21658,7 +21828,7 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AQ31" s="1"/>
     </row>
@@ -21696,16 +21866,16 @@
         <v>kubectl rollout history deployment/hello</v>
       </c>
       <c r="AB32" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC32" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD32" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="AD32" s="21" t="s">
-        <v>239</v>
-      </c>
       <c r="AE32" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
@@ -21718,7 +21888,7 @@
       <c r="AN32" s="2"/>
       <c r="AO32" s="2"/>
       <c r="AP32" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AQ32" s="1"/>
     </row>
@@ -21756,16 +21926,16 @@
         <v>kubectl rollout pause deployment/hello</v>
       </c>
       <c r="AB33" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC33" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD33" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="AD33" s="21" t="s">
-        <v>239</v>
-      </c>
       <c r="AE33" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
@@ -21778,10 +21948,10 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="AQ33" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="34" spans="2:43" hidden="1" outlineLevel="1">
@@ -21818,16 +21988,16 @@
         <v>kubectl rollout resume deployment/hello</v>
       </c>
       <c r="AB34" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD34" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="AD34" s="21" t="s">
-        <v>239</v>
-      </c>
       <c r="AE34" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
@@ -21840,10 +22010,10 @@
       <c r="AN34" s="2"/>
       <c r="AO34" s="2"/>
       <c r="AP34" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AQ34" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="2:43" hidden="1" outlineLevel="1">
@@ -21880,16 +22050,16 @@
         <v>kubectl rollout status deployment/hello</v>
       </c>
       <c r="AB35" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC35" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD35" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="AD35" s="21" t="s">
-        <v>239</v>
-      </c>
       <c r="AE35" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
@@ -21902,7 +22072,7 @@
       <c r="AN35" s="2"/>
       <c r="AO35" s="2"/>
       <c r="AP35" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AQ35" s="1"/>
     </row>
@@ -21940,16 +22110,16 @@
         <v>kubectl rollout undo deployment/hello</v>
       </c>
       <c r="AB36" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC36" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD36" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="AD36" s="21" t="s">
-        <v>239</v>
-      </c>
       <c r="AE36" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -21962,7 +22132,7 @@
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
       <c r="AP36" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AQ36" s="1"/>
     </row>
@@ -22052,16 +22222,16 @@
         <v>kubectl apply -f k8s/production -n production</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
@@ -22074,13 +22244,13 @@
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AQ38" s="1"/>
     </row>
     <row r="39" spans="2:43">
       <c r="B39" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
@@ -22125,13 +22295,13 @@
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AQ39" s="1"/>
     </row>
     <row r="40" spans="2:43">
       <c r="B40" s="61" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40" s="62"/>
       <c r="D40" s="62"/>
@@ -22176,7 +22346,7 @@
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AQ40" s="1"/>
     </row>
@@ -22265,13 +22435,13 @@
         <v>kubectl delete deployment nginx</v>
       </c>
       <c r="AB42" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC42" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD42" s="21" t="s">
         <v>238</v>
-      </c>
-      <c r="AD42" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="AE42" s="5" t="s">
         <v>95</v>
@@ -22325,7 +22495,7 @@
         <v>kubectl delete -f basic-ingress.yaml</v>
       </c>
       <c r="AB43" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AC43" s="5" t="s">
         <v>612</v>
@@ -24239,10 +24409,10 @@
         <v>cbt createtable my-table</v>
       </c>
       <c r="AB2" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -24253,7 +24423,7 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM2" s="1"/>
     </row>
@@ -24291,10 +24461,10 @@
         <v>cbt ls my-table</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -24305,7 +24475,7 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM3" s="1"/>
     </row>
@@ -24343,16 +24513,16 @@
         <v>cbt createfamily my-table cf1</v>
       </c>
       <c r="AB4" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD4" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="AC4" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AE4" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -24361,7 +24531,7 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AM4" s="1"/>
     </row>
@@ -24399,37 +24569,37 @@
         <v>cbt set my-table r1 cf1:c1=test-value</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AD5" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE5" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AG5" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH5" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="AG5" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AI5" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AJ5" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="AJ5" s="21" t="s">
+      <c r="AK5" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="AM5" s="1"/>
     </row>
@@ -24467,10 +24637,10 @@
         <v>cbt read my-table</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -24481,7 +24651,7 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AM6" s="1"/>
     </row>
@@ -24519,10 +24689,10 @@
         <v>cbt deletetable my-table</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -24533,7 +24703,7 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM7" s="1"/>
     </row>
@@ -26282,7 +26452,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AK2" s="1"/>
     </row>
@@ -26320,10 +26490,10 @@
         <v>bq mk rtda</v>
       </c>
       <c r="AB3" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>449</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
@@ -26332,7 +26502,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AK3" s="1"/>
     </row>
@@ -26370,27 +26540,27 @@
         <v>bq mk -t rtda.tweets kube-redis-bq/bigquery-setup/schema.json</v>
       </c>
       <c r="AB4" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE4" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="AC4" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="AD4" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AG4" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK4" s="1"/>
     </row>
@@ -26428,10 +26598,10 @@
         <v>bq ls $DEVSHELL_PROJECT_ID:</v>
       </c>
       <c r="AB5" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
@@ -26440,10 +26610,10 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="6" spans="2:37" ht="42" customHeight="1">
@@ -26480,10 +26650,10 @@
         <v>bq query "select string_field_10 as request, count(*) as requestcount from logdata.accesslog group by request order by requestcount desc"</v>
       </c>
       <c r="AB6" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -26492,7 +26662,7 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AK6" s="1"/>
     </row>
@@ -27979,10 +28149,10 @@
         <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:encrypt" -d "{\"plaintext\":\"$PLAINTEXT\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type: application/json"</v>
       </c>
       <c r="AB8" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="AD8" s="21" t="s">
         <v>197</v>
@@ -27991,19 +28161,19 @@
         <v>188</v>
       </c>
       <c r="AF8" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG8" s="5" t="s">
         <v>196</v>
       </c>
       <c r="AH8" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI8" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="AJ8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK8" s="1"/>
     </row>
@@ -28041,10 +28211,10 @@
         <v>curl -v "https://cloudkms.googleapis.com/v1/projects/$DEVSHELL_PROJECT_ID/locations/global/keyRings/$KEYRING_NAME/cryptoKeys/$CRYPTOKEY_NAME:decrypt" -d "{\"ciphertext\":\"$(cat 1.encrypted)\"}" -H "Authorization:Bearer $(gcloud auth application-default print-access-token)" -H "Content-Type:  application/json"</v>
       </c>
       <c r="AB9" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC9" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="AD9" s="21" t="s">
         <v>197</v>
@@ -28053,25 +28223,25 @@
         <v>188</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG9" s="5" t="s">
         <v>196</v>
       </c>
       <c r="AH9" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI9" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="AJ9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="2:37">
       <c r="B10" s="61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -28114,7 +28284,7 @@
     </row>
     <row r="11" spans="2:37">
       <c r="B11" s="61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -28157,7 +28327,7 @@
     </row>
     <row r="12" spans="2:37">
       <c r="B12" s="61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -28200,7 +28370,7 @@
     </row>
     <row r="13" spans="2:37" ht="32.25" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -29797,19 +29967,19 @@
         <v/>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AC2" s="5"/>
       <c r="AD2" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG2" s="5"/>
       <c r="AH2" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="1"/>
@@ -31018,79 +31188,79 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>632</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>639</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -31100,312 +31270,492 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection sqref="A1:A65"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>640</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>641</v>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>644</v>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>645</v>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>646</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>648</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>649</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>650</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>651</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>656</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>657</v>
+        <v>710</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>659</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>660</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>661</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>662</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>663</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>664</v>
+        <v>717</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>665</v>
+        <v>718</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>666</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>667</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>668</v>
+        <v>720</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>669</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>670</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>671</v>
+        <v>723</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>672</v>
+        <v>724</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>673</v>
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>674</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>675</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>677</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>680</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>665</v>
+        <v>731</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>681</v>
+        <v>732</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>682</v>
+        <v>733</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>683</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>684</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>685</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>686</v>
+        <v>735</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>690</v>
+        <v>633</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>668</v>
+        <v>740</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>692</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>693</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>694</v>
+        <v>744</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>695</v>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
